--- a/6- Ingenieria de producto/6.1 - Análisis/04- Archivos de Trabajo/01-Embargos/MID - Módulo Judicial v1.xlsx
+++ b/6- Ingenieria de producto/6.1 - Análisis/04- Archivos de Trabajo/01-Embargos/MID - Módulo Judicial v1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11040" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11040" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="3" state="hidden" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="234">
   <si>
     <t>se toma el menor de ambos</t>
   </si>
@@ -599,27 +599,9 @@
     <t>Salario Mínimo Jubilatorio Provincial</t>
   </si>
   <si>
-    <t>BE Neta - Código agrupador 1 (resta)</t>
-  </si>
-  <si>
-    <t>BE Bruta - Código agrupador 0 (suma)</t>
-  </si>
-  <si>
-    <t>BE Neta - Código agrupador 2 (resta)</t>
-  </si>
-  <si>
-    <t>BE Neta - Código agrupador 3 (resta)</t>
-  </si>
-  <si>
-    <t>BE Neta - Código agrupador 15 (resta)</t>
-  </si>
-  <si>
     <t>Recordar Imp Gan suma</t>
   </si>
   <si>
-    <t>BE Neta - Código agrupador 20 (resta)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> (*) Todas las  Listas son de selección múltiple</t>
   </si>
   <si>
@@ -662,7 +644,82 @@
     <t>Fórmula Embargo</t>
   </si>
   <si>
-    <t>Multiplicador</t>
+    <t>Nombre y Apellido Beneficiario</t>
+  </si>
+  <si>
+    <t>no menos de smvm</t>
+  </si>
+  <si>
+    <t>piso salario mvm</t>
+  </si>
+  <si>
+    <t>SMVM</t>
+  </si>
+  <si>
+    <t>cód</t>
+  </si>
+  <si>
+    <t>Asig Fliar</t>
+  </si>
+  <si>
+    <t>adic Ext Mov</t>
+  </si>
+  <si>
+    <t>Haber bruto sujeto a remuneración (con aportes)</t>
+  </si>
+  <si>
+    <t>Liq normal</t>
+  </si>
+  <si>
+    <t>Haber neto</t>
+  </si>
+  <si>
+    <t>Haber Bruto</t>
+  </si>
+  <si>
+    <t>BE BRUTA (haber bruto)</t>
+  </si>
+  <si>
+    <t>BE NETA (Haber neto)</t>
+  </si>
+  <si>
+    <t>Máximo Embargable</t>
+  </si>
+  <si>
+    <t>Piso (mínimo)</t>
+  </si>
+  <si>
+    <t>Tope (máximo)</t>
+  </si>
+  <si>
+    <t>Variables a seleccionar x el usuario</t>
+  </si>
+  <si>
+    <t>Porcentaje</t>
+  </si>
+  <si>
+    <t>Haber y/o SAC (configuración transacción/Beneficiario)</t>
+  </si>
+  <si>
+    <t>Haber Neto - OS (1)</t>
+  </si>
+  <si>
+    <t>Haber Neto - Seguros (2)</t>
+  </si>
+  <si>
+    <t>Haber Neto - FSF (3)</t>
+  </si>
+  <si>
+    <t>Haber Neto - Ganancias (15)</t>
+  </si>
+  <si>
+    <t>Haber Neto - Descuentos Caja (20)</t>
+  </si>
+  <si>
+    <t>Haber Bruto - (0)</t>
+  </si>
+  <si>
+    <t>Importe</t>
   </si>
 </sst>
 </file>
@@ -837,7 +894,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -913,6 +970,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1153,7 +1216,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1255,10 +1318,10 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1279,27 +1342,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1314,6 +1356,59 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1794,15 +1889,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>374650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>107949</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1812,8 +1907,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1657350" y="5022850"/>
-          <a:ext cx="1739899" cy="1435100"/>
+          <a:off x="825500" y="5327650"/>
+          <a:ext cx="2692399" cy="1885950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1871,7 +1966,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="es-AR" sz="900" b="0" i="0" u="none" strike="noStrike">
+            <a:rPr lang="es-AR" sz="1050" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1883,7 +1978,7 @@
             <a:t>BE: Base embargable</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="es-AR" sz="900">
+            <a:rPr lang="es-AR" sz="1050">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1894,7 +1989,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="es-AR" sz="900" b="0" i="0" u="none" strike="noStrike">
+            <a:rPr lang="es-AR" sz="1050" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1906,7 +2001,7 @@
             <a:t>BEN: Base embargable neta</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="es-AR" sz="900">
+            <a:rPr lang="es-AR" sz="1050">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1917,7 +2012,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="es-AR" sz="900" b="0" i="0" u="none" strike="noStrike">
+            <a:rPr lang="es-AR" sz="1050" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1929,7 +2024,7 @@
             <a:t>BEB: Base embargable bruta</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="es-AR" sz="900">
+            <a:rPr lang="es-AR" sz="1050">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1940,7 +2035,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="es-AR" sz="900" b="0" i="0" u="none" strike="noStrike">
+            <a:rPr lang="es-AR" sz="1050" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1952,7 +2047,7 @@
             <a:t>MNE: Mín no embargable</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="es-AR" sz="900">
+            <a:rPr lang="es-AR" sz="1050">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1963,7 +2058,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="es-AR" sz="900" b="0" i="0" u="none" strike="noStrike">
+            <a:rPr lang="es-AR" sz="1050" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1975,7 +2070,7 @@
             <a:t>PE: Porcentaje embargo</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="es-AR" sz="900">
+            <a:rPr lang="es-AR" sz="1050">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1986,7 +2081,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="es-AR" sz="900" b="0" i="0" u="none" strike="noStrike">
+            <a:rPr lang="es-AR" sz="1050" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1998,7 +2093,7 @@
             <a:t>IET: Importe embargable teórico</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="es-AR" sz="900">
+            <a:rPr lang="es-AR" sz="1050">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -2009,7 +2104,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="es-AR" sz="900" b="0" i="0" u="none" strike="noStrike">
+            <a:rPr lang="es-AR" sz="1050" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -2021,7 +2116,7 @@
             <a:t>ME: Máx embargable</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="es-AR" sz="900">
+            <a:rPr lang="es-AR" sz="1050">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -2045,13 +2140,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2110,13 +2205,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>831850</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2175,13 +2270,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2240,13 +2335,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>984250</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2593,7 +2688,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2732,8 +2827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD32"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2964,7 +3059,9 @@
       </c>
       <c r="J18" s="69"/>
       <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
+      <c r="L18" s="31" t="s">
+        <v>208</v>
+      </c>
       <c r="M18" s="31"/>
       <c r="N18" s="31"/>
       <c r="O18" s="39"/>
@@ -2979,9 +3076,9 @@
       <c r="I19" s="28"/>
       <c r="J19" s="30"/>
       <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="30"/>
       <c r="O19" s="39"/>
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.3">
@@ -3320,10 +3417,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AZ67"/>
+  <dimension ref="B1:AZ69"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3346,22 +3443,22 @@
         <v>166</v>
       </c>
       <c r="AH1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="AL1" t="s">
         <v>189</v>
       </c>
       <c r="AO1" s="14" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="AS1" s="14" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AW1" s="14" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="AZ1" s="14" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="3:52" x14ac:dyDescent="0.3">
@@ -3460,7 +3557,7 @@
     <row r="7" spans="3:52" ht="21" x14ac:dyDescent="0.4">
       <c r="C7" s="38"/>
       <c r="D7" s="73" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E7" s="73"/>
       <c r="F7" s="73"/>
@@ -3495,8 +3592,6 @@
       <c r="J8" s="31"/>
       <c r="K8" s="31"/>
       <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
       <c r="O8" s="31"/>
       <c r="P8" s="39"/>
       <c r="AC8" t="s">
@@ -3520,8 +3615,6 @@
       <c r="J9" s="31"/>
       <c r="K9" s="31"/>
       <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
       <c r="O9" s="31"/>
       <c r="P9" s="39"/>
       <c r="AC9" t="s">
@@ -3537,24 +3630,25 @@
     <row r="10" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C10" s="38"/>
       <c r="D10" s="69" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E10" s="69"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="H10" s="31"/>
+      <c r="F10" s="80" t="s">
+        <v>225</v>
+      </c>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
       <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="75" t="s">
-        <v>202</v>
-      </c>
-      <c r="L10" s="75"/>
+      <c r="J10" s="83" t="s">
+        <v>233</v>
+      </c>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
       <c r="M10" s="48"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="78"/>
-      <c r="P10" s="79"/>
+      <c r="O10" s="80" t="s">
+        <v>196</v>
+      </c>
+      <c r="P10" s="80"/>
       <c r="AC10" t="s">
         <v>153</v>
       </c>
@@ -3563,316 +3657,320 @@
     </row>
     <row r="11" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C11" s="38"/>
-      <c r="D11" s="80" t="s">
+      <c r="D11" s="84" t="s">
         <v>190</v>
       </c>
-      <c r="E11" s="81"/>
+      <c r="E11" s="85"/>
       <c r="F11" s="53"/>
       <c r="G11" s="66">
         <v>1</v>
       </c>
-      <c r="H11" s="31"/>
+      <c r="H11" s="66" t="s">
+        <v>35</v>
+      </c>
       <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="77"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="98"/>
       <c r="M11" s="49"/>
-      <c r="N11" s="78"/>
-      <c r="O11" s="78"/>
-      <c r="P11" s="79"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="82"/>
       <c r="AC11" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="12" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C12" s="38"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
       <c r="G12" s="31"/>
       <c r="H12" s="31"/>
       <c r="I12" s="31"/>
       <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="39"/>
-      <c r="AC12" t="s">
-        <v>155</v>
-      </c>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="68"/>
     </row>
     <row r="13" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C13" s="38"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
+      <c r="D13" s="90" t="s">
+        <v>221</v>
+      </c>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
       <c r="H13" s="31"/>
       <c r="I13" s="31"/>
       <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="39"/>
-      <c r="AC13" t="s">
-        <v>156</v>
-      </c>
+      <c r="K13" s="93"/>
+      <c r="L13" s="95" t="s">
+        <v>226</v>
+      </c>
+      <c r="M13" s="94"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="68"/>
     </row>
     <row r="14" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C14" s="38"/>
-      <c r="D14" s="69" t="s">
-        <v>194</v>
-      </c>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
+      <c r="D14" s="84" t="s">
+        <v>190</v>
+      </c>
+      <c r="E14" s="85"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
       <c r="I14" s="31"/>
       <c r="J14" s="31"/>
-      <c r="K14" s="69" t="s">
-        <v>193</v>
-      </c>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="33"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="31"/>
       <c r="P14" s="39"/>
       <c r="AC14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C15" s="38"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="72"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
       <c r="I15" s="31"/>
       <c r="J15" s="31"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="33"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
       <c r="P15" s="39"/>
       <c r="AC15" t="s">
-        <v>158</v>
-      </c>
-      <c r="AJ15" s="12"/>
-      <c r="AK15" s="12"/>
+        <v>156</v>
+      </c>
     </row>
     <row r="16" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C16" s="38"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
+      <c r="D16" s="69" t="s">
+        <v>232</v>
+      </c>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
       <c r="I16" s="31"/>
       <c r="J16" s="31"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
+      <c r="K16" s="69" t="s">
+        <v>227</v>
+      </c>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="33"/>
       <c r="P16" s="39"/>
       <c r="AC16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C17" s="38"/>
-      <c r="D17" s="69" t="s">
-        <v>195</v>
-      </c>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="72"/>
       <c r="I17" s="31"/>
       <c r="J17" s="31"/>
-      <c r="K17" s="69" t="s">
-        <v>196</v>
-      </c>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="72"/>
       <c r="O17" s="33"/>
       <c r="P17" s="39"/>
       <c r="AC17" t="s">
-        <v>160</v>
-      </c>
-      <c r="AJ17" s="11"/>
-      <c r="AK17" s="11"/>
+        <v>158</v>
+      </c>
+      <c r="AJ17" s="12"/>
+      <c r="AK17" s="12"/>
     </row>
     <row r="18" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C18" s="38"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="72"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
       <c r="I18" s="31"/>
       <c r="J18" s="31"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="33"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
       <c r="P18" s="39"/>
       <c r="AC18" t="s">
-        <v>161</v>
-      </c>
-      <c r="AJ18" s="11"/>
-      <c r="AK18" s="11"/>
+        <v>159</v>
+      </c>
     </row>
     <row r="19" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C19" s="38"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
+      <c r="D19" s="69" t="s">
+        <v>228</v>
+      </c>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
       <c r="I19" s="31"/>
       <c r="J19" s="31"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
+      <c r="K19" s="69" t="s">
+        <v>229</v>
+      </c>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="33"/>
       <c r="P19" s="39"/>
       <c r="AC19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AJ19" s="11"/>
       <c r="AK19" s="11"/>
     </row>
     <row r="20" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C20" s="38"/>
-      <c r="D20" s="69" t="s">
-        <v>197</v>
-      </c>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="72"/>
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
-      <c r="K20" s="69" t="s">
-        <v>199</v>
-      </c>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="69"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="72"/>
       <c r="O20" s="33"/>
       <c r="P20" s="39"/>
       <c r="AC20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AJ20" s="11"/>
       <c r="AK20" s="11"/>
     </row>
     <row r="21" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C21" s="38"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="72"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
       <c r="I21" s="31"/>
       <c r="J21" s="31"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="72"/>
-      <c r="O21" s="33"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
       <c r="P21" s="39"/>
       <c r="AC21" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AJ21" s="11"/>
       <c r="AK21" s="11"/>
     </row>
     <row r="22" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C22" s="38"/>
-      <c r="D22" s="40" t="s">
-        <v>198</v>
-      </c>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
+      <c r="D22" s="69" t="s">
+        <v>230</v>
+      </c>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
       <c r="I22" s="31"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="69" t="s">
+        <v>231</v>
+      </c>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="33"/>
       <c r="P22" s="39"/>
       <c r="AC22" t="s">
-        <v>165</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="AJ22" s="11"/>
+      <c r="AK22" s="11"/>
     </row>
     <row r="23" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C23" s="38"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="72"/>
       <c r="I23" s="31"/>
       <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="33"/>
       <c r="P23" s="39"/>
+      <c r="AC23" t="s">
+        <v>164</v>
+      </c>
+      <c r="AJ23" s="11"/>
+      <c r="AK23" s="11"/>
     </row>
     <row r="24" spans="3:37" x14ac:dyDescent="0.3">
-      <c r="C24" s="50" t="s">
-        <v>200</v>
-      </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
       <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
+      <c r="J24" s="33"/>
       <c r="K24" s="31"/>
       <c r="L24" s="31"/>
       <c r="M24" s="31"/>
       <c r="N24" s="31"/>
       <c r="O24" s="31"/>
       <c r="P24" s="39"/>
-      <c r="AJ24" s="10"/>
-      <c r="AK24" s="10"/>
-    </row>
-    <row r="25" spans="3:37" ht="3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="41"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="43"/>
-    </row>
-    <row r="26" spans="3:37" ht="3.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="38"/>
+      <c r="AC24" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C25" s="38"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="39"/>
+    </row>
+    <row r="26" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C26" s="50" t="s">
+        <v>194</v>
+      </c>
       <c r="D26" s="31"/>
       <c r="E26" s="31"/>
       <c r="F26" s="31"/>
@@ -3886,26 +3984,26 @@
       <c r="N26" s="31"/>
       <c r="O26" s="31"/>
       <c r="P26" s="39"/>
-    </row>
-    <row r="27" spans="3:37" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C27" s="38"/>
-      <c r="D27" s="73" t="s">
-        <v>213</v>
-      </c>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="73"/>
-      <c r="L27" s="73"/>
-      <c r="M27" s="73"/>
-      <c r="N27" s="73"/>
-      <c r="O27" s="73"/>
-      <c r="P27" s="74"/>
-    </row>
-    <row r="28" spans="3:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AJ26" s="10"/>
+      <c r="AK26" s="10"/>
+    </row>
+    <row r="27" spans="3:37" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="41"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="43"/>
+    </row>
+    <row r="28" spans="3:37" ht="3.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="38"/>
       <c r="D28" s="31"/>
       <c r="E28" s="31"/>
@@ -3921,231 +4019,240 @@
       <c r="O28" s="31"/>
       <c r="P28" s="39"/>
     </row>
-    <row r="29" spans="3:37" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:37" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="38"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="56"/>
-      <c r="P29" s="39"/>
-    </row>
-    <row r="30" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="D29" s="73" t="s">
+        <v>207</v>
+      </c>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="73"/>
+      <c r="M29" s="73"/>
+      <c r="N29" s="73"/>
+      <c r="O29" s="73"/>
+      <c r="P29" s="74"/>
+    </row>
+    <row r="30" spans="3:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C30" s="38"/>
       <c r="D30" s="31"/>
       <c r="E30" s="31"/>
       <c r="F30" s="31"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="I30" s="86" t="s">
-        <v>124</v>
-      </c>
-      <c r="J30" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="K30" s="86" t="s">
-        <v>126</v>
-      </c>
-      <c r="L30" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="M30" s="86" t="s">
-        <v>127</v>
-      </c>
-      <c r="N30" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="O30" s="58"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
       <c r="P30" s="39"/>
     </row>
-    <row r="31" spans="3:37" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C31" s="38"/>
       <c r="D31" s="31"/>
       <c r="E31" s="31"/>
       <c r="F31" s="31"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="86"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="86"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="86"/>
-      <c r="N31" s="52">
-        <v>0.2</v>
-      </c>
-      <c r="O31" s="59"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="56"/>
       <c r="P31" s="39"/>
     </row>
-    <row r="32" spans="3:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C32" s="38"/>
       <c r="D32" s="31"/>
       <c r="E32" s="31"/>
       <c r="F32" s="31"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="61"/>
-      <c r="N32" s="61"/>
-      <c r="O32" s="62"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="I32" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="J32" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="K32" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="L32" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="M32" s="79" t="s">
+        <v>127</v>
+      </c>
+      <c r="N32" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="O32" s="58"/>
       <c r="P32" s="39"/>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="38"/>
       <c r="D33" s="31"/>
       <c r="E33" s="31"/>
       <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="79"/>
+      <c r="N33" s="52">
+        <v>0.2</v>
+      </c>
+      <c r="O33" s="59"/>
       <c r="P33" s="39"/>
     </row>
-    <row r="34" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C34" s="38"/>
       <c r="D34" s="31"/>
       <c r="E34" s="31"/>
       <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="62"/>
       <c r="P34" s="39"/>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C35" s="38"/>
       <c r="D35" s="31"/>
       <c r="E35" s="31"/>
       <c r="F35" s="31"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="55"/>
-      <c r="M35" s="56"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
       <c r="N35" s="31"/>
       <c r="O35" s="31"/>
       <c r="P35" s="39"/>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C36" s="38"/>
       <c r="D36" s="31"/>
       <c r="E36" s="31"/>
       <c r="F36" s="31"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="I36" s="86" t="s">
-        <v>124</v>
-      </c>
-      <c r="J36" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="K36" s="86" t="s">
-        <v>129</v>
-      </c>
-      <c r="L36" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="M36" s="64"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
       <c r="O36" s="31"/>
       <c r="P36" s="39"/>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C37" s="38"/>
       <c r="D37" s="31"/>
       <c r="E37" s="31"/>
       <c r="F37" s="31"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="86"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="86"/>
-      <c r="L37" s="51"/>
-      <c r="M37" s="65"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="56"/>
       <c r="N37" s="31"/>
       <c r="O37" s="31"/>
       <c r="P37" s="39"/>
-    </row>
-    <row r="38" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q37" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="38" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C38" s="38"/>
       <c r="D38" s="31"/>
       <c r="E38" s="31"/>
       <c r="F38" s="31"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="61"/>
-      <c r="J38" s="61"/>
-      <c r="K38" s="61"/>
-      <c r="L38" s="61"/>
-      <c r="M38" s="62"/>
-      <c r="N38" s="31"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="I38" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="J38" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="K38" s="79" t="s">
+        <v>129</v>
+      </c>
+      <c r="L38" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="M38" s="64"/>
       <c r="O38" s="31"/>
       <c r="P38" s="39"/>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="Q38" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C39" s="38"/>
       <c r="D39" s="31"/>
       <c r="E39" s="31"/>
       <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="79"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="79"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="65"/>
       <c r="N39" s="31"/>
       <c r="O39" s="31"/>
       <c r="P39" s="39"/>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C40" s="38"/>
       <c r="D40" s="31"/>
       <c r="E40" s="31"/>
       <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="31"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="61"/>
+      <c r="J40" s="61"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="61"/>
+      <c r="M40" s="62"/>
       <c r="N40" s="31"/>
       <c r="O40" s="31"/>
       <c r="P40" s="39"/>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C41" s="38"/>
       <c r="D41" s="31"/>
       <c r="E41" s="31"/>
       <c r="F41" s="31"/>
       <c r="G41" s="31"/>
-      <c r="H41" s="70" t="s">
-        <v>212</v>
-      </c>
-      <c r="I41" s="71"/>
-      <c r="J41" s="72"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
       <c r="K41" s="31"/>
       <c r="L41" s="31"/>
       <c r="M41" s="31"/>
@@ -4153,19 +4260,12 @@
       <c r="O41" s="31"/>
       <c r="P41" s="39"/>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C42" s="38"/>
       <c r="D42" s="31"/>
       <c r="E42" s="31"/>
       <c r="F42" s="31"/>
       <c r="G42" s="31"/>
-      <c r="H42" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="I42" s="82" t="s">
-        <v>211</v>
-      </c>
-      <c r="J42" s="83"/>
       <c r="K42" s="31"/>
       <c r="L42" s="31"/>
       <c r="M42" s="31"/>
@@ -4173,17 +4273,17 @@
       <c r="O42" s="31"/>
       <c r="P42" s="39"/>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C43" s="38"/>
       <c r="D43" s="31"/>
       <c r="E43" s="31"/>
       <c r="F43" s="31"/>
       <c r="G43" s="31"/>
-      <c r="H43" s="63">
-        <v>1094</v>
-      </c>
-      <c r="I43" s="84"/>
-      <c r="J43" s="85"/>
+      <c r="H43" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="I43" s="71"/>
+      <c r="J43" s="72"/>
       <c r="K43" s="31"/>
       <c r="L43" s="31"/>
       <c r="M43" s="31"/>
@@ -4191,15 +4291,19 @@
       <c r="O43" s="31"/>
       <c r="P43" s="39"/>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C44" s="38"/>
       <c r="D44" s="31"/>
       <c r="E44" s="31"/>
       <c r="F44" s="31"/>
       <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
+      <c r="H44" s="63" t="s">
+        <v>204</v>
+      </c>
+      <c r="I44" s="75" t="s">
+        <v>205</v>
+      </c>
+      <c r="J44" s="76"/>
       <c r="K44" s="31"/>
       <c r="L44" s="31"/>
       <c r="M44" s="31"/>
@@ -4207,15 +4311,17 @@
       <c r="O44" s="31"/>
       <c r="P44" s="39"/>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C45" s="38"/>
       <c r="D45" s="31"/>
       <c r="E45" s="31"/>
       <c r="F45" s="31"/>
       <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
+      <c r="H45" s="63">
+        <v>1094</v>
+      </c>
+      <c r="I45" s="77"/>
+      <c r="J45" s="78"/>
       <c r="K45" s="31"/>
       <c r="L45" s="31"/>
       <c r="M45" s="31"/>
@@ -4223,7 +4329,7 @@
       <c r="O45" s="31"/>
       <c r="P45" s="39"/>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C46" s="38"/>
       <c r="D46" s="31"/>
       <c r="E46" s="31"/>
@@ -4239,7 +4345,7 @@
       <c r="O46" s="31"/>
       <c r="P46" s="39"/>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C47" s="38"/>
       <c r="D47" s="31"/>
       <c r="E47" s="31"/>
@@ -4255,28 +4361,24 @@
       <c r="O47" s="31"/>
       <c r="P47" s="39"/>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B48" s="31"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="42"/>
-      <c r="K48" s="42"/>
-      <c r="L48" s="42"/>
-      <c r="M48" s="42"/>
-      <c r="N48" s="42"/>
-      <c r="O48" s="42"/>
-      <c r="P48" s="43"/>
-      <c r="Q48" s="31"/>
-      <c r="R48" s="31"/>
+    <row r="48" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C48" s="38"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="39"/>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
+      <c r="C49" s="38"/>
       <c r="D49" s="31"/>
       <c r="E49" s="31"/>
       <c r="F49" s="31"/>
@@ -4289,26 +4391,24 @@
       <c r="M49" s="31"/>
       <c r="N49" s="31"/>
       <c r="O49" s="31"/>
-      <c r="P49" s="31"/>
-      <c r="Q49" s="31"/>
-      <c r="R49" s="31"/>
+      <c r="P49" s="39"/>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="31"/>
-      <c r="M50" s="31"/>
-      <c r="N50" s="31"/>
-      <c r="O50" s="31"/>
-      <c r="P50" s="31"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="42"/>
+      <c r="M50" s="42"/>
+      <c r="N50" s="42"/>
+      <c r="O50" s="42"/>
+      <c r="P50" s="43"/>
       <c r="Q50" s="31"/>
       <c r="R50" s="31"/>
     </row>
@@ -4635,60 +4735,100 @@
       <c r="Q67" s="31"/>
       <c r="R67" s="31"/>
     </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B68" s="31"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="31"/>
+      <c r="H68" s="31"/>
+      <c r="I68" s="31"/>
+      <c r="J68" s="31"/>
+      <c r="K68" s="31"/>
+      <c r="L68" s="31"/>
+      <c r="M68" s="31"/>
+      <c r="N68" s="31"/>
+      <c r="O68" s="31"/>
+      <c r="P68" s="31"/>
+      <c r="Q68" s="31"/>
+      <c r="R68" s="31"/>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B69" s="31"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="31"/>
+      <c r="K69" s="31"/>
+      <c r="L69" s="31"/>
+      <c r="M69" s="31"/>
+      <c r="N69" s="31"/>
+      <c r="O69" s="31"/>
+      <c r="P69" s="31"/>
+      <c r="Q69" s="31"/>
+      <c r="R69" s="31"/>
+    </row>
   </sheetData>
   <sortState ref="AC2:AF21">
     <sortCondition ref="AC2:AC21"/>
   </sortState>
-  <mergeCells count="28">
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="D27:P27"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="D21:H21"/>
+  <mergeCells count="30">
     <mergeCell ref="D7:P7"/>
     <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K16:N16"/>
     <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="D29:P29"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="K38:K39"/>
   </mergeCells>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:F11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:F12">
       <formula1>$AL$2:$AL$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15:H15">
-      <formula1>$AC$3:$AC$22</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17:H17">
+      <formula1>$AC$3:$AC$24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K15:O15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K17:O17">
       <formula1>$AH$3:$AH$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18:H18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20:H20">
       <formula1>$AO$2:$AO$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K18:O18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K20:O20">
       <formula1>$AS$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21:H21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D23:H23">
       <formula1>$AW$2:$AW$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K21:O21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K23:O23">
       <formula1>$AZ$2:$AZ$9</formula1>
     </dataValidation>
   </dataValidations>
@@ -4700,14 +4840,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
     <col min="6" max="6" width="44.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4730,23 +4871,23 @@
       <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C3" s="67" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="I3" s="68" t="s">
-        <v>98</v>
-      </c>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
+      <c r="C3" s="86" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="I3" s="87" t="s">
+        <v>220</v>
+      </c>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="88" t="s">
         <v>97</v>
       </c>
       <c r="D4" s="17" t="s">
@@ -4761,7 +4902,7 @@
         <v>94</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="16">
+      <c r="C5" s="88">
         <v>9002</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -4783,7 +4924,7 @@
       <c r="A6" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="19" t="s">
         <v>90</v>
       </c>
       <c r="D6">
@@ -4949,7 +5090,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D17">
         <v>1026</v>
       </c>
@@ -4963,7 +5104,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D18">
         <v>1016</v>
       </c>
@@ -4978,7 +5119,7 @@
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
     </row>
-    <row r="19" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D19">
         <v>1007</v>
       </c>
@@ -4992,7 +5133,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D20">
         <v>375</v>
       </c>
@@ -5006,7 +5147,7 @@
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
     </row>
-    <row r="21" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D21">
         <v>373</v>
       </c>
@@ -5020,7 +5161,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D22">
         <v>372</v>
       </c>
@@ -5040,7 +5181,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D23">
         <v>368</v>
       </c>
@@ -5054,7 +5195,7 @@
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
     </row>
-    <row r="24" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D24">
         <v>367</v>
       </c>
@@ -5068,7 +5209,10 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>224</v>
+      </c>
       <c r="D25">
         <v>365</v>
       </c>
@@ -5085,7 +5229,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="91" t="s">
+        <v>218</v>
+      </c>
       <c r="J26">
         <v>1251</v>
       </c>
@@ -5093,7 +5240,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B27" s="92" t="s">
+        <v>222</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>211</v>
+      </c>
       <c r="J27">
         <v>2751</v>
       </c>
@@ -5101,7 +5254,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B28" s="92" t="s">
+        <v>223</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>211</v>
+      </c>
       <c r="J28">
         <v>2731</v>
       </c>
@@ -5109,7 +5268,25 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B29" s="91"/>
+      <c r="C29" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="89" t="s">
+        <v>212</v>
+      </c>
+      <c r="E29" s="89" t="s">
+        <v>213</v>
+      </c>
+      <c r="F29" s="89" t="s">
+        <v>214</v>
+      </c>
+      <c r="G29" s="89" t="s">
+        <v>215</v>
+      </c>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
       <c r="J29">
         <v>1912</v>
       </c>
@@ -5117,7 +5294,23 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="91"/>
+      <c r="C30" s="89">
+        <v>9002</v>
+      </c>
+      <c r="D30" s="89">
+        <v>1026</v>
+      </c>
+      <c r="E30" s="89">
+        <v>373</v>
+      </c>
+      <c r="F30" s="89">
+        <v>3035</v>
+      </c>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
       <c r="J30">
         <v>1556</v>
       </c>
@@ -5125,7 +5318,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B31" s="92" t="s">
+        <v>211</v>
+      </c>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
       <c r="J31">
         <v>2721</v>
       </c>
@@ -5133,177 +5333,187 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G35" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G38" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
+    <row r="39" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="D36" t="s">
+      <c r="B39" s="5"/>
+      <c r="D39" t="s">
         <v>16</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F39" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G39" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H39" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I36" s="7" t="s">
+      <c r="I39" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F40" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G40" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="H40" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I37" s="6" t="s">
+      <c r="I40" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E38" t="s">
-        <v>28</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" t="s">
-        <v>25</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>23</v>
-      </c>
-      <c r="E40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>20</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E44" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="5"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
+      <c r="B47" s="5"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E48" t="s">
         <v>16</v>
       </c>
-      <c r="G45" s="19" t="s">
+      <c r="G48" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H45" s="19" t="s">
+      <c r="H48" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>13</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G49" s="3">
         <v>9002</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="H49" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row r="50" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>10</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F50" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>2</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C55" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5349,20 +5559,20 @@
       <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="I3" s="68" t="s">
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="I3" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C4" s="16" t="s">

--- a/6- Ingenieria de producto/6.1 - Análisis/04- Archivos de Trabajo/01-Embargos/MID - Módulo Judicial v1.xlsx
+++ b/6- Ingenieria de producto/6.1 - Análisis/04- Archivos de Trabajo/01-Embargos/MID - Módulo Judicial v1.xlsx
@@ -4,21 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11040" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11040" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="Bandeja de Oficios" sheetId="4" r:id="rId2"/>
-    <sheet name="Registrar Cálculo Oficio" sheetId="5" r:id="rId3"/>
-    <sheet name="embargo porcentual" sheetId="1" r:id="rId4"/>
-    <sheet name="embargo suma fija" sheetId="2" r:id="rId5"/>
+    <sheet name="Registrar Oficio" sheetId="6" r:id="rId2"/>
+    <sheet name="Bandeja de Oficios" sheetId="4" r:id="rId3"/>
+    <sheet name="Registrar Cálculo Oficio" sheetId="5" r:id="rId4"/>
+    <sheet name="embargo porcentual" sheetId="1" r:id="rId5"/>
+    <sheet name="embargo suma fija" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="253">
   <si>
     <t>se toma el menor de ambos</t>
   </si>
@@ -422,9 +424,6 @@
     <t>Autos Caratulados</t>
   </si>
   <si>
-    <t>Alimenticios</t>
-  </si>
-  <si>
     <t>Fecha Expediente</t>
   </si>
   <si>
@@ -720,6 +719,66 @@
   </si>
   <si>
     <t>Importe</t>
+  </si>
+  <si>
+    <t>Registrar Oficio Judicial</t>
+  </si>
+  <si>
+    <t>Tipo Oficio Judicial</t>
+  </si>
+  <si>
+    <t>Oficio Judicial Físico</t>
+  </si>
+  <si>
+    <t>Oficio Judicial Digital</t>
+  </si>
+  <si>
+    <t>&lt;Seleccionar&gt;</t>
+  </si>
+  <si>
+    <t>Embargo Ejecutirvo</t>
+  </si>
+  <si>
+    <t>Embargo Alimenticio</t>
+  </si>
+  <si>
+    <t>Nombre y Apellido Pasivo Demandado</t>
+  </si>
+  <si>
+    <t>DNI Pasivo Demandado</t>
+  </si>
+  <si>
+    <t>Oficio Cancelación</t>
+  </si>
+  <si>
+    <t>Juzgado actuante</t>
+  </si>
+  <si>
+    <t>Oficio cambio Cuenta Depósito</t>
+  </si>
+  <si>
+    <t>Origen Oficio Judicial</t>
+  </si>
+  <si>
+    <t>Sucursal Bancaria</t>
+  </si>
+  <si>
+    <t>N° Cta - Caja de Ahorro</t>
+  </si>
+  <si>
+    <t>Nombre y Apellido Beneficiario/a</t>
+  </si>
+  <si>
+    <t>DNI Beneficiario/a</t>
+  </si>
+  <si>
+    <t>Comentarios/Observaciones</t>
+  </si>
+  <si>
+    <t>Domicilio Juzgado</t>
+  </si>
+  <si>
+    <t>Monto a embargar</t>
   </si>
 </sst>
 </file>
@@ -729,7 +788,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -888,6 +947,13 @@
     <font>
       <i/>
       <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1216,7 +1282,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1336,49 +1402,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="13" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1401,6 +1425,33 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1410,6 +1461,62 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="13" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -1433,6 +1540,316 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>165669</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>145473</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>596132</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="2 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="955378" y="145473"/>
+          <a:ext cx="10904499" cy="761422"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219356</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>93501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>695606</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>37217</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="3 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1009065" y="994046"/>
+          <a:ext cx="476250" cy="2014971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>597891</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>24507</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>202726</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>251508</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="6 Rectángulo redondeado"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7843818" y="5517834"/>
+          <a:ext cx="955653" cy="227001"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" b="1"/>
+            <a:t>Volver</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>513876</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>24507</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>681418</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>251508</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="7 Rectángulo redondeado"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9110621" y="5517834"/>
+          <a:ext cx="957252" cy="227001"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" b="1"/>
+            <a:t>Guardar</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>137761</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>24507</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>6365</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>251508</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="8 Rectángulo redondeado"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10313925" y="5517834"/>
+          <a:ext cx="956185" cy="227001"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" b="1"/>
+            <a:t>Registrar</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1720,7 +2137,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2688,7 +3105,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2825,10 +3242,607 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:AC31"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="3.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" customWidth="1"/>
+    <col min="6" max="6" width="5.88671875" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" customWidth="1"/>
+    <col min="10" max="10" width="17.44140625" customWidth="1"/>
+    <col min="11" max="11" width="6.44140625" customWidth="1"/>
+    <col min="13" max="13" width="8.21875" customWidth="1"/>
+    <col min="16" max="16" width="15.88671875" customWidth="1"/>
+    <col min="17" max="17" width="8.77734375" customWidth="1"/>
+    <col min="19" max="19" width="11.88671875" customWidth="1"/>
+    <col min="28" max="29" width="27.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:29" x14ac:dyDescent="0.3">
+      <c r="AB1" s="104" t="s">
+        <v>245</v>
+      </c>
+      <c r="AC1" s="104" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="3:29" x14ac:dyDescent="0.3">
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="AB2" t="s">
+        <v>237</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="3:29" x14ac:dyDescent="0.3">
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="AB3" t="s">
+        <v>235</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="3:29" x14ac:dyDescent="0.3">
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="AB4" t="s">
+        <v>236</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="3:29" x14ac:dyDescent="0.3">
+      <c r="AC5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="3:29" x14ac:dyDescent="0.3">
+      <c r="C6" s="35"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="37"/>
+      <c r="AC6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="3:29" ht="21" x14ac:dyDescent="0.4">
+      <c r="C7" s="38"/>
+      <c r="D7" s="86" t="s">
+        <v>233</v>
+      </c>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="86"/>
+      <c r="Q7" s="87"/>
+    </row>
+    <row r="8" spans="3:29" x14ac:dyDescent="0.3">
+      <c r="C8" s="38"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="39"/>
+    </row>
+    <row r="9" spans="3:29" x14ac:dyDescent="0.3">
+      <c r="C9" s="38"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="31"/>
+    </row>
+    <row r="10" spans="3:29" x14ac:dyDescent="0.3">
+      <c r="C10" s="38"/>
+      <c r="D10" s="82" t="s">
+        <v>245</v>
+      </c>
+      <c r="E10" s="82"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="110" t="s">
+        <v>234</v>
+      </c>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="69" t="s">
+        <v>132</v>
+      </c>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73" t="s">
+        <v>134</v>
+      </c>
+      <c r="M10" s="31"/>
+      <c r="N10" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="112"/>
+      <c r="R10" s="73"/>
+    </row>
+    <row r="11" spans="3:29" x14ac:dyDescent="0.3">
+      <c r="C11" s="38"/>
+      <c r="D11" s="107" t="s">
+        <v>237</v>
+      </c>
+      <c r="E11" s="108"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="H11" s="73"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="84"/>
+      <c r="P11" s="85"/>
+      <c r="Q11" s="112"/>
+      <c r="R11" s="73"/>
+    </row>
+    <row r="12" spans="3:29" x14ac:dyDescent="0.3">
+      <c r="C12" s="38"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="31"/>
+    </row>
+    <row r="13" spans="3:29" x14ac:dyDescent="0.3">
+      <c r="C13" s="38"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="31"/>
+    </row>
+    <row r="14" spans="3:29" x14ac:dyDescent="0.3">
+      <c r="C14" s="38"/>
+      <c r="D14" s="88" t="s">
+        <v>243</v>
+      </c>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="82" t="s">
+        <v>251</v>
+      </c>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="82" t="s">
+        <v>240</v>
+      </c>
+      <c r="N14" s="82"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="112"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+    </row>
+    <row r="15" spans="3:29" x14ac:dyDescent="0.3">
+      <c r="C15" s="38"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="83"/>
+      <c r="N15" s="84"/>
+      <c r="O15" s="84"/>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="112"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+    </row>
+    <row r="16" spans="3:29" x14ac:dyDescent="0.3">
+      <c r="C16" s="38"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="31"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C17" s="38"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="31"/>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C18" s="38"/>
+      <c r="D18" s="82" t="s">
+        <v>241</v>
+      </c>
+      <c r="E18" s="82"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="82" t="s">
+        <v>248</v>
+      </c>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="82" t="s">
+        <v>249</v>
+      </c>
+      <c r="L18" s="82"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="P18" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="31"/>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C19" s="38"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="105"/>
+      <c r="L19" s="106"/>
+      <c r="M19" s="114"/>
+      <c r="N19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="31"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C20" s="38"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="115" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C21" s="38"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C22" s="38"/>
+      <c r="D22" s="82" t="s">
+        <v>140</v>
+      </c>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="82" t="s">
+        <v>246</v>
+      </c>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="110" t="s">
+        <v>247</v>
+      </c>
+      <c r="M22" s="110"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="88" t="s">
+        <v>142</v>
+      </c>
+      <c r="P22" s="88"/>
+      <c r="Q22" s="113"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C23" s="38"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="83"/>
+      <c r="M23" s="85"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="83"/>
+      <c r="P23" s="85"/>
+      <c r="Q23" s="113"/>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C24" s="38"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="39"/>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C25" s="38"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="39"/>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C26" s="38"/>
+      <c r="D26" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="39"/>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C27" s="38"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="39"/>
+    </row>
+    <row r="28" spans="3:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="38"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="39"/>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C29" s="38"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="39"/>
+    </row>
+    <row r="30" spans="3:19" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="41"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="43"/>
+    </row>
+    <row r="31" spans="3:19" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="D7:Q7"/>
+    <mergeCell ref="D10:E10"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:E11">
+      <formula1>$AB$2:$AB$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11:H11">
+      <formula1>$AC$2:$AC$6</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2859,20 +3873,20 @@
     </row>
     <row r="7" spans="3:16" ht="21" x14ac:dyDescent="0.4">
       <c r="C7" s="38"/>
-      <c r="D7" s="73" t="s">
+      <c r="D7" s="86" t="s">
         <v>131</v>
       </c>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="74"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="87"/>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C8" s="38"/>
@@ -2906,13 +3920,13 @@
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C10" s="38"/>
-      <c r="D10" s="69" t="s">
+      <c r="D10" s="82" t="s">
         <v>132</v>
       </c>
-      <c r="E10" s="69"/>
+      <c r="E10" s="82"/>
       <c r="F10" s="33"/>
       <c r="G10" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H10" s="31"/>
       <c r="I10" s="31" t="s">
@@ -2923,7 +3937,7 @@
       <c r="L10" s="31"/>
       <c r="M10" s="31"/>
       <c r="N10" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O10" s="39"/>
       <c r="P10" s="31"/>
@@ -2940,9 +3954,7 @@
       <c r="K11" s="29"/>
       <c r="L11" s="30"/>
       <c r="M11" s="31"/>
-      <c r="N11" s="32" t="s">
-        <v>134</v>
-      </c>
+      <c r="N11" s="32"/>
       <c r="O11" s="30"/>
       <c r="P11" s="33"/>
     </row>
@@ -2981,32 +3993,32 @@
     <row r="14" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C14" s="38"/>
       <c r="D14" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
       <c r="H14" s="31"/>
-      <c r="I14" s="69" t="s">
-        <v>138</v>
-      </c>
-      <c r="J14" s="69"/>
+      <c r="I14" s="82" t="s">
+        <v>137</v>
+      </c>
+      <c r="J14" s="82"/>
       <c r="K14" s="33"/>
       <c r="L14" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N14" s="31"/>
       <c r="O14" s="39"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C15" s="38"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="72"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="85"/>
       <c r="H15" s="31"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="72"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="85"/>
       <c r="K15" s="33"/>
       <c r="L15" s="2"/>
       <c r="N15" s="31"/>
@@ -3023,7 +4035,7 @@
       <c r="J16" s="31"/>
       <c r="K16" s="31"/>
       <c r="L16" s="40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N16" s="31"/>
       <c r="O16" s="39"/>
@@ -3045,22 +4057,22 @@
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C18" s="38"/>
-      <c r="D18" s="69" t="s">
-        <v>141</v>
-      </c>
-      <c r="E18" s="69"/>
+      <c r="D18" s="82" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18" s="82"/>
       <c r="F18" s="31"/>
       <c r="G18" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="H18" s="31"/>
+      <c r="I18" s="82" t="s">
         <v>142</v>
       </c>
-      <c r="H18" s="31"/>
-      <c r="I18" s="69" t="s">
-        <v>143</v>
-      </c>
-      <c r="J18" s="69"/>
+      <c r="J18" s="82"/>
       <c r="K18" s="31"/>
       <c r="L18" s="31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M18" s="31"/>
       <c r="N18" s="31"/>
@@ -3174,7 +4186,7 @@
     <row r="26" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C26" s="38"/>
       <c r="D26" s="44" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E26" s="31"/>
       <c r="F26" s="31"/>
@@ -3202,7 +4214,7 @@
       <c r="M27" s="45"/>
       <c r="N27" s="45"/>
       <c r="O27" s="46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.3">
@@ -3415,11 +4427,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AZ69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
@@ -3440,93 +4452,93 @@
   <sheetData>
     <row r="1" spans="3:52" x14ac:dyDescent="0.3">
       <c r="AC1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AH1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AO1" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="AL1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AO1" s="14" t="s">
+      <c r="AS1" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="AS1" s="14" t="s">
+      <c r="AW1" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="AW1" s="14" t="s">
+      <c r="AZ1" s="14" t="s">
         <v>200</v>
-      </c>
-      <c r="AZ1" s="14" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="2" spans="3:52" x14ac:dyDescent="0.3">
       <c r="AO2" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AS2" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="AW2" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="AW2" s="14" t="s">
-        <v>179</v>
-      </c>
       <c r="AZ2" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="3:52" x14ac:dyDescent="0.3">
       <c r="AC3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AH3" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AL3" s="47" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AO3" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AW3" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AZ3" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="3:52" x14ac:dyDescent="0.3">
       <c r="AC4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AH4" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AL4" s="47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AO4" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AZ4" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="3:52" x14ac:dyDescent="0.3">
       <c r="AC5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AH5" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AL5" s="47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AO5" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AZ5" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="3:52" x14ac:dyDescent="0.3">
@@ -3545,40 +4557,40 @@
       <c r="O6" s="36"/>
       <c r="P6" s="37"/>
       <c r="AC6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AH6" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AZ6" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="3:52" ht="21" x14ac:dyDescent="0.4">
       <c r="C7" s="38"/>
-      <c r="D7" s="73" t="s">
-        <v>202</v>
-      </c>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="74"/>
+      <c r="D7" s="86" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="87"/>
       <c r="AC7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AH7" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AZ7" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="3:52" x14ac:dyDescent="0.3">
@@ -3595,13 +4607,13 @@
       <c r="O8" s="31"/>
       <c r="P8" s="39"/>
       <c r="AC8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AH8" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AZ8" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="3:52" x14ac:dyDescent="0.3">
@@ -3618,49 +4630,49 @@
       <c r="O9" s="31"/>
       <c r="P9" s="39"/>
       <c r="AC9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AH9" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AZ9" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C10" s="38"/>
-      <c r="D10" s="69" t="s">
+      <c r="D10" s="82" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10" s="82"/>
+      <c r="F10" s="88" t="s">
+        <v>224</v>
+      </c>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="48"/>
+      <c r="O10" s="88" t="s">
         <v>195</v>
       </c>
-      <c r="E10" s="69"/>
-      <c r="F10" s="80" t="s">
-        <v>225</v>
-      </c>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="83" t="s">
-        <v>233</v>
-      </c>
-      <c r="K10" s="83"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="48"/>
-      <c r="O10" s="80" t="s">
-        <v>196</v>
-      </c>
-      <c r="P10" s="80"/>
+      <c r="P10" s="88"/>
       <c r="AC10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AJ10" s="13"/>
       <c r="AK10" s="13"/>
     </row>
     <row r="11" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C11" s="38"/>
-      <c r="D11" s="84" t="s">
-        <v>190</v>
-      </c>
-      <c r="E11" s="85"/>
+      <c r="D11" s="95" t="s">
+        <v>189</v>
+      </c>
+      <c r="E11" s="96"/>
       <c r="F11" s="53"/>
       <c r="G11" s="66">
         <v>1</v>
@@ -3669,14 +4681,14 @@
         <v>35</v>
       </c>
       <c r="I11" s="31"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="97"/>
-      <c r="L11" s="98"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="93"/>
       <c r="M11" s="49"/>
-      <c r="O11" s="81"/>
-      <c r="P11" s="82"/>
+      <c r="O11" s="89"/>
+      <c r="P11" s="90"/>
       <c r="AC11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="3:52" x14ac:dyDescent="0.3">
@@ -3697,29 +4709,29 @@
     </row>
     <row r="13" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C13" s="38"/>
-      <c r="D13" s="90" t="s">
-        <v>221</v>
+      <c r="D13" s="76" t="s">
+        <v>220</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="53"/>
       <c r="H13" s="31"/>
       <c r="I13" s="31"/>
       <c r="J13" s="31"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="95" t="s">
-        <v>226</v>
-      </c>
-      <c r="M13" s="94"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="81" t="s">
+        <v>225</v>
+      </c>
+      <c r="M13" s="80"/>
       <c r="N13" s="67"/>
       <c r="O13" s="67"/>
       <c r="P13" s="68"/>
     </row>
     <row r="14" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C14" s="38"/>
-      <c r="D14" s="84" t="s">
-        <v>190</v>
-      </c>
-      <c r="E14" s="85"/>
+      <c r="D14" s="95" t="s">
+        <v>189</v>
+      </c>
+      <c r="E14" s="96"/>
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
       <c r="H14" s="31"/>
@@ -3732,7 +4744,7 @@
       <c r="O14" s="31"/>
       <c r="P14" s="39"/>
       <c r="AC14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="3:52" x14ac:dyDescent="0.3">
@@ -3751,49 +4763,49 @@
       <c r="O15" s="31"/>
       <c r="P15" s="39"/>
       <c r="AC15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C16" s="38"/>
-      <c r="D16" s="69" t="s">
-        <v>232</v>
-      </c>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
+      <c r="D16" s="82" t="s">
+        <v>231</v>
+      </c>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
       <c r="I16" s="31"/>
       <c r="J16" s="31"/>
-      <c r="K16" s="69" t="s">
-        <v>227</v>
-      </c>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
+      <c r="K16" s="82" t="s">
+        <v>226</v>
+      </c>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="82"/>
       <c r="O16" s="33"/>
       <c r="P16" s="39"/>
       <c r="AC16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C17" s="38"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="72"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="85"/>
       <c r="I17" s="31"/>
       <c r="J17" s="31"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="72"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="85"/>
       <c r="O17" s="33"/>
       <c r="P17" s="39"/>
       <c r="AC17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AJ17" s="12"/>
       <c r="AK17" s="12"/>
@@ -3814,51 +4826,51 @@
       <c r="O18" s="31"/>
       <c r="P18" s="39"/>
       <c r="AC18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C19" s="38"/>
-      <c r="D19" s="69" t="s">
-        <v>228</v>
-      </c>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
+      <c r="D19" s="82" t="s">
+        <v>227</v>
+      </c>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
       <c r="I19" s="31"/>
       <c r="J19" s="31"/>
-      <c r="K19" s="69" t="s">
-        <v>229</v>
-      </c>
-      <c r="L19" s="69"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="69"/>
+      <c r="K19" s="82" t="s">
+        <v>228</v>
+      </c>
+      <c r="L19" s="82"/>
+      <c r="M19" s="82"/>
+      <c r="N19" s="82"/>
       <c r="O19" s="33"/>
       <c r="P19" s="39"/>
       <c r="AC19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AJ19" s="11"/>
       <c r="AK19" s="11"/>
     </row>
     <row r="20" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C20" s="38"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="72"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="85"/>
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="72"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="84"/>
+      <c r="N20" s="85"/>
       <c r="O20" s="33"/>
       <c r="P20" s="39"/>
       <c r="AC20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AJ20" s="11"/>
       <c r="AK20" s="11"/>
@@ -3879,53 +4891,53 @@
       <c r="O21" s="31"/>
       <c r="P21" s="39"/>
       <c r="AC21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AJ21" s="11"/>
       <c r="AK21" s="11"/>
     </row>
     <row r="22" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C22" s="38"/>
-      <c r="D22" s="69" t="s">
-        <v>230</v>
-      </c>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
+      <c r="D22" s="82" t="s">
+        <v>229</v>
+      </c>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
       <c r="I22" s="31"/>
       <c r="J22" s="31"/>
-      <c r="K22" s="69" t="s">
-        <v>231</v>
-      </c>
-      <c r="L22" s="69"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="69"/>
+      <c r="K22" s="82" t="s">
+        <v>230</v>
+      </c>
+      <c r="L22" s="82"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="82"/>
       <c r="O22" s="33"/>
       <c r="P22" s="39"/>
       <c r="AC22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AJ22" s="11"/>
       <c r="AK22" s="11"/>
     </row>
     <row r="23" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C23" s="38"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="72"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="85"/>
       <c r="I23" s="31"/>
       <c r="J23" s="31"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="72"/>
+      <c r="K23" s="83"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="84"/>
+      <c r="N23" s="85"/>
       <c r="O23" s="33"/>
       <c r="P23" s="39"/>
       <c r="AC23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AJ23" s="11"/>
       <c r="AK23" s="11"/>
@@ -3933,7 +4945,7 @@
     <row r="24" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C24" s="38"/>
       <c r="D24" s="40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E24" s="36"/>
       <c r="F24" s="36"/>
@@ -3948,7 +4960,7 @@
       <c r="O24" s="31"/>
       <c r="P24" s="39"/>
       <c r="AC24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="3:37" x14ac:dyDescent="0.3">
@@ -3969,7 +4981,7 @@
     </row>
     <row r="26" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C26" s="50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D26" s="31"/>
       <c r="E26" s="31"/>
@@ -4021,21 +5033,21 @@
     </row>
     <row r="29" spans="3:37" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="38"/>
-      <c r="D29" s="73" t="s">
-        <v>207</v>
-      </c>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="73"/>
-      <c r="O29" s="73"/>
-      <c r="P29" s="74"/>
+      <c r="D29" s="86" t="s">
+        <v>206</v>
+      </c>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="86"/>
+      <c r="N29" s="86"/>
+      <c r="O29" s="86"/>
+      <c r="P29" s="87"/>
     </row>
     <row r="30" spans="3:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C30" s="38"/>
@@ -4078,19 +5090,19 @@
       <c r="H32" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="I32" s="79" t="s">
+      <c r="I32" s="101" t="s">
         <v>124</v>
       </c>
       <c r="J32" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="K32" s="79" t="s">
+      <c r="K32" s="101" t="s">
         <v>126</v>
       </c>
       <c r="L32" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="M32" s="79" t="s">
+      <c r="M32" s="101" t="s">
         <v>127</v>
       </c>
       <c r="N32" s="33" t="s">
@@ -4106,11 +5118,11 @@
       <c r="F33" s="31"/>
       <c r="G33" s="57"/>
       <c r="H33" s="51"/>
-      <c r="I33" s="79"/>
+      <c r="I33" s="101"/>
       <c r="J33" s="51"/>
-      <c r="K33" s="79"/>
+      <c r="K33" s="101"/>
       <c r="L33" s="51"/>
-      <c r="M33" s="79"/>
+      <c r="M33" s="101"/>
       <c r="N33" s="52">
         <v>0.2</v>
       </c>
@@ -4181,7 +5193,7 @@
       <c r="O37" s="31"/>
       <c r="P37" s="39"/>
       <c r="Q37" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38" spans="3:17" x14ac:dyDescent="0.3">
@@ -4191,15 +5203,15 @@
       <c r="F38" s="31"/>
       <c r="G38" s="57"/>
       <c r="H38" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="I38" s="79" t="s">
+        <v>202</v>
+      </c>
+      <c r="I38" s="101" t="s">
         <v>124</v>
       </c>
       <c r="J38" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="K38" s="79" t="s">
+      <c r="K38" s="101" t="s">
         <v>129</v>
       </c>
       <c r="L38" s="33" t="s">
@@ -4209,7 +5221,7 @@
       <c r="O38" s="31"/>
       <c r="P38" s="39"/>
       <c r="Q38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="3:17" x14ac:dyDescent="0.3">
@@ -4219,9 +5231,9 @@
       <c r="F39" s="31"/>
       <c r="G39" s="57"/>
       <c r="H39" s="51"/>
-      <c r="I39" s="79"/>
+      <c r="I39" s="101"/>
       <c r="J39" s="51"/>
-      <c r="K39" s="79"/>
+      <c r="K39" s="101"/>
       <c r="L39" s="51"/>
       <c r="M39" s="65"/>
       <c r="N39" s="31"/>
@@ -4279,11 +5291,11 @@
       <c r="E43" s="31"/>
       <c r="F43" s="31"/>
       <c r="G43" s="31"/>
-      <c r="H43" s="70" t="s">
-        <v>206</v>
-      </c>
-      <c r="I43" s="71"/>
-      <c r="J43" s="72"/>
+      <c r="H43" s="83" t="s">
+        <v>205</v>
+      </c>
+      <c r="I43" s="84"/>
+      <c r="J43" s="85"/>
       <c r="K43" s="31"/>
       <c r="L43" s="31"/>
       <c r="M43" s="31"/>
@@ -4298,12 +5310,12 @@
       <c r="F44" s="31"/>
       <c r="G44" s="31"/>
       <c r="H44" s="63" t="s">
+        <v>203</v>
+      </c>
+      <c r="I44" s="97" t="s">
         <v>204</v>
       </c>
-      <c r="I44" s="75" t="s">
-        <v>205</v>
-      </c>
-      <c r="J44" s="76"/>
+      <c r="J44" s="98"/>
       <c r="K44" s="31"/>
       <c r="L44" s="31"/>
       <c r="M44" s="31"/>
@@ -4320,8 +5332,8 @@
       <c r="H45" s="63">
         <v>1094</v>
       </c>
-      <c r="I45" s="77"/>
-      <c r="J45" s="78"/>
+      <c r="I45" s="99"/>
+      <c r="J45" s="100"/>
       <c r="K45" s="31"/>
       <c r="L45" s="31"/>
       <c r="M45" s="31"/>
@@ -4778,6 +5790,23 @@
     <sortCondition ref="AC2:AC21"/>
   </sortState>
   <mergeCells count="30">
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="D29:P29"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="D23:H23"/>
     <mergeCell ref="D7:P7"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D17:H17"/>
@@ -4791,23 +5820,6 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="F10:H10"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="D29:P29"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="K38:K39"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:F12">
@@ -4838,7 +5850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N56"/>
   <sheetViews>
@@ -4871,23 +5883,23 @@
       <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="102" t="s">
+        <v>218</v>
+      </c>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="I3" s="103" t="s">
         <v>219</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="I3" s="87" t="s">
-        <v>220</v>
-      </c>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="74" t="s">
         <v>97</v>
       </c>
       <c r="D4" s="17" t="s">
@@ -4902,7 +5914,7 @@
         <v>94</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="88">
+      <c r="C5" s="74">
         <v>9002</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -5211,7 +6223,7 @@
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D25">
         <v>365</v>
@@ -5230,8 +6242,8 @@
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="91" t="s">
-        <v>218</v>
+      <c r="B26" s="77" t="s">
+        <v>217</v>
       </c>
       <c r="J26">
         <v>1251</v>
@@ -5241,11 +6253,11 @@
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B27" s="92" t="s">
-        <v>222</v>
+      <c r="B27" s="78" t="s">
+        <v>221</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J27">
         <v>2751</v>
@@ -5255,11 +6267,11 @@
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="92" t="s">
-        <v>223</v>
+      <c r="B28" s="78" t="s">
+        <v>222</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J28">
         <v>2731</v>
@@ -5269,21 +6281,21 @@
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="91"/>
-      <c r="C29" s="89" t="s">
+      <c r="B29" s="77"/>
+      <c r="C29" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="D29" s="89" t="s">
+      <c r="D29" s="75" t="s">
+        <v>211</v>
+      </c>
+      <c r="E29" s="75" t="s">
         <v>212</v>
       </c>
-      <c r="E29" s="89" t="s">
+      <c r="F29" s="75" t="s">
         <v>213</v>
       </c>
-      <c r="F29" s="89" t="s">
+      <c r="G29" s="75" t="s">
         <v>214</v>
-      </c>
-      <c r="G29" s="89" t="s">
-        <v>215</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -5295,17 +6307,17 @@
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B30" s="91"/>
-      <c r="C30" s="89">
+      <c r="B30" s="77"/>
+      <c r="C30" s="75">
         <v>9002</v>
       </c>
-      <c r="D30" s="89">
+      <c r="D30" s="75">
         <v>1026</v>
       </c>
-      <c r="E30" s="89">
+      <c r="E30" s="75">
         <v>373</v>
       </c>
-      <c r="F30" s="89">
+      <c r="F30" s="75">
         <v>3035</v>
       </c>
       <c r="G30" s="19"/>
@@ -5319,8 +6331,8 @@
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B31" s="92" t="s">
-        <v>211</v>
+      <c r="B31" s="78" t="s">
+        <v>210</v>
       </c>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -5335,12 +6347,12 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -5527,7 +6539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N53"/>
   <sheetViews>
@@ -5559,20 +6571,20 @@
       <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="102" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="I3" s="87" t="s">
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="I3" s="103" t="s">
         <v>98</v>
       </c>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C4" s="16" t="s">

--- a/6- Ingenieria de producto/6.1 - Análisis/04- Archivos de Trabajo/01-Embargos/MID - Módulo Judicial v1.xlsx
+++ b/6- Ingenieria de producto/6.1 - Análisis/04- Archivos de Trabajo/01-Embargos/MID - Módulo Judicial v1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="254">
   <si>
     <t>se toma el menor de ambos</t>
   </si>
@@ -779,6 +779,9 @@
   </si>
   <si>
     <t>Monto a embargar</t>
+  </si>
+  <si>
+    <t>HU-MID-OFI-001-Registrar Oficio Judicial</t>
   </si>
 </sst>
 </file>
@@ -1282,7 +1285,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1426,6 +1429,23 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1437,14 +1457,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="13" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1470,53 +1514,21 @@
     <xf numFmtId="0" fontId="18" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="13" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -3105,7 +3117,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3244,8 +3256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:AC31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3266,16 +3278,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="AB1" s="104" t="s">
+      <c r="AB1" s="82" t="s">
         <v>245</v>
       </c>
-      <c r="AC1" s="104" t="s">
+      <c r="AC1" s="82" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="2" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
       <c r="AB2" t="s">
         <v>237</v>
       </c>
@@ -3309,43 +3321,45 @@
       </c>
     </row>
     <row r="6" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C6" s="35"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="37"/>
+      <c r="C6" s="116" t="s">
+        <v>253</v>
+      </c>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="117"/>
+      <c r="O6" s="117"/>
+      <c r="P6" s="117"/>
+      <c r="Q6" s="118"/>
       <c r="AC6" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="7" spans="3:29" ht="21" x14ac:dyDescent="0.4">
       <c r="C7" s="38"/>
-      <c r="D7" s="86" t="s">
+      <c r="D7" s="99" t="s">
         <v>233</v>
       </c>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="86"/>
-      <c r="N7" s="86"/>
-      <c r="O7" s="86"/>
-      <c r="P7" s="86"/>
-      <c r="Q7" s="87"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="99"/>
+      <c r="Q7" s="100"/>
     </row>
     <row r="8" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C8" s="38"/>
@@ -3384,16 +3398,16 @@
     </row>
     <row r="10" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C10" s="38"/>
-      <c r="D10" s="82" t="s">
+      <c r="D10" s="90" t="s">
         <v>245</v>
       </c>
-      <c r="E10" s="82"/>
+      <c r="E10" s="90"/>
       <c r="F10" s="73"/>
-      <c r="G10" s="110" t="s">
+      <c r="G10" s="84" t="s">
         <v>234</v>
       </c>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
       <c r="J10" s="69" t="s">
         <v>132</v>
       </c>
@@ -3402,34 +3416,34 @@
         <v>134</v>
       </c>
       <c r="M10" s="31"/>
-      <c r="N10" s="82" t="s">
+      <c r="N10" s="90" t="s">
         <v>133</v>
       </c>
-      <c r="O10" s="82"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="112"/>
+      <c r="O10" s="90"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="86"/>
       <c r="R10" s="73"/>
     </row>
     <row r="11" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C11" s="38"/>
-      <c r="D11" s="107" t="s">
+      <c r="D11" s="97" t="s">
         <v>237</v>
       </c>
-      <c r="E11" s="108"/>
+      <c r="E11" s="98"/>
       <c r="F11" s="34"/>
       <c r="G11" s="3" t="s">
         <v>237</v>
       </c>
       <c r="H11" s="73"/>
       <c r="I11" s="31"/>
-      <c r="J11" s="109"/>
+      <c r="J11" s="83"/>
       <c r="K11" s="31"/>
       <c r="L11" s="2"/>
       <c r="M11" s="31"/>
-      <c r="N11" s="83"/>
-      <c r="O11" s="84"/>
-      <c r="P11" s="85"/>
-      <c r="Q11" s="112"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="86"/>
       <c r="R11" s="73"/>
     </row>
     <row r="12" spans="3:29" x14ac:dyDescent="0.3">
@@ -3470,26 +3484,26 @@
     </row>
     <row r="14" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C14" s="38"/>
-      <c r="D14" s="88" t="s">
+      <c r="D14" s="91" t="s">
         <v>243</v>
       </c>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
       <c r="H14" s="73"/>
-      <c r="I14" s="82" t="s">
+      <c r="I14" s="90" t="s">
         <v>251</v>
       </c>
-      <c r="J14" s="82"/>
-      <c r="K14" s="82"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
       <c r="L14" s="31"/>
-      <c r="M14" s="82" t="s">
+      <c r="M14" s="90" t="s">
         <v>240</v>
       </c>
-      <c r="N14" s="82"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="82"/>
-      <c r="Q14" s="112"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="90"/>
+      <c r="Q14" s="86"/>
       <c r="R14" s="31"/>
       <c r="S14" s="31"/>
     </row>
@@ -3504,11 +3518,11 @@
       <c r="J15" s="71"/>
       <c r="K15" s="30"/>
       <c r="L15" s="31"/>
-      <c r="M15" s="83"/>
-      <c r="N15" s="84"/>
-      <c r="O15" s="84"/>
-      <c r="P15" s="85"/>
-      <c r="Q15" s="112"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="93"/>
+      <c r="O15" s="93"/>
+      <c r="P15" s="94"/>
+      <c r="Q15" s="86"/>
       <c r="R15" s="31"/>
       <c r="S15" s="31"/>
     </row>
@@ -3550,21 +3564,21 @@
     </row>
     <row r="18" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C18" s="38"/>
-      <c r="D18" s="82" t="s">
+      <c r="D18" s="90" t="s">
         <v>241</v>
       </c>
-      <c r="E18" s="82"/>
+      <c r="E18" s="90"/>
       <c r="F18" s="31"/>
-      <c r="G18" s="82" t="s">
+      <c r="G18" s="90" t="s">
         <v>248</v>
       </c>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
       <c r="J18" s="73"/>
-      <c r="K18" s="82" t="s">
+      <c r="K18" s="90" t="s">
         <v>249</v>
       </c>
-      <c r="L18" s="82"/>
+      <c r="L18" s="90"/>
       <c r="M18" s="73"/>
       <c r="N18" s="31" t="s">
         <v>138</v>
@@ -3577,16 +3591,16 @@
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C19" s="38"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="106"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="96"/>
       <c r="F19" s="31"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="85"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="94"/>
       <c r="J19" s="73"/>
-      <c r="K19" s="105"/>
-      <c r="L19" s="106"/>
-      <c r="M19" s="114"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="88"/>
       <c r="N19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="39"/>
@@ -3604,7 +3618,7 @@
       <c r="K20" s="31"/>
       <c r="L20" s="31"/>
       <c r="M20" s="31"/>
-      <c r="N20" s="115" t="s">
+      <c r="N20" s="89" t="s">
         <v>139</v>
       </c>
       <c r="P20" s="31"/>
@@ -3633,47 +3647,47 @@
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C22" s="38"/>
-      <c r="D22" s="82" t="s">
+      <c r="D22" s="90" t="s">
         <v>140</v>
       </c>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
       <c r="G22" s="31"/>
-      <c r="H22" s="82" t="s">
+      <c r="H22" s="90" t="s">
         <v>246</v>
       </c>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="90"/>
       <c r="K22" s="31"/>
-      <c r="L22" s="110" t="s">
+      <c r="L22" s="84" t="s">
         <v>247</v>
       </c>
-      <c r="M22" s="110"/>
+      <c r="M22" s="84"/>
       <c r="N22" s="31"/>
-      <c r="O22" s="88" t="s">
+      <c r="O22" s="91" t="s">
         <v>142</v>
       </c>
-      <c r="P22" s="88"/>
-      <c r="Q22" s="113"/>
+      <c r="P22" s="91"/>
+      <c r="Q22" s="87"/>
       <c r="R22" s="31"/>
       <c r="S22" s="31"/>
     </row>
     <row r="23" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C23" s="38"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="85"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="94"/>
       <c r="G23" s="31"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="85"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="93"/>
+      <c r="J23" s="94"/>
       <c r="K23" s="31"/>
-      <c r="L23" s="83"/>
-      <c r="M23" s="85"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="94"/>
       <c r="N23" s="31"/>
-      <c r="O23" s="83"/>
-      <c r="P23" s="85"/>
-      <c r="Q23" s="113"/>
+      <c r="O23" s="92"/>
+      <c r="P23" s="94"/>
+      <c r="Q23" s="87"/>
     </row>
     <row r="24" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C24" s="38"/>
@@ -3798,30 +3812,31 @@
     </row>
     <row r="31" spans="3:19" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="24">
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="D7:Q7"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="C6:Q6"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="H22:J22"/>
     <mergeCell ref="M14:P14"/>
     <mergeCell ref="D14:G14"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="M15:P15"/>
     <mergeCell ref="G18:I18"/>
     <mergeCell ref="K18:L18"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="D7:Q7"/>
-    <mergeCell ref="D10:E10"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:E11">
@@ -3873,20 +3888,20 @@
     </row>
     <row r="7" spans="3:16" ht="21" x14ac:dyDescent="0.4">
       <c r="C7" s="38"/>
-      <c r="D7" s="86" t="s">
+      <c r="D7" s="99" t="s">
         <v>131</v>
       </c>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="86"/>
-      <c r="N7" s="86"/>
-      <c r="O7" s="87"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="100"/>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C8" s="38"/>
@@ -3920,10 +3935,10 @@
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C10" s="38"/>
-      <c r="D10" s="82" t="s">
+      <c r="D10" s="90" t="s">
         <v>132</v>
       </c>
-      <c r="E10" s="82"/>
+      <c r="E10" s="90"/>
       <c r="F10" s="33"/>
       <c r="G10" s="33" t="s">
         <v>134</v>
@@ -3999,10 +4014,10 @@
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
       <c r="H14" s="31"/>
-      <c r="I14" s="82" t="s">
+      <c r="I14" s="90" t="s">
         <v>137</v>
       </c>
-      <c r="J14" s="82"/>
+      <c r="J14" s="90"/>
       <c r="K14" s="33"/>
       <c r="L14" s="31" t="s">
         <v>138</v>
@@ -4012,13 +4027,13 @@
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C15" s="38"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="85"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="94"/>
       <c r="H15" s="31"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="85"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="94"/>
       <c r="K15" s="33"/>
       <c r="L15" s="2"/>
       <c r="N15" s="31"/>
@@ -4057,19 +4072,19 @@
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C18" s="38"/>
-      <c r="D18" s="82" t="s">
+      <c r="D18" s="90" t="s">
         <v>140</v>
       </c>
-      <c r="E18" s="82"/>
+      <c r="E18" s="90"/>
       <c r="F18" s="31"/>
       <c r="G18" s="33" t="s">
         <v>141</v>
       </c>
       <c r="H18" s="31"/>
-      <c r="I18" s="82" t="s">
+      <c r="I18" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="J18" s="82"/>
+      <c r="J18" s="90"/>
       <c r="K18" s="31"/>
       <c r="L18" s="31" t="s">
         <v>207</v>
@@ -4568,21 +4583,21 @@
     </row>
     <row r="7" spans="3:52" ht="21" x14ac:dyDescent="0.4">
       <c r="C7" s="38"/>
-      <c r="D7" s="86" t="s">
+      <c r="D7" s="99" t="s">
         <v>201</v>
       </c>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="86"/>
-      <c r="N7" s="86"/>
-      <c r="O7" s="86"/>
-      <c r="P7" s="87"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="100"/>
       <c r="AC7" t="s">
         <v>149</v>
       </c>
@@ -4641,26 +4656,26 @@
     </row>
     <row r="10" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C10" s="38"/>
-      <c r="D10" s="82" t="s">
+      <c r="D10" s="90" t="s">
         <v>194</v>
       </c>
-      <c r="E10" s="82"/>
-      <c r="F10" s="88" t="s">
+      <c r="E10" s="90"/>
+      <c r="F10" s="91" t="s">
         <v>224</v>
       </c>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
       <c r="I10" s="31"/>
-      <c r="J10" s="94" t="s">
+      <c r="J10" s="111" t="s">
         <v>232</v>
       </c>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111"/>
       <c r="M10" s="48"/>
-      <c r="O10" s="88" t="s">
+      <c r="O10" s="91" t="s">
         <v>195</v>
       </c>
-      <c r="P10" s="88"/>
+      <c r="P10" s="91"/>
       <c r="AC10" t="s">
         <v>152</v>
       </c>
@@ -4669,10 +4684,10 @@
     </row>
     <row r="11" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C11" s="38"/>
-      <c r="D11" s="95" t="s">
+      <c r="D11" s="112" t="s">
         <v>189</v>
       </c>
-      <c r="E11" s="96"/>
+      <c r="E11" s="113"/>
       <c r="F11" s="53"/>
       <c r="G11" s="66">
         <v>1</v>
@@ -4681,12 +4696,12 @@
         <v>35</v>
       </c>
       <c r="I11" s="31"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="93"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="110"/>
       <c r="M11" s="49"/>
-      <c r="O11" s="89"/>
-      <c r="P11" s="90"/>
+      <c r="O11" s="106"/>
+      <c r="P11" s="107"/>
       <c r="AC11" t="s">
         <v>153</v>
       </c>
@@ -4728,10 +4743,10 @@
     </row>
     <row r="14" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C14" s="38"/>
-      <c r="D14" s="95" t="s">
+      <c r="D14" s="112" t="s">
         <v>189</v>
       </c>
-      <c r="E14" s="96"/>
+      <c r="E14" s="113"/>
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
       <c r="H14" s="31"/>
@@ -4768,21 +4783,21 @@
     </row>
     <row r="16" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C16" s="38"/>
-      <c r="D16" s="82" t="s">
+      <c r="D16" s="90" t="s">
         <v>231</v>
       </c>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
       <c r="I16" s="31"/>
       <c r="J16" s="31"/>
-      <c r="K16" s="82" t="s">
+      <c r="K16" s="90" t="s">
         <v>226</v>
       </c>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="82"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="90"/>
       <c r="O16" s="33"/>
       <c r="P16" s="39"/>
       <c r="AC16" t="s">
@@ -4791,17 +4806,17 @@
     </row>
     <row r="17" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C17" s="38"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="85"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="94"/>
       <c r="I17" s="31"/>
       <c r="J17" s="31"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="85"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="93"/>
+      <c r="N17" s="94"/>
       <c r="O17" s="33"/>
       <c r="P17" s="39"/>
       <c r="AC17" t="s">
@@ -4831,21 +4846,21 @@
     </row>
     <row r="19" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C19" s="38"/>
-      <c r="D19" s="82" t="s">
+      <c r="D19" s="90" t="s">
         <v>227</v>
       </c>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="90"/>
       <c r="I19" s="31"/>
       <c r="J19" s="31"/>
-      <c r="K19" s="82" t="s">
+      <c r="K19" s="90" t="s">
         <v>228</v>
       </c>
-      <c r="L19" s="82"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="82"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="90"/>
       <c r="O19" s="33"/>
       <c r="P19" s="39"/>
       <c r="AC19" t="s">
@@ -4856,17 +4871,17 @@
     </row>
     <row r="20" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C20" s="38"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="85"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="94"/>
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
-      <c r="K20" s="83"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="84"/>
-      <c r="N20" s="85"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="93"/>
+      <c r="M20" s="93"/>
+      <c r="N20" s="94"/>
       <c r="O20" s="33"/>
       <c r="P20" s="39"/>
       <c r="AC20" t="s">
@@ -4898,21 +4913,21 @@
     </row>
     <row r="22" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C22" s="38"/>
-      <c r="D22" s="82" t="s">
+      <c r="D22" s="90" t="s">
         <v>229</v>
       </c>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
       <c r="I22" s="31"/>
       <c r="J22" s="31"/>
-      <c r="K22" s="82" t="s">
+      <c r="K22" s="90" t="s">
         <v>230</v>
       </c>
-      <c r="L22" s="82"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="82"/>
+      <c r="L22" s="90"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="90"/>
       <c r="O22" s="33"/>
       <c r="P22" s="39"/>
       <c r="AC22" t="s">
@@ -4923,17 +4938,17 @@
     </row>
     <row r="23" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C23" s="38"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="85"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="94"/>
       <c r="I23" s="31"/>
       <c r="J23" s="31"/>
-      <c r="K23" s="83"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="84"/>
-      <c r="N23" s="85"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="93"/>
+      <c r="M23" s="93"/>
+      <c r="N23" s="94"/>
       <c r="O23" s="33"/>
       <c r="P23" s="39"/>
       <c r="AC23" t="s">
@@ -5033,21 +5048,21 @@
     </row>
     <row r="29" spans="3:37" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="38"/>
-      <c r="D29" s="86" t="s">
+      <c r="D29" s="99" t="s">
         <v>206</v>
       </c>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="86"/>
-      <c r="K29" s="86"/>
-      <c r="L29" s="86"/>
-      <c r="M29" s="86"/>
-      <c r="N29" s="86"/>
-      <c r="O29" s="86"/>
-      <c r="P29" s="87"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="99"/>
+      <c r="M29" s="99"/>
+      <c r="N29" s="99"/>
+      <c r="O29" s="99"/>
+      <c r="P29" s="100"/>
     </row>
     <row r="30" spans="3:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C30" s="38"/>
@@ -5090,19 +5105,19 @@
       <c r="H32" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="I32" s="101" t="s">
+      <c r="I32" s="105" t="s">
         <v>124</v>
       </c>
       <c r="J32" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="K32" s="101" t="s">
+      <c r="K32" s="105" t="s">
         <v>126</v>
       </c>
       <c r="L32" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="M32" s="101" t="s">
+      <c r="M32" s="105" t="s">
         <v>127</v>
       </c>
       <c r="N32" s="33" t="s">
@@ -5118,11 +5133,11 @@
       <c r="F33" s="31"/>
       <c r="G33" s="57"/>
       <c r="H33" s="51"/>
-      <c r="I33" s="101"/>
+      <c r="I33" s="105"/>
       <c r="J33" s="51"/>
-      <c r="K33" s="101"/>
+      <c r="K33" s="105"/>
       <c r="L33" s="51"/>
-      <c r="M33" s="101"/>
+      <c r="M33" s="105"/>
       <c r="N33" s="52">
         <v>0.2</v>
       </c>
@@ -5205,13 +5220,13 @@
       <c r="H38" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="I38" s="101" t="s">
+      <c r="I38" s="105" t="s">
         <v>124</v>
       </c>
       <c r="J38" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="K38" s="101" t="s">
+      <c r="K38" s="105" t="s">
         <v>129</v>
       </c>
       <c r="L38" s="33" t="s">
@@ -5231,9 +5246,9 @@
       <c r="F39" s="31"/>
       <c r="G39" s="57"/>
       <c r="H39" s="51"/>
-      <c r="I39" s="101"/>
+      <c r="I39" s="105"/>
       <c r="J39" s="51"/>
-      <c r="K39" s="101"/>
+      <c r="K39" s="105"/>
       <c r="L39" s="51"/>
       <c r="M39" s="65"/>
       <c r="N39" s="31"/>
@@ -5291,11 +5306,11 @@
       <c r="E43" s="31"/>
       <c r="F43" s="31"/>
       <c r="G43" s="31"/>
-      <c r="H43" s="83" t="s">
+      <c r="H43" s="92" t="s">
         <v>205</v>
       </c>
-      <c r="I43" s="84"/>
-      <c r="J43" s="85"/>
+      <c r="I43" s="93"/>
+      <c r="J43" s="94"/>
       <c r="K43" s="31"/>
       <c r="L43" s="31"/>
       <c r="M43" s="31"/>
@@ -5312,10 +5327,10 @@
       <c r="H44" s="63" t="s">
         <v>203</v>
       </c>
-      <c r="I44" s="97" t="s">
+      <c r="I44" s="101" t="s">
         <v>204</v>
       </c>
-      <c r="J44" s="98"/>
+      <c r="J44" s="102"/>
       <c r="K44" s="31"/>
       <c r="L44" s="31"/>
       <c r="M44" s="31"/>
@@ -5332,8 +5347,8 @@
       <c r="H45" s="63">
         <v>1094</v>
       </c>
-      <c r="I45" s="99"/>
-      <c r="J45" s="100"/>
+      <c r="I45" s="103"/>
+      <c r="J45" s="104"/>
       <c r="K45" s="31"/>
       <c r="L45" s="31"/>
       <c r="M45" s="31"/>
@@ -5790,23 +5805,6 @@
     <sortCondition ref="AC2:AC21"/>
   </sortState>
   <mergeCells count="30">
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="D29:P29"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="D23:H23"/>
     <mergeCell ref="D7:P7"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D17:H17"/>
@@ -5820,6 +5818,23 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="F10:H10"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="D29:P29"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="K38:K39"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:F12">
@@ -5883,20 +5898,20 @@
       <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C3" s="102" t="s">
+      <c r="C3" s="114" t="s">
         <v>218</v>
       </c>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="I3" s="103" t="s">
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="I3" s="115" t="s">
         <v>219</v>
       </c>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C4" s="74" t="s">
@@ -6571,20 +6586,20 @@
       <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C3" s="102" t="s">
+      <c r="C3" s="114" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="I3" s="103" t="s">
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="I3" s="115" t="s">
         <v>98</v>
       </c>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C4" s="16" t="s">

--- a/6- Ingenieria de producto/6.1 - Análisis/04- Archivos de Trabajo/01-Embargos/MID - Módulo Judicial v1.xlsx
+++ b/6- Ingenieria de producto/6.1 - Análisis/04- Archivos de Trabajo/01-Embargos/MID - Módulo Judicial v1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11040" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11040" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="3" state="hidden" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="257">
   <si>
     <t>se toma el menor de ambos</t>
   </si>
@@ -427,15 +427,6 @@
     <t>Fecha Expediente</t>
   </si>
   <si>
-    <t>Tipo Embargo</t>
-  </si>
-  <si>
-    <t>Nombre y Apellido Demandado</t>
-  </si>
-  <si>
-    <t>DNI Demandado</t>
-  </si>
-  <si>
     <t>% Embargo *</t>
   </si>
   <si>
@@ -643,9 +634,6 @@
     <t>Fórmula Embargo</t>
   </si>
   <si>
-    <t>Nombre y Apellido Beneficiario</t>
-  </si>
-  <si>
     <t>no menos de smvm</t>
   </si>
   <si>
@@ -782,6 +770,27 @@
   </si>
   <si>
     <t>HU-MID-OFI-001-Registrar Oficio Judicial</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> N° Exp</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Nombre Pasivo Demandado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNI Pasivo </t>
+  </si>
+  <si>
+    <t>% Embargo</t>
+  </si>
+  <si>
+    <t>Importe Embargo</t>
+  </si>
+  <si>
+    <t>Tipo oficio judicial</t>
   </si>
 </sst>
 </file>
@@ -1285,7 +1294,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1330,9 +1339,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1347,7 +1353,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1414,9 +1419,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1442,10 +1444,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1457,10 +1459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1469,31 +1468,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="13" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1514,19 +1510,40 @@
     <xf numFmtId="0" fontId="18" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="13" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1871,8 +1888,8 @@
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>26670</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>733252</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
@@ -1923,11 +1940,11 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>6349</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>6927</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
+      <xdr:colOff>289011</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
@@ -1953,8 +1970,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="800099" y="215900"/>
-          <a:ext cx="9982201" cy="711200"/>
+          <a:off x="796058" y="187036"/>
+          <a:ext cx="10306426" cy="719859"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2100,7 +2117,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>789940</xdr:colOff>
+      <xdr:colOff>166485</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>143510</xdr:rowOff>
     </xdr:to>
@@ -2318,10 +2335,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>374650</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
@@ -2336,8 +2353,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="825500" y="5327650"/>
-          <a:ext cx="2692399" cy="1885950"/>
+          <a:off x="1708150" y="5594350"/>
+          <a:ext cx="1809749" cy="1619250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3117,7 +3134,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3256,8 +3273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:AC31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView showGridLines="0" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W30" sqref="W30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3278,91 +3295,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="AB1" s="82" t="s">
-        <v>245</v>
-      </c>
-      <c r="AC1" s="82" t="s">
-        <v>234</v>
+      <c r="AB1" s="79" t="s">
+        <v>241</v>
+      </c>
+      <c r="AC1" s="79" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="R2" s="91"/>
-      <c r="S2" s="91"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="95"/>
       <c r="AB2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AC2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="3:29" x14ac:dyDescent="0.3">
       <c r="R3" s="31"/>
       <c r="S3" s="31"/>
       <c r="AB3" t="s">
+        <v>231</v>
+      </c>
+      <c r="AC3" t="s">
         <v>235</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="4" spans="3:29" x14ac:dyDescent="0.3">
       <c r="R4" s="31"/>
       <c r="S4" s="31"/>
       <c r="AB4" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AC4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="3:29" x14ac:dyDescent="0.3">
       <c r="AC5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C6" s="116" t="s">
-        <v>253</v>
-      </c>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="117"/>
-      <c r="L6" s="117"/>
-      <c r="M6" s="117"/>
-      <c r="N6" s="117"/>
-      <c r="O6" s="117"/>
-      <c r="P6" s="117"/>
-      <c r="Q6" s="118"/>
+      <c r="C6" s="98" t="s">
+        <v>249</v>
+      </c>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="99"/>
+      <c r="Q6" s="100"/>
       <c r="AC6" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="3:29" ht="21" x14ac:dyDescent="0.4">
-      <c r="C7" s="38"/>
-      <c r="D7" s="99" t="s">
-        <v>233</v>
-      </c>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
-      <c r="P7" s="99"/>
-      <c r="Q7" s="100"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="96" t="s">
+        <v>229</v>
+      </c>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="96"/>
+      <c r="O7" s="96"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="97"/>
     </row>
     <row r="8" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C8" s="38"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="31"/>
       <c r="E8" s="31"/>
       <c r="F8" s="31"/>
@@ -3376,10 +3393,10 @@
       <c r="N8" s="31"/>
       <c r="O8" s="31"/>
       <c r="P8" s="31"/>
-      <c r="Q8" s="39"/>
+      <c r="Q8" s="38"/>
     </row>
     <row r="9" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C9" s="38"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="31"/>
       <c r="E9" s="31"/>
       <c r="F9" s="31"/>
@@ -3393,61 +3410,61 @@
       <c r="N9" s="31"/>
       <c r="O9" s="31"/>
       <c r="P9" s="31"/>
-      <c r="Q9" s="39"/>
+      <c r="Q9" s="38"/>
       <c r="R9" s="31"/>
     </row>
     <row r="10" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C10" s="38"/>
-      <c r="D10" s="90" t="s">
-        <v>245</v>
-      </c>
-      <c r="E10" s="90"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="84" t="s">
-        <v>234</v>
-      </c>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="69" t="s">
+      <c r="C10" s="37"/>
+      <c r="D10" s="92" t="s">
+        <v>241</v>
+      </c>
+      <c r="E10" s="92"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="81" t="s">
+        <v>230</v>
+      </c>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73" t="s">
+      <c r="K10" s="71"/>
+      <c r="L10" s="71" t="s">
         <v>134</v>
       </c>
       <c r="M10" s="31"/>
-      <c r="N10" s="90" t="s">
+      <c r="N10" s="92" t="s">
         <v>133</v>
       </c>
-      <c r="O10" s="90"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="86"/>
-      <c r="R10" s="73"/>
+      <c r="O10" s="92"/>
+      <c r="P10" s="92"/>
+      <c r="Q10" s="83"/>
+      <c r="R10" s="71"/>
     </row>
     <row r="11" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C11" s="38"/>
-      <c r="D11" s="97" t="s">
-        <v>237</v>
-      </c>
-      <c r="E11" s="98"/>
-      <c r="F11" s="34"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="93" t="s">
+        <v>233</v>
+      </c>
+      <c r="E11" s="94"/>
+      <c r="F11" s="33"/>
       <c r="G11" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="H11" s="73"/>
+        <v>233</v>
+      </c>
+      <c r="H11" s="71"/>
       <c r="I11" s="31"/>
-      <c r="J11" s="83"/>
+      <c r="J11" s="80"/>
       <c r="K11" s="31"/>
       <c r="L11" s="2"/>
       <c r="M11" s="31"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="94"/>
-      <c r="Q11" s="86"/>
-      <c r="R11" s="73"/>
+      <c r="N11" s="89"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="91"/>
+      <c r="Q11" s="83"/>
+      <c r="R11" s="71"/>
     </row>
     <row r="12" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C12" s="38"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="31"/>
       <c r="E12" s="31"/>
       <c r="F12" s="31"/>
@@ -3461,11 +3478,11 @@
       <c r="N12" s="31"/>
       <c r="O12" s="31"/>
       <c r="P12" s="31"/>
-      <c r="Q12" s="39"/>
+      <c r="Q12" s="38"/>
       <c r="R12" s="31"/>
     </row>
     <row r="13" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C13" s="38"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="31"/>
       <c r="E13" s="31"/>
       <c r="F13" s="31"/>
@@ -3479,55 +3496,55 @@
       <c r="N13" s="31"/>
       <c r="O13" s="31"/>
       <c r="P13" s="31"/>
-      <c r="Q13" s="39"/>
+      <c r="Q13" s="38"/>
       <c r="R13" s="31"/>
     </row>
     <row r="14" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C14" s="38"/>
-      <c r="D14" s="91" t="s">
-        <v>243</v>
-      </c>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="90" t="s">
-        <v>251</v>
-      </c>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="95" t="s">
+        <v>239</v>
+      </c>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="92" t="s">
+        <v>247</v>
+      </c>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92"/>
       <c r="L14" s="31"/>
-      <c r="M14" s="90" t="s">
-        <v>240</v>
-      </c>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="86"/>
+      <c r="M14" s="92" t="s">
+        <v>236</v>
+      </c>
+      <c r="N14" s="92"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="83"/>
       <c r="R14" s="31"/>
       <c r="S14" s="31"/>
     </row>
     <row r="15" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C15" s="38"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="71"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="69"/>
       <c r="K15" s="30"/>
       <c r="L15" s="31"/>
-      <c r="M15" s="92"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="86"/>
+      <c r="M15" s="89"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="90"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="83"/>
       <c r="R15" s="31"/>
       <c r="S15" s="31"/>
     </row>
     <row r="16" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C16" s="38"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="31"/>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
@@ -3541,11 +3558,11 @@
       <c r="N16" s="31"/>
       <c r="O16" s="31"/>
       <c r="P16" s="31"/>
-      <c r="Q16" s="39"/>
+      <c r="Q16" s="38"/>
       <c r="R16" s="31"/>
     </row>
     <row r="17" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C17" s="38"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
@@ -3559,75 +3576,75 @@
       <c r="N17" s="31"/>
       <c r="O17" s="31"/>
       <c r="P17" s="31"/>
-      <c r="Q17" s="39"/>
+      <c r="Q17" s="38"/>
       <c r="R17" s="31"/>
     </row>
     <row r="18" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C18" s="38"/>
-      <c r="D18" s="90" t="s">
-        <v>241</v>
-      </c>
-      <c r="E18" s="90"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="92" t="s">
+        <v>237</v>
+      </c>
+      <c r="E18" s="92"/>
       <c r="F18" s="31"/>
-      <c r="G18" s="90" t="s">
+      <c r="G18" s="92" t="s">
+        <v>244</v>
+      </c>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="92" t="s">
+        <v>245</v>
+      </c>
+      <c r="L18" s="92"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="P18" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="90" t="s">
-        <v>249</v>
-      </c>
-      <c r="L18" s="90"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="P18" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q18" s="39"/>
+      <c r="Q18" s="38"/>
       <c r="R18" s="31"/>
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C19" s="38"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="96"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="102"/>
       <c r="F19" s="31"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="88"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="101"/>
+      <c r="L19" s="102"/>
+      <c r="M19" s="85"/>
       <c r="N19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="39"/>
+      <c r="Q19" s="38"/>
       <c r="R19" s="31"/>
     </row>
     <row r="20" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C20" s="38"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="31"/>
       <c r="E20" s="31"/>
       <c r="F20" s="31"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
       <c r="K20" s="31"/>
       <c r="L20" s="31"/>
       <c r="M20" s="31"/>
-      <c r="N20" s="89" t="s">
-        <v>139</v>
+      <c r="N20" s="86" t="s">
+        <v>136</v>
       </c>
       <c r="P20" s="31"/>
-      <c r="Q20" s="39"/>
+      <c r="Q20" s="38"/>
       <c r="R20" s="31"/>
       <c r="S20" s="31"/>
     </row>
     <row r="21" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C21" s="38"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="31"/>
       <c r="E21" s="31"/>
       <c r="F21" s="31"/>
@@ -3641,56 +3658,56 @@
       <c r="N21" s="31"/>
       <c r="O21" s="31"/>
       <c r="P21" s="31"/>
-      <c r="Q21" s="39"/>
+      <c r="Q21" s="38"/>
       <c r="R21" s="31"/>
       <c r="S21" s="31"/>
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C22" s="38"/>
-      <c r="D22" s="90" t="s">
-        <v>140</v>
-      </c>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="92" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
       <c r="G22" s="31"/>
-      <c r="H22" s="90" t="s">
-        <v>246</v>
-      </c>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
+      <c r="H22" s="92" t="s">
+        <v>242</v>
+      </c>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
       <c r="K22" s="31"/>
-      <c r="L22" s="84" t="s">
-        <v>247</v>
-      </c>
-      <c r="M22" s="84"/>
+      <c r="L22" s="81" t="s">
+        <v>243</v>
+      </c>
+      <c r="M22" s="81"/>
       <c r="N22" s="31"/>
-      <c r="O22" s="91" t="s">
-        <v>142</v>
-      </c>
-      <c r="P22" s="91"/>
-      <c r="Q22" s="87"/>
+      <c r="O22" s="95" t="s">
+        <v>139</v>
+      </c>
+      <c r="P22" s="95"/>
+      <c r="Q22" s="84"/>
       <c r="R22" s="31"/>
       <c r="S22" s="31"/>
     </row>
     <row r="23" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C23" s="38"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="94"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="91"/>
       <c r="G23" s="31"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="93"/>
-      <c r="J23" s="94"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="91"/>
       <c r="K23" s="31"/>
-      <c r="L23" s="92"/>
-      <c r="M23" s="94"/>
+      <c r="L23" s="89"/>
+      <c r="M23" s="91"/>
       <c r="N23" s="31"/>
-      <c r="O23" s="92"/>
-      <c r="P23" s="94"/>
-      <c r="Q23" s="87"/>
+      <c r="O23" s="89"/>
+      <c r="P23" s="91"/>
+      <c r="Q23" s="84"/>
     </row>
     <row r="24" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C24" s="38"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="31"/>
       <c r="E24" s="31"/>
       <c r="F24" s="31"/>
@@ -3704,10 +3721,10 @@
       <c r="N24" s="31"/>
       <c r="O24" s="31"/>
       <c r="P24" s="31"/>
-      <c r="Q24" s="39"/>
+      <c r="Q24" s="38"/>
     </row>
     <row r="25" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C25" s="38"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="31"/>
       <c r="E25" s="31"/>
       <c r="F25" s="31"/>
@@ -3721,12 +3738,12 @@
       <c r="N25" s="31"/>
       <c r="O25" s="31"/>
       <c r="P25" s="31"/>
-      <c r="Q25" s="39"/>
+      <c r="Q25" s="38"/>
     </row>
     <row r="26" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C26" s="38"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="31" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E26" s="31"/>
       <c r="F26" s="31"/>
@@ -3740,86 +3757,85 @@
       <c r="N26" s="31"/>
       <c r="O26" s="31"/>
       <c r="P26" s="31"/>
-      <c r="Q26" s="39"/>
+      <c r="Q26" s="38"/>
     </row>
     <row r="27" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C27" s="38"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="39"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="38"/>
     </row>
     <row r="28" spans="3:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="38"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="43"/>
-      <c r="Q28" s="39"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="38"/>
     </row>
     <row r="29" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C29" s="38"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="39"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="38"/>
     </row>
     <row r="30" spans="3:19" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="41"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="43"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="42"/>
     </row>
     <row r="31" spans="3:19" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="D7:Q7"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="C6:Q6"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:L18"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="O23:P23"/>
     <mergeCell ref="D19:E19"/>
@@ -3831,12 +3847,13 @@
     <mergeCell ref="G19:I19"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="H22:J22"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="D7:Q7"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="C6:Q6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:E11">
@@ -3854,10 +3871,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:P40"/>
+  <dimension ref="C6:AA40"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3868,43 +3885,49 @@
     <col min="7" max="7" width="16.77734375" customWidth="1"/>
     <col min="8" max="8" width="6" customWidth="1"/>
     <col min="9" max="9" width="16.77734375" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="19.44140625" customWidth="1"/>
+    <col min="15" max="15" width="4" customWidth="1"/>
     <col min="17" max="17" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C6" s="35"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="37"/>
-    </row>
-    <row r="7" spans="3:16" ht="21" x14ac:dyDescent="0.4">
-      <c r="C7" s="38"/>
-      <c r="D7" s="99" t="s">
+    <row r="6" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="36"/>
+    </row>
+    <row r="7" spans="3:27" ht="21" x14ac:dyDescent="0.4">
+      <c r="C7" s="37"/>
+      <c r="D7" s="96" t="s">
         <v>131</v>
       </c>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="100"/>
-    </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C8" s="38"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="96"/>
+      <c r="O7" s="97"/>
+      <c r="AA7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C8" s="37"/>
       <c r="D8" s="31"/>
       <c r="E8" s="31"/>
       <c r="F8" s="31"/>
@@ -3916,10 +3939,13 @@
       <c r="L8" s="31"/>
       <c r="M8" s="31"/>
       <c r="N8" s="31"/>
-      <c r="O8" s="39"/>
-    </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C9" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="AA8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C9" s="37"/>
       <c r="D9" s="31"/>
       <c r="E9" s="31"/>
       <c r="F9" s="31"/>
@@ -3931,37 +3957,43 @@
       <c r="L9" s="31"/>
       <c r="M9" s="31"/>
       <c r="N9" s="31"/>
-      <c r="O9" s="39"/>
-    </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C10" s="38"/>
-      <c r="D10" s="90" t="s">
+      <c r="O9" s="38"/>
+      <c r="AA9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C10" s="37"/>
+      <c r="D10" s="92" t="s">
         <v>132</v>
       </c>
-      <c r="E10" s="90"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33" t="s">
+      <c r="E10" s="92"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32" t="s">
         <v>134</v>
       </c>
       <c r="H10" s="31"/>
-      <c r="I10" s="31" t="s">
+      <c r="I10" s="92" t="s">
         <v>133</v>
       </c>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="92"/>
       <c r="M10" s="31"/>
-      <c r="N10" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="O10" s="39"/>
+      <c r="N10" s="87" t="s">
+        <v>230</v>
+      </c>
+      <c r="O10" s="84"/>
       <c r="P10" s="31"/>
-    </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C11" s="38"/>
+      <c r="AA10" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C11" s="37"/>
       <c r="D11" s="26"/>
       <c r="E11" s="27"/>
-      <c r="F11" s="34"/>
+      <c r="F11" s="33"/>
       <c r="G11" s="2"/>
       <c r="H11" s="31"/>
       <c r="I11" s="28"/>
@@ -3969,12 +4001,17 @@
       <c r="K11" s="29"/>
       <c r="L11" s="30"/>
       <c r="M11" s="31"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="33"/>
-    </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C12" s="38"/>
+      <c r="N11" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="O11" s="82"/>
+      <c r="P11" s="32"/>
+      <c r="AA11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C12" s="37"/>
       <c r="D12" s="31"/>
       <c r="E12" s="31"/>
       <c r="F12" s="31"/>
@@ -3986,11 +4023,14 @@
       <c r="L12" s="31"/>
       <c r="M12" s="31"/>
       <c r="N12" s="31"/>
-      <c r="O12" s="39"/>
+      <c r="O12" s="38"/>
       <c r="P12" s="31"/>
-    </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C13" s="38"/>
+      <c r="AA12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C13" s="37"/>
       <c r="D13" s="31"/>
       <c r="E13" s="31"/>
       <c r="F13" s="31"/>
@@ -4002,45 +4042,47 @@
       <c r="L13" s="31"/>
       <c r="M13" s="31"/>
       <c r="N13" s="31"/>
-      <c r="O13" s="39"/>
+      <c r="O13" s="38"/>
       <c r="P13" s="31"/>
     </row>
-    <row r="14" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C14" s="38"/>
+    <row r="14" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C14" s="37"/>
       <c r="D14" s="31" t="s">
-        <v>136</v>
+        <v>236</v>
       </c>
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
       <c r="H14" s="31"/>
-      <c r="I14" s="90" t="s">
-        <v>137</v>
-      </c>
-      <c r="J14" s="90"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="31" t="s">
-        <v>138</v>
-      </c>
+      <c r="I14" s="92" t="s">
+        <v>237</v>
+      </c>
+      <c r="J14" s="92"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="92" t="s">
+        <v>245</v>
+      </c>
+      <c r="M14" s="92"/>
       <c r="N14" s="31"/>
-      <c r="O14" s="39"/>
-    </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C15" s="38"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="94"/>
+      <c r="O14" s="38"/>
+    </row>
+    <row r="15" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C15" s="37"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="91"/>
       <c r="H15" s="31"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="2"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="91"/>
       <c r="N15" s="31"/>
-      <c r="O15" s="39"/>
-    </row>
-    <row r="16" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C16" s="38"/>
+      <c r="O15" s="38"/>
+    </row>
+    <row r="16" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C16" s="37"/>
       <c r="D16" s="31"/>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
@@ -4049,14 +4091,13 @@
       <c r="I16" s="31"/>
       <c r="J16" s="31"/>
       <c r="K16" s="31"/>
-      <c r="L16" s="40" t="s">
-        <v>139</v>
-      </c>
+      <c r="L16" s="39"/>
+      <c r="M16" s="31"/>
       <c r="N16" s="31"/>
-      <c r="O16" s="39"/>
+      <c r="O16" s="38"/>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C17" s="38"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
@@ -4068,33 +4109,33 @@
       <c r="L17" s="31"/>
       <c r="M17" s="31"/>
       <c r="N17" s="31"/>
-      <c r="O17" s="39"/>
+      <c r="O17" s="38"/>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C18" s="38"/>
-      <c r="D18" s="90" t="s">
-        <v>140</v>
-      </c>
-      <c r="E18" s="90"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="92" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" s="92"/>
       <c r="F18" s="31"/>
-      <c r="G18" s="33" t="s">
-        <v>141</v>
+      <c r="G18" s="32" t="s">
+        <v>138</v>
       </c>
       <c r="H18" s="31"/>
-      <c r="I18" s="90" t="s">
-        <v>142</v>
-      </c>
-      <c r="J18" s="90"/>
+      <c r="I18" s="92" t="s">
+        <v>139</v>
+      </c>
+      <c r="J18" s="92"/>
       <c r="K18" s="31"/>
       <c r="L18" s="31" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="M18" s="31"/>
       <c r="N18" s="31"/>
-      <c r="O18" s="39"/>
+      <c r="O18" s="38"/>
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C19" s="38"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="28"/>
       <c r="E19" s="30"/>
       <c r="F19" s="31"/>
@@ -4106,10 +4147,10 @@
       <c r="L19" s="28"/>
       <c r="M19" s="29"/>
       <c r="N19" s="30"/>
-      <c r="O19" s="39"/>
+      <c r="O19" s="38"/>
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C20" s="38"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="31"/>
       <c r="E20" s="31"/>
       <c r="F20" s="31"/>
@@ -4121,40 +4162,40 @@
       <c r="L20" s="31"/>
       <c r="M20" s="31"/>
       <c r="N20" s="31"/>
-      <c r="O20" s="39"/>
+      <c r="O20" s="38"/>
     </row>
     <row r="21" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="43"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="42"/>
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C22" s="35"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="37"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="36"/>
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C23" s="38"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="31"/>
       <c r="E23" s="31"/>
       <c r="F23" s="31"/>
@@ -4166,10 +4207,10 @@
       <c r="L23" s="31"/>
       <c r="M23" s="31"/>
       <c r="N23" s="31"/>
-      <c r="O23" s="39"/>
+      <c r="O23" s="38"/>
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C24" s="38"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="31"/>
       <c r="E24" s="31"/>
       <c r="F24" s="31"/>
@@ -4181,10 +4222,10 @@
       <c r="L24" s="31"/>
       <c r="M24" s="31"/>
       <c r="N24" s="31"/>
-      <c r="O24" s="39"/>
+      <c r="O24" s="38"/>
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C25" s="38"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="31"/>
       <c r="E25" s="31"/>
       <c r="F25" s="31"/>
@@ -4196,12 +4237,12 @@
       <c r="L25" s="31"/>
       <c r="M25" s="31"/>
       <c r="N25" s="31"/>
-      <c r="O25" s="39"/>
+      <c r="O25" s="38"/>
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C26" s="38"/>
-      <c r="D26" s="44" t="s">
-        <v>143</v>
+      <c r="C26" s="37"/>
+      <c r="D26" s="43" t="s">
+        <v>140</v>
       </c>
       <c r="E26" s="31"/>
       <c r="F26" s="31"/>
@@ -4213,32 +4254,44 @@
       <c r="L26" s="31"/>
       <c r="M26" s="31"/>
       <c r="N26" s="31"/>
-      <c r="O26" s="39"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C27" s="38"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="46" t="s">
-        <v>144</v>
+      <c r="O26" s="38"/>
+    </row>
+    <row r="27" spans="3:15" s="118" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="117"/>
+      <c r="D27" s="119" t="s">
+        <v>250</v>
+      </c>
+      <c r="E27" s="121" t="s">
+        <v>251</v>
+      </c>
+      <c r="F27" s="121"/>
+      <c r="G27" s="121" t="s">
+        <v>252</v>
+      </c>
+      <c r="H27" s="121"/>
+      <c r="I27" s="121"/>
+      <c r="J27" s="119" t="s">
+        <v>253</v>
+      </c>
+      <c r="K27" s="119" t="s">
+        <v>254</v>
+      </c>
+      <c r="L27" s="121" t="s">
+        <v>255</v>
+      </c>
+      <c r="M27" s="121"/>
+      <c r="N27" s="120"/>
+      <c r="O27" s="44" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C28" s="38"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="2"/>
       <c r="E28" s="28"/>
       <c r="F28" s="30"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="29"/>
       <c r="I28" s="30"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -4248,12 +4301,12 @@
       <c r="O28" s="2"/>
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C29" s="38"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="2"/>
       <c r="E29" s="28"/>
       <c r="F29" s="30"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="29"/>
       <c r="I29" s="30"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -4263,12 +4316,12 @@
       <c r="O29" s="2"/>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C30" s="38"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="2"/>
       <c r="E30" s="28"/>
       <c r="F30" s="30"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="29"/>
       <c r="I30" s="30"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -4278,12 +4331,12 @@
       <c r="O30" s="2"/>
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C31" s="38"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="2"/>
       <c r="E31" s="28"/>
       <c r="F31" s="30"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="29"/>
       <c r="I31" s="30"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -4293,12 +4346,12 @@
       <c r="O31" s="2"/>
     </row>
     <row r="32" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C32" s="38"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="2"/>
       <c r="E32" s="28"/>
       <c r="F32" s="30"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="29"/>
       <c r="I32" s="30"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
@@ -4308,12 +4361,12 @@
       <c r="O32" s="2"/>
     </row>
     <row r="33" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C33" s="38"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="2"/>
       <c r="E33" s="28"/>
       <c r="F33" s="30"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="29"/>
       <c r="I33" s="30"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -4323,12 +4376,12 @@
       <c r="O33" s="2"/>
     </row>
     <row r="34" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C34" s="38"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="2"/>
       <c r="E34" s="28"/>
       <c r="F34" s="30"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="29"/>
       <c r="I34" s="30"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
@@ -4338,12 +4391,12 @@
       <c r="O34" s="2"/>
     </row>
     <row r="35" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C35" s="38"/>
+      <c r="C35" s="37"/>
       <c r="D35" s="2"/>
       <c r="E35" s="28"/>
       <c r="F35" s="30"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="29"/>
       <c r="I35" s="30"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -4353,12 +4406,12 @@
       <c r="O35" s="2"/>
     </row>
     <row r="36" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C36" s="38"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="2"/>
       <c r="E36" s="28"/>
       <c r="F36" s="30"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="29"/>
       <c r="I36" s="30"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -4368,12 +4421,12 @@
       <c r="O36" s="2"/>
     </row>
     <row r="37" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C37" s="38"/>
+      <c r="C37" s="37"/>
       <c r="D37" s="2"/>
       <c r="E37" s="28"/>
       <c r="F37" s="30"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="29"/>
       <c r="I37" s="30"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -4383,12 +4436,12 @@
       <c r="O37" s="2"/>
     </row>
     <row r="38" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C38" s="38"/>
+      <c r="C38" s="37"/>
       <c r="D38" s="2"/>
       <c r="E38" s="28"/>
       <c r="F38" s="30"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="29"/>
       <c r="I38" s="30"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -4398,7 +4451,7 @@
       <c r="O38" s="2"/>
     </row>
     <row r="39" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C39" s="38"/>
+      <c r="C39" s="37"/>
       <c r="D39" s="31"/>
       <c r="E39" s="31"/>
       <c r="F39" s="31"/>
@@ -4410,25 +4463,31 @@
       <c r="L39" s="31"/>
       <c r="M39" s="31"/>
       <c r="N39" s="31"/>
-      <c r="O39" s="39"/>
+      <c r="O39" s="38"/>
     </row>
     <row r="40" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C40" s="41"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="42"/>
-      <c r="M40" s="42"/>
-      <c r="N40" s="42"/>
-      <c r="O40" s="43"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
+      <c r="O40" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="13">
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D15:G15"/>
     <mergeCell ref="D18:E18"/>
@@ -4437,8 +4496,14 @@
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I14:J14"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N11">
+      <formula1>$AA$8:$AA$12</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4446,8 +4511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AZ69"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4467,149 +4532,149 @@
   <sheetData>
     <row r="1" spans="3:52" x14ac:dyDescent="0.3">
       <c r="AC1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AH1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AO1" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS1" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="AW1" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="AL1" t="s">
-        <v>188</v>
-      </c>
-      <c r="AO1" s="14" t="s">
+      <c r="AZ1" s="14" t="s">
         <v>197</v>
-      </c>
-      <c r="AS1" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="AW1" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="AZ1" s="14" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="2" spans="3:52" x14ac:dyDescent="0.3">
       <c r="AO2" s="14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AS2" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="AW2" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="AZ2" s="14" t="s">
         <v>177</v>
-      </c>
-      <c r="AW2" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="AZ2" s="14" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="3" spans="3:52" x14ac:dyDescent="0.3">
       <c r="AC3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AH3" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="AL3" s="47" t="s">
-        <v>189</v>
+        <v>163</v>
+      </c>
+      <c r="AL3" s="45" t="s">
+        <v>186</v>
       </c>
       <c r="AO3" s="14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AW3" s="14" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AZ3" s="14" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="3:52" x14ac:dyDescent="0.3">
       <c r="AC4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AH4" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="AL4" s="47" t="s">
-        <v>190</v>
+        <v>164</v>
+      </c>
+      <c r="AL4" s="45" t="s">
+        <v>187</v>
       </c>
       <c r="AO4" s="14" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AZ4" s="14" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="3:52" x14ac:dyDescent="0.3">
       <c r="AC5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AH5" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="AL5" s="47" t="s">
-        <v>191</v>
+        <v>165</v>
+      </c>
+      <c r="AL5" s="45" t="s">
+        <v>188</v>
       </c>
       <c r="AO5" s="14" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AZ5" s="14" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="3:52" x14ac:dyDescent="0.3">
-      <c r="C6" s="35"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="37"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="36"/>
       <c r="AC6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AH6" s="14" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AZ6" s="14" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="3:52" ht="21" x14ac:dyDescent="0.4">
-      <c r="C7" s="38"/>
-      <c r="D7" s="99" t="s">
-        <v>201</v>
-      </c>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
-      <c r="P7" s="100"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="96" t="s">
+        <v>198</v>
+      </c>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="96"/>
+      <c r="O7" s="96"/>
+      <c r="P7" s="97"/>
       <c r="AC7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AH7" s="14" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AZ7" s="14" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="3:52" x14ac:dyDescent="0.3">
-      <c r="C8" s="38"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="31"/>
       <c r="E8" s="31"/>
       <c r="F8" s="31"/>
@@ -4620,19 +4685,19 @@
       <c r="K8" s="31"/>
       <c r="L8" s="31"/>
       <c r="O8" s="31"/>
-      <c r="P8" s="39"/>
+      <c r="P8" s="38"/>
       <c r="AC8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AH8" s="14" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AZ8" s="14" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="3:52" x14ac:dyDescent="0.3">
-      <c r="C9" s="38"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="31"/>
       <c r="E9" s="31"/>
       <c r="F9" s="31"/>
@@ -4643,127 +4708,125 @@
       <c r="K9" s="31"/>
       <c r="L9" s="31"/>
       <c r="O9" s="31"/>
-      <c r="P9" s="39"/>
+      <c r="P9" s="38"/>
       <c r="AC9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AH9" s="14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AZ9" s="14" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="3:52" x14ac:dyDescent="0.3">
-      <c r="C10" s="38"/>
-      <c r="D10" s="90" t="s">
-        <v>194</v>
-      </c>
-      <c r="E10" s="90"/>
-      <c r="F10" s="91" t="s">
-        <v>224</v>
-      </c>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="92" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="92"/>
+      <c r="F10" s="95" t="s">
+        <v>220</v>
+      </c>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
       <c r="I10" s="31"/>
-      <c r="J10" s="111" t="s">
-        <v>232</v>
-      </c>
-      <c r="K10" s="111"/>
-      <c r="L10" s="111"/>
-      <c r="M10" s="48"/>
-      <c r="O10" s="91" t="s">
-        <v>195</v>
-      </c>
-      <c r="P10" s="91"/>
+      <c r="J10" s="106" t="s">
+        <v>228</v>
+      </c>
+      <c r="K10" s="106"/>
+      <c r="L10" s="106"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="87" t="s">
+        <v>192</v>
+      </c>
+      <c r="P10" s="88"/>
       <c r="AC10" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AJ10" s="13"/>
       <c r="AK10" s="13"/>
     </row>
     <row r="11" spans="3:52" x14ac:dyDescent="0.3">
-      <c r="C11" s="38"/>
-      <c r="D11" s="112" t="s">
-        <v>189</v>
-      </c>
-      <c r="E11" s="113"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="66">
+      <c r="C11" s="37"/>
+      <c r="D11" s="107" t="s">
+        <v>186</v>
+      </c>
+      <c r="E11" s="108"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="64">
         <v>1</v>
       </c>
-      <c r="H11" s="66" t="s">
-        <v>35</v>
-      </c>
+      <c r="H11" s="64"/>
       <c r="I11" s="31"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="109"/>
-      <c r="L11" s="110"/>
-      <c r="M11" s="49"/>
-      <c r="O11" s="106"/>
-      <c r="P11" s="107"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="105"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="116"/>
+      <c r="P11" s="88"/>
       <c r="AC11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="3:52" x14ac:dyDescent="0.3">
-      <c r="C12" s="38"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
       <c r="G12" s="31"/>
       <c r="H12" s="31"/>
       <c r="I12" s="31"/>
       <c r="J12" s="31"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="68"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="88"/>
     </row>
     <row r="13" spans="3:52" x14ac:dyDescent="0.3">
-      <c r="C13" s="38"/>
-      <c r="D13" s="76" t="s">
-        <v>220</v>
-      </c>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="122" t="s">
+        <v>216</v>
+      </c>
+      <c r="E13" s="122"/>
+      <c r="F13" s="51"/>
       <c r="H13" s="31"/>
       <c r="I13" s="31"/>
       <c r="J13" s="31"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="81" t="s">
-        <v>225</v>
-      </c>
-      <c r="M13" s="80"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="68"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="78" t="s">
+        <v>221</v>
+      </c>
+      <c r="M13" s="77"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="66"/>
     </row>
     <row r="14" spans="3:52" x14ac:dyDescent="0.3">
-      <c r="C14" s="38"/>
-      <c r="D14" s="112" t="s">
-        <v>189</v>
-      </c>
-      <c r="E14" s="113"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="107" t="s">
+        <v>186</v>
+      </c>
+      <c r="E14" s="108"/>
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
       <c r="H14" s="31"/>
       <c r="I14" s="31"/>
       <c r="J14" s="31"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
       <c r="O14" s="31"/>
-      <c r="P14" s="39"/>
+      <c r="P14" s="38"/>
       <c r="AC14" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="3:52" x14ac:dyDescent="0.3">
-      <c r="C15" s="38"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
@@ -4776,57 +4839,57 @@
       <c r="M15" s="31"/>
       <c r="N15" s="31"/>
       <c r="O15" s="31"/>
-      <c r="P15" s="39"/>
+      <c r="P15" s="38"/>
       <c r="AC15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="3:52" x14ac:dyDescent="0.3">
-      <c r="C16" s="38"/>
-      <c r="D16" s="90" t="s">
-        <v>231</v>
-      </c>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="92" t="s">
+        <v>227</v>
+      </c>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
       <c r="I16" s="31"/>
       <c r="J16" s="31"/>
-      <c r="K16" s="90" t="s">
-        <v>226</v>
-      </c>
-      <c r="L16" s="90"/>
-      <c r="M16" s="90"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="39"/>
+      <c r="K16" s="92" t="s">
+        <v>222</v>
+      </c>
+      <c r="L16" s="92"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="38"/>
       <c r="AC16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="3:37" x14ac:dyDescent="0.3">
-      <c r="C17" s="38"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="94"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="91"/>
       <c r="I17" s="31"/>
       <c r="J17" s="31"/>
-      <c r="K17" s="92"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="94"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="39"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="91"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="38"/>
       <c r="AC17" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AJ17" s="12"/>
       <c r="AK17" s="12"/>
     </row>
     <row r="18" spans="3:37" x14ac:dyDescent="0.3">
-      <c r="C18" s="38"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="31"/>
       <c r="E18" s="31"/>
       <c r="F18" s="31"/>
@@ -4834,64 +4897,64 @@
       <c r="H18" s="31"/>
       <c r="I18" s="31"/>
       <c r="J18" s="31"/>
-      <c r="K18" s="40"/>
+      <c r="K18" s="39"/>
       <c r="L18" s="31"/>
       <c r="M18" s="31"/>
       <c r="N18" s="31"/>
       <c r="O18" s="31"/>
-      <c r="P18" s="39"/>
+      <c r="P18" s="38"/>
       <c r="AC18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="3:37" x14ac:dyDescent="0.3">
-      <c r="C19" s="38"/>
-      <c r="D19" s="90" t="s">
-        <v>227</v>
-      </c>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="92" t="s">
+        <v>223</v>
+      </c>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
       <c r="I19" s="31"/>
       <c r="J19" s="31"/>
-      <c r="K19" s="90" t="s">
-        <v>228</v>
-      </c>
-      <c r="L19" s="90"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="90"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="39"/>
+      <c r="K19" s="92" t="s">
+        <v>224</v>
+      </c>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="92"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="38"/>
       <c r="AC19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AJ19" s="11"/>
       <c r="AK19" s="11"/>
     </row>
     <row r="20" spans="3:37" x14ac:dyDescent="0.3">
-      <c r="C20" s="38"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="94"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="91"/>
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
-      <c r="K20" s="92"/>
-      <c r="L20" s="93"/>
-      <c r="M20" s="93"/>
-      <c r="N20" s="94"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="39"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="90"/>
+      <c r="M20" s="90"/>
+      <c r="N20" s="91"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="38"/>
       <c r="AC20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AJ20" s="11"/>
       <c r="AK20" s="11"/>
     </row>
     <row r="21" spans="3:37" x14ac:dyDescent="0.3">
-      <c r="C21" s="38"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="31"/>
       <c r="E21" s="31"/>
       <c r="F21" s="31"/>
@@ -4899,87 +4962,87 @@
       <c r="H21" s="31"/>
       <c r="I21" s="31"/>
       <c r="J21" s="31"/>
-      <c r="K21" s="40"/>
+      <c r="K21" s="39"/>
       <c r="L21" s="31"/>
       <c r="M21" s="31"/>
       <c r="N21" s="31"/>
       <c r="O21" s="31"/>
-      <c r="P21" s="39"/>
+      <c r="P21" s="38"/>
       <c r="AC21" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AJ21" s="11"/>
       <c r="AK21" s="11"/>
     </row>
     <row r="22" spans="3:37" x14ac:dyDescent="0.3">
-      <c r="C22" s="38"/>
-      <c r="D22" s="90" t="s">
-        <v>229</v>
-      </c>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="92" t="s">
+        <v>225</v>
+      </c>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
       <c r="I22" s="31"/>
       <c r="J22" s="31"/>
-      <c r="K22" s="90" t="s">
-        <v>230</v>
-      </c>
-      <c r="L22" s="90"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="90"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="39"/>
+      <c r="K22" s="92" t="s">
+        <v>226</v>
+      </c>
+      <c r="L22" s="92"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="92"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="38"/>
       <c r="AC22" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AJ22" s="11"/>
       <c r="AK22" s="11"/>
     </row>
     <row r="23" spans="3:37" x14ac:dyDescent="0.3">
-      <c r="C23" s="38"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="94"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="91"/>
       <c r="I23" s="31"/>
       <c r="J23" s="31"/>
-      <c r="K23" s="92"/>
-      <c r="L23" s="93"/>
-      <c r="M23" s="93"/>
-      <c r="N23" s="94"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="39"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="90"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="91"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="38"/>
       <c r="AC23" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AJ23" s="11"/>
       <c r="AK23" s="11"/>
     </row>
     <row r="24" spans="3:37" x14ac:dyDescent="0.3">
-      <c r="C24" s="38"/>
-      <c r="D24" s="40" t="s">
-        <v>192</v>
-      </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
       <c r="I24" s="31"/>
-      <c r="J24" s="33"/>
+      <c r="J24" s="32"/>
       <c r="K24" s="31"/>
       <c r="L24" s="31"/>
       <c r="M24" s="31"/>
       <c r="N24" s="31"/>
       <c r="O24" s="31"/>
-      <c r="P24" s="39"/>
+      <c r="P24" s="38"/>
       <c r="AC24" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="3:37" x14ac:dyDescent="0.3">
-      <c r="C25" s="38"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="31"/>
       <c r="E25" s="31"/>
       <c r="F25" s="31"/>
@@ -4992,11 +5055,11 @@
       <c r="M25" s="31"/>
       <c r="N25" s="31"/>
       <c r="O25" s="31"/>
-      <c r="P25" s="39"/>
+      <c r="P25" s="38"/>
     </row>
     <row r="26" spans="3:37" x14ac:dyDescent="0.3">
-      <c r="C26" s="50" t="s">
-        <v>193</v>
+      <c r="C26" s="48" t="s">
+        <v>190</v>
       </c>
       <c r="D26" s="31"/>
       <c r="E26" s="31"/>
@@ -5010,28 +5073,28 @@
       <c r="M26" s="31"/>
       <c r="N26" s="31"/>
       <c r="O26" s="31"/>
-      <c r="P26" s="39"/>
+      <c r="P26" s="38"/>
       <c r="AJ26" s="10"/>
       <c r="AK26" s="10"/>
     </row>
     <row r="27" spans="3:37" ht="3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="41"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="43"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="42"/>
     </row>
     <row r="28" spans="3:37" ht="3.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="38"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="31"/>
       <c r="E28" s="31"/>
       <c r="F28" s="31"/>
@@ -5044,28 +5107,28 @@
       <c r="M28" s="31"/>
       <c r="N28" s="31"/>
       <c r="O28" s="31"/>
-      <c r="P28" s="39"/>
+      <c r="P28" s="38"/>
     </row>
     <row r="29" spans="3:37" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="38"/>
-      <c r="D29" s="99" t="s">
-        <v>206</v>
-      </c>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="99"/>
-      <c r="J29" s="99"/>
-      <c r="K29" s="99"/>
-      <c r="L29" s="99"/>
-      <c r="M29" s="99"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="100"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="E29" s="96"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="96"/>
+      <c r="J29" s="96"/>
+      <c r="K29" s="96"/>
+      <c r="L29" s="96"/>
+      <c r="M29" s="96"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="96"/>
+      <c r="P29" s="97"/>
     </row>
     <row r="30" spans="3:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="38"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="31"/>
       <c r="E30" s="31"/>
       <c r="F30" s="31"/>
@@ -5078,90 +5141,90 @@
       <c r="M30" s="31"/>
       <c r="N30" s="31"/>
       <c r="O30" s="31"/>
-      <c r="P30" s="39"/>
+      <c r="P30" s="38"/>
     </row>
     <row r="31" spans="3:37" x14ac:dyDescent="0.3">
-      <c r="C31" s="38"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="31"/>
       <c r="E31" s="31"/>
       <c r="F31" s="31"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="55"/>
-      <c r="O31" s="56"/>
-      <c r="P31" s="39"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="38"/>
     </row>
     <row r="32" spans="3:37" x14ac:dyDescent="0.3">
-      <c r="C32" s="38"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="31"/>
       <c r="E32" s="31"/>
       <c r="F32" s="31"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="33" t="s">
+      <c r="G32" s="55"/>
+      <c r="H32" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="I32" s="105" t="s">
+      <c r="I32" s="113" t="s">
         <v>124</v>
       </c>
-      <c r="J32" s="33" t="s">
+      <c r="J32" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="K32" s="105" t="s">
+      <c r="K32" s="113" t="s">
         <v>126</v>
       </c>
-      <c r="L32" s="33" t="s">
+      <c r="L32" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="M32" s="105" t="s">
+      <c r="M32" s="113" t="s">
         <v>127</v>
       </c>
-      <c r="N32" s="33" t="s">
+      <c r="N32" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="O32" s="58"/>
-      <c r="P32" s="39"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="38"/>
     </row>
     <row r="33" spans="3:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="38"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="31"/>
       <c r="E33" s="31"/>
       <c r="F33" s="31"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="105"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="105"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="105"/>
-      <c r="N33" s="52">
+      <c r="G33" s="55"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="113"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="113"/>
+      <c r="N33" s="50">
         <v>0.2</v>
       </c>
-      <c r="O33" s="59"/>
-      <c r="P33" s="39"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="38"/>
     </row>
     <row r="34" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C34" s="38"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="31"/>
       <c r="E34" s="31"/>
       <c r="F34" s="31"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="61"/>
-      <c r="L34" s="61"/>
-      <c r="M34" s="61"/>
-      <c r="N34" s="61"/>
-      <c r="O34" s="62"/>
-      <c r="P34" s="39"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="59"/>
+      <c r="N34" s="59"/>
+      <c r="O34" s="60"/>
+      <c r="P34" s="38"/>
     </row>
     <row r="35" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C35" s="38"/>
+      <c r="C35" s="37"/>
       <c r="D35" s="31"/>
       <c r="E35" s="31"/>
       <c r="F35" s="31"/>
@@ -5174,10 +5237,10 @@
       <c r="M35" s="31"/>
       <c r="N35" s="31"/>
       <c r="O35" s="31"/>
-      <c r="P35" s="39"/>
+      <c r="P35" s="38"/>
     </row>
     <row r="36" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C36" s="38"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="31"/>
       <c r="E36" s="31"/>
       <c r="F36" s="31"/>
@@ -5190,89 +5253,89 @@
       <c r="M36" s="31"/>
       <c r="N36" s="31"/>
       <c r="O36" s="31"/>
-      <c r="P36" s="39"/>
+      <c r="P36" s="38"/>
     </row>
     <row r="37" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C37" s="38"/>
+      <c r="C37" s="37"/>
       <c r="D37" s="31"/>
       <c r="E37" s="31"/>
       <c r="F37" s="31"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="55"/>
-      <c r="K37" s="55"/>
-      <c r="L37" s="55"/>
-      <c r="M37" s="56"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="54"/>
       <c r="N37" s="31"/>
       <c r="O37" s="31"/>
-      <c r="P37" s="39"/>
+      <c r="P37" s="38"/>
       <c r="Q37" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C38" s="38"/>
+      <c r="C38" s="37"/>
       <c r="D38" s="31"/>
       <c r="E38" s="31"/>
       <c r="F38" s="31"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="I38" s="105" t="s">
+      <c r="G38" s="55"/>
+      <c r="H38" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="I38" s="113" t="s">
         <v>124</v>
       </c>
-      <c r="J38" s="33" t="s">
+      <c r="J38" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="K38" s="105" t="s">
+      <c r="K38" s="113" t="s">
         <v>129</v>
       </c>
-      <c r="L38" s="33" t="s">
+      <c r="L38" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="M38" s="64"/>
+      <c r="M38" s="62"/>
       <c r="O38" s="31"/>
-      <c r="P38" s="39"/>
+      <c r="P38" s="38"/>
       <c r="Q38" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C39" s="38"/>
+      <c r="C39" s="37"/>
       <c r="D39" s="31"/>
       <c r="E39" s="31"/>
       <c r="F39" s="31"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="105"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="105"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="65"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="113"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="113"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="63"/>
       <c r="N39" s="31"/>
       <c r="O39" s="31"/>
-      <c r="P39" s="39"/>
+      <c r="P39" s="38"/>
     </row>
     <row r="40" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C40" s="38"/>
+      <c r="C40" s="37"/>
       <c r="D40" s="31"/>
       <c r="E40" s="31"/>
       <c r="F40" s="31"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="61"/>
-      <c r="J40" s="61"/>
-      <c r="K40" s="61"/>
-      <c r="L40" s="61"/>
-      <c r="M40" s="62"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="59"/>
+      <c r="M40" s="60"/>
       <c r="N40" s="31"/>
       <c r="O40" s="31"/>
-      <c r="P40" s="39"/>
+      <c r="P40" s="38"/>
     </row>
     <row r="41" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C41" s="38"/>
+      <c r="C41" s="37"/>
       <c r="D41" s="31"/>
       <c r="E41" s="31"/>
       <c r="F41" s="31"/>
@@ -5285,10 +5348,10 @@
       <c r="M41" s="31"/>
       <c r="N41" s="31"/>
       <c r="O41" s="31"/>
-      <c r="P41" s="39"/>
+      <c r="P41" s="38"/>
     </row>
     <row r="42" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C42" s="38"/>
+      <c r="C42" s="37"/>
       <c r="D42" s="31"/>
       <c r="E42" s="31"/>
       <c r="F42" s="31"/>
@@ -5298,66 +5361,66 @@
       <c r="M42" s="31"/>
       <c r="N42" s="31"/>
       <c r="O42" s="31"/>
-      <c r="P42" s="39"/>
+      <c r="P42" s="38"/>
     </row>
     <row r="43" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C43" s="38"/>
+      <c r="C43" s="37"/>
       <c r="D43" s="31"/>
       <c r="E43" s="31"/>
       <c r="F43" s="31"/>
       <c r="G43" s="31"/>
-      <c r="H43" s="92" t="s">
-        <v>205</v>
-      </c>
-      <c r="I43" s="93"/>
-      <c r="J43" s="94"/>
+      <c r="H43" s="89" t="s">
+        <v>202</v>
+      </c>
+      <c r="I43" s="90"/>
+      <c r="J43" s="91"/>
       <c r="K43" s="31"/>
       <c r="L43" s="31"/>
       <c r="M43" s="31"/>
       <c r="N43" s="31"/>
       <c r="O43" s="31"/>
-      <c r="P43" s="39"/>
+      <c r="P43" s="38"/>
     </row>
     <row r="44" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C44" s="38"/>
+      <c r="C44" s="37"/>
       <c r="D44" s="31"/>
       <c r="E44" s="31"/>
       <c r="F44" s="31"/>
       <c r="G44" s="31"/>
-      <c r="H44" s="63" t="s">
-        <v>203</v>
-      </c>
-      <c r="I44" s="101" t="s">
-        <v>204</v>
-      </c>
-      <c r="J44" s="102"/>
+      <c r="H44" s="61" t="s">
+        <v>200</v>
+      </c>
+      <c r="I44" s="109" t="s">
+        <v>201</v>
+      </c>
+      <c r="J44" s="110"/>
       <c r="K44" s="31"/>
       <c r="L44" s="31"/>
       <c r="M44" s="31"/>
       <c r="N44" s="31"/>
       <c r="O44" s="31"/>
-      <c r="P44" s="39"/>
+      <c r="P44" s="38"/>
     </row>
     <row r="45" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C45" s="38"/>
+      <c r="C45" s="37"/>
       <c r="D45" s="31"/>
       <c r="E45" s="31"/>
       <c r="F45" s="31"/>
       <c r="G45" s="31"/>
-      <c r="H45" s="63">
+      <c r="H45" s="61">
         <v>1094</v>
       </c>
-      <c r="I45" s="103"/>
-      <c r="J45" s="104"/>
+      <c r="I45" s="111"/>
+      <c r="J45" s="112"/>
       <c r="K45" s="31"/>
       <c r="L45" s="31"/>
       <c r="M45" s="31"/>
       <c r="N45" s="31"/>
       <c r="O45" s="31"/>
-      <c r="P45" s="39"/>
+      <c r="P45" s="38"/>
     </row>
     <row r="46" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C46" s="38"/>
+      <c r="C46" s="37"/>
       <c r="D46" s="31"/>
       <c r="E46" s="31"/>
       <c r="F46" s="31"/>
@@ -5370,10 +5433,10 @@
       <c r="M46" s="31"/>
       <c r="N46" s="31"/>
       <c r="O46" s="31"/>
-      <c r="P46" s="39"/>
+      <c r="P46" s="38"/>
     </row>
     <row r="47" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C47" s="38"/>
+      <c r="C47" s="37"/>
       <c r="D47" s="31"/>
       <c r="E47" s="31"/>
       <c r="F47" s="31"/>
@@ -5386,10 +5449,10 @@
       <c r="M47" s="31"/>
       <c r="N47" s="31"/>
       <c r="O47" s="31"/>
-      <c r="P47" s="39"/>
+      <c r="P47" s="38"/>
     </row>
     <row r="48" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C48" s="38"/>
+      <c r="C48" s="37"/>
       <c r="D48" s="31"/>
       <c r="E48" s="31"/>
       <c r="F48" s="31"/>
@@ -5402,10 +5465,10 @@
       <c r="M48" s="31"/>
       <c r="N48" s="31"/>
       <c r="O48" s="31"/>
-      <c r="P48" s="39"/>
+      <c r="P48" s="38"/>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C49" s="38"/>
+      <c r="C49" s="37"/>
       <c r="D49" s="31"/>
       <c r="E49" s="31"/>
       <c r="F49" s="31"/>
@@ -5418,24 +5481,24 @@
       <c r="M49" s="31"/>
       <c r="N49" s="31"/>
       <c r="O49" s="31"/>
-      <c r="P49" s="39"/>
+      <c r="P49" s="38"/>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B50" s="31"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="42"/>
-      <c r="K50" s="42"/>
-      <c r="L50" s="42"/>
-      <c r="M50" s="42"/>
-      <c r="N50" s="42"/>
-      <c r="O50" s="42"/>
-      <c r="P50" s="43"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="41"/>
+      <c r="K50" s="41"/>
+      <c r="L50" s="41"/>
+      <c r="M50" s="41"/>
+      <c r="N50" s="41"/>
+      <c r="O50" s="41"/>
+      <c r="P50" s="42"/>
       <c r="Q50" s="31"/>
       <c r="R50" s="31"/>
     </row>
@@ -5804,28 +5867,7 @@
   <sortState ref="AC2:AF21">
     <sortCondition ref="AC2:AC21"/>
   </sortState>
-  <mergeCells count="30">
-    <mergeCell ref="D7:P7"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="D23:H23"/>
+  <mergeCells count="29">
     <mergeCell ref="I44:J44"/>
     <mergeCell ref="I45:J45"/>
     <mergeCell ref="H43:J43"/>
@@ -5835,6 +5877,26 @@
     <mergeCell ref="M32:M33"/>
     <mergeCell ref="I38:I39"/>
     <mergeCell ref="K38:K39"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D7:P7"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:F12">
@@ -5869,8 +5931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5899,13 +5961,13 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C3" s="114" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D3" s="114"/>
       <c r="E3" s="114"/>
       <c r="F3" s="114"/>
       <c r="I3" s="115" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="J3" s="115"/>
       <c r="K3" s="115"/>
@@ -5914,7 +5976,7 @@
       <c r="N3" s="115"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="72" t="s">
         <v>97</v>
       </c>
       <c r="D4" s="17" t="s">
@@ -5929,7 +5991,7 @@
         <v>94</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="74">
+      <c r="C5" s="72">
         <v>9002</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -6238,7 +6300,7 @@
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D25">
         <v>365</v>
@@ -6257,8 +6319,8 @@
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="77" t="s">
-        <v>217</v>
+      <c r="B26" s="74" t="s">
+        <v>213</v>
       </c>
       <c r="J26">
         <v>1251</v>
@@ -6268,11 +6330,11 @@
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B27" s="78" t="s">
-        <v>221</v>
+      <c r="B27" s="75" t="s">
+        <v>217</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="J27">
         <v>2751</v>
@@ -6282,11 +6344,11 @@
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="78" t="s">
-        <v>222</v>
+      <c r="B28" s="75" t="s">
+        <v>218</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="J28">
         <v>2731</v>
@@ -6296,21 +6358,21 @@
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="77"/>
-      <c r="C29" s="75" t="s">
+      <c r="B29" s="74"/>
+      <c r="C29" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="D29" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="E29" s="75" t="s">
-        <v>212</v>
-      </c>
-      <c r="F29" s="75" t="s">
-        <v>213</v>
-      </c>
-      <c r="G29" s="75" t="s">
-        <v>214</v>
+      <c r="D29" s="73" t="s">
+        <v>207</v>
+      </c>
+      <c r="E29" s="73" t="s">
+        <v>208</v>
+      </c>
+      <c r="F29" s="73" t="s">
+        <v>209</v>
+      </c>
+      <c r="G29" s="73" t="s">
+        <v>210</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -6322,17 +6384,17 @@
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B30" s="77"/>
-      <c r="C30" s="75">
+      <c r="B30" s="74"/>
+      <c r="C30" s="73">
         <v>9002</v>
       </c>
-      <c r="D30" s="75">
+      <c r="D30" s="73">
         <v>1026</v>
       </c>
-      <c r="E30" s="75">
+      <c r="E30" s="73">
         <v>373</v>
       </c>
-      <c r="F30" s="75">
+      <c r="F30" s="73">
         <v>3035</v>
       </c>
       <c r="G30" s="19"/>
@@ -6346,8 +6408,8 @@
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B31" s="78" t="s">
-        <v>210</v>
+      <c r="B31" s="75" t="s">
+        <v>206</v>
       </c>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -6362,12 +6424,12 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">

--- a/6- Ingenieria de producto/6.1 - Análisis/04- Archivos de Trabajo/01-Embargos/MID - Módulo Judicial v1.xlsx
+++ b/6- Ingenieria de producto/6.1 - Análisis/04- Archivos de Trabajo/01-Embargos/MID - Módulo Judicial v1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11040" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11040" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="3" state="hidden" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="259">
   <si>
     <t>se toma el menor de ambos</t>
   </si>
@@ -769,21 +769,12 @@
     <t>Monto a embargar</t>
   </si>
   <si>
-    <t>HU-MID-OFI-001-Registrar Oficio Judicial</t>
-  </si>
-  <si>
     <t xml:space="preserve"> N° Exp</t>
   </si>
   <si>
-    <t>Fecha</t>
-  </si>
-  <si>
     <t>Nombre Pasivo Demandado</t>
   </si>
   <si>
-    <t xml:space="preserve">DNI Pasivo </t>
-  </si>
-  <si>
     <t>% Embargo</t>
   </si>
   <si>
@@ -791,6 +782,21 @@
   </si>
   <si>
     <t>Tipo oficio judicial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUIL </t>
+  </si>
+  <si>
+    <t>CUIL</t>
+  </si>
+  <si>
+    <t>ORIGEN EXPTE</t>
+  </si>
+  <si>
+    <t>Fecha Exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUIL Pasivo </t>
   </si>
 </sst>
 </file>
@@ -1450,6 +1456,15 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1492,6 +1507,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1508,6 +1526,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1529,21 +1550,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3273,8 +3279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:AC31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W30" sqref="W30"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3303,8 +3309,8 @@
       </c>
     </row>
     <row r="2" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="R2" s="95"/>
-      <c r="S2" s="95"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
       <c r="AB2" t="s">
         <v>233</v>
       </c>
@@ -3338,45 +3344,43 @@
       </c>
     </row>
     <row r="6" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C6" s="98" t="s">
-        <v>249</v>
-      </c>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
-      <c r="N6" s="99"/>
-      <c r="O6" s="99"/>
-      <c r="P6" s="99"/>
-      <c r="Q6" s="100"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="104"/>
+      <c r="Q6" s="105"/>
       <c r="AC6" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="7" spans="3:29" ht="21" x14ac:dyDescent="0.4">
       <c r="C7" s="37"/>
-      <c r="D7" s="96" t="s">
+      <c r="D7" s="101" t="s">
         <v>229</v>
       </c>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="96"/>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="97"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
+      <c r="N7" s="101"/>
+      <c r="O7" s="101"/>
+      <c r="P7" s="101"/>
+      <c r="Q7" s="102"/>
     </row>
     <row r="8" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C8" s="37"/>
@@ -3415,10 +3419,10 @@
     </row>
     <row r="10" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C10" s="37"/>
-      <c r="D10" s="92" t="s">
+      <c r="D10" s="97" t="s">
         <v>241</v>
       </c>
-      <c r="E10" s="92"/>
+      <c r="E10" s="97"/>
       <c r="F10" s="71"/>
       <c r="G10" s="81" t="s">
         <v>230</v>
@@ -3433,20 +3437,20 @@
         <v>134</v>
       </c>
       <c r="M10" s="31"/>
-      <c r="N10" s="92" t="s">
+      <c r="N10" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="O10" s="92"/>
-      <c r="P10" s="92"/>
+      <c r="O10" s="97"/>
+      <c r="P10" s="97"/>
       <c r="Q10" s="83"/>
       <c r="R10" s="71"/>
     </row>
     <row r="11" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C11" s="37"/>
-      <c r="D11" s="93" t="s">
+      <c r="D11" s="98" t="s">
         <v>233</v>
       </c>
-      <c r="E11" s="94"/>
+      <c r="E11" s="99"/>
       <c r="F11" s="33"/>
       <c r="G11" s="3" t="s">
         <v>233</v>
@@ -3457,9 +3461,9 @@
       <c r="K11" s="31"/>
       <c r="L11" s="2"/>
       <c r="M11" s="31"/>
-      <c r="N11" s="89"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="91"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="96"/>
       <c r="Q11" s="83"/>
       <c r="R11" s="71"/>
     </row>
@@ -3501,25 +3505,25 @@
     </row>
     <row r="14" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C14" s="37"/>
-      <c r="D14" s="95" t="s">
+      <c r="D14" s="100" t="s">
         <v>239</v>
       </c>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
       <c r="H14" s="71"/>
-      <c r="I14" s="92" t="s">
+      <c r="I14" s="97" t="s">
         <v>247</v>
       </c>
-      <c r="J14" s="92"/>
-      <c r="K14" s="92"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="97"/>
       <c r="L14" s="31"/>
-      <c r="M14" s="92" t="s">
+      <c r="M14" s="97" t="s">
         <v>236</v>
       </c>
-      <c r="N14" s="92"/>
-      <c r="O14" s="92"/>
-      <c r="P14" s="92"/>
+      <c r="N14" s="97"/>
+      <c r="O14" s="97"/>
+      <c r="P14" s="97"/>
       <c r="Q14" s="83"/>
       <c r="R14" s="31"/>
       <c r="S14" s="31"/>
@@ -3535,10 +3539,10 @@
       <c r="J15" s="69"/>
       <c r="K15" s="30"/>
       <c r="L15" s="31"/>
-      <c r="M15" s="89"/>
-      <c r="N15" s="90"/>
-      <c r="O15" s="90"/>
-      <c r="P15" s="91"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="95"/>
+      <c r="O15" s="95"/>
+      <c r="P15" s="96"/>
       <c r="Q15" s="83"/>
       <c r="R15" s="31"/>
       <c r="S15" s="31"/>
@@ -3565,14 +3569,18 @@
       <c r="C17" s="37"/>
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
+      <c r="F17" s="31" t="s">
+        <v>254</v>
+      </c>
       <c r="G17" s="31"/>
       <c r="H17" s="31"/>
       <c r="I17" s="31"/>
       <c r="J17" s="31"/>
       <c r="K17" s="31"/>
       <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
+      <c r="M17" s="31" t="s">
+        <v>255</v>
+      </c>
       <c r="N17" s="31"/>
       <c r="O17" s="31"/>
       <c r="P17" s="31"/>
@@ -3581,21 +3589,21 @@
     </row>
     <row r="18" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C18" s="37"/>
-      <c r="D18" s="92" t="s">
+      <c r="D18" s="97" t="s">
         <v>237</v>
       </c>
-      <c r="E18" s="92"/>
+      <c r="E18" s="97"/>
       <c r="F18" s="31"/>
-      <c r="G18" s="92" t="s">
+      <c r="G18" s="97" t="s">
         <v>244</v>
       </c>
-      <c r="H18" s="92"/>
-      <c r="I18" s="92"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="97"/>
       <c r="J18" s="71"/>
-      <c r="K18" s="92" t="s">
+      <c r="K18" s="97" t="s">
         <v>245</v>
       </c>
-      <c r="L18" s="92"/>
+      <c r="L18" s="97"/>
       <c r="M18" s="71"/>
       <c r="N18" s="31" t="s">
         <v>135</v>
@@ -3608,15 +3616,15 @@
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C19" s="37"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="102"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="107"/>
       <c r="F19" s="31"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="91"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="96"/>
       <c r="J19" s="71"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="102"/>
+      <c r="K19" s="106"/>
+      <c r="L19" s="107"/>
       <c r="M19" s="85"/>
       <c r="N19" s="2"/>
       <c r="P19" s="2"/>
@@ -3664,46 +3672,46 @@
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C22" s="37"/>
-      <c r="D22" s="92" t="s">
+      <c r="D22" s="97" t="s">
         <v>137</v>
       </c>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
       <c r="G22" s="31"/>
-      <c r="H22" s="92" t="s">
+      <c r="H22" s="97" t="s">
         <v>242</v>
       </c>
-      <c r="I22" s="92"/>
-      <c r="J22" s="92"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="97"/>
       <c r="K22" s="31"/>
       <c r="L22" s="81" t="s">
         <v>243</v>
       </c>
       <c r="M22" s="81"/>
       <c r="N22" s="31"/>
-      <c r="O22" s="95" t="s">
+      <c r="O22" s="100" t="s">
         <v>139</v>
       </c>
-      <c r="P22" s="95"/>
+      <c r="P22" s="100"/>
       <c r="Q22" s="84"/>
       <c r="R22" s="31"/>
       <c r="S22" s="31"/>
     </row>
     <row r="23" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C23" s="37"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="91"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="96"/>
       <c r="G23" s="31"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="91"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="95"/>
+      <c r="J23" s="96"/>
       <c r="K23" s="31"/>
-      <c r="L23" s="89"/>
-      <c r="M23" s="91"/>
+      <c r="L23" s="94"/>
+      <c r="M23" s="96"/>
       <c r="N23" s="31"/>
-      <c r="O23" s="89"/>
-      <c r="P23" s="91"/>
+      <c r="O23" s="94"/>
+      <c r="P23" s="96"/>
       <c r="Q23" s="84"/>
     </row>
     <row r="24" spans="3:19" x14ac:dyDescent="0.3">
@@ -3873,8 +3881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:AA40"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3908,27 +3916,29 @@
     </row>
     <row r="7" spans="3:27" ht="21" x14ac:dyDescent="0.4">
       <c r="C7" s="37"/>
-      <c r="D7" s="96" t="s">
+      <c r="D7" s="101" t="s">
         <v>131</v>
       </c>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="97"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
+      <c r="N7" s="101"/>
+      <c r="O7" s="102"/>
       <c r="AA7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C8" s="37"/>
-      <c r="D8" s="31"/>
+      <c r="D8" s="31" t="s">
+        <v>256</v>
+      </c>
       <c r="E8" s="31"/>
       <c r="F8" s="31"/>
       <c r="G8" s="31"/>
@@ -3964,21 +3974,21 @@
     </row>
     <row r="10" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C10" s="37"/>
-      <c r="D10" s="92" t="s">
+      <c r="D10" s="97" t="s">
         <v>132</v>
       </c>
-      <c r="E10" s="92"/>
+      <c r="E10" s="97"/>
       <c r="F10" s="32"/>
       <c r="G10" s="32" t="s">
         <v>134</v>
       </c>
       <c r="H10" s="31"/>
-      <c r="I10" s="92" t="s">
+      <c r="I10" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="97"/>
       <c r="M10" s="31"/>
       <c r="N10" s="87" t="s">
         <v>230</v>
@@ -4054,30 +4064,34 @@
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
       <c r="H14" s="31"/>
-      <c r="I14" s="92" t="s">
+      <c r="I14" s="97" t="s">
         <v>237</v>
       </c>
-      <c r="J14" s="92"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="92" t="s">
+      <c r="J14" s="97"/>
+      <c r="K14" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="L14" s="97" t="s">
         <v>245</v>
       </c>
-      <c r="M14" s="92"/>
-      <c r="N14" s="31"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="31" t="s">
+        <v>255</v>
+      </c>
       <c r="O14" s="38"/>
     </row>
     <row r="15" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C15" s="37"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="91"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="96"/>
       <c r="H15" s="31"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="91"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="96"/>
       <c r="K15" s="32"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="91"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="96"/>
       <c r="N15" s="31"/>
       <c r="O15" s="38"/>
     </row>
@@ -4113,19 +4127,19 @@
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C18" s="37"/>
-      <c r="D18" s="92" t="s">
+      <c r="D18" s="97" t="s">
         <v>137</v>
       </c>
-      <c r="E18" s="92"/>
+      <c r="E18" s="97"/>
       <c r="F18" s="31"/>
       <c r="G18" s="32" t="s">
         <v>138</v>
       </c>
       <c r="H18" s="31"/>
-      <c r="I18" s="92" t="s">
+      <c r="I18" s="97" t="s">
         <v>139</v>
       </c>
-      <c r="J18" s="92"/>
+      <c r="J18" s="97"/>
       <c r="K18" s="31"/>
       <c r="L18" s="31" t="s">
         <v>244</v>
@@ -4256,31 +4270,31 @@
       <c r="N26" s="31"/>
       <c r="O26" s="38"/>
     </row>
-    <row r="27" spans="3:15" s="118" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="117"/>
-      <c r="D27" s="119" t="s">
+    <row r="27" spans="3:15" s="91" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="90"/>
+      <c r="D27" s="92" t="s">
+        <v>249</v>
+      </c>
+      <c r="E27" s="108" t="s">
+        <v>257</v>
+      </c>
+      <c r="F27" s="108"/>
+      <c r="G27" s="108" t="s">
         <v>250</v>
       </c>
-      <c r="E27" s="121" t="s">
+      <c r="H27" s="108"/>
+      <c r="I27" s="108"/>
+      <c r="J27" s="92" t="s">
+        <v>258</v>
+      </c>
+      <c r="K27" s="92" t="s">
         <v>251</v>
       </c>
-      <c r="F27" s="121"/>
-      <c r="G27" s="121" t="s">
+      <c r="L27" s="108" t="s">
         <v>252</v>
       </c>
-      <c r="H27" s="121"/>
-      <c r="I27" s="121"/>
-      <c r="J27" s="119" t="s">
-        <v>253</v>
-      </c>
-      <c r="K27" s="119" t="s">
-        <v>254</v>
-      </c>
-      <c r="L27" s="121" t="s">
-        <v>255</v>
-      </c>
-      <c r="M27" s="121"/>
-      <c r="N27" s="120"/>
+      <c r="M27" s="108"/>
+      <c r="N27" s="93"/>
       <c r="O27" s="44" t="s">
         <v>141</v>
       </c>
@@ -4482,6 +4496,9 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I14:J14"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="L27:M27"/>
@@ -4492,9 +4509,6 @@
     <mergeCell ref="D15:G15"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="I18:J18"/>
-    <mergeCell ref="D7:O7"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I14:J14"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N11">
@@ -4512,7 +4526,7 @@
   <dimension ref="B1:AZ69"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:E11"/>
+      <selection activeCell="K19" sqref="K19:N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4648,21 +4662,21 @@
     </row>
     <row r="7" spans="3:52" ht="21" x14ac:dyDescent="0.4">
       <c r="C7" s="37"/>
-      <c r="D7" s="96" t="s">
+      <c r="D7" s="101" t="s">
         <v>198</v>
       </c>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="96"/>
-      <c r="P7" s="97"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
+      <c r="N7" s="101"/>
+      <c r="O7" s="101"/>
+      <c r="P7" s="102"/>
       <c r="AC7" t="s">
         <v>146</v>
       </c>
@@ -4721,21 +4735,21 @@
     </row>
     <row r="10" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C10" s="37"/>
-      <c r="D10" s="92" t="s">
+      <c r="D10" s="97" t="s">
         <v>191</v>
       </c>
-      <c r="E10" s="92"/>
-      <c r="F10" s="95" t="s">
+      <c r="E10" s="97"/>
+      <c r="F10" s="100" t="s">
         <v>220</v>
       </c>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
       <c r="I10" s="31"/>
-      <c r="J10" s="106" t="s">
+      <c r="J10" s="112" t="s">
         <v>228</v>
       </c>
-      <c r="K10" s="106"/>
-      <c r="L10" s="106"/>
+      <c r="K10" s="112"/>
+      <c r="L10" s="112"/>
       <c r="M10" s="46"/>
       <c r="N10" s="87" t="s">
         <v>192</v>
@@ -4749,21 +4763,21 @@
     </row>
     <row r="11" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C11" s="37"/>
-      <c r="D11" s="107" t="s">
+      <c r="D11" s="113" t="s">
         <v>186</v>
       </c>
-      <c r="E11" s="108"/>
+      <c r="E11" s="114"/>
       <c r="F11" s="51"/>
       <c r="G11" s="64">
         <v>1</v>
       </c>
       <c r="H11" s="64"/>
       <c r="I11" s="31"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="104"/>
-      <c r="L11" s="105"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="111"/>
       <c r="M11" s="47"/>
-      <c r="N11" s="116"/>
+      <c r="N11" s="89"/>
       <c r="P11" s="88"/>
       <c r="AC11" t="s">
         <v>150</v>
@@ -4787,10 +4801,10 @@
     </row>
     <row r="13" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C13" s="37"/>
-      <c r="D13" s="122" t="s">
+      <c r="D13" s="115" t="s">
         <v>216</v>
       </c>
-      <c r="E13" s="122"/>
+      <c r="E13" s="115"/>
       <c r="F13" s="51"/>
       <c r="H13" s="31"/>
       <c r="I13" s="31"/>
@@ -4806,10 +4820,10 @@
     </row>
     <row r="14" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C14" s="37"/>
-      <c r="D14" s="107" t="s">
+      <c r="D14" s="113" t="s">
         <v>186</v>
       </c>
-      <c r="E14" s="108"/>
+      <c r="E14" s="114"/>
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
       <c r="H14" s="31"/>
@@ -4846,21 +4860,21 @@
     </row>
     <row r="16" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C16" s="37"/>
-      <c r="D16" s="92" t="s">
+      <c r="D16" s="97" t="s">
         <v>227</v>
       </c>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
       <c r="I16" s="31"/>
       <c r="J16" s="31"/>
-      <c r="K16" s="92" t="s">
+      <c r="K16" s="97" t="s">
         <v>222</v>
       </c>
-      <c r="L16" s="92"/>
-      <c r="M16" s="92"/>
-      <c r="N16" s="92"/>
+      <c r="L16" s="97"/>
+      <c r="M16" s="97"/>
+      <c r="N16" s="97"/>
       <c r="O16" s="32"/>
       <c r="P16" s="38"/>
       <c r="AC16" t="s">
@@ -4869,17 +4883,17 @@
     </row>
     <row r="17" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C17" s="37"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="91"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="96"/>
       <c r="I17" s="31"/>
       <c r="J17" s="31"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="91"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="96"/>
       <c r="O17" s="32"/>
       <c r="P17" s="38"/>
       <c r="AC17" t="s">
@@ -4909,21 +4923,21 @@
     </row>
     <row r="19" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C19" s="37"/>
-      <c r="D19" s="92" t="s">
+      <c r="D19" s="97" t="s">
         <v>223</v>
       </c>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="92"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="97"/>
       <c r="I19" s="31"/>
       <c r="J19" s="31"/>
-      <c r="K19" s="92" t="s">
+      <c r="K19" s="97" t="s">
         <v>224</v>
       </c>
-      <c r="L19" s="92"/>
-      <c r="M19" s="92"/>
-      <c r="N19" s="92"/>
+      <c r="L19" s="97"/>
+      <c r="M19" s="97"/>
+      <c r="N19" s="97"/>
       <c r="O19" s="32"/>
       <c r="P19" s="38"/>
       <c r="AC19" t="s">
@@ -4934,17 +4948,17 @@
     </row>
     <row r="20" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C20" s="37"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="91"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="96"/>
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="90"/>
-      <c r="N20" s="91"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="96"/>
       <c r="O20" s="32"/>
       <c r="P20" s="38"/>
       <c r="AC20" t="s">
@@ -4976,21 +4990,21 @@
     </row>
     <row r="22" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C22" s="37"/>
-      <c r="D22" s="92" t="s">
+      <c r="D22" s="97" t="s">
         <v>225</v>
       </c>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="92"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
       <c r="I22" s="31"/>
       <c r="J22" s="31"/>
-      <c r="K22" s="92" t="s">
+      <c r="K22" s="97" t="s">
         <v>226</v>
       </c>
-      <c r="L22" s="92"/>
-      <c r="M22" s="92"/>
-      <c r="N22" s="92"/>
+      <c r="L22" s="97"/>
+      <c r="M22" s="97"/>
+      <c r="N22" s="97"/>
       <c r="O22" s="32"/>
       <c r="P22" s="38"/>
       <c r="AC22" t="s">
@@ -5001,17 +5015,17 @@
     </row>
     <row r="23" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C23" s="37"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="91"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="96"/>
       <c r="I23" s="31"/>
       <c r="J23" s="31"/>
-      <c r="K23" s="89"/>
-      <c r="L23" s="90"/>
-      <c r="M23" s="90"/>
-      <c r="N23" s="91"/>
+      <c r="K23" s="94"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="96"/>
       <c r="O23" s="32"/>
       <c r="P23" s="38"/>
       <c r="AC23" t="s">
@@ -5111,21 +5125,21 @@
     </row>
     <row r="29" spans="3:37" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="37"/>
-      <c r="D29" s="96" t="s">
+      <c r="D29" s="101" t="s">
         <v>203</v>
       </c>
-      <c r="E29" s="96"/>
-      <c r="F29" s="96"/>
-      <c r="G29" s="96"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="96"/>
-      <c r="J29" s="96"/>
-      <c r="K29" s="96"/>
-      <c r="L29" s="96"/>
-      <c r="M29" s="96"/>
-      <c r="N29" s="96"/>
-      <c r="O29" s="96"/>
-      <c r="P29" s="97"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="101"/>
+      <c r="J29" s="101"/>
+      <c r="K29" s="101"/>
+      <c r="L29" s="101"/>
+      <c r="M29" s="101"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="102"/>
     </row>
     <row r="30" spans="3:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C30" s="37"/>
@@ -5168,19 +5182,19 @@
       <c r="H32" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="I32" s="113" t="s">
+      <c r="I32" s="120" t="s">
         <v>124</v>
       </c>
       <c r="J32" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="K32" s="113" t="s">
+      <c r="K32" s="120" t="s">
         <v>126</v>
       </c>
       <c r="L32" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="M32" s="113" t="s">
+      <c r="M32" s="120" t="s">
         <v>127</v>
       </c>
       <c r="N32" s="32" t="s">
@@ -5196,11 +5210,11 @@
       <c r="F33" s="31"/>
       <c r="G33" s="55"/>
       <c r="H33" s="49"/>
-      <c r="I33" s="113"/>
+      <c r="I33" s="120"/>
       <c r="J33" s="49"/>
-      <c r="K33" s="113"/>
+      <c r="K33" s="120"/>
       <c r="L33" s="49"/>
-      <c r="M33" s="113"/>
+      <c r="M33" s="120"/>
       <c r="N33" s="50">
         <v>0.2</v>
       </c>
@@ -5283,13 +5297,13 @@
       <c r="H38" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="I38" s="113" t="s">
+      <c r="I38" s="120" t="s">
         <v>124</v>
       </c>
       <c r="J38" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="K38" s="113" t="s">
+      <c r="K38" s="120" t="s">
         <v>129</v>
       </c>
       <c r="L38" s="32" t="s">
@@ -5309,9 +5323,9 @@
       <c r="F39" s="31"/>
       <c r="G39" s="55"/>
       <c r="H39" s="49"/>
-      <c r="I39" s="113"/>
+      <c r="I39" s="120"/>
       <c r="J39" s="49"/>
-      <c r="K39" s="113"/>
+      <c r="K39" s="120"/>
       <c r="L39" s="49"/>
       <c r="M39" s="63"/>
       <c r="N39" s="31"/>
@@ -5369,11 +5383,11 @@
       <c r="E43" s="31"/>
       <c r="F43" s="31"/>
       <c r="G43" s="31"/>
-      <c r="H43" s="89" t="s">
+      <c r="H43" s="94" t="s">
         <v>202</v>
       </c>
-      <c r="I43" s="90"/>
-      <c r="J43" s="91"/>
+      <c r="I43" s="95"/>
+      <c r="J43" s="96"/>
       <c r="K43" s="31"/>
       <c r="L43" s="31"/>
       <c r="M43" s="31"/>
@@ -5390,10 +5404,10 @@
       <c r="H44" s="61" t="s">
         <v>200</v>
       </c>
-      <c r="I44" s="109" t="s">
+      <c r="I44" s="116" t="s">
         <v>201</v>
       </c>
-      <c r="J44" s="110"/>
+      <c r="J44" s="117"/>
       <c r="K44" s="31"/>
       <c r="L44" s="31"/>
       <c r="M44" s="31"/>
@@ -5410,8 +5424,8 @@
       <c r="H45" s="61">
         <v>1094</v>
       </c>
-      <c r="I45" s="111"/>
-      <c r="J45" s="112"/>
+      <c r="I45" s="118"/>
+      <c r="J45" s="119"/>
       <c r="K45" s="31"/>
       <c r="L45" s="31"/>
       <c r="M45" s="31"/>
@@ -5931,8 +5945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5960,20 +5974,20 @@
       <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C3" s="114" t="s">
+      <c r="C3" s="121" t="s">
         <v>214</v>
       </c>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="I3" s="115" t="s">
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="I3" s="122" t="s">
         <v>215</v>
       </c>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="115"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="122"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C4" s="72" t="s">
@@ -6648,20 +6662,20 @@
       <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C3" s="114" t="s">
+      <c r="C3" s="121" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="I3" s="115" t="s">
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="I3" s="122" t="s">
         <v>98</v>
       </c>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="115"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="122"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C4" s="16" t="s">

--- a/6- Ingenieria de producto/6.1 - Análisis/04- Archivos de Trabajo/01-Embargos/MID - Módulo Judicial v1.xlsx
+++ b/6- Ingenieria de producto/6.1 - Análisis/04- Archivos de Trabajo/01-Embargos/MID - Módulo Judicial v1.xlsx
@@ -8,11 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="Registrar Oficio" sheetId="6" r:id="rId2"/>
-    <sheet name="Bandeja de Oficios" sheetId="4" r:id="rId3"/>
-    <sheet name="Registrar Cálculo Oficio" sheetId="5" r:id="rId4"/>
-    <sheet name="embargo porcentual" sheetId="1" r:id="rId5"/>
-    <sheet name="embargo suma fija" sheetId="2" r:id="rId6"/>
+    <sheet name="Oficio-Vicentini A Omar" sheetId="5" r:id="rId2"/>
+    <sheet name="embargo porcentual" sheetId="1" r:id="rId3"/>
+    <sheet name="embargo suma fija" sheetId="2" r:id="rId4"/>
+    <sheet name="REGISTRAR OFICIO" sheetId="6" r:id="rId5"/>
+    <sheet name="BANDEJA DE OFICIOS" sheetId="4" r:id="rId6"/>
+    <sheet name="Vicentini A Omar (2)" sheetId="9" state="hidden" r:id="rId7"/>
+    <sheet name="embargo porcentual (2)" sheetId="8" state="hidden" r:id="rId8"/>
+    <sheet name="Registrar Cálculo Oficio (2)" sheetId="7" state="hidden" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="272">
   <si>
     <t>se toma el menor de ambos</t>
   </si>
@@ -797,6 +800,45 @@
   </si>
   <si>
     <t xml:space="preserve">CUIL Pasivo </t>
+  </si>
+  <si>
+    <t>Mínimo</t>
+  </si>
+  <si>
+    <t>Máximo</t>
+  </si>
+  <si>
+    <t>PACHECO, MARIA FABIANA C/ VICENTINI, ALBERTO OMAR</t>
+  </si>
+  <si>
+    <t>Obra Social</t>
+  </si>
+  <si>
+    <t>Imp Ganancias</t>
+  </si>
+  <si>
+    <t>BE BRUTA (haber bruto) (+)</t>
+  </si>
+  <si>
+    <t>BE NETA (Haber neto) (-)</t>
+  </si>
+  <si>
+    <t>Subtotal</t>
+  </si>
+  <si>
+    <t>(BE neta</t>
+  </si>
+  <si>
+    <t>MNE)</t>
+  </si>
+  <si>
+    <t>MNE Mínimo</t>
+  </si>
+  <si>
+    <t>ME Máximo</t>
+  </si>
+  <si>
+    <t>Monto</t>
   </si>
 </sst>
 </file>
@@ -806,7 +848,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -977,8 +1019,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1060,6 +1116,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1300,7 +1362,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1364,9 +1426,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="18" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1396,9 +1455,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1453,9 +1509,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1465,6 +1518,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1474,16 +1539,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1501,14 +1566,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="13" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1531,27 +1605,115 @@
     <xf numFmtId="0" fontId="18" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="13" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="1" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="1" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="1" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="1" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -1575,6 +1737,685 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>184149</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="1 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="793750" y="317500"/>
+          <a:ext cx="10293350" cy="603249"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>11429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="2 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="811531" y="925829"/>
+          <a:ext cx="476250" cy="2047875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="3 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="817880" y="952499"/>
+          <a:ext cx="476250" cy="2036445"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="9 Rectángulo"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1708150" y="9639300"/>
+          <a:ext cx="1809749" cy="1981200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Referencias fórmula</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-AR" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1050" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>BE: Base embargable</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1050" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>BEN: Base embargable neta</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1050" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>BEB: Base embargable bruta</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1050" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>MNE: Mín no embargable</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1050" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PE: Porcentaje embargo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1050" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>IET: Importe embargable teórico</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1050" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ME: Máx embargable</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-AR" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="12 Rectángulo redondeado"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7912100" y="4229100"/>
+          <a:ext cx="958850" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" b="1"/>
+            <a:t>Calcular</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>831850</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="19 Rectángulo redondeado"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6369050" y="8159750"/>
+          <a:ext cx="958850" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" b="1"/>
+            <a:t>Volver</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="20 Rectángulo redondeado"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7639050" y="8172450"/>
+          <a:ext cx="958850" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" b="1"/>
+            <a:t>Guardar</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>984250</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="21 Rectángulo redondeado"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8845550" y="8140700"/>
+          <a:ext cx="958850" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" b="1"/>
+            <a:t>Registrar</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1884,7 +2725,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2172,7 +3013,686 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="1 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="792480" y="365760"/>
+          <a:ext cx="9742169" cy="548640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>11429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="2 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="811531" y="925829"/>
+          <a:ext cx="476250" cy="2047875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="3 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="817880" y="952499"/>
+          <a:ext cx="476250" cy="1952625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="4 Rectángulo"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1705610" y="9603740"/>
+          <a:ext cx="1807209" cy="1974850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Referencias fórmula</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-AR" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1050" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>BE: Base embargable</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1050" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>BEN: Base embargable neta</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1050" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>BEB: Base embargable bruta</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1050" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>MNE: Mín no embargable</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1050" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PE: Porcentaje embargo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1050" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>IET: Importe embargable teórico</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1050" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ME: Máx embargable</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-AR" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="5 Rectángulo redondeado"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8257540" y="5215890"/>
+          <a:ext cx="1121410" cy="227330"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" b="1"/>
+            <a:t>Calcular</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>831850</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="6 Rectángulo redondeado"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6718300" y="12720320"/>
+          <a:ext cx="956310" cy="226060"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" b="1"/>
+            <a:t>Volver</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="7 Rectángulo redondeado"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7985760" y="12733020"/>
+          <a:ext cx="957580" cy="226060"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" b="1"/>
+            <a:t>Guardar</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>984250</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="8 Rectángulo redondeado"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9190990" y="12701270"/>
+          <a:ext cx="1118870" cy="227330"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" b="1"/>
+            <a:t>Registrar</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2209,8 +3729,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="793751" y="368300"/>
-          <a:ext cx="9201150" cy="552450"/>
+          <a:off x="792481" y="365760"/>
+          <a:ext cx="9197340" cy="548640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2265,7 +3785,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="811531" y="925829"/>
-          <a:ext cx="476250" cy="2047875"/>
+          <a:ext cx="476250" cy="2050415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2320,7 +3840,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="817880" y="952499"/>
-          <a:ext cx="476250" cy="2036445"/>
+          <a:ext cx="476250" cy="1953895"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2354,13 +3874,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="9 Rectángulo"/>
+        <xdr:cNvPr id="5" name="4 Rectángulo"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1708150" y="5594350"/>
-          <a:ext cx="1809749" cy="1619250"/>
+          <a:off x="1705610" y="5565140"/>
+          <a:ext cx="1807209" cy="1614170"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2603,13 +4123,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="12 Rectángulo redondeado"/>
+        <xdr:cNvPr id="6" name="5 Rectángulo redondeado"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7912100" y="4229100"/>
-          <a:ext cx="958850" cy="228600"/>
+          <a:off x="7907020" y="4568190"/>
+          <a:ext cx="961390" cy="227330"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2668,13 +4188,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="19 Rectángulo redondeado"/>
+        <xdr:cNvPr id="7" name="6 Rectángulo redondeado"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6369050" y="8159750"/>
-          <a:ext cx="958850" cy="228600"/>
+          <a:off x="6367780" y="8681720"/>
+          <a:ext cx="956310" cy="226060"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2733,13 +4253,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="20 Rectángulo redondeado"/>
+        <xdr:cNvPr id="8" name="7 Rectángulo redondeado"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7639050" y="8172450"/>
-          <a:ext cx="958850" cy="228600"/>
+          <a:off x="7635240" y="8694420"/>
+          <a:ext cx="957580" cy="226060"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2798,13 +4318,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="21 Rectángulo redondeado"/>
+        <xdr:cNvPr id="9" name="8 Rectángulo redondeado"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8845550" y="8140700"/>
-          <a:ext cx="958850" cy="228600"/>
+          <a:off x="8840470" y="8662670"/>
+          <a:ext cx="958850" cy="227330"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3140,7 +4660,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3277,10 +4797,2952 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="B1:AZ78"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="1.6640625" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" customWidth="1"/>
+    <col min="7" max="7" width="4" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" customWidth="1"/>
+    <col min="11" max="11" width="6.44140625" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" customWidth="1"/>
+    <col min="13" max="13" width="5.44140625" customWidth="1"/>
+    <col min="14" max="14" width="17" customWidth="1"/>
+    <col min="15" max="15" width="2.5546875" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:52" x14ac:dyDescent="0.3">
+      <c r="P1" s="157" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AO1" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS1" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="AW1" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="AZ1" s="14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="3:52" x14ac:dyDescent="0.3">
+      <c r="AO2" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS2" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="AW2" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="AZ2" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="3:52" x14ac:dyDescent="0.3">
+      <c r="AC3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH3" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL3" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO3" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="AW3" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="AZ3" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="3:52" x14ac:dyDescent="0.3">
+      <c r="AC4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH4" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="AL4" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="AO4" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="AZ4" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="3:52" x14ac:dyDescent="0.3">
+      <c r="AC5" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH5" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL5" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="AO5" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="AZ5" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="3:52" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="160" t="s">
+        <v>261</v>
+      </c>
+      <c r="D6" s="158"/>
+      <c r="E6" s="158"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="158"/>
+      <c r="H6" s="158"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="158"/>
+      <c r="K6" s="158"/>
+      <c r="L6" s="158"/>
+      <c r="M6" s="158"/>
+      <c r="N6" s="158"/>
+      <c r="O6" s="158"/>
+      <c r="P6" s="159"/>
+      <c r="AC6" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH6" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="AZ6" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="3:52" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C7" s="37"/>
+      <c r="D7" s="102" t="s">
+        <v>198</v>
+      </c>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="103"/>
+      <c r="AC7" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH7" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="AZ7" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="3:52" x14ac:dyDescent="0.3">
+      <c r="C8" s="37"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="38"/>
+      <c r="AC8" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH8" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="AZ8" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="3:52" x14ac:dyDescent="0.3">
+      <c r="C9" s="37"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="38"/>
+      <c r="AC9" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH9" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="AZ9" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="3:52" x14ac:dyDescent="0.3">
+      <c r="C10" s="37"/>
+      <c r="D10" s="93" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="93"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="91" t="s">
+        <v>220</v>
+      </c>
+      <c r="I10" s="31"/>
+      <c r="J10" s="116" t="s">
+        <v>228</v>
+      </c>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="91" t="s">
+        <v>192</v>
+      </c>
+      <c r="O10" s="31"/>
+      <c r="P10" s="64"/>
+      <c r="AC10" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="13"/>
+    </row>
+    <row r="11" spans="3:52" x14ac:dyDescent="0.3">
+      <c r="C11" s="37"/>
+      <c r="D11" s="132" t="s">
+        <v>186</v>
+      </c>
+      <c r="E11" s="133"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="156"/>
+      <c r="H11" s="131">
+        <v>20</v>
+      </c>
+      <c r="I11" s="31"/>
+      <c r="J11" s="113"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="115"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="130">
+        <v>632088.51</v>
+      </c>
+      <c r="O11" s="31"/>
+      <c r="P11" s="64"/>
+      <c r="AC11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="3:52" s="161" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="162"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="163"/>
+      <c r="H12" s="164"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="165"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="64"/>
+    </row>
+    <row r="13" spans="3:52" x14ac:dyDescent="0.3">
+      <c r="C13" s="37"/>
+      <c r="D13" s="91" t="s">
+        <v>206</v>
+      </c>
+      <c r="E13" s="91" t="s">
+        <v>271</v>
+      </c>
+      <c r="F13" s="50"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="123" t="s">
+        <v>269</v>
+      </c>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123" t="s">
+        <v>270</v>
+      </c>
+      <c r="K13" s="92"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="92"/>
+      <c r="O13" s="92"/>
+      <c r="P13" s="64"/>
+    </row>
+    <row r="14" spans="3:52" x14ac:dyDescent="0.3">
+      <c r="C14" s="37"/>
+      <c r="D14" s="166">
+        <v>87987</v>
+      </c>
+      <c r="E14" s="167"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="150"/>
+      <c r="I14" s="148"/>
+      <c r="J14" s="149">
+        <v>0</v>
+      </c>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="64"/>
+    </row>
+    <row r="15" spans="3:52" x14ac:dyDescent="0.3">
+      <c r="C15" s="37"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="38"/>
+      <c r="AC15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="3:52" x14ac:dyDescent="0.3">
+      <c r="C16" s="37"/>
+      <c r="D16" s="93" t="s">
+        <v>227</v>
+      </c>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="93" t="s">
+        <v>222</v>
+      </c>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="91"/>
+      <c r="P16" s="38"/>
+      <c r="AC16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C17" s="37"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="97"/>
+      <c r="O17" s="91"/>
+      <c r="P17" s="38"/>
+      <c r="AC17" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ17" s="12"/>
+      <c r="AK17" s="12"/>
+    </row>
+    <row r="18" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C18" s="37"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="38"/>
+      <c r="AC18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C19" s="37"/>
+      <c r="D19" s="93" t="s">
+        <v>223</v>
+      </c>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="93" t="s">
+        <v>224</v>
+      </c>
+      <c r="L19" s="93"/>
+      <c r="M19" s="93"/>
+      <c r="N19" s="93"/>
+      <c r="O19" s="91"/>
+      <c r="P19" s="38"/>
+      <c r="AC19" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ19" s="11"/>
+      <c r="AK19" s="11"/>
+    </row>
+    <row r="20" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C20" s="37"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="96"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="97"/>
+      <c r="O20" s="91"/>
+      <c r="P20" s="38"/>
+      <c r="AC20" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ20" s="11"/>
+      <c r="AK20" s="11"/>
+    </row>
+    <row r="21" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C21" s="37"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="38"/>
+      <c r="AC21" t="s">
+        <v>158</v>
+      </c>
+      <c r="AJ21" s="11"/>
+      <c r="AK21" s="11"/>
+    </row>
+    <row r="22" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C22" s="37"/>
+      <c r="D22" s="93" t="s">
+        <v>225</v>
+      </c>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="93" t="s">
+        <v>226</v>
+      </c>
+      <c r="L22" s="93"/>
+      <c r="M22" s="93"/>
+      <c r="N22" s="93"/>
+      <c r="O22" s="91"/>
+      <c r="P22" s="38"/>
+      <c r="AC22" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ22" s="11"/>
+      <c r="AK22" s="11"/>
+    </row>
+    <row r="23" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C23" s="37"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="97"/>
+      <c r="O23" s="91"/>
+      <c r="P23" s="38"/>
+      <c r="AC23" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ23" s="11"/>
+      <c r="AK23" s="11"/>
+    </row>
+    <row r="24" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C24" s="37"/>
+      <c r="D24" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="38"/>
+      <c r="AC24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C25" s="37"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="38"/>
+    </row>
+    <row r="26" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C26" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="38"/>
+      <c r="AJ26" s="10"/>
+      <c r="AK26" s="10"/>
+    </row>
+    <row r="27" spans="3:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="40"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="42"/>
+    </row>
+    <row r="28" spans="3:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="37"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="38"/>
+    </row>
+    <row r="29" spans="3:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="37"/>
+      <c r="D29" s="153" t="s">
+        <v>264</v>
+      </c>
+      <c r="E29" s="154"/>
+      <c r="F29" s="154"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="155"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="153" t="s">
+        <v>265</v>
+      </c>
+      <c r="K29" s="154"/>
+      <c r="L29" s="154"/>
+      <c r="M29" s="154"/>
+      <c r="N29" s="155"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="38"/>
+    </row>
+    <row r="30" spans="3:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="37"/>
+      <c r="D30" s="147">
+        <v>9002</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="142">
+        <v>632088.51</v>
+      </c>
+      <c r="I30" s="31"/>
+      <c r="J30" s="147">
+        <v>1470</v>
+      </c>
+      <c r="K30" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="142">
+        <v>31604.43</v>
+      </c>
+      <c r="O30" s="31"/>
+      <c r="P30" s="38"/>
+    </row>
+    <row r="31" spans="3:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="142"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="147">
+        <v>3000</v>
+      </c>
+      <c r="K31" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="142">
+        <v>34417.629999999997</v>
+      </c>
+      <c r="O31" s="31"/>
+      <c r="P31" s="38"/>
+    </row>
+    <row r="32" spans="3:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="142"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="142"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="38"/>
+    </row>
+    <row r="33" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="142"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="142"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="38"/>
+    </row>
+    <row r="34" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="142"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="142"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="38"/>
+    </row>
+    <row r="35" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="37"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="151" t="s">
+        <v>266</v>
+      </c>
+      <c r="G35" s="151"/>
+      <c r="H35" s="152">
+        <f>SUM(H30:H34)</f>
+        <v>632088.51</v>
+      </c>
+      <c r="I35" s="43"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="151" t="s">
+        <v>266</v>
+      </c>
+      <c r="M35" s="151"/>
+      <c r="N35" s="152">
+        <f>SUM(N30:N34)</f>
+        <v>66022.06</v>
+      </c>
+      <c r="O35" s="31"/>
+      <c r="P35" s="38"/>
+    </row>
+    <row r="36" spans="3:16" s="161" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="162"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="170"/>
+      <c r="G36" s="170"/>
+      <c r="H36" s="171"/>
+      <c r="I36" s="170"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="170"/>
+      <c r="M36" s="170"/>
+      <c r="N36" s="171"/>
+      <c r="O36" s="46"/>
+      <c r="P36" s="172"/>
+    </row>
+    <row r="37" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="37"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="38"/>
+    </row>
+    <row r="38" spans="3:16" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C38" s="34"/>
+      <c r="D38" s="168" t="s">
+        <v>203</v>
+      </c>
+      <c r="E38" s="168"/>
+      <c r="F38" s="168"/>
+      <c r="G38" s="168"/>
+      <c r="H38" s="168"/>
+      <c r="I38" s="168"/>
+      <c r="J38" s="168"/>
+      <c r="K38" s="168"/>
+      <c r="L38" s="168"/>
+      <c r="M38" s="168"/>
+      <c r="N38" s="168"/>
+      <c r="O38" s="168"/>
+      <c r="P38" s="169"/>
+    </row>
+    <row r="39" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="37"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="38"/>
+    </row>
+    <row r="40" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C40" s="37"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="53"/>
+      <c r="P40" s="38"/>
+    </row>
+    <row r="41" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C41" s="37"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="I41" s="112" t="s">
+        <v>124</v>
+      </c>
+      <c r="J41" s="91" t="s">
+        <v>267</v>
+      </c>
+      <c r="K41" s="112" t="s">
+        <v>126</v>
+      </c>
+      <c r="L41" s="91" t="s">
+        <v>268</v>
+      </c>
+      <c r="M41" s="112" t="s">
+        <v>127</v>
+      </c>
+      <c r="N41" s="91" t="s">
+        <v>128</v>
+      </c>
+      <c r="O41" s="55"/>
+      <c r="P41" s="38"/>
+    </row>
+    <row r="42" spans="3:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="37"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="138">
+        <f>(L42-J42)*N42</f>
+        <v>113213.29</v>
+      </c>
+      <c r="I42" s="112"/>
+      <c r="J42" s="136">
+        <f>N35</f>
+        <v>66022.06</v>
+      </c>
+      <c r="K42" s="112"/>
+      <c r="L42" s="136">
+        <f>H35</f>
+        <v>632088.51</v>
+      </c>
+      <c r="M42" s="112"/>
+      <c r="N42" s="49">
+        <v>0.2</v>
+      </c>
+      <c r="O42" s="56"/>
+      <c r="P42" s="38"/>
+    </row>
+    <row r="43" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C43" s="37"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="58"/>
+      <c r="M43" s="58"/>
+      <c r="N43" s="58"/>
+      <c r="O43" s="59"/>
+      <c r="P43" s="38"/>
+    </row>
+    <row r="44" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C44" s="37"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="38"/>
+    </row>
+    <row r="45" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C45" s="37"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="31"/>
+      <c r="P45" s="38"/>
+    </row>
+    <row r="46" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C46" s="37"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="52"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="52"/>
+      <c r="M46" s="53"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="31"/>
+      <c r="P46" s="38"/>
+    </row>
+    <row r="47" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C47" s="37"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="54"/>
+      <c r="H47" s="91" t="s">
+        <v>199</v>
+      </c>
+      <c r="I47" s="112" t="s">
+        <v>124</v>
+      </c>
+      <c r="J47" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="K47" s="112" t="s">
+        <v>129</v>
+      </c>
+      <c r="L47" s="91" t="s">
+        <v>17</v>
+      </c>
+      <c r="M47" s="61"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="31"/>
+      <c r="P47" s="38"/>
+    </row>
+    <row r="48" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C48" s="37"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="54"/>
+      <c r="H48" s="136">
+        <f>MIN(J48,L48)</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="112"/>
+      <c r="J48" s="136">
+        <f>H42</f>
+        <v>113213.29</v>
+      </c>
+      <c r="K48" s="112"/>
+      <c r="L48" s="48">
+        <v>0</v>
+      </c>
+      <c r="M48" s="62"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="38"/>
+    </row>
+    <row r="49" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C49" s="37"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="58"/>
+      <c r="I49" s="58"/>
+      <c r="J49" s="58"/>
+      <c r="K49" s="58"/>
+      <c r="L49" s="58"/>
+      <c r="M49" s="59"/>
+      <c r="N49" s="31"/>
+      <c r="O49" s="31"/>
+      <c r="P49" s="38"/>
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C50" s="37"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="38"/>
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C51" s="37"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="31"/>
+      <c r="P51" s="38"/>
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C52" s="37"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="95" t="s">
+        <v>202</v>
+      </c>
+      <c r="I52" s="96"/>
+      <c r="J52" s="97"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="31"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="31"/>
+      <c r="P52" s="38"/>
+    </row>
+    <row r="53" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C53" s="37"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="60" t="s">
+        <v>200</v>
+      </c>
+      <c r="I53" s="108" t="s">
+        <v>201</v>
+      </c>
+      <c r="J53" s="109"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="31"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="31"/>
+      <c r="P53" s="38"/>
+    </row>
+    <row r="54" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C54" s="37"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="60">
+        <v>1094</v>
+      </c>
+      <c r="I54" s="110"/>
+      <c r="J54" s="111"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="31"/>
+      <c r="M54" s="31"/>
+      <c r="N54" s="31"/>
+      <c r="O54" s="31"/>
+      <c r="P54" s="38"/>
+    </row>
+    <row r="55" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C55" s="37"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="31"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="31"/>
+      <c r="O55" s="31"/>
+      <c r="P55" s="38"/>
+    </row>
+    <row r="56" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C56" s="37"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="31"/>
+      <c r="M56" s="31"/>
+      <c r="N56" s="31"/>
+      <c r="O56" s="31"/>
+      <c r="P56" s="38"/>
+    </row>
+    <row r="57" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C57" s="37"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="31"/>
+      <c r="N57" s="31"/>
+      <c r="O57" s="31"/>
+      <c r="P57" s="38"/>
+    </row>
+    <row r="58" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C58" s="37"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="38"/>
+    </row>
+    <row r="59" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B59" s="31"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="41"/>
+      <c r="J59" s="41"/>
+      <c r="K59" s="41"/>
+      <c r="L59" s="41"/>
+      <c r="M59" s="41"/>
+      <c r="N59" s="41"/>
+      <c r="O59" s="41"/>
+      <c r="P59" s="42"/>
+      <c r="Q59" s="31"/>
+      <c r="R59" s="31"/>
+    </row>
+    <row r="60" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="31"/>
+      <c r="M60" s="31"/>
+      <c r="N60" s="31"/>
+      <c r="O60" s="31"/>
+      <c r="P60" s="31"/>
+      <c r="Q60" s="31"/>
+      <c r="R60" s="31"/>
+    </row>
+    <row r="61" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B61" s="31"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="31"/>
+      <c r="K61" s="31"/>
+      <c r="L61" s="31"/>
+      <c r="M61" s="31"/>
+      <c r="N61" s="31"/>
+      <c r="O61" s="31"/>
+      <c r="P61" s="31"/>
+      <c r="Q61" s="31"/>
+      <c r="R61" s="31"/>
+    </row>
+    <row r="62" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B62" s="31"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="31"/>
+      <c r="L62" s="31"/>
+      <c r="M62" s="31"/>
+      <c r="N62" s="31"/>
+      <c r="O62" s="31"/>
+      <c r="P62" s="31"/>
+      <c r="Q62" s="31"/>
+      <c r="R62" s="31"/>
+    </row>
+    <row r="63" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B63" s="31"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="31"/>
+      <c r="L63" s="31"/>
+      <c r="M63" s="31"/>
+      <c r="N63" s="31"/>
+      <c r="O63" s="31"/>
+      <c r="P63" s="31"/>
+      <c r="Q63" s="31"/>
+      <c r="R63" s="31"/>
+    </row>
+    <row r="64" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B64" s="31"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="31"/>
+      <c r="L64" s="31"/>
+      <c r="M64" s="31"/>
+      <c r="N64" s="31"/>
+      <c r="O64" s="31"/>
+      <c r="P64" s="31"/>
+      <c r="Q64" s="31"/>
+      <c r="R64" s="31"/>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B65" s="31"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31"/>
+      <c r="K65" s="31"/>
+      <c r="L65" s="31"/>
+      <c r="M65" s="31"/>
+      <c r="N65" s="31"/>
+      <c r="O65" s="31"/>
+      <c r="P65" s="31"/>
+      <c r="Q65" s="31"/>
+      <c r="R65" s="31"/>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B66" s="31"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="31"/>
+      <c r="K66" s="31"/>
+      <c r="L66" s="31"/>
+      <c r="M66" s="31"/>
+      <c r="N66" s="31"/>
+      <c r="O66" s="31"/>
+      <c r="P66" s="31"/>
+      <c r="Q66" s="31"/>
+      <c r="R66" s="31"/>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B67" s="31"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="31"/>
+      <c r="K67" s="31"/>
+      <c r="L67" s="31"/>
+      <c r="M67" s="31"/>
+      <c r="N67" s="31"/>
+      <c r="O67" s="31"/>
+      <c r="P67" s="31"/>
+      <c r="Q67" s="31"/>
+      <c r="R67" s="31"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B68" s="31"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="31"/>
+      <c r="H68" s="31"/>
+      <c r="I68" s="31"/>
+      <c r="J68" s="31"/>
+      <c r="K68" s="31"/>
+      <c r="L68" s="31"/>
+      <c r="M68" s="31"/>
+      <c r="N68" s="31"/>
+      <c r="O68" s="31"/>
+      <c r="P68" s="31"/>
+      <c r="Q68" s="31"/>
+      <c r="R68" s="31"/>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B69" s="31"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="31"/>
+      <c r="K69" s="31"/>
+      <c r="L69" s="31"/>
+      <c r="M69" s="31"/>
+      <c r="N69" s="31"/>
+      <c r="O69" s="31"/>
+      <c r="P69" s="31"/>
+      <c r="Q69" s="31"/>
+      <c r="R69" s="31"/>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B70" s="31"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="31"/>
+      <c r="K70" s="31"/>
+      <c r="L70" s="31"/>
+      <c r="M70" s="31"/>
+      <c r="N70" s="31"/>
+      <c r="O70" s="31"/>
+      <c r="P70" s="31"/>
+      <c r="Q70" s="31"/>
+      <c r="R70" s="31"/>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B71" s="31"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="31"/>
+      <c r="H71" s="31"/>
+      <c r="I71" s="31"/>
+      <c r="J71" s="31"/>
+      <c r="K71" s="31"/>
+      <c r="L71" s="31"/>
+      <c r="M71" s="31"/>
+      <c r="N71" s="31"/>
+      <c r="O71" s="31"/>
+      <c r="P71" s="31"/>
+      <c r="Q71" s="31"/>
+      <c r="R71" s="31"/>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B72" s="31"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="31"/>
+      <c r="H72" s="31"/>
+      <c r="I72" s="31"/>
+      <c r="J72" s="31"/>
+      <c r="K72" s="31"/>
+      <c r="L72" s="31"/>
+      <c r="M72" s="31"/>
+      <c r="N72" s="31"/>
+      <c r="O72" s="31"/>
+      <c r="P72" s="31"/>
+      <c r="Q72" s="31"/>
+      <c r="R72" s="31"/>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B73" s="31"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="31"/>
+      <c r="H73" s="31"/>
+      <c r="I73" s="31"/>
+      <c r="J73" s="31"/>
+      <c r="K73" s="31"/>
+      <c r="L73" s="31"/>
+      <c r="M73" s="31"/>
+      <c r="N73" s="31"/>
+      <c r="O73" s="31"/>
+      <c r="P73" s="31"/>
+      <c r="Q73" s="31"/>
+      <c r="R73" s="31"/>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B74" s="31"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="31"/>
+      <c r="K74" s="31"/>
+      <c r="L74" s="31"/>
+      <c r="M74" s="31"/>
+      <c r="N74" s="31"/>
+      <c r="O74" s="31"/>
+      <c r="P74" s="31"/>
+      <c r="Q74" s="31"/>
+      <c r="R74" s="31"/>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B75" s="31"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="31"/>
+      <c r="F75" s="31"/>
+      <c r="G75" s="31"/>
+      <c r="H75" s="31"/>
+      <c r="I75" s="31"/>
+      <c r="J75" s="31"/>
+      <c r="K75" s="31"/>
+      <c r="L75" s="31"/>
+      <c r="M75" s="31"/>
+      <c r="N75" s="31"/>
+      <c r="O75" s="31"/>
+      <c r="P75" s="31"/>
+      <c r="Q75" s="31"/>
+      <c r="R75" s="31"/>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B76" s="31"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="31"/>
+      <c r="H76" s="31"/>
+      <c r="I76" s="31"/>
+      <c r="J76" s="31"/>
+      <c r="K76" s="31"/>
+      <c r="L76" s="31"/>
+      <c r="M76" s="31"/>
+      <c r="N76" s="31"/>
+      <c r="O76" s="31"/>
+      <c r="P76" s="31"/>
+      <c r="Q76" s="31"/>
+      <c r="R76" s="31"/>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B77" s="31"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="31"/>
+      <c r="I77" s="31"/>
+      <c r="J77" s="31"/>
+      <c r="K77" s="31"/>
+      <c r="L77" s="31"/>
+      <c r="M77" s="31"/>
+      <c r="N77" s="31"/>
+      <c r="O77" s="31"/>
+      <c r="P77" s="31"/>
+      <c r="Q77" s="31"/>
+      <c r="R77" s="31"/>
+    </row>
+    <row r="78" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B78" s="31"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="31"/>
+      <c r="K78" s="31"/>
+      <c r="L78" s="31"/>
+      <c r="M78" s="31"/>
+      <c r="N78" s="31"/>
+      <c r="O78" s="31"/>
+      <c r="P78" s="31"/>
+      <c r="Q78" s="31"/>
+      <c r="R78" s="31"/>
+    </row>
+  </sheetData>
+  <sortState ref="AC2:AF21">
+    <sortCondition ref="AC2:AC21"/>
+  </sortState>
+  <mergeCells count="28">
+    <mergeCell ref="C6:P6"/>
+    <mergeCell ref="D7:P7"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="D38:P38"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="K47:K48"/>
+  </mergeCells>
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F14 D11:E12">
+      <formula1>$AL$2:$AL$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17:H17">
+      <formula1>$AC$3:$AC$24</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K17:O17">
+      <formula1>$AH$3:$AH$9</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20:H20">
+      <formula1>$AO$2:$AO$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K20:O20">
+      <formula1>$AS$2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D23:H23">
+      <formula1>$AW$2:$AW$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K23:O23">
+      <formula1>$AZ$2:$AZ$9</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="44.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C3" s="120" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="I3" s="121" t="s">
+        <v>215</v>
+      </c>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="121"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C4" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="70">
+        <v>9002</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="J5" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6">
+        <v>9269</v>
+      </c>
+      <c r="E6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6">
+        <v>1540</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7">
+        <v>9264</v>
+      </c>
+      <c r="E7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7">
+        <v>1530</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8">
+        <v>9263</v>
+      </c>
+      <c r="E8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8">
+        <v>1470</v>
+      </c>
+      <c r="K8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9">
+        <v>9260</v>
+      </c>
+      <c r="E9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9">
+        <v>1560</v>
+      </c>
+      <c r="K9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>6040</v>
+      </c>
+      <c r="E10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10">
+        <v>1590</v>
+      </c>
+      <c r="K10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>6036</v>
+      </c>
+      <c r="E11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11">
+        <v>1610</v>
+      </c>
+      <c r="K11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>6008</v>
+      </c>
+      <c r="E12" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12">
+        <v>1190</v>
+      </c>
+      <c r="K12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>6007</v>
+      </c>
+      <c r="E13" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>1035</v>
+      </c>
+      <c r="E14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14">
+        <v>1320</v>
+      </c>
+      <c r="K14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>1034</v>
+      </c>
+      <c r="E15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15">
+        <v>1318</v>
+      </c>
+      <c r="K15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>1028</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16">
+        <v>1317</v>
+      </c>
+      <c r="K16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>1026</v>
+      </c>
+      <c r="E17" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17">
+        <v>1316</v>
+      </c>
+      <c r="K17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>1016</v>
+      </c>
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>1007</v>
+      </c>
+      <c r="E19" t="s">
+        <v>61</v>
+      </c>
+      <c r="J19">
+        <v>1420</v>
+      </c>
+      <c r="K19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>375</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>373</v>
+      </c>
+      <c r="E21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21">
+        <v>3000</v>
+      </c>
+      <c r="K21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>372</v>
+      </c>
+      <c r="E22" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22">
+        <v>6410</v>
+      </c>
+      <c r="K22" t="s">
+        <v>54</v>
+      </c>
+      <c r="M22" t="s">
+        <v>53</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>368</v>
+      </c>
+      <c r="E23" t="s">
+        <v>51</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>367</v>
+      </c>
+      <c r="E24" t="s">
+        <v>49</v>
+      </c>
+      <c r="J24">
+        <v>9265</v>
+      </c>
+      <c r="K24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>219</v>
+      </c>
+      <c r="D25">
+        <v>365</v>
+      </c>
+      <c r="E25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25">
+        <v>1254</v>
+      </c>
+      <c r="K25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="72" t="s">
+        <v>213</v>
+      </c>
+      <c r="J26">
+        <v>1251</v>
+      </c>
+      <c r="K26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B27" s="73" t="s">
+        <v>217</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="J27">
+        <v>2751</v>
+      </c>
+      <c r="K27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B28" s="73" t="s">
+        <v>218</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="J28">
+        <v>2731</v>
+      </c>
+      <c r="K28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B29" s="72"/>
+      <c r="C29" s="71" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="71" t="s">
+        <v>207</v>
+      </c>
+      <c r="E29" s="71" t="s">
+        <v>208</v>
+      </c>
+      <c r="F29" s="71" t="s">
+        <v>209</v>
+      </c>
+      <c r="G29" s="71" t="s">
+        <v>210</v>
+      </c>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29">
+        <v>1912</v>
+      </c>
+      <c r="K29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="72"/>
+      <c r="C30" s="71">
+        <v>9002</v>
+      </c>
+      <c r="D30" s="71">
+        <v>1026</v>
+      </c>
+      <c r="E30" s="71">
+        <v>373</v>
+      </c>
+      <c r="F30" s="71">
+        <v>3035</v>
+      </c>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30">
+        <v>1556</v>
+      </c>
+      <c r="K30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B31" s="73" t="s">
+        <v>206</v>
+      </c>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="J31">
+        <v>2721</v>
+      </c>
+      <c r="K31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="D39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="5"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="3">
+        <v>9002</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="I3:N3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="44.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C3" s="120" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="I3" s="121" t="s">
+        <v>98</v>
+      </c>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="121"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C4" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="16">
+        <v>9002</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="J5" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6">
+        <v>9269</v>
+      </c>
+      <c r="E6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6">
+        <v>1540</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7">
+        <v>9264</v>
+      </c>
+      <c r="E7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7">
+        <v>1530</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8">
+        <v>9263</v>
+      </c>
+      <c r="E8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8">
+        <v>1470</v>
+      </c>
+      <c r="K8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9">
+        <v>9260</v>
+      </c>
+      <c r="E9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9">
+        <v>1560</v>
+      </c>
+      <c r="K9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10">
+        <v>6040</v>
+      </c>
+      <c r="E10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10">
+        <v>1590</v>
+      </c>
+      <c r="K10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>6036</v>
+      </c>
+      <c r="E11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11">
+        <v>1610</v>
+      </c>
+      <c r="K11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>6008</v>
+      </c>
+      <c r="E12" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12">
+        <v>1190</v>
+      </c>
+      <c r="K12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>6007</v>
+      </c>
+      <c r="E13" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>1035</v>
+      </c>
+      <c r="E14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14">
+        <v>1320</v>
+      </c>
+      <c r="K14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>1034</v>
+      </c>
+      <c r="E15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15">
+        <v>1318</v>
+      </c>
+      <c r="K15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>1028</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16">
+        <v>1317</v>
+      </c>
+      <c r="K16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>1026</v>
+      </c>
+      <c r="E17" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17">
+        <v>1316</v>
+      </c>
+      <c r="K17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>1016</v>
+      </c>
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>1007</v>
+      </c>
+      <c r="E19" t="s">
+        <v>61</v>
+      </c>
+      <c r="J19">
+        <v>1420</v>
+      </c>
+      <c r="K19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>375</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+    </row>
+    <row r="21" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>373</v>
+      </c>
+      <c r="E21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21">
+        <v>3000</v>
+      </c>
+      <c r="K21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>372</v>
+      </c>
+      <c r="E22" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22">
+        <v>6410</v>
+      </c>
+      <c r="K22" t="s">
+        <v>54</v>
+      </c>
+      <c r="M22" t="s">
+        <v>53</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>368</v>
+      </c>
+      <c r="E23" t="s">
+        <v>51</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+    </row>
+    <row r="24" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>367</v>
+      </c>
+      <c r="E24" t="s">
+        <v>49</v>
+      </c>
+      <c r="J24">
+        <v>9265</v>
+      </c>
+      <c r="K24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <v>365</v>
+      </c>
+      <c r="E25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25">
+        <v>1254</v>
+      </c>
+      <c r="K25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="J26">
+        <v>1251</v>
+      </c>
+      <c r="K26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="J27">
+        <v>2751</v>
+      </c>
+      <c r="K27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="J28">
+        <v>2731</v>
+      </c>
+      <c r="K28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="J29">
+        <v>1912</v>
+      </c>
+      <c r="K29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="J30">
+        <v>1556</v>
+      </c>
+      <c r="K30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="J31">
+        <v>2721</v>
+      </c>
+      <c r="K31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="D36" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="5"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="3">
+        <v>9002</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="I3:N3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:AC31"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:Q6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3301,16 +7763,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="AB1" s="79" t="s">
+      <c r="AB1" s="77" t="s">
         <v>241</v>
       </c>
-      <c r="AC1" s="79" t="s">
+      <c r="AC1" s="77" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="2" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="R2" s="100"/>
-      <c r="S2" s="100"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="94"/>
       <c r="AB2" t="s">
         <v>233</v>
       </c>
@@ -3344,43 +7806,43 @@
       </c>
     </row>
     <row r="6" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C6" s="103"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104"/>
-      <c r="Q6" s="105"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="105"/>
+      <c r="P6" s="105"/>
+      <c r="Q6" s="106"/>
       <c r="AC6" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="7" spans="3:29" ht="21" x14ac:dyDescent="0.4">
       <c r="C7" s="37"/>
-      <c r="D7" s="101" t="s">
+      <c r="D7" s="102" t="s">
         <v>229</v>
       </c>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="101"/>
-      <c r="O7" s="101"/>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="103"/>
     </row>
     <row r="8" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C8" s="37"/>
@@ -3419,53 +7881,53 @@
     </row>
     <row r="10" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C10" s="37"/>
-      <c r="D10" s="97" t="s">
+      <c r="D10" s="93" t="s">
         <v>241</v>
       </c>
-      <c r="E10" s="97"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="81" t="s">
+      <c r="E10" s="93"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="79" t="s">
         <v>230</v>
       </c>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="67" t="s">
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71" t="s">
+      <c r="K10" s="69"/>
+      <c r="L10" s="69" t="s">
         <v>134</v>
       </c>
       <c r="M10" s="31"/>
-      <c r="N10" s="97" t="s">
+      <c r="N10" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="O10" s="97"/>
-      <c r="P10" s="97"/>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="71"/>
+      <c r="O10" s="93"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="69"/>
     </row>
     <row r="11" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C11" s="37"/>
-      <c r="D11" s="98" t="s">
+      <c r="D11" s="100" t="s">
         <v>233</v>
       </c>
-      <c r="E11" s="99"/>
+      <c r="E11" s="101"/>
       <c r="F11" s="33"/>
       <c r="G11" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="H11" s="71"/>
+      <c r="H11" s="69"/>
       <c r="I11" s="31"/>
-      <c r="J11" s="80"/>
+      <c r="J11" s="78"/>
       <c r="K11" s="31"/>
       <c r="L11" s="2"/>
       <c r="M11" s="31"/>
-      <c r="N11" s="94"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="83"/>
-      <c r="R11" s="71"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="96"/>
+      <c r="P11" s="97"/>
+      <c r="Q11" s="81"/>
+      <c r="R11" s="69"/>
     </row>
     <row r="12" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C12" s="37"/>
@@ -3505,45 +7967,45 @@
     </row>
     <row r="14" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C14" s="37"/>
-      <c r="D14" s="100" t="s">
+      <c r="D14" s="94" t="s">
         <v>239</v>
       </c>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="97" t="s">
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="93" t="s">
         <v>247</v>
       </c>
-      <c r="J14" s="97"/>
-      <c r="K14" s="97"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
       <c r="L14" s="31"/>
-      <c r="M14" s="97" t="s">
+      <c r="M14" s="93" t="s">
         <v>236</v>
       </c>
-      <c r="N14" s="97"/>
-      <c r="O14" s="97"/>
-      <c r="P14" s="97"/>
-      <c r="Q14" s="83"/>
+      <c r="N14" s="93"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="81"/>
       <c r="R14" s="31"/>
       <c r="S14" s="31"/>
     </row>
     <row r="15" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C15" s="37"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="69"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="67"/>
       <c r="K15" s="30"/>
       <c r="L15" s="31"/>
-      <c r="M15" s="94"/>
-      <c r="N15" s="95"/>
-      <c r="O15" s="95"/>
-      <c r="P15" s="96"/>
-      <c r="Q15" s="83"/>
+      <c r="M15" s="95"/>
+      <c r="N15" s="96"/>
+      <c r="O15" s="96"/>
+      <c r="P15" s="97"/>
+      <c r="Q15" s="81"/>
       <c r="R15" s="31"/>
       <c r="S15" s="31"/>
     </row>
@@ -3589,22 +8051,22 @@
     </row>
     <row r="18" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C18" s="37"/>
-      <c r="D18" s="97" t="s">
+      <c r="D18" s="93" t="s">
         <v>237</v>
       </c>
-      <c r="E18" s="97"/>
+      <c r="E18" s="93"/>
       <c r="F18" s="31"/>
-      <c r="G18" s="97" t="s">
+      <c r="G18" s="93" t="s">
         <v>244</v>
       </c>
-      <c r="H18" s="97"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="97" t="s">
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="93" t="s">
         <v>245</v>
       </c>
-      <c r="L18" s="97"/>
-      <c r="M18" s="71"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="69"/>
       <c r="N18" s="31" t="s">
         <v>135</v>
       </c>
@@ -3616,16 +8078,16 @@
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C19" s="37"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="107"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="99"/>
       <c r="F19" s="31"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="106"/>
-      <c r="L19" s="107"/>
-      <c r="M19" s="85"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="83"/>
       <c r="N19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="38"/>
@@ -3636,14 +8098,14 @@
       <c r="D20" s="31"/>
       <c r="E20" s="31"/>
       <c r="F20" s="31"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
       <c r="K20" s="31"/>
       <c r="L20" s="31"/>
       <c r="M20" s="31"/>
-      <c r="N20" s="86" t="s">
+      <c r="N20" s="84" t="s">
         <v>136</v>
       </c>
       <c r="P20" s="31"/>
@@ -3672,47 +8134,47 @@
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C22" s="37"/>
-      <c r="D22" s="97" t="s">
+      <c r="D22" s="93" t="s">
         <v>137</v>
       </c>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
       <c r="G22" s="31"/>
-      <c r="H22" s="97" t="s">
+      <c r="H22" s="93" t="s">
         <v>242</v>
       </c>
-      <c r="I22" s="97"/>
-      <c r="J22" s="97"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="93"/>
       <c r="K22" s="31"/>
-      <c r="L22" s="81" t="s">
+      <c r="L22" s="79" t="s">
         <v>243</v>
       </c>
-      <c r="M22" s="81"/>
+      <c r="M22" s="79"/>
       <c r="N22" s="31"/>
-      <c r="O22" s="100" t="s">
+      <c r="O22" s="94" t="s">
         <v>139</v>
       </c>
-      <c r="P22" s="100"/>
-      <c r="Q22" s="84"/>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="82"/>
       <c r="R22" s="31"/>
       <c r="S22" s="31"/>
     </row>
     <row r="23" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C23" s="37"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="96"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="97"/>
       <c r="G23" s="31"/>
-      <c r="H23" s="94"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="96"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="97"/>
       <c r="K23" s="31"/>
-      <c r="L23" s="94"/>
-      <c r="M23" s="96"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="97"/>
       <c r="N23" s="31"/>
-      <c r="O23" s="94"/>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="84"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="97"/>
+      <c r="Q23" s="82"/>
     </row>
     <row r="24" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C24" s="37"/>
@@ -3838,12 +8300,13 @@
     <row r="31" spans="3:19" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="D7:Q7"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="C6:Q6"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="O23:P23"/>
     <mergeCell ref="D19:E19"/>
@@ -3855,13 +8318,12 @@
     <mergeCell ref="G19:I19"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="H22:J22"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="D7:Q7"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="C6:Q6"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:L18"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:E11">
@@ -3877,12 +8339,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:AA40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3916,20 +8378,20 @@
     </row>
     <row r="7" spans="3:27" ht="21" x14ac:dyDescent="0.4">
       <c r="C7" s="37"/>
-      <c r="D7" s="101" t="s">
+      <c r="D7" s="102" t="s">
         <v>131</v>
       </c>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="101"/>
-      <c r="O7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="103"/>
       <c r="AA7" t="s">
         <v>253</v>
       </c>
@@ -3974,26 +8436,26 @@
     </row>
     <row r="10" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C10" s="37"/>
-      <c r="D10" s="97" t="s">
+      <c r="D10" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="E10" s="97"/>
+      <c r="E10" s="93"/>
       <c r="F10" s="32"/>
       <c r="G10" s="32" t="s">
         <v>134</v>
       </c>
       <c r="H10" s="31"/>
-      <c r="I10" s="97" t="s">
+      <c r="I10" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="J10" s="97"/>
-      <c r="K10" s="97"/>
-      <c r="L10" s="97"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
       <c r="M10" s="31"/>
-      <c r="N10" s="87" t="s">
+      <c r="N10" s="85" t="s">
         <v>230</v>
       </c>
-      <c r="O10" s="84"/>
+      <c r="O10" s="82"/>
       <c r="P10" s="31"/>
       <c r="AA10" t="s">
         <v>234</v>
@@ -4014,7 +8476,7 @@
       <c r="N11" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="O11" s="82"/>
+      <c r="O11" s="80"/>
       <c r="P11" s="32"/>
       <c r="AA11" t="s">
         <v>238</v>
@@ -4064,17 +8526,17 @@
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
       <c r="H14" s="31"/>
-      <c r="I14" s="97" t="s">
+      <c r="I14" s="93" t="s">
         <v>237</v>
       </c>
-      <c r="J14" s="97"/>
+      <c r="J14" s="93"/>
       <c r="K14" s="32" t="s">
         <v>255</v>
       </c>
-      <c r="L14" s="97" t="s">
+      <c r="L14" s="93" t="s">
         <v>245</v>
       </c>
-      <c r="M14" s="97"/>
+      <c r="M14" s="93"/>
       <c r="N14" s="31" t="s">
         <v>255</v>
       </c>
@@ -4082,16 +8544,16 @@
     </row>
     <row r="15" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C15" s="37"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="96"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="97"/>
       <c r="H15" s="31"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="96"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="97"/>
       <c r="K15" s="32"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="96"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="97"/>
       <c r="N15" s="31"/>
       <c r="O15" s="38"/>
     </row>
@@ -4127,19 +8589,19 @@
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C18" s="37"/>
-      <c r="D18" s="97" t="s">
+      <c r="D18" s="93" t="s">
         <v>137</v>
       </c>
-      <c r="E18" s="97"/>
+      <c r="E18" s="93"/>
       <c r="F18" s="31"/>
       <c r="G18" s="32" t="s">
         <v>138</v>
       </c>
       <c r="H18" s="31"/>
-      <c r="I18" s="97" t="s">
+      <c r="I18" s="93" t="s">
         <v>139</v>
       </c>
-      <c r="J18" s="97"/>
+      <c r="J18" s="93"/>
       <c r="K18" s="31"/>
       <c r="L18" s="31" t="s">
         <v>244</v>
@@ -4270,31 +8732,31 @@
       <c r="N26" s="31"/>
       <c r="O26" s="38"/>
     </row>
-    <row r="27" spans="3:15" s="91" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="90"/>
-      <c r="D27" s="92" t="s">
+    <row r="27" spans="3:15" s="88" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="87"/>
+      <c r="D27" s="89" t="s">
         <v>249</v>
       </c>
-      <c r="E27" s="108" t="s">
+      <c r="E27" s="107" t="s">
         <v>257</v>
       </c>
-      <c r="F27" s="108"/>
-      <c r="G27" s="108" t="s">
+      <c r="F27" s="107"/>
+      <c r="G27" s="107" t="s">
         <v>250</v>
       </c>
-      <c r="H27" s="108"/>
-      <c r="I27" s="108"/>
-      <c r="J27" s="92" t="s">
+      <c r="H27" s="107"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="89" t="s">
         <v>258</v>
       </c>
-      <c r="K27" s="92" t="s">
+      <c r="K27" s="89" t="s">
         <v>251</v>
       </c>
-      <c r="L27" s="108" t="s">
+      <c r="L27" s="107" t="s">
         <v>252</v>
       </c>
-      <c r="M27" s="108"/>
-      <c r="N27" s="93"/>
+      <c r="M27" s="107"/>
+      <c r="N27" s="90"/>
       <c r="O27" s="44" t="s">
         <v>141</v>
       </c>
@@ -4521,11 +8983,2388 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AZ82"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="1.6640625" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" customWidth="1"/>
+    <col min="7" max="7" width="4" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="11" max="11" width="6.44140625" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" customWidth="1"/>
+    <col min="13" max="13" width="5.44140625" customWidth="1"/>
+    <col min="14" max="14" width="17" customWidth="1"/>
+    <col min="15" max="15" width="2.5546875" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:52" x14ac:dyDescent="0.3">
+      <c r="AC1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AO1" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS1" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="AW1" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="AZ1" s="14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="3:52" x14ac:dyDescent="0.3">
+      <c r="AO2" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS2" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="AW2" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="AZ2" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="3:52" x14ac:dyDescent="0.3">
+      <c r="AC3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH3" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL3" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO3" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="AW3" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="AZ3" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="3:52" x14ac:dyDescent="0.3">
+      <c r="AC4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH4" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="AL4" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="AO4" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="AZ4" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="3:52" x14ac:dyDescent="0.3">
+      <c r="AC5" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH5" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL5" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="AO5" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="AZ5" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="3:52" x14ac:dyDescent="0.3">
+      <c r="C6" s="34"/>
+      <c r="D6" s="124" t="s">
+        <v>261</v>
+      </c>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="124"/>
+      <c r="M6" s="124"/>
+      <c r="N6" s="124"/>
+      <c r="O6" s="124"/>
+      <c r="P6" s="125"/>
+      <c r="AC6" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH6" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="AZ6" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="3:52" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C7" s="37"/>
+      <c r="D7" s="102" t="s">
+        <v>198</v>
+      </c>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="103"/>
+      <c r="AC7" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH7" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="AZ7" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="3:52" x14ac:dyDescent="0.3">
+      <c r="C8" s="37"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="38"/>
+      <c r="AC8" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH8" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="AZ8" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="3:52" x14ac:dyDescent="0.3">
+      <c r="C9" s="37"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="38"/>
+      <c r="AC9" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH9" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="AZ9" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="3:52" x14ac:dyDescent="0.3">
+      <c r="C10" s="37"/>
+      <c r="D10" s="93" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="93"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="91" t="s">
+        <v>220</v>
+      </c>
+      <c r="I10" s="31"/>
+      <c r="J10" s="116" t="s">
+        <v>228</v>
+      </c>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="91" t="s">
+        <v>192</v>
+      </c>
+      <c r="P10" s="92"/>
+      <c r="AC10" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="13"/>
+    </row>
+    <row r="11" spans="3:52" x14ac:dyDescent="0.3">
+      <c r="C11" s="37"/>
+      <c r="D11" s="132" t="s">
+        <v>186</v>
+      </c>
+      <c r="E11" s="133"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="131">
+        <v>20</v>
+      </c>
+      <c r="I11" s="31"/>
+      <c r="J11" s="113"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="115"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="130">
+        <v>632088.51</v>
+      </c>
+      <c r="P11" s="92"/>
+      <c r="AC11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="3:52" x14ac:dyDescent="0.3">
+      <c r="C12" s="37"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="92"/>
+      <c r="P12" s="92"/>
+    </row>
+    <row r="13" spans="3:52" x14ac:dyDescent="0.3">
+      <c r="C13" s="37"/>
+      <c r="D13" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E13" s="139">
+        <v>87987</v>
+      </c>
+      <c r="F13" s="50"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="92"/>
+      <c r="O13" s="92"/>
+      <c r="P13" s="92"/>
+    </row>
+    <row r="14" spans="3:52" x14ac:dyDescent="0.3">
+      <c r="C14" s="37"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="92"/>
+    </row>
+    <row r="15" spans="3:52" x14ac:dyDescent="0.3">
+      <c r="C15" s="37"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="50"/>
+      <c r="H15" s="140" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="140"/>
+      <c r="J15" s="140" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="92"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="127"/>
+      <c r="O15" s="127"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="76" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="3:52" x14ac:dyDescent="0.3">
+      <c r="C16" s="37"/>
+      <c r="D16" s="122" t="s">
+        <v>216</v>
+      </c>
+      <c r="E16" s="122"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="123" t="s">
+        <v>259</v>
+      </c>
+      <c r="I16" s="123"/>
+      <c r="J16" s="123" t="s">
+        <v>260</v>
+      </c>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="128"/>
+      <c r="O16" s="129"/>
+      <c r="P16" s="38"/>
+      <c r="AC16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C17" s="37"/>
+      <c r="D17" s="117" t="s">
+        <v>186</v>
+      </c>
+      <c r="E17" s="118"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="38"/>
+    </row>
+    <row r="18" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C18" s="37"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="38"/>
+      <c r="AC18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C19" s="37"/>
+      <c r="D19" s="93" t="s">
+        <v>227</v>
+      </c>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="93" t="s">
+        <v>222</v>
+      </c>
+      <c r="L19" s="93"/>
+      <c r="M19" s="93"/>
+      <c r="N19" s="93"/>
+      <c r="O19" s="91"/>
+      <c r="P19" s="38"/>
+      <c r="AC19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C20" s="37"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="96"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="97"/>
+      <c r="O20" s="91"/>
+      <c r="P20" s="38"/>
+      <c r="AC20" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ20" s="12"/>
+      <c r="AK20" s="12"/>
+    </row>
+    <row r="21" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C21" s="37"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="38"/>
+      <c r="AC21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C22" s="37"/>
+      <c r="D22" s="93" t="s">
+        <v>223</v>
+      </c>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="93" t="s">
+        <v>224</v>
+      </c>
+      <c r="L22" s="93"/>
+      <c r="M22" s="93"/>
+      <c r="N22" s="93"/>
+      <c r="O22" s="91"/>
+      <c r="P22" s="38"/>
+      <c r="AC22" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ22" s="11"/>
+      <c r="AK22" s="11"/>
+    </row>
+    <row r="23" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C23" s="37"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="97"/>
+      <c r="O23" s="91"/>
+      <c r="P23" s="38"/>
+      <c r="AC23" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ23" s="11"/>
+      <c r="AK23" s="11"/>
+    </row>
+    <row r="24" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C24" s="37"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="38"/>
+      <c r="AC24" t="s">
+        <v>158</v>
+      </c>
+      <c r="AJ24" s="11"/>
+      <c r="AK24" s="11"/>
+    </row>
+    <row r="25" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C25" s="37"/>
+      <c r="D25" s="93" t="s">
+        <v>225</v>
+      </c>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="93" t="s">
+        <v>226</v>
+      </c>
+      <c r="L25" s="93"/>
+      <c r="M25" s="93"/>
+      <c r="N25" s="93"/>
+      <c r="O25" s="91"/>
+      <c r="P25" s="38"/>
+      <c r="AC25" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ25" s="11"/>
+      <c r="AK25" s="11"/>
+    </row>
+    <row r="26" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C26" s="37"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="96"/>
+      <c r="M26" s="96"/>
+      <c r="N26" s="97"/>
+      <c r="O26" s="91"/>
+      <c r="P26" s="38"/>
+      <c r="AC26" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ26" s="11"/>
+      <c r="AK26" s="11"/>
+    </row>
+    <row r="27" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C27" s="37"/>
+      <c r="D27" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="91"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="38"/>
+      <c r="AC27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C28" s="37"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="38"/>
+    </row>
+    <row r="29" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C29" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="38"/>
+      <c r="AJ29" s="10"/>
+      <c r="AK29" s="10"/>
+    </row>
+    <row r="30" spans="3:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="40"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="42"/>
+    </row>
+    <row r="31" spans="3:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="37"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="38"/>
+    </row>
+    <row r="32" spans="3:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="37"/>
+      <c r="D32" s="144" t="s">
+        <v>264</v>
+      </c>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="146"/>
+      <c r="J32" s="144" t="s">
+        <v>265</v>
+      </c>
+      <c r="K32" s="145"/>
+      <c r="L32" s="145"/>
+      <c r="M32" s="145"/>
+      <c r="N32" s="146"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="38"/>
+    </row>
+    <row r="33" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="37"/>
+      <c r="D33" s="147">
+        <v>9002</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="134">
+        <v>632088.51</v>
+      </c>
+      <c r="I33" s="38"/>
+      <c r="J33" s="147">
+        <v>1470</v>
+      </c>
+      <c r="K33" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="142">
+        <v>31604.43</v>
+      </c>
+      <c r="O33" s="31"/>
+      <c r="P33" s="38"/>
+    </row>
+    <row r="34" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="134"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="147">
+        <v>3000</v>
+      </c>
+      <c r="K34" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="142">
+        <v>34417.629999999997</v>
+      </c>
+      <c r="O34" s="31"/>
+      <c r="P34" s="38"/>
+    </row>
+    <row r="35" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="134"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="142"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="38"/>
+    </row>
+    <row r="36" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="134"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="142"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="38"/>
+    </row>
+    <row r="37" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="134"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="142"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="38"/>
+    </row>
+    <row r="38" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="G38" s="43"/>
+      <c r="H38" s="135">
+        <f>SUM(H33:H37)</f>
+        <v>632088.51</v>
+      </c>
+      <c r="I38" s="141"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="M38" s="43"/>
+      <c r="N38" s="143">
+        <f>SUM(N33:N37)</f>
+        <v>66022.06</v>
+      </c>
+      <c r="O38" s="31"/>
+      <c r="P38" s="38"/>
+    </row>
+    <row r="39" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="37"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="38"/>
+    </row>
+    <row r="40" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="37"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="137"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="38"/>
+    </row>
+    <row r="41" spans="3:16" ht="3.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="37"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="38"/>
+    </row>
+    <row r="42" spans="3:16" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C42" s="37"/>
+      <c r="D42" s="102" t="s">
+        <v>203</v>
+      </c>
+      <c r="E42" s="102"/>
+      <c r="F42" s="102"/>
+      <c r="G42" s="102"/>
+      <c r="H42" s="102"/>
+      <c r="I42" s="102"/>
+      <c r="J42" s="102"/>
+      <c r="K42" s="102"/>
+      <c r="L42" s="102"/>
+      <c r="M42" s="102"/>
+      <c r="N42" s="102"/>
+      <c r="O42" s="102"/>
+      <c r="P42" s="103"/>
+    </row>
+    <row r="43" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C43" s="37"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="31"/>
+      <c r="P43" s="38"/>
+    </row>
+    <row r="44" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C44" s="37"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="52"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="52"/>
+      <c r="O44" s="53"/>
+      <c r="P44" s="38"/>
+    </row>
+    <row r="45" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C45" s="37"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="I45" s="112" t="s">
+        <v>124</v>
+      </c>
+      <c r="J45" s="91" t="s">
+        <v>267</v>
+      </c>
+      <c r="K45" s="112" t="s">
+        <v>126</v>
+      </c>
+      <c r="L45" s="91" t="s">
+        <v>268</v>
+      </c>
+      <c r="M45" s="112" t="s">
+        <v>127</v>
+      </c>
+      <c r="N45" s="91" t="s">
+        <v>128</v>
+      </c>
+      <c r="O45" s="55"/>
+      <c r="P45" s="38"/>
+    </row>
+    <row r="46" spans="3:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="37"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="138">
+        <f>(L46-J46)*N46</f>
+        <v>113213.29</v>
+      </c>
+      <c r="I46" s="112"/>
+      <c r="J46" s="136">
+        <f>N38</f>
+        <v>66022.06</v>
+      </c>
+      <c r="K46" s="112"/>
+      <c r="L46" s="136">
+        <f>H38</f>
+        <v>632088.51</v>
+      </c>
+      <c r="M46" s="112"/>
+      <c r="N46" s="49">
+        <v>0.2</v>
+      </c>
+      <c r="O46" s="56"/>
+      <c r="P46" s="38"/>
+    </row>
+    <row r="47" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C47" s="37"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="58"/>
+      <c r="I47" s="58"/>
+      <c r="J47" s="58"/>
+      <c r="K47" s="58"/>
+      <c r="L47" s="58"/>
+      <c r="M47" s="58"/>
+      <c r="N47" s="58"/>
+      <c r="O47" s="59"/>
+      <c r="P47" s="38"/>
+    </row>
+    <row r="48" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C48" s="37"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="38"/>
+    </row>
+    <row r="49" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C49" s="37"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="31"/>
+      <c r="O49" s="31"/>
+      <c r="P49" s="38"/>
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C50" s="37"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="52"/>
+      <c r="J50" s="52"/>
+      <c r="K50" s="52"/>
+      <c r="L50" s="52"/>
+      <c r="M50" s="53"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="38"/>
+      <c r="Q50" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C51" s="37"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="91" t="s">
+        <v>199</v>
+      </c>
+      <c r="I51" s="112" t="s">
+        <v>124</v>
+      </c>
+      <c r="J51" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="K51" s="112" t="s">
+        <v>129</v>
+      </c>
+      <c r="L51" s="91" t="s">
+        <v>17</v>
+      </c>
+      <c r="M51" s="61"/>
+      <c r="O51" s="31"/>
+      <c r="P51" s="38"/>
+      <c r="Q51" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C52" s="37"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="54"/>
+      <c r="H52" s="136">
+        <f>MIN(J52,L52)</f>
+        <v>0</v>
+      </c>
+      <c r="I52" s="112"/>
+      <c r="J52" s="136">
+        <f>H46</f>
+        <v>113213.29</v>
+      </c>
+      <c r="K52" s="112"/>
+      <c r="L52" s="48">
+        <v>0</v>
+      </c>
+      <c r="M52" s="62"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="31"/>
+      <c r="P52" s="38"/>
+    </row>
+    <row r="53" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C53" s="37"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="58"/>
+      <c r="I53" s="58"/>
+      <c r="J53" s="58"/>
+      <c r="K53" s="58"/>
+      <c r="L53" s="58"/>
+      <c r="M53" s="59"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="31"/>
+      <c r="P53" s="38"/>
+    </row>
+    <row r="54" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C54" s="37"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="31"/>
+      <c r="M54" s="31"/>
+      <c r="N54" s="31"/>
+      <c r="O54" s="31"/>
+      <c r="P54" s="38"/>
+    </row>
+    <row r="55" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C55" s="37"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="31"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="31"/>
+      <c r="O55" s="31"/>
+      <c r="P55" s="38"/>
+    </row>
+    <row r="56" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C56" s="37"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="95" t="s">
+        <v>202</v>
+      </c>
+      <c r="I56" s="96"/>
+      <c r="J56" s="97"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="31"/>
+      <c r="M56" s="31"/>
+      <c r="N56" s="31"/>
+      <c r="O56" s="31"/>
+      <c r="P56" s="38"/>
+    </row>
+    <row r="57" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C57" s="37"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="60" t="s">
+        <v>200</v>
+      </c>
+      <c r="I57" s="108" t="s">
+        <v>201</v>
+      </c>
+      <c r="J57" s="109"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="31"/>
+      <c r="N57" s="31"/>
+      <c r="O57" s="31"/>
+      <c r="P57" s="38"/>
+    </row>
+    <row r="58" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C58" s="37"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="60">
+        <v>1094</v>
+      </c>
+      <c r="I58" s="110"/>
+      <c r="J58" s="111"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="38"/>
+    </row>
+    <row r="59" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C59" s="37"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="31"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="31"/>
+      <c r="O59" s="31"/>
+      <c r="P59" s="38"/>
+    </row>
+    <row r="60" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C60" s="37"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="31"/>
+      <c r="M60" s="31"/>
+      <c r="N60" s="31"/>
+      <c r="O60" s="31"/>
+      <c r="P60" s="38"/>
+    </row>
+    <row r="61" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C61" s="37"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="31"/>
+      <c r="K61" s="31"/>
+      <c r="L61" s="31"/>
+      <c r="M61" s="31"/>
+      <c r="N61" s="31"/>
+      <c r="O61" s="31"/>
+      <c r="P61" s="38"/>
+    </row>
+    <row r="62" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C62" s="37"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="31"/>
+      <c r="L62" s="31"/>
+      <c r="M62" s="31"/>
+      <c r="N62" s="31"/>
+      <c r="O62" s="31"/>
+      <c r="P62" s="38"/>
+    </row>
+    <row r="63" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B63" s="31"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="41"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="41"/>
+      <c r="I63" s="41"/>
+      <c r="J63" s="41"/>
+      <c r="K63" s="41"/>
+      <c r="L63" s="41"/>
+      <c r="M63" s="41"/>
+      <c r="N63" s="41"/>
+      <c r="O63" s="41"/>
+      <c r="P63" s="42"/>
+      <c r="Q63" s="31"/>
+      <c r="R63" s="31"/>
+    </row>
+    <row r="64" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B64" s="31"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="31"/>
+      <c r="L64" s="31"/>
+      <c r="M64" s="31"/>
+      <c r="N64" s="31"/>
+      <c r="O64" s="31"/>
+      <c r="P64" s="31"/>
+      <c r="Q64" s="31"/>
+      <c r="R64" s="31"/>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B65" s="31"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31"/>
+      <c r="K65" s="31"/>
+      <c r="L65" s="31"/>
+      <c r="M65" s="31"/>
+      <c r="N65" s="31"/>
+      <c r="O65" s="31"/>
+      <c r="P65" s="31"/>
+      <c r="Q65" s="31"/>
+      <c r="R65" s="31"/>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B66" s="31"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="31"/>
+      <c r="K66" s="31"/>
+      <c r="L66" s="31"/>
+      <c r="M66" s="31"/>
+      <c r="N66" s="31"/>
+      <c r="O66" s="31"/>
+      <c r="P66" s="31"/>
+      <c r="Q66" s="31"/>
+      <c r="R66" s="31"/>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B67" s="31"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="31"/>
+      <c r="K67" s="31"/>
+      <c r="L67" s="31"/>
+      <c r="M67" s="31"/>
+      <c r="N67" s="31"/>
+      <c r="O67" s="31"/>
+      <c r="P67" s="31"/>
+      <c r="Q67" s="31"/>
+      <c r="R67" s="31"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B68" s="31"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="31"/>
+      <c r="H68" s="31"/>
+      <c r="I68" s="31"/>
+      <c r="J68" s="31"/>
+      <c r="K68" s="31"/>
+      <c r="L68" s="31"/>
+      <c r="M68" s="31"/>
+      <c r="N68" s="31"/>
+      <c r="O68" s="31"/>
+      <c r="P68" s="31"/>
+      <c r="Q68" s="31"/>
+      <c r="R68" s="31"/>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B69" s="31"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="31"/>
+      <c r="K69" s="31"/>
+      <c r="L69" s="31"/>
+      <c r="M69" s="31"/>
+      <c r="N69" s="31"/>
+      <c r="O69" s="31"/>
+      <c r="P69" s="31"/>
+      <c r="Q69" s="31"/>
+      <c r="R69" s="31"/>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B70" s="31"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="31"/>
+      <c r="K70" s="31"/>
+      <c r="L70" s="31"/>
+      <c r="M70" s="31"/>
+      <c r="N70" s="31"/>
+      <c r="O70" s="31"/>
+      <c r="P70" s="31"/>
+      <c r="Q70" s="31"/>
+      <c r="R70" s="31"/>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B71" s="31"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="31"/>
+      <c r="H71" s="31"/>
+      <c r="I71" s="31"/>
+      <c r="J71" s="31"/>
+      <c r="K71" s="31"/>
+      <c r="L71" s="31"/>
+      <c r="M71" s="31"/>
+      <c r="N71" s="31"/>
+      <c r="O71" s="31"/>
+      <c r="P71" s="31"/>
+      <c r="Q71" s="31"/>
+      <c r="R71" s="31"/>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B72" s="31"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="31"/>
+      <c r="H72" s="31"/>
+      <c r="I72" s="31"/>
+      <c r="J72" s="31"/>
+      <c r="K72" s="31"/>
+      <c r="L72" s="31"/>
+      <c r="M72" s="31"/>
+      <c r="N72" s="31"/>
+      <c r="O72" s="31"/>
+      <c r="P72" s="31"/>
+      <c r="Q72" s="31"/>
+      <c r="R72" s="31"/>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B73" s="31"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="31"/>
+      <c r="H73" s="31"/>
+      <c r="I73" s="31"/>
+      <c r="J73" s="31"/>
+      <c r="K73" s="31"/>
+      <c r="L73" s="31"/>
+      <c r="M73" s="31"/>
+      <c r="N73" s="31"/>
+      <c r="O73" s="31"/>
+      <c r="P73" s="31"/>
+      <c r="Q73" s="31"/>
+      <c r="R73" s="31"/>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B74" s="31"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="31"/>
+      <c r="K74" s="31"/>
+      <c r="L74" s="31"/>
+      <c r="M74" s="31"/>
+      <c r="N74" s="31"/>
+      <c r="O74" s="31"/>
+      <c r="P74" s="31"/>
+      <c r="Q74" s="31"/>
+      <c r="R74" s="31"/>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B75" s="31"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="31"/>
+      <c r="F75" s="31"/>
+      <c r="G75" s="31"/>
+      <c r="H75" s="31"/>
+      <c r="I75" s="31"/>
+      <c r="J75" s="31"/>
+      <c r="K75" s="31"/>
+      <c r="L75" s="31"/>
+      <c r="M75" s="31"/>
+      <c r="N75" s="31"/>
+      <c r="O75" s="31"/>
+      <c r="P75" s="31"/>
+      <c r="Q75" s="31"/>
+      <c r="R75" s="31"/>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B76" s="31"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="31"/>
+      <c r="H76" s="31"/>
+      <c r="I76" s="31"/>
+      <c r="J76" s="31"/>
+      <c r="K76" s="31"/>
+      <c r="L76" s="31"/>
+      <c r="M76" s="31"/>
+      <c r="N76" s="31"/>
+      <c r="O76" s="31"/>
+      <c r="P76" s="31"/>
+      <c r="Q76" s="31"/>
+      <c r="R76" s="31"/>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B77" s="31"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="31"/>
+      <c r="I77" s="31"/>
+      <c r="J77" s="31"/>
+      <c r="K77" s="31"/>
+      <c r="L77" s="31"/>
+      <c r="M77" s="31"/>
+      <c r="N77" s="31"/>
+      <c r="O77" s="31"/>
+      <c r="P77" s="31"/>
+      <c r="Q77" s="31"/>
+      <c r="R77" s="31"/>
+    </row>
+    <row r="78" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B78" s="31"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="31"/>
+      <c r="K78" s="31"/>
+      <c r="L78" s="31"/>
+      <c r="M78" s="31"/>
+      <c r="N78" s="31"/>
+      <c r="O78" s="31"/>
+      <c r="P78" s="31"/>
+      <c r="Q78" s="31"/>
+      <c r="R78" s="31"/>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B79" s="31"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="31"/>
+      <c r="J79" s="31"/>
+      <c r="K79" s="31"/>
+      <c r="L79" s="31"/>
+      <c r="M79" s="31"/>
+      <c r="N79" s="31"/>
+      <c r="O79" s="31"/>
+      <c r="P79" s="31"/>
+      <c r="Q79" s="31"/>
+      <c r="R79" s="31"/>
+    </row>
+    <row r="80" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B80" s="31"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="31"/>
+      <c r="G80" s="31"/>
+      <c r="H80" s="31"/>
+      <c r="I80" s="31"/>
+      <c r="J80" s="31"/>
+      <c r="K80" s="31"/>
+      <c r="L80" s="31"/>
+      <c r="M80" s="31"/>
+      <c r="N80" s="31"/>
+      <c r="O80" s="31"/>
+      <c r="P80" s="31"/>
+      <c r="Q80" s="31"/>
+      <c r="R80" s="31"/>
+    </row>
+    <row r="81" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B81" s="31"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="31"/>
+      <c r="G81" s="31"/>
+      <c r="H81" s="31"/>
+      <c r="I81" s="31"/>
+      <c r="J81" s="31"/>
+      <c r="K81" s="31"/>
+      <c r="L81" s="31"/>
+      <c r="M81" s="31"/>
+      <c r="N81" s="31"/>
+      <c r="O81" s="31"/>
+      <c r="P81" s="31"/>
+      <c r="Q81" s="31"/>
+      <c r="R81" s="31"/>
+    </row>
+    <row r="82" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B82" s="31"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="31"/>
+      <c r="G82" s="31"/>
+      <c r="H82" s="31"/>
+      <c r="I82" s="31"/>
+      <c r="J82" s="31"/>
+      <c r="K82" s="31"/>
+      <c r="L82" s="31"/>
+      <c r="M82" s="31"/>
+      <c r="N82" s="31"/>
+      <c r="O82" s="31"/>
+      <c r="P82" s="31"/>
+      <c r="Q82" s="31"/>
+      <c r="R82" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="D42:P42"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="D6:P6"/>
+    <mergeCell ref="D7:P7"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="J11:L11"/>
+  </mergeCells>
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K26:O26">
+      <formula1>$AZ$2:$AZ$9</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D26:H26">
+      <formula1>$AW$2:$AW$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K23:O23">
+      <formula1>$AS$2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D23:H23">
+      <formula1>$AO$2:$AO$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K20:O20">
+      <formula1>$AH$3:$AH$9</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20:H20">
+      <formula1>$AC$3:$AC$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F14 D11:E11">
+      <formula1>$AL$2:$AL$5</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N56"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="44.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C3" s="120" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="I3" s="121" t="s">
+        <v>215</v>
+      </c>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="121"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C4" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="70">
+        <v>9002</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="J5" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6">
+        <v>9269</v>
+      </c>
+      <c r="E6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6">
+        <v>1540</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7">
+        <v>9264</v>
+      </c>
+      <c r="E7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7">
+        <v>1530</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8">
+        <v>9263</v>
+      </c>
+      <c r="E8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8">
+        <v>1470</v>
+      </c>
+      <c r="K8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9">
+        <v>9260</v>
+      </c>
+      <c r="E9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9">
+        <v>1560</v>
+      </c>
+      <c r="K9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>6040</v>
+      </c>
+      <c r="E10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10">
+        <v>1590</v>
+      </c>
+      <c r="K10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>6036</v>
+      </c>
+      <c r="E11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11">
+        <v>1610</v>
+      </c>
+      <c r="K11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>6008</v>
+      </c>
+      <c r="E12" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12">
+        <v>1190</v>
+      </c>
+      <c r="K12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>6007</v>
+      </c>
+      <c r="E13" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>1035</v>
+      </c>
+      <c r="E14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14">
+        <v>1320</v>
+      </c>
+      <c r="K14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>1034</v>
+      </c>
+      <c r="E15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15">
+        <v>1318</v>
+      </c>
+      <c r="K15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>1028</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16">
+        <v>1317</v>
+      </c>
+      <c r="K16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>1026</v>
+      </c>
+      <c r="E17" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17">
+        <v>1316</v>
+      </c>
+      <c r="K17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>1016</v>
+      </c>
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>1007</v>
+      </c>
+      <c r="E19" t="s">
+        <v>61</v>
+      </c>
+      <c r="J19">
+        <v>1420</v>
+      </c>
+      <c r="K19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>375</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>373</v>
+      </c>
+      <c r="E21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21">
+        <v>3000</v>
+      </c>
+      <c r="K21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>372</v>
+      </c>
+      <c r="E22" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22">
+        <v>6410</v>
+      </c>
+      <c r="K22" t="s">
+        <v>54</v>
+      </c>
+      <c r="M22" t="s">
+        <v>53</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>368</v>
+      </c>
+      <c r="E23" t="s">
+        <v>51</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>367</v>
+      </c>
+      <c r="E24" t="s">
+        <v>49</v>
+      </c>
+      <c r="J24">
+        <v>9265</v>
+      </c>
+      <c r="K24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>219</v>
+      </c>
+      <c r="D25">
+        <v>365</v>
+      </c>
+      <c r="E25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25">
+        <v>1254</v>
+      </c>
+      <c r="K25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="72" t="s">
+        <v>213</v>
+      </c>
+      <c r="J26">
+        <v>1251</v>
+      </c>
+      <c r="K26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B27" s="73" t="s">
+        <v>217</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="J27">
+        <v>2751</v>
+      </c>
+      <c r="K27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B28" s="73" t="s">
+        <v>218</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="J28">
+        <v>2731</v>
+      </c>
+      <c r="K28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B29" s="72"/>
+      <c r="C29" s="71" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="71" t="s">
+        <v>207</v>
+      </c>
+      <c r="E29" s="71" t="s">
+        <v>208</v>
+      </c>
+      <c r="F29" s="71" t="s">
+        <v>209</v>
+      </c>
+      <c r="G29" s="71" t="s">
+        <v>210</v>
+      </c>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29">
+        <v>1912</v>
+      </c>
+      <c r="K29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="72"/>
+      <c r="C30" s="71">
+        <v>9002</v>
+      </c>
+      <c r="D30" s="71">
+        <v>1026</v>
+      </c>
+      <c r="E30" s="71">
+        <v>373</v>
+      </c>
+      <c r="F30" s="71">
+        <v>3035</v>
+      </c>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30">
+        <v>1556</v>
+      </c>
+      <c r="K30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B31" s="73" t="s">
+        <v>206</v>
+      </c>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="J31">
+        <v>2721</v>
+      </c>
+      <c r="K31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="D39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="5"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="3">
+        <v>9002</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="I3:N3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AZ69"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="K19" sqref="K19:N19"/>
     </sheetView>
   </sheetViews>
@@ -4662,21 +11501,21 @@
     </row>
     <row r="7" spans="3:52" ht="21" x14ac:dyDescent="0.4">
       <c r="C7" s="37"/>
-      <c r="D7" s="101" t="s">
+      <c r="D7" s="102" t="s">
         <v>198</v>
       </c>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="101"/>
-      <c r="O7" s="101"/>
-      <c r="P7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="103"/>
       <c r="AC7" t="s">
         <v>146</v>
       </c>
@@ -4735,26 +11574,26 @@
     </row>
     <row r="10" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C10" s="37"/>
-      <c r="D10" s="97" t="s">
+      <c r="D10" s="93" t="s">
         <v>191</v>
       </c>
-      <c r="E10" s="97"/>
-      <c r="F10" s="100" t="s">
+      <c r="E10" s="93"/>
+      <c r="F10" s="94" t="s">
         <v>220</v>
       </c>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
       <c r="I10" s="31"/>
-      <c r="J10" s="112" t="s">
+      <c r="J10" s="116" t="s">
         <v>228</v>
       </c>
-      <c r="K10" s="112"/>
-      <c r="L10" s="112"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
       <c r="M10" s="46"/>
-      <c r="N10" s="87" t="s">
+      <c r="N10" s="91" t="s">
         <v>192</v>
       </c>
-      <c r="P10" s="88"/>
+      <c r="P10" s="92"/>
       <c r="AC10" t="s">
         <v>149</v>
       </c>
@@ -4763,67 +11602,67 @@
     </row>
     <row r="11" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C11" s="37"/>
-      <c r="D11" s="113" t="s">
+      <c r="D11" s="117" t="s">
         <v>186</v>
       </c>
-      <c r="E11" s="114"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="64">
+      <c r="E11" s="118"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="63">
         <v>1</v>
       </c>
-      <c r="H11" s="64"/>
+      <c r="H11" s="63"/>
       <c r="I11" s="31"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="111"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="89"/>
-      <c r="P11" s="88"/>
+      <c r="J11" s="113"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="115"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="86"/>
+      <c r="P11" s="92"/>
       <c r="AC11" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="12" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C12" s="37"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
       <c r="G12" s="31"/>
       <c r="H12" s="31"/>
       <c r="I12" s="31"/>
       <c r="J12" s="31"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="88"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="92"/>
+      <c r="P12" s="92"/>
     </row>
     <row r="13" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C13" s="37"/>
-      <c r="D13" s="115" t="s">
+      <c r="D13" s="119" t="s">
         <v>216</v>
       </c>
-      <c r="E13" s="115"/>
-      <c r="F13" s="51"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="50"/>
       <c r="H13" s="31"/>
       <c r="I13" s="31"/>
       <c r="J13" s="31"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="78" t="s">
+      <c r="K13" s="74"/>
+      <c r="L13" s="76" t="s">
         <v>221</v>
       </c>
-      <c r="M13" s="77"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="66"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="92"/>
+      <c r="O13" s="92"/>
+      <c r="P13" s="64"/>
     </row>
     <row r="14" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C14" s="37"/>
-      <c r="D14" s="113" t="s">
+      <c r="D14" s="117" t="s">
         <v>186</v>
       </c>
-      <c r="E14" s="114"/>
+      <c r="E14" s="118"/>
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
       <c r="H14" s="31"/>
@@ -4860,22 +11699,22 @@
     </row>
     <row r="16" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C16" s="37"/>
-      <c r="D16" s="97" t="s">
+      <c r="D16" s="93" t="s">
         <v>227</v>
       </c>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
       <c r="I16" s="31"/>
       <c r="J16" s="31"/>
-      <c r="K16" s="97" t="s">
+      <c r="K16" s="93" t="s">
         <v>222</v>
       </c>
-      <c r="L16" s="97"/>
-      <c r="M16" s="97"/>
-      <c r="N16" s="97"/>
-      <c r="O16" s="32"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="91"/>
       <c r="P16" s="38"/>
       <c r="AC16" t="s">
         <v>153</v>
@@ -4883,18 +11722,18 @@
     </row>
     <row r="17" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C17" s="37"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="96"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="97"/>
       <c r="I17" s="31"/>
       <c r="J17" s="31"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="95"/>
-      <c r="M17" s="95"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="32"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="97"/>
+      <c r="O17" s="91"/>
       <c r="P17" s="38"/>
       <c r="AC17" t="s">
         <v>154</v>
@@ -4923,22 +11762,22 @@
     </row>
     <row r="19" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C19" s="37"/>
-      <c r="D19" s="97" t="s">
+      <c r="D19" s="93" t="s">
         <v>223</v>
       </c>
-      <c r="E19" s="97"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="97"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
       <c r="I19" s="31"/>
       <c r="J19" s="31"/>
-      <c r="K19" s="97" t="s">
+      <c r="K19" s="93" t="s">
         <v>224</v>
       </c>
-      <c r="L19" s="97"/>
-      <c r="M19" s="97"/>
-      <c r="N19" s="97"/>
-      <c r="O19" s="32"/>
+      <c r="L19" s="93"/>
+      <c r="M19" s="93"/>
+      <c r="N19" s="93"/>
+      <c r="O19" s="91"/>
       <c r="P19" s="38"/>
       <c r="AC19" t="s">
         <v>156</v>
@@ -4948,18 +11787,18 @@
     </row>
     <row r="20" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C20" s="37"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="96"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="97"/>
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
-      <c r="K20" s="94"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="95"/>
-      <c r="N20" s="96"/>
-      <c r="O20" s="32"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="96"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="97"/>
+      <c r="O20" s="91"/>
       <c r="P20" s="38"/>
       <c r="AC20" t="s">
         <v>157</v>
@@ -4990,22 +11829,22 @@
     </row>
     <row r="22" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C22" s="37"/>
-      <c r="D22" s="97" t="s">
+      <c r="D22" s="93" t="s">
         <v>225</v>
       </c>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
       <c r="I22" s="31"/>
       <c r="J22" s="31"/>
-      <c r="K22" s="97" t="s">
+      <c r="K22" s="93" t="s">
         <v>226</v>
       </c>
-      <c r="L22" s="97"/>
-      <c r="M22" s="97"/>
-      <c r="N22" s="97"/>
-      <c r="O22" s="32"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="93"/>
+      <c r="N22" s="93"/>
+      <c r="O22" s="91"/>
       <c r="P22" s="38"/>
       <c r="AC22" t="s">
         <v>159</v>
@@ -5015,18 +11854,18 @@
     </row>
     <row r="23" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C23" s="37"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="96"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="97"/>
       <c r="I23" s="31"/>
       <c r="J23" s="31"/>
-      <c r="K23" s="94"/>
-      <c r="L23" s="95"/>
-      <c r="M23" s="95"/>
-      <c r="N23" s="96"/>
-      <c r="O23" s="32"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="97"/>
+      <c r="O23" s="91"/>
       <c r="P23" s="38"/>
       <c r="AC23" t="s">
         <v>160</v>
@@ -5044,7 +11883,7 @@
       <c r="G24" s="35"/>
       <c r="H24" s="35"/>
       <c r="I24" s="31"/>
-      <c r="J24" s="32"/>
+      <c r="J24" s="91"/>
       <c r="K24" s="31"/>
       <c r="L24" s="31"/>
       <c r="M24" s="31"/>
@@ -5072,7 +11911,7 @@
       <c r="P25" s="38"/>
     </row>
     <row r="26" spans="3:37" x14ac:dyDescent="0.3">
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="47" t="s">
         <v>190</v>
       </c>
       <c r="D26" s="31"/>
@@ -5125,21 +11964,21 @@
     </row>
     <row r="29" spans="3:37" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="37"/>
-      <c r="D29" s="101" t="s">
+      <c r="D29" s="102" t="s">
         <v>203</v>
       </c>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="101"/>
-      <c r="J29" s="101"/>
-      <c r="K29" s="101"/>
-      <c r="L29" s="101"/>
-      <c r="M29" s="101"/>
-      <c r="N29" s="101"/>
-      <c r="O29" s="101"/>
-      <c r="P29" s="102"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="102"/>
+      <c r="I29" s="102"/>
+      <c r="J29" s="102"/>
+      <c r="K29" s="102"/>
+      <c r="L29" s="102"/>
+      <c r="M29" s="102"/>
+      <c r="N29" s="102"/>
+      <c r="O29" s="102"/>
+      <c r="P29" s="103"/>
     </row>
     <row r="30" spans="3:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C30" s="37"/>
@@ -5162,15 +12001,15 @@
       <c r="D31" s="31"/>
       <c r="E31" s="31"/>
       <c r="F31" s="31"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="54"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="53"/>
       <c r="P31" s="38"/>
     </row>
     <row r="32" spans="3:37" x14ac:dyDescent="0.3">
@@ -5178,29 +12017,29 @@
       <c r="D32" s="31"/>
       <c r="E32" s="31"/>
       <c r="F32" s="31"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="32" t="s">
+      <c r="G32" s="54"/>
+      <c r="H32" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="I32" s="120" t="s">
+      <c r="I32" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="J32" s="32" t="s">
+      <c r="J32" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="K32" s="120" t="s">
+      <c r="K32" s="112" t="s">
         <v>126</v>
       </c>
-      <c r="L32" s="32" t="s">
+      <c r="L32" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="M32" s="120" t="s">
+      <c r="M32" s="112" t="s">
         <v>127</v>
       </c>
-      <c r="N32" s="32" t="s">
+      <c r="N32" s="91" t="s">
         <v>128</v>
       </c>
-      <c r="O32" s="56"/>
+      <c r="O32" s="55"/>
       <c r="P32" s="38"/>
     </row>
     <row r="33" spans="3:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -5208,17 +12047,17 @@
       <c r="D33" s="31"/>
       <c r="E33" s="31"/>
       <c r="F33" s="31"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="120"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="120"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="120"/>
-      <c r="N33" s="50">
+      <c r="G33" s="54"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="112"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="112"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="112"/>
+      <c r="N33" s="49">
         <v>0.2</v>
       </c>
-      <c r="O33" s="57"/>
+      <c r="O33" s="56"/>
       <c r="P33" s="38"/>
     </row>
     <row r="34" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5226,15 +12065,15 @@
       <c r="D34" s="31"/>
       <c r="E34" s="31"/>
       <c r="F34" s="31"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="59"/>
-      <c r="O34" s="60"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="58"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="58"/>
+      <c r="O34" s="59"/>
       <c r="P34" s="38"/>
     </row>
     <row r="35" spans="3:17" x14ac:dyDescent="0.3">
@@ -5274,13 +12113,13 @@
       <c r="D37" s="31"/>
       <c r="E37" s="31"/>
       <c r="F37" s="31"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="54"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="53"/>
       <c r="N37" s="31"/>
       <c r="O37" s="31"/>
       <c r="P37" s="38"/>
@@ -5293,23 +12132,23 @@
       <c r="D38" s="31"/>
       <c r="E38" s="31"/>
       <c r="F38" s="31"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="32" t="s">
+      <c r="G38" s="54"/>
+      <c r="H38" s="91" t="s">
         <v>199</v>
       </c>
-      <c r="I38" s="120" t="s">
+      <c r="I38" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="J38" s="32" t="s">
+      <c r="J38" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="K38" s="120" t="s">
+      <c r="K38" s="112" t="s">
         <v>129</v>
       </c>
-      <c r="L38" s="32" t="s">
+      <c r="L38" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="M38" s="62"/>
+      <c r="M38" s="61"/>
       <c r="O38" s="31"/>
       <c r="P38" s="38"/>
       <c r="Q38" t="s">
@@ -5321,13 +12160,13 @@
       <c r="D39" s="31"/>
       <c r="E39" s="31"/>
       <c r="F39" s="31"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="120"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="120"/>
-      <c r="L39" s="49"/>
-      <c r="M39" s="63"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="112"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="112"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="62"/>
       <c r="N39" s="31"/>
       <c r="O39" s="31"/>
       <c r="P39" s="38"/>
@@ -5337,13 +12176,13 @@
       <c r="D40" s="31"/>
       <c r="E40" s="31"/>
       <c r="F40" s="31"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="59"/>
-      <c r="L40" s="59"/>
-      <c r="M40" s="60"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="58"/>
+      <c r="J40" s="58"/>
+      <c r="K40" s="58"/>
+      <c r="L40" s="58"/>
+      <c r="M40" s="59"/>
       <c r="N40" s="31"/>
       <c r="O40" s="31"/>
       <c r="P40" s="38"/>
@@ -5383,11 +12222,11 @@
       <c r="E43" s="31"/>
       <c r="F43" s="31"/>
       <c r="G43" s="31"/>
-      <c r="H43" s="94" t="s">
+      <c r="H43" s="95" t="s">
         <v>202</v>
       </c>
-      <c r="I43" s="95"/>
-      <c r="J43" s="96"/>
+      <c r="I43" s="96"/>
+      <c r="J43" s="97"/>
       <c r="K43" s="31"/>
       <c r="L43" s="31"/>
       <c r="M43" s="31"/>
@@ -5401,13 +12240,13 @@
       <c r="E44" s="31"/>
       <c r="F44" s="31"/>
       <c r="G44" s="31"/>
-      <c r="H44" s="61" t="s">
+      <c r="H44" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="I44" s="116" t="s">
+      <c r="I44" s="108" t="s">
         <v>201</v>
       </c>
-      <c r="J44" s="117"/>
+      <c r="J44" s="109"/>
       <c r="K44" s="31"/>
       <c r="L44" s="31"/>
       <c r="M44" s="31"/>
@@ -5421,11 +12260,11 @@
       <c r="E45" s="31"/>
       <c r="F45" s="31"/>
       <c r="G45" s="31"/>
-      <c r="H45" s="61">
+      <c r="H45" s="60">
         <v>1094</v>
       </c>
-      <c r="I45" s="118"/>
-      <c r="J45" s="119"/>
+      <c r="I45" s="110"/>
+      <c r="J45" s="111"/>
       <c r="K45" s="31"/>
       <c r="L45" s="31"/>
       <c r="M45" s="31"/>
@@ -5878,1376 +12717,62 @@
       <c r="R69" s="31"/>
     </row>
   </sheetData>
-  <sortState ref="AC2:AF21">
-    <sortCondition ref="AC2:AC21"/>
-  </sortState>
   <mergeCells count="29">
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="H43:J43"/>
     <mergeCell ref="I44:J44"/>
     <mergeCell ref="I45:J45"/>
-    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="K23:N23"/>
     <mergeCell ref="D29:P29"/>
     <mergeCell ref="I32:I33"/>
     <mergeCell ref="K32:K33"/>
     <mergeCell ref="M32:M33"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="K23:N23"/>
     <mergeCell ref="D19:H19"/>
-    <mergeCell ref="D22:H22"/>
     <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K22:N22"/>
     <mergeCell ref="D20:H20"/>
     <mergeCell ref="K20:N20"/>
-    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="K17:N17"/>
     <mergeCell ref="D7:P7"/>
     <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:F12">
-      <formula1>$AL$2:$AL$5</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K23:O23">
+      <formula1>$AZ$2:$AZ$9</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D23:H23">
+      <formula1>$AW$2:$AW$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K20:O20">
+      <formula1>$AS$2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20:H20">
+      <formula1>$AO$2:$AO$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K17:O17">
+      <formula1>$AH$3:$AH$9</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17:H17">
       <formula1>$AC$3:$AC$24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K17:O17">
-      <formula1>$AH$3:$AH$9</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20:H20">
-      <formula1>$AO$2:$AO$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K20:O20">
-      <formula1>$AS$2</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D23:H23">
-      <formula1>$AW$2:$AW$3</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K23:O23">
-      <formula1>$AZ$2:$AZ$9</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:F12">
+      <formula1>$AL$2:$AL$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N56"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="6" max="6" width="44.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C3" s="121" t="s">
-        <v>214</v>
-      </c>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="I3" s="122" t="s">
-        <v>215</v>
-      </c>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="122"/>
-      <c r="N3" s="122"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C4" s="72" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="72">
-        <v>9002</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="J5" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6">
-        <v>9269</v>
-      </c>
-      <c r="E6" t="s">
-        <v>89</v>
-      </c>
-      <c r="J6">
-        <v>1540</v>
-      </c>
-      <c r="K6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7">
-        <v>9264</v>
-      </c>
-      <c r="E7" t="s">
-        <v>86</v>
-      </c>
-      <c r="J7">
-        <v>1530</v>
-      </c>
-      <c r="K7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8">
-        <v>9263</v>
-      </c>
-      <c r="E8" t="s">
-        <v>81</v>
-      </c>
-      <c r="J8">
-        <v>1470</v>
-      </c>
-      <c r="K8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9">
-        <v>9260</v>
-      </c>
-      <c r="E9" t="s">
-        <v>81</v>
-      </c>
-      <c r="J9">
-        <v>1560</v>
-      </c>
-      <c r="K9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D10">
-        <v>6040</v>
-      </c>
-      <c r="E10" t="s">
-        <v>79</v>
-      </c>
-      <c r="J10">
-        <v>1590</v>
-      </c>
-      <c r="K10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D11">
-        <v>6036</v>
-      </c>
-      <c r="E11" t="s">
-        <v>77</v>
-      </c>
-      <c r="J11">
-        <v>1610</v>
-      </c>
-      <c r="K11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D12">
-        <v>6008</v>
-      </c>
-      <c r="E12" t="s">
-        <v>75</v>
-      </c>
-      <c r="J12">
-        <v>1190</v>
-      </c>
-      <c r="K12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D13">
-        <v>6007</v>
-      </c>
-      <c r="E13" t="s">
-        <v>73</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D14">
-        <v>1035</v>
-      </c>
-      <c r="E14" t="s">
-        <v>71</v>
-      </c>
-      <c r="J14">
-        <v>1320</v>
-      </c>
-      <c r="K14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D15">
-        <v>1034</v>
-      </c>
-      <c r="E15" t="s">
-        <v>69</v>
-      </c>
-      <c r="J15">
-        <v>1318</v>
-      </c>
-      <c r="K15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D16">
-        <v>1028</v>
-      </c>
-      <c r="E16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J16">
-        <v>1317</v>
-      </c>
-      <c r="K16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D17">
-        <v>1026</v>
-      </c>
-      <c r="E17" t="s">
-        <v>65</v>
-      </c>
-      <c r="J17">
-        <v>1316</v>
-      </c>
-      <c r="K17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D18">
-        <v>1016</v>
-      </c>
-      <c r="E18" t="s">
-        <v>63</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D19">
-        <v>1007</v>
-      </c>
-      <c r="E19" t="s">
-        <v>61</v>
-      </c>
-      <c r="J19">
-        <v>1420</v>
-      </c>
-      <c r="K19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D20">
-        <v>375</v>
-      </c>
-      <c r="E20" t="s">
-        <v>59</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D21">
-        <v>373</v>
-      </c>
-      <c r="E21" t="s">
-        <v>57</v>
-      </c>
-      <c r="J21">
-        <v>3000</v>
-      </c>
-      <c r="K21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D22">
-        <v>372</v>
-      </c>
-      <c r="E22" t="s">
-        <v>55</v>
-      </c>
-      <c r="J22">
-        <v>6410</v>
-      </c>
-      <c r="K22" t="s">
-        <v>54</v>
-      </c>
-      <c r="M22" t="s">
-        <v>53</v>
-      </c>
-      <c r="N22" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D23">
-        <v>368</v>
-      </c>
-      <c r="E23" t="s">
-        <v>51</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D24">
-        <v>367</v>
-      </c>
-      <c r="E24" t="s">
-        <v>49</v>
-      </c>
-      <c r="J24">
-        <v>9265</v>
-      </c>
-      <c r="K24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>219</v>
-      </c>
-      <c r="D25">
-        <v>365</v>
-      </c>
-      <c r="E25" t="s">
-        <v>47</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J25">
-        <v>1254</v>
-      </c>
-      <c r="K25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="74" t="s">
-        <v>213</v>
-      </c>
-      <c r="J26">
-        <v>1251</v>
-      </c>
-      <c r="K26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B27" s="75" t="s">
-        <v>217</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="J27">
-        <v>2751</v>
-      </c>
-      <c r="K27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="75" t="s">
-        <v>218</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="J28">
-        <v>2731</v>
-      </c>
-      <c r="K28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="74"/>
-      <c r="C29" s="73" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" s="73" t="s">
-        <v>207</v>
-      </c>
-      <c r="E29" s="73" t="s">
-        <v>208</v>
-      </c>
-      <c r="F29" s="73" t="s">
-        <v>209</v>
-      </c>
-      <c r="G29" s="73" t="s">
-        <v>210</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29">
-        <v>1912</v>
-      </c>
-      <c r="K29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B30" s="74"/>
-      <c r="C30" s="73">
-        <v>9002</v>
-      </c>
-      <c r="D30" s="73">
-        <v>1026</v>
-      </c>
-      <c r="E30" s="73">
-        <v>373</v>
-      </c>
-      <c r="F30" s="73">
-        <v>3035</v>
-      </c>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30">
-        <v>1556</v>
-      </c>
-      <c r="K30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B31" s="75" t="s">
-        <v>206</v>
-      </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="J31">
-        <v>2721</v>
-      </c>
-      <c r="K31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="5"/>
-      <c r="D39" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>29</v>
-      </c>
-      <c r="E41" t="s">
-        <v>28</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42" t="s">
-        <v>25</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>23</v>
-      </c>
-      <c r="E43" t="s">
-        <v>22</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>20</v>
-      </c>
-      <c r="E44" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B47" s="5"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H48" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" s="3">
-        <v>9002</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>2</v>
-      </c>
-      <c r="C55" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="I3:N3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N53"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="6" max="6" width="44.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C3" s="121" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="I3" s="122" t="s">
-        <v>98</v>
-      </c>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="122"/>
-      <c r="N3" s="122"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C4" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="16">
-        <v>9002</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="J5" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6">
-        <v>9269</v>
-      </c>
-      <c r="E6" t="s">
-        <v>89</v>
-      </c>
-      <c r="J6">
-        <v>1540</v>
-      </c>
-      <c r="K6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7">
-        <v>9264</v>
-      </c>
-      <c r="E7" t="s">
-        <v>86</v>
-      </c>
-      <c r="J7">
-        <v>1530</v>
-      </c>
-      <c r="K7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8">
-        <v>9263</v>
-      </c>
-      <c r="E8" t="s">
-        <v>81</v>
-      </c>
-      <c r="J8">
-        <v>1470</v>
-      </c>
-      <c r="K8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9">
-        <v>9260</v>
-      </c>
-      <c r="E9" t="s">
-        <v>81</v>
-      </c>
-      <c r="J9">
-        <v>1560</v>
-      </c>
-      <c r="K9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10">
-        <v>6040</v>
-      </c>
-      <c r="E10" t="s">
-        <v>79</v>
-      </c>
-      <c r="J10">
-        <v>1590</v>
-      </c>
-      <c r="K10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D11">
-        <v>6036</v>
-      </c>
-      <c r="E11" t="s">
-        <v>77</v>
-      </c>
-      <c r="J11">
-        <v>1610</v>
-      </c>
-      <c r="K11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D12">
-        <v>6008</v>
-      </c>
-      <c r="E12" t="s">
-        <v>75</v>
-      </c>
-      <c r="J12">
-        <v>1190</v>
-      </c>
-      <c r="K12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D13">
-        <v>6007</v>
-      </c>
-      <c r="E13" t="s">
-        <v>73</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D14">
-        <v>1035</v>
-      </c>
-      <c r="E14" t="s">
-        <v>71</v>
-      </c>
-      <c r="J14">
-        <v>1320</v>
-      </c>
-      <c r="K14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D15">
-        <v>1034</v>
-      </c>
-      <c r="E15" t="s">
-        <v>69</v>
-      </c>
-      <c r="J15">
-        <v>1318</v>
-      </c>
-      <c r="K15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D16">
-        <v>1028</v>
-      </c>
-      <c r="E16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J16">
-        <v>1317</v>
-      </c>
-      <c r="K16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D17">
-        <v>1026</v>
-      </c>
-      <c r="E17" t="s">
-        <v>65</v>
-      </c>
-      <c r="J17">
-        <v>1316</v>
-      </c>
-      <c r="K17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D18">
-        <v>1016</v>
-      </c>
-      <c r="E18" t="s">
-        <v>63</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-    </row>
-    <row r="19" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D19">
-        <v>1007</v>
-      </c>
-      <c r="E19" t="s">
-        <v>61</v>
-      </c>
-      <c r="J19">
-        <v>1420</v>
-      </c>
-      <c r="K19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D20">
-        <v>375</v>
-      </c>
-      <c r="E20" t="s">
-        <v>59</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-    </row>
-    <row r="21" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D21">
-        <v>373</v>
-      </c>
-      <c r="E21" t="s">
-        <v>57</v>
-      </c>
-      <c r="J21">
-        <v>3000</v>
-      </c>
-      <c r="K21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D22">
-        <v>372</v>
-      </c>
-      <c r="E22" t="s">
-        <v>55</v>
-      </c>
-      <c r="J22">
-        <v>6410</v>
-      </c>
-      <c r="K22" t="s">
-        <v>54</v>
-      </c>
-      <c r="M22" t="s">
-        <v>53</v>
-      </c>
-      <c r="N22" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D23">
-        <v>368</v>
-      </c>
-      <c r="E23" t="s">
-        <v>51</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-    </row>
-    <row r="24" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D24">
-        <v>367</v>
-      </c>
-      <c r="E24" t="s">
-        <v>49</v>
-      </c>
-      <c r="J24">
-        <v>9265</v>
-      </c>
-      <c r="K24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D25">
-        <v>365</v>
-      </c>
-      <c r="E25" t="s">
-        <v>47</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J25">
-        <v>1254</v>
-      </c>
-      <c r="K25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="J26">
-        <v>1251</v>
-      </c>
-      <c r="K26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="J27">
-        <v>2751</v>
-      </c>
-      <c r="K27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="J28">
-        <v>2731</v>
-      </c>
-      <c r="K28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="J29">
-        <v>1912</v>
-      </c>
-      <c r="K29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="J30">
-        <v>1556</v>
-      </c>
-      <c r="K30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="J31">
-        <v>2721</v>
-      </c>
-      <c r="K31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G35" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="5"/>
-      <c r="D36" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E38" t="s">
-        <v>28</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" t="s">
-        <v>25</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>23</v>
-      </c>
-      <c r="E40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B44" s="5"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H45" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="3">
-        <v>9002</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>2</v>
-      </c>
-      <c r="C52" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="I3:N3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/6- Ingenieria de producto/6.1 - Análisis/04- Archivos de Trabajo/01-Embargos/MID - Módulo Judicial v1.xlsx
+++ b/6- Ingenieria de producto/6.1 - Análisis/04- Archivos de Trabajo/01-Embargos/MID - Módulo Judicial v1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="293">
   <si>
     <t>se toma el menor de ambos</t>
   </si>
@@ -924,15 +924,6 @@
     <t>Base embargo</t>
   </si>
   <si>
-    <t>MNE (piso)</t>
-  </si>
-  <si>
-    <t>ME (tope)</t>
-  </si>
-  <si>
-    <t>Salario Familiar</t>
-  </si>
-  <si>
     <t>ME-Máximo Embargable</t>
   </si>
   <si>
@@ -943,6 +934,12 @@
   </si>
   <si>
     <t>Resultado Descuento Embargo</t>
+  </si>
+  <si>
+    <t>Base a Embargar</t>
+  </si>
+  <si>
+    <t>Total descuento</t>
   </si>
 </sst>
 </file>
@@ -952,7 +949,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1157,6 +1154,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF040C28"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="16">
@@ -1520,12 +1523,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <left style="thick">
+        <color auto="1"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
+      <top style="thick">
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1533,26 +1536,26 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
+      <top style="thick">
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
+      <right style="thick">
+        <color auto="1"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
+      <top style="thick">
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <left style="thick">
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -1561,21 +1564,21 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
+      <right style="thick">
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <left style="thick">
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="thick">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1583,19 +1586,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="thick">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
+      <right style="thick">
+        <color auto="1"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="thick">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1604,7 +1607,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1778,9 +1781,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1836,6 +1836,57 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="1" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="24" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="12" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1854,13 +1905,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1872,19 +1923,13 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1907,6 +1952,39 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1953,12 +2031,6 @@
     <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1968,66 +2040,31 @@
     <xf numFmtId="0" fontId="18" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="24" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="24" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="20" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="12" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -2739,10 +2776,10 @@
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1269</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>187036</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>138429</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2767,7 +2804,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="792480" y="213360"/>
-          <a:ext cx="11125200" cy="702309"/>
+          <a:ext cx="11239500" cy="702309"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2796,8 +2833,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>495301</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>165388</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2852,7 +2889,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>501650</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:rowOff>99579</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2900,13 +2937,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>394971</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>93980</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3214,13 +3251,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>218440</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>162560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1174750</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3279,13 +3316,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3344,13 +3381,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>984250</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7919,20 +7956,20 @@
     </row>
     <row r="7" spans="3:27" ht="21" x14ac:dyDescent="0.4">
       <c r="C7" s="37"/>
-      <c r="D7" s="136" t="s">
+      <c r="D7" s="162" t="s">
         <v>131</v>
       </c>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="136"/>
-      <c r="K7" s="136"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
-      <c r="O7" s="137"/>
+      <c r="E7" s="162"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="162"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="162"/>
+      <c r="J7" s="162"/>
+      <c r="K7" s="162"/>
+      <c r="L7" s="162"/>
+      <c r="M7" s="162"/>
+      <c r="N7" s="162"/>
+      <c r="O7" s="163"/>
       <c r="AA7" t="s">
         <v>253</v>
       </c>
@@ -7977,21 +8014,21 @@
     </row>
     <row r="10" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C10" s="37"/>
-      <c r="D10" s="138" t="s">
+      <c r="D10" s="164" t="s">
         <v>132</v>
       </c>
-      <c r="E10" s="138"/>
+      <c r="E10" s="164"/>
       <c r="F10" s="32"/>
       <c r="G10" s="32" t="s">
         <v>134</v>
       </c>
       <c r="H10" s="31"/>
-      <c r="I10" s="138" t="s">
+      <c r="I10" s="164" t="s">
         <v>133</v>
       </c>
-      <c r="J10" s="138"/>
-      <c r="K10" s="138"/>
-      <c r="L10" s="138"/>
+      <c r="J10" s="164"/>
+      <c r="K10" s="164"/>
+      <c r="L10" s="164"/>
       <c r="M10" s="31"/>
       <c r="N10" s="85" t="s">
         <v>230</v>
@@ -8067,17 +8104,17 @@
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
       <c r="H14" s="31"/>
-      <c r="I14" s="138" t="s">
+      <c r="I14" s="164" t="s">
         <v>237</v>
       </c>
-      <c r="J14" s="138"/>
+      <c r="J14" s="164"/>
       <c r="K14" s="32" t="s">
         <v>255</v>
       </c>
-      <c r="L14" s="138" t="s">
+      <c r="L14" s="164" t="s">
         <v>245</v>
       </c>
-      <c r="M14" s="138"/>
+      <c r="M14" s="164"/>
       <c r="N14" s="31" t="s">
         <v>255</v>
       </c>
@@ -8085,16 +8122,16 @@
     </row>
     <row r="15" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C15" s="37"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="141"/>
+      <c r="D15" s="171"/>
+      <c r="E15" s="172"/>
+      <c r="F15" s="172"/>
+      <c r="G15" s="173"/>
       <c r="H15" s="31"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="141"/>
+      <c r="I15" s="171"/>
+      <c r="J15" s="173"/>
       <c r="K15" s="32"/>
-      <c r="L15" s="139"/>
-      <c r="M15" s="141"/>
+      <c r="L15" s="171"/>
+      <c r="M15" s="173"/>
       <c r="N15" s="31"/>
       <c r="O15" s="38"/>
     </row>
@@ -8130,19 +8167,19 @@
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C18" s="37"/>
-      <c r="D18" s="138" t="s">
+      <c r="D18" s="164" t="s">
         <v>137</v>
       </c>
-      <c r="E18" s="138"/>
+      <c r="E18" s="164"/>
       <c r="F18" s="31"/>
       <c r="G18" s="32" t="s">
         <v>138</v>
       </c>
       <c r="H18" s="31"/>
-      <c r="I18" s="138" t="s">
+      <c r="I18" s="164" t="s">
         <v>139</v>
       </c>
-      <c r="J18" s="138"/>
+      <c r="J18" s="164"/>
       <c r="K18" s="31"/>
       <c r="L18" s="31" t="s">
         <v>244</v>
@@ -8278,25 +8315,25 @@
       <c r="D27" s="89" t="s">
         <v>249</v>
       </c>
-      <c r="E27" s="167" t="s">
+      <c r="E27" s="202" t="s">
         <v>257</v>
       </c>
-      <c r="F27" s="167"/>
-      <c r="G27" s="167" t="s">
+      <c r="F27" s="202"/>
+      <c r="G27" s="202" t="s">
         <v>250</v>
       </c>
-      <c r="H27" s="167"/>
-      <c r="I27" s="167"/>
+      <c r="H27" s="202"/>
+      <c r="I27" s="202"/>
       <c r="J27" s="89" t="s">
         <v>258</v>
       </c>
       <c r="K27" s="89" t="s">
         <v>251</v>
       </c>
-      <c r="L27" s="167" t="s">
+      <c r="L27" s="202" t="s">
         <v>252</v>
       </c>
-      <c r="M27" s="167"/>
+      <c r="M27" s="202"/>
       <c r="N27" s="90"/>
       <c r="O27" s="44" t="s">
         <v>141</v>
@@ -8641,21 +8678,21 @@
     </row>
     <row r="6" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C6" s="34"/>
-      <c r="D6" s="174" t="s">
+      <c r="D6" s="207" t="s">
         <v>261</v>
       </c>
-      <c r="E6" s="174"/>
-      <c r="F6" s="174"/>
-      <c r="G6" s="174"/>
-      <c r="H6" s="174"/>
-      <c r="I6" s="174"/>
-      <c r="J6" s="174"/>
-      <c r="K6" s="174"/>
-      <c r="L6" s="174"/>
-      <c r="M6" s="174"/>
-      <c r="N6" s="174"/>
-      <c r="O6" s="174"/>
-      <c r="P6" s="175"/>
+      <c r="E6" s="207"/>
+      <c r="F6" s="207"/>
+      <c r="G6" s="207"/>
+      <c r="H6" s="207"/>
+      <c r="I6" s="207"/>
+      <c r="J6" s="207"/>
+      <c r="K6" s="207"/>
+      <c r="L6" s="207"/>
+      <c r="M6" s="207"/>
+      <c r="N6" s="207"/>
+      <c r="O6" s="207"/>
+      <c r="P6" s="208"/>
       <c r="AC6" t="s">
         <v>145</v>
       </c>
@@ -8668,21 +8705,21 @@
     </row>
     <row r="7" spans="3:52" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C7" s="37"/>
-      <c r="D7" s="136" t="s">
+      <c r="D7" s="162" t="s">
         <v>198</v>
       </c>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="136"/>
-      <c r="K7" s="136"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
-      <c r="O7" s="136"/>
-      <c r="P7" s="137"/>
+      <c r="E7" s="162"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="162"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="162"/>
+      <c r="J7" s="162"/>
+      <c r="K7" s="162"/>
+      <c r="L7" s="162"/>
+      <c r="M7" s="162"/>
+      <c r="N7" s="162"/>
+      <c r="O7" s="162"/>
+      <c r="P7" s="163"/>
       <c r="AC7" t="s">
         <v>146</v>
       </c>
@@ -8741,21 +8778,21 @@
     </row>
     <row r="10" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C10" s="37"/>
-      <c r="D10" s="138" t="s">
+      <c r="D10" s="164" t="s">
         <v>191</v>
       </c>
-      <c r="E10" s="138"/>
+      <c r="E10" s="164"/>
       <c r="F10" s="96"/>
       <c r="G10" s="96"/>
       <c r="H10" s="91" t="s">
         <v>220</v>
       </c>
       <c r="I10" s="31"/>
-      <c r="J10" s="145" t="s">
+      <c r="J10" s="165" t="s">
         <v>228</v>
       </c>
-      <c r="K10" s="145"/>
-      <c r="L10" s="145"/>
+      <c r="K10" s="165"/>
+      <c r="L10" s="165"/>
       <c r="M10" s="46"/>
       <c r="N10" s="91" t="s">
         <v>192</v>
@@ -8769,21 +8806,21 @@
     </row>
     <row r="11" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C11" s="37"/>
-      <c r="D11" s="146" t="s">
+      <c r="D11" s="166" t="s">
         <v>186</v>
       </c>
-      <c r="E11" s="147"/>
+      <c r="E11" s="167"/>
       <c r="F11" s="50"/>
       <c r="G11" s="63"/>
-      <c r="H11" s="100">
+      <c r="H11" s="99">
         <v>20</v>
       </c>
       <c r="I11" s="31"/>
-      <c r="J11" s="142"/>
-      <c r="K11" s="143"/>
-      <c r="L11" s="144"/>
+      <c r="J11" s="168"/>
+      <c r="K11" s="169"/>
+      <c r="L11" s="170"/>
       <c r="M11" s="92"/>
-      <c r="N11" s="99">
+      <c r="N11" s="98">
         <v>632088.51</v>
       </c>
       <c r="P11" s="92"/>
@@ -8812,7 +8849,7 @@
       <c r="D13" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E13" s="106">
+      <c r="E13" s="105">
         <v>87987</v>
       </c>
       <c r="F13" s="50"/>
@@ -8848,17 +8885,17 @@
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
       <c r="F15" s="50"/>
-      <c r="H15" s="107" t="s">
+      <c r="H15" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="107"/>
-      <c r="J15" s="107" t="s">
+      <c r="I15" s="106"/>
+      <c r="J15" s="106" t="s">
         <v>17</v>
       </c>
       <c r="K15" s="92"/>
       <c r="M15" s="75"/>
-      <c r="N15" s="168"/>
-      <c r="O15" s="168"/>
+      <c r="N15" s="203"/>
+      <c r="O15" s="203"/>
       <c r="P15" s="64"/>
       <c r="Q15" s="76" t="s">
         <v>221</v>
@@ -8866,10 +8903,10 @@
     </row>
     <row r="16" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C16" s="37"/>
-      <c r="D16" s="169" t="s">
+      <c r="D16" s="204" t="s">
         <v>216</v>
       </c>
-      <c r="E16" s="169"/>
+      <c r="E16" s="204"/>
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
       <c r="H16" s="95" t="s">
@@ -8882,8 +8919,8 @@
       <c r="K16" s="46"/>
       <c r="L16" s="46"/>
       <c r="M16" s="46"/>
-      <c r="N16" s="170"/>
-      <c r="O16" s="171"/>
+      <c r="N16" s="205"/>
+      <c r="O16" s="206"/>
       <c r="P16" s="38"/>
       <c r="AC16" t="s">
         <v>151</v>
@@ -8891,10 +8928,10 @@
     </row>
     <row r="17" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C17" s="37"/>
-      <c r="D17" s="172" t="s">
+      <c r="D17" s="182" t="s">
         <v>186</v>
       </c>
-      <c r="E17" s="173"/>
+      <c r="E17" s="183"/>
       <c r="F17" s="31"/>
       <c r="G17" s="31"/>
       <c r="H17" s="28"/>
@@ -8928,21 +8965,21 @@
     </row>
     <row r="19" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C19" s="37"/>
-      <c r="D19" s="138" t="s">
+      <c r="D19" s="164" t="s">
         <v>227</v>
       </c>
-      <c r="E19" s="138"/>
-      <c r="F19" s="138"/>
-      <c r="G19" s="138"/>
-      <c r="H19" s="138"/>
+      <c r="E19" s="164"/>
+      <c r="F19" s="164"/>
+      <c r="G19" s="164"/>
+      <c r="H19" s="164"/>
       <c r="I19" s="31"/>
       <c r="J19" s="31"/>
-      <c r="K19" s="138" t="s">
+      <c r="K19" s="164" t="s">
         <v>222</v>
       </c>
-      <c r="L19" s="138"/>
-      <c r="M19" s="138"/>
-      <c r="N19" s="138"/>
+      <c r="L19" s="164"/>
+      <c r="M19" s="164"/>
+      <c r="N19" s="164"/>
       <c r="O19" s="91"/>
       <c r="P19" s="38"/>
       <c r="AC19" t="s">
@@ -8951,17 +8988,17 @@
     </row>
     <row r="20" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C20" s="37"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="140"/>
-      <c r="F20" s="140"/>
-      <c r="G20" s="140"/>
-      <c r="H20" s="141"/>
+      <c r="D20" s="171"/>
+      <c r="E20" s="172"/>
+      <c r="F20" s="172"/>
+      <c r="G20" s="172"/>
+      <c r="H20" s="173"/>
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
-      <c r="K20" s="139"/>
-      <c r="L20" s="140"/>
-      <c r="M20" s="140"/>
-      <c r="N20" s="141"/>
+      <c r="K20" s="171"/>
+      <c r="L20" s="172"/>
+      <c r="M20" s="172"/>
+      <c r="N20" s="173"/>
       <c r="O20" s="91"/>
       <c r="P20" s="38"/>
       <c r="AC20" t="s">
@@ -8991,21 +9028,21 @@
     </row>
     <row r="22" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C22" s="37"/>
-      <c r="D22" s="138" t="s">
+      <c r="D22" s="164" t="s">
         <v>223</v>
       </c>
-      <c r="E22" s="138"/>
-      <c r="F22" s="138"/>
-      <c r="G22" s="138"/>
-      <c r="H22" s="138"/>
+      <c r="E22" s="164"/>
+      <c r="F22" s="164"/>
+      <c r="G22" s="164"/>
+      <c r="H22" s="164"/>
       <c r="I22" s="31"/>
       <c r="J22" s="31"/>
-      <c r="K22" s="138" t="s">
+      <c r="K22" s="164" t="s">
         <v>224</v>
       </c>
-      <c r="L22" s="138"/>
-      <c r="M22" s="138"/>
-      <c r="N22" s="138"/>
+      <c r="L22" s="164"/>
+      <c r="M22" s="164"/>
+      <c r="N22" s="164"/>
       <c r="O22" s="91"/>
       <c r="P22" s="38"/>
       <c r="AC22" t="s">
@@ -9016,17 +9053,17 @@
     </row>
     <row r="23" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C23" s="37"/>
-      <c r="D23" s="139"/>
-      <c r="E23" s="140"/>
-      <c r="F23" s="140"/>
-      <c r="G23" s="140"/>
-      <c r="H23" s="141"/>
+      <c r="D23" s="171"/>
+      <c r="E23" s="172"/>
+      <c r="F23" s="172"/>
+      <c r="G23" s="172"/>
+      <c r="H23" s="173"/>
       <c r="I23" s="31"/>
       <c r="J23" s="31"/>
-      <c r="K23" s="139"/>
-      <c r="L23" s="140"/>
-      <c r="M23" s="140"/>
-      <c r="N23" s="141"/>
+      <c r="K23" s="171"/>
+      <c r="L23" s="172"/>
+      <c r="M23" s="172"/>
+      <c r="N23" s="173"/>
       <c r="O23" s="91"/>
       <c r="P23" s="38"/>
       <c r="AC23" t="s">
@@ -9058,21 +9095,21 @@
     </row>
     <row r="25" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C25" s="37"/>
-      <c r="D25" s="138" t="s">
+      <c r="D25" s="164" t="s">
         <v>225</v>
       </c>
-      <c r="E25" s="138"/>
-      <c r="F25" s="138"/>
-      <c r="G25" s="138"/>
-      <c r="H25" s="138"/>
+      <c r="E25" s="164"/>
+      <c r="F25" s="164"/>
+      <c r="G25" s="164"/>
+      <c r="H25" s="164"/>
       <c r="I25" s="31"/>
       <c r="J25" s="31"/>
-      <c r="K25" s="138" t="s">
+      <c r="K25" s="164" t="s">
         <v>226</v>
       </c>
-      <c r="L25" s="138"/>
-      <c r="M25" s="138"/>
-      <c r="N25" s="138"/>
+      <c r="L25" s="164"/>
+      <c r="M25" s="164"/>
+      <c r="N25" s="164"/>
       <c r="O25" s="91"/>
       <c r="P25" s="38"/>
       <c r="AC25" t="s">
@@ -9083,17 +9120,17 @@
     </row>
     <row r="26" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C26" s="37"/>
-      <c r="D26" s="139"/>
-      <c r="E26" s="140"/>
-      <c r="F26" s="140"/>
-      <c r="G26" s="140"/>
-      <c r="H26" s="141"/>
+      <c r="D26" s="171"/>
+      <c r="E26" s="172"/>
+      <c r="F26" s="172"/>
+      <c r="G26" s="172"/>
+      <c r="H26" s="173"/>
       <c r="I26" s="31"/>
       <c r="J26" s="31"/>
-      <c r="K26" s="139"/>
-      <c r="L26" s="140"/>
-      <c r="M26" s="140"/>
-      <c r="N26" s="141"/>
+      <c r="K26" s="171"/>
+      <c r="L26" s="172"/>
+      <c r="M26" s="172"/>
+      <c r="N26" s="173"/>
       <c r="O26" s="91"/>
       <c r="P26" s="38"/>
       <c r="AC26" t="s">
@@ -9193,27 +9230,27 @@
     </row>
     <row r="32" spans="3:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37"/>
-      <c r="D32" s="111" t="s">
+      <c r="D32" s="110" t="s">
         <v>264</v>
       </c>
-      <c r="E32" s="112"/>
-      <c r="F32" s="112"/>
-      <c r="G32" s="112"/>
-      <c r="H32" s="112"/>
-      <c r="I32" s="113"/>
-      <c r="J32" s="111" t="s">
+      <c r="E32" s="111"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="111"/>
+      <c r="H32" s="111"/>
+      <c r="I32" s="112"/>
+      <c r="J32" s="110" t="s">
         <v>265</v>
       </c>
-      <c r="K32" s="112"/>
-      <c r="L32" s="112"/>
-      <c r="M32" s="112"/>
-      <c r="N32" s="113"/>
+      <c r="K32" s="111"/>
+      <c r="L32" s="111"/>
+      <c r="M32" s="111"/>
+      <c r="N32" s="112"/>
       <c r="O32" s="31"/>
       <c r="P32" s="38"/>
     </row>
     <row r="33" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37"/>
-      <c r="D33" s="114">
+      <c r="D33" s="113">
         <v>9002</v>
       </c>
       <c r="E33" s="31" t="s">
@@ -9221,11 +9258,11 @@
       </c>
       <c r="F33" s="31"/>
       <c r="G33" s="31"/>
-      <c r="H33" s="101">
+      <c r="H33" s="100">
         <v>632088.51</v>
       </c>
       <c r="I33" s="38"/>
-      <c r="J33" s="114">
+      <c r="J33" s="113">
         <v>1470</v>
       </c>
       <c r="K33" s="31" t="s">
@@ -9233,7 +9270,7 @@
       </c>
       <c r="L33" s="31"/>
       <c r="M33" s="31"/>
-      <c r="N33" s="109">
+      <c r="N33" s="108">
         <v>31604.43</v>
       </c>
       <c r="O33" s="31"/>
@@ -9245,9 +9282,9 @@
       <c r="E34" s="31"/>
       <c r="F34" s="31"/>
       <c r="G34" s="31"/>
-      <c r="H34" s="101"/>
+      <c r="H34" s="100"/>
       <c r="I34" s="38"/>
-      <c r="J34" s="114">
+      <c r="J34" s="113">
         <v>3000</v>
       </c>
       <c r="K34" s="31" t="s">
@@ -9255,7 +9292,7 @@
       </c>
       <c r="L34" s="31"/>
       <c r="M34" s="31"/>
-      <c r="N34" s="109">
+      <c r="N34" s="108">
         <v>34417.629999999997</v>
       </c>
       <c r="O34" s="31"/>
@@ -9267,13 +9304,13 @@
       <c r="E35" s="31"/>
       <c r="F35" s="31"/>
       <c r="G35" s="31"/>
-      <c r="H35" s="101"/>
+      <c r="H35" s="100"/>
       <c r="I35" s="38"/>
       <c r="J35" s="37"/>
       <c r="K35" s="31"/>
       <c r="L35" s="31"/>
       <c r="M35" s="31"/>
-      <c r="N35" s="109"/>
+      <c r="N35" s="108"/>
       <c r="O35" s="31"/>
       <c r="P35" s="38"/>
     </row>
@@ -9283,13 +9320,13 @@
       <c r="E36" s="31"/>
       <c r="F36" s="31"/>
       <c r="G36" s="31"/>
-      <c r="H36" s="101"/>
+      <c r="H36" s="100"/>
       <c r="I36" s="38"/>
       <c r="J36" s="37"/>
       <c r="K36" s="31"/>
       <c r="L36" s="31"/>
       <c r="M36" s="31"/>
-      <c r="N36" s="109"/>
+      <c r="N36" s="108"/>
       <c r="O36" s="31"/>
       <c r="P36" s="38"/>
     </row>
@@ -9299,13 +9336,13 @@
       <c r="E37" s="31"/>
       <c r="F37" s="31"/>
       <c r="G37" s="31"/>
-      <c r="H37" s="101"/>
+      <c r="H37" s="100"/>
       <c r="I37" s="38"/>
       <c r="J37" s="37"/>
       <c r="K37" s="31"/>
       <c r="L37" s="31"/>
       <c r="M37" s="31"/>
-      <c r="N37" s="109"/>
+      <c r="N37" s="108"/>
       <c r="O37" s="31"/>
       <c r="P37" s="38"/>
     </row>
@@ -9317,18 +9354,18 @@
         <v>266</v>
       </c>
       <c r="G38" s="43"/>
-      <c r="H38" s="102">
+      <c r="H38" s="101">
         <f>SUM(H33:H37)</f>
         <v>632088.51</v>
       </c>
-      <c r="I38" s="108"/>
+      <c r="I38" s="107"/>
       <c r="J38" s="37"/>
       <c r="K38" s="31"/>
       <c r="L38" s="43" t="s">
         <v>266</v>
       </c>
       <c r="M38" s="43"/>
-      <c r="N38" s="110">
+      <c r="N38" s="109">
         <f>SUM(N33:N37)</f>
         <v>66022.06</v>
       </c>
@@ -9358,7 +9395,7 @@
       <c r="K40" s="31"/>
       <c r="L40" s="31"/>
       <c r="M40" s="31"/>
-      <c r="N40" s="104"/>
+      <c r="N40" s="103"/>
       <c r="O40" s="31"/>
       <c r="P40" s="38"/>
     </row>
@@ -9380,21 +9417,21 @@
     </row>
     <row r="42" spans="3:16" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C42" s="37"/>
-      <c r="D42" s="136" t="s">
+      <c r="D42" s="162" t="s">
         <v>203</v>
       </c>
-      <c r="E42" s="136"/>
-      <c r="F42" s="136"/>
-      <c r="G42" s="136"/>
-      <c r="H42" s="136"/>
-      <c r="I42" s="136"/>
-      <c r="J42" s="136"/>
-      <c r="K42" s="136"/>
-      <c r="L42" s="136"/>
-      <c r="M42" s="136"/>
-      <c r="N42" s="136"/>
-      <c r="O42" s="136"/>
-      <c r="P42" s="137"/>
+      <c r="E42" s="162"/>
+      <c r="F42" s="162"/>
+      <c r="G42" s="162"/>
+      <c r="H42" s="162"/>
+      <c r="I42" s="162"/>
+      <c r="J42" s="162"/>
+      <c r="K42" s="162"/>
+      <c r="L42" s="162"/>
+      <c r="M42" s="162"/>
+      <c r="N42" s="162"/>
+      <c r="O42" s="162"/>
+      <c r="P42" s="163"/>
     </row>
     <row r="43" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C43" s="37"/>
@@ -9437,19 +9474,19 @@
       <c r="H45" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="I45" s="156" t="s">
+      <c r="I45" s="180" t="s">
         <v>124</v>
       </c>
       <c r="J45" s="91" t="s">
         <v>267</v>
       </c>
-      <c r="K45" s="156" t="s">
+      <c r="K45" s="180" t="s">
         <v>126</v>
       </c>
       <c r="L45" s="91" t="s">
         <v>268</v>
       </c>
-      <c r="M45" s="156" t="s">
+      <c r="M45" s="180" t="s">
         <v>127</v>
       </c>
       <c r="N45" s="91" t="s">
@@ -9464,21 +9501,21 @@
       <c r="E46" s="31"/>
       <c r="F46" s="31"/>
       <c r="G46" s="54"/>
-      <c r="H46" s="105">
+      <c r="H46" s="104">
         <f>(L46-J46)*N46</f>
         <v>113213.29</v>
       </c>
-      <c r="I46" s="156"/>
-      <c r="J46" s="103">
+      <c r="I46" s="180"/>
+      <c r="J46" s="102">
         <f>N38</f>
         <v>66022.06</v>
       </c>
-      <c r="K46" s="156"/>
-      <c r="L46" s="103">
+      <c r="K46" s="180"/>
+      <c r="L46" s="102">
         <f>H38</f>
         <v>632088.51</v>
       </c>
-      <c r="M46" s="156"/>
+      <c r="M46" s="180"/>
       <c r="N46" s="49">
         <v>0.2</v>
       </c>
@@ -9561,13 +9598,13 @@
       <c r="H51" s="91" t="s">
         <v>199</v>
       </c>
-      <c r="I51" s="156" t="s">
+      <c r="I51" s="180" t="s">
         <v>124</v>
       </c>
       <c r="J51" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="K51" s="156" t="s">
+      <c r="K51" s="180" t="s">
         <v>129</v>
       </c>
       <c r="L51" s="91" t="s">
@@ -9586,16 +9623,16 @@
       <c r="E52" s="31"/>
       <c r="F52" s="31"/>
       <c r="G52" s="54"/>
-      <c r="H52" s="103">
+      <c r="H52" s="102">
         <f>MIN(J52,L52)</f>
         <v>0</v>
       </c>
-      <c r="I52" s="156"/>
-      <c r="J52" s="103">
+      <c r="I52" s="180"/>
+      <c r="J52" s="102">
         <f>H46</f>
         <v>113213.29</v>
       </c>
-      <c r="K52" s="156"/>
+      <c r="K52" s="180"/>
       <c r="L52" s="48">
         <v>0</v>
       </c>
@@ -9655,11 +9692,11 @@
       <c r="E56" s="31"/>
       <c r="F56" s="31"/>
       <c r="G56" s="31"/>
-      <c r="H56" s="139" t="s">
+      <c r="H56" s="171" t="s">
         <v>202</v>
       </c>
-      <c r="I56" s="140"/>
-      <c r="J56" s="141"/>
+      <c r="I56" s="172"/>
+      <c r="J56" s="173"/>
       <c r="K56" s="31"/>
       <c r="L56" s="31"/>
       <c r="M56" s="31"/>
@@ -9676,10 +9713,10 @@
       <c r="H57" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="I57" s="150" t="s">
+      <c r="I57" s="174" t="s">
         <v>201</v>
       </c>
-      <c r="J57" s="151"/>
+      <c r="J57" s="175"/>
       <c r="K57" s="31"/>
       <c r="L57" s="31"/>
       <c r="M57" s="31"/>
@@ -9696,8 +9733,8 @@
       <c r="H58" s="60">
         <v>1094</v>
       </c>
-      <c r="I58" s="152"/>
-      <c r="J58" s="153"/>
+      <c r="I58" s="176"/>
+      <c r="J58" s="177"/>
       <c r="K58" s="31"/>
       <c r="L58" s="31"/>
       <c r="M58" s="31"/>
@@ -10245,20 +10282,20 @@
       <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C3" s="157" t="s">
+      <c r="C3" s="192" t="s">
         <v>214</v>
       </c>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="I3" s="158" t="s">
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="I3" s="193" t="s">
         <v>215</v>
       </c>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
-      <c r="L3" s="158"/>
-      <c r="M3" s="158"/>
-      <c r="N3" s="158"/>
+      <c r="J3" s="193"/>
+      <c r="K3" s="193"/>
+      <c r="L3" s="193"/>
+      <c r="M3" s="193"/>
+      <c r="N3" s="193"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C4" s="70" t="s">
@@ -11042,21 +11079,21 @@
     </row>
     <row r="7" spans="3:52" ht="21" x14ac:dyDescent="0.4">
       <c r="C7" s="37"/>
-      <c r="D7" s="136" t="s">
+      <c r="D7" s="162" t="s">
         <v>198</v>
       </c>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="136"/>
-      <c r="K7" s="136"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
-      <c r="O7" s="136"/>
-      <c r="P7" s="137"/>
+      <c r="E7" s="162"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="162"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="162"/>
+      <c r="J7" s="162"/>
+      <c r="K7" s="162"/>
+      <c r="L7" s="162"/>
+      <c r="M7" s="162"/>
+      <c r="N7" s="162"/>
+      <c r="O7" s="162"/>
+      <c r="P7" s="163"/>
       <c r="AC7" t="s">
         <v>146</v>
       </c>
@@ -11115,21 +11152,21 @@
     </row>
     <row r="10" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C10" s="37"/>
-      <c r="D10" s="138" t="s">
+      <c r="D10" s="164" t="s">
         <v>191</v>
       </c>
-      <c r="E10" s="138"/>
-      <c r="F10" s="161" t="s">
+      <c r="E10" s="164"/>
+      <c r="F10" s="196" t="s">
         <v>220</v>
       </c>
-      <c r="G10" s="161"/>
-      <c r="H10" s="161"/>
+      <c r="G10" s="196"/>
+      <c r="H10" s="196"/>
       <c r="I10" s="31"/>
-      <c r="J10" s="145" t="s">
+      <c r="J10" s="165" t="s">
         <v>228</v>
       </c>
-      <c r="K10" s="145"/>
-      <c r="L10" s="145"/>
+      <c r="K10" s="165"/>
+      <c r="L10" s="165"/>
       <c r="M10" s="46"/>
       <c r="N10" s="91" t="s">
         <v>192</v>
@@ -11143,19 +11180,19 @@
     </row>
     <row r="11" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C11" s="37"/>
-      <c r="D11" s="172" t="s">
+      <c r="D11" s="182" t="s">
         <v>186</v>
       </c>
-      <c r="E11" s="173"/>
+      <c r="E11" s="183"/>
       <c r="F11" s="50"/>
       <c r="G11" s="63">
         <v>1</v>
       </c>
       <c r="H11" s="63"/>
       <c r="I11" s="31"/>
-      <c r="J11" s="142"/>
-      <c r="K11" s="143"/>
-      <c r="L11" s="144"/>
+      <c r="J11" s="168"/>
+      <c r="K11" s="169"/>
+      <c r="L11" s="170"/>
       <c r="M11" s="92"/>
       <c r="N11" s="86"/>
       <c r="P11" s="92"/>
@@ -11181,10 +11218,10 @@
     </row>
     <row r="13" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C13" s="37"/>
-      <c r="D13" s="176" t="s">
+      <c r="D13" s="209" t="s">
         <v>216</v>
       </c>
-      <c r="E13" s="176"/>
+      <c r="E13" s="209"/>
       <c r="F13" s="50"/>
       <c r="H13" s="31"/>
       <c r="I13" s="31"/>
@@ -11200,10 +11237,10 @@
     </row>
     <row r="14" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C14" s="37"/>
-      <c r="D14" s="172" t="s">
+      <c r="D14" s="182" t="s">
         <v>186</v>
       </c>
-      <c r="E14" s="173"/>
+      <c r="E14" s="183"/>
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
       <c r="H14" s="31"/>
@@ -11240,21 +11277,21 @@
     </row>
     <row r="16" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C16" s="37"/>
-      <c r="D16" s="138" t="s">
+      <c r="D16" s="164" t="s">
         <v>227</v>
       </c>
-      <c r="E16" s="138"/>
-      <c r="F16" s="138"/>
-      <c r="G16" s="138"/>
-      <c r="H16" s="138"/>
+      <c r="E16" s="164"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="164"/>
       <c r="I16" s="31"/>
       <c r="J16" s="31"/>
-      <c r="K16" s="138" t="s">
+      <c r="K16" s="164" t="s">
         <v>222</v>
       </c>
-      <c r="L16" s="138"/>
-      <c r="M16" s="138"/>
-      <c r="N16" s="138"/>
+      <c r="L16" s="164"/>
+      <c r="M16" s="164"/>
+      <c r="N16" s="164"/>
       <c r="O16" s="91"/>
       <c r="P16" s="38"/>
       <c r="AC16" t="s">
@@ -11263,17 +11300,17 @@
     </row>
     <row r="17" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C17" s="37"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="141"/>
+      <c r="D17" s="171"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="172"/>
+      <c r="G17" s="172"/>
+      <c r="H17" s="173"/>
       <c r="I17" s="31"/>
       <c r="J17" s="31"/>
-      <c r="K17" s="139"/>
-      <c r="L17" s="140"/>
-      <c r="M17" s="140"/>
-      <c r="N17" s="141"/>
+      <c r="K17" s="171"/>
+      <c r="L17" s="172"/>
+      <c r="M17" s="172"/>
+      <c r="N17" s="173"/>
       <c r="O17" s="91"/>
       <c r="P17" s="38"/>
       <c r="AC17" t="s">
@@ -11303,21 +11340,21 @@
     </row>
     <row r="19" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C19" s="37"/>
-      <c r="D19" s="138" t="s">
+      <c r="D19" s="164" t="s">
         <v>223</v>
       </c>
-      <c r="E19" s="138"/>
-      <c r="F19" s="138"/>
-      <c r="G19" s="138"/>
-      <c r="H19" s="138"/>
+      <c r="E19" s="164"/>
+      <c r="F19" s="164"/>
+      <c r="G19" s="164"/>
+      <c r="H19" s="164"/>
       <c r="I19" s="31"/>
       <c r="J19" s="31"/>
-      <c r="K19" s="138" t="s">
+      <c r="K19" s="164" t="s">
         <v>224</v>
       </c>
-      <c r="L19" s="138"/>
-      <c r="M19" s="138"/>
-      <c r="N19" s="138"/>
+      <c r="L19" s="164"/>
+      <c r="M19" s="164"/>
+      <c r="N19" s="164"/>
       <c r="O19" s="91"/>
       <c r="P19" s="38"/>
       <c r="AC19" t="s">
@@ -11328,17 +11365,17 @@
     </row>
     <row r="20" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C20" s="37"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="140"/>
-      <c r="F20" s="140"/>
-      <c r="G20" s="140"/>
-      <c r="H20" s="141"/>
+      <c r="D20" s="171"/>
+      <c r="E20" s="172"/>
+      <c r="F20" s="172"/>
+      <c r="G20" s="172"/>
+      <c r="H20" s="173"/>
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
-      <c r="K20" s="139"/>
-      <c r="L20" s="140"/>
-      <c r="M20" s="140"/>
-      <c r="N20" s="141"/>
+      <c r="K20" s="171"/>
+      <c r="L20" s="172"/>
+      <c r="M20" s="172"/>
+      <c r="N20" s="173"/>
       <c r="O20" s="91"/>
       <c r="P20" s="38"/>
       <c r="AC20" t="s">
@@ -11370,21 +11407,21 @@
     </row>
     <row r="22" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C22" s="37"/>
-      <c r="D22" s="138" t="s">
+      <c r="D22" s="164" t="s">
         <v>225</v>
       </c>
-      <c r="E22" s="138"/>
-      <c r="F22" s="138"/>
-      <c r="G22" s="138"/>
-      <c r="H22" s="138"/>
+      <c r="E22" s="164"/>
+      <c r="F22" s="164"/>
+      <c r="G22" s="164"/>
+      <c r="H22" s="164"/>
       <c r="I22" s="31"/>
       <c r="J22" s="31"/>
-      <c r="K22" s="138" t="s">
+      <c r="K22" s="164" t="s">
         <v>226</v>
       </c>
-      <c r="L22" s="138"/>
-      <c r="M22" s="138"/>
-      <c r="N22" s="138"/>
+      <c r="L22" s="164"/>
+      <c r="M22" s="164"/>
+      <c r="N22" s="164"/>
       <c r="O22" s="91"/>
       <c r="P22" s="38"/>
       <c r="AC22" t="s">
@@ -11395,17 +11432,17 @@
     </row>
     <row r="23" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C23" s="37"/>
-      <c r="D23" s="139"/>
-      <c r="E23" s="140"/>
-      <c r="F23" s="140"/>
-      <c r="G23" s="140"/>
-      <c r="H23" s="141"/>
+      <c r="D23" s="171"/>
+      <c r="E23" s="172"/>
+      <c r="F23" s="172"/>
+      <c r="G23" s="172"/>
+      <c r="H23" s="173"/>
       <c r="I23" s="31"/>
       <c r="J23" s="31"/>
-      <c r="K23" s="139"/>
-      <c r="L23" s="140"/>
-      <c r="M23" s="140"/>
-      <c r="N23" s="141"/>
+      <c r="K23" s="171"/>
+      <c r="L23" s="172"/>
+      <c r="M23" s="172"/>
+      <c r="N23" s="173"/>
       <c r="O23" s="91"/>
       <c r="P23" s="38"/>
       <c r="AC23" t="s">
@@ -11505,21 +11542,21 @@
     </row>
     <row r="29" spans="3:37" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="37"/>
-      <c r="D29" s="136" t="s">
+      <c r="D29" s="162" t="s">
         <v>203</v>
       </c>
-      <c r="E29" s="136"/>
-      <c r="F29" s="136"/>
-      <c r="G29" s="136"/>
-      <c r="H29" s="136"/>
-      <c r="I29" s="136"/>
-      <c r="J29" s="136"/>
-      <c r="K29" s="136"/>
-      <c r="L29" s="136"/>
-      <c r="M29" s="136"/>
-      <c r="N29" s="136"/>
-      <c r="O29" s="136"/>
-      <c r="P29" s="137"/>
+      <c r="E29" s="162"/>
+      <c r="F29" s="162"/>
+      <c r="G29" s="162"/>
+      <c r="H29" s="162"/>
+      <c r="I29" s="162"/>
+      <c r="J29" s="162"/>
+      <c r="K29" s="162"/>
+      <c r="L29" s="162"/>
+      <c r="M29" s="162"/>
+      <c r="N29" s="162"/>
+      <c r="O29" s="162"/>
+      <c r="P29" s="163"/>
     </row>
     <row r="30" spans="3:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C30" s="37"/>
@@ -11562,19 +11599,19 @@
       <c r="H32" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="I32" s="156" t="s">
+      <c r="I32" s="180" t="s">
         <v>124</v>
       </c>
       <c r="J32" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="K32" s="156" t="s">
+      <c r="K32" s="180" t="s">
         <v>126</v>
       </c>
       <c r="L32" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="M32" s="156" t="s">
+      <c r="M32" s="180" t="s">
         <v>127</v>
       </c>
       <c r="N32" s="91" t="s">
@@ -11590,11 +11627,11 @@
       <c r="F33" s="31"/>
       <c r="G33" s="54"/>
       <c r="H33" s="48"/>
-      <c r="I33" s="156"/>
+      <c r="I33" s="180"/>
       <c r="J33" s="48"/>
-      <c r="K33" s="156"/>
+      <c r="K33" s="180"/>
       <c r="L33" s="48"/>
-      <c r="M33" s="156"/>
+      <c r="M33" s="180"/>
       <c r="N33" s="49">
         <v>0.2</v>
       </c>
@@ -11677,13 +11714,13 @@
       <c r="H38" s="91" t="s">
         <v>199</v>
       </c>
-      <c r="I38" s="156" t="s">
+      <c r="I38" s="180" t="s">
         <v>124</v>
       </c>
       <c r="J38" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="K38" s="156" t="s">
+      <c r="K38" s="180" t="s">
         <v>129</v>
       </c>
       <c r="L38" s="91" t="s">
@@ -11703,9 +11740,9 @@
       <c r="F39" s="31"/>
       <c r="G39" s="54"/>
       <c r="H39" s="48"/>
-      <c r="I39" s="156"/>
+      <c r="I39" s="180"/>
       <c r="J39" s="48"/>
-      <c r="K39" s="156"/>
+      <c r="K39" s="180"/>
       <c r="L39" s="48"/>
       <c r="M39" s="62"/>
       <c r="N39" s="31"/>
@@ -11763,11 +11800,11 @@
       <c r="E43" s="31"/>
       <c r="F43" s="31"/>
       <c r="G43" s="31"/>
-      <c r="H43" s="139" t="s">
+      <c r="H43" s="171" t="s">
         <v>202</v>
       </c>
-      <c r="I43" s="140"/>
-      <c r="J43" s="141"/>
+      <c r="I43" s="172"/>
+      <c r="J43" s="173"/>
       <c r="K43" s="31"/>
       <c r="L43" s="31"/>
       <c r="M43" s="31"/>
@@ -11784,10 +11821,10 @@
       <c r="H44" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="I44" s="150" t="s">
+      <c r="I44" s="174" t="s">
         <v>201</v>
       </c>
-      <c r="J44" s="151"/>
+      <c r="J44" s="175"/>
       <c r="K44" s="31"/>
       <c r="L44" s="31"/>
       <c r="M44" s="31"/>
@@ -11804,8 +11841,8 @@
       <c r="H45" s="60">
         <v>1094</v>
       </c>
-      <c r="I45" s="152"/>
-      <c r="J45" s="153"/>
+      <c r="I45" s="176"/>
+      <c r="J45" s="177"/>
       <c r="K45" s="31"/>
       <c r="L45" s="31"/>
       <c r="M45" s="31"/>
@@ -12347,7 +12384,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:52" x14ac:dyDescent="0.3">
-      <c r="P1" s="124" t="s">
+      <c r="P1" s="123" t="s">
         <v>221</v>
       </c>
       <c r="AC1" t="s">
@@ -12441,22 +12478,22 @@
       </c>
     </row>
     <row r="6" spans="3:52" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="133" t="s">
+      <c r="C6" s="159" t="s">
         <v>261</v>
       </c>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="134"/>
-      <c r="L6" s="134"/>
-      <c r="M6" s="134"/>
-      <c r="N6" s="134"/>
-      <c r="O6" s="134"/>
-      <c r="P6" s="135"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="160"/>
+      <c r="G6" s="160"/>
+      <c r="H6" s="160"/>
+      <c r="I6" s="160"/>
+      <c r="J6" s="160"/>
+      <c r="K6" s="160"/>
+      <c r="L6" s="160"/>
+      <c r="M6" s="160"/>
+      <c r="N6" s="160"/>
+      <c r="O6" s="160"/>
+      <c r="P6" s="161"/>
       <c r="AC6" t="s">
         <v>145</v>
       </c>
@@ -12469,21 +12506,21 @@
     </row>
     <row r="7" spans="3:52" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C7" s="37"/>
-      <c r="D7" s="136" t="s">
+      <c r="D7" s="162" t="s">
         <v>198</v>
       </c>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="136"/>
-      <c r="K7" s="136"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
-      <c r="O7" s="136"/>
-      <c r="P7" s="137"/>
+      <c r="E7" s="162"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="162"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="162"/>
+      <c r="J7" s="162"/>
+      <c r="K7" s="162"/>
+      <c r="L7" s="162"/>
+      <c r="M7" s="162"/>
+      <c r="N7" s="162"/>
+      <c r="O7" s="162"/>
+      <c r="P7" s="163"/>
       <c r="AC7" t="s">
         <v>146</v>
       </c>
@@ -12546,21 +12583,21 @@
     </row>
     <row r="10" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C10" s="37"/>
-      <c r="D10" s="138" t="s">
+      <c r="D10" s="164" t="s">
         <v>272</v>
       </c>
-      <c r="E10" s="138"/>
+      <c r="E10" s="164"/>
       <c r="F10" s="96"/>
       <c r="G10" s="96"/>
       <c r="H10" s="93" t="s">
         <v>220</v>
       </c>
       <c r="I10" s="31"/>
-      <c r="J10" s="145" t="s">
+      <c r="J10" s="165" t="s">
         <v>228</v>
       </c>
-      <c r="K10" s="145"/>
-      <c r="L10" s="145"/>
+      <c r="K10" s="165"/>
+      <c r="L10" s="165"/>
       <c r="M10" s="46"/>
       <c r="N10" s="93" t="s">
         <v>274</v>
@@ -12575,23 +12612,23 @@
     </row>
     <row r="11" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C11" s="37"/>
-      <c r="D11" s="146" t="s">
+      <c r="D11" s="166" t="s">
         <v>273</v>
       </c>
-      <c r="E11" s="147"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="177">
+      <c r="E11" s="167"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="134">
         <v>0.2</v>
       </c>
       <c r="I11" s="31"/>
-      <c r="J11" s="142" t="s">
+      <c r="J11" s="168" t="s">
         <v>126</v>
       </c>
-      <c r="K11" s="143"/>
-      <c r="L11" s="144"/>
+      <c r="K11" s="169"/>
+      <c r="L11" s="170"/>
       <c r="M11" s="94"/>
-      <c r="N11" s="99">
+      <c r="N11" s="98">
         <v>600000</v>
       </c>
       <c r="O11" s="31"/>
@@ -12602,21 +12639,21 @@
     </row>
     <row r="12" spans="3:52" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="37"/>
-      <c r="D12" s="138" t="s">
+      <c r="D12" s="164" t="s">
         <v>227</v>
       </c>
-      <c r="E12" s="138"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="138"/>
-      <c r="H12" s="138"/>
+      <c r="E12" s="164"/>
+      <c r="F12" s="164"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="164"/>
       <c r="I12" s="31"/>
       <c r="J12" s="31"/>
-      <c r="K12" s="138" t="s">
+      <c r="K12" s="164" t="s">
         <v>222</v>
       </c>
-      <c r="L12" s="138"/>
-      <c r="M12" s="138"/>
-      <c r="N12" s="138"/>
+      <c r="L12" s="164"/>
+      <c r="M12" s="164"/>
+      <c r="N12" s="164"/>
       <c r="O12" s="93"/>
       <c r="P12" s="38"/>
       <c r="AC12" t="s">
@@ -12625,17 +12662,17 @@
     </row>
     <row r="13" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C13" s="37"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="141"/>
+      <c r="D13" s="171"/>
+      <c r="E13" s="172"/>
+      <c r="F13" s="172"/>
+      <c r="G13" s="172"/>
+      <c r="H13" s="173"/>
       <c r="I13" s="31"/>
       <c r="J13" s="31"/>
-      <c r="K13" s="139"/>
-      <c r="L13" s="140"/>
-      <c r="M13" s="140"/>
-      <c r="N13" s="141"/>
+      <c r="K13" s="171"/>
+      <c r="L13" s="172"/>
+      <c r="M13" s="172"/>
+      <c r="N13" s="173"/>
       <c r="O13" s="93"/>
       <c r="P13" s="38"/>
       <c r="AC13" t="s">
@@ -12665,21 +12702,21 @@
     </row>
     <row r="15" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C15" s="37"/>
-      <c r="D15" s="138" t="s">
+      <c r="D15" s="164" t="s">
         <v>223</v>
       </c>
-      <c r="E15" s="138"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="138"/>
-      <c r="H15" s="138"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="164"/>
       <c r="I15" s="31"/>
       <c r="J15" s="31"/>
-      <c r="K15" s="138" t="s">
+      <c r="K15" s="164" t="s">
         <v>224</v>
       </c>
-      <c r="L15" s="138"/>
-      <c r="M15" s="138"/>
-      <c r="N15" s="138"/>
+      <c r="L15" s="164"/>
+      <c r="M15" s="164"/>
+      <c r="N15" s="164"/>
       <c r="O15" s="93"/>
       <c r="P15" s="38"/>
       <c r="AC15" t="s">
@@ -12690,17 +12727,17 @@
     </row>
     <row r="16" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C16" s="37"/>
-      <c r="D16" s="139"/>
-      <c r="E16" s="140"/>
-      <c r="F16" s="140"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="141"/>
+      <c r="D16" s="171"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="172"/>
+      <c r="G16" s="172"/>
+      <c r="H16" s="173"/>
       <c r="I16" s="31"/>
       <c r="J16" s="31"/>
-      <c r="K16" s="139"/>
-      <c r="L16" s="140"/>
-      <c r="M16" s="140"/>
-      <c r="N16" s="141"/>
+      <c r="K16" s="171"/>
+      <c r="L16" s="172"/>
+      <c r="M16" s="172"/>
+      <c r="N16" s="173"/>
       <c r="O16" s="93"/>
       <c r="P16" s="38"/>
       <c r="AC16" t="s">
@@ -12732,21 +12769,21 @@
     </row>
     <row r="18" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C18" s="37"/>
-      <c r="D18" s="138" t="s">
+      <c r="D18" s="164" t="s">
         <v>225</v>
       </c>
-      <c r="E18" s="138"/>
-      <c r="F18" s="138"/>
-      <c r="G18" s="138"/>
-      <c r="H18" s="138"/>
+      <c r="E18" s="164"/>
+      <c r="F18" s="164"/>
+      <c r="G18" s="164"/>
+      <c r="H18" s="164"/>
       <c r="I18" s="31"/>
       <c r="J18" s="31"/>
-      <c r="K18" s="138" t="s">
+      <c r="K18" s="164" t="s">
         <v>226</v>
       </c>
-      <c r="L18" s="138"/>
-      <c r="M18" s="138"/>
-      <c r="N18" s="138"/>
+      <c r="L18" s="164"/>
+      <c r="M18" s="164"/>
+      <c r="N18" s="164"/>
       <c r="O18" s="93"/>
       <c r="P18" s="38"/>
       <c r="AC18" t="s">
@@ -12757,17 +12794,17 @@
     </row>
     <row r="19" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C19" s="37"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="141"/>
+      <c r="D19" s="171"/>
+      <c r="E19" s="172"/>
+      <c r="F19" s="172"/>
+      <c r="G19" s="172"/>
+      <c r="H19" s="173"/>
       <c r="I19" s="31"/>
       <c r="J19" s="31"/>
-      <c r="K19" s="139"/>
-      <c r="L19" s="140"/>
-      <c r="M19" s="140"/>
-      <c r="N19" s="141"/>
+      <c r="K19" s="171"/>
+      <c r="L19" s="172"/>
+      <c r="M19" s="172"/>
+      <c r="N19" s="173"/>
       <c r="O19" s="93"/>
       <c r="P19" s="38"/>
       <c r="AC19" t="s">
@@ -12867,27 +12904,27 @@
     </row>
     <row r="25" spans="3:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37"/>
-      <c r="D25" s="120" t="s">
+      <c r="D25" s="119" t="s">
         <v>264</v>
       </c>
-      <c r="E25" s="121"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="122"/>
+      <c r="E25" s="120"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="120"/>
+      <c r="H25" s="121"/>
       <c r="I25" s="31"/>
-      <c r="J25" s="120" t="s">
+      <c r="J25" s="119" t="s">
         <v>265</v>
       </c>
-      <c r="K25" s="121"/>
-      <c r="L25" s="121"/>
-      <c r="M25" s="121"/>
-      <c r="N25" s="122"/>
+      <c r="K25" s="120"/>
+      <c r="L25" s="120"/>
+      <c r="M25" s="120"/>
+      <c r="N25" s="121"/>
       <c r="O25" s="31"/>
       <c r="P25" s="38"/>
     </row>
     <row r="26" spans="3:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37"/>
-      <c r="D26" s="114" t="s">
+      <c r="D26" s="113" t="s">
         <v>126</v>
       </c>
       <c r="E26" s="31" t="s">
@@ -12895,15 +12932,15 @@
       </c>
       <c r="F26" s="31"/>
       <c r="G26" s="31"/>
-      <c r="H26" s="109" t="s">
+      <c r="H26" s="108" t="s">
         <v>275</v>
       </c>
       <c r="I26" s="31"/>
-      <c r="J26" s="114"/>
+      <c r="J26" s="113"/>
       <c r="K26" s="31"/>
       <c r="L26" s="31"/>
       <c r="M26" s="31"/>
-      <c r="N26" s="109"/>
+      <c r="N26" s="108"/>
       <c r="O26" s="31"/>
       <c r="P26" s="38"/>
     </row>
@@ -12913,13 +12950,13 @@
       <c r="E27" s="31"/>
       <c r="F27" s="31"/>
       <c r="G27" s="31"/>
-      <c r="H27" s="109"/>
+      <c r="H27" s="108"/>
       <c r="I27" s="31"/>
-      <c r="J27" s="114"/>
+      <c r="J27" s="113"/>
       <c r="K27" s="31"/>
       <c r="L27" s="31"/>
       <c r="M27" s="31"/>
-      <c r="N27" s="109"/>
+      <c r="N27" s="108"/>
       <c r="O27" s="31"/>
       <c r="P27" s="38"/>
     </row>
@@ -12929,13 +12966,13 @@
       <c r="E28" s="31"/>
       <c r="F28" s="31"/>
       <c r="G28" s="31"/>
-      <c r="H28" s="109"/>
+      <c r="H28" s="108"/>
       <c r="I28" s="31"/>
       <c r="J28" s="37"/>
       <c r="K28" s="31"/>
       <c r="L28" s="31"/>
       <c r="M28" s="31"/>
-      <c r="N28" s="109"/>
+      <c r="N28" s="108"/>
       <c r="O28" s="31"/>
       <c r="P28" s="38"/>
     </row>
@@ -12945,13 +12982,13 @@
       <c r="E29" s="31"/>
       <c r="F29" s="31"/>
       <c r="G29" s="31"/>
-      <c r="H29" s="109"/>
+      <c r="H29" s="108"/>
       <c r="I29" s="31"/>
       <c r="J29" s="37"/>
       <c r="K29" s="31"/>
       <c r="L29" s="31"/>
       <c r="M29" s="31"/>
-      <c r="N29" s="109"/>
+      <c r="N29" s="108"/>
       <c r="O29" s="31"/>
       <c r="P29" s="38"/>
     </row>
@@ -12961,13 +12998,13 @@
       <c r="E30" s="31"/>
       <c r="F30" s="31"/>
       <c r="G30" s="31"/>
-      <c r="H30" s="109"/>
+      <c r="H30" s="108"/>
       <c r="I30" s="31"/>
       <c r="J30" s="37"/>
       <c r="K30" s="31"/>
       <c r="L30" s="31"/>
       <c r="M30" s="31"/>
-      <c r="N30" s="109"/>
+      <c r="N30" s="108"/>
       <c r="O30" s="31"/>
       <c r="P30" s="38"/>
     </row>
@@ -12975,43 +13012,43 @@
       <c r="C31" s="37"/>
       <c r="D31" s="40"/>
       <c r="E31" s="41"/>
-      <c r="F31" s="118" t="s">
+      <c r="F31" s="117" t="s">
         <v>266</v>
       </c>
-      <c r="G31" s="118"/>
-      <c r="H31" s="119">
+      <c r="G31" s="117"/>
+      <c r="H31" s="118">
         <f>SUM(H26:H30)</f>
         <v>0</v>
       </c>
       <c r="I31" s="43"/>
       <c r="J31" s="40"/>
       <c r="K31" s="41"/>
-      <c r="L31" s="118" t="s">
+      <c r="L31" s="117" t="s">
         <v>266</v>
       </c>
-      <c r="M31" s="118"/>
-      <c r="N31" s="119">
+      <c r="M31" s="117"/>
+      <c r="N31" s="118">
         <f>SUM(N26:N30)</f>
         <v>0</v>
       </c>
       <c r="O31" s="31"/>
       <c r="P31" s="38"/>
     </row>
-    <row r="32" spans="3:37" s="125" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="126"/>
+    <row r="32" spans="3:37" s="124" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="125"/>
       <c r="D32" s="46"/>
       <c r="E32" s="46"/>
-      <c r="F32" s="130"/>
-      <c r="G32" s="130"/>
-      <c r="H32" s="131"/>
-      <c r="I32" s="130"/>
+      <c r="F32" s="129"/>
+      <c r="G32" s="129"/>
+      <c r="H32" s="130"/>
+      <c r="I32" s="129"/>
       <c r="J32" s="46"/>
       <c r="K32" s="46"/>
-      <c r="L32" s="130"/>
-      <c r="M32" s="130"/>
-      <c r="N32" s="131"/>
+      <c r="L32" s="129"/>
+      <c r="M32" s="129"/>
+      <c r="N32" s="130"/>
       <c r="O32" s="46"/>
-      <c r="P32" s="132"/>
+      <c r="P32" s="131"/>
     </row>
     <row r="33" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37"/>
@@ -13031,21 +13068,21 @@
     </row>
     <row r="34" spans="3:16" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C34" s="34"/>
-      <c r="D34" s="154" t="s">
+      <c r="D34" s="178" t="s">
         <v>203</v>
       </c>
-      <c r="E34" s="154"/>
-      <c r="F34" s="154"/>
-      <c r="G34" s="154"/>
-      <c r="H34" s="154"/>
-      <c r="I34" s="154"/>
-      <c r="J34" s="154"/>
-      <c r="K34" s="154"/>
-      <c r="L34" s="154"/>
-      <c r="M34" s="154"/>
-      <c r="N34" s="154"/>
-      <c r="O34" s="154"/>
-      <c r="P34" s="155"/>
+      <c r="E34" s="178"/>
+      <c r="F34" s="178"/>
+      <c r="G34" s="178"/>
+      <c r="H34" s="178"/>
+      <c r="I34" s="178"/>
+      <c r="J34" s="178"/>
+      <c r="K34" s="178"/>
+      <c r="L34" s="178"/>
+      <c r="M34" s="178"/>
+      <c r="N34" s="178"/>
+      <c r="O34" s="178"/>
+      <c r="P34" s="179"/>
     </row>
     <row r="35" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C35" s="37"/>
@@ -13088,19 +13125,19 @@
       <c r="H37" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="I37" s="156" t="s">
+      <c r="I37" s="180" t="s">
         <v>124</v>
       </c>
       <c r="J37" s="93" t="s">
         <v>276</v>
       </c>
-      <c r="K37" s="156" t="s">
+      <c r="K37" s="180" t="s">
         <v>126</v>
       </c>
       <c r="L37" s="93" t="s">
         <v>268</v>
       </c>
-      <c r="M37" s="156" t="s">
+      <c r="M37" s="180" t="s">
         <v>127</v>
       </c>
       <c r="N37" s="93" t="s">
@@ -13115,21 +13152,21 @@
       <c r="E38" s="31"/>
       <c r="F38" s="31"/>
       <c r="G38" s="54"/>
-      <c r="H38" s="105">
+      <c r="H38" s="104">
         <f>(L38-J38)*N38</f>
         <v>-120000</v>
       </c>
-      <c r="I38" s="156"/>
-      <c r="J38" s="103">
+      <c r="I38" s="180"/>
+      <c r="J38" s="102">
         <f>N11</f>
         <v>600000</v>
       </c>
-      <c r="K38" s="156"/>
-      <c r="L38" s="103">
+      <c r="K38" s="180"/>
+      <c r="L38" s="102">
         <f>H31</f>
         <v>0</v>
       </c>
-      <c r="M38" s="156"/>
+      <c r="M38" s="180"/>
       <c r="N38" s="49">
         <v>0.2</v>
       </c>
@@ -13209,13 +13246,13 @@
       <c r="H43" s="93" t="s">
         <v>199</v>
       </c>
-      <c r="I43" s="156" t="s">
+      <c r="I43" s="180" t="s">
         <v>124</v>
       </c>
       <c r="J43" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="K43" s="156" t="s">
+      <c r="K43" s="180" t="s">
         <v>129</v>
       </c>
       <c r="L43" s="93" t="s">
@@ -13232,16 +13269,16 @@
       <c r="E44" s="31"/>
       <c r="F44" s="31"/>
       <c r="G44" s="54"/>
-      <c r="H44" s="103">
+      <c r="H44" s="102">
         <f>MIN(J44,L44)</f>
         <v>-120000</v>
       </c>
-      <c r="I44" s="156"/>
-      <c r="J44" s="103">
+      <c r="I44" s="180"/>
+      <c r="J44" s="102">
         <f>H38</f>
         <v>-120000</v>
       </c>
-      <c r="K44" s="156"/>
+      <c r="K44" s="180"/>
       <c r="L44" s="48">
         <v>0</v>
       </c>
@@ -13304,11 +13341,11 @@
       <c r="E48" s="31"/>
       <c r="F48" s="31"/>
       <c r="G48" s="31"/>
-      <c r="H48" s="139" t="s">
+      <c r="H48" s="171" t="s">
         <v>202</v>
       </c>
-      <c r="I48" s="140"/>
-      <c r="J48" s="141"/>
+      <c r="I48" s="172"/>
+      <c r="J48" s="173"/>
       <c r="K48" s="31"/>
       <c r="L48" s="31"/>
       <c r="M48" s="31"/>
@@ -13325,10 +13362,10 @@
       <c r="H49" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="I49" s="150" t="s">
+      <c r="I49" s="174" t="s">
         <v>201</v>
       </c>
-      <c r="J49" s="151"/>
+      <c r="J49" s="175"/>
       <c r="K49" s="31"/>
       <c r="L49" s="31"/>
       <c r="M49" s="31"/>
@@ -13345,11 +13382,11 @@
       <c r="H50" s="60">
         <v>1094</v>
       </c>
-      <c r="I50" s="152">
+      <c r="I50" s="176">
         <f>H44</f>
         <v>-120000</v>
       </c>
-      <c r="J50" s="153"/>
+      <c r="J50" s="177"/>
       <c r="K50" s="31"/>
       <c r="L50" s="31"/>
       <c r="M50" s="31"/>
@@ -13865,15 +13902,15 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="B1:BJ78"/>
+  <dimension ref="B1:BK82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A38" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="1.6640625" customWidth="1"/>
+    <col min="3" max="3" width="3.88671875" customWidth="1"/>
     <col min="5" max="5" width="23.88671875" customWidth="1"/>
     <col min="6" max="6" width="3.44140625" customWidth="1"/>
     <col min="7" max="7" width="5.6640625" customWidth="1"/>
@@ -13881,17 +13918,18 @@
     <col min="9" max="9" width="1.21875" customWidth="1"/>
     <col min="10" max="10" width="5.109375" customWidth="1"/>
     <col min="11" max="11" width="6.44140625" customWidth="1"/>
-    <col min="12" max="12" width="14.44140625" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" customWidth="1"/>
     <col min="13" max="13" width="5.44140625" customWidth="1"/>
     <col min="14" max="14" width="18.6640625" customWidth="1"/>
     <col min="15" max="15" width="2.77734375" customWidth="1"/>
     <col min="16" max="16" width="21.88671875" customWidth="1"/>
     <col min="17" max="17" width="2.5546875" customWidth="1"/>
     <col min="18" max="18" width="4.6640625" customWidth="1"/>
+    <col min="62" max="62" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:62" x14ac:dyDescent="0.3">
-      <c r="R1" s="124" t="s">
+    <row r="1" spans="3:63" x14ac:dyDescent="0.3">
+      <c r="R1" s="123" t="s">
         <v>221</v>
       </c>
       <c r="AE1" t="s">
@@ -13915,11 +13953,17 @@
       <c r="BB1" s="14" t="s">
         <v>197</v>
       </c>
+      <c r="BI1" t="s">
+        <v>286</v>
+      </c>
       <c r="BJ1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="2" spans="3:62" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+      <c r="BK1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="3:63" ht="15.6" x14ac:dyDescent="0.3">
       <c r="AE2" t="s">
         <v>142</v>
       </c>
@@ -13941,8 +13985,11 @@
       <c r="BJ2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="3" spans="3:62" x14ac:dyDescent="0.3">
+      <c r="BK2" s="211">
+        <v>87987</v>
+      </c>
+    </row>
+    <row r="3" spans="3:63" ht="15.6" x14ac:dyDescent="0.3">
       <c r="AE3" t="s">
         <v>143</v>
       </c>
@@ -13964,8 +14011,11 @@
       <c r="BJ3" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="4" spans="3:62" x14ac:dyDescent="0.3">
+      <c r="BK3" s="211">
+        <v>121407</v>
+      </c>
+    </row>
+    <row r="4" spans="3:63" ht="15.6" x14ac:dyDescent="0.3">
       <c r="AE4" t="s">
         <v>144</v>
       </c>
@@ -13984,8 +14034,11 @@
       <c r="BJ4" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="5" spans="3:62" x14ac:dyDescent="0.3">
+      <c r="BK4" s="211">
+        <v>70938.240000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="3:63" ht="15.6" x14ac:dyDescent="0.3">
       <c r="AE5" t="s">
         <v>145</v>
       </c>
@@ -14004,24 +14057,27 @@
       <c r="BJ5" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="6" spans="3:62" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="133"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="134"/>
-      <c r="L6" s="134"/>
-      <c r="M6" s="134"/>
-      <c r="N6" s="134"/>
-      <c r="O6" s="134"/>
-      <c r="P6" s="134"/>
-      <c r="Q6" s="134"/>
-      <c r="R6" s="135"/>
+      <c r="BK5" s="211">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="6" spans="3:63" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="159"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="160"/>
+      <c r="G6" s="160"/>
+      <c r="H6" s="160"/>
+      <c r="I6" s="160"/>
+      <c r="J6" s="160"/>
+      <c r="K6" s="160"/>
+      <c r="L6" s="160"/>
+      <c r="M6" s="160"/>
+      <c r="N6" s="160"/>
+      <c r="O6" s="160"/>
+      <c r="P6" s="160"/>
+      <c r="Q6" s="160"/>
+      <c r="R6" s="161"/>
       <c r="AE6" t="s">
         <v>146</v>
       </c>
@@ -14034,26 +14090,30 @@
       <c r="BJ6" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="7" spans="3:62" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BK6" s="211">
+        <f>P11-P35+H35</f>
+        <v>535000</v>
+      </c>
+    </row>
+    <row r="7" spans="3:63" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C7" s="37"/>
-      <c r="D7" s="136" t="s">
+      <c r="D7" s="162" t="s">
         <v>198</v>
       </c>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="136"/>
-      <c r="K7" s="136"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
-      <c r="O7" s="136"/>
-      <c r="P7" s="136"/>
-      <c r="Q7" s="136"/>
-      <c r="R7" s="137"/>
+      <c r="E7" s="162"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="162"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="162"/>
+      <c r="J7" s="162"/>
+      <c r="K7" s="162"/>
+      <c r="L7" s="162"/>
+      <c r="M7" s="162"/>
+      <c r="N7" s="162"/>
+      <c r="O7" s="162"/>
+      <c r="P7" s="162"/>
+      <c r="Q7" s="162"/>
+      <c r="R7" s="163"/>
       <c r="AE7" t="s">
         <v>147</v>
       </c>
@@ -14064,10 +14124,11 @@
         <v>182</v>
       </c>
       <c r="BJ7" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="8" spans="3:62" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="BK7" s="211"/>
+    </row>
+    <row r="8" spans="3:63" x14ac:dyDescent="0.3">
       <c r="C8" s="37"/>
       <c r="D8" s="31"/>
       <c r="E8" s="31"/>
@@ -14094,7 +14155,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="3:62" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:63" x14ac:dyDescent="0.3">
       <c r="C9" s="37"/>
       <c r="D9" s="31"/>
       <c r="E9" s="31"/>
@@ -14118,29 +14179,29 @@
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="3:62" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:63" x14ac:dyDescent="0.3">
       <c r="C10" s="37"/>
-      <c r="D10" s="189" t="s">
-        <v>291</v>
-      </c>
-      <c r="E10" s="189"/>
+      <c r="D10" s="181" t="s">
+        <v>288</v>
+      </c>
+      <c r="E10" s="181"/>
       <c r="F10" s="96"/>
       <c r="G10" s="96"/>
-      <c r="H10" s="190" t="s">
+      <c r="H10" s="142" t="s">
         <v>220</v>
       </c>
       <c r="I10" s="31"/>
       <c r="J10" s="94"/>
-      <c r="K10" s="188" t="s">
-        <v>290</v>
-      </c>
-      <c r="L10" s="188"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="93" t="s">
+      <c r="K10" s="219" t="s">
+        <v>287</v>
+      </c>
+      <c r="L10" s="219"/>
+      <c r="M10" s="220"/>
+      <c r="N10" s="142" t="s">
         <v>220</v>
       </c>
-      <c r="O10" s="46"/>
-      <c r="P10" s="93" t="s">
+      <c r="O10" s="129"/>
+      <c r="P10" s="142" t="s">
         <v>274</v>
       </c>
       <c r="Q10" s="31"/>
@@ -14151,26 +14212,26 @@
       <c r="AL10" s="13"/>
       <c r="AM10" s="13"/>
     </row>
-    <row r="11" spans="3:62" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:63" x14ac:dyDescent="0.3">
       <c r="C11" s="37"/>
-      <c r="D11" s="172" t="s">
-        <v>206</v>
-      </c>
-      <c r="E11" s="173"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="187">
+      <c r="D11" s="182" t="s">
+        <v>285</v>
+      </c>
+      <c r="E11" s="183"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="141">
         <v>0.2</v>
       </c>
       <c r="I11" s="31"/>
       <c r="J11" s="94"/>
-      <c r="K11" s="28" t="s">
-        <v>288</v>
-      </c>
-      <c r="L11" s="30"/>
+      <c r="K11" s="171" t="s">
+        <v>233</v>
+      </c>
+      <c r="L11" s="173"/>
       <c r="M11" s="94"/>
-      <c r="N11" s="187"/>
+      <c r="N11" s="141"/>
       <c r="O11" s="94"/>
-      <c r="P11" s="99">
+      <c r="P11" s="98">
         <v>600000</v>
       </c>
       <c r="Q11" s="31"/>
@@ -14179,7 +14240,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="3:62" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:63" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="37"/>
       <c r="E12" s="31"/>
       <c r="F12" s="31"/>
@@ -14189,60 +14250,62 @@
       <c r="J12" s="94"/>
       <c r="M12" s="94"/>
       <c r="O12" s="94"/>
-      <c r="P12" s="129"/>
+      <c r="P12" s="128"/>
       <c r="Q12" s="31"/>
       <c r="R12" s="64"/>
       <c r="AE12" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="3:62" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:63" x14ac:dyDescent="0.3">
       <c r="C13" s="37"/>
       <c r="D13" s="46"/>
       <c r="E13" s="46"/>
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
-      <c r="H13" s="190" t="s">
+      <c r="H13" s="142" t="s">
         <v>228</v>
       </c>
       <c r="I13" s="46"/>
       <c r="J13" s="94"/>
-      <c r="K13" t="s">
-        <v>292</v>
-      </c>
-      <c r="N13" s="93" t="s">
+      <c r="K13" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="142" t="s">
         <v>220</v>
       </c>
       <c r="O13" s="94"/>
-      <c r="P13" s="129"/>
+      <c r="P13" s="128"/>
       <c r="Q13" s="31"/>
       <c r="R13" s="64"/>
       <c r="AE13" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="3:62" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:63" x14ac:dyDescent="0.3">
       <c r="C14" s="37"/>
       <c r="D14" s="46"/>
       <c r="E14" s="46"/>
-      <c r="H14" s="187"/>
+      <c r="H14" s="141"/>
       <c r="I14" s="46"/>
       <c r="J14" s="94"/>
-      <c r="K14" s="28" t="s">
-        <v>287</v>
-      </c>
-      <c r="L14" s="30"/>
+      <c r="K14" s="171" t="s">
+        <v>233</v>
+      </c>
+      <c r="L14" s="173"/>
       <c r="M14" s="94"/>
-      <c r="N14" s="187"/>
+      <c r="N14" s="141"/>
       <c r="O14" s="94"/>
-      <c r="P14" s="129"/>
+      <c r="P14" s="128"/>
       <c r="Q14" s="31"/>
       <c r="R14" s="64"/>
       <c r="AE14" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="3:62" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:63" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="37"/>
       <c r="D15" s="46"/>
       <c r="E15" s="46"/>
@@ -14255,32 +14318,32 @@
       <c r="M15" s="94"/>
       <c r="N15" s="94"/>
       <c r="O15" s="94"/>
-      <c r="P15" s="129"/>
+      <c r="P15" s="128"/>
       <c r="Q15" s="31"/>
       <c r="R15" s="64"/>
       <c r="AE15" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="3:62" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:63" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="37"/>
-      <c r="D16" s="138" t="s">
+      <c r="D16" s="164" t="s">
         <v>227</v>
       </c>
-      <c r="E16" s="138"/>
-      <c r="F16" s="138"/>
-      <c r="G16" s="138"/>
-      <c r="H16" s="138"/>
+      <c r="E16" s="164"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="164"/>
       <c r="I16" s="31"/>
       <c r="J16" s="31"/>
-      <c r="K16" s="138" t="s">
+      <c r="K16" s="164" t="s">
         <v>222</v>
       </c>
-      <c r="L16" s="138"/>
-      <c r="M16" s="138"/>
-      <c r="N16" s="138"/>
-      <c r="O16" s="138"/>
-      <c r="P16" s="138"/>
+      <c r="L16" s="164"/>
+      <c r="M16" s="164"/>
+      <c r="N16" s="164"/>
+      <c r="O16" s="164"/>
+      <c r="P16" s="164"/>
       <c r="Q16" s="93"/>
       <c r="R16" s="38"/>
       <c r="AE16" t="s">
@@ -14289,19 +14352,19 @@
     </row>
     <row r="17" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C17" s="37"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="141"/>
+      <c r="D17" s="171"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="172"/>
+      <c r="G17" s="172"/>
+      <c r="H17" s="173"/>
       <c r="I17" s="31"/>
       <c r="J17" s="31"/>
-      <c r="K17" s="139"/>
-      <c r="L17" s="140"/>
-      <c r="M17" s="140"/>
-      <c r="N17" s="140"/>
-      <c r="O17" s="140"/>
-      <c r="P17" s="141"/>
+      <c r="K17" s="171"/>
+      <c r="L17" s="172"/>
+      <c r="M17" s="172"/>
+      <c r="N17" s="172"/>
+      <c r="O17" s="172"/>
+      <c r="P17" s="173"/>
       <c r="Q17" s="93"/>
       <c r="R17" s="38"/>
       <c r="AE17" t="s">
@@ -14333,23 +14396,23 @@
     </row>
     <row r="19" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C19" s="37"/>
-      <c r="D19" s="138" t="s">
+      <c r="D19" s="164" t="s">
         <v>223</v>
       </c>
-      <c r="E19" s="138"/>
-      <c r="F19" s="138"/>
-      <c r="G19" s="138"/>
-      <c r="H19" s="138"/>
+      <c r="E19" s="164"/>
+      <c r="F19" s="164"/>
+      <c r="G19" s="164"/>
+      <c r="H19" s="164"/>
       <c r="I19" s="31"/>
       <c r="J19" s="31"/>
-      <c r="K19" s="138" t="s">
+      <c r="K19" s="164" t="s">
         <v>224</v>
       </c>
-      <c r="L19" s="138"/>
-      <c r="M19" s="138"/>
-      <c r="N19" s="138"/>
-      <c r="O19" s="138"/>
-      <c r="P19" s="138"/>
+      <c r="L19" s="164"/>
+      <c r="M19" s="164"/>
+      <c r="N19" s="164"/>
+      <c r="O19" s="164"/>
+      <c r="P19" s="164"/>
       <c r="Q19" s="93"/>
       <c r="R19" s="38"/>
       <c r="AE19" t="s">
@@ -14360,19 +14423,19 @@
     </row>
     <row r="20" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C20" s="37"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="140"/>
-      <c r="F20" s="140"/>
-      <c r="G20" s="140"/>
-      <c r="H20" s="141"/>
+      <c r="D20" s="171"/>
+      <c r="E20" s="172"/>
+      <c r="F20" s="172"/>
+      <c r="G20" s="172"/>
+      <c r="H20" s="173"/>
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
-      <c r="K20" s="139"/>
-      <c r="L20" s="140"/>
-      <c r="M20" s="140"/>
-      <c r="N20" s="140"/>
-      <c r="O20" s="140"/>
-      <c r="P20" s="141"/>
+      <c r="K20" s="171"/>
+      <c r="L20" s="172"/>
+      <c r="M20" s="172"/>
+      <c r="N20" s="172"/>
+      <c r="O20" s="172"/>
+      <c r="P20" s="173"/>
       <c r="Q20" s="93"/>
       <c r="R20" s="38"/>
       <c r="AL20" s="11"/>
@@ -14400,23 +14463,23 @@
     </row>
     <row r="22" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C22" s="37"/>
-      <c r="D22" s="138" t="s">
+      <c r="D22" s="164" t="s">
         <v>225</v>
       </c>
-      <c r="E22" s="138"/>
-      <c r="F22" s="138"/>
-      <c r="G22" s="138"/>
-      <c r="H22" s="138"/>
+      <c r="E22" s="164"/>
+      <c r="F22" s="164"/>
+      <c r="G22" s="164"/>
+      <c r="H22" s="164"/>
       <c r="I22" s="31"/>
       <c r="J22" s="31"/>
-      <c r="K22" s="138" t="s">
+      <c r="K22" s="164" t="s">
         <v>226</v>
       </c>
-      <c r="L22" s="138"/>
-      <c r="M22" s="138"/>
-      <c r="N22" s="138"/>
-      <c r="O22" s="138"/>
-      <c r="P22" s="138"/>
+      <c r="L22" s="164"/>
+      <c r="M22" s="164"/>
+      <c r="N22" s="164"/>
+      <c r="O22" s="164"/>
+      <c r="P22" s="164"/>
       <c r="Q22" s="93"/>
       <c r="R22" s="38"/>
       <c r="AL22" s="11"/>
@@ -14424,19 +14487,19 @@
     </row>
     <row r="23" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C23" s="37"/>
-      <c r="D23" s="139"/>
-      <c r="E23" s="140"/>
-      <c r="F23" s="140"/>
-      <c r="G23" s="140"/>
-      <c r="H23" s="141"/>
+      <c r="D23" s="171"/>
+      <c r="E23" s="172"/>
+      <c r="F23" s="172"/>
+      <c r="G23" s="172"/>
+      <c r="H23" s="173"/>
       <c r="I23" s="31"/>
       <c r="J23" s="31"/>
-      <c r="K23" s="139"/>
-      <c r="L23" s="140"/>
-      <c r="M23" s="140"/>
-      <c r="N23" s="140"/>
-      <c r="O23" s="140"/>
-      <c r="P23" s="141"/>
+      <c r="K23" s="171"/>
+      <c r="L23" s="172"/>
+      <c r="M23" s="172"/>
+      <c r="N23" s="172"/>
+      <c r="O23" s="172"/>
+      <c r="P23" s="173"/>
       <c r="Q23" s="93"/>
       <c r="R23" s="38"/>
       <c r="AL23" s="11"/>
@@ -14540,35 +14603,35 @@
     </row>
     <row r="29" spans="3:39" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37"/>
-      <c r="D29" s="120" t="s">
+      <c r="D29" s="119" t="s">
         <v>264</v>
       </c>
-      <c r="E29" s="121"/>
-      <c r="F29" s="121"/>
-      <c r="G29" s="121"/>
-      <c r="H29" s="122"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="120"/>
+      <c r="G29" s="120"/>
+      <c r="H29" s="121"/>
       <c r="I29" s="31"/>
-      <c r="J29" s="120" t="s">
+      <c r="J29" s="119" t="s">
         <v>265</v>
       </c>
-      <c r="K29" s="121"/>
-      <c r="L29" s="121"/>
-      <c r="M29" s="121"/>
-      <c r="N29" s="121"/>
-      <c r="O29" s="121"/>
-      <c r="P29" s="122"/>
+      <c r="K29" s="120"/>
+      <c r="L29" s="120"/>
+      <c r="M29" s="120"/>
+      <c r="N29" s="120"/>
+      <c r="O29" s="120"/>
+      <c r="P29" s="121"/>
       <c r="Q29" s="31"/>
       <c r="R29" s="38"/>
     </row>
     <row r="30" spans="3:39" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37"/>
-      <c r="D30" s="114"/>
+      <c r="D30" s="113"/>
       <c r="E30" s="31"/>
       <c r="F30" s="31"/>
       <c r="G30" s="31"/>
-      <c r="H30" s="109"/>
+      <c r="H30" s="108"/>
       <c r="I30" s="31"/>
-      <c r="J30" s="114">
+      <c r="J30" s="113">
         <v>1470</v>
       </c>
       <c r="K30" s="31" t="s">
@@ -14578,8 +14641,8 @@
       <c r="M30" s="31"/>
       <c r="N30" s="31"/>
       <c r="O30" s="31"/>
-      <c r="P30" s="109">
-        <v>31604.43</v>
+      <c r="P30" s="108">
+        <v>31000</v>
       </c>
       <c r="Q30" s="31"/>
       <c r="R30" s="38"/>
@@ -14590,9 +14653,9 @@
       <c r="E31" s="31"/>
       <c r="F31" s="31"/>
       <c r="G31" s="31"/>
-      <c r="H31" s="109"/>
+      <c r="H31" s="108"/>
       <c r="I31" s="31"/>
-      <c r="J31" s="114">
+      <c r="J31" s="113">
         <v>3000</v>
       </c>
       <c r="K31" s="31" t="s">
@@ -14602,8 +14665,8 @@
       <c r="M31" s="31"/>
       <c r="N31" s="31"/>
       <c r="O31" s="31"/>
-      <c r="P31" s="109">
-        <v>34417.629999999997</v>
+      <c r="P31" s="108">
+        <v>34000</v>
       </c>
       <c r="Q31" s="31"/>
       <c r="R31" s="38"/>
@@ -14614,7 +14677,7 @@
       <c r="E32" s="31"/>
       <c r="F32" s="31"/>
       <c r="G32" s="31"/>
-      <c r="H32" s="109"/>
+      <c r="H32" s="108"/>
       <c r="I32" s="31"/>
       <c r="J32" s="37"/>
       <c r="K32" s="31"/>
@@ -14622,7 +14685,7 @@
       <c r="M32" s="31"/>
       <c r="N32" s="31"/>
       <c r="O32" s="31"/>
-      <c r="P32" s="109"/>
+      <c r="P32" s="108"/>
       <c r="Q32" s="31"/>
       <c r="R32" s="38"/>
     </row>
@@ -14632,7 +14695,7 @@
       <c r="E33" s="31"/>
       <c r="F33" s="31"/>
       <c r="G33" s="31"/>
-      <c r="H33" s="109"/>
+      <c r="H33" s="108"/>
       <c r="I33" s="31"/>
       <c r="J33" s="37"/>
       <c r="K33" s="31"/>
@@ -14640,7 +14703,7 @@
       <c r="M33" s="31"/>
       <c r="N33" s="31"/>
       <c r="O33" s="31"/>
-      <c r="P33" s="109"/>
+      <c r="P33" s="108"/>
       <c r="Q33" s="31"/>
       <c r="R33" s="38"/>
     </row>
@@ -14650,7 +14713,7 @@
       <c r="E34" s="31"/>
       <c r="F34" s="31"/>
       <c r="G34" s="31"/>
-      <c r="H34" s="109"/>
+      <c r="H34" s="108"/>
       <c r="I34" s="31"/>
       <c r="J34" s="37"/>
       <c r="K34" s="31"/>
@@ -14658,7 +14721,7 @@
       <c r="M34" s="31"/>
       <c r="N34" s="31"/>
       <c r="O34" s="31"/>
-      <c r="P34" s="109"/>
+      <c r="P34" s="108"/>
       <c r="Q34" s="31"/>
       <c r="R34" s="38"/>
     </row>
@@ -14666,47 +14729,47 @@
       <c r="C35" s="37"/>
       <c r="D35" s="40"/>
       <c r="E35" s="41"/>
-      <c r="F35" s="118" t="s">
+      <c r="F35" s="117" t="s">
         <v>266</v>
       </c>
-      <c r="G35" s="118"/>
-      <c r="H35" s="119">
+      <c r="G35" s="117"/>
+      <c r="H35" s="213">
         <f>SUM(H30:H34)</f>
         <v>0</v>
       </c>
       <c r="I35" s="43"/>
       <c r="J35" s="40"/>
       <c r="K35" s="41"/>
-      <c r="L35" s="118" t="s">
+      <c r="L35" s="117" t="s">
         <v>266</v>
       </c>
-      <c r="M35" s="118"/>
-      <c r="N35" s="118"/>
-      <c r="O35" s="118"/>
-      <c r="P35" s="119">
+      <c r="M35" s="117"/>
+      <c r="N35" s="117"/>
+      <c r="O35" s="117"/>
+      <c r="P35" s="118">
         <f>SUM(P30:P34)</f>
-        <v>66022.06</v>
+        <v>65000</v>
       </c>
       <c r="Q35" s="31"/>
       <c r="R35" s="38"/>
     </row>
-    <row r="36" spans="3:18" s="125" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="126"/>
+    <row r="36" spans="3:18" s="124" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="125"/>
       <c r="D36" s="46"/>
       <c r="E36" s="46"/>
-      <c r="F36" s="130"/>
-      <c r="G36" s="130"/>
-      <c r="H36" s="131"/>
-      <c r="I36" s="130"/>
+      <c r="F36" s="129"/>
+      <c r="G36" s="129"/>
+      <c r="H36" s="130"/>
+      <c r="I36" s="129"/>
       <c r="J36" s="46"/>
       <c r="K36" s="46"/>
-      <c r="L36" s="130"/>
-      <c r="M36" s="130"/>
-      <c r="N36" s="130"/>
-      <c r="O36" s="130"/>
-      <c r="P36" s="131"/>
+      <c r="L36" s="129"/>
+      <c r="M36" s="129"/>
+      <c r="N36" s="129"/>
+      <c r="O36" s="129"/>
+      <c r="P36" s="130"/>
       <c r="Q36" s="46"/>
-      <c r="R36" s="132"/>
+      <c r="R36" s="131"/>
     </row>
     <row r="37" spans="3:18" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37"/>
@@ -14728,23 +14791,23 @@
     </row>
     <row r="38" spans="3:18" ht="36.6" customHeight="1" collapsed="1" x14ac:dyDescent="0.4">
       <c r="C38" s="34"/>
-      <c r="D38" s="154" t="s">
-        <v>293</v>
-      </c>
-      <c r="E38" s="154"/>
-      <c r="F38" s="154"/>
-      <c r="G38" s="154"/>
-      <c r="H38" s="154"/>
-      <c r="I38" s="154"/>
-      <c r="J38" s="154"/>
-      <c r="K38" s="154"/>
-      <c r="L38" s="154"/>
-      <c r="M38" s="154"/>
-      <c r="N38" s="154"/>
-      <c r="O38" s="154"/>
-      <c r="P38" s="154"/>
-      <c r="Q38" s="154"/>
-      <c r="R38" s="155"/>
+      <c r="D38" s="178" t="s">
+        <v>290</v>
+      </c>
+      <c r="E38" s="178"/>
+      <c r="F38" s="178"/>
+      <c r="G38" s="178"/>
+      <c r="H38" s="178"/>
+      <c r="I38" s="178"/>
+      <c r="J38" s="178"/>
+      <c r="K38" s="178"/>
+      <c r="L38" s="178"/>
+      <c r="M38" s="178"/>
+      <c r="N38" s="178"/>
+      <c r="O38" s="178"/>
+      <c r="P38" s="178"/>
+      <c r="Q38" s="178"/>
+      <c r="R38" s="179"/>
     </row>
     <row r="39" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C39" s="37"/>
@@ -14764,280 +14827,310 @@
       <c r="Q39" s="31"/>
       <c r="R39" s="38"/>
     </row>
-    <row r="40" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="196"/>
-      <c r="F40" s="197"/>
-      <c r="G40" s="197"/>
-      <c r="H40" s="197"/>
-      <c r="I40" s="197"/>
-      <c r="J40" s="197"/>
-      <c r="K40" s="197"/>
-      <c r="L40" s="197"/>
-      <c r="M40" s="197"/>
-      <c r="N40" s="197"/>
-      <c r="O40" s="197"/>
-      <c r="P40" s="198"/>
-      <c r="Q40" s="31"/>
+      <c r="D40" s="148"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="149"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
+      <c r="N40" s="149"/>
+      <c r="O40" s="149"/>
+      <c r="P40" s="149"/>
+      <c r="Q40" s="150"/>
       <c r="R40" s="38"/>
     </row>
-    <row r="41" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="199"/>
+      <c r="D41" s="151"/>
+      <c r="E41" s="31"/>
       <c r="F41" s="31"/>
       <c r="G41" s="31"/>
-      <c r="H41" s="94"/>
-      <c r="I41" s="194"/>
-      <c r="J41" s="94"/>
-      <c r="K41" s="194"/>
-      <c r="L41" s="94"/>
-      <c r="M41" s="94"/>
-      <c r="N41" s="94"/>
-      <c r="O41" s="194"/>
-      <c r="P41" s="200"/>
-      <c r="Q41" s="93"/>
+      <c r="H41" s="132"/>
+      <c r="I41" s="186"/>
+      <c r="J41" s="132" t="s">
+        <v>35</v>
+      </c>
+      <c r="K41" s="147"/>
+      <c r="L41" s="146" t="s">
+        <v>228</v>
+      </c>
+      <c r="M41" s="146"/>
+      <c r="N41" s="146"/>
+      <c r="O41" s="186"/>
+      <c r="P41" s="132"/>
+      <c r="Q41" s="152"/>
       <c r="R41" s="38"/>
     </row>
     <row r="42" spans="3:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="199"/>
+      <c r="D42" s="151"/>
+      <c r="E42" s="31" t="s">
+        <v>291</v>
+      </c>
       <c r="F42" s="31"/>
       <c r="G42" s="31"/>
-      <c r="H42" s="195"/>
-      <c r="I42" s="194"/>
-      <c r="J42" s="195"/>
-      <c r="K42" s="194"/>
-      <c r="L42" s="195"/>
-      <c r="M42" s="195"/>
-      <c r="N42" s="195"/>
-      <c r="O42" s="194"/>
-      <c r="P42" s="201"/>
-      <c r="Q42" s="97"/>
+      <c r="H42" s="210">
+        <f>VLOOKUP(D11,BJ2:BK7,2,FALSE)</f>
+        <v>535000</v>
+      </c>
+      <c r="I42" s="186"/>
+      <c r="J42" s="212">
+        <f>H11</f>
+        <v>0.2</v>
+      </c>
+      <c r="K42" s="147"/>
+      <c r="L42" s="102">
+        <f>H42*J42</f>
+        <v>107000</v>
+      </c>
+      <c r="M42" s="145"/>
+      <c r="N42" s="145"/>
+      <c r="O42" s="186"/>
+      <c r="P42" s="133"/>
+      <c r="Q42" s="153"/>
       <c r="R42" s="38"/>
     </row>
-    <row r="43" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="199"/>
+      <c r="D43" s="151"/>
+      <c r="E43" s="31"/>
       <c r="F43" s="31"/>
       <c r="G43" s="31"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="46"/>
-      <c r="J43" s="46"/>
-      <c r="K43" s="46"/>
-      <c r="L43" s="46"/>
-      <c r="M43" s="46"/>
-      <c r="N43" s="46"/>
-      <c r="O43" s="46"/>
-      <c r="P43" s="202"/>
-      <c r="Q43" s="31"/>
+      <c r="H43" s="145"/>
+      <c r="I43" s="144"/>
+      <c r="J43" s="145"/>
+      <c r="K43" s="147"/>
+      <c r="L43" s="145"/>
+      <c r="M43" s="145"/>
+      <c r="N43" s="145"/>
+      <c r="O43" s="144"/>
+      <c r="P43" s="133"/>
+      <c r="Q43" s="153"/>
       <c r="R43" s="38"/>
     </row>
-    <row r="44" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="199"/>
+      <c r="D44" s="151"/>
+      <c r="E44" s="31" t="s">
+        <v>287</v>
+      </c>
       <c r="F44" s="31"/>
       <c r="G44" s="31"/>
-      <c r="H44" s="46"/>
-      <c r="I44" s="46"/>
-      <c r="J44" s="46"/>
-      <c r="K44" s="46"/>
-      <c r="L44" s="46"/>
-      <c r="M44" s="46"/>
-      <c r="N44" s="46"/>
-      <c r="O44" s="46"/>
-      <c r="P44" s="202"/>
-      <c r="Q44" s="31"/>
+      <c r="H44" s="210">
+        <f>VLOOKUP(K11,BJ1:BK7,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="144"/>
+      <c r="J44" s="212">
+        <f>N11</f>
+        <v>0</v>
+      </c>
+      <c r="K44" s="147"/>
+      <c r="L44" s="102">
+        <f>H44*J44</f>
+        <v>0</v>
+      </c>
+      <c r="M44" s="145"/>
+      <c r="N44" s="145"/>
+      <c r="O44" s="144"/>
+      <c r="P44" s="133"/>
+      <c r="Q44" s="153"/>
       <c r="R44" s="38"/>
     </row>
-    <row r="45" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="199"/>
+      <c r="D45" s="151"/>
+      <c r="E45" s="31"/>
       <c r="F45" s="31"/>
       <c r="G45" s="31"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="46"/>
-      <c r="J45" s="46"/>
-      <c r="K45" s="46"/>
-      <c r="L45" s="46"/>
-      <c r="M45" s="46"/>
-      <c r="N45" s="46"/>
-      <c r="O45" s="46"/>
-      <c r="P45" s="202"/>
-      <c r="Q45" s="31"/>
+      <c r="H45" s="145"/>
+      <c r="I45" s="144"/>
+      <c r="J45" s="145"/>
+      <c r="K45" s="147"/>
+      <c r="L45" s="145"/>
+      <c r="M45" s="145"/>
+      <c r="N45" s="145"/>
+      <c r="O45" s="144"/>
+      <c r="P45" s="133"/>
+      <c r="Q45" s="153"/>
       <c r="R45" s="38"/>
     </row>
-    <row r="46" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="199"/>
+      <c r="D46" s="151"/>
+      <c r="E46" s="31" t="s">
+        <v>289</v>
+      </c>
       <c r="F46" s="31"/>
       <c r="G46" s="31"/>
-      <c r="H46" s="46"/>
-      <c r="I46" s="46"/>
-      <c r="J46" s="46"/>
-      <c r="K46" s="46"/>
-      <c r="L46" s="46"/>
-      <c r="M46" s="46"/>
-      <c r="N46" s="46"/>
-      <c r="O46" s="46"/>
-      <c r="P46" s="202"/>
-      <c r="Q46" s="31"/>
+      <c r="H46" s="210">
+        <f>VLOOKUP(K14,BJ1:BK7,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I46" s="144"/>
+      <c r="J46" s="212">
+        <f>N14</f>
+        <v>0</v>
+      </c>
+      <c r="K46" s="147"/>
+      <c r="L46" s="102">
+        <f>H46*J46</f>
+        <v>0</v>
+      </c>
+      <c r="M46" s="145"/>
+      <c r="N46" s="145"/>
+      <c r="O46" s="144"/>
+      <c r="P46" s="133"/>
+      <c r="Q46" s="153"/>
       <c r="R46" s="38"/>
     </row>
     <row r="47" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C47" s="37"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="199"/>
+      <c r="D47" s="151"/>
+      <c r="E47" s="31"/>
       <c r="F47" s="31"/>
       <c r="G47" s="31"/>
-      <c r="H47" s="94"/>
-      <c r="I47" s="194"/>
-      <c r="J47" s="94"/>
-      <c r="K47" s="194"/>
-      <c r="L47" s="94"/>
-      <c r="M47" s="94"/>
-      <c r="N47" s="94"/>
-      <c r="O47" s="75"/>
-      <c r="P47" s="202"/>
-      <c r="Q47" s="31"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46"/>
+      <c r="K47" s="46"/>
+      <c r="L47" s="46"/>
+      <c r="M47" s="46"/>
+      <c r="N47" s="46"/>
+      <c r="O47" s="46"/>
+      <c r="P47" s="46"/>
+      <c r="Q47" s="154"/>
       <c r="R47" s="38"/>
     </row>
     <row r="48" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C48" s="37"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="199"/>
+      <c r="D48" s="151"/>
+      <c r="E48" s="31"/>
       <c r="F48" s="31"/>
       <c r="G48" s="31"/>
-      <c r="H48" s="195"/>
-      <c r="I48" s="194"/>
-      <c r="J48" s="195"/>
-      <c r="K48" s="194"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="46"/>
       <c r="L48" s="46"/>
       <c r="M48" s="46"/>
       <c r="N48" s="46"/>
       <c r="O48" s="46"/>
-      <c r="P48" s="202"/>
-      <c r="Q48" s="31"/>
+      <c r="P48" s="46"/>
+      <c r="Q48" s="154"/>
       <c r="R48" s="38"/>
     </row>
-    <row r="49" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C49" s="37"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="203"/>
-      <c r="F49" s="204"/>
-      <c r="G49" s="204"/>
-      <c r="H49" s="205"/>
-      <c r="I49" s="205"/>
-      <c r="J49" s="205"/>
-      <c r="K49" s="205"/>
-      <c r="L49" s="205"/>
-      <c r="M49" s="205"/>
-      <c r="N49" s="205"/>
-      <c r="O49" s="205"/>
-      <c r="P49" s="206"/>
-      <c r="Q49" s="31"/>
+      <c r="D49" s="151"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="46"/>
+      <c r="J49" s="46"/>
+      <c r="K49" s="46"/>
+      <c r="L49" s="46"/>
+      <c r="M49" s="46"/>
+      <c r="N49" s="46"/>
+      <c r="O49" s="46"/>
+      <c r="P49" s="46"/>
+      <c r="Q49" s="154"/>
       <c r="R49" s="38"/>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C50" s="37"/>
-      <c r="D50" s="31"/>
+      <c r="D50" s="151"/>
       <c r="E50" s="31"/>
       <c r="F50" s="31"/>
       <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="31"/>
-      <c r="M50" s="31"/>
-      <c r="N50" s="31"/>
-      <c r="O50" s="31"/>
-      <c r="P50" s="31"/>
-      <c r="Q50" s="31"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="46"/>
+      <c r="K50" s="46"/>
+      <c r="L50" s="46"/>
+      <c r="M50" s="46"/>
+      <c r="N50" s="46"/>
+      <c r="O50" s="46"/>
+      <c r="P50" s="46"/>
+      <c r="Q50" s="154"/>
       <c r="R50" s="38"/>
     </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37"/>
-      <c r="D51" s="31"/>
+      <c r="D51" s="151"/>
       <c r="E51" s="31"/>
       <c r="F51" s="31"/>
       <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="31"/>
-      <c r="M51" s="31"/>
-      <c r="N51" s="31"/>
-      <c r="O51" s="31"/>
-      <c r="P51" s="31"/>
-      <c r="Q51" s="31"/>
+      <c r="H51" s="215" t="s">
+        <v>292</v>
+      </c>
+      <c r="I51" s="216"/>
+      <c r="J51" s="217"/>
+      <c r="K51" s="214"/>
+      <c r="L51" s="218">
+        <f>SUM(L42:L50)</f>
+        <v>107000</v>
+      </c>
+      <c r="M51" s="132"/>
+      <c r="N51" s="132"/>
+      <c r="O51" s="75"/>
+      <c r="P51" s="46"/>
+      <c r="Q51" s="154"/>
       <c r="R51" s="38"/>
     </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37"/>
-      <c r="D52" s="31"/>
+      <c r="D52" s="151"/>
       <c r="E52" s="31"/>
       <c r="F52" s="31"/>
       <c r="G52" s="31"/>
-      <c r="H52" s="191" t="s">
-        <v>202</v>
-      </c>
-      <c r="I52" s="191"/>
-      <c r="J52" s="191"/>
-      <c r="K52" s="191"/>
-      <c r="L52" s="191"/>
-      <c r="M52" s="31"/>
-      <c r="N52" s="31"/>
-      <c r="O52" s="31"/>
-      <c r="P52" s="31"/>
-      <c r="Q52" s="31"/>
+      <c r="H52" s="145"/>
+      <c r="I52" s="147"/>
+      <c r="J52" s="145"/>
+      <c r="K52" s="147"/>
+      <c r="L52" s="46"/>
+      <c r="M52" s="46"/>
+      <c r="N52" s="46"/>
+      <c r="O52" s="46"/>
+      <c r="P52" s="46"/>
+      <c r="Q52" s="154"/>
       <c r="R52" s="38"/>
     </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C53" s="37"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="60" t="s">
-        <v>200</v>
-      </c>
-      <c r="I53" s="192" t="s">
-        <v>201</v>
-      </c>
-      <c r="J53" s="192"/>
-      <c r="K53" s="192"/>
-      <c r="L53" s="192"/>
-      <c r="M53" s="31"/>
-      <c r="N53" s="31"/>
-      <c r="O53" s="31"/>
-      <c r="P53" s="31"/>
-      <c r="Q53" s="31"/>
+      <c r="D53" s="155"/>
+      <c r="E53" s="156"/>
+      <c r="F53" s="156"/>
+      <c r="G53" s="156"/>
+      <c r="H53" s="157"/>
+      <c r="I53" s="157"/>
+      <c r="J53" s="157"/>
+      <c r="K53" s="157"/>
+      <c r="L53" s="157"/>
+      <c r="M53" s="157"/>
+      <c r="N53" s="157"/>
+      <c r="O53" s="157"/>
+      <c r="P53" s="157"/>
+      <c r="Q53" s="158"/>
       <c r="R53" s="38"/>
     </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37"/>
       <c r="D54" s="31"/>
       <c r="E54" s="31"/>
       <c r="F54" s="31"/>
       <c r="G54" s="31"/>
-      <c r="H54" s="60">
-        <v>1094</v>
-      </c>
-      <c r="I54" s="193">
-        <f>H48</f>
-        <v>0</v>
-      </c>
-      <c r="J54" s="193"/>
-      <c r="K54" s="193"/>
-      <c r="L54" s="193"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="31"/>
       <c r="M54" s="31"/>
       <c r="N54" s="31"/>
       <c r="O54" s="31"/>
@@ -15069,11 +15162,13 @@
       <c r="E56" s="31"/>
       <c r="F56" s="31"/>
       <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="31"/>
-      <c r="K56" s="31"/>
-      <c r="L56" s="31"/>
+      <c r="H56" s="184" t="s">
+        <v>202</v>
+      </c>
+      <c r="I56" s="184"/>
+      <c r="J56" s="184"/>
+      <c r="K56" s="184"/>
+      <c r="L56" s="184"/>
       <c r="M56" s="31"/>
       <c r="N56" s="31"/>
       <c r="O56" s="31"/>
@@ -15087,11 +15182,15 @@
       <c r="E57" s="31"/>
       <c r="F57" s="31"/>
       <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="31"/>
-      <c r="L57" s="31"/>
+      <c r="H57" s="60" t="s">
+        <v>200</v>
+      </c>
+      <c r="I57" s="143" t="s">
+        <v>201</v>
+      </c>
+      <c r="J57" s="143"/>
+      <c r="K57" s="143"/>
+      <c r="L57" s="143"/>
       <c r="M57" s="31"/>
       <c r="N57" s="31"/>
       <c r="O57" s="31"/>
@@ -15105,11 +15204,16 @@
       <c r="E58" s="31"/>
       <c r="F58" s="31"/>
       <c r="G58" s="31"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="31"/>
-      <c r="K58" s="31"/>
-      <c r="L58" s="31"/>
+      <c r="H58" s="60">
+        <v>1094</v>
+      </c>
+      <c r="I58" s="185">
+        <f>L51</f>
+        <v>107000</v>
+      </c>
+      <c r="J58" s="185"/>
+      <c r="K58" s="185"/>
+      <c r="L58" s="185"/>
       <c r="M58" s="31"/>
       <c r="N58" s="31"/>
       <c r="O58" s="31"/>
@@ -15118,29 +15222,25 @@
       <c r="R58" s="38"/>
     </row>
     <row r="59" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B59" s="31"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="41"/>
-      <c r="H59" s="41"/>
-      <c r="I59" s="41"/>
-      <c r="J59" s="41"/>
-      <c r="K59" s="41"/>
-      <c r="L59" s="41"/>
-      <c r="M59" s="41"/>
-      <c r="N59" s="41"/>
-      <c r="O59" s="41"/>
-      <c r="P59" s="41"/>
-      <c r="Q59" s="41"/>
-      <c r="R59" s="42"/>
-      <c r="S59" s="31"/>
-      <c r="T59" s="31"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="31"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="31"/>
+      <c r="O59" s="31"/>
+      <c r="P59" s="31"/>
+      <c r="Q59" s="31"/>
+      <c r="R59" s="38"/>
     </row>
     <row r="60" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
+      <c r="C60" s="37"/>
       <c r="D60" s="31"/>
       <c r="E60" s="31"/>
       <c r="F60" s="31"/>
@@ -15155,13 +15255,10 @@
       <c r="O60" s="31"/>
       <c r="P60" s="31"/>
       <c r="Q60" s="31"/>
-      <c r="R60" s="31"/>
-      <c r="S60" s="31"/>
-      <c r="T60" s="31"/>
+      <c r="R60" s="38"/>
     </row>
     <row r="61" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B61" s="31"/>
-      <c r="C61" s="31"/>
+      <c r="C61" s="37"/>
       <c r="D61" s="31"/>
       <c r="E61" s="31"/>
       <c r="F61" s="31"/>
@@ -15176,13 +15273,10 @@
       <c r="O61" s="31"/>
       <c r="P61" s="31"/>
       <c r="Q61" s="31"/>
-      <c r="R61" s="31"/>
-      <c r="S61" s="31"/>
-      <c r="T61" s="31"/>
+      <c r="R61" s="38"/>
     </row>
     <row r="62" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B62" s="31"/>
-      <c r="C62" s="31"/>
+      <c r="C62" s="37"/>
       <c r="D62" s="31"/>
       <c r="E62" s="31"/>
       <c r="F62" s="31"/>
@@ -15197,28 +15291,26 @@
       <c r="O62" s="31"/>
       <c r="P62" s="31"/>
       <c r="Q62" s="31"/>
-      <c r="R62" s="31"/>
-      <c r="S62" s="31"/>
-      <c r="T62" s="31"/>
+      <c r="R62" s="38"/>
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B63" s="31"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="31"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="31"/>
-      <c r="J63" s="31"/>
-      <c r="K63" s="31"/>
-      <c r="L63" s="31"/>
-      <c r="M63" s="31"/>
-      <c r="N63" s="31"/>
-      <c r="O63" s="31"/>
-      <c r="P63" s="31"/>
-      <c r="Q63" s="31"/>
-      <c r="R63" s="31"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="41"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="41"/>
+      <c r="I63" s="41"/>
+      <c r="J63" s="41"/>
+      <c r="K63" s="41"/>
+      <c r="L63" s="41"/>
+      <c r="M63" s="41"/>
+      <c r="N63" s="41"/>
+      <c r="O63" s="41"/>
+      <c r="P63" s="41"/>
+      <c r="Q63" s="41"/>
+      <c r="R63" s="42"/>
       <c r="S63" s="31"/>
       <c r="T63" s="31"/>
     </row>
@@ -15537,35 +15629,118 @@
       <c r="S78" s="31"/>
       <c r="T78" s="31"/>
     </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B79" s="31"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="31"/>
+      <c r="J79" s="31"/>
+      <c r="K79" s="31"/>
+      <c r="L79" s="31"/>
+      <c r="M79" s="31"/>
+      <c r="N79" s="31"/>
+      <c r="O79" s="31"/>
+      <c r="P79" s="31"/>
+      <c r="Q79" s="31"/>
+      <c r="R79" s="31"/>
+      <c r="S79" s="31"/>
+      <c r="T79" s="31"/>
+    </row>
+    <row r="80" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B80" s="31"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="31"/>
+      <c r="G80" s="31"/>
+      <c r="H80" s="31"/>
+      <c r="I80" s="31"/>
+      <c r="J80" s="31"/>
+      <c r="K80" s="31"/>
+      <c r="L80" s="31"/>
+      <c r="M80" s="31"/>
+      <c r="N80" s="31"/>
+      <c r="O80" s="31"/>
+      <c r="P80" s="31"/>
+      <c r="Q80" s="31"/>
+      <c r="R80" s="31"/>
+      <c r="S80" s="31"/>
+      <c r="T80" s="31"/>
+    </row>
+    <row r="81" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B81" s="31"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="31"/>
+      <c r="G81" s="31"/>
+      <c r="H81" s="31"/>
+      <c r="I81" s="31"/>
+      <c r="J81" s="31"/>
+      <c r="K81" s="31"/>
+      <c r="L81" s="31"/>
+      <c r="M81" s="31"/>
+      <c r="N81" s="31"/>
+      <c r="O81" s="31"/>
+      <c r="P81" s="31"/>
+      <c r="Q81" s="31"/>
+      <c r="R81" s="31"/>
+      <c r="S81" s="31"/>
+      <c r="T81" s="31"/>
+    </row>
+    <row r="82" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B82" s="31"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="31"/>
+      <c r="G82" s="31"/>
+      <c r="H82" s="31"/>
+      <c r="I82" s="31"/>
+      <c r="J82" s="31"/>
+      <c r="K82" s="31"/>
+      <c r="L82" s="31"/>
+      <c r="M82" s="31"/>
+      <c r="N82" s="31"/>
+      <c r="O82" s="31"/>
+      <c r="P82" s="31"/>
+      <c r="Q82" s="31"/>
+      <c r="R82" s="31"/>
+      <c r="S82" s="31"/>
+      <c r="T82" s="31"/>
+    </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="H52:L52"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="D38:R38"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="K47:K48"/>
+  <mergeCells count="24">
     <mergeCell ref="D20:H20"/>
     <mergeCell ref="K20:P20"/>
     <mergeCell ref="D22:H22"/>
     <mergeCell ref="K22:P22"/>
     <mergeCell ref="D23:H23"/>
     <mergeCell ref="K23:P23"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="K16:P16"/>
+    <mergeCell ref="H56:L56"/>
+    <mergeCell ref="I58:L58"/>
+    <mergeCell ref="D38:R38"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="O41:O42"/>
     <mergeCell ref="D17:H17"/>
     <mergeCell ref="K17:P17"/>
     <mergeCell ref="D19:H19"/>
     <mergeCell ref="K19:P19"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K14:L14"/>
     <mergeCell ref="C6:R6"/>
     <mergeCell ref="D7:R7"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
+    <mergeCell ref="K16:P16"/>
   </mergeCells>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11">
       <formula1>$AN$2:$AN$5</formula1>
     </dataValidation>
@@ -15589,6 +15764,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K17:Q17">
       <formula1>$AJ$2:$AJ$8</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K11:L11 K14:L14">
+      <formula1>$BJ$1:$BJ$7</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15626,7 +15804,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:52" x14ac:dyDescent="0.3">
-      <c r="P1" s="124" t="s">
+      <c r="P1" s="123" t="s">
         <v>221</v>
       </c>
       <c r="AC1" t="s">
@@ -15720,22 +15898,22 @@
       </c>
     </row>
     <row r="6" spans="3:52" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="133" t="s">
+      <c r="C6" s="159" t="s">
         <v>261</v>
       </c>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="134"/>
-      <c r="L6" s="134"/>
-      <c r="M6" s="134"/>
-      <c r="N6" s="134"/>
-      <c r="O6" s="134"/>
-      <c r="P6" s="135"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="160"/>
+      <c r="G6" s="160"/>
+      <c r="H6" s="160"/>
+      <c r="I6" s="160"/>
+      <c r="J6" s="160"/>
+      <c r="K6" s="160"/>
+      <c r="L6" s="160"/>
+      <c r="M6" s="160"/>
+      <c r="N6" s="160"/>
+      <c r="O6" s="160"/>
+      <c r="P6" s="161"/>
       <c r="AC6" t="s">
         <v>145</v>
       </c>
@@ -15748,21 +15926,21 @@
     </row>
     <row r="7" spans="3:52" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C7" s="37"/>
-      <c r="D7" s="136" t="s">
+      <c r="D7" s="162" t="s">
         <v>198</v>
       </c>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="136"/>
-      <c r="K7" s="136"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
-      <c r="O7" s="136"/>
-      <c r="P7" s="137"/>
+      <c r="E7" s="162"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="162"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="162"/>
+      <c r="J7" s="162"/>
+      <c r="K7" s="162"/>
+      <c r="L7" s="162"/>
+      <c r="M7" s="162"/>
+      <c r="N7" s="162"/>
+      <c r="O7" s="162"/>
+      <c r="P7" s="163"/>
       <c r="AC7" t="s">
         <v>146</v>
       </c>
@@ -15825,21 +16003,21 @@
     </row>
     <row r="10" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C10" s="37"/>
-      <c r="D10" s="138" t="s">
+      <c r="D10" s="164" t="s">
         <v>272</v>
       </c>
-      <c r="E10" s="138"/>
+      <c r="E10" s="164"/>
       <c r="F10" s="96"/>
       <c r="G10" s="96"/>
       <c r="H10" s="93" t="s">
         <v>220</v>
       </c>
       <c r="I10" s="31"/>
-      <c r="J10" s="145" t="s">
+      <c r="J10" s="165" t="s">
         <v>278</v>
       </c>
-      <c r="K10" s="145"/>
-      <c r="L10" s="145"/>
+      <c r="K10" s="165"/>
+      <c r="L10" s="165"/>
       <c r="M10" s="46"/>
       <c r="N10" s="93" t="s">
         <v>274</v>
@@ -15854,23 +16032,23 @@
     </row>
     <row r="11" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C11" s="37"/>
-      <c r="D11" s="146" t="s">
+      <c r="D11" s="166" t="s">
         <v>277</v>
       </c>
-      <c r="E11" s="147"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="177">
+      <c r="E11" s="167"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="134">
         <v>0.3</v>
       </c>
       <c r="I11" s="31"/>
-      <c r="J11" s="178">
+      <c r="J11" s="187">
         <v>87000</v>
       </c>
-      <c r="K11" s="179"/>
-      <c r="L11" s="180"/>
+      <c r="K11" s="188"/>
+      <c r="L11" s="189"/>
       <c r="M11" s="94"/>
-      <c r="N11" s="99">
+      <c r="N11" s="98">
         <v>600000</v>
       </c>
       <c r="O11" s="31"/>
@@ -15881,21 +16059,21 @@
     </row>
     <row r="12" spans="3:52" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="37"/>
-      <c r="D12" s="138" t="s">
+      <c r="D12" s="164" t="s">
         <v>227</v>
       </c>
-      <c r="E12" s="138"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="138"/>
-      <c r="H12" s="138"/>
+      <c r="E12" s="164"/>
+      <c r="F12" s="164"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="164"/>
       <c r="I12" s="31"/>
       <c r="J12" s="31"/>
-      <c r="K12" s="138" t="s">
+      <c r="K12" s="164" t="s">
         <v>222</v>
       </c>
-      <c r="L12" s="138"/>
-      <c r="M12" s="138"/>
-      <c r="N12" s="138"/>
+      <c r="L12" s="164"/>
+      <c r="M12" s="164"/>
+      <c r="N12" s="164"/>
       <c r="O12" s="93"/>
       <c r="P12" s="38"/>
       <c r="AC12" t="s">
@@ -15904,17 +16082,17 @@
     </row>
     <row r="13" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C13" s="37"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="141"/>
+      <c r="D13" s="171"/>
+      <c r="E13" s="172"/>
+      <c r="F13" s="172"/>
+      <c r="G13" s="172"/>
+      <c r="H13" s="173"/>
       <c r="I13" s="31"/>
       <c r="J13" s="31"/>
-      <c r="K13" s="139"/>
-      <c r="L13" s="140"/>
-      <c r="M13" s="140"/>
-      <c r="N13" s="141"/>
+      <c r="K13" s="171"/>
+      <c r="L13" s="172"/>
+      <c r="M13" s="172"/>
+      <c r="N13" s="173"/>
       <c r="O13" s="93"/>
       <c r="P13" s="38"/>
       <c r="AC13" t="s">
@@ -15944,21 +16122,21 @@
     </row>
     <row r="15" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C15" s="37"/>
-      <c r="D15" s="138" t="s">
+      <c r="D15" s="164" t="s">
         <v>223</v>
       </c>
-      <c r="E15" s="138"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="138"/>
-      <c r="H15" s="138"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="164"/>
       <c r="I15" s="31"/>
       <c r="J15" s="31"/>
-      <c r="K15" s="138" t="s">
+      <c r="K15" s="164" t="s">
         <v>224</v>
       </c>
-      <c r="L15" s="138"/>
-      <c r="M15" s="138"/>
-      <c r="N15" s="138"/>
+      <c r="L15" s="164"/>
+      <c r="M15" s="164"/>
+      <c r="N15" s="164"/>
       <c r="O15" s="93"/>
       <c r="P15" s="38"/>
       <c r="AC15" t="s">
@@ -15969,17 +16147,17 @@
     </row>
     <row r="16" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C16" s="37"/>
-      <c r="D16" s="139"/>
-      <c r="E16" s="140"/>
-      <c r="F16" s="140"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="141"/>
+      <c r="D16" s="171"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="172"/>
+      <c r="G16" s="172"/>
+      <c r="H16" s="173"/>
       <c r="I16" s="31"/>
       <c r="J16" s="31"/>
-      <c r="K16" s="139"/>
-      <c r="L16" s="140"/>
-      <c r="M16" s="140"/>
-      <c r="N16" s="141"/>
+      <c r="K16" s="171"/>
+      <c r="L16" s="172"/>
+      <c r="M16" s="172"/>
+      <c r="N16" s="173"/>
       <c r="O16" s="93"/>
       <c r="P16" s="38"/>
       <c r="AC16" t="s">
@@ -16011,21 +16189,21 @@
     </row>
     <row r="18" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C18" s="37"/>
-      <c r="D18" s="138" t="s">
+      <c r="D18" s="164" t="s">
         <v>225</v>
       </c>
-      <c r="E18" s="138"/>
-      <c r="F18" s="138"/>
-      <c r="G18" s="138"/>
-      <c r="H18" s="138"/>
+      <c r="E18" s="164"/>
+      <c r="F18" s="164"/>
+      <c r="G18" s="164"/>
+      <c r="H18" s="164"/>
       <c r="I18" s="31"/>
       <c r="J18" s="31"/>
-      <c r="K18" s="138" t="s">
+      <c r="K18" s="164" t="s">
         <v>226</v>
       </c>
-      <c r="L18" s="138"/>
-      <c r="M18" s="138"/>
-      <c r="N18" s="138"/>
+      <c r="L18" s="164"/>
+      <c r="M18" s="164"/>
+      <c r="N18" s="164"/>
       <c r="O18" s="93"/>
       <c r="P18" s="38"/>
       <c r="AC18" t="s">
@@ -16036,17 +16214,17 @@
     </row>
     <row r="19" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C19" s="37"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="141"/>
+      <c r="D19" s="171"/>
+      <c r="E19" s="172"/>
+      <c r="F19" s="172"/>
+      <c r="G19" s="172"/>
+      <c r="H19" s="173"/>
       <c r="I19" s="31"/>
       <c r="J19" s="31"/>
-      <c r="K19" s="139"/>
-      <c r="L19" s="140"/>
-      <c r="M19" s="140"/>
-      <c r="N19" s="141"/>
+      <c r="K19" s="171"/>
+      <c r="L19" s="172"/>
+      <c r="M19" s="172"/>
+      <c r="N19" s="173"/>
       <c r="O19" s="93"/>
       <c r="P19" s="38"/>
       <c r="AC19" t="s">
@@ -16081,12 +16259,12 @@
       <c r="D21" s="31"/>
       <c r="E21" s="31"/>
       <c r="F21" s="31"/>
-      <c r="G21" s="181" t="s">
+      <c r="G21" s="135" t="s">
         <v>279</v>
       </c>
-      <c r="H21" s="182"/>
-      <c r="I21" s="182"/>
-      <c r="J21" s="183">
+      <c r="H21" s="136"/>
+      <c r="I21" s="136"/>
+      <c r="J21" s="137">
         <f>J11*H11</f>
         <v>26100</v>
       </c>
@@ -16151,33 +16329,33 @@
     </row>
     <row r="25" spans="3:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37"/>
-      <c r="D25" s="120" t="s">
+      <c r="D25" s="119" t="s">
         <v>264</v>
       </c>
-      <c r="E25" s="121"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="122"/>
+      <c r="E25" s="120"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="120"/>
+      <c r="H25" s="121"/>
       <c r="I25" s="31"/>
-      <c r="J25" s="120" t="s">
+      <c r="J25" s="119" t="s">
         <v>265</v>
       </c>
-      <c r="K25" s="121"/>
-      <c r="L25" s="121"/>
-      <c r="M25" s="121"/>
-      <c r="N25" s="122"/>
+      <c r="K25" s="120"/>
+      <c r="L25" s="120"/>
+      <c r="M25" s="120"/>
+      <c r="N25" s="121"/>
       <c r="O25" s="31"/>
       <c r="P25" s="38"/>
     </row>
     <row r="26" spans="3:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37"/>
-      <c r="D26" s="114"/>
+      <c r="D26" s="113"/>
       <c r="E26" s="31"/>
       <c r="F26" s="31"/>
       <c r="G26" s="31"/>
-      <c r="H26" s="109"/>
+      <c r="H26" s="108"/>
       <c r="I26" s="31"/>
-      <c r="J26" s="114">
+      <c r="J26" s="113">
         <v>1470</v>
       </c>
       <c r="K26" s="31" t="s">
@@ -16185,7 +16363,7 @@
       </c>
       <c r="L26" s="31"/>
       <c r="M26" s="31"/>
-      <c r="N26" s="109">
+      <c r="N26" s="108">
         <v>31604.43</v>
       </c>
       <c r="O26" s="31"/>
@@ -16197,9 +16375,9 @@
       <c r="E27" s="31"/>
       <c r="F27" s="31"/>
       <c r="G27" s="31"/>
-      <c r="H27" s="109"/>
+      <c r="H27" s="108"/>
       <c r="I27" s="31"/>
-      <c r="J27" s="114">
+      <c r="J27" s="113">
         <v>3000</v>
       </c>
       <c r="K27" s="31" t="s">
@@ -16207,7 +16385,7 @@
       </c>
       <c r="L27" s="31"/>
       <c r="M27" s="31"/>
-      <c r="N27" s="109">
+      <c r="N27" s="108">
         <v>34417.629999999997</v>
       </c>
       <c r="O27" s="31"/>
@@ -16219,13 +16397,13 @@
       <c r="E28" s="31"/>
       <c r="F28" s="31"/>
       <c r="G28" s="31"/>
-      <c r="H28" s="109"/>
+      <c r="H28" s="108"/>
       <c r="I28" s="31"/>
       <c r="J28" s="37"/>
       <c r="K28" s="31"/>
       <c r="L28" s="31"/>
       <c r="M28" s="31"/>
-      <c r="N28" s="109"/>
+      <c r="N28" s="108"/>
       <c r="O28" s="31"/>
       <c r="P28" s="38"/>
     </row>
@@ -16235,13 +16413,13 @@
       <c r="E29" s="31"/>
       <c r="F29" s="31"/>
       <c r="G29" s="31"/>
-      <c r="H29" s="109"/>
+      <c r="H29" s="108"/>
       <c r="I29" s="31"/>
       <c r="J29" s="37"/>
       <c r="K29" s="31"/>
       <c r="L29" s="31"/>
       <c r="M29" s="31"/>
-      <c r="N29" s="109"/>
+      <c r="N29" s="108"/>
       <c r="O29" s="31"/>
       <c r="P29" s="38"/>
     </row>
@@ -16251,13 +16429,13 @@
       <c r="E30" s="31"/>
       <c r="F30" s="31"/>
       <c r="G30" s="31"/>
-      <c r="H30" s="109"/>
+      <c r="H30" s="108"/>
       <c r="I30" s="31"/>
       <c r="J30" s="37"/>
       <c r="K30" s="31"/>
       <c r="L30" s="31"/>
       <c r="M30" s="31"/>
-      <c r="N30" s="109"/>
+      <c r="N30" s="108"/>
       <c r="O30" s="31"/>
       <c r="P30" s="38"/>
     </row>
@@ -16265,43 +16443,43 @@
       <c r="C31" s="37"/>
       <c r="D31" s="40"/>
       <c r="E31" s="41"/>
-      <c r="F31" s="118" t="s">
+      <c r="F31" s="117" t="s">
         <v>266</v>
       </c>
-      <c r="G31" s="118"/>
-      <c r="H31" s="119">
+      <c r="G31" s="117"/>
+      <c r="H31" s="118">
         <f>SUM(H26:H30)</f>
         <v>0</v>
       </c>
       <c r="I31" s="43"/>
       <c r="J31" s="40"/>
       <c r="K31" s="41"/>
-      <c r="L31" s="118" t="s">
+      <c r="L31" s="117" t="s">
         <v>266</v>
       </c>
-      <c r="M31" s="118"/>
-      <c r="N31" s="119">
+      <c r="M31" s="117"/>
+      <c r="N31" s="118">
         <f>SUM(N26:N30)</f>
         <v>66022.06</v>
       </c>
       <c r="O31" s="31"/>
       <c r="P31" s="38"/>
     </row>
-    <row r="32" spans="3:37" s="125" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="126"/>
+    <row r="32" spans="3:37" s="124" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="125"/>
       <c r="D32" s="46"/>
       <c r="E32" s="46"/>
-      <c r="F32" s="130"/>
-      <c r="G32" s="130"/>
-      <c r="H32" s="131"/>
-      <c r="I32" s="130"/>
+      <c r="F32" s="129"/>
+      <c r="G32" s="129"/>
+      <c r="H32" s="130"/>
+      <c r="I32" s="129"/>
       <c r="J32" s="46"/>
       <c r="K32" s="46"/>
-      <c r="L32" s="130"/>
-      <c r="M32" s="130"/>
-      <c r="N32" s="131"/>
+      <c r="L32" s="129"/>
+      <c r="M32" s="129"/>
+      <c r="N32" s="130"/>
       <c r="O32" s="46"/>
-      <c r="P32" s="132"/>
+      <c r="P32" s="131"/>
     </row>
     <row r="33" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37"/>
@@ -16321,21 +16499,21 @@
     </row>
     <row r="34" spans="3:16" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C34" s="34"/>
-      <c r="D34" s="154" t="s">
+      <c r="D34" s="178" t="s">
         <v>203</v>
       </c>
-      <c r="E34" s="154"/>
-      <c r="F34" s="154"/>
-      <c r="G34" s="154"/>
-      <c r="H34" s="154"/>
-      <c r="I34" s="154"/>
-      <c r="J34" s="154"/>
-      <c r="K34" s="154"/>
-      <c r="L34" s="154"/>
-      <c r="M34" s="154"/>
-      <c r="N34" s="154"/>
-      <c r="O34" s="154"/>
-      <c r="P34" s="155"/>
+      <c r="E34" s="178"/>
+      <c r="F34" s="178"/>
+      <c r="G34" s="178"/>
+      <c r="H34" s="178"/>
+      <c r="I34" s="178"/>
+      <c r="J34" s="178"/>
+      <c r="K34" s="178"/>
+      <c r="L34" s="178"/>
+      <c r="M34" s="178"/>
+      <c r="N34" s="178"/>
+      <c r="O34" s="178"/>
+      <c r="P34" s="179"/>
     </row>
     <row r="35" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C35" s="37"/>
@@ -16378,19 +16556,19 @@
       <c r="H37" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="I37" s="156" t="s">
+      <c r="I37" s="180" t="s">
         <v>124</v>
       </c>
       <c r="J37" s="93" t="s">
         <v>276</v>
       </c>
-      <c r="K37" s="156" t="s">
+      <c r="K37" s="180" t="s">
         <v>126</v>
       </c>
       <c r="L37" s="93" t="s">
         <v>268</v>
       </c>
-      <c r="M37" s="156" t="s">
+      <c r="M37" s="180" t="s">
         <v>127</v>
       </c>
       <c r="N37" s="93" t="s">
@@ -16405,21 +16583,21 @@
       <c r="E38" s="31"/>
       <c r="F38" s="31"/>
       <c r="G38" s="54"/>
-      <c r="H38" s="105">
+      <c r="H38" s="104">
         <f>J38*N38</f>
         <v>26100</v>
       </c>
-      <c r="I38" s="156"/>
-      <c r="J38" s="103">
+      <c r="I38" s="180"/>
+      <c r="J38" s="102">
         <f>J11</f>
         <v>87000</v>
       </c>
-      <c r="K38" s="156"/>
-      <c r="L38" s="103">
+      <c r="K38" s="180"/>
+      <c r="L38" s="102">
         <f>H31</f>
         <v>0</v>
       </c>
-      <c r="M38" s="156"/>
+      <c r="M38" s="180"/>
       <c r="N38" s="49">
         <v>0.3</v>
       </c>
@@ -16499,13 +16677,13 @@
       <c r="H43" s="93" t="s">
         <v>199</v>
       </c>
-      <c r="I43" s="156" t="s">
+      <c r="I43" s="180" t="s">
         <v>124</v>
       </c>
       <c r="J43" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="K43" s="156" t="s">
+      <c r="K43" s="180" t="s">
         <v>129</v>
       </c>
       <c r="L43" s="93" t="s">
@@ -16522,16 +16700,16 @@
       <c r="E44" s="31"/>
       <c r="F44" s="31"/>
       <c r="G44" s="54"/>
-      <c r="H44" s="103">
+      <c r="H44" s="102">
         <f>MIN(J44,L44)</f>
         <v>0</v>
       </c>
-      <c r="I44" s="156"/>
-      <c r="J44" s="103">
+      <c r="I44" s="180"/>
+      <c r="J44" s="102">
         <f>H38</f>
         <v>26100</v>
       </c>
-      <c r="K44" s="156"/>
+      <c r="K44" s="180"/>
       <c r="L44" s="48">
         <v>0</v>
       </c>
@@ -16594,11 +16772,11 @@
       <c r="E48" s="31"/>
       <c r="F48" s="31"/>
       <c r="G48" s="31"/>
-      <c r="H48" s="139" t="s">
+      <c r="H48" s="171" t="s">
         <v>202</v>
       </c>
-      <c r="I48" s="140"/>
-      <c r="J48" s="141"/>
+      <c r="I48" s="172"/>
+      <c r="J48" s="173"/>
       <c r="K48" s="31"/>
       <c r="L48" s="31"/>
       <c r="M48" s="31"/>
@@ -16615,10 +16793,10 @@
       <c r="H49" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="I49" s="150" t="s">
+      <c r="I49" s="174" t="s">
         <v>201</v>
       </c>
-      <c r="J49" s="151"/>
+      <c r="J49" s="175"/>
       <c r="K49" s="31"/>
       <c r="L49" s="31"/>
       <c r="M49" s="31"/>
@@ -16635,11 +16813,11 @@
       <c r="H50" s="60">
         <v>1094</v>
       </c>
-      <c r="I50" s="152">
+      <c r="I50" s="176">
         <f>H38</f>
         <v>26100</v>
       </c>
-      <c r="J50" s="153"/>
+      <c r="J50" s="177"/>
       <c r="K50" s="31"/>
       <c r="L50" s="31"/>
       <c r="M50" s="31"/>
@@ -17179,7 +17357,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:52" x14ac:dyDescent="0.3">
-      <c r="P1" s="124" t="s">
+      <c r="P1" s="123" t="s">
         <v>221</v>
       </c>
       <c r="AC1" t="s">
@@ -17273,22 +17451,22 @@
       </c>
     </row>
     <row r="6" spans="3:52" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="133" t="s">
+      <c r="C6" s="159" t="s">
         <v>261</v>
       </c>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="134"/>
-      <c r="L6" s="134"/>
-      <c r="M6" s="134"/>
-      <c r="N6" s="134"/>
-      <c r="O6" s="134"/>
-      <c r="P6" s="135"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="160"/>
+      <c r="G6" s="160"/>
+      <c r="H6" s="160"/>
+      <c r="I6" s="160"/>
+      <c r="J6" s="160"/>
+      <c r="K6" s="160"/>
+      <c r="L6" s="160"/>
+      <c r="M6" s="160"/>
+      <c r="N6" s="160"/>
+      <c r="O6" s="160"/>
+      <c r="P6" s="161"/>
       <c r="AC6" t="s">
         <v>145</v>
       </c>
@@ -17301,21 +17479,21 @@
     </row>
     <row r="7" spans="3:52" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C7" s="37"/>
-      <c r="D7" s="136" t="s">
+      <c r="D7" s="162" t="s">
         <v>198</v>
       </c>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="136"/>
-      <c r="K7" s="136"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
-      <c r="O7" s="136"/>
-      <c r="P7" s="137"/>
+      <c r="E7" s="162"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="162"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="162"/>
+      <c r="J7" s="162"/>
+      <c r="K7" s="162"/>
+      <c r="L7" s="162"/>
+      <c r="M7" s="162"/>
+      <c r="N7" s="162"/>
+      <c r="O7" s="162"/>
+      <c r="P7" s="163"/>
       <c r="AC7" t="s">
         <v>146</v>
       </c>
@@ -17378,21 +17556,21 @@
     </row>
     <row r="10" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C10" s="37"/>
-      <c r="D10" s="138" t="s">
+      <c r="D10" s="164" t="s">
         <v>272</v>
       </c>
-      <c r="E10" s="138"/>
+      <c r="E10" s="164"/>
       <c r="F10" s="96"/>
       <c r="G10" s="96"/>
       <c r="H10" s="93" t="s">
         <v>220</v>
       </c>
       <c r="I10" s="31"/>
-      <c r="J10" s="145" t="s">
+      <c r="J10" s="165" t="s">
         <v>278</v>
       </c>
-      <c r="K10" s="145"/>
-      <c r="L10" s="145"/>
+      <c r="K10" s="165"/>
+      <c r="L10" s="165"/>
       <c r="M10" s="46"/>
       <c r="N10" s="93" t="s">
         <v>274</v>
@@ -17407,23 +17585,23 @@
     </row>
     <row r="11" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C11" s="37"/>
-      <c r="D11" s="146" t="s">
+      <c r="D11" s="166" t="s">
         <v>280</v>
       </c>
-      <c r="E11" s="147"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="177" t="s">
+      <c r="E11" s="167"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="134" t="s">
         <v>126</v>
       </c>
       <c r="I11" s="31"/>
-      <c r="J11" s="178">
+      <c r="J11" s="187">
         <v>87000</v>
       </c>
-      <c r="K11" s="179"/>
-      <c r="L11" s="180"/>
+      <c r="K11" s="188"/>
+      <c r="L11" s="189"/>
       <c r="M11" s="94"/>
-      <c r="N11" s="99">
+      <c r="N11" s="98">
         <v>600000</v>
       </c>
       <c r="O11" s="31"/>
@@ -17434,73 +17612,73 @@
     </row>
     <row r="12" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C12" s="37"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="127"/>
-      <c r="H12" s="185"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="139"/>
       <c r="I12" s="46"/>
-      <c r="J12" s="184"/>
-      <c r="K12" s="184"/>
-      <c r="L12" s="184"/>
+      <c r="J12" s="138"/>
+      <c r="K12" s="138"/>
+      <c r="L12" s="138"/>
       <c r="M12" s="94"/>
-      <c r="N12" s="129"/>
+      <c r="N12" s="128"/>
       <c r="O12" s="31"/>
       <c r="P12" s="64"/>
     </row>
     <row r="13" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C13" s="37"/>
-      <c r="D13" s="186" t="s">
+      <c r="D13" s="140" t="s">
         <v>281</v>
       </c>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="185"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="139"/>
       <c r="I13" s="46"/>
-      <c r="J13" s="184"/>
-      <c r="K13" s="184"/>
-      <c r="L13" s="184"/>
+      <c r="J13" s="138"/>
+      <c r="K13" s="138"/>
+      <c r="L13" s="138"/>
       <c r="M13" s="94"/>
-      <c r="N13" s="129"/>
+      <c r="N13" s="128"/>
       <c r="O13" s="31"/>
       <c r="P13" s="64"/>
     </row>
     <row r="14" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C14" s="37"/>
-      <c r="D14" s="187">
+      <c r="D14" s="141">
         <v>0.3</v>
       </c>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="127"/>
-      <c r="H14" s="185"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="139"/>
       <c r="I14" s="46"/>
-      <c r="J14" s="184"/>
-      <c r="K14" s="184"/>
-      <c r="L14" s="184"/>
+      <c r="J14" s="138"/>
+      <c r="K14" s="138"/>
+      <c r="L14" s="138"/>
       <c r="M14" s="94"/>
-      <c r="N14" s="129"/>
+      <c r="N14" s="128"/>
       <c r="O14" s="31"/>
       <c r="P14" s="64"/>
     </row>
     <row r="15" spans="3:52" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="37"/>
-      <c r="D15" s="138" t="s">
+      <c r="D15" s="164" t="s">
         <v>227</v>
       </c>
-      <c r="E15" s="138"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="138"/>
-      <c r="H15" s="138"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="164"/>
       <c r="I15" s="31"/>
       <c r="J15" s="31"/>
-      <c r="K15" s="138" t="s">
+      <c r="K15" s="164" t="s">
         <v>222</v>
       </c>
-      <c r="L15" s="138"/>
-      <c r="M15" s="138"/>
-      <c r="N15" s="138"/>
+      <c r="L15" s="164"/>
+      <c r="M15" s="164"/>
+      <c r="N15" s="164"/>
       <c r="O15" s="93"/>
       <c r="P15" s="38"/>
       <c r="AC15" t="s">
@@ -17509,17 +17687,17 @@
     </row>
     <row r="16" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C16" s="37"/>
-      <c r="D16" s="139"/>
-      <c r="E16" s="140"/>
-      <c r="F16" s="140"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="141"/>
+      <c r="D16" s="171"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="172"/>
+      <c r="G16" s="172"/>
+      <c r="H16" s="173"/>
       <c r="I16" s="31"/>
       <c r="J16" s="31"/>
-      <c r="K16" s="139"/>
-      <c r="L16" s="140"/>
-      <c r="M16" s="140"/>
-      <c r="N16" s="141"/>
+      <c r="K16" s="171"/>
+      <c r="L16" s="172"/>
+      <c r="M16" s="172"/>
+      <c r="N16" s="173"/>
       <c r="O16" s="93"/>
       <c r="P16" s="38"/>
       <c r="AC16" t="s">
@@ -17549,21 +17727,21 @@
     </row>
     <row r="18" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C18" s="37"/>
-      <c r="D18" s="138" t="s">
+      <c r="D18" s="164" t="s">
         <v>223</v>
       </c>
-      <c r="E18" s="138"/>
-      <c r="F18" s="138"/>
-      <c r="G18" s="138"/>
-      <c r="H18" s="138"/>
+      <c r="E18" s="164"/>
+      <c r="F18" s="164"/>
+      <c r="G18" s="164"/>
+      <c r="H18" s="164"/>
       <c r="I18" s="31"/>
       <c r="J18" s="31"/>
-      <c r="K18" s="138" t="s">
+      <c r="K18" s="164" t="s">
         <v>224</v>
       </c>
-      <c r="L18" s="138"/>
-      <c r="M18" s="138"/>
-      <c r="N18" s="138"/>
+      <c r="L18" s="164"/>
+      <c r="M18" s="164"/>
+      <c r="N18" s="164"/>
       <c r="O18" s="93"/>
       <c r="P18" s="38"/>
       <c r="AC18" t="s">
@@ -17574,17 +17752,17 @@
     </row>
     <row r="19" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C19" s="37"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="141"/>
+      <c r="D19" s="171"/>
+      <c r="E19" s="172"/>
+      <c r="F19" s="172"/>
+      <c r="G19" s="172"/>
+      <c r="H19" s="173"/>
       <c r="I19" s="31"/>
       <c r="J19" s="31"/>
-      <c r="K19" s="139"/>
-      <c r="L19" s="140"/>
-      <c r="M19" s="140"/>
-      <c r="N19" s="141"/>
+      <c r="K19" s="171"/>
+      <c r="L19" s="172"/>
+      <c r="M19" s="172"/>
+      <c r="N19" s="173"/>
       <c r="O19" s="93"/>
       <c r="P19" s="38"/>
       <c r="AC19" t="s">
@@ -17616,21 +17794,21 @@
     </row>
     <row r="21" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C21" s="37"/>
-      <c r="D21" s="138" t="s">
+      <c r="D21" s="164" t="s">
         <v>225</v>
       </c>
-      <c r="E21" s="138"/>
-      <c r="F21" s="138"/>
-      <c r="G21" s="138"/>
-      <c r="H21" s="138"/>
+      <c r="E21" s="164"/>
+      <c r="F21" s="164"/>
+      <c r="G21" s="164"/>
+      <c r="H21" s="164"/>
       <c r="I21" s="31"/>
       <c r="J21" s="31"/>
-      <c r="K21" s="138" t="s">
+      <c r="K21" s="164" t="s">
         <v>226</v>
       </c>
-      <c r="L21" s="138"/>
-      <c r="M21" s="138"/>
-      <c r="N21" s="138"/>
+      <c r="L21" s="164"/>
+      <c r="M21" s="164"/>
+      <c r="N21" s="164"/>
       <c r="O21" s="93"/>
       <c r="P21" s="38"/>
       <c r="AC21" t="s">
@@ -17641,17 +17819,17 @@
     </row>
     <row r="22" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C22" s="37"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="140"/>
-      <c r="F22" s="140"/>
-      <c r="G22" s="140"/>
-      <c r="H22" s="141"/>
+      <c r="D22" s="171"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="172"/>
+      <c r="G22" s="172"/>
+      <c r="H22" s="173"/>
       <c r="I22" s="31"/>
       <c r="J22" s="31"/>
-      <c r="K22" s="139"/>
-      <c r="L22" s="140"/>
-      <c r="M22" s="140"/>
-      <c r="N22" s="141"/>
+      <c r="K22" s="171"/>
+      <c r="L22" s="172"/>
+      <c r="M22" s="172"/>
+      <c r="N22" s="173"/>
       <c r="O22" s="93"/>
       <c r="P22" s="38"/>
       <c r="AC22" t="s">
@@ -17686,12 +17864,12 @@
       <c r="D24" s="31"/>
       <c r="E24" s="31"/>
       <c r="F24" s="31"/>
-      <c r="G24" s="181" t="s">
+      <c r="G24" s="135" t="s">
         <v>279</v>
       </c>
-      <c r="H24" s="182"/>
-      <c r="I24" s="182"/>
-      <c r="J24" s="183" t="e">
+      <c r="H24" s="136"/>
+      <c r="I24" s="136"/>
+      <c r="J24" s="137" t="e">
         <f>J11*H11</f>
         <v>#VALUE!</v>
       </c>
@@ -17756,33 +17934,33 @@
     </row>
     <row r="28" spans="3:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37"/>
-      <c r="D28" s="120" t="s">
+      <c r="D28" s="119" t="s">
         <v>264</v>
       </c>
-      <c r="E28" s="121"/>
-      <c r="F28" s="121"/>
-      <c r="G28" s="121"/>
-      <c r="H28" s="122"/>
+      <c r="E28" s="120"/>
+      <c r="F28" s="120"/>
+      <c r="G28" s="120"/>
+      <c r="H28" s="121"/>
       <c r="I28" s="31"/>
-      <c r="J28" s="120" t="s">
+      <c r="J28" s="119" t="s">
         <v>265</v>
       </c>
-      <c r="K28" s="121"/>
-      <c r="L28" s="121"/>
-      <c r="M28" s="121"/>
-      <c r="N28" s="122"/>
+      <c r="K28" s="120"/>
+      <c r="L28" s="120"/>
+      <c r="M28" s="120"/>
+      <c r="N28" s="121"/>
       <c r="O28" s="31"/>
       <c r="P28" s="38"/>
     </row>
     <row r="29" spans="3:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37"/>
-      <c r="D29" s="114"/>
+      <c r="D29" s="113"/>
       <c r="E29" s="31"/>
       <c r="F29" s="31"/>
       <c r="G29" s="31"/>
-      <c r="H29" s="109"/>
+      <c r="H29" s="108"/>
       <c r="I29" s="31"/>
-      <c r="J29" s="114">
+      <c r="J29" s="113">
         <v>1470</v>
       </c>
       <c r="K29" s="31" t="s">
@@ -17790,7 +17968,7 @@
       </c>
       <c r="L29" s="31"/>
       <c r="M29" s="31"/>
-      <c r="N29" s="109">
+      <c r="N29" s="108">
         <v>31604.43</v>
       </c>
       <c r="O29" s="31"/>
@@ -17802,9 +17980,9 @@
       <c r="E30" s="31"/>
       <c r="F30" s="31"/>
       <c r="G30" s="31"/>
-      <c r="H30" s="109"/>
+      <c r="H30" s="108"/>
       <c r="I30" s="31"/>
-      <c r="J30" s="114">
+      <c r="J30" s="113">
         <v>3000</v>
       </c>
       <c r="K30" s="31" t="s">
@@ -17812,7 +17990,7 @@
       </c>
       <c r="L30" s="31"/>
       <c r="M30" s="31"/>
-      <c r="N30" s="109">
+      <c r="N30" s="108">
         <v>34417.629999999997</v>
       </c>
       <c r="O30" s="31"/>
@@ -17824,13 +18002,13 @@
       <c r="E31" s="31"/>
       <c r="F31" s="31"/>
       <c r="G31" s="31"/>
-      <c r="H31" s="109"/>
+      <c r="H31" s="108"/>
       <c r="I31" s="31"/>
       <c r="J31" s="37"/>
       <c r="K31" s="31"/>
       <c r="L31" s="31"/>
       <c r="M31" s="31"/>
-      <c r="N31" s="109"/>
+      <c r="N31" s="108"/>
       <c r="O31" s="31"/>
       <c r="P31" s="38"/>
     </row>
@@ -17840,13 +18018,13 @@
       <c r="E32" s="31"/>
       <c r="F32" s="31"/>
       <c r="G32" s="31"/>
-      <c r="H32" s="109"/>
+      <c r="H32" s="108"/>
       <c r="I32" s="31"/>
       <c r="J32" s="37"/>
       <c r="K32" s="31"/>
       <c r="L32" s="31"/>
       <c r="M32" s="31"/>
-      <c r="N32" s="109"/>
+      <c r="N32" s="108"/>
       <c r="O32" s="31"/>
       <c r="P32" s="38"/>
     </row>
@@ -17856,13 +18034,13 @@
       <c r="E33" s="31"/>
       <c r="F33" s="31"/>
       <c r="G33" s="31"/>
-      <c r="H33" s="109"/>
+      <c r="H33" s="108"/>
       <c r="I33" s="31"/>
       <c r="J33" s="37"/>
       <c r="K33" s="31"/>
       <c r="L33" s="31"/>
       <c r="M33" s="31"/>
-      <c r="N33" s="109"/>
+      <c r="N33" s="108"/>
       <c r="O33" s="31"/>
       <c r="P33" s="38"/>
     </row>
@@ -17870,43 +18048,43 @@
       <c r="C34" s="37"/>
       <c r="D34" s="40"/>
       <c r="E34" s="41"/>
-      <c r="F34" s="118" t="s">
+      <c r="F34" s="117" t="s">
         <v>266</v>
       </c>
-      <c r="G34" s="118"/>
-      <c r="H34" s="119">
+      <c r="G34" s="117"/>
+      <c r="H34" s="118">
         <f>SUM(H29:H33)</f>
         <v>0</v>
       </c>
       <c r="I34" s="43"/>
       <c r="J34" s="40"/>
       <c r="K34" s="41"/>
-      <c r="L34" s="118" t="s">
+      <c r="L34" s="117" t="s">
         <v>266</v>
       </c>
-      <c r="M34" s="118"/>
-      <c r="N34" s="119">
+      <c r="M34" s="117"/>
+      <c r="N34" s="118">
         <f>SUM(N29:N33)</f>
         <v>66022.06</v>
       </c>
       <c r="O34" s="31"/>
       <c r="P34" s="38"/>
     </row>
-    <row r="35" spans="3:16" s="125" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="126"/>
+    <row r="35" spans="3:16" s="124" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="125"/>
       <c r="D35" s="46"/>
       <c r="E35" s="46"/>
-      <c r="F35" s="130"/>
-      <c r="G35" s="130"/>
-      <c r="H35" s="131"/>
-      <c r="I35" s="130"/>
+      <c r="F35" s="129"/>
+      <c r="G35" s="129"/>
+      <c r="H35" s="130"/>
+      <c r="I35" s="129"/>
       <c r="J35" s="46"/>
       <c r="K35" s="46"/>
-      <c r="L35" s="130"/>
-      <c r="M35" s="130"/>
-      <c r="N35" s="131"/>
+      <c r="L35" s="129"/>
+      <c r="M35" s="129"/>
+      <c r="N35" s="130"/>
       <c r="O35" s="46"/>
-      <c r="P35" s="132"/>
+      <c r="P35" s="131"/>
     </row>
     <row r="36" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37"/>
@@ -17926,21 +18104,21 @@
     </row>
     <row r="37" spans="3:16" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C37" s="34"/>
-      <c r="D37" s="154" t="s">
+      <c r="D37" s="178" t="s">
         <v>203</v>
       </c>
-      <c r="E37" s="154"/>
-      <c r="F37" s="154"/>
-      <c r="G37" s="154"/>
-      <c r="H37" s="154"/>
-      <c r="I37" s="154"/>
-      <c r="J37" s="154"/>
-      <c r="K37" s="154"/>
-      <c r="L37" s="154"/>
-      <c r="M37" s="154"/>
-      <c r="N37" s="154"/>
-      <c r="O37" s="154"/>
-      <c r="P37" s="155"/>
+      <c r="E37" s="178"/>
+      <c r="F37" s="178"/>
+      <c r="G37" s="178"/>
+      <c r="H37" s="178"/>
+      <c r="I37" s="178"/>
+      <c r="J37" s="178"/>
+      <c r="K37" s="178"/>
+      <c r="L37" s="178"/>
+      <c r="M37" s="178"/>
+      <c r="N37" s="178"/>
+      <c r="O37" s="178"/>
+      <c r="P37" s="179"/>
     </row>
     <row r="38" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C38" s="37"/>
@@ -17983,19 +18161,19 @@
       <c r="H40" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="I40" s="156" t="s">
+      <c r="I40" s="180" t="s">
         <v>124</v>
       </c>
       <c r="J40" s="93" t="s">
         <v>276</v>
       </c>
-      <c r="K40" s="156" t="s">
+      <c r="K40" s="180" t="s">
         <v>126</v>
       </c>
       <c r="L40" s="93" t="s">
         <v>268</v>
       </c>
-      <c r="M40" s="156" t="s">
+      <c r="M40" s="180" t="s">
         <v>127</v>
       </c>
       <c r="N40" s="93" t="s">
@@ -18010,21 +18188,21 @@
       <c r="E41" s="31"/>
       <c r="F41" s="31"/>
       <c r="G41" s="54"/>
-      <c r="H41" s="105">
+      <c r="H41" s="104">
         <f>J41*N41</f>
         <v>26100</v>
       </c>
-      <c r="I41" s="156"/>
-      <c r="J41" s="103">
+      <c r="I41" s="180"/>
+      <c r="J41" s="102">
         <f>J11</f>
         <v>87000</v>
       </c>
-      <c r="K41" s="156"/>
-      <c r="L41" s="103">
+      <c r="K41" s="180"/>
+      <c r="L41" s="102">
         <f>H34</f>
         <v>0</v>
       </c>
-      <c r="M41" s="156"/>
+      <c r="M41" s="180"/>
       <c r="N41" s="49">
         <v>0.3</v>
       </c>
@@ -18104,13 +18282,13 @@
       <c r="H46" s="93" t="s">
         <v>199</v>
       </c>
-      <c r="I46" s="156" t="s">
+      <c r="I46" s="180" t="s">
         <v>124</v>
       </c>
       <c r="J46" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="K46" s="156" t="s">
+      <c r="K46" s="180" t="s">
         <v>129</v>
       </c>
       <c r="L46" s="93" t="s">
@@ -18127,16 +18305,16 @@
       <c r="E47" s="31"/>
       <c r="F47" s="31"/>
       <c r="G47" s="54"/>
-      <c r="H47" s="103">
+      <c r="H47" s="102">
         <f>MIN(J47,L47)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="156"/>
-      <c r="J47" s="103">
+      <c r="I47" s="180"/>
+      <c r="J47" s="102">
         <f>H41</f>
         <v>26100</v>
       </c>
-      <c r="K47" s="156"/>
+      <c r="K47" s="180"/>
       <c r="L47" s="48">
         <v>0</v>
       </c>
@@ -18199,11 +18377,11 @@
       <c r="E51" s="31"/>
       <c r="F51" s="31"/>
       <c r="G51" s="31"/>
-      <c r="H51" s="139" t="s">
+      <c r="H51" s="171" t="s">
         <v>202</v>
       </c>
-      <c r="I51" s="140"/>
-      <c r="J51" s="141"/>
+      <c r="I51" s="172"/>
+      <c r="J51" s="173"/>
       <c r="K51" s="31"/>
       <c r="L51" s="31"/>
       <c r="M51" s="31"/>
@@ -18220,10 +18398,10 @@
       <c r="H52" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="I52" s="150" t="s">
+      <c r="I52" s="174" t="s">
         <v>201</v>
       </c>
-      <c r="J52" s="151"/>
+      <c r="J52" s="175"/>
       <c r="K52" s="31"/>
       <c r="L52" s="31"/>
       <c r="M52" s="31"/>
@@ -18240,11 +18418,11 @@
       <c r="H53" s="60">
         <v>1094</v>
       </c>
-      <c r="I53" s="152">
+      <c r="I53" s="176">
         <f>H41</f>
         <v>26100</v>
       </c>
-      <c r="J53" s="153"/>
+      <c r="J53" s="177"/>
       <c r="K53" s="31"/>
       <c r="L53" s="31"/>
       <c r="M53" s="31"/>
@@ -18783,7 +18961,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:52" x14ac:dyDescent="0.3">
-      <c r="P1" s="124" t="s">
+      <c r="P1" s="123" t="s">
         <v>221</v>
       </c>
       <c r="AC1" t="s">
@@ -18877,22 +19055,22 @@
       </c>
     </row>
     <row r="6" spans="3:52" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="133" t="s">
+      <c r="C6" s="159" t="s">
         <v>261</v>
       </c>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="134"/>
-      <c r="L6" s="134"/>
-      <c r="M6" s="134"/>
-      <c r="N6" s="134"/>
-      <c r="O6" s="134"/>
-      <c r="P6" s="135"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="160"/>
+      <c r="G6" s="160"/>
+      <c r="H6" s="160"/>
+      <c r="I6" s="160"/>
+      <c r="J6" s="160"/>
+      <c r="K6" s="160"/>
+      <c r="L6" s="160"/>
+      <c r="M6" s="160"/>
+      <c r="N6" s="160"/>
+      <c r="O6" s="160"/>
+      <c r="P6" s="161"/>
       <c r="AC6" t="s">
         <v>145</v>
       </c>
@@ -18905,21 +19083,21 @@
     </row>
     <row r="7" spans="3:52" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C7" s="37"/>
-      <c r="D7" s="136" t="s">
+      <c r="D7" s="162" t="s">
         <v>198</v>
       </c>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="136"/>
-      <c r="K7" s="136"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
-      <c r="O7" s="136"/>
-      <c r="P7" s="137"/>
+      <c r="E7" s="162"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="162"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="162"/>
+      <c r="J7" s="162"/>
+      <c r="K7" s="162"/>
+      <c r="L7" s="162"/>
+      <c r="M7" s="162"/>
+      <c r="N7" s="162"/>
+      <c r="O7" s="162"/>
+      <c r="P7" s="163"/>
       <c r="AC7" t="s">
         <v>146</v>
       </c>
@@ -18982,21 +19160,21 @@
     </row>
     <row r="10" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C10" s="37"/>
-      <c r="D10" s="138" t="s">
+      <c r="D10" s="164" t="s">
         <v>191</v>
       </c>
-      <c r="E10" s="138"/>
+      <c r="E10" s="164"/>
       <c r="F10" s="96"/>
       <c r="G10" s="96"/>
       <c r="H10" s="91" t="s">
         <v>220</v>
       </c>
       <c r="I10" s="31"/>
-      <c r="J10" s="145" t="s">
+      <c r="J10" s="165" t="s">
         <v>228</v>
       </c>
-      <c r="K10" s="145"/>
-      <c r="L10" s="145"/>
+      <c r="K10" s="165"/>
+      <c r="L10" s="165"/>
       <c r="M10" s="46"/>
       <c r="N10" s="91" t="s">
         <v>192</v>
@@ -19011,21 +19189,21 @@
     </row>
     <row r="11" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C11" s="37"/>
-      <c r="D11" s="146" t="s">
+      <c r="D11" s="166" t="s">
         <v>186</v>
       </c>
-      <c r="E11" s="147"/>
+      <c r="E11" s="167"/>
       <c r="F11" s="50"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="100">
+      <c r="G11" s="122"/>
+      <c r="H11" s="99">
         <v>20</v>
       </c>
       <c r="I11" s="31"/>
-      <c r="J11" s="142"/>
-      <c r="K11" s="143"/>
-      <c r="L11" s="144"/>
+      <c r="J11" s="168"/>
+      <c r="K11" s="169"/>
+      <c r="L11" s="170"/>
       <c r="M11" s="92"/>
-      <c r="N11" s="99">
+      <c r="N11" s="98">
         <v>632088.51</v>
       </c>
       <c r="O11" s="31"/>
@@ -19034,19 +19212,19 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="3:52" s="125" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="126"/>
+    <row r="12" spans="3:52" s="124" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="125"/>
       <c r="D12" s="50"/>
       <c r="E12" s="50"/>
       <c r="F12" s="50"/>
-      <c r="G12" s="127"/>
-      <c r="H12" s="128"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="127"/>
       <c r="I12" s="46"/>
       <c r="J12" s="92"/>
       <c r="K12" s="92"/>
       <c r="L12" s="92"/>
       <c r="M12" s="92"/>
-      <c r="N12" s="129"/>
+      <c r="N12" s="128"/>
       <c r="O12" s="46"/>
       <c r="P12" s="64"/>
     </row>
@@ -19076,15 +19254,15 @@
     </row>
     <row r="14" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C14" s="37"/>
-      <c r="D14" s="148">
+      <c r="D14" s="190">
         <v>87987</v>
       </c>
-      <c r="E14" s="149"/>
+      <c r="E14" s="191"/>
       <c r="F14" s="50"/>
       <c r="G14" s="31"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="116">
+      <c r="H14" s="116"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="115">
         <v>0</v>
       </c>
       <c r="K14" s="92"/>
@@ -19115,21 +19293,21 @@
     </row>
     <row r="16" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C16" s="37"/>
-      <c r="D16" s="138" t="s">
+      <c r="D16" s="164" t="s">
         <v>227</v>
       </c>
-      <c r="E16" s="138"/>
-      <c r="F16" s="138"/>
-      <c r="G16" s="138"/>
-      <c r="H16" s="138"/>
+      <c r="E16" s="164"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="164"/>
       <c r="I16" s="31"/>
       <c r="J16" s="31"/>
-      <c r="K16" s="138" t="s">
+      <c r="K16" s="164" t="s">
         <v>222</v>
       </c>
-      <c r="L16" s="138"/>
-      <c r="M16" s="138"/>
-      <c r="N16" s="138"/>
+      <c r="L16" s="164"/>
+      <c r="M16" s="164"/>
+      <c r="N16" s="164"/>
       <c r="O16" s="91"/>
       <c r="P16" s="38"/>
       <c r="AC16" t="s">
@@ -19138,17 +19316,17 @@
     </row>
     <row r="17" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C17" s="37"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="141"/>
+      <c r="D17" s="171"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="172"/>
+      <c r="G17" s="172"/>
+      <c r="H17" s="173"/>
       <c r="I17" s="31"/>
       <c r="J17" s="31"/>
-      <c r="K17" s="139"/>
-      <c r="L17" s="140"/>
-      <c r="M17" s="140"/>
-      <c r="N17" s="141"/>
+      <c r="K17" s="171"/>
+      <c r="L17" s="172"/>
+      <c r="M17" s="172"/>
+      <c r="N17" s="173"/>
       <c r="O17" s="91"/>
       <c r="P17" s="38"/>
       <c r="AC17" t="s">
@@ -19178,21 +19356,21 @@
     </row>
     <row r="19" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C19" s="37"/>
-      <c r="D19" s="138" t="s">
+      <c r="D19" s="164" t="s">
         <v>223</v>
       </c>
-      <c r="E19" s="138"/>
-      <c r="F19" s="138"/>
-      <c r="G19" s="138"/>
-      <c r="H19" s="138"/>
+      <c r="E19" s="164"/>
+      <c r="F19" s="164"/>
+      <c r="G19" s="164"/>
+      <c r="H19" s="164"/>
       <c r="I19" s="31"/>
       <c r="J19" s="31"/>
-      <c r="K19" s="138" t="s">
+      <c r="K19" s="164" t="s">
         <v>224</v>
       </c>
-      <c r="L19" s="138"/>
-      <c r="M19" s="138"/>
-      <c r="N19" s="138"/>
+      <c r="L19" s="164"/>
+      <c r="M19" s="164"/>
+      <c r="N19" s="164"/>
       <c r="O19" s="91"/>
       <c r="P19" s="38"/>
       <c r="AC19" t="s">
@@ -19203,17 +19381,17 @@
     </row>
     <row r="20" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C20" s="37"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="140"/>
-      <c r="F20" s="140"/>
-      <c r="G20" s="140"/>
-      <c r="H20" s="141"/>
+      <c r="D20" s="171"/>
+      <c r="E20" s="172"/>
+      <c r="F20" s="172"/>
+      <c r="G20" s="172"/>
+      <c r="H20" s="173"/>
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
-      <c r="K20" s="139"/>
-      <c r="L20" s="140"/>
-      <c r="M20" s="140"/>
-      <c r="N20" s="141"/>
+      <c r="K20" s="171"/>
+      <c r="L20" s="172"/>
+      <c r="M20" s="172"/>
+      <c r="N20" s="173"/>
       <c r="O20" s="91"/>
       <c r="P20" s="38"/>
       <c r="AC20" t="s">
@@ -19245,21 +19423,21 @@
     </row>
     <row r="22" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C22" s="37"/>
-      <c r="D22" s="138" t="s">
+      <c r="D22" s="164" t="s">
         <v>225</v>
       </c>
-      <c r="E22" s="138"/>
-      <c r="F22" s="138"/>
-      <c r="G22" s="138"/>
-      <c r="H22" s="138"/>
+      <c r="E22" s="164"/>
+      <c r="F22" s="164"/>
+      <c r="G22" s="164"/>
+      <c r="H22" s="164"/>
       <c r="I22" s="31"/>
       <c r="J22" s="31"/>
-      <c r="K22" s="138" t="s">
+      <c r="K22" s="164" t="s">
         <v>226</v>
       </c>
-      <c r="L22" s="138"/>
-      <c r="M22" s="138"/>
-      <c r="N22" s="138"/>
+      <c r="L22" s="164"/>
+      <c r="M22" s="164"/>
+      <c r="N22" s="164"/>
       <c r="O22" s="91"/>
       <c r="P22" s="38"/>
       <c r="AC22" t="s">
@@ -19270,17 +19448,17 @@
     </row>
     <row r="23" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C23" s="37"/>
-      <c r="D23" s="139"/>
-      <c r="E23" s="140"/>
-      <c r="F23" s="140"/>
-      <c r="G23" s="140"/>
-      <c r="H23" s="141"/>
+      <c r="D23" s="171"/>
+      <c r="E23" s="172"/>
+      <c r="F23" s="172"/>
+      <c r="G23" s="172"/>
+      <c r="H23" s="173"/>
       <c r="I23" s="31"/>
       <c r="J23" s="31"/>
-      <c r="K23" s="139"/>
-      <c r="L23" s="140"/>
-      <c r="M23" s="140"/>
-      <c r="N23" s="141"/>
+      <c r="K23" s="171"/>
+      <c r="L23" s="172"/>
+      <c r="M23" s="172"/>
+      <c r="N23" s="173"/>
       <c r="O23" s="91"/>
       <c r="P23" s="38"/>
       <c r="AC23" t="s">
@@ -19380,27 +19558,27 @@
     </row>
     <row r="29" spans="3:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37"/>
-      <c r="D29" s="120" t="s">
+      <c r="D29" s="119" t="s">
         <v>264</v>
       </c>
-      <c r="E29" s="121"/>
-      <c r="F29" s="121"/>
-      <c r="G29" s="121"/>
-      <c r="H29" s="122"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="120"/>
+      <c r="G29" s="120"/>
+      <c r="H29" s="121"/>
       <c r="I29" s="31"/>
-      <c r="J29" s="120" t="s">
+      <c r="J29" s="119" t="s">
         <v>265</v>
       </c>
-      <c r="K29" s="121"/>
-      <c r="L29" s="121"/>
-      <c r="M29" s="121"/>
-      <c r="N29" s="122"/>
+      <c r="K29" s="120"/>
+      <c r="L29" s="120"/>
+      <c r="M29" s="120"/>
+      <c r="N29" s="121"/>
       <c r="O29" s="31"/>
       <c r="P29" s="38"/>
     </row>
     <row r="30" spans="3:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37"/>
-      <c r="D30" s="114">
+      <c r="D30" s="113">
         <v>9002</v>
       </c>
       <c r="E30" s="31" t="s">
@@ -19408,11 +19586,11 @@
       </c>
       <c r="F30" s="31"/>
       <c r="G30" s="31"/>
-      <c r="H30" s="109">
+      <c r="H30" s="108">
         <v>632088.51</v>
       </c>
       <c r="I30" s="31"/>
-      <c r="J30" s="114">
+      <c r="J30" s="113">
         <v>1470</v>
       </c>
       <c r="K30" s="31" t="s">
@@ -19420,7 +19598,7 @@
       </c>
       <c r="L30" s="31"/>
       <c r="M30" s="31"/>
-      <c r="N30" s="109">
+      <c r="N30" s="108">
         <v>31604.43</v>
       </c>
       <c r="O30" s="31"/>
@@ -19432,9 +19610,9 @@
       <c r="E31" s="31"/>
       <c r="F31" s="31"/>
       <c r="G31" s="31"/>
-      <c r="H31" s="109"/>
+      <c r="H31" s="108"/>
       <c r="I31" s="31"/>
-      <c r="J31" s="114">
+      <c r="J31" s="113">
         <v>3000</v>
       </c>
       <c r="K31" s="31" t="s">
@@ -19442,7 +19620,7 @@
       </c>
       <c r="L31" s="31"/>
       <c r="M31" s="31"/>
-      <c r="N31" s="109">
+      <c r="N31" s="108">
         <v>34417.629999999997</v>
       </c>
       <c r="O31" s="31"/>
@@ -19454,13 +19632,13 @@
       <c r="E32" s="31"/>
       <c r="F32" s="31"/>
       <c r="G32" s="31"/>
-      <c r="H32" s="109"/>
+      <c r="H32" s="108"/>
       <c r="I32" s="31"/>
       <c r="J32" s="37"/>
       <c r="K32" s="31"/>
       <c r="L32" s="31"/>
       <c r="M32" s="31"/>
-      <c r="N32" s="109"/>
+      <c r="N32" s="108"/>
       <c r="O32" s="31"/>
       <c r="P32" s="38"/>
     </row>
@@ -19470,13 +19648,13 @@
       <c r="E33" s="31"/>
       <c r="F33" s="31"/>
       <c r="G33" s="31"/>
-      <c r="H33" s="109"/>
+      <c r="H33" s="108"/>
       <c r="I33" s="31"/>
       <c r="J33" s="37"/>
       <c r="K33" s="31"/>
       <c r="L33" s="31"/>
       <c r="M33" s="31"/>
-      <c r="N33" s="109"/>
+      <c r="N33" s="108"/>
       <c r="O33" s="31"/>
       <c r="P33" s="38"/>
     </row>
@@ -19486,13 +19664,13 @@
       <c r="E34" s="31"/>
       <c r="F34" s="31"/>
       <c r="G34" s="31"/>
-      <c r="H34" s="109"/>
+      <c r="H34" s="108"/>
       <c r="I34" s="31"/>
       <c r="J34" s="37"/>
       <c r="K34" s="31"/>
       <c r="L34" s="31"/>
       <c r="M34" s="31"/>
-      <c r="N34" s="109"/>
+      <c r="N34" s="108"/>
       <c r="O34" s="31"/>
       <c r="P34" s="38"/>
     </row>
@@ -19500,43 +19678,43 @@
       <c r="C35" s="37"/>
       <c r="D35" s="40"/>
       <c r="E35" s="41"/>
-      <c r="F35" s="118" t="s">
+      <c r="F35" s="117" t="s">
         <v>266</v>
       </c>
-      <c r="G35" s="118"/>
-      <c r="H35" s="119">
+      <c r="G35" s="117"/>
+      <c r="H35" s="118">
         <f>SUM(H30:H34)</f>
         <v>632088.51</v>
       </c>
       <c r="I35" s="43"/>
       <c r="J35" s="40"/>
       <c r="K35" s="41"/>
-      <c r="L35" s="118" t="s">
+      <c r="L35" s="117" t="s">
         <v>266</v>
       </c>
-      <c r="M35" s="118"/>
-      <c r="N35" s="119">
+      <c r="M35" s="117"/>
+      <c r="N35" s="118">
         <f>SUM(N30:N34)</f>
         <v>66022.06</v>
       </c>
       <c r="O35" s="31"/>
       <c r="P35" s="38"/>
     </row>
-    <row r="36" spans="3:16" s="125" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="126"/>
+    <row r="36" spans="3:16" s="124" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="125"/>
       <c r="D36" s="46"/>
       <c r="E36" s="46"/>
-      <c r="F36" s="130"/>
-      <c r="G36" s="130"/>
-      <c r="H36" s="131"/>
-      <c r="I36" s="130"/>
+      <c r="F36" s="129"/>
+      <c r="G36" s="129"/>
+      <c r="H36" s="130"/>
+      <c r="I36" s="129"/>
       <c r="J36" s="46"/>
       <c r="K36" s="46"/>
-      <c r="L36" s="130"/>
-      <c r="M36" s="130"/>
-      <c r="N36" s="131"/>
+      <c r="L36" s="129"/>
+      <c r="M36" s="129"/>
+      <c r="N36" s="130"/>
       <c r="O36" s="46"/>
-      <c r="P36" s="132"/>
+      <c r="P36" s="131"/>
     </row>
     <row r="37" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37"/>
@@ -19556,21 +19734,21 @@
     </row>
     <row r="38" spans="3:16" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C38" s="34"/>
-      <c r="D38" s="154" t="s">
+      <c r="D38" s="178" t="s">
         <v>203</v>
       </c>
-      <c r="E38" s="154"/>
-      <c r="F38" s="154"/>
-      <c r="G38" s="154"/>
-      <c r="H38" s="154"/>
-      <c r="I38" s="154"/>
-      <c r="J38" s="154"/>
-      <c r="K38" s="154"/>
-      <c r="L38" s="154"/>
-      <c r="M38" s="154"/>
-      <c r="N38" s="154"/>
-      <c r="O38" s="154"/>
-      <c r="P38" s="155"/>
+      <c r="E38" s="178"/>
+      <c r="F38" s="178"/>
+      <c r="G38" s="178"/>
+      <c r="H38" s="178"/>
+      <c r="I38" s="178"/>
+      <c r="J38" s="178"/>
+      <c r="K38" s="178"/>
+      <c r="L38" s="178"/>
+      <c r="M38" s="178"/>
+      <c r="N38" s="178"/>
+      <c r="O38" s="178"/>
+      <c r="P38" s="179"/>
     </row>
     <row r="39" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C39" s="37"/>
@@ -19613,19 +19791,19 @@
       <c r="H41" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="I41" s="156" t="s">
+      <c r="I41" s="180" t="s">
         <v>124</v>
       </c>
       <c r="J41" s="91" t="s">
         <v>267</v>
       </c>
-      <c r="K41" s="156" t="s">
+      <c r="K41" s="180" t="s">
         <v>126</v>
       </c>
       <c r="L41" s="91" t="s">
         <v>268</v>
       </c>
-      <c r="M41" s="156" t="s">
+      <c r="M41" s="180" t="s">
         <v>127</v>
       </c>
       <c r="N41" s="91" t="s">
@@ -19640,21 +19818,21 @@
       <c r="E42" s="31"/>
       <c r="F42" s="31"/>
       <c r="G42" s="54"/>
-      <c r="H42" s="105">
+      <c r="H42" s="104">
         <f>(L42-J42)*N42</f>
         <v>113213.29</v>
       </c>
-      <c r="I42" s="156"/>
-      <c r="J42" s="103">
+      <c r="I42" s="180"/>
+      <c r="J42" s="102">
         <f>N35</f>
         <v>66022.06</v>
       </c>
-      <c r="K42" s="156"/>
-      <c r="L42" s="103">
+      <c r="K42" s="180"/>
+      <c r="L42" s="102">
         <f>H35</f>
         <v>632088.51</v>
       </c>
-      <c r="M42" s="156"/>
+      <c r="M42" s="180"/>
       <c r="N42" s="49">
         <v>0.2</v>
       </c>
@@ -19734,13 +19912,13 @@
       <c r="H47" s="91" t="s">
         <v>199</v>
       </c>
-      <c r="I47" s="156" t="s">
+      <c r="I47" s="180" t="s">
         <v>124</v>
       </c>
       <c r="J47" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="K47" s="156" t="s">
+      <c r="K47" s="180" t="s">
         <v>129</v>
       </c>
       <c r="L47" s="91" t="s">
@@ -19757,16 +19935,16 @@
       <c r="E48" s="31"/>
       <c r="F48" s="31"/>
       <c r="G48" s="54"/>
-      <c r="H48" s="103">
+      <c r="H48" s="102">
         <f>MIN(J48,L48)</f>
         <v>0</v>
       </c>
-      <c r="I48" s="156"/>
-      <c r="J48" s="103">
+      <c r="I48" s="180"/>
+      <c r="J48" s="102">
         <f>H42</f>
         <v>113213.29</v>
       </c>
-      <c r="K48" s="156"/>
+      <c r="K48" s="180"/>
       <c r="L48" s="48">
         <v>0</v>
       </c>
@@ -19829,11 +20007,11 @@
       <c r="E52" s="31"/>
       <c r="F52" s="31"/>
       <c r="G52" s="31"/>
-      <c r="H52" s="139" t="s">
+      <c r="H52" s="171" t="s">
         <v>202</v>
       </c>
-      <c r="I52" s="140"/>
-      <c r="J52" s="141"/>
+      <c r="I52" s="172"/>
+      <c r="J52" s="173"/>
       <c r="K52" s="31"/>
       <c r="L52" s="31"/>
       <c r="M52" s="31"/>
@@ -19850,10 +20028,10 @@
       <c r="H53" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="I53" s="150" t="s">
+      <c r="I53" s="174" t="s">
         <v>201</v>
       </c>
-      <c r="J53" s="151"/>
+      <c r="J53" s="175"/>
       <c r="K53" s="31"/>
       <c r="L53" s="31"/>
       <c r="M53" s="31"/>
@@ -19870,8 +20048,8 @@
       <c r="H54" s="60">
         <v>1094</v>
       </c>
-      <c r="I54" s="152"/>
-      <c r="J54" s="153"/>
+      <c r="I54" s="176"/>
+      <c r="J54" s="177"/>
       <c r="K54" s="31"/>
       <c r="L54" s="31"/>
       <c r="M54" s="31"/>
@@ -20390,8 +20568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="D11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20419,20 +20597,20 @@
       <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C3" s="157" t="s">
+      <c r="C3" s="192" t="s">
         <v>214</v>
       </c>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="I3" s="158" t="s">
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="I3" s="193" t="s">
         <v>215</v>
       </c>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
-      <c r="L3" s="158"/>
-      <c r="M3" s="158"/>
-      <c r="N3" s="158"/>
+      <c r="J3" s="193"/>
+      <c r="K3" s="193"/>
+      <c r="L3" s="193"/>
+      <c r="M3" s="193"/>
+      <c r="N3" s="193"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C4" s="70" t="s">
@@ -21107,20 +21285,20 @@
       <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C3" s="157" t="s">
+      <c r="C3" s="192" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="I3" s="158" t="s">
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="I3" s="193" t="s">
         <v>98</v>
       </c>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
-      <c r="L3" s="158"/>
-      <c r="M3" s="158"/>
-      <c r="N3" s="158"/>
+      <c r="J3" s="193"/>
+      <c r="K3" s="193"/>
+      <c r="L3" s="193"/>
+      <c r="M3" s="193"/>
+      <c r="N3" s="193"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C4" s="16" t="s">
@@ -21731,8 +21909,8 @@
       </c>
     </row>
     <row r="2" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="R2" s="161"/>
-      <c r="S2" s="161"/>
+      <c r="R2" s="196"/>
+      <c r="S2" s="196"/>
       <c r="AB2" t="s">
         <v>233</v>
       </c>
@@ -21766,43 +21944,43 @@
       </c>
     </row>
     <row r="6" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C6" s="162"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="163"/>
-      <c r="I6" s="163"/>
-      <c r="J6" s="163"/>
-      <c r="K6" s="163"/>
-      <c r="L6" s="163"/>
-      <c r="M6" s="163"/>
-      <c r="N6" s="163"/>
-      <c r="O6" s="163"/>
-      <c r="P6" s="163"/>
-      <c r="Q6" s="164"/>
+      <c r="C6" s="197"/>
+      <c r="D6" s="198"/>
+      <c r="E6" s="198"/>
+      <c r="F6" s="198"/>
+      <c r="G6" s="198"/>
+      <c r="H6" s="198"/>
+      <c r="I6" s="198"/>
+      <c r="J6" s="198"/>
+      <c r="K6" s="198"/>
+      <c r="L6" s="198"/>
+      <c r="M6" s="198"/>
+      <c r="N6" s="198"/>
+      <c r="O6" s="198"/>
+      <c r="P6" s="198"/>
+      <c r="Q6" s="199"/>
       <c r="AC6" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="7" spans="3:29" ht="21" x14ac:dyDescent="0.4">
       <c r="C7" s="37"/>
-      <c r="D7" s="136" t="s">
+      <c r="D7" s="162" t="s">
         <v>229</v>
       </c>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="136"/>
-      <c r="K7" s="136"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
-      <c r="O7" s="136"/>
-      <c r="P7" s="136"/>
-      <c r="Q7" s="137"/>
+      <c r="E7" s="162"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="162"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="162"/>
+      <c r="J7" s="162"/>
+      <c r="K7" s="162"/>
+      <c r="L7" s="162"/>
+      <c r="M7" s="162"/>
+      <c r="N7" s="162"/>
+      <c r="O7" s="162"/>
+      <c r="P7" s="162"/>
+      <c r="Q7" s="163"/>
     </row>
     <row r="8" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C8" s="37"/>
@@ -21841,10 +22019,10 @@
     </row>
     <row r="10" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C10" s="37"/>
-      <c r="D10" s="138" t="s">
+      <c r="D10" s="164" t="s">
         <v>241</v>
       </c>
-      <c r="E10" s="138"/>
+      <c r="E10" s="164"/>
       <c r="F10" s="69"/>
       <c r="G10" s="79" t="s">
         <v>230</v>
@@ -21859,20 +22037,20 @@
         <v>134</v>
       </c>
       <c r="M10" s="31"/>
-      <c r="N10" s="138" t="s">
+      <c r="N10" s="164" t="s">
         <v>133</v>
       </c>
-      <c r="O10" s="138"/>
-      <c r="P10" s="138"/>
+      <c r="O10" s="164"/>
+      <c r="P10" s="164"/>
       <c r="Q10" s="81"/>
       <c r="R10" s="69"/>
     </row>
     <row r="11" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C11" s="37"/>
-      <c r="D11" s="159" t="s">
+      <c r="D11" s="194" t="s">
         <v>233</v>
       </c>
-      <c r="E11" s="160"/>
+      <c r="E11" s="195"/>
       <c r="F11" s="33"/>
       <c r="G11" s="3" t="s">
         <v>233</v>
@@ -21883,9 +22061,9 @@
       <c r="K11" s="31"/>
       <c r="L11" s="2"/>
       <c r="M11" s="31"/>
-      <c r="N11" s="139"/>
-      <c r="O11" s="140"/>
-      <c r="P11" s="141"/>
+      <c r="N11" s="171"/>
+      <c r="O11" s="172"/>
+      <c r="P11" s="173"/>
       <c r="Q11" s="81"/>
       <c r="R11" s="69"/>
     </row>
@@ -21927,25 +22105,25 @@
     </row>
     <row r="14" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C14" s="37"/>
-      <c r="D14" s="161" t="s">
+      <c r="D14" s="196" t="s">
         <v>239</v>
       </c>
-      <c r="E14" s="161"/>
-      <c r="F14" s="161"/>
-      <c r="G14" s="161"/>
+      <c r="E14" s="196"/>
+      <c r="F14" s="196"/>
+      <c r="G14" s="196"/>
       <c r="H14" s="69"/>
-      <c r="I14" s="138" t="s">
+      <c r="I14" s="164" t="s">
         <v>247</v>
       </c>
-      <c r="J14" s="138"/>
-      <c r="K14" s="138"/>
+      <c r="J14" s="164"/>
+      <c r="K14" s="164"/>
       <c r="L14" s="31"/>
-      <c r="M14" s="138" t="s">
+      <c r="M14" s="164" t="s">
         <v>236</v>
       </c>
-      <c r="N14" s="138"/>
-      <c r="O14" s="138"/>
-      <c r="P14" s="138"/>
+      <c r="N14" s="164"/>
+      <c r="O14" s="164"/>
+      <c r="P14" s="164"/>
       <c r="Q14" s="81"/>
       <c r="R14" s="31"/>
       <c r="S14" s="31"/>
@@ -21961,10 +22139,10 @@
       <c r="J15" s="67"/>
       <c r="K15" s="30"/>
       <c r="L15" s="31"/>
-      <c r="M15" s="139"/>
-      <c r="N15" s="140"/>
-      <c r="O15" s="140"/>
-      <c r="P15" s="141"/>
+      <c r="M15" s="171"/>
+      <c r="N15" s="172"/>
+      <c r="O15" s="172"/>
+      <c r="P15" s="173"/>
       <c r="Q15" s="81"/>
       <c r="R15" s="31"/>
       <c r="S15" s="31"/>
@@ -22011,21 +22189,21 @@
     </row>
     <row r="18" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C18" s="37"/>
-      <c r="D18" s="138" t="s">
+      <c r="D18" s="164" t="s">
         <v>237</v>
       </c>
-      <c r="E18" s="138"/>
+      <c r="E18" s="164"/>
       <c r="F18" s="31"/>
-      <c r="G18" s="138" t="s">
+      <c r="G18" s="164" t="s">
         <v>244</v>
       </c>
-      <c r="H18" s="138"/>
-      <c r="I18" s="138"/>
+      <c r="H18" s="164"/>
+      <c r="I18" s="164"/>
       <c r="J18" s="69"/>
-      <c r="K18" s="138" t="s">
+      <c r="K18" s="164" t="s">
         <v>245</v>
       </c>
-      <c r="L18" s="138"/>
+      <c r="L18" s="164"/>
       <c r="M18" s="69"/>
       <c r="N18" s="31" t="s">
         <v>135</v>
@@ -22038,15 +22216,15 @@
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C19" s="37"/>
-      <c r="D19" s="165"/>
-      <c r="E19" s="166"/>
+      <c r="D19" s="200"/>
+      <c r="E19" s="201"/>
       <c r="F19" s="31"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="140"/>
-      <c r="I19" s="141"/>
+      <c r="G19" s="171"/>
+      <c r="H19" s="172"/>
+      <c r="I19" s="173"/>
       <c r="J19" s="69"/>
-      <c r="K19" s="165"/>
-      <c r="L19" s="166"/>
+      <c r="K19" s="200"/>
+      <c r="L19" s="201"/>
       <c r="M19" s="83"/>
       <c r="N19" s="2"/>
       <c r="P19" s="2"/>
@@ -22094,46 +22272,46 @@
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C22" s="37"/>
-      <c r="D22" s="138" t="s">
+      <c r="D22" s="164" t="s">
         <v>137</v>
       </c>
-      <c r="E22" s="138"/>
-      <c r="F22" s="138"/>
+      <c r="E22" s="164"/>
+      <c r="F22" s="164"/>
       <c r="G22" s="31"/>
-      <c r="H22" s="138" t="s">
+      <c r="H22" s="164" t="s">
         <v>242</v>
       </c>
-      <c r="I22" s="138"/>
-      <c r="J22" s="138"/>
+      <c r="I22" s="164"/>
+      <c r="J22" s="164"/>
       <c r="K22" s="31"/>
       <c r="L22" s="79" t="s">
         <v>243</v>
       </c>
       <c r="M22" s="79"/>
       <c r="N22" s="31"/>
-      <c r="O22" s="161" t="s">
+      <c r="O22" s="196" t="s">
         <v>139</v>
       </c>
-      <c r="P22" s="161"/>
+      <c r="P22" s="196"/>
       <c r="Q22" s="82"/>
       <c r="R22" s="31"/>
       <c r="S22" s="31"/>
     </row>
     <row r="23" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C23" s="37"/>
-      <c r="D23" s="139"/>
-      <c r="E23" s="140"/>
-      <c r="F23" s="141"/>
+      <c r="D23" s="171"/>
+      <c r="E23" s="172"/>
+      <c r="F23" s="173"/>
       <c r="G23" s="31"/>
-      <c r="H23" s="139"/>
-      <c r="I23" s="140"/>
-      <c r="J23" s="141"/>
+      <c r="H23" s="171"/>
+      <c r="I23" s="172"/>
+      <c r="J23" s="173"/>
       <c r="K23" s="31"/>
-      <c r="L23" s="139"/>
-      <c r="M23" s="141"/>
+      <c r="L23" s="171"/>
+      <c r="M23" s="173"/>
       <c r="N23" s="31"/>
-      <c r="O23" s="139"/>
-      <c r="P23" s="141"/>
+      <c r="O23" s="171"/>
+      <c r="P23" s="173"/>
       <c r="Q23" s="82"/>
     </row>
     <row r="24" spans="3:19" x14ac:dyDescent="0.3">

--- a/6- Ingenieria de producto/6.1 - Análisis/04- Archivos de Trabajo/01-Embargos/MID - Módulo Judicial v1.xlsx
+++ b/6- Ingenieria de producto/6.1 - Análisis/04- Archivos de Trabajo/01-Embargos/MID - Módulo Judicial v1.xlsx
@@ -26,8 +26,31 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Usuario de Windows</author>
+  </authors>
+  <commentList>
+    <comment ref="E19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cambiar básico si es necesario</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="301">
   <si>
     <t>se toma el menor de ambos</t>
   </si>
@@ -930,9 +953,6 @@
     <t>Base a aplicar Embargo</t>
   </si>
   <si>
-    <t>MNE-Mínimo no Embargable</t>
-  </si>
-  <si>
     <t>Resultado Descuento Embargo</t>
   </si>
   <si>
@@ -940,6 +960,33 @@
   </si>
   <si>
     <t>Total descuento</t>
+  </si>
+  <si>
+    <t>Importe Mín a Embargar</t>
+  </si>
+  <si>
+    <t>SMVM - Monto</t>
+  </si>
+  <si>
+    <t>SMJA - Monto</t>
+  </si>
+  <si>
+    <t>SMJP - Monto</t>
+  </si>
+  <si>
+    <t>Seleccionar Ítems</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>´'=IF(AND(B2&gt;A2,B2&lt;A3),"Yes","No")</t>
+  </si>
+  <si>
+    <t>Descuento para Liquidación</t>
+  </si>
+  <si>
+    <t>IMPORTE</t>
   </si>
 </sst>
 </file>
@@ -949,7 +996,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1161,8 +1208,43 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1253,8 +1335,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6FEE7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAFEDE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD7FAFD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC5FFD3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="33">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1602,12 +1714,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="310">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1836,12 +2028,6 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="1" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="24" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1858,35 +2044,8 @@
     <xf numFmtId="9" fontId="24" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="12" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1953,23 +2112,11 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2040,29 +2187,243 @@
     <xf numFmtId="0" fontId="18" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="28" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="11" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="17" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="18" fillId="19" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="29" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="29" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="29" fillId="19" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="29" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="29" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="29" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="29" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="24" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="24" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="29" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="29" fillId="18" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="24" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="24" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="24" fillId="18" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="29" fillId="18" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="29" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="29" fillId="18" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="29" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="33" fillId="20" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="29" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="29" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2074,9 +2435,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFC5FFD3"/>
+      <color rgb="FFD7FAFD"/>
+      <color rgb="FFFAFEDE"/>
+      <color rgb="FFFFF6D9"/>
+      <color rgb="FFE6FEE7"/>
       <color rgb="FF4AF852"/>
-      <color rgb="FF324D1F"/>
-      <color rgb="FF3F6228"/>
+      <color rgb="FFFFFFEB"/>
+      <color rgb="FFFFF3FF"/>
+      <color rgb="FFE1FFFF"/>
+      <color rgb="FFFFE5FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2770,16 +3138,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>793749</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>187036</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>138429</xdr:rowOff>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2803,8 +3171,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="792480" y="213360"/>
-          <a:ext cx="11239500" cy="702309"/>
+          <a:off x="793749" y="214630"/>
+          <a:ext cx="10083801" cy="725170"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2833,8 +3201,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>495301</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>165388</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38388</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2889,7 +3257,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>501650</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>99579</xdr:rowOff>
+      <xdr:rowOff>156729</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2937,13 +3305,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>394971</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>93980</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3184,16 +3552,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3202,8 +3570,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9149080" y="4103370"/>
-          <a:ext cx="1121410" cy="227330"/>
+          <a:off x="9359900" y="5835650"/>
+          <a:ext cx="1098550" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3249,16 +3617,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>218440</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>162560</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>326390</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>35560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1174750</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3267,8 +3635,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8630920" y="9268460"/>
-          <a:ext cx="956310" cy="226060"/>
+          <a:off x="7114540" y="14589760"/>
+          <a:ext cx="956310" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3314,16 +3682,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3332,8 +3700,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8877300" y="10241280"/>
-          <a:ext cx="957580" cy="226060"/>
+          <a:off x="8350250" y="14592300"/>
+          <a:ext cx="965200" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3379,16 +3747,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>984250</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3397,8 +3765,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10082530" y="10209530"/>
-          <a:ext cx="1118870" cy="227330"/>
+          <a:off x="9582150" y="14592300"/>
+          <a:ext cx="958850" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3445,13 +3813,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
+      <xdr:colOff>73660</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>54334</xdr:colOff>
+      <xdr:colOff>67034</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
@@ -3477,8 +3845,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4191000" y="2004060"/>
-          <a:ext cx="229594" cy="213360"/>
+          <a:off x="4144010" y="2073910"/>
+          <a:ext cx="228324" cy="215900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7956,20 +8324,20 @@
     </row>
     <row r="7" spans="3:27" ht="21" x14ac:dyDescent="0.4">
       <c r="C7" s="37"/>
-      <c r="D7" s="162" t="s">
+      <c r="D7" s="145" t="s">
         <v>131</v>
       </c>
-      <c r="E7" s="162"/>
-      <c r="F7" s="162"/>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
-      <c r="J7" s="162"/>
-      <c r="K7" s="162"/>
-      <c r="L7" s="162"/>
-      <c r="M7" s="162"/>
-      <c r="N7" s="162"/>
-      <c r="O7" s="163"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="145"/>
+      <c r="K7" s="145"/>
+      <c r="L7" s="145"/>
+      <c r="M7" s="145"/>
+      <c r="N7" s="145"/>
+      <c r="O7" s="146"/>
       <c r="AA7" t="s">
         <v>253</v>
       </c>
@@ -8014,21 +8382,21 @@
     </row>
     <row r="10" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C10" s="37"/>
-      <c r="D10" s="164" t="s">
+      <c r="D10" s="147" t="s">
         <v>132</v>
       </c>
-      <c r="E10" s="164"/>
+      <c r="E10" s="147"/>
       <c r="F10" s="32"/>
       <c r="G10" s="32" t="s">
         <v>134</v>
       </c>
       <c r="H10" s="31"/>
-      <c r="I10" s="164" t="s">
+      <c r="I10" s="147" t="s">
         <v>133</v>
       </c>
-      <c r="J10" s="164"/>
-      <c r="K10" s="164"/>
-      <c r="L10" s="164"/>
+      <c r="J10" s="147"/>
+      <c r="K10" s="147"/>
+      <c r="L10" s="147"/>
       <c r="M10" s="31"/>
       <c r="N10" s="85" t="s">
         <v>230</v>
@@ -8104,17 +8472,17 @@
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
       <c r="H14" s="31"/>
-      <c r="I14" s="164" t="s">
+      <c r="I14" s="147" t="s">
         <v>237</v>
       </c>
-      <c r="J14" s="164"/>
+      <c r="J14" s="147"/>
       <c r="K14" s="32" t="s">
         <v>255</v>
       </c>
-      <c r="L14" s="164" t="s">
+      <c r="L14" s="147" t="s">
         <v>245</v>
       </c>
-      <c r="M14" s="164"/>
+      <c r="M14" s="147"/>
       <c r="N14" s="31" t="s">
         <v>255</v>
       </c>
@@ -8122,16 +8490,16 @@
     </row>
     <row r="15" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C15" s="37"/>
-      <c r="D15" s="171"/>
-      <c r="E15" s="172"/>
-      <c r="F15" s="172"/>
-      <c r="G15" s="173"/>
+      <c r="D15" s="154"/>
+      <c r="E15" s="155"/>
+      <c r="F15" s="155"/>
+      <c r="G15" s="156"/>
       <c r="H15" s="31"/>
-      <c r="I15" s="171"/>
-      <c r="J15" s="173"/>
+      <c r="I15" s="154"/>
+      <c r="J15" s="156"/>
       <c r="K15" s="32"/>
-      <c r="L15" s="171"/>
-      <c r="M15" s="173"/>
+      <c r="L15" s="154"/>
+      <c r="M15" s="156"/>
       <c r="N15" s="31"/>
       <c r="O15" s="38"/>
     </row>
@@ -8167,19 +8535,19 @@
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C18" s="37"/>
-      <c r="D18" s="164" t="s">
+      <c r="D18" s="147" t="s">
         <v>137</v>
       </c>
-      <c r="E18" s="164"/>
+      <c r="E18" s="147"/>
       <c r="F18" s="31"/>
       <c r="G18" s="32" t="s">
         <v>138</v>
       </c>
       <c r="H18" s="31"/>
-      <c r="I18" s="164" t="s">
+      <c r="I18" s="147" t="s">
         <v>139</v>
       </c>
-      <c r="J18" s="164"/>
+      <c r="J18" s="147"/>
       <c r="K18" s="31"/>
       <c r="L18" s="31" t="s">
         <v>244</v>
@@ -8315,25 +8683,25 @@
       <c r="D27" s="89" t="s">
         <v>249</v>
       </c>
-      <c r="E27" s="202" t="s">
+      <c r="E27" s="181" t="s">
         <v>257</v>
       </c>
-      <c r="F27" s="202"/>
-      <c r="G27" s="202" t="s">
+      <c r="F27" s="181"/>
+      <c r="G27" s="181" t="s">
         <v>250</v>
       </c>
-      <c r="H27" s="202"/>
-      <c r="I27" s="202"/>
+      <c r="H27" s="181"/>
+      <c r="I27" s="181"/>
       <c r="J27" s="89" t="s">
         <v>258</v>
       </c>
       <c r="K27" s="89" t="s">
         <v>251</v>
       </c>
-      <c r="L27" s="202" t="s">
+      <c r="L27" s="181" t="s">
         <v>252</v>
       </c>
-      <c r="M27" s="202"/>
+      <c r="M27" s="181"/>
       <c r="N27" s="90"/>
       <c r="O27" s="44" t="s">
         <v>141</v>
@@ -8678,21 +9046,21 @@
     </row>
     <row r="6" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C6" s="34"/>
-      <c r="D6" s="207" t="s">
+      <c r="D6" s="186" t="s">
         <v>261</v>
       </c>
-      <c r="E6" s="207"/>
-      <c r="F6" s="207"/>
-      <c r="G6" s="207"/>
-      <c r="H6" s="207"/>
-      <c r="I6" s="207"/>
-      <c r="J6" s="207"/>
-      <c r="K6" s="207"/>
-      <c r="L6" s="207"/>
-      <c r="M6" s="207"/>
-      <c r="N6" s="207"/>
-      <c r="O6" s="207"/>
-      <c r="P6" s="208"/>
+      <c r="E6" s="186"/>
+      <c r="F6" s="186"/>
+      <c r="G6" s="186"/>
+      <c r="H6" s="186"/>
+      <c r="I6" s="186"/>
+      <c r="J6" s="186"/>
+      <c r="K6" s="186"/>
+      <c r="L6" s="186"/>
+      <c r="M6" s="186"/>
+      <c r="N6" s="186"/>
+      <c r="O6" s="186"/>
+      <c r="P6" s="187"/>
       <c r="AC6" t="s">
         <v>145</v>
       </c>
@@ -8705,21 +9073,21 @@
     </row>
     <row r="7" spans="3:52" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C7" s="37"/>
-      <c r="D7" s="162" t="s">
+      <c r="D7" s="145" t="s">
         <v>198</v>
       </c>
-      <c r="E7" s="162"/>
-      <c r="F7" s="162"/>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
-      <c r="J7" s="162"/>
-      <c r="K7" s="162"/>
-      <c r="L7" s="162"/>
-      <c r="M7" s="162"/>
-      <c r="N7" s="162"/>
-      <c r="O7" s="162"/>
-      <c r="P7" s="163"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="145"/>
+      <c r="K7" s="145"/>
+      <c r="L7" s="145"/>
+      <c r="M7" s="145"/>
+      <c r="N7" s="145"/>
+      <c r="O7" s="145"/>
+      <c r="P7" s="146"/>
       <c r="AC7" t="s">
         <v>146</v>
       </c>
@@ -8778,21 +9146,21 @@
     </row>
     <row r="10" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C10" s="37"/>
-      <c r="D10" s="164" t="s">
+      <c r="D10" s="147" t="s">
         <v>191</v>
       </c>
-      <c r="E10" s="164"/>
+      <c r="E10" s="147"/>
       <c r="F10" s="96"/>
       <c r="G10" s="96"/>
       <c r="H10" s="91" t="s">
         <v>220</v>
       </c>
       <c r="I10" s="31"/>
-      <c r="J10" s="165" t="s">
+      <c r="J10" s="148" t="s">
         <v>228</v>
       </c>
-      <c r="K10" s="165"/>
-      <c r="L10" s="165"/>
+      <c r="K10" s="148"/>
+      <c r="L10" s="148"/>
       <c r="M10" s="46"/>
       <c r="N10" s="91" t="s">
         <v>192</v>
@@ -8806,19 +9174,19 @@
     </row>
     <row r="11" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C11" s="37"/>
-      <c r="D11" s="166" t="s">
+      <c r="D11" s="149" t="s">
         <v>186</v>
       </c>
-      <c r="E11" s="167"/>
+      <c r="E11" s="150"/>
       <c r="F11" s="50"/>
       <c r="G11" s="63"/>
       <c r="H11" s="99">
         <v>20</v>
       </c>
       <c r="I11" s="31"/>
-      <c r="J11" s="168"/>
-      <c r="K11" s="169"/>
-      <c r="L11" s="170"/>
+      <c r="J11" s="151"/>
+      <c r="K11" s="152"/>
+      <c r="L11" s="153"/>
       <c r="M11" s="92"/>
       <c r="N11" s="98">
         <v>632088.51</v>
@@ -8894,8 +9262,8 @@
       </c>
       <c r="K15" s="92"/>
       <c r="M15" s="75"/>
-      <c r="N15" s="203"/>
-      <c r="O15" s="203"/>
+      <c r="N15" s="182"/>
+      <c r="O15" s="182"/>
       <c r="P15" s="64"/>
       <c r="Q15" s="76" t="s">
         <v>221</v>
@@ -8903,10 +9271,10 @@
     </row>
     <row r="16" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C16" s="37"/>
-      <c r="D16" s="204" t="s">
+      <c r="D16" s="183" t="s">
         <v>216</v>
       </c>
-      <c r="E16" s="204"/>
+      <c r="E16" s="183"/>
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
       <c r="H16" s="95" t="s">
@@ -8919,8 +9287,8 @@
       <c r="K16" s="46"/>
       <c r="L16" s="46"/>
       <c r="M16" s="46"/>
-      <c r="N16" s="205"/>
-      <c r="O16" s="206"/>
+      <c r="N16" s="184"/>
+      <c r="O16" s="185"/>
       <c r="P16" s="38"/>
       <c r="AC16" t="s">
         <v>151</v>
@@ -8928,10 +9296,10 @@
     </row>
     <row r="17" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C17" s="37"/>
-      <c r="D17" s="182" t="s">
+      <c r="D17" s="164" t="s">
         <v>186</v>
       </c>
-      <c r="E17" s="183"/>
+      <c r="E17" s="165"/>
       <c r="F17" s="31"/>
       <c r="G17" s="31"/>
       <c r="H17" s="28"/>
@@ -8965,21 +9333,21 @@
     </row>
     <row r="19" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C19" s="37"/>
-      <c r="D19" s="164" t="s">
+      <c r="D19" s="147" t="s">
         <v>227</v>
       </c>
-      <c r="E19" s="164"/>
-      <c r="F19" s="164"/>
-      <c r="G19" s="164"/>
-      <c r="H19" s="164"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="147"/>
       <c r="I19" s="31"/>
       <c r="J19" s="31"/>
-      <c r="K19" s="164" t="s">
+      <c r="K19" s="147" t="s">
         <v>222</v>
       </c>
-      <c r="L19" s="164"/>
-      <c r="M19" s="164"/>
-      <c r="N19" s="164"/>
+      <c r="L19" s="147"/>
+      <c r="M19" s="147"/>
+      <c r="N19" s="147"/>
       <c r="O19" s="91"/>
       <c r="P19" s="38"/>
       <c r="AC19" t="s">
@@ -8988,17 +9356,17 @@
     </row>
     <row r="20" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C20" s="37"/>
-      <c r="D20" s="171"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="172"/>
-      <c r="H20" s="173"/>
+      <c r="D20" s="154"/>
+      <c r="E20" s="155"/>
+      <c r="F20" s="155"/>
+      <c r="G20" s="155"/>
+      <c r="H20" s="156"/>
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
-      <c r="K20" s="171"/>
-      <c r="L20" s="172"/>
-      <c r="M20" s="172"/>
-      <c r="N20" s="173"/>
+      <c r="K20" s="154"/>
+      <c r="L20" s="155"/>
+      <c r="M20" s="155"/>
+      <c r="N20" s="156"/>
       <c r="O20" s="91"/>
       <c r="P20" s="38"/>
       <c r="AC20" t="s">
@@ -9028,21 +9396,21 @@
     </row>
     <row r="22" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C22" s="37"/>
-      <c r="D22" s="164" t="s">
+      <c r="D22" s="147" t="s">
         <v>223</v>
       </c>
-      <c r="E22" s="164"/>
-      <c r="F22" s="164"/>
-      <c r="G22" s="164"/>
-      <c r="H22" s="164"/>
+      <c r="E22" s="147"/>
+      <c r="F22" s="147"/>
+      <c r="G22" s="147"/>
+      <c r="H22" s="147"/>
       <c r="I22" s="31"/>
       <c r="J22" s="31"/>
-      <c r="K22" s="164" t="s">
+      <c r="K22" s="147" t="s">
         <v>224</v>
       </c>
-      <c r="L22" s="164"/>
-      <c r="M22" s="164"/>
-      <c r="N22" s="164"/>
+      <c r="L22" s="147"/>
+      <c r="M22" s="147"/>
+      <c r="N22" s="147"/>
       <c r="O22" s="91"/>
       <c r="P22" s="38"/>
       <c r="AC22" t="s">
@@ -9053,17 +9421,17 @@
     </row>
     <row r="23" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C23" s="37"/>
-      <c r="D23" s="171"/>
-      <c r="E23" s="172"/>
-      <c r="F23" s="172"/>
-      <c r="G23" s="172"/>
-      <c r="H23" s="173"/>
+      <c r="D23" s="154"/>
+      <c r="E23" s="155"/>
+      <c r="F23" s="155"/>
+      <c r="G23" s="155"/>
+      <c r="H23" s="156"/>
       <c r="I23" s="31"/>
       <c r="J23" s="31"/>
-      <c r="K23" s="171"/>
-      <c r="L23" s="172"/>
-      <c r="M23" s="172"/>
-      <c r="N23" s="173"/>
+      <c r="K23" s="154"/>
+      <c r="L23" s="155"/>
+      <c r="M23" s="155"/>
+      <c r="N23" s="156"/>
       <c r="O23" s="91"/>
       <c r="P23" s="38"/>
       <c r="AC23" t="s">
@@ -9095,21 +9463,21 @@
     </row>
     <row r="25" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C25" s="37"/>
-      <c r="D25" s="164" t="s">
+      <c r="D25" s="147" t="s">
         <v>225</v>
       </c>
-      <c r="E25" s="164"/>
-      <c r="F25" s="164"/>
-      <c r="G25" s="164"/>
-      <c r="H25" s="164"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
       <c r="I25" s="31"/>
       <c r="J25" s="31"/>
-      <c r="K25" s="164" t="s">
+      <c r="K25" s="147" t="s">
         <v>226</v>
       </c>
-      <c r="L25" s="164"/>
-      <c r="M25" s="164"/>
-      <c r="N25" s="164"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
+      <c r="N25" s="147"/>
       <c r="O25" s="91"/>
       <c r="P25" s="38"/>
       <c r="AC25" t="s">
@@ -9120,17 +9488,17 @@
     </row>
     <row r="26" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C26" s="37"/>
-      <c r="D26" s="171"/>
-      <c r="E26" s="172"/>
-      <c r="F26" s="172"/>
-      <c r="G26" s="172"/>
-      <c r="H26" s="173"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="155"/>
+      <c r="G26" s="155"/>
+      <c r="H26" s="156"/>
       <c r="I26" s="31"/>
       <c r="J26" s="31"/>
-      <c r="K26" s="171"/>
-      <c r="L26" s="172"/>
-      <c r="M26" s="172"/>
-      <c r="N26" s="173"/>
+      <c r="K26" s="154"/>
+      <c r="L26" s="155"/>
+      <c r="M26" s="155"/>
+      <c r="N26" s="156"/>
       <c r="O26" s="91"/>
       <c r="P26" s="38"/>
       <c r="AC26" t="s">
@@ -9417,21 +9785,21 @@
     </row>
     <row r="42" spans="3:16" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C42" s="37"/>
-      <c r="D42" s="162" t="s">
+      <c r="D42" s="145" t="s">
         <v>203</v>
       </c>
-      <c r="E42" s="162"/>
-      <c r="F42" s="162"/>
-      <c r="G42" s="162"/>
-      <c r="H42" s="162"/>
-      <c r="I42" s="162"/>
-      <c r="J42" s="162"/>
-      <c r="K42" s="162"/>
-      <c r="L42" s="162"/>
-      <c r="M42" s="162"/>
-      <c r="N42" s="162"/>
-      <c r="O42" s="162"/>
-      <c r="P42" s="163"/>
+      <c r="E42" s="145"/>
+      <c r="F42" s="145"/>
+      <c r="G42" s="145"/>
+      <c r="H42" s="145"/>
+      <c r="I42" s="145"/>
+      <c r="J42" s="145"/>
+      <c r="K42" s="145"/>
+      <c r="L42" s="145"/>
+      <c r="M42" s="145"/>
+      <c r="N42" s="145"/>
+      <c r="O42" s="145"/>
+      <c r="P42" s="146"/>
     </row>
     <row r="43" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C43" s="37"/>
@@ -9474,19 +9842,19 @@
       <c r="H45" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="I45" s="180" t="s">
+      <c r="I45" s="163" t="s">
         <v>124</v>
       </c>
       <c r="J45" s="91" t="s">
         <v>267</v>
       </c>
-      <c r="K45" s="180" t="s">
+      <c r="K45" s="163" t="s">
         <v>126</v>
       </c>
       <c r="L45" s="91" t="s">
         <v>268</v>
       </c>
-      <c r="M45" s="180" t="s">
+      <c r="M45" s="163" t="s">
         <v>127</v>
       </c>
       <c r="N45" s="91" t="s">
@@ -9505,17 +9873,17 @@
         <f>(L46-J46)*N46</f>
         <v>113213.29</v>
       </c>
-      <c r="I46" s="180"/>
+      <c r="I46" s="163"/>
       <c r="J46" s="102">
         <f>N38</f>
         <v>66022.06</v>
       </c>
-      <c r="K46" s="180"/>
+      <c r="K46" s="163"/>
       <c r="L46" s="102">
         <f>H38</f>
         <v>632088.51</v>
       </c>
-      <c r="M46" s="180"/>
+      <c r="M46" s="163"/>
       <c r="N46" s="49">
         <v>0.2</v>
       </c>
@@ -9598,13 +9966,13 @@
       <c r="H51" s="91" t="s">
         <v>199</v>
       </c>
-      <c r="I51" s="180" t="s">
+      <c r="I51" s="163" t="s">
         <v>124</v>
       </c>
       <c r="J51" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="K51" s="180" t="s">
+      <c r="K51" s="163" t="s">
         <v>129</v>
       </c>
       <c r="L51" s="91" t="s">
@@ -9627,12 +9995,12 @@
         <f>MIN(J52,L52)</f>
         <v>0</v>
       </c>
-      <c r="I52" s="180"/>
+      <c r="I52" s="163"/>
       <c r="J52" s="102">
         <f>H46</f>
         <v>113213.29</v>
       </c>
-      <c r="K52" s="180"/>
+      <c r="K52" s="163"/>
       <c r="L52" s="48">
         <v>0</v>
       </c>
@@ -9692,11 +10060,11 @@
       <c r="E56" s="31"/>
       <c r="F56" s="31"/>
       <c r="G56" s="31"/>
-      <c r="H56" s="171" t="s">
+      <c r="H56" s="154" t="s">
         <v>202</v>
       </c>
-      <c r="I56" s="172"/>
-      <c r="J56" s="173"/>
+      <c r="I56" s="155"/>
+      <c r="J56" s="156"/>
       <c r="K56" s="31"/>
       <c r="L56" s="31"/>
       <c r="M56" s="31"/>
@@ -9713,10 +10081,10 @@
       <c r="H57" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="I57" s="174" t="s">
+      <c r="I57" s="157" t="s">
         <v>201</v>
       </c>
-      <c r="J57" s="175"/>
+      <c r="J57" s="158"/>
       <c r="K57" s="31"/>
       <c r="L57" s="31"/>
       <c r="M57" s="31"/>
@@ -9733,8 +10101,8 @@
       <c r="H58" s="60">
         <v>1094</v>
       </c>
-      <c r="I58" s="176"/>
-      <c r="J58" s="177"/>
+      <c r="I58" s="159"/>
+      <c r="J58" s="160"/>
       <c r="K58" s="31"/>
       <c r="L58" s="31"/>
       <c r="M58" s="31"/>
@@ -10282,20 +10650,20 @@
       <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C3" s="192" t="s">
+      <c r="C3" s="171" t="s">
         <v>214</v>
       </c>
-      <c r="D3" s="192"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="192"/>
-      <c r="I3" s="193" t="s">
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="I3" s="172" t="s">
         <v>215</v>
       </c>
-      <c r="J3" s="193"/>
-      <c r="K3" s="193"/>
-      <c r="L3" s="193"/>
-      <c r="M3" s="193"/>
-      <c r="N3" s="193"/>
+      <c r="J3" s="172"/>
+      <c r="K3" s="172"/>
+      <c r="L3" s="172"/>
+      <c r="M3" s="172"/>
+      <c r="N3" s="172"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C4" s="70" t="s">
@@ -11079,21 +11447,21 @@
     </row>
     <row r="7" spans="3:52" ht="21" x14ac:dyDescent="0.4">
       <c r="C7" s="37"/>
-      <c r="D7" s="162" t="s">
+      <c r="D7" s="145" t="s">
         <v>198</v>
       </c>
-      <c r="E7" s="162"/>
-      <c r="F7" s="162"/>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
-      <c r="J7" s="162"/>
-      <c r="K7" s="162"/>
-      <c r="L7" s="162"/>
-      <c r="M7" s="162"/>
-      <c r="N7" s="162"/>
-      <c r="O7" s="162"/>
-      <c r="P7" s="163"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="145"/>
+      <c r="K7" s="145"/>
+      <c r="L7" s="145"/>
+      <c r="M7" s="145"/>
+      <c r="N7" s="145"/>
+      <c r="O7" s="145"/>
+      <c r="P7" s="146"/>
       <c r="AC7" t="s">
         <v>146</v>
       </c>
@@ -11152,21 +11520,21 @@
     </row>
     <row r="10" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C10" s="37"/>
-      <c r="D10" s="164" t="s">
+      <c r="D10" s="147" t="s">
         <v>191</v>
       </c>
-      <c r="E10" s="164"/>
-      <c r="F10" s="196" t="s">
+      <c r="E10" s="147"/>
+      <c r="F10" s="175" t="s">
         <v>220</v>
       </c>
-      <c r="G10" s="196"/>
-      <c r="H10" s="196"/>
+      <c r="G10" s="175"/>
+      <c r="H10" s="175"/>
       <c r="I10" s="31"/>
-      <c r="J10" s="165" t="s">
+      <c r="J10" s="148" t="s">
         <v>228</v>
       </c>
-      <c r="K10" s="165"/>
-      <c r="L10" s="165"/>
+      <c r="K10" s="148"/>
+      <c r="L10" s="148"/>
       <c r="M10" s="46"/>
       <c r="N10" s="91" t="s">
         <v>192</v>
@@ -11180,19 +11548,19 @@
     </row>
     <row r="11" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C11" s="37"/>
-      <c r="D11" s="182" t="s">
+      <c r="D11" s="164" t="s">
         <v>186</v>
       </c>
-      <c r="E11" s="183"/>
+      <c r="E11" s="165"/>
       <c r="F11" s="50"/>
       <c r="G11" s="63">
         <v>1</v>
       </c>
       <c r="H11" s="63"/>
       <c r="I11" s="31"/>
-      <c r="J11" s="168"/>
-      <c r="K11" s="169"/>
-      <c r="L11" s="170"/>
+      <c r="J11" s="151"/>
+      <c r="K11" s="152"/>
+      <c r="L11" s="153"/>
       <c r="M11" s="92"/>
       <c r="N11" s="86"/>
       <c r="P11" s="92"/>
@@ -11218,10 +11586,10 @@
     </row>
     <row r="13" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C13" s="37"/>
-      <c r="D13" s="209" t="s">
+      <c r="D13" s="188" t="s">
         <v>216</v>
       </c>
-      <c r="E13" s="209"/>
+      <c r="E13" s="188"/>
       <c r="F13" s="50"/>
       <c r="H13" s="31"/>
       <c r="I13" s="31"/>
@@ -11237,10 +11605,10 @@
     </row>
     <row r="14" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C14" s="37"/>
-      <c r="D14" s="182" t="s">
+      <c r="D14" s="164" t="s">
         <v>186</v>
       </c>
-      <c r="E14" s="183"/>
+      <c r="E14" s="165"/>
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
       <c r="H14" s="31"/>
@@ -11277,21 +11645,21 @@
     </row>
     <row r="16" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C16" s="37"/>
-      <c r="D16" s="164" t="s">
+      <c r="D16" s="147" t="s">
         <v>227</v>
       </c>
-      <c r="E16" s="164"/>
-      <c r="F16" s="164"/>
-      <c r="G16" s="164"/>
-      <c r="H16" s="164"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="147"/>
       <c r="I16" s="31"/>
       <c r="J16" s="31"/>
-      <c r="K16" s="164" t="s">
+      <c r="K16" s="147" t="s">
         <v>222</v>
       </c>
-      <c r="L16" s="164"/>
-      <c r="M16" s="164"/>
-      <c r="N16" s="164"/>
+      <c r="L16" s="147"/>
+      <c r="M16" s="147"/>
+      <c r="N16" s="147"/>
       <c r="O16" s="91"/>
       <c r="P16" s="38"/>
       <c r="AC16" t="s">
@@ -11300,17 +11668,17 @@
     </row>
     <row r="17" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C17" s="37"/>
-      <c r="D17" s="171"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="172"/>
-      <c r="H17" s="173"/>
+      <c r="D17" s="154"/>
+      <c r="E17" s="155"/>
+      <c r="F17" s="155"/>
+      <c r="G17" s="155"/>
+      <c r="H17" s="156"/>
       <c r="I17" s="31"/>
       <c r="J17" s="31"/>
-      <c r="K17" s="171"/>
-      <c r="L17" s="172"/>
-      <c r="M17" s="172"/>
-      <c r="N17" s="173"/>
+      <c r="K17" s="154"/>
+      <c r="L17" s="155"/>
+      <c r="M17" s="155"/>
+      <c r="N17" s="156"/>
       <c r="O17" s="91"/>
       <c r="P17" s="38"/>
       <c r="AC17" t="s">
@@ -11340,21 +11708,21 @@
     </row>
     <row r="19" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C19" s="37"/>
-      <c r="D19" s="164" t="s">
+      <c r="D19" s="147" t="s">
         <v>223</v>
       </c>
-      <c r="E19" s="164"/>
-      <c r="F19" s="164"/>
-      <c r="G19" s="164"/>
-      <c r="H19" s="164"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="147"/>
       <c r="I19" s="31"/>
       <c r="J19" s="31"/>
-      <c r="K19" s="164" t="s">
+      <c r="K19" s="147" t="s">
         <v>224</v>
       </c>
-      <c r="L19" s="164"/>
-      <c r="M19" s="164"/>
-      <c r="N19" s="164"/>
+      <c r="L19" s="147"/>
+      <c r="M19" s="147"/>
+      <c r="N19" s="147"/>
       <c r="O19" s="91"/>
       <c r="P19" s="38"/>
       <c r="AC19" t="s">
@@ -11365,17 +11733,17 @@
     </row>
     <row r="20" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C20" s="37"/>
-      <c r="D20" s="171"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="172"/>
-      <c r="H20" s="173"/>
+      <c r="D20" s="154"/>
+      <c r="E20" s="155"/>
+      <c r="F20" s="155"/>
+      <c r="G20" s="155"/>
+      <c r="H20" s="156"/>
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
-      <c r="K20" s="171"/>
-      <c r="L20" s="172"/>
-      <c r="M20" s="172"/>
-      <c r="N20" s="173"/>
+      <c r="K20" s="154"/>
+      <c r="L20" s="155"/>
+      <c r="M20" s="155"/>
+      <c r="N20" s="156"/>
       <c r="O20" s="91"/>
       <c r="P20" s="38"/>
       <c r="AC20" t="s">
@@ -11407,21 +11775,21 @@
     </row>
     <row r="22" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C22" s="37"/>
-      <c r="D22" s="164" t="s">
+      <c r="D22" s="147" t="s">
         <v>225</v>
       </c>
-      <c r="E22" s="164"/>
-      <c r="F22" s="164"/>
-      <c r="G22" s="164"/>
-      <c r="H22" s="164"/>
+      <c r="E22" s="147"/>
+      <c r="F22" s="147"/>
+      <c r="G22" s="147"/>
+      <c r="H22" s="147"/>
       <c r="I22" s="31"/>
       <c r="J22" s="31"/>
-      <c r="K22" s="164" t="s">
+      <c r="K22" s="147" t="s">
         <v>226</v>
       </c>
-      <c r="L22" s="164"/>
-      <c r="M22" s="164"/>
-      <c r="N22" s="164"/>
+      <c r="L22" s="147"/>
+      <c r="M22" s="147"/>
+      <c r="N22" s="147"/>
       <c r="O22" s="91"/>
       <c r="P22" s="38"/>
       <c r="AC22" t="s">
@@ -11432,17 +11800,17 @@
     </row>
     <row r="23" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C23" s="37"/>
-      <c r="D23" s="171"/>
-      <c r="E23" s="172"/>
-      <c r="F23" s="172"/>
-      <c r="G23" s="172"/>
-      <c r="H23" s="173"/>
+      <c r="D23" s="154"/>
+      <c r="E23" s="155"/>
+      <c r="F23" s="155"/>
+      <c r="G23" s="155"/>
+      <c r="H23" s="156"/>
       <c r="I23" s="31"/>
       <c r="J23" s="31"/>
-      <c r="K23" s="171"/>
-      <c r="L23" s="172"/>
-      <c r="M23" s="172"/>
-      <c r="N23" s="173"/>
+      <c r="K23" s="154"/>
+      <c r="L23" s="155"/>
+      <c r="M23" s="155"/>
+      <c r="N23" s="156"/>
       <c r="O23" s="91"/>
       <c r="P23" s="38"/>
       <c r="AC23" t="s">
@@ -11542,21 +11910,21 @@
     </row>
     <row r="29" spans="3:37" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="37"/>
-      <c r="D29" s="162" t="s">
+      <c r="D29" s="145" t="s">
         <v>203</v>
       </c>
-      <c r="E29" s="162"/>
-      <c r="F29" s="162"/>
-      <c r="G29" s="162"/>
-      <c r="H29" s="162"/>
-      <c r="I29" s="162"/>
-      <c r="J29" s="162"/>
-      <c r="K29" s="162"/>
-      <c r="L29" s="162"/>
-      <c r="M29" s="162"/>
-      <c r="N29" s="162"/>
-      <c r="O29" s="162"/>
-      <c r="P29" s="163"/>
+      <c r="E29" s="145"/>
+      <c r="F29" s="145"/>
+      <c r="G29" s="145"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="145"/>
+      <c r="J29" s="145"/>
+      <c r="K29" s="145"/>
+      <c r="L29" s="145"/>
+      <c r="M29" s="145"/>
+      <c r="N29" s="145"/>
+      <c r="O29" s="145"/>
+      <c r="P29" s="146"/>
     </row>
     <row r="30" spans="3:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C30" s="37"/>
@@ -11599,19 +11967,19 @@
       <c r="H32" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="I32" s="180" t="s">
+      <c r="I32" s="163" t="s">
         <v>124</v>
       </c>
       <c r="J32" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="K32" s="180" t="s">
+      <c r="K32" s="163" t="s">
         <v>126</v>
       </c>
       <c r="L32" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="M32" s="180" t="s">
+      <c r="M32" s="163" t="s">
         <v>127</v>
       </c>
       <c r="N32" s="91" t="s">
@@ -11627,11 +11995,11 @@
       <c r="F33" s="31"/>
       <c r="G33" s="54"/>
       <c r="H33" s="48"/>
-      <c r="I33" s="180"/>
+      <c r="I33" s="163"/>
       <c r="J33" s="48"/>
-      <c r="K33" s="180"/>
+      <c r="K33" s="163"/>
       <c r="L33" s="48"/>
-      <c r="M33" s="180"/>
+      <c r="M33" s="163"/>
       <c r="N33" s="49">
         <v>0.2</v>
       </c>
@@ -11714,13 +12082,13 @@
       <c r="H38" s="91" t="s">
         <v>199</v>
       </c>
-      <c r="I38" s="180" t="s">
+      <c r="I38" s="163" t="s">
         <v>124</v>
       </c>
       <c r="J38" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="K38" s="180" t="s">
+      <c r="K38" s="163" t="s">
         <v>129</v>
       </c>
       <c r="L38" s="91" t="s">
@@ -11740,9 +12108,9 @@
       <c r="F39" s="31"/>
       <c r="G39" s="54"/>
       <c r="H39" s="48"/>
-      <c r="I39" s="180"/>
+      <c r="I39" s="163"/>
       <c r="J39" s="48"/>
-      <c r="K39" s="180"/>
+      <c r="K39" s="163"/>
       <c r="L39" s="48"/>
       <c r="M39" s="62"/>
       <c r="N39" s="31"/>
@@ -11800,11 +12168,11 @@
       <c r="E43" s="31"/>
       <c r="F43" s="31"/>
       <c r="G43" s="31"/>
-      <c r="H43" s="171" t="s">
+      <c r="H43" s="154" t="s">
         <v>202</v>
       </c>
-      <c r="I43" s="172"/>
-      <c r="J43" s="173"/>
+      <c r="I43" s="155"/>
+      <c r="J43" s="156"/>
       <c r="K43" s="31"/>
       <c r="L43" s="31"/>
       <c r="M43" s="31"/>
@@ -11821,10 +12189,10 @@
       <c r="H44" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="I44" s="174" t="s">
+      <c r="I44" s="157" t="s">
         <v>201</v>
       </c>
-      <c r="J44" s="175"/>
+      <c r="J44" s="158"/>
       <c r="K44" s="31"/>
       <c r="L44" s="31"/>
       <c r="M44" s="31"/>
@@ -11841,8 +12209,8 @@
       <c r="H45" s="60">
         <v>1094</v>
       </c>
-      <c r="I45" s="176"/>
-      <c r="J45" s="177"/>
+      <c r="I45" s="159"/>
+      <c r="J45" s="160"/>
       <c r="K45" s="31"/>
       <c r="L45" s="31"/>
       <c r="M45" s="31"/>
@@ -12478,22 +12846,22 @@
       </c>
     </row>
     <row r="6" spans="3:52" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="159" t="s">
+      <c r="C6" s="142" t="s">
         <v>261</v>
       </c>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="160"/>
-      <c r="H6" s="160"/>
-      <c r="I6" s="160"/>
-      <c r="J6" s="160"/>
-      <c r="K6" s="160"/>
-      <c r="L6" s="160"/>
-      <c r="M6" s="160"/>
-      <c r="N6" s="160"/>
-      <c r="O6" s="160"/>
-      <c r="P6" s="161"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="143"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="143"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="143"/>
+      <c r="N6" s="143"/>
+      <c r="O6" s="143"/>
+      <c r="P6" s="144"/>
       <c r="AC6" t="s">
         <v>145</v>
       </c>
@@ -12506,21 +12874,21 @@
     </row>
     <row r="7" spans="3:52" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C7" s="37"/>
-      <c r="D7" s="162" t="s">
+      <c r="D7" s="145" t="s">
         <v>198</v>
       </c>
-      <c r="E7" s="162"/>
-      <c r="F7" s="162"/>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
-      <c r="J7" s="162"/>
-      <c r="K7" s="162"/>
-      <c r="L7" s="162"/>
-      <c r="M7" s="162"/>
-      <c r="N7" s="162"/>
-      <c r="O7" s="162"/>
-      <c r="P7" s="163"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="145"/>
+      <c r="K7" s="145"/>
+      <c r="L7" s="145"/>
+      <c r="M7" s="145"/>
+      <c r="N7" s="145"/>
+      <c r="O7" s="145"/>
+      <c r="P7" s="146"/>
       <c r="AC7" t="s">
         <v>146</v>
       </c>
@@ -12583,21 +12951,21 @@
     </row>
     <row r="10" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C10" s="37"/>
-      <c r="D10" s="164" t="s">
+      <c r="D10" s="147" t="s">
         <v>272</v>
       </c>
-      <c r="E10" s="164"/>
+      <c r="E10" s="147"/>
       <c r="F10" s="96"/>
       <c r="G10" s="96"/>
       <c r="H10" s="93" t="s">
         <v>220</v>
       </c>
       <c r="I10" s="31"/>
-      <c r="J10" s="165" t="s">
+      <c r="J10" s="148" t="s">
         <v>228</v>
       </c>
-      <c r="K10" s="165"/>
-      <c r="L10" s="165"/>
+      <c r="K10" s="148"/>
+      <c r="L10" s="148"/>
       <c r="M10" s="46"/>
       <c r="N10" s="93" t="s">
         <v>274</v>
@@ -12612,21 +12980,21 @@
     </row>
     <row r="11" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C11" s="37"/>
-      <c r="D11" s="166" t="s">
+      <c r="D11" s="149" t="s">
         <v>273</v>
       </c>
-      <c r="E11" s="167"/>
+      <c r="E11" s="150"/>
       <c r="F11" s="97"/>
       <c r="G11" s="122"/>
-      <c r="H11" s="134">
+      <c r="H11" s="132">
         <v>0.2</v>
       </c>
       <c r="I11" s="31"/>
-      <c r="J11" s="168" t="s">
+      <c r="J11" s="151" t="s">
         <v>126</v>
       </c>
-      <c r="K11" s="169"/>
-      <c r="L11" s="170"/>
+      <c r="K11" s="152"/>
+      <c r="L11" s="153"/>
       <c r="M11" s="94"/>
       <c r="N11" s="98">
         <v>600000</v>
@@ -12639,21 +13007,21 @@
     </row>
     <row r="12" spans="3:52" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="37"/>
-      <c r="D12" s="164" t="s">
+      <c r="D12" s="147" t="s">
         <v>227</v>
       </c>
-      <c r="E12" s="164"/>
-      <c r="F12" s="164"/>
-      <c r="G12" s="164"/>
-      <c r="H12" s="164"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="147"/>
+      <c r="G12" s="147"/>
+      <c r="H12" s="147"/>
       <c r="I12" s="31"/>
       <c r="J12" s="31"/>
-      <c r="K12" s="164" t="s">
+      <c r="K12" s="147" t="s">
         <v>222</v>
       </c>
-      <c r="L12" s="164"/>
-      <c r="M12" s="164"/>
-      <c r="N12" s="164"/>
+      <c r="L12" s="147"/>
+      <c r="M12" s="147"/>
+      <c r="N12" s="147"/>
       <c r="O12" s="93"/>
       <c r="P12" s="38"/>
       <c r="AC12" t="s">
@@ -12662,17 +13030,17 @@
     </row>
     <row r="13" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C13" s="37"/>
-      <c r="D13" s="171"/>
-      <c r="E13" s="172"/>
-      <c r="F13" s="172"/>
-      <c r="G13" s="172"/>
-      <c r="H13" s="173"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="155"/>
+      <c r="F13" s="155"/>
+      <c r="G13" s="155"/>
+      <c r="H13" s="156"/>
       <c r="I13" s="31"/>
       <c r="J13" s="31"/>
-      <c r="K13" s="171"/>
-      <c r="L13" s="172"/>
-      <c r="M13" s="172"/>
-      <c r="N13" s="173"/>
+      <c r="K13" s="154"/>
+      <c r="L13" s="155"/>
+      <c r="M13" s="155"/>
+      <c r="N13" s="156"/>
       <c r="O13" s="93"/>
       <c r="P13" s="38"/>
       <c r="AC13" t="s">
@@ -12702,21 +13070,21 @@
     </row>
     <row r="15" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C15" s="37"/>
-      <c r="D15" s="164" t="s">
+      <c r="D15" s="147" t="s">
         <v>223</v>
       </c>
-      <c r="E15" s="164"/>
-      <c r="F15" s="164"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="164"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="147"/>
+      <c r="H15" s="147"/>
       <c r="I15" s="31"/>
       <c r="J15" s="31"/>
-      <c r="K15" s="164" t="s">
+      <c r="K15" s="147" t="s">
         <v>224</v>
       </c>
-      <c r="L15" s="164"/>
-      <c r="M15" s="164"/>
-      <c r="N15" s="164"/>
+      <c r="L15" s="147"/>
+      <c r="M15" s="147"/>
+      <c r="N15" s="147"/>
       <c r="O15" s="93"/>
       <c r="P15" s="38"/>
       <c r="AC15" t="s">
@@ -12727,17 +13095,17 @@
     </row>
     <row r="16" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C16" s="37"/>
-      <c r="D16" s="171"/>
-      <c r="E16" s="172"/>
-      <c r="F16" s="172"/>
-      <c r="G16" s="172"/>
-      <c r="H16" s="173"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="156"/>
       <c r="I16" s="31"/>
       <c r="J16" s="31"/>
-      <c r="K16" s="171"/>
-      <c r="L16" s="172"/>
-      <c r="M16" s="172"/>
-      <c r="N16" s="173"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="155"/>
+      <c r="M16" s="155"/>
+      <c r="N16" s="156"/>
       <c r="O16" s="93"/>
       <c r="P16" s="38"/>
       <c r="AC16" t="s">
@@ -12769,21 +13137,21 @@
     </row>
     <row r="18" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C18" s="37"/>
-      <c r="D18" s="164" t="s">
+      <c r="D18" s="147" t="s">
         <v>225</v>
       </c>
-      <c r="E18" s="164"/>
-      <c r="F18" s="164"/>
-      <c r="G18" s="164"/>
-      <c r="H18" s="164"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="147"/>
       <c r="I18" s="31"/>
       <c r="J18" s="31"/>
-      <c r="K18" s="164" t="s">
+      <c r="K18" s="147" t="s">
         <v>226</v>
       </c>
-      <c r="L18" s="164"/>
-      <c r="M18" s="164"/>
-      <c r="N18" s="164"/>
+      <c r="L18" s="147"/>
+      <c r="M18" s="147"/>
+      <c r="N18" s="147"/>
       <c r="O18" s="93"/>
       <c r="P18" s="38"/>
       <c r="AC18" t="s">
@@ -12794,17 +13162,17 @@
     </row>
     <row r="19" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C19" s="37"/>
-      <c r="D19" s="171"/>
-      <c r="E19" s="172"/>
-      <c r="F19" s="172"/>
-      <c r="G19" s="172"/>
-      <c r="H19" s="173"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
+      <c r="H19" s="156"/>
       <c r="I19" s="31"/>
       <c r="J19" s="31"/>
-      <c r="K19" s="171"/>
-      <c r="L19" s="172"/>
-      <c r="M19" s="172"/>
-      <c r="N19" s="173"/>
+      <c r="K19" s="154"/>
+      <c r="L19" s="155"/>
+      <c r="M19" s="155"/>
+      <c r="N19" s="156"/>
       <c r="O19" s="93"/>
       <c r="P19" s="38"/>
       <c r="AC19" t="s">
@@ -13068,21 +13436,21 @@
     </row>
     <row r="34" spans="3:16" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C34" s="34"/>
-      <c r="D34" s="178" t="s">
+      <c r="D34" s="161" t="s">
         <v>203</v>
       </c>
-      <c r="E34" s="178"/>
-      <c r="F34" s="178"/>
-      <c r="G34" s="178"/>
-      <c r="H34" s="178"/>
-      <c r="I34" s="178"/>
-      <c r="J34" s="178"/>
-      <c r="K34" s="178"/>
-      <c r="L34" s="178"/>
-      <c r="M34" s="178"/>
-      <c r="N34" s="178"/>
-      <c r="O34" s="178"/>
-      <c r="P34" s="179"/>
+      <c r="E34" s="161"/>
+      <c r="F34" s="161"/>
+      <c r="G34" s="161"/>
+      <c r="H34" s="161"/>
+      <c r="I34" s="161"/>
+      <c r="J34" s="161"/>
+      <c r="K34" s="161"/>
+      <c r="L34" s="161"/>
+      <c r="M34" s="161"/>
+      <c r="N34" s="161"/>
+      <c r="O34" s="161"/>
+      <c r="P34" s="162"/>
     </row>
     <row r="35" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C35" s="37"/>
@@ -13125,19 +13493,19 @@
       <c r="H37" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="I37" s="180" t="s">
+      <c r="I37" s="163" t="s">
         <v>124</v>
       </c>
       <c r="J37" s="93" t="s">
         <v>276</v>
       </c>
-      <c r="K37" s="180" t="s">
+      <c r="K37" s="163" t="s">
         <v>126</v>
       </c>
       <c r="L37" s="93" t="s">
         <v>268</v>
       </c>
-      <c r="M37" s="180" t="s">
+      <c r="M37" s="163" t="s">
         <v>127</v>
       </c>
       <c r="N37" s="93" t="s">
@@ -13156,17 +13524,17 @@
         <f>(L38-J38)*N38</f>
         <v>-120000</v>
       </c>
-      <c r="I38" s="180"/>
+      <c r="I38" s="163"/>
       <c r="J38" s="102">
         <f>N11</f>
         <v>600000</v>
       </c>
-      <c r="K38" s="180"/>
+      <c r="K38" s="163"/>
       <c r="L38" s="102">
         <f>H31</f>
         <v>0</v>
       </c>
-      <c r="M38" s="180"/>
+      <c r="M38" s="163"/>
       <c r="N38" s="49">
         <v>0.2</v>
       </c>
@@ -13246,13 +13614,13 @@
       <c r="H43" s="93" t="s">
         <v>199</v>
       </c>
-      <c r="I43" s="180" t="s">
+      <c r="I43" s="163" t="s">
         <v>124</v>
       </c>
       <c r="J43" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="K43" s="180" t="s">
+      <c r="K43" s="163" t="s">
         <v>129</v>
       </c>
       <c r="L43" s="93" t="s">
@@ -13273,12 +13641,12 @@
         <f>MIN(J44,L44)</f>
         <v>-120000</v>
       </c>
-      <c r="I44" s="180"/>
+      <c r="I44" s="163"/>
       <c r="J44" s="102">
         <f>H38</f>
         <v>-120000</v>
       </c>
-      <c r="K44" s="180"/>
+      <c r="K44" s="163"/>
       <c r="L44" s="48">
         <v>0</v>
       </c>
@@ -13341,11 +13709,11 @@
       <c r="E48" s="31"/>
       <c r="F48" s="31"/>
       <c r="G48" s="31"/>
-      <c r="H48" s="171" t="s">
+      <c r="H48" s="154" t="s">
         <v>202</v>
       </c>
-      <c r="I48" s="172"/>
-      <c r="J48" s="173"/>
+      <c r="I48" s="155"/>
+      <c r="J48" s="156"/>
       <c r="K48" s="31"/>
       <c r="L48" s="31"/>
       <c r="M48" s="31"/>
@@ -13362,10 +13730,10 @@
       <c r="H49" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="I49" s="174" t="s">
+      <c r="I49" s="157" t="s">
         <v>201</v>
       </c>
-      <c r="J49" s="175"/>
+      <c r="J49" s="158"/>
       <c r="K49" s="31"/>
       <c r="L49" s="31"/>
       <c r="M49" s="31"/>
@@ -13382,11 +13750,11 @@
       <c r="H50" s="60">
         <v>1094</v>
       </c>
-      <c r="I50" s="176">
+      <c r="I50" s="159">
         <f>H44</f>
         <v>-120000</v>
       </c>
-      <c r="J50" s="177"/>
+      <c r="J50" s="160"/>
       <c r="K50" s="31"/>
       <c r="L50" s="31"/>
       <c r="M50" s="31"/>
@@ -13898,40 +14266,52 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="B1:BK82"/>
+  <dimension ref="B1:BM90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A38" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="3.88671875" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" customWidth="1"/>
+    <col min="5" max="5" width="20.77734375" customWidth="1"/>
     <col min="6" max="6" width="3.44140625" customWidth="1"/>
     <col min="7" max="7" width="5.6640625" customWidth="1"/>
     <col min="8" max="8" width="20.6640625" customWidth="1"/>
     <col min="9" max="9" width="1.21875" customWidth="1"/>
-    <col min="10" max="10" width="5.109375" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
     <col min="11" max="11" width="6.44140625" customWidth="1"/>
     <col min="12" max="12" width="16.33203125" customWidth="1"/>
     <col min="13" max="13" width="5.44140625" customWidth="1"/>
-    <col min="14" max="14" width="18.6640625" customWidth="1"/>
+    <col min="14" max="14" width="21" customWidth="1"/>
     <col min="15" max="15" width="2.77734375" customWidth="1"/>
-    <col min="16" max="16" width="21.88671875" customWidth="1"/>
-    <col min="17" max="17" width="2.5546875" customWidth="1"/>
+    <col min="16" max="16" width="1.5546875" customWidth="1"/>
+    <col min="17" max="17" width="1.21875" customWidth="1"/>
     <col min="18" max="18" width="4.6640625" customWidth="1"/>
+    <col min="27" max="27" width="5.109375" customWidth="1"/>
+    <col min="28" max="28" width="17.33203125" customWidth="1"/>
+    <col min="29" max="29" width="13.44140625" customWidth="1"/>
     <col min="62" max="62" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:63" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:65" x14ac:dyDescent="0.3">
       <c r="R1" s="123" t="s">
         <v>221</v>
       </c>
+      <c r="AA1" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="AB1" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC1" s="36">
+        <v>0</v>
+      </c>
       <c r="AE1" t="s">
         <v>162</v>
       </c>
@@ -13962,8 +14342,19 @@
       <c r="BK1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="3:63" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="BM1" s="241" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="3:65" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC2" s="189">
+        <f>H19</f>
+        <v>87987</v>
+      </c>
       <c r="AE2" t="s">
         <v>142</v>
       </c>
@@ -13985,11 +14376,19 @@
       <c r="BJ2" t="s">
         <v>206</v>
       </c>
-      <c r="BK2" s="211">
+      <c r="BK2" s="141">
         <v>87987</v>
       </c>
     </row>
-    <row r="3" spans="3:63" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:65" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="31" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC3" s="189">
+        <f>K19</f>
+        <v>121407</v>
+      </c>
       <c r="AE3" t="s">
         <v>143</v>
       </c>
@@ -14011,11 +14410,19 @@
       <c r="BJ3" t="s">
         <v>282</v>
       </c>
-      <c r="BK3" s="211">
+      <c r="BK3" s="141">
         <v>121407</v>
       </c>
     </row>
-    <row r="4" spans="3:63" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:65" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="AC4" s="189">
+        <f>N19</f>
+        <v>70938.240000000005</v>
+      </c>
       <c r="AE4" t="s">
         <v>144</v>
       </c>
@@ -14034,11 +14441,19 @@
       <c r="BJ4" t="s">
         <v>283</v>
       </c>
-      <c r="BK4" s="211">
+      <c r="BK4" s="141">
         <v>70938.240000000005</v>
       </c>
     </row>
-    <row r="5" spans="3:63" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:65" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA5" s="37"/>
+      <c r="AB5" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="AC5" s="189">
+        <f>E19</f>
+        <v>150000</v>
+      </c>
       <c r="AE5" t="s">
         <v>145</v>
       </c>
@@ -14057,27 +14472,35 @@
       <c r="BJ5" t="s">
         <v>284</v>
       </c>
-      <c r="BK5" s="211">
+      <c r="BK5" s="141">
         <v>600000</v>
       </c>
     </row>
-    <row r="6" spans="3:63" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="159"/>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="160"/>
-      <c r="H6" s="160"/>
-      <c r="I6" s="160"/>
-      <c r="J6" s="160"/>
-      <c r="K6" s="160"/>
-      <c r="L6" s="160"/>
-      <c r="M6" s="160"/>
-      <c r="N6" s="160"/>
-      <c r="O6" s="160"/>
-      <c r="P6" s="160"/>
-      <c r="Q6" s="160"/>
-      <c r="R6" s="161"/>
+    <row r="6" spans="3:65" ht="14.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="195"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="196"/>
+      <c r="I6" s="196"/>
+      <c r="J6" s="196"/>
+      <c r="K6" s="196"/>
+      <c r="L6" s="196"/>
+      <c r="M6" s="196"/>
+      <c r="N6" s="196"/>
+      <c r="O6" s="196"/>
+      <c r="P6" s="196"/>
+      <c r="Q6" s="196"/>
+      <c r="R6" s="197"/>
+      <c r="AA6" s="37"/>
+      <c r="AB6" s="31" t="s">
+        <v>285</v>
+      </c>
+      <c r="AC6" s="189">
+        <f>AC5-N40+H40</f>
+        <v>140350</v>
+      </c>
       <c r="AE6" t="s">
         <v>146</v>
       </c>
@@ -14090,30 +14513,35 @@
       <c r="BJ6" t="s">
         <v>285</v>
       </c>
-      <c r="BK6" s="211">
-        <f>P11-P35+H35</f>
-        <v>535000</v>
-      </c>
-    </row>
-    <row r="7" spans="3:63" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C7" s="37"/>
-      <c r="D7" s="162" t="s">
+      <c r="BK6" s="141">
+        <f>E19-P40+H40</f>
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="7" spans="3:65" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C7" s="198"/>
+      <c r="D7" s="254" t="s">
         <v>198</v>
       </c>
-      <c r="E7" s="162"/>
-      <c r="F7" s="162"/>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
-      <c r="J7" s="162"/>
-      <c r="K7" s="162"/>
-      <c r="L7" s="162"/>
-      <c r="M7" s="162"/>
-      <c r="N7" s="162"/>
-      <c r="O7" s="162"/>
-      <c r="P7" s="162"/>
-      <c r="Q7" s="162"/>
-      <c r="R7" s="163"/>
+      <c r="E7" s="254"/>
+      <c r="F7" s="254"/>
+      <c r="G7" s="254"/>
+      <c r="H7" s="254"/>
+      <c r="I7" s="254"/>
+      <c r="J7" s="254"/>
+      <c r="K7" s="254"/>
+      <c r="L7" s="254"/>
+      <c r="M7" s="254"/>
+      <c r="N7" s="254"/>
+      <c r="O7" s="254"/>
+      <c r="P7" s="254"/>
+      <c r="Q7" s="254"/>
+      <c r="R7" s="255"/>
+      <c r="AA7" s="37"/>
+      <c r="AB7" s="190" t="s">
+        <v>300</v>
+      </c>
+      <c r="AC7" s="189"/>
       <c r="AE7" t="s">
         <v>147</v>
       </c>
@@ -14126,25 +14554,30 @@
       <c r="BJ7" t="s">
         <v>49</v>
       </c>
-      <c r="BK7" s="211"/>
-    </row>
-    <row r="8" spans="3:63" x14ac:dyDescent="0.3">
-      <c r="C8" s="37"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="38"/>
+      <c r="BK7" s="141"/>
+    </row>
+    <row r="8" spans="3:65" x14ac:dyDescent="0.3">
+      <c r="C8" s="198"/>
+      <c r="D8" s="199"/>
+      <c r="E8" s="199"/>
+      <c r="F8" s="199"/>
+      <c r="G8" s="199"/>
+      <c r="H8" s="199"/>
+      <c r="I8" s="199"/>
+      <c r="J8" s="199"/>
+      <c r="K8" s="199"/>
+      <c r="L8" s="199"/>
+      <c r="M8" s="199"/>
+      <c r="N8" s="199"/>
+      <c r="O8" s="199"/>
+      <c r="P8" s="199"/>
+      <c r="Q8" s="199"/>
+      <c r="R8" s="200"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC8" s="38"/>
       <c r="AE8" t="s">
         <v>148</v>
       </c>
@@ -14155,23 +14588,26 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="3:63" x14ac:dyDescent="0.3">
-      <c r="C9" s="37"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="38"/>
+    <row r="9" spans="3:65" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="198"/>
+      <c r="D9" s="199"/>
+      <c r="E9" s="199"/>
+      <c r="F9" s="199"/>
+      <c r="G9" s="199"/>
+      <c r="H9" s="199"/>
+      <c r="I9" s="199"/>
+      <c r="J9" s="199"/>
+      <c r="K9" s="199"/>
+      <c r="L9" s="199"/>
+      <c r="M9" s="199"/>
+      <c r="N9" s="199"/>
+      <c r="O9" s="199"/>
+      <c r="P9" s="199"/>
+      <c r="Q9" s="199"/>
+      <c r="R9" s="200"/>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="31"/>
+      <c r="AC9" s="38"/>
       <c r="AE9" t="s">
         <v>149</v>
       </c>
@@ -14179,1310 +14615,1362 @@
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="3:63" x14ac:dyDescent="0.3">
-      <c r="C10" s="37"/>
-      <c r="D10" s="181" t="s">
+    <row r="10" spans="3:65" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="198"/>
+      <c r="D10" s="201" t="s">
         <v>288</v>
       </c>
-      <c r="E10" s="181"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="142" t="s">
+      <c r="E10" s="201"/>
+      <c r="F10" s="202"/>
+      <c r="G10" s="202"/>
+      <c r="H10" s="203" t="s">
         <v>220</v>
       </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="219" t="s">
+      <c r="I10" s="199"/>
+      <c r="J10" s="204"/>
+      <c r="K10" s="201" t="s">
         <v>287</v>
       </c>
-      <c r="L10" s="219"/>
-      <c r="M10" s="220"/>
-      <c r="N10" s="142" t="s">
+      <c r="L10" s="201"/>
+      <c r="M10" s="203"/>
+      <c r="N10" s="203" t="s">
         <v>220</v>
       </c>
-      <c r="O10" s="129"/>
-      <c r="P10" s="142" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="64"/>
+      <c r="O10" s="205"/>
+      <c r="P10" s="199"/>
+      <c r="Q10" s="199"/>
+      <c r="R10" s="206"/>
+      <c r="AA10" s="37"/>
+      <c r="AB10" s="31"/>
+      <c r="AC10" s="38"/>
       <c r="AE10" t="s">
         <v>150</v>
       </c>
       <c r="AL10" s="13"/>
       <c r="AM10" s="13"/>
     </row>
-    <row r="11" spans="3:63" x14ac:dyDescent="0.3">
-      <c r="C11" s="37"/>
-      <c r="D11" s="182" t="s">
-        <v>285</v>
-      </c>
-      <c r="E11" s="183"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="141">
-        <v>0.2</v>
-      </c>
-      <c r="I11" s="31"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="171" t="s">
+    <row r="11" spans="3:65" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="198"/>
+      <c r="D11" s="207" t="s">
         <v>233</v>
       </c>
-      <c r="L11" s="173"/>
-      <c r="M11" s="94"/>
-      <c r="N11" s="141"/>
-      <c r="O11" s="94"/>
-      <c r="P11" s="98">
-        <v>600000</v>
-      </c>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="64"/>
+      <c r="E11" s="208"/>
+      <c r="F11" s="199"/>
+      <c r="G11" s="209"/>
+      <c r="H11" s="210">
+        <v>0</v>
+      </c>
+      <c r="I11" s="199"/>
+      <c r="J11" s="204"/>
+      <c r="K11" s="207" t="s">
+        <v>233</v>
+      </c>
+      <c r="L11" s="208"/>
+      <c r="M11" s="204"/>
+      <c r="N11" s="210">
+        <v>0</v>
+      </c>
+      <c r="O11" s="204"/>
+      <c r="P11" s="199"/>
+      <c r="Q11" s="199"/>
+      <c r="R11" s="206"/>
+      <c r="AA11" s="40"/>
+      <c r="AB11" s="41"/>
+      <c r="AC11" s="42"/>
       <c r="AE11" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="3:63" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="37"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="94"/>
-      <c r="M12" s="94"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="128"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="64"/>
+    <row r="12" spans="3:65" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="198"/>
+      <c r="D12" s="199"/>
+      <c r="E12" s="199"/>
+      <c r="F12" s="199"/>
+      <c r="G12" s="199"/>
+      <c r="H12" s="199"/>
+      <c r="I12" s="199"/>
+      <c r="J12" s="204"/>
+      <c r="K12" s="199"/>
+      <c r="L12" s="199"/>
+      <c r="M12" s="204"/>
+      <c r="N12" s="199"/>
+      <c r="O12" s="204"/>
+      <c r="P12" s="213"/>
+      <c r="Q12" s="199"/>
+      <c r="R12" s="206"/>
       <c r="AE12" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="3:63" x14ac:dyDescent="0.3">
-      <c r="C13" s="37"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="142" t="s">
-        <v>228</v>
-      </c>
-      <c r="I13" s="46"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="142" t="s">
+    <row r="13" spans="3:65" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="198"/>
+      <c r="D13" s="207" t="s">
+        <v>233</v>
+      </c>
+      <c r="E13" s="208"/>
+      <c r="F13" s="199"/>
+      <c r="G13" s="199"/>
+      <c r="H13" s="210">
+        <v>0</v>
+      </c>
+      <c r="I13" s="199"/>
+      <c r="J13" s="204"/>
+      <c r="K13" s="205" t="s">
+        <v>292</v>
+      </c>
+      <c r="L13" s="205"/>
+      <c r="M13" s="205"/>
+      <c r="N13" s="203" t="s">
         <v>220</v>
       </c>
-      <c r="O13" s="94"/>
-      <c r="P13" s="128"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="64"/>
+      <c r="O13" s="204"/>
+      <c r="P13" s="199"/>
+      <c r="Q13" s="199"/>
+      <c r="R13" s="206"/>
       <c r="AE13" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="3:63" x14ac:dyDescent="0.3">
-      <c r="C14" s="37"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="H14" s="141"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="171" t="s">
+    <row r="14" spans="3:65" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="198"/>
+      <c r="D14" s="199"/>
+      <c r="E14" s="199"/>
+      <c r="F14" s="199"/>
+      <c r="G14" s="199"/>
+      <c r="H14" s="199"/>
+      <c r="I14" s="199"/>
+      <c r="J14" s="204"/>
+      <c r="K14" s="207" t="s">
         <v>233</v>
       </c>
-      <c r="L14" s="173"/>
-      <c r="M14" s="94"/>
-      <c r="N14" s="141"/>
-      <c r="O14" s="94"/>
-      <c r="P14" s="128"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="64"/>
+      <c r="L14" s="208"/>
+      <c r="M14" s="204"/>
+      <c r="N14" s="210">
+        <v>0</v>
+      </c>
+      <c r="O14" s="204"/>
+      <c r="P14" s="199"/>
+      <c r="Q14" s="199"/>
+      <c r="R14" s="206"/>
       <c r="AE14" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="3:63" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="37"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="94"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="94"/>
-      <c r="P15" s="128"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="64"/>
+    <row r="15" spans="3:65" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="198"/>
+      <c r="D15" s="199"/>
+      <c r="E15" s="199"/>
+      <c r="F15" s="199"/>
+      <c r="G15" s="199"/>
+      <c r="H15" s="203" t="s">
+        <v>228</v>
+      </c>
+      <c r="I15" s="199"/>
+      <c r="J15" s="204"/>
+      <c r="K15" s="204"/>
+      <c r="L15" s="204"/>
+      <c r="M15" s="204"/>
+      <c r="N15" s="204"/>
+      <c r="O15" s="204"/>
+      <c r="P15" s="199"/>
+      <c r="Q15" s="199"/>
+      <c r="R15" s="206"/>
       <c r="AE15" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="3:63" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="37"/>
-      <c r="D16" s="164" t="s">
-        <v>227</v>
-      </c>
-      <c r="E16" s="164"/>
-      <c r="F16" s="164"/>
-      <c r="G16" s="164"/>
-      <c r="H16" s="164"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="164" t="s">
-        <v>222</v>
-      </c>
-      <c r="L16" s="164"/>
-      <c r="M16" s="164"/>
-      <c r="N16" s="164"/>
-      <c r="O16" s="164"/>
-      <c r="P16" s="164"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="38"/>
+    <row r="16" spans="3:65" s="31" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="198"/>
+      <c r="D16" s="199"/>
+      <c r="E16" s="199"/>
+      <c r="F16" s="199"/>
+      <c r="G16" s="199"/>
+      <c r="H16" s="210"/>
+      <c r="I16" s="199"/>
+      <c r="J16" s="204"/>
+      <c r="K16" s="204"/>
+      <c r="L16" s="204"/>
+      <c r="M16" s="204"/>
+      <c r="N16" s="204"/>
+      <c r="O16" s="204"/>
+      <c r="P16" s="199"/>
+      <c r="Q16" s="199"/>
+      <c r="R16" s="206"/>
       <c r="AE16" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="3:39" x14ac:dyDescent="0.3">
-      <c r="C17" s="37"/>
-      <c r="D17" s="171"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="172"/>
-      <c r="H17" s="173"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="171"/>
-      <c r="L17" s="172"/>
-      <c r="M17" s="172"/>
-      <c r="N17" s="172"/>
-      <c r="O17" s="172"/>
-      <c r="P17" s="173"/>
-      <c r="Q17" s="93"/>
-      <c r="R17" s="38"/>
+    <row r="17" spans="3:39" s="31" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="198"/>
+      <c r="D17" s="199"/>
+      <c r="E17" s="199"/>
+      <c r="F17" s="199"/>
+      <c r="G17" s="199"/>
+      <c r="H17" s="214"/>
+      <c r="I17" s="199"/>
+      <c r="J17" s="204"/>
+      <c r="K17" s="204"/>
+      <c r="L17" s="204"/>
+      <c r="M17" s="204"/>
+      <c r="N17" s="204"/>
+      <c r="O17" s="204"/>
+      <c r="P17" s="199"/>
+      <c r="Q17" s="199"/>
+      <c r="R17" s="206"/>
       <c r="AE17" t="s">
         <v>159</v>
       </c>
-      <c r="AL17" s="12"/>
-      <c r="AM17" s="12"/>
-    </row>
-    <row r="18" spans="3:39" x14ac:dyDescent="0.3">
-      <c r="C18" s="37"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="38"/>
+    </row>
+    <row r="18" spans="3:39" s="31" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="198"/>
+      <c r="D18" s="199"/>
+      <c r="E18" s="203" t="s">
+        <v>274</v>
+      </c>
+      <c r="F18" s="199"/>
+      <c r="G18" s="199"/>
+      <c r="H18" s="203" t="s">
+        <v>293</v>
+      </c>
+      <c r="I18" s="199"/>
+      <c r="J18" s="204"/>
+      <c r="K18" s="215" t="s">
+        <v>294</v>
+      </c>
+      <c r="L18" s="215"/>
+      <c r="M18" s="204"/>
+      <c r="N18" s="203" t="s">
+        <v>295</v>
+      </c>
+      <c r="O18" s="204"/>
+      <c r="P18" s="199"/>
+      <c r="Q18" s="199"/>
+      <c r="R18" s="206"/>
       <c r="AE18" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="3:39" x14ac:dyDescent="0.3">
-      <c r="C19" s="37"/>
-      <c r="D19" s="164" t="s">
-        <v>223</v>
-      </c>
-      <c r="E19" s="164"/>
-      <c r="F19" s="164"/>
-      <c r="G19" s="164"/>
-      <c r="H19" s="164"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="164" t="s">
-        <v>224</v>
-      </c>
-      <c r="L19" s="164"/>
-      <c r="M19" s="164"/>
-      <c r="N19" s="164"/>
-      <c r="O19" s="164"/>
-      <c r="P19" s="164"/>
-      <c r="Q19" s="93"/>
-      <c r="R19" s="38"/>
+    <row r="19" spans="3:39" s="31" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="198"/>
+      <c r="D19" s="199"/>
+      <c r="E19" s="98">
+        <v>150000</v>
+      </c>
+      <c r="F19" s="199"/>
+      <c r="G19" s="199"/>
+      <c r="H19" s="98">
+        <v>87987</v>
+      </c>
+      <c r="I19" s="199"/>
+      <c r="J19" s="204"/>
+      <c r="K19" s="191">
+        <v>121407</v>
+      </c>
+      <c r="L19" s="192"/>
+      <c r="M19" s="204"/>
+      <c r="N19" s="98">
+        <v>70938.240000000005</v>
+      </c>
+      <c r="O19" s="204"/>
+      <c r="P19" s="199"/>
+      <c r="Q19" s="199"/>
+      <c r="R19" s="206"/>
       <c r="AE19" t="s">
         <v>161</v>
       </c>
-      <c r="AL19" s="11"/>
-      <c r="AM19" s="11"/>
-    </row>
-    <row r="20" spans="3:39" x14ac:dyDescent="0.3">
-      <c r="C20" s="37"/>
-      <c r="D20" s="171"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="172"/>
-      <c r="H20" s="173"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="171"/>
-      <c r="L20" s="172"/>
-      <c r="M20" s="172"/>
-      <c r="N20" s="172"/>
-      <c r="O20" s="172"/>
-      <c r="P20" s="173"/>
-      <c r="Q20" s="93"/>
-      <c r="R20" s="38"/>
-      <c r="AL20" s="11"/>
-      <c r="AM20" s="11"/>
-    </row>
-    <row r="21" spans="3:39" x14ac:dyDescent="0.3">
-      <c r="C21" s="37"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="38"/>
-      <c r="AL21" s="11"/>
-      <c r="AM21" s="11"/>
+    </row>
+    <row r="20" spans="3:39" s="31" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="198"/>
+      <c r="D20" s="199"/>
+      <c r="E20" s="199"/>
+      <c r="F20" s="199"/>
+      <c r="G20" s="199"/>
+      <c r="H20" s="214"/>
+      <c r="I20" s="199"/>
+      <c r="J20" s="204"/>
+      <c r="K20" s="204"/>
+      <c r="L20" s="204"/>
+      <c r="M20" s="204"/>
+      <c r="N20" s="204"/>
+      <c r="O20" s="204"/>
+      <c r="P20" s="199"/>
+      <c r="Q20" s="199"/>
+      <c r="R20" s="206"/>
+    </row>
+    <row r="21" spans="3:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="198"/>
+      <c r="D21" s="216" t="s">
+        <v>227</v>
+      </c>
+      <c r="E21" s="216"/>
+      <c r="F21" s="216"/>
+      <c r="G21" s="216"/>
+      <c r="H21" s="216"/>
+      <c r="I21" s="199"/>
+      <c r="J21" s="199"/>
+      <c r="K21" s="216" t="s">
+        <v>222</v>
+      </c>
+      <c r="L21" s="216"/>
+      <c r="M21" s="216"/>
+      <c r="N21" s="216"/>
+      <c r="O21" s="216"/>
+      <c r="P21" s="216"/>
+      <c r="Q21" s="204"/>
+      <c r="R21" s="200"/>
     </row>
     <row r="22" spans="3:39" x14ac:dyDescent="0.3">
-      <c r="C22" s="37"/>
-      <c r="D22" s="164" t="s">
+      <c r="C22" s="198"/>
+      <c r="D22" s="211"/>
+      <c r="E22" s="217"/>
+      <c r="F22" s="217"/>
+      <c r="G22" s="217"/>
+      <c r="H22" s="212"/>
+      <c r="I22" s="199"/>
+      <c r="J22" s="199"/>
+      <c r="K22" s="211"/>
+      <c r="L22" s="217"/>
+      <c r="M22" s="217"/>
+      <c r="N22" s="217"/>
+      <c r="O22" s="217"/>
+      <c r="P22" s="212"/>
+      <c r="Q22" s="204"/>
+      <c r="R22" s="200"/>
+      <c r="AL22" s="12"/>
+      <c r="AM22" s="12"/>
+    </row>
+    <row r="23" spans="3:39" x14ac:dyDescent="0.3">
+      <c r="C23" s="198"/>
+      <c r="D23" s="199"/>
+      <c r="E23" s="199"/>
+      <c r="F23" s="199"/>
+      <c r="G23" s="199"/>
+      <c r="H23" s="199"/>
+      <c r="I23" s="199"/>
+      <c r="J23" s="199"/>
+      <c r="K23" s="218"/>
+      <c r="L23" s="199"/>
+      <c r="M23" s="199"/>
+      <c r="N23" s="199"/>
+      <c r="O23" s="199"/>
+      <c r="P23" s="199"/>
+      <c r="Q23" s="199"/>
+      <c r="R23" s="200"/>
+    </row>
+    <row r="24" spans="3:39" x14ac:dyDescent="0.3">
+      <c r="C24" s="198"/>
+      <c r="D24" s="216" t="s">
+        <v>223</v>
+      </c>
+      <c r="E24" s="216"/>
+      <c r="F24" s="216"/>
+      <c r="G24" s="216"/>
+      <c r="H24" s="216"/>
+      <c r="I24" s="199"/>
+      <c r="J24" s="199"/>
+      <c r="K24" s="216" t="s">
+        <v>224</v>
+      </c>
+      <c r="L24" s="216"/>
+      <c r="M24" s="216"/>
+      <c r="N24" s="216"/>
+      <c r="O24" s="216"/>
+      <c r="P24" s="216"/>
+      <c r="Q24" s="204"/>
+      <c r="R24" s="200"/>
+      <c r="AL24" s="11"/>
+      <c r="AM24" s="11"/>
+    </row>
+    <row r="25" spans="3:39" x14ac:dyDescent="0.3">
+      <c r="C25" s="198"/>
+      <c r="D25" s="211"/>
+      <c r="E25" s="217"/>
+      <c r="F25" s="217"/>
+      <c r="G25" s="217"/>
+      <c r="H25" s="212"/>
+      <c r="I25" s="199"/>
+      <c r="J25" s="199"/>
+      <c r="K25" s="211"/>
+      <c r="L25" s="217"/>
+      <c r="M25" s="217"/>
+      <c r="N25" s="217"/>
+      <c r="O25" s="217"/>
+      <c r="P25" s="212"/>
+      <c r="Q25" s="204"/>
+      <c r="R25" s="200"/>
+      <c r="AL25" s="11"/>
+      <c r="AM25" s="11"/>
+    </row>
+    <row r="26" spans="3:39" x14ac:dyDescent="0.3">
+      <c r="C26" s="198"/>
+      <c r="D26" s="199"/>
+      <c r="E26" s="199"/>
+      <c r="F26" s="199"/>
+      <c r="G26" s="199"/>
+      <c r="H26" s="199"/>
+      <c r="I26" s="199"/>
+      <c r="J26" s="199"/>
+      <c r="K26" s="218"/>
+      <c r="L26" s="199"/>
+      <c r="M26" s="199"/>
+      <c r="N26" s="199"/>
+      <c r="O26" s="199"/>
+      <c r="P26" s="199"/>
+      <c r="Q26" s="199"/>
+      <c r="R26" s="200"/>
+      <c r="AL26" s="11"/>
+      <c r="AM26" s="11"/>
+    </row>
+    <row r="27" spans="3:39" x14ac:dyDescent="0.3">
+      <c r="C27" s="198"/>
+      <c r="D27" s="216" t="s">
         <v>225</v>
       </c>
-      <c r="E22" s="164"/>
-      <c r="F22" s="164"/>
-      <c r="G22" s="164"/>
-      <c r="H22" s="164"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="164" t="s">
+      <c r="E27" s="216"/>
+      <c r="F27" s="216"/>
+      <c r="G27" s="216"/>
+      <c r="H27" s="216"/>
+      <c r="I27" s="199"/>
+      <c r="J27" s="199"/>
+      <c r="K27" s="216" t="s">
         <v>226</v>
       </c>
-      <c r="L22" s="164"/>
-      <c r="M22" s="164"/>
-      <c r="N22" s="164"/>
-      <c r="O22" s="164"/>
-      <c r="P22" s="164"/>
-      <c r="Q22" s="93"/>
-      <c r="R22" s="38"/>
-      <c r="AL22" s="11"/>
-      <c r="AM22" s="11"/>
-    </row>
-    <row r="23" spans="3:39" x14ac:dyDescent="0.3">
-      <c r="C23" s="37"/>
-      <c r="D23" s="171"/>
-      <c r="E23" s="172"/>
-      <c r="F23" s="172"/>
-      <c r="G23" s="172"/>
-      <c r="H23" s="173"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="171"/>
-      <c r="L23" s="172"/>
-      <c r="M23" s="172"/>
-      <c r="N23" s="172"/>
-      <c r="O23" s="172"/>
-      <c r="P23" s="173"/>
-      <c r="Q23" s="93"/>
-      <c r="R23" s="38"/>
-      <c r="AL23" s="11"/>
-      <c r="AM23" s="11"/>
-    </row>
-    <row r="24" spans="3:39" x14ac:dyDescent="0.3">
-      <c r="C24" s="37"/>
-      <c r="D24" s="39" t="s">
+      <c r="L27" s="216"/>
+      <c r="M27" s="216"/>
+      <c r="N27" s="216"/>
+      <c r="O27" s="216"/>
+      <c r="P27" s="216"/>
+      <c r="Q27" s="204"/>
+      <c r="R27" s="200"/>
+      <c r="AL27" s="11"/>
+      <c r="AM27" s="11"/>
+    </row>
+    <row r="28" spans="3:39" x14ac:dyDescent="0.3">
+      <c r="C28" s="198"/>
+      <c r="D28" s="211"/>
+      <c r="E28" s="217"/>
+      <c r="F28" s="217"/>
+      <c r="G28" s="217"/>
+      <c r="H28" s="212"/>
+      <c r="I28" s="199"/>
+      <c r="J28" s="199"/>
+      <c r="K28" s="211"/>
+      <c r="L28" s="217"/>
+      <c r="M28" s="217"/>
+      <c r="N28" s="217"/>
+      <c r="O28" s="217"/>
+      <c r="P28" s="212"/>
+      <c r="Q28" s="204"/>
+      <c r="R28" s="200"/>
+      <c r="AL28" s="11"/>
+      <c r="AM28" s="11"/>
+    </row>
+    <row r="29" spans="3:39" x14ac:dyDescent="0.3">
+      <c r="C29" s="198"/>
+      <c r="D29" s="218" t="s">
         <v>189</v>
       </c>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="93"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="38"/>
-    </row>
-    <row r="25" spans="3:39" x14ac:dyDescent="0.3">
-      <c r="C25" s="37"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="38"/>
-    </row>
-    <row r="26" spans="3:39" x14ac:dyDescent="0.3">
-      <c r="C26" s="47" t="s">
+      <c r="E29" s="219"/>
+      <c r="F29" s="219"/>
+      <c r="G29" s="219"/>
+      <c r="H29" s="219"/>
+      <c r="I29" s="199"/>
+      <c r="J29" s="204"/>
+      <c r="K29" s="199"/>
+      <c r="L29" s="199"/>
+      <c r="M29" s="199"/>
+      <c r="N29" s="199"/>
+      <c r="O29" s="199"/>
+      <c r="P29" s="199"/>
+      <c r="Q29" s="199"/>
+      <c r="R29" s="200"/>
+    </row>
+    <row r="30" spans="3:39" x14ac:dyDescent="0.3">
+      <c r="C30" s="198"/>
+      <c r="D30" s="199"/>
+      <c r="E30" s="199"/>
+      <c r="F30" s="199"/>
+      <c r="G30" s="199"/>
+      <c r="H30" s="199"/>
+      <c r="I30" s="199"/>
+      <c r="J30" s="199"/>
+      <c r="K30" s="199"/>
+      <c r="L30" s="199"/>
+      <c r="M30" s="199"/>
+      <c r="N30" s="199"/>
+      <c r="O30" s="199"/>
+      <c r="P30" s="199"/>
+      <c r="Q30" s="199"/>
+      <c r="R30" s="200"/>
+    </row>
+    <row r="31" spans="3:39" x14ac:dyDescent="0.3">
+      <c r="C31" s="220" t="s">
         <v>190</v>
       </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="38"/>
-      <c r="AL26" s="10"/>
-      <c r="AM26" s="10"/>
-    </row>
-    <row r="27" spans="3:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="40"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="42"/>
-    </row>
-    <row r="28" spans="3:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="37"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="38"/>
-    </row>
-    <row r="29" spans="3:39" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="37"/>
-      <c r="D29" s="119" t="s">
+      <c r="D31" s="199"/>
+      <c r="E31" s="199"/>
+      <c r="F31" s="199"/>
+      <c r="G31" s="199"/>
+      <c r="H31" s="199"/>
+      <c r="I31" s="199"/>
+      <c r="J31" s="199"/>
+      <c r="K31" s="199"/>
+      <c r="L31" s="199"/>
+      <c r="M31" s="199"/>
+      <c r="N31" s="199"/>
+      <c r="O31" s="199"/>
+      <c r="P31" s="199"/>
+      <c r="Q31" s="199"/>
+      <c r="R31" s="200"/>
+      <c r="AL31" s="10"/>
+      <c r="AM31" s="10"/>
+    </row>
+    <row r="32" spans="3:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="221"/>
+      <c r="D32" s="222"/>
+      <c r="E32" s="222"/>
+      <c r="F32" s="222"/>
+      <c r="G32" s="222"/>
+      <c r="H32" s="222"/>
+      <c r="I32" s="222"/>
+      <c r="J32" s="222"/>
+      <c r="K32" s="222"/>
+      <c r="L32" s="222"/>
+      <c r="M32" s="222"/>
+      <c r="N32" s="222"/>
+      <c r="O32" s="222"/>
+      <c r="P32" s="222"/>
+      <c r="Q32" s="222"/>
+      <c r="R32" s="223"/>
+    </row>
+    <row r="33" spans="3:21" ht="58.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="224"/>
+      <c r="D33" s="304" t="s">
+        <v>296</v>
+      </c>
+      <c r="E33" s="305"/>
+      <c r="F33" s="305"/>
+      <c r="G33" s="305"/>
+      <c r="H33" s="305"/>
+      <c r="I33" s="305"/>
+      <c r="J33" s="305"/>
+      <c r="K33" s="305"/>
+      <c r="L33" s="305"/>
+      <c r="M33" s="305"/>
+      <c r="N33" s="305"/>
+      <c r="O33" s="305"/>
+      <c r="P33" s="305"/>
+      <c r="Q33" s="305"/>
+      <c r="R33" s="306"/>
+      <c r="T33" s="124"/>
+      <c r="U33" s="124"/>
+    </row>
+    <row r="34" spans="3:21" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="225"/>
+      <c r="D34" s="282" t="s">
         <v>264</v>
       </c>
-      <c r="E29" s="120"/>
-      <c r="F29" s="120"/>
-      <c r="G29" s="120"/>
-      <c r="H29" s="121"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="119" t="s">
+      <c r="E34" s="283"/>
+      <c r="F34" s="283"/>
+      <c r="G34" s="283"/>
+      <c r="H34" s="284"/>
+      <c r="I34" s="285"/>
+      <c r="J34" s="282" t="s">
         <v>265</v>
       </c>
-      <c r="K29" s="120"/>
-      <c r="L29" s="120"/>
-      <c r="M29" s="120"/>
-      <c r="N29" s="120"/>
-      <c r="O29" s="120"/>
-      <c r="P29" s="121"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="38"/>
-    </row>
-    <row r="30" spans="3:39" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="37"/>
-      <c r="D30" s="113"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="108"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="113">
+      <c r="K34" s="283"/>
+      <c r="L34" s="283"/>
+      <c r="M34" s="283"/>
+      <c r="N34" s="286"/>
+      <c r="O34" s="283"/>
+      <c r="P34" s="284"/>
+      <c r="Q34" s="285"/>
+      <c r="R34" s="287"/>
+      <c r="T34" s="140"/>
+      <c r="U34" s="124"/>
+    </row>
+    <row r="35" spans="3:21" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="225"/>
+      <c r="D35" s="288"/>
+      <c r="E35" s="289"/>
+      <c r="F35" s="289"/>
+      <c r="G35" s="289"/>
+      <c r="H35" s="290"/>
+      <c r="I35" s="285"/>
+      <c r="J35" s="288">
         <v>1470</v>
       </c>
-      <c r="K30" s="31" t="s">
+      <c r="K35" s="289" t="s">
         <v>262</v>
       </c>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="108">
-        <v>31000</v>
-      </c>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="38"/>
-    </row>
-    <row r="31" spans="3:39" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="108"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="113">
+      <c r="L35" s="289"/>
+      <c r="M35" s="289"/>
+      <c r="N35" s="291">
+        <v>3450</v>
+      </c>
+      <c r="O35" s="285"/>
+      <c r="P35" s="292">
+        <v>30000</v>
+      </c>
+      <c r="Q35" s="285"/>
+      <c r="R35" s="287"/>
+      <c r="T35" s="140"/>
+      <c r="U35" s="124"/>
+    </row>
+    <row r="36" spans="3:21" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="225"/>
+      <c r="D36" s="293"/>
+      <c r="E36" s="289"/>
+      <c r="F36" s="289"/>
+      <c r="G36" s="289"/>
+      <c r="H36" s="290"/>
+      <c r="I36" s="285"/>
+      <c r="J36" s="288">
         <v>3000</v>
       </c>
-      <c r="K31" s="31" t="s">
+      <c r="K36" s="289" t="s">
         <v>263</v>
       </c>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="108">
-        <v>34000</v>
-      </c>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="38"/>
-    </row>
-    <row r="32" spans="3:39" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="108"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="108"/>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="38"/>
-    </row>
-    <row r="33" spans="3:18" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="108"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="108"/>
-      <c r="Q33" s="31"/>
-      <c r="R33" s="38"/>
-    </row>
-    <row r="34" spans="3:18" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="108"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="108"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="38"/>
-    </row>
-    <row r="35" spans="3:18" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="37"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="117" t="s">
+      <c r="L36" s="289"/>
+      <c r="M36" s="289"/>
+      <c r="N36" s="291">
+        <v>6200</v>
+      </c>
+      <c r="O36" s="285"/>
+      <c r="P36" s="292">
+        <v>35000</v>
+      </c>
+      <c r="Q36" s="285"/>
+      <c r="R36" s="287"/>
+      <c r="T36" s="124"/>
+      <c r="U36" s="124"/>
+    </row>
+    <row r="37" spans="3:21" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="225"/>
+      <c r="D37" s="293"/>
+      <c r="E37" s="289"/>
+      <c r="F37" s="289"/>
+      <c r="G37" s="289"/>
+      <c r="H37" s="290"/>
+      <c r="I37" s="285"/>
+      <c r="J37" s="293"/>
+      <c r="K37" s="289"/>
+      <c r="L37" s="289"/>
+      <c r="M37" s="289"/>
+      <c r="N37" s="291"/>
+      <c r="O37" s="285"/>
+      <c r="P37" s="292"/>
+      <c r="Q37" s="285"/>
+      <c r="R37" s="287"/>
+      <c r="T37" s="124"/>
+      <c r="U37" s="124"/>
+    </row>
+    <row r="38" spans="3:21" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="225"/>
+      <c r="D38" s="293"/>
+      <c r="E38" s="289"/>
+      <c r="F38" s="289"/>
+      <c r="G38" s="289"/>
+      <c r="H38" s="290"/>
+      <c r="I38" s="285"/>
+      <c r="J38" s="293"/>
+      <c r="K38" s="289"/>
+      <c r="L38" s="289"/>
+      <c r="M38" s="289"/>
+      <c r="N38" s="291"/>
+      <c r="O38" s="285"/>
+      <c r="P38" s="292"/>
+      <c r="Q38" s="285"/>
+      <c r="R38" s="287"/>
+    </row>
+    <row r="39" spans="3:21" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="225"/>
+      <c r="D39" s="293"/>
+      <c r="E39" s="289"/>
+      <c r="F39" s="289"/>
+      <c r="G39" s="289"/>
+      <c r="H39" s="290"/>
+      <c r="I39" s="285"/>
+      <c r="J39" s="293"/>
+      <c r="K39" s="289"/>
+      <c r="L39" s="289"/>
+      <c r="M39" s="289"/>
+      <c r="N39" s="291"/>
+      <c r="O39" s="285"/>
+      <c r="P39" s="292"/>
+      <c r="Q39" s="285"/>
+      <c r="R39" s="287"/>
+    </row>
+    <row r="40" spans="3:21" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="225"/>
+      <c r="D40" s="294"/>
+      <c r="E40" s="295"/>
+      <c r="F40" s="296" t="s">
         <v>266</v>
       </c>
-      <c r="G35" s="117"/>
-      <c r="H35" s="213">
-        <f>SUM(H30:H34)</f>
+      <c r="G40" s="296"/>
+      <c r="H40" s="297">
+        <f>SUM(H34:H39)</f>
         <v>0</v>
       </c>
-      <c r="I35" s="43"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="117" t="s">
+      <c r="I40" s="298"/>
+      <c r="J40" s="294"/>
+      <c r="K40" s="295"/>
+      <c r="L40" s="296" t="s">
         <v>266</v>
       </c>
-      <c r="M35" s="117"/>
-      <c r="N35" s="117"/>
-      <c r="O35" s="117"/>
-      <c r="P35" s="118">
-        <f>SUM(P30:P34)</f>
+      <c r="M40" s="296"/>
+      <c r="N40" s="299">
+        <f>SUM(N35:N39)</f>
+        <v>9650</v>
+      </c>
+      <c r="O40" s="296"/>
+      <c r="P40" s="300">
+        <f>SUM(P35:P39)</f>
         <v>65000</v>
       </c>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="38"/>
-    </row>
-    <row r="36" spans="3:18" s="124" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="125"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="129"/>
-      <c r="G36" s="129"/>
-      <c r="H36" s="130"/>
-      <c r="I36" s="129"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="129"/>
-      <c r="M36" s="129"/>
-      <c r="N36" s="129"/>
-      <c r="O36" s="129"/>
-      <c r="P36" s="130"/>
-      <c r="Q36" s="46"/>
-      <c r="R36" s="131"/>
-    </row>
-    <row r="37" spans="3:18" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="37"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="31"/>
-      <c r="R37" s="38"/>
-    </row>
-    <row r="38" spans="3:18" ht="36.6" customHeight="1" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="C38" s="34"/>
-      <c r="D38" s="178" t="s">
+      <c r="Q40" s="285"/>
+      <c r="R40" s="287"/>
+    </row>
+    <row r="41" spans="3:21" s="124" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="225"/>
+      <c r="D41" s="285"/>
+      <c r="E41" s="285"/>
+      <c r="F41" s="298"/>
+      <c r="G41" s="298"/>
+      <c r="H41" s="301"/>
+      <c r="I41" s="298"/>
+      <c r="J41" s="285"/>
+      <c r="K41" s="285"/>
+      <c r="L41" s="298"/>
+      <c r="M41" s="298"/>
+      <c r="N41" s="298"/>
+      <c r="O41" s="298"/>
+      <c r="P41" s="301"/>
+      <c r="Q41" s="285"/>
+      <c r="R41" s="287"/>
+    </row>
+    <row r="42" spans="3:21" ht="15" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C42" s="226"/>
+      <c r="D42" s="302"/>
+      <c r="E42" s="302"/>
+      <c r="F42" s="302"/>
+      <c r="G42" s="302"/>
+      <c r="H42" s="302"/>
+      <c r="I42" s="302"/>
+      <c r="J42" s="302"/>
+      <c r="K42" s="302"/>
+      <c r="L42" s="302"/>
+      <c r="M42" s="302"/>
+      <c r="N42" s="302"/>
+      <c r="O42" s="302"/>
+      <c r="P42" s="302"/>
+      <c r="Q42" s="302"/>
+      <c r="R42" s="303"/>
+    </row>
+    <row r="43" spans="3:21" ht="36.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="C43" s="227"/>
+      <c r="D43" s="256" t="s">
+        <v>289</v>
+      </c>
+      <c r="E43" s="256"/>
+      <c r="F43" s="256"/>
+      <c r="G43" s="256"/>
+      <c r="H43" s="256"/>
+      <c r="I43" s="256"/>
+      <c r="J43" s="256"/>
+      <c r="K43" s="256"/>
+      <c r="L43" s="256"/>
+      <c r="M43" s="256"/>
+      <c r="N43" s="256"/>
+      <c r="O43" s="256"/>
+      <c r="P43" s="256"/>
+      <c r="Q43" s="256"/>
+      <c r="R43" s="257"/>
+    </row>
+    <row r="44" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C44" s="228"/>
+      <c r="D44" s="229"/>
+      <c r="E44" s="229"/>
+      <c r="F44" s="229"/>
+      <c r="G44" s="229"/>
+      <c r="H44" s="229"/>
+      <c r="I44" s="229"/>
+      <c r="J44" s="229"/>
+      <c r="K44" s="229"/>
+      <c r="L44" s="229"/>
+      <c r="M44" s="229"/>
+      <c r="N44" s="229"/>
+      <c r="O44" s="229"/>
+      <c r="P44" s="229"/>
+      <c r="Q44" s="229"/>
+      <c r="R44" s="230"/>
+    </row>
+    <row r="45" spans="3:21" ht="7.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="228"/>
+      <c r="D45" s="258"/>
+      <c r="E45" s="259"/>
+      <c r="F45" s="259"/>
+      <c r="G45" s="259"/>
+      <c r="H45" s="259"/>
+      <c r="I45" s="259"/>
+      <c r="J45" s="259"/>
+      <c r="K45" s="259"/>
+      <c r="L45" s="259"/>
+      <c r="M45" s="259"/>
+      <c r="N45" s="259"/>
+      <c r="O45" s="259"/>
+      <c r="P45" s="259"/>
+      <c r="Q45" s="231"/>
+      <c r="R45" s="230"/>
+    </row>
+    <row r="46" spans="3:21" s="193" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="232"/>
+      <c r="D46" s="233"/>
+      <c r="E46" s="234" t="s">
         <v>290</v>
       </c>
-      <c r="E38" s="178"/>
-      <c r="F38" s="178"/>
-      <c r="G38" s="178"/>
-      <c r="H38" s="178"/>
-      <c r="I38" s="178"/>
-      <c r="J38" s="178"/>
-      <c r="K38" s="178"/>
-      <c r="L38" s="178"/>
-      <c r="M38" s="178"/>
-      <c r="N38" s="178"/>
-      <c r="O38" s="178"/>
-      <c r="P38" s="178"/>
-      <c r="Q38" s="178"/>
-      <c r="R38" s="179"/>
-    </row>
-    <row r="39" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="37"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="31"/>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="31"/>
-      <c r="R39" s="38"/>
-    </row>
-    <row r="40" spans="3:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="37"/>
-      <c r="D40" s="148"/>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="149"/>
-      <c r="M40" s="149"/>
-      <c r="N40" s="149"/>
-      <c r="O40" s="149"/>
-      <c r="P40" s="149"/>
-      <c r="Q40" s="150"/>
-      <c r="R40" s="38"/>
-    </row>
-    <row r="41" spans="3:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="37"/>
-      <c r="D41" s="151"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="132"/>
-      <c r="I41" s="186"/>
-      <c r="J41" s="132" t="s">
+      <c r="F46" s="235"/>
+      <c r="G46" s="235"/>
+      <c r="H46" s="234" t="s">
         <v>35</v>
       </c>
-      <c r="K41" s="147"/>
-      <c r="L41" s="146" t="s">
+      <c r="I46" s="236"/>
+      <c r="J46" s="235"/>
+      <c r="K46" s="236"/>
+      <c r="L46" s="237" t="s">
         <v>228</v>
       </c>
-      <c r="M41" s="146"/>
-      <c r="N41" s="146"/>
-      <c r="O41" s="186"/>
-      <c r="P41" s="132"/>
-      <c r="Q41" s="152"/>
-      <c r="R41" s="38"/>
-    </row>
-    <row r="42" spans="3:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="37"/>
-      <c r="D42" s="151"/>
-      <c r="E42" s="31" t="s">
-        <v>291</v>
-      </c>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="210">
-        <f>VLOOKUP(D11,BJ2:BK7,2,FALSE)</f>
-        <v>535000</v>
-      </c>
-      <c r="I42" s="186"/>
-      <c r="J42" s="212">
+      <c r="M46" s="237"/>
+      <c r="N46" s="238"/>
+      <c r="O46" s="260"/>
+      <c r="P46" s="238"/>
+      <c r="Q46" s="239"/>
+      <c r="R46" s="240"/>
+    </row>
+    <row r="47" spans="3:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="228"/>
+      <c r="D47" s="261"/>
+      <c r="E47" s="262" t="e">
+        <f>VLOOKUP(D11,AB2:AC9,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F47" s="263"/>
+      <c r="G47" s="263"/>
+      <c r="H47" s="264">
         <f>H11</f>
-        <v>0.2</v>
-      </c>
-      <c r="K42" s="147"/>
-      <c r="L42" s="102">
-        <f>H42*J42</f>
-        <v>107000</v>
-      </c>
-      <c r="M42" s="145"/>
-      <c r="N42" s="145"/>
-      <c r="O42" s="186"/>
-      <c r="P42" s="133"/>
-      <c r="Q42" s="153"/>
-      <c r="R42" s="38"/>
-    </row>
-    <row r="43" spans="3:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="37"/>
-      <c r="D43" s="151"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="145"/>
-      <c r="I43" s="144"/>
-      <c r="J43" s="145"/>
-      <c r="K43" s="147"/>
-      <c r="L43" s="145"/>
-      <c r="M43" s="145"/>
-      <c r="N43" s="145"/>
-      <c r="O43" s="144"/>
-      <c r="P43" s="133"/>
-      <c r="Q43" s="153"/>
-      <c r="R43" s="38"/>
-    </row>
-    <row r="44" spans="3:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="37"/>
-      <c r="D44" s="151"/>
-      <c r="E44" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="I47" s="236"/>
+      <c r="J47" s="263"/>
+      <c r="K47" s="236"/>
+      <c r="L47" s="265" t="e">
+        <f>E47*H47</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M47" s="266"/>
+      <c r="N47" s="267"/>
+      <c r="O47" s="260"/>
+      <c r="P47" s="268"/>
+      <c r="Q47" s="242"/>
+      <c r="R47" s="230"/>
+    </row>
+    <row r="48" spans="3:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="228"/>
+      <c r="D48" s="261"/>
+      <c r="E48" s="269"/>
+      <c r="F48" s="263"/>
+      <c r="G48" s="263"/>
+      <c r="H48" s="245"/>
+      <c r="I48" s="236"/>
+      <c r="J48" s="263"/>
+      <c r="K48" s="236"/>
+      <c r="L48" s="269"/>
+      <c r="M48" s="267"/>
+      <c r="N48" s="267"/>
+      <c r="O48" s="236"/>
+      <c r="P48" s="268"/>
+      <c r="Q48" s="242"/>
+      <c r="R48" s="230"/>
+    </row>
+    <row r="49" spans="3:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="228"/>
+      <c r="D49" s="261"/>
+      <c r="E49" s="262" t="e">
+        <f>VLOOKUP(D13,AB2:AC8,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F49" s="263"/>
+      <c r="G49" s="263"/>
+      <c r="H49" s="264">
+        <f>H13</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="236"/>
+      <c r="J49" s="263"/>
+      <c r="K49" s="236"/>
+      <c r="L49" s="265" t="e">
+        <f>E49*H49</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M49" s="266"/>
+      <c r="N49" s="267"/>
+      <c r="O49" s="236"/>
+      <c r="P49" s="268"/>
+      <c r="Q49" s="242"/>
+      <c r="R49" s="230"/>
+    </row>
+    <row r="50" spans="3:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="228"/>
+      <c r="D50" s="261"/>
+      <c r="E50" s="263"/>
+      <c r="F50" s="263"/>
+      <c r="G50" s="263"/>
+      <c r="H50" s="235"/>
+      <c r="I50" s="235"/>
+      <c r="J50" s="235"/>
+      <c r="K50" s="235"/>
+      <c r="L50" s="269"/>
+      <c r="M50" s="267"/>
+      <c r="N50" s="267"/>
+      <c r="O50" s="236"/>
+      <c r="P50" s="268"/>
+      <c r="Q50" s="242"/>
+      <c r="R50" s="230"/>
+    </row>
+    <row r="51" spans="3:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="228"/>
+      <c r="D51" s="261"/>
+      <c r="E51" s="263"/>
+      <c r="F51" s="263"/>
+      <c r="G51" s="263"/>
+      <c r="H51" s="235"/>
+      <c r="I51" s="236"/>
+      <c r="J51" s="308" t="s">
+        <v>297</v>
+      </c>
+      <c r="K51" s="309"/>
+      <c r="L51" s="308" t="e">
+        <f>SUM(L47:L49)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M51" s="309"/>
+      <c r="N51" s="267"/>
+      <c r="O51" s="236"/>
+      <c r="P51" s="268"/>
+      <c r="Q51" s="242"/>
+      <c r="R51" s="230"/>
+    </row>
+    <row r="52" spans="3:18" s="194" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="243"/>
+      <c r="D52" s="244"/>
+      <c r="E52" s="234" t="s">
         <v>287</v>
       </c>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="210">
-        <f>VLOOKUP(K11,BJ1:BK7,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I44" s="144"/>
-      <c r="J44" s="212">
+      <c r="F52" s="235"/>
+      <c r="G52" s="235"/>
+      <c r="H52" s="234" t="s">
+        <v>35</v>
+      </c>
+      <c r="I52" s="236"/>
+      <c r="J52" s="235"/>
+      <c r="K52" s="236"/>
+      <c r="L52" s="237" t="s">
+        <v>228</v>
+      </c>
+      <c r="M52" s="237"/>
+      <c r="N52" s="245"/>
+      <c r="O52" s="236"/>
+      <c r="P52" s="246"/>
+      <c r="Q52" s="247"/>
+      <c r="R52" s="248"/>
+    </row>
+    <row r="53" spans="3:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="228"/>
+      <c r="D53" s="261"/>
+      <c r="E53" s="262" t="e">
+        <f>VLOOKUP(K11,AB2:AC8,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F53" s="263"/>
+      <c r="G53" s="263"/>
+      <c r="H53" s="264">
         <f>N11</f>
         <v>0</v>
       </c>
-      <c r="K44" s="147"/>
-      <c r="L44" s="102">
-        <f>H44*J44</f>
-        <v>0</v>
-      </c>
-      <c r="M44" s="145"/>
-      <c r="N44" s="145"/>
-      <c r="O44" s="144"/>
-      <c r="P44" s="133"/>
-      <c r="Q44" s="153"/>
-      <c r="R44" s="38"/>
-    </row>
-    <row r="45" spans="3:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="37"/>
-      <c r="D45" s="151"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="145"/>
-      <c r="I45" s="144"/>
-      <c r="J45" s="145"/>
-      <c r="K45" s="147"/>
-      <c r="L45" s="145"/>
-      <c r="M45" s="145"/>
-      <c r="N45" s="145"/>
-      <c r="O45" s="144"/>
-      <c r="P45" s="133"/>
-      <c r="Q45" s="153"/>
-      <c r="R45" s="38"/>
-    </row>
-    <row r="46" spans="3:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="37"/>
-      <c r="D46" s="151"/>
-      <c r="E46" s="31" t="s">
-        <v>289</v>
-      </c>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="210">
-        <f>VLOOKUP(K14,BJ1:BK7,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I46" s="144"/>
-      <c r="J46" s="212">
+      <c r="I53" s="236"/>
+      <c r="J53" s="263"/>
+      <c r="K53" s="236"/>
+      <c r="L53" s="308" t="e">
+        <f>E53*H53</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M53" s="309"/>
+      <c r="N53" s="267"/>
+      <c r="O53" s="236"/>
+      <c r="P53" s="268"/>
+      <c r="Q53" s="242"/>
+      <c r="R53" s="230"/>
+    </row>
+    <row r="54" spans="3:18" s="194" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="243"/>
+      <c r="D54" s="244"/>
+      <c r="E54" s="234" t="s">
+        <v>292</v>
+      </c>
+      <c r="F54" s="235"/>
+      <c r="G54" s="235"/>
+      <c r="H54" s="234" t="s">
+        <v>35</v>
+      </c>
+      <c r="I54" s="236"/>
+      <c r="J54" s="235"/>
+      <c r="K54" s="236"/>
+      <c r="L54" s="237" t="s">
+        <v>228</v>
+      </c>
+      <c r="M54" s="237"/>
+      <c r="N54" s="245"/>
+      <c r="O54" s="236"/>
+      <c r="P54" s="246"/>
+      <c r="Q54" s="247"/>
+      <c r="R54" s="248"/>
+    </row>
+    <row r="55" spans="3:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="228"/>
+      <c r="D55" s="261"/>
+      <c r="E55" s="262" t="e">
+        <f>VLOOKUP(K14,AB2:AC9,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F55" s="263"/>
+      <c r="G55" s="263"/>
+      <c r="H55" s="264">
         <f>N14</f>
         <v>0</v>
       </c>
-      <c r="K46" s="147"/>
-      <c r="L46" s="102">
-        <f>H46*J46</f>
-        <v>0</v>
-      </c>
-      <c r="M46" s="145"/>
-      <c r="N46" s="145"/>
-      <c r="O46" s="144"/>
-      <c r="P46" s="133"/>
-      <c r="Q46" s="153"/>
-      <c r="R46" s="38"/>
-    </row>
-    <row r="47" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C47" s="37"/>
-      <c r="D47" s="151"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="46"/>
-      <c r="K47" s="46"/>
-      <c r="L47" s="46"/>
-      <c r="M47" s="46"/>
-      <c r="N47" s="46"/>
-      <c r="O47" s="46"/>
-      <c r="P47" s="46"/>
-      <c r="Q47" s="154"/>
-      <c r="R47" s="38"/>
-    </row>
-    <row r="48" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C48" s="37"/>
-      <c r="D48" s="151"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="46"/>
-      <c r="I48" s="46"/>
-      <c r="J48" s="46"/>
-      <c r="K48" s="46"/>
-      <c r="L48" s="46"/>
-      <c r="M48" s="46"/>
-      <c r="N48" s="46"/>
-      <c r="O48" s="46"/>
-      <c r="P48" s="46"/>
-      <c r="Q48" s="154"/>
-      <c r="R48" s="38"/>
-    </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C49" s="37"/>
-      <c r="D49" s="151"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="46"/>
-      <c r="I49" s="46"/>
-      <c r="J49" s="46"/>
-      <c r="K49" s="46"/>
-      <c r="L49" s="46"/>
-      <c r="M49" s="46"/>
-      <c r="N49" s="46"/>
-      <c r="O49" s="46"/>
-      <c r="P49" s="46"/>
-      <c r="Q49" s="154"/>
-      <c r="R49" s="38"/>
-    </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C50" s="37"/>
-      <c r="D50" s="151"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="46"/>
-      <c r="I50" s="46"/>
-      <c r="J50" s="46"/>
-      <c r="K50" s="46"/>
-      <c r="L50" s="46"/>
-      <c r="M50" s="46"/>
-      <c r="N50" s="46"/>
-      <c r="O50" s="46"/>
-      <c r="P50" s="46"/>
-      <c r="Q50" s="154"/>
-      <c r="R50" s="38"/>
-    </row>
-    <row r="51" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="37"/>
-      <c r="D51" s="151"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="215" t="s">
-        <v>292</v>
-      </c>
-      <c r="I51" s="216"/>
-      <c r="J51" s="217"/>
-      <c r="K51" s="214"/>
-      <c r="L51" s="218">
-        <f>SUM(L42:L50)</f>
-        <v>107000</v>
-      </c>
-      <c r="M51" s="132"/>
-      <c r="N51" s="132"/>
-      <c r="O51" s="75"/>
-      <c r="P51" s="46"/>
-      <c r="Q51" s="154"/>
-      <c r="R51" s="38"/>
-    </row>
-    <row r="52" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="37"/>
-      <c r="D52" s="151"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="145"/>
-      <c r="I52" s="147"/>
-      <c r="J52" s="145"/>
-      <c r="K52" s="147"/>
-      <c r="L52" s="46"/>
-      <c r="M52" s="46"/>
-      <c r="N52" s="46"/>
-      <c r="O52" s="46"/>
-      <c r="P52" s="46"/>
-      <c r="Q52" s="154"/>
-      <c r="R52" s="38"/>
-    </row>
-    <row r="53" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C53" s="37"/>
-      <c r="D53" s="155"/>
-      <c r="E53" s="156"/>
-      <c r="F53" s="156"/>
-      <c r="G53" s="156"/>
-      <c r="H53" s="157"/>
-      <c r="I53" s="157"/>
-      <c r="J53" s="157"/>
-      <c r="K53" s="157"/>
-      <c r="L53" s="157"/>
-      <c r="M53" s="157"/>
-      <c r="N53" s="157"/>
-      <c r="O53" s="157"/>
-      <c r="P53" s="157"/>
-      <c r="Q53" s="158"/>
-      <c r="R53" s="38"/>
-    </row>
-    <row r="54" spans="2:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="37"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="31"/>
-      <c r="L54" s="31"/>
-      <c r="M54" s="31"/>
-      <c r="N54" s="31"/>
-      <c r="O54" s="31"/>
-      <c r="P54" s="31"/>
-      <c r="Q54" s="31"/>
-      <c r="R54" s="38"/>
-    </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C55" s="37"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="31"/>
-      <c r="I55" s="31"/>
-      <c r="J55" s="31"/>
-      <c r="K55" s="31"/>
-      <c r="L55" s="31"/>
-      <c r="M55" s="31"/>
-      <c r="N55" s="31"/>
-      <c r="O55" s="31"/>
-      <c r="P55" s="31"/>
-      <c r="Q55" s="31"/>
-      <c r="R55" s="38"/>
-    </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C56" s="37"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="184" t="s">
-        <v>202</v>
-      </c>
-      <c r="I56" s="184"/>
-      <c r="J56" s="184"/>
-      <c r="K56" s="184"/>
-      <c r="L56" s="184"/>
-      <c r="M56" s="31"/>
-      <c r="N56" s="31"/>
-      <c r="O56" s="31"/>
-      <c r="P56" s="31"/>
-      <c r="Q56" s="31"/>
-      <c r="R56" s="38"/>
-    </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C57" s="37"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="60" t="s">
+      <c r="I55" s="236"/>
+      <c r="J55" s="263"/>
+      <c r="K55" s="236"/>
+      <c r="L55" s="308" t="e">
+        <f>E55*H55</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M55" s="309"/>
+      <c r="N55" s="267"/>
+      <c r="O55" s="236"/>
+      <c r="P55" s="268"/>
+      <c r="Q55" s="242"/>
+      <c r="R55" s="230"/>
+    </row>
+    <row r="56" spans="3:18" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="228"/>
+      <c r="D56" s="261"/>
+      <c r="E56" s="263"/>
+      <c r="F56" s="263"/>
+      <c r="G56" s="263"/>
+      <c r="H56" s="235"/>
+      <c r="I56" s="235"/>
+      <c r="J56" s="235"/>
+      <c r="K56" s="235"/>
+      <c r="L56" s="235"/>
+      <c r="M56" s="263"/>
+      <c r="N56" s="263"/>
+      <c r="O56" s="263"/>
+      <c r="P56" s="263"/>
+      <c r="Q56" s="249"/>
+      <c r="R56" s="230"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C57" s="228"/>
+      <c r="D57" s="261"/>
+      <c r="E57" s="263"/>
+      <c r="F57" s="263"/>
+      <c r="G57" s="263"/>
+      <c r="H57" s="263"/>
+      <c r="I57" s="263"/>
+      <c r="J57" s="263"/>
+      <c r="K57" s="263"/>
+      <c r="L57" s="263"/>
+      <c r="M57" s="263"/>
+      <c r="N57" s="263"/>
+      <c r="O57" s="263"/>
+      <c r="P57" s="263"/>
+      <c r="Q57" s="249"/>
+      <c r="R57" s="230"/>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C58" s="228"/>
+      <c r="D58" s="261"/>
+      <c r="E58" s="263"/>
+      <c r="F58" s="263"/>
+      <c r="G58" s="263"/>
+      <c r="H58" s="263"/>
+      <c r="I58" s="263"/>
+      <c r="J58" s="263"/>
+      <c r="K58" s="263"/>
+      <c r="L58" s="263"/>
+      <c r="M58" s="263"/>
+      <c r="N58" s="263"/>
+      <c r="O58" s="263"/>
+      <c r="P58" s="263"/>
+      <c r="Q58" s="249"/>
+      <c r="R58" s="230"/>
+    </row>
+    <row r="59" spans="3:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="228"/>
+      <c r="D59" s="261"/>
+      <c r="E59" s="263"/>
+      <c r="F59" s="263"/>
+      <c r="G59" s="263"/>
+      <c r="H59" s="270" t="s">
+        <v>291</v>
+      </c>
+      <c r="I59" s="271"/>
+      <c r="J59" s="272"/>
+      <c r="K59" s="307" t="e">
+        <f>IF(AND(L51&lt;L53,L51&gt;L55),L51,MAX(L53,L55))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L59" s="307"/>
+      <c r="M59" s="273"/>
+      <c r="N59" s="273"/>
+      <c r="O59" s="274"/>
+      <c r="P59" s="263"/>
+      <c r="Q59" s="249"/>
+      <c r="R59" s="230"/>
+    </row>
+    <row r="60" spans="3:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="228"/>
+      <c r="D60" s="261"/>
+      <c r="E60" s="263"/>
+      <c r="F60" s="263"/>
+      <c r="G60" s="263"/>
+      <c r="H60" s="267"/>
+      <c r="I60" s="236"/>
+      <c r="J60" s="267"/>
+      <c r="K60" s="275"/>
+      <c r="L60" s="275"/>
+      <c r="M60" s="263"/>
+      <c r="N60" s="263"/>
+      <c r="O60" s="263"/>
+      <c r="P60" s="263"/>
+      <c r="Q60" s="249"/>
+      <c r="R60" s="230"/>
+    </row>
+    <row r="61" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C61" s="228"/>
+      <c r="D61" s="276"/>
+      <c r="E61" s="277"/>
+      <c r="F61" s="277"/>
+      <c r="G61" s="277"/>
+      <c r="H61" s="277"/>
+      <c r="I61" s="277"/>
+      <c r="J61" s="277"/>
+      <c r="K61" s="278"/>
+      <c r="L61" s="278"/>
+      <c r="M61" s="277"/>
+      <c r="N61" s="277"/>
+      <c r="O61" s="277"/>
+      <c r="P61" s="277"/>
+      <c r="Q61" s="250"/>
+      <c r="R61" s="230"/>
+    </row>
+    <row r="62" spans="3:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="228"/>
+      <c r="D62" s="263"/>
+      <c r="E62" s="263"/>
+      <c r="F62" s="263"/>
+      <c r="G62" s="263"/>
+      <c r="H62" s="263"/>
+      <c r="I62" s="263"/>
+      <c r="J62" s="263"/>
+      <c r="K62" s="263"/>
+      <c r="L62" s="263"/>
+      <c r="M62" s="263"/>
+      <c r="N62" s="263"/>
+      <c r="O62" s="263"/>
+      <c r="P62" s="263"/>
+      <c r="Q62" s="229"/>
+      <c r="R62" s="230"/>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C63" s="228"/>
+      <c r="D63" s="263"/>
+      <c r="E63" s="263"/>
+      <c r="F63" s="263"/>
+      <c r="G63" s="263"/>
+      <c r="H63" s="263"/>
+      <c r="I63" s="263"/>
+      <c r="J63" s="263"/>
+      <c r="K63" s="263"/>
+      <c r="L63" s="263"/>
+      <c r="M63" s="263"/>
+      <c r="N63" s="263"/>
+      <c r="O63" s="263"/>
+      <c r="P63" s="263"/>
+      <c r="Q63" s="229"/>
+      <c r="R63" s="230"/>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C64" s="228"/>
+      <c r="D64" s="267"/>
+      <c r="E64" s="267"/>
+      <c r="F64" s="263"/>
+      <c r="G64" s="263"/>
+      <c r="H64" s="279" t="s">
+        <v>299</v>
+      </c>
+      <c r="I64" s="279"/>
+      <c r="J64" s="279"/>
+      <c r="K64" s="279"/>
+      <c r="L64" s="279"/>
+      <c r="M64" s="263"/>
+      <c r="N64" s="263"/>
+      <c r="O64" s="263"/>
+      <c r="P64" s="263"/>
+      <c r="Q64" s="229"/>
+      <c r="R64" s="230"/>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C65" s="228"/>
+      <c r="D65" s="267"/>
+      <c r="E65" s="263"/>
+      <c r="F65" s="263"/>
+      <c r="G65" s="263"/>
+      <c r="H65" s="280" t="s">
         <v>200</v>
       </c>
-      <c r="I57" s="143" t="s">
+      <c r="I65" s="281" t="s">
         <v>201</v>
       </c>
-      <c r="J57" s="143"/>
-      <c r="K57" s="143"/>
-      <c r="L57" s="143"/>
-      <c r="M57" s="31"/>
-      <c r="N57" s="31"/>
-      <c r="O57" s="31"/>
-      <c r="P57" s="31"/>
-      <c r="Q57" s="31"/>
-      <c r="R57" s="38"/>
-    </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C58" s="37"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="60">
+      <c r="J65" s="281"/>
+      <c r="K65" s="281"/>
+      <c r="L65" s="281"/>
+      <c r="M65" s="263"/>
+      <c r="N65" s="263"/>
+      <c r="O65" s="263"/>
+      <c r="P65" s="263"/>
+      <c r="Q65" s="229"/>
+      <c r="R65" s="230"/>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C66" s="228"/>
+      <c r="D66" s="263"/>
+      <c r="E66" s="263"/>
+      <c r="F66" s="263"/>
+      <c r="G66" s="263"/>
+      <c r="H66" s="280">
         <v>1094</v>
       </c>
-      <c r="I58" s="185">
-        <f>L51</f>
-        <v>107000</v>
-      </c>
-      <c r="J58" s="185"/>
-      <c r="K58" s="185"/>
-      <c r="L58" s="185"/>
-      <c r="M58" s="31"/>
-      <c r="N58" s="31"/>
-      <c r="O58" s="31"/>
-      <c r="P58" s="31"/>
-      <c r="Q58" s="31"/>
-      <c r="R58" s="38"/>
-    </row>
-    <row r="59" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C59" s="37"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="31"/>
-      <c r="K59" s="31"/>
-      <c r="L59" s="31"/>
-      <c r="M59" s="31"/>
-      <c r="N59" s="31"/>
-      <c r="O59" s="31"/>
-      <c r="P59" s="31"/>
-      <c r="Q59" s="31"/>
-      <c r="R59" s="38"/>
-    </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C60" s="37"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="31"/>
-      <c r="K60" s="31"/>
-      <c r="L60" s="31"/>
-      <c r="M60" s="31"/>
-      <c r="N60" s="31"/>
-      <c r="O60" s="31"/>
-      <c r="P60" s="31"/>
-      <c r="Q60" s="31"/>
-      <c r="R60" s="38"/>
-    </row>
-    <row r="61" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C61" s="37"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="31"/>
-      <c r="K61" s="31"/>
-      <c r="L61" s="31"/>
-      <c r="M61" s="31"/>
-      <c r="N61" s="31"/>
-      <c r="O61" s="31"/>
-      <c r="P61" s="31"/>
-      <c r="Q61" s="31"/>
-      <c r="R61" s="38"/>
-    </row>
-    <row r="62" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C62" s="37"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="31"/>
-      <c r="L62" s="31"/>
-      <c r="M62" s="31"/>
-      <c r="N62" s="31"/>
-      <c r="O62" s="31"/>
-      <c r="P62" s="31"/>
-      <c r="Q62" s="31"/>
-      <c r="R62" s="38"/>
-    </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B63" s="31"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="41"/>
-      <c r="E63" s="41"/>
-      <c r="F63" s="41"/>
-      <c r="G63" s="41"/>
-      <c r="H63" s="41"/>
-      <c r="I63" s="41"/>
-      <c r="J63" s="41"/>
-      <c r="K63" s="41"/>
-      <c r="L63" s="41"/>
-      <c r="M63" s="41"/>
-      <c r="N63" s="41"/>
-      <c r="O63" s="41"/>
-      <c r="P63" s="41"/>
-      <c r="Q63" s="41"/>
-      <c r="R63" s="42"/>
-      <c r="S63" s="31"/>
-      <c r="T63" s="31"/>
-    </row>
-    <row r="64" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B64" s="31"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="31"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="31"/>
-      <c r="J64" s="31"/>
-      <c r="K64" s="31"/>
-      <c r="L64" s="31"/>
-      <c r="M64" s="31"/>
-      <c r="N64" s="31"/>
-      <c r="O64" s="31"/>
-      <c r="P64" s="31"/>
-      <c r="Q64" s="31"/>
-      <c r="R64" s="31"/>
-      <c r="S64" s="31"/>
-      <c r="T64" s="31"/>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B65" s="31"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="31"/>
-      <c r="K65" s="31"/>
-      <c r="L65" s="31"/>
-      <c r="M65" s="31"/>
-      <c r="N65" s="31"/>
-      <c r="O65" s="31"/>
-      <c r="P65" s="31"/>
-      <c r="Q65" s="31"/>
-      <c r="R65" s="31"/>
-      <c r="S65" s="31"/>
-      <c r="T65" s="31"/>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B66" s="31"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="31"/>
-      <c r="K66" s="31"/>
-      <c r="L66" s="31"/>
-      <c r="M66" s="31"/>
-      <c r="N66" s="31"/>
-      <c r="O66" s="31"/>
-      <c r="P66" s="31"/>
-      <c r="Q66" s="31"/>
-      <c r="R66" s="31"/>
-      <c r="S66" s="31"/>
-      <c r="T66" s="31"/>
+      <c r="I66" s="307" t="e">
+        <f>K59</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J66" s="307"/>
+      <c r="K66" s="307"/>
+      <c r="L66" s="307"/>
+      <c r="M66" s="263"/>
+      <c r="N66" s="263"/>
+      <c r="O66" s="263"/>
+      <c r="P66" s="263"/>
+      <c r="Q66" s="229"/>
+      <c r="R66" s="230"/>
     </row>
     <row r="67" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B67" s="31"/>
-      <c r="C67" s="31"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="31"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="31"/>
-      <c r="I67" s="31"/>
-      <c r="J67" s="31"/>
-      <c r="K67" s="31"/>
-      <c r="L67" s="31"/>
-      <c r="M67" s="31"/>
-      <c r="N67" s="31"/>
-      <c r="O67" s="31"/>
-      <c r="P67" s="31"/>
-      <c r="Q67" s="31"/>
-      <c r="R67" s="31"/>
-      <c r="S67" s="31"/>
-      <c r="T67" s="31"/>
+      <c r="C67" s="228"/>
+      <c r="D67" s="263"/>
+      <c r="E67" s="263"/>
+      <c r="F67" s="263"/>
+      <c r="G67" s="263"/>
+      <c r="H67" s="263"/>
+      <c r="I67" s="263"/>
+      <c r="J67" s="263"/>
+      <c r="K67" s="263"/>
+      <c r="L67" s="263"/>
+      <c r="M67" s="263"/>
+      <c r="N67" s="263"/>
+      <c r="O67" s="263"/>
+      <c r="P67" s="263"/>
+      <c r="Q67" s="229"/>
+      <c r="R67" s="230"/>
     </row>
     <row r="68" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B68" s="31"/>
-      <c r="C68" s="31"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="31"/>
-      <c r="F68" s="31"/>
-      <c r="G68" s="31"/>
-      <c r="H68" s="31"/>
-      <c r="I68" s="31"/>
-      <c r="J68" s="31"/>
-      <c r="K68" s="31"/>
-      <c r="L68" s="31"/>
-      <c r="M68" s="31"/>
-      <c r="N68" s="31"/>
-      <c r="O68" s="31"/>
-      <c r="P68" s="31"/>
-      <c r="Q68" s="31"/>
-      <c r="R68" s="31"/>
-      <c r="S68" s="31"/>
-      <c r="T68" s="31"/>
+      <c r="C68" s="228"/>
+      <c r="D68" s="263"/>
+      <c r="E68" s="263"/>
+      <c r="F68" s="263"/>
+      <c r="G68" s="263"/>
+      <c r="H68" s="263"/>
+      <c r="I68" s="263"/>
+      <c r="J68" s="263"/>
+      <c r="K68" s="263"/>
+      <c r="L68" s="263"/>
+      <c r="M68" s="263"/>
+      <c r="N68" s="263"/>
+      <c r="O68" s="263"/>
+      <c r="P68" s="263"/>
+      <c r="Q68" s="229"/>
+      <c r="R68" s="230"/>
     </row>
     <row r="69" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B69" s="31"/>
-      <c r="C69" s="31"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="31"/>
-      <c r="K69" s="31"/>
-      <c r="L69" s="31"/>
-      <c r="M69" s="31"/>
-      <c r="N69" s="31"/>
-      <c r="O69" s="31"/>
-      <c r="P69" s="31"/>
-      <c r="Q69" s="31"/>
-      <c r="R69" s="31"/>
-      <c r="S69" s="31"/>
-      <c r="T69" s="31"/>
+      <c r="C69" s="228"/>
+      <c r="D69" s="229"/>
+      <c r="E69" s="229"/>
+      <c r="F69" s="229"/>
+      <c r="G69" s="229"/>
+      <c r="H69" s="229"/>
+      <c r="I69" s="229"/>
+      <c r="J69" s="229"/>
+      <c r="K69" s="229"/>
+      <c r="L69" s="229"/>
+      <c r="M69" s="229"/>
+      <c r="N69" s="229"/>
+      <c r="O69" s="229"/>
+      <c r="P69" s="229"/>
+      <c r="Q69" s="229"/>
+      <c r="R69" s="230"/>
     </row>
     <row r="70" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B70" s="31"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="31"/>
-      <c r="J70" s="31"/>
-      <c r="K70" s="31"/>
-      <c r="L70" s="31"/>
-      <c r="M70" s="31"/>
-      <c r="N70" s="31"/>
-      <c r="O70" s="31"/>
-      <c r="P70" s="31"/>
-      <c r="Q70" s="31"/>
-      <c r="R70" s="31"/>
-      <c r="S70" s="31"/>
-      <c r="T70" s="31"/>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C70" s="228"/>
+      <c r="D70" s="229"/>
+      <c r="E70" s="229"/>
+      <c r="F70" s="229"/>
+      <c r="G70" s="229"/>
+      <c r="H70" s="229"/>
+      <c r="I70" s="229"/>
+      <c r="J70" s="229"/>
+      <c r="K70" s="229"/>
+      <c r="L70" s="229"/>
+      <c r="M70" s="229"/>
+      <c r="N70" s="229"/>
+      <c r="O70" s="229"/>
+      <c r="P70" s="229"/>
+      <c r="Q70" s="229"/>
+      <c r="R70" s="230"/>
+    </row>
+    <row r="71" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B71" s="31"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="31"/>
-      <c r="G71" s="31"/>
-      <c r="H71" s="31"/>
-      <c r="I71" s="31"/>
-      <c r="J71" s="31"/>
-      <c r="K71" s="31"/>
-      <c r="L71" s="31"/>
-      <c r="M71" s="31"/>
-      <c r="N71" s="31"/>
-      <c r="O71" s="31"/>
-      <c r="P71" s="31"/>
-      <c r="Q71" s="31"/>
-      <c r="R71" s="31"/>
+      <c r="C71" s="251"/>
+      <c r="D71" s="252"/>
+      <c r="E71" s="252"/>
+      <c r="F71" s="252"/>
+      <c r="G71" s="252"/>
+      <c r="H71" s="252"/>
+      <c r="I71" s="252"/>
+      <c r="J71" s="252"/>
+      <c r="K71" s="252"/>
+      <c r="L71" s="252"/>
+      <c r="M71" s="252"/>
+      <c r="N71" s="252"/>
+      <c r="O71" s="252"/>
+      <c r="P71" s="252"/>
+      <c r="Q71" s="252"/>
+      <c r="R71" s="253"/>
       <c r="S71" s="31"/>
       <c r="T71" s="31"/>
     </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B72" s="31"/>
       <c r="C72" s="31"/>
       <c r="D72" s="31"/>
@@ -15713,65 +16201,246 @@
       <c r="S82" s="31"/>
       <c r="T82" s="31"/>
     </row>
+    <row r="83" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B83" s="31"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31"/>
+      <c r="J83" s="31"/>
+      <c r="K83" s="31"/>
+      <c r="L83" s="31"/>
+      <c r="M83" s="31"/>
+      <c r="N83" s="31"/>
+      <c r="O83" s="31"/>
+      <c r="P83" s="31"/>
+      <c r="Q83" s="31"/>
+      <c r="R83" s="31"/>
+      <c r="S83" s="31"/>
+      <c r="T83" s="31"/>
+    </row>
+    <row r="84" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B84" s="31"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="31"/>
+      <c r="G84" s="31"/>
+      <c r="H84" s="31"/>
+      <c r="I84" s="31"/>
+      <c r="J84" s="31"/>
+      <c r="K84" s="31"/>
+      <c r="L84" s="31"/>
+      <c r="M84" s="31"/>
+      <c r="N84" s="31"/>
+      <c r="O84" s="31"/>
+      <c r="P84" s="31"/>
+      <c r="Q84" s="31"/>
+      <c r="R84" s="31"/>
+      <c r="S84" s="31"/>
+      <c r="T84" s="31"/>
+    </row>
+    <row r="85" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B85" s="31"/>
+      <c r="C85" s="31"/>
+      <c r="D85" s="31"/>
+      <c r="E85" s="31"/>
+      <c r="F85" s="31"/>
+      <c r="G85" s="31"/>
+      <c r="H85" s="31"/>
+      <c r="I85" s="31"/>
+      <c r="J85" s="31"/>
+      <c r="K85" s="31"/>
+      <c r="L85" s="31"/>
+      <c r="M85" s="31"/>
+      <c r="N85" s="31"/>
+      <c r="O85" s="31"/>
+      <c r="P85" s="31"/>
+      <c r="Q85" s="31"/>
+      <c r="R85" s="31"/>
+      <c r="S85" s="31"/>
+      <c r="T85" s="31"/>
+    </row>
+    <row r="86" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B86" s="31"/>
+      <c r="C86" s="31"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="31"/>
+      <c r="F86" s="31"/>
+      <c r="G86" s="31"/>
+      <c r="H86" s="31"/>
+      <c r="I86" s="31"/>
+      <c r="J86" s="31"/>
+      <c r="K86" s="31"/>
+      <c r="L86" s="31"/>
+      <c r="M86" s="31"/>
+      <c r="N86" s="31"/>
+      <c r="O86" s="31"/>
+      <c r="P86" s="31"/>
+      <c r="Q86" s="31"/>
+      <c r="R86" s="31"/>
+      <c r="S86" s="31"/>
+      <c r="T86" s="31"/>
+    </row>
+    <row r="87" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B87" s="31"/>
+      <c r="C87" s="31"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="31"/>
+      <c r="J87" s="31"/>
+      <c r="K87" s="31"/>
+      <c r="L87" s="31"/>
+      <c r="M87" s="31"/>
+      <c r="N87" s="31"/>
+      <c r="O87" s="31"/>
+      <c r="P87" s="31"/>
+      <c r="Q87" s="31"/>
+      <c r="R87" s="31"/>
+      <c r="S87" s="31"/>
+      <c r="T87" s="31"/>
+    </row>
+    <row r="88" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B88" s="31"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="31"/>
+      <c r="J88" s="31"/>
+      <c r="K88" s="31"/>
+      <c r="L88" s="31"/>
+      <c r="M88" s="31"/>
+      <c r="N88" s="31"/>
+      <c r="O88" s="31"/>
+      <c r="P88" s="31"/>
+      <c r="Q88" s="31"/>
+      <c r="R88" s="31"/>
+      <c r="S88" s="31"/>
+      <c r="T88" s="31"/>
+    </row>
+    <row r="89" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B89" s="31"/>
+      <c r="C89" s="31"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="31"/>
+      <c r="F89" s="31"/>
+      <c r="G89" s="31"/>
+      <c r="H89" s="31"/>
+      <c r="I89" s="31"/>
+      <c r="J89" s="31"/>
+      <c r="K89" s="31"/>
+      <c r="L89" s="31"/>
+      <c r="M89" s="31"/>
+      <c r="N89" s="31"/>
+      <c r="O89" s="31"/>
+      <c r="P89" s="31"/>
+      <c r="Q89" s="31"/>
+      <c r="R89" s="31"/>
+      <c r="S89" s="31"/>
+      <c r="T89" s="31"/>
+    </row>
+    <row r="90" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B90" s="31"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="31"/>
+      <c r="E90" s="31"/>
+      <c r="F90" s="31"/>
+      <c r="G90" s="31"/>
+      <c r="H90" s="31"/>
+      <c r="I90" s="31"/>
+      <c r="J90" s="31"/>
+      <c r="K90" s="31"/>
+      <c r="L90" s="31"/>
+      <c r="M90" s="31"/>
+      <c r="N90" s="31"/>
+      <c r="O90" s="31"/>
+      <c r="P90" s="31"/>
+      <c r="Q90" s="31"/>
+      <c r="R90" s="31"/>
+      <c r="S90" s="31"/>
+      <c r="T90" s="31"/>
+    </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="K20:P20"/>
+  <mergeCells count="39">
+    <mergeCell ref="D33:R33"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="K25:P25"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="K27:P27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="K28:P28"/>
+    <mergeCell ref="H64:L64"/>
+    <mergeCell ref="I66:L66"/>
+    <mergeCell ref="D43:R43"/>
+    <mergeCell ref="O46:O47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="K61:L61"/>
     <mergeCell ref="D22:H22"/>
     <mergeCell ref="K22:P22"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="K23:P23"/>
-    <mergeCell ref="H56:L56"/>
-    <mergeCell ref="I58:L58"/>
-    <mergeCell ref="D38:R38"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="K17:P17"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="K19:P19"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="K24:P24"/>
     <mergeCell ref="K10:L10"/>
-    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D21:H21"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K14:L14"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
     <mergeCell ref="C6:R6"/>
     <mergeCell ref="D7:R7"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="K16:P16"/>
+    <mergeCell ref="K21:P21"/>
   </mergeCells>
-  <dataValidations count="9">
+  <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11">
       <formula1>$AN$2:$AN$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20:H20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D25:H25">
       <formula1>$AQ$2:$AQ$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K20:Q20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K25:Q25">
       <formula1>$AU$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D23:H23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D28:H28">
       <formula1>$AY$2:$AY$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K23:Q23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K28:Q28">
       <formula1>$BB$2:$BB$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:E11">
-      <formula1>$BJ$2:$BJ$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17:H17">
-      <formula1>$AE$2:$AE$19</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K17:Q17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K22:Q22">
       <formula1>$AJ$2:$AJ$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K11:L11 K14:L14">
-      <formula1>$BJ$1:$BJ$7</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D22:H22">
+      <formula1>$AE$2:$AE$20</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:E11 D13:E13 K11:L11 K14:L14">
+      <formula1>$AB$1:$AB$8</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -15898,22 +16567,22 @@
       </c>
     </row>
     <row r="6" spans="3:52" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="159" t="s">
+      <c r="C6" s="142" t="s">
         <v>261</v>
       </c>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="160"/>
-      <c r="H6" s="160"/>
-      <c r="I6" s="160"/>
-      <c r="J6" s="160"/>
-      <c r="K6" s="160"/>
-      <c r="L6" s="160"/>
-      <c r="M6" s="160"/>
-      <c r="N6" s="160"/>
-      <c r="O6" s="160"/>
-      <c r="P6" s="161"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="143"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="143"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="143"/>
+      <c r="N6" s="143"/>
+      <c r="O6" s="143"/>
+      <c r="P6" s="144"/>
       <c r="AC6" t="s">
         <v>145</v>
       </c>
@@ -15926,21 +16595,21 @@
     </row>
     <row r="7" spans="3:52" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C7" s="37"/>
-      <c r="D7" s="162" t="s">
+      <c r="D7" s="145" t="s">
         <v>198</v>
       </c>
-      <c r="E7" s="162"/>
-      <c r="F7" s="162"/>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
-      <c r="J7" s="162"/>
-      <c r="K7" s="162"/>
-      <c r="L7" s="162"/>
-      <c r="M7" s="162"/>
-      <c r="N7" s="162"/>
-      <c r="O7" s="162"/>
-      <c r="P7" s="163"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="145"/>
+      <c r="K7" s="145"/>
+      <c r="L7" s="145"/>
+      <c r="M7" s="145"/>
+      <c r="N7" s="145"/>
+      <c r="O7" s="145"/>
+      <c r="P7" s="146"/>
       <c r="AC7" t="s">
         <v>146</v>
       </c>
@@ -16003,21 +16672,21 @@
     </row>
     <row r="10" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C10" s="37"/>
-      <c r="D10" s="164" t="s">
+      <c r="D10" s="147" t="s">
         <v>272</v>
       </c>
-      <c r="E10" s="164"/>
+      <c r="E10" s="147"/>
       <c r="F10" s="96"/>
       <c r="G10" s="96"/>
       <c r="H10" s="93" t="s">
         <v>220</v>
       </c>
       <c r="I10" s="31"/>
-      <c r="J10" s="165" t="s">
+      <c r="J10" s="148" t="s">
         <v>278</v>
       </c>
-      <c r="K10" s="165"/>
-      <c r="L10" s="165"/>
+      <c r="K10" s="148"/>
+      <c r="L10" s="148"/>
       <c r="M10" s="46"/>
       <c r="N10" s="93" t="s">
         <v>274</v>
@@ -16032,21 +16701,21 @@
     </row>
     <row r="11" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C11" s="37"/>
-      <c r="D11" s="166" t="s">
+      <c r="D11" s="149" t="s">
         <v>277</v>
       </c>
-      <c r="E11" s="167"/>
+      <c r="E11" s="150"/>
       <c r="F11" s="97"/>
       <c r="G11" s="122"/>
-      <c r="H11" s="134">
+      <c r="H11" s="132">
         <v>0.3</v>
       </c>
       <c r="I11" s="31"/>
-      <c r="J11" s="187">
+      <c r="J11" s="166">
         <v>87000</v>
       </c>
-      <c r="K11" s="188"/>
-      <c r="L11" s="189"/>
+      <c r="K11" s="167"/>
+      <c r="L11" s="168"/>
       <c r="M11" s="94"/>
       <c r="N11" s="98">
         <v>600000</v>
@@ -16059,21 +16728,21 @@
     </row>
     <row r="12" spans="3:52" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="37"/>
-      <c r="D12" s="164" t="s">
+      <c r="D12" s="147" t="s">
         <v>227</v>
       </c>
-      <c r="E12" s="164"/>
-      <c r="F12" s="164"/>
-      <c r="G12" s="164"/>
-      <c r="H12" s="164"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="147"/>
+      <c r="G12" s="147"/>
+      <c r="H12" s="147"/>
       <c r="I12" s="31"/>
       <c r="J12" s="31"/>
-      <c r="K12" s="164" t="s">
+      <c r="K12" s="147" t="s">
         <v>222</v>
       </c>
-      <c r="L12" s="164"/>
-      <c r="M12" s="164"/>
-      <c r="N12" s="164"/>
+      <c r="L12" s="147"/>
+      <c r="M12" s="147"/>
+      <c r="N12" s="147"/>
       <c r="O12" s="93"/>
       <c r="P12" s="38"/>
       <c r="AC12" t="s">
@@ -16082,17 +16751,17 @@
     </row>
     <row r="13" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C13" s="37"/>
-      <c r="D13" s="171"/>
-      <c r="E13" s="172"/>
-      <c r="F13" s="172"/>
-      <c r="G13" s="172"/>
-      <c r="H13" s="173"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="155"/>
+      <c r="F13" s="155"/>
+      <c r="G13" s="155"/>
+      <c r="H13" s="156"/>
       <c r="I13" s="31"/>
       <c r="J13" s="31"/>
-      <c r="K13" s="171"/>
-      <c r="L13" s="172"/>
-      <c r="M13" s="172"/>
-      <c r="N13" s="173"/>
+      <c r="K13" s="154"/>
+      <c r="L13" s="155"/>
+      <c r="M13" s="155"/>
+      <c r="N13" s="156"/>
       <c r="O13" s="93"/>
       <c r="P13" s="38"/>
       <c r="AC13" t="s">
@@ -16122,21 +16791,21 @@
     </row>
     <row r="15" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C15" s="37"/>
-      <c r="D15" s="164" t="s">
+      <c r="D15" s="147" t="s">
         <v>223</v>
       </c>
-      <c r="E15" s="164"/>
-      <c r="F15" s="164"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="164"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="147"/>
+      <c r="H15" s="147"/>
       <c r="I15" s="31"/>
       <c r="J15" s="31"/>
-      <c r="K15" s="164" t="s">
+      <c r="K15" s="147" t="s">
         <v>224</v>
       </c>
-      <c r="L15" s="164"/>
-      <c r="M15" s="164"/>
-      <c r="N15" s="164"/>
+      <c r="L15" s="147"/>
+      <c r="M15" s="147"/>
+      <c r="N15" s="147"/>
       <c r="O15" s="93"/>
       <c r="P15" s="38"/>
       <c r="AC15" t="s">
@@ -16147,17 +16816,17 @@
     </row>
     <row r="16" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C16" s="37"/>
-      <c r="D16" s="171"/>
-      <c r="E16" s="172"/>
-      <c r="F16" s="172"/>
-      <c r="G16" s="172"/>
-      <c r="H16" s="173"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="156"/>
       <c r="I16" s="31"/>
       <c r="J16" s="31"/>
-      <c r="K16" s="171"/>
-      <c r="L16" s="172"/>
-      <c r="M16" s="172"/>
-      <c r="N16" s="173"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="155"/>
+      <c r="M16" s="155"/>
+      <c r="N16" s="156"/>
       <c r="O16" s="93"/>
       <c r="P16" s="38"/>
       <c r="AC16" t="s">
@@ -16189,21 +16858,21 @@
     </row>
     <row r="18" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C18" s="37"/>
-      <c r="D18" s="164" t="s">
+      <c r="D18" s="147" t="s">
         <v>225</v>
       </c>
-      <c r="E18" s="164"/>
-      <c r="F18" s="164"/>
-      <c r="G18" s="164"/>
-      <c r="H18" s="164"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="147"/>
       <c r="I18" s="31"/>
       <c r="J18" s="31"/>
-      <c r="K18" s="164" t="s">
+      <c r="K18" s="147" t="s">
         <v>226</v>
       </c>
-      <c r="L18" s="164"/>
-      <c r="M18" s="164"/>
-      <c r="N18" s="164"/>
+      <c r="L18" s="147"/>
+      <c r="M18" s="147"/>
+      <c r="N18" s="147"/>
       <c r="O18" s="93"/>
       <c r="P18" s="38"/>
       <c r="AC18" t="s">
@@ -16214,17 +16883,17 @@
     </row>
     <row r="19" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C19" s="37"/>
-      <c r="D19" s="171"/>
-      <c r="E19" s="172"/>
-      <c r="F19" s="172"/>
-      <c r="G19" s="172"/>
-      <c r="H19" s="173"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
+      <c r="H19" s="156"/>
       <c r="I19" s="31"/>
       <c r="J19" s="31"/>
-      <c r="K19" s="171"/>
-      <c r="L19" s="172"/>
-      <c r="M19" s="172"/>
-      <c r="N19" s="173"/>
+      <c r="K19" s="154"/>
+      <c r="L19" s="155"/>
+      <c r="M19" s="155"/>
+      <c r="N19" s="156"/>
       <c r="O19" s="93"/>
       <c r="P19" s="38"/>
       <c r="AC19" t="s">
@@ -16259,12 +16928,12 @@
       <c r="D21" s="31"/>
       <c r="E21" s="31"/>
       <c r="F21" s="31"/>
-      <c r="G21" s="135" t="s">
+      <c r="G21" s="133" t="s">
         <v>279</v>
       </c>
-      <c r="H21" s="136"/>
-      <c r="I21" s="136"/>
-      <c r="J21" s="137">
+      <c r="H21" s="134"/>
+      <c r="I21" s="134"/>
+      <c r="J21" s="135">
         <f>J11*H11</f>
         <v>26100</v>
       </c>
@@ -16499,21 +17168,21 @@
     </row>
     <row r="34" spans="3:16" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C34" s="34"/>
-      <c r="D34" s="178" t="s">
+      <c r="D34" s="161" t="s">
         <v>203</v>
       </c>
-      <c r="E34" s="178"/>
-      <c r="F34" s="178"/>
-      <c r="G34" s="178"/>
-      <c r="H34" s="178"/>
-      <c r="I34" s="178"/>
-      <c r="J34" s="178"/>
-      <c r="K34" s="178"/>
-      <c r="L34" s="178"/>
-      <c r="M34" s="178"/>
-      <c r="N34" s="178"/>
-      <c r="O34" s="178"/>
-      <c r="P34" s="179"/>
+      <c r="E34" s="161"/>
+      <c r="F34" s="161"/>
+      <c r="G34" s="161"/>
+      <c r="H34" s="161"/>
+      <c r="I34" s="161"/>
+      <c r="J34" s="161"/>
+      <c r="K34" s="161"/>
+      <c r="L34" s="161"/>
+      <c r="M34" s="161"/>
+      <c r="N34" s="161"/>
+      <c r="O34" s="161"/>
+      <c r="P34" s="162"/>
     </row>
     <row r="35" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C35" s="37"/>
@@ -16556,19 +17225,19 @@
       <c r="H37" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="I37" s="180" t="s">
+      <c r="I37" s="163" t="s">
         <v>124</v>
       </c>
       <c r="J37" s="93" t="s">
         <v>276</v>
       </c>
-      <c r="K37" s="180" t="s">
+      <c r="K37" s="163" t="s">
         <v>126</v>
       </c>
       <c r="L37" s="93" t="s">
         <v>268</v>
       </c>
-      <c r="M37" s="180" t="s">
+      <c r="M37" s="163" t="s">
         <v>127</v>
       </c>
       <c r="N37" s="93" t="s">
@@ -16587,17 +17256,17 @@
         <f>J38*N38</f>
         <v>26100</v>
       </c>
-      <c r="I38" s="180"/>
+      <c r="I38" s="163"/>
       <c r="J38" s="102">
         <f>J11</f>
         <v>87000</v>
       </c>
-      <c r="K38" s="180"/>
+      <c r="K38" s="163"/>
       <c r="L38" s="102">
         <f>H31</f>
         <v>0</v>
       </c>
-      <c r="M38" s="180"/>
+      <c r="M38" s="163"/>
       <c r="N38" s="49">
         <v>0.3</v>
       </c>
@@ -16677,13 +17346,13 @@
       <c r="H43" s="93" t="s">
         <v>199</v>
       </c>
-      <c r="I43" s="180" t="s">
+      <c r="I43" s="163" t="s">
         <v>124</v>
       </c>
       <c r="J43" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="K43" s="180" t="s">
+      <c r="K43" s="163" t="s">
         <v>129</v>
       </c>
       <c r="L43" s="93" t="s">
@@ -16704,12 +17373,12 @@
         <f>MIN(J44,L44)</f>
         <v>0</v>
       </c>
-      <c r="I44" s="180"/>
+      <c r="I44" s="163"/>
       <c r="J44" s="102">
         <f>H38</f>
         <v>26100</v>
       </c>
-      <c r="K44" s="180"/>
+      <c r="K44" s="163"/>
       <c r="L44" s="48">
         <v>0</v>
       </c>
@@ -16772,11 +17441,11 @@
       <c r="E48" s="31"/>
       <c r="F48" s="31"/>
       <c r="G48" s="31"/>
-      <c r="H48" s="171" t="s">
+      <c r="H48" s="154" t="s">
         <v>202</v>
       </c>
-      <c r="I48" s="172"/>
-      <c r="J48" s="173"/>
+      <c r="I48" s="155"/>
+      <c r="J48" s="156"/>
       <c r="K48" s="31"/>
       <c r="L48" s="31"/>
       <c r="M48" s="31"/>
@@ -16793,10 +17462,10 @@
       <c r="H49" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="I49" s="174" t="s">
+      <c r="I49" s="157" t="s">
         <v>201</v>
       </c>
-      <c r="J49" s="175"/>
+      <c r="J49" s="158"/>
       <c r="K49" s="31"/>
       <c r="L49" s="31"/>
       <c r="M49" s="31"/>
@@ -16813,11 +17482,11 @@
       <c r="H50" s="60">
         <v>1094</v>
       </c>
-      <c r="I50" s="176">
+      <c r="I50" s="159">
         <f>H38</f>
         <v>26100</v>
       </c>
-      <c r="J50" s="177"/>
+      <c r="J50" s="160"/>
       <c r="K50" s="31"/>
       <c r="L50" s="31"/>
       <c r="M50" s="31"/>
@@ -17451,22 +18120,22 @@
       </c>
     </row>
     <row r="6" spans="3:52" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="159" t="s">
+      <c r="C6" s="142" t="s">
         <v>261</v>
       </c>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="160"/>
-      <c r="H6" s="160"/>
-      <c r="I6" s="160"/>
-      <c r="J6" s="160"/>
-      <c r="K6" s="160"/>
-      <c r="L6" s="160"/>
-      <c r="M6" s="160"/>
-      <c r="N6" s="160"/>
-      <c r="O6" s="160"/>
-      <c r="P6" s="161"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="143"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="143"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="143"/>
+      <c r="N6" s="143"/>
+      <c r="O6" s="143"/>
+      <c r="P6" s="144"/>
       <c r="AC6" t="s">
         <v>145</v>
       </c>
@@ -17479,21 +18148,21 @@
     </row>
     <row r="7" spans="3:52" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C7" s="37"/>
-      <c r="D7" s="162" t="s">
+      <c r="D7" s="145" t="s">
         <v>198</v>
       </c>
-      <c r="E7" s="162"/>
-      <c r="F7" s="162"/>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
-      <c r="J7" s="162"/>
-      <c r="K7" s="162"/>
-      <c r="L7" s="162"/>
-      <c r="M7" s="162"/>
-      <c r="N7" s="162"/>
-      <c r="O7" s="162"/>
-      <c r="P7" s="163"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="145"/>
+      <c r="K7" s="145"/>
+      <c r="L7" s="145"/>
+      <c r="M7" s="145"/>
+      <c r="N7" s="145"/>
+      <c r="O7" s="145"/>
+      <c r="P7" s="146"/>
       <c r="AC7" t="s">
         <v>146</v>
       </c>
@@ -17556,21 +18225,21 @@
     </row>
     <row r="10" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C10" s="37"/>
-      <c r="D10" s="164" t="s">
+      <c r="D10" s="147" t="s">
         <v>272</v>
       </c>
-      <c r="E10" s="164"/>
+      <c r="E10" s="147"/>
       <c r="F10" s="96"/>
       <c r="G10" s="96"/>
       <c r="H10" s="93" t="s">
         <v>220</v>
       </c>
       <c r="I10" s="31"/>
-      <c r="J10" s="165" t="s">
+      <c r="J10" s="148" t="s">
         <v>278</v>
       </c>
-      <c r="K10" s="165"/>
-      <c r="L10" s="165"/>
+      <c r="K10" s="148"/>
+      <c r="L10" s="148"/>
       <c r="M10" s="46"/>
       <c r="N10" s="93" t="s">
         <v>274</v>
@@ -17585,21 +18254,21 @@
     </row>
     <row r="11" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C11" s="37"/>
-      <c r="D11" s="166" t="s">
+      <c r="D11" s="149" t="s">
         <v>280</v>
       </c>
-      <c r="E11" s="167"/>
+      <c r="E11" s="150"/>
       <c r="F11" s="97"/>
       <c r="G11" s="122"/>
-      <c r="H11" s="134" t="s">
+      <c r="H11" s="132" t="s">
         <v>126</v>
       </c>
       <c r="I11" s="31"/>
-      <c r="J11" s="187">
+      <c r="J11" s="166">
         <v>87000</v>
       </c>
-      <c r="K11" s="188"/>
-      <c r="L11" s="189"/>
+      <c r="K11" s="167"/>
+      <c r="L11" s="168"/>
       <c r="M11" s="94"/>
       <c r="N11" s="98">
         <v>600000</v>
@@ -17616,11 +18285,11 @@
       <c r="E12" s="97"/>
       <c r="F12" s="97"/>
       <c r="G12" s="126"/>
-      <c r="H12" s="139"/>
+      <c r="H12" s="137"/>
       <c r="I12" s="46"/>
-      <c r="J12" s="138"/>
-      <c r="K12" s="138"/>
-      <c r="L12" s="138"/>
+      <c r="J12" s="136"/>
+      <c r="K12" s="136"/>
+      <c r="L12" s="136"/>
       <c r="M12" s="94"/>
       <c r="N12" s="128"/>
       <c r="O12" s="31"/>
@@ -17628,17 +18297,17 @@
     </row>
     <row r="13" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C13" s="37"/>
-      <c r="D13" s="140" t="s">
+      <c r="D13" s="138" t="s">
         <v>281</v>
       </c>
       <c r="E13" s="97"/>
       <c r="F13" s="97"/>
       <c r="G13" s="126"/>
-      <c r="H13" s="139"/>
+      <c r="H13" s="137"/>
       <c r="I13" s="46"/>
-      <c r="J13" s="138"/>
-      <c r="K13" s="138"/>
-      <c r="L13" s="138"/>
+      <c r="J13" s="136"/>
+      <c r="K13" s="136"/>
+      <c r="L13" s="136"/>
       <c r="M13" s="94"/>
       <c r="N13" s="128"/>
       <c r="O13" s="31"/>
@@ -17646,17 +18315,17 @@
     </row>
     <row r="14" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C14" s="37"/>
-      <c r="D14" s="141">
+      <c r="D14" s="139">
         <v>0.3</v>
       </c>
       <c r="E14" s="97"/>
       <c r="F14" s="97"/>
       <c r="G14" s="126"/>
-      <c r="H14" s="139"/>
+      <c r="H14" s="137"/>
       <c r="I14" s="46"/>
-      <c r="J14" s="138"/>
-      <c r="K14" s="138"/>
-      <c r="L14" s="138"/>
+      <c r="J14" s="136"/>
+      <c r="K14" s="136"/>
+      <c r="L14" s="136"/>
       <c r="M14" s="94"/>
       <c r="N14" s="128"/>
       <c r="O14" s="31"/>
@@ -17664,21 +18333,21 @@
     </row>
     <row r="15" spans="3:52" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="37"/>
-      <c r="D15" s="164" t="s">
+      <c r="D15" s="147" t="s">
         <v>227</v>
       </c>
-      <c r="E15" s="164"/>
-      <c r="F15" s="164"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="164"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="147"/>
+      <c r="H15" s="147"/>
       <c r="I15" s="31"/>
       <c r="J15" s="31"/>
-      <c r="K15" s="164" t="s">
+      <c r="K15" s="147" t="s">
         <v>222</v>
       </c>
-      <c r="L15" s="164"/>
-      <c r="M15" s="164"/>
-      <c r="N15" s="164"/>
+      <c r="L15" s="147"/>
+      <c r="M15" s="147"/>
+      <c r="N15" s="147"/>
       <c r="O15" s="93"/>
       <c r="P15" s="38"/>
       <c r="AC15" t="s">
@@ -17687,17 +18356,17 @@
     </row>
     <row r="16" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C16" s="37"/>
-      <c r="D16" s="171"/>
-      <c r="E16" s="172"/>
-      <c r="F16" s="172"/>
-      <c r="G16" s="172"/>
-      <c r="H16" s="173"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="156"/>
       <c r="I16" s="31"/>
       <c r="J16" s="31"/>
-      <c r="K16" s="171"/>
-      <c r="L16" s="172"/>
-      <c r="M16" s="172"/>
-      <c r="N16" s="173"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="155"/>
+      <c r="M16" s="155"/>
+      <c r="N16" s="156"/>
       <c r="O16" s="93"/>
       <c r="P16" s="38"/>
       <c r="AC16" t="s">
@@ -17727,21 +18396,21 @@
     </row>
     <row r="18" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C18" s="37"/>
-      <c r="D18" s="164" t="s">
+      <c r="D18" s="147" t="s">
         <v>223</v>
       </c>
-      <c r="E18" s="164"/>
-      <c r="F18" s="164"/>
-      <c r="G18" s="164"/>
-      <c r="H18" s="164"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="147"/>
       <c r="I18" s="31"/>
       <c r="J18" s="31"/>
-      <c r="K18" s="164" t="s">
+      <c r="K18" s="147" t="s">
         <v>224</v>
       </c>
-      <c r="L18" s="164"/>
-      <c r="M18" s="164"/>
-      <c r="N18" s="164"/>
+      <c r="L18" s="147"/>
+      <c r="M18" s="147"/>
+      <c r="N18" s="147"/>
       <c r="O18" s="93"/>
       <c r="P18" s="38"/>
       <c r="AC18" t="s">
@@ -17752,17 +18421,17 @@
     </row>
     <row r="19" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C19" s="37"/>
-      <c r="D19" s="171"/>
-      <c r="E19" s="172"/>
-      <c r="F19" s="172"/>
-      <c r="G19" s="172"/>
-      <c r="H19" s="173"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
+      <c r="H19" s="156"/>
       <c r="I19" s="31"/>
       <c r="J19" s="31"/>
-      <c r="K19" s="171"/>
-      <c r="L19" s="172"/>
-      <c r="M19" s="172"/>
-      <c r="N19" s="173"/>
+      <c r="K19" s="154"/>
+      <c r="L19" s="155"/>
+      <c r="M19" s="155"/>
+      <c r="N19" s="156"/>
       <c r="O19" s="93"/>
       <c r="P19" s="38"/>
       <c r="AC19" t="s">
@@ -17794,21 +18463,21 @@
     </row>
     <row r="21" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C21" s="37"/>
-      <c r="D21" s="164" t="s">
+      <c r="D21" s="147" t="s">
         <v>225</v>
       </c>
-      <c r="E21" s="164"/>
-      <c r="F21" s="164"/>
-      <c r="G21" s="164"/>
-      <c r="H21" s="164"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
       <c r="I21" s="31"/>
       <c r="J21" s="31"/>
-      <c r="K21" s="164" t="s">
+      <c r="K21" s="147" t="s">
         <v>226</v>
       </c>
-      <c r="L21" s="164"/>
-      <c r="M21" s="164"/>
-      <c r="N21" s="164"/>
+      <c r="L21" s="147"/>
+      <c r="M21" s="147"/>
+      <c r="N21" s="147"/>
       <c r="O21" s="93"/>
       <c r="P21" s="38"/>
       <c r="AC21" t="s">
@@ -17819,17 +18488,17 @@
     </row>
     <row r="22" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C22" s="37"/>
-      <c r="D22" s="171"/>
-      <c r="E22" s="172"/>
-      <c r="F22" s="172"/>
-      <c r="G22" s="172"/>
-      <c r="H22" s="173"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="156"/>
       <c r="I22" s="31"/>
       <c r="J22" s="31"/>
-      <c r="K22" s="171"/>
-      <c r="L22" s="172"/>
-      <c r="M22" s="172"/>
-      <c r="N22" s="173"/>
+      <c r="K22" s="154"/>
+      <c r="L22" s="155"/>
+      <c r="M22" s="155"/>
+      <c r="N22" s="156"/>
       <c r="O22" s="93"/>
       <c r="P22" s="38"/>
       <c r="AC22" t="s">
@@ -17864,12 +18533,12 @@
       <c r="D24" s="31"/>
       <c r="E24" s="31"/>
       <c r="F24" s="31"/>
-      <c r="G24" s="135" t="s">
+      <c r="G24" s="133" t="s">
         <v>279</v>
       </c>
-      <c r="H24" s="136"/>
-      <c r="I24" s="136"/>
-      <c r="J24" s="137" t="e">
+      <c r="H24" s="134"/>
+      <c r="I24" s="134"/>
+      <c r="J24" s="135" t="e">
         <f>J11*H11</f>
         <v>#VALUE!</v>
       </c>
@@ -18104,21 +18773,21 @@
     </row>
     <row r="37" spans="3:16" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C37" s="34"/>
-      <c r="D37" s="178" t="s">
+      <c r="D37" s="161" t="s">
         <v>203</v>
       </c>
-      <c r="E37" s="178"/>
-      <c r="F37" s="178"/>
-      <c r="G37" s="178"/>
-      <c r="H37" s="178"/>
-      <c r="I37" s="178"/>
-      <c r="J37" s="178"/>
-      <c r="K37" s="178"/>
-      <c r="L37" s="178"/>
-      <c r="M37" s="178"/>
-      <c r="N37" s="178"/>
-      <c r="O37" s="178"/>
-      <c r="P37" s="179"/>
+      <c r="E37" s="161"/>
+      <c r="F37" s="161"/>
+      <c r="G37" s="161"/>
+      <c r="H37" s="161"/>
+      <c r="I37" s="161"/>
+      <c r="J37" s="161"/>
+      <c r="K37" s="161"/>
+      <c r="L37" s="161"/>
+      <c r="M37" s="161"/>
+      <c r="N37" s="161"/>
+      <c r="O37" s="161"/>
+      <c r="P37" s="162"/>
     </row>
     <row r="38" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C38" s="37"/>
@@ -18161,19 +18830,19 @@
       <c r="H40" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="I40" s="180" t="s">
+      <c r="I40" s="163" t="s">
         <v>124</v>
       </c>
       <c r="J40" s="93" t="s">
         <v>276</v>
       </c>
-      <c r="K40" s="180" t="s">
+      <c r="K40" s="163" t="s">
         <v>126</v>
       </c>
       <c r="L40" s="93" t="s">
         <v>268</v>
       </c>
-      <c r="M40" s="180" t="s">
+      <c r="M40" s="163" t="s">
         <v>127</v>
       </c>
       <c r="N40" s="93" t="s">
@@ -18192,17 +18861,17 @@
         <f>J41*N41</f>
         <v>26100</v>
       </c>
-      <c r="I41" s="180"/>
+      <c r="I41" s="163"/>
       <c r="J41" s="102">
         <f>J11</f>
         <v>87000</v>
       </c>
-      <c r="K41" s="180"/>
+      <c r="K41" s="163"/>
       <c r="L41" s="102">
         <f>H34</f>
         <v>0</v>
       </c>
-      <c r="M41" s="180"/>
+      <c r="M41" s="163"/>
       <c r="N41" s="49">
         <v>0.3</v>
       </c>
@@ -18282,13 +18951,13 @@
       <c r="H46" s="93" t="s">
         <v>199</v>
       </c>
-      <c r="I46" s="180" t="s">
+      <c r="I46" s="163" t="s">
         <v>124</v>
       </c>
       <c r="J46" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="K46" s="180" t="s">
+      <c r="K46" s="163" t="s">
         <v>129</v>
       </c>
       <c r="L46" s="93" t="s">
@@ -18309,12 +18978,12 @@
         <f>MIN(J47,L47)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="180"/>
+      <c r="I47" s="163"/>
       <c r="J47" s="102">
         <f>H41</f>
         <v>26100</v>
       </c>
-      <c r="K47" s="180"/>
+      <c r="K47" s="163"/>
       <c r="L47" s="48">
         <v>0</v>
       </c>
@@ -18377,11 +19046,11 @@
       <c r="E51" s="31"/>
       <c r="F51" s="31"/>
       <c r="G51" s="31"/>
-      <c r="H51" s="171" t="s">
+      <c r="H51" s="154" t="s">
         <v>202</v>
       </c>
-      <c r="I51" s="172"/>
-      <c r="J51" s="173"/>
+      <c r="I51" s="155"/>
+      <c r="J51" s="156"/>
       <c r="K51" s="31"/>
       <c r="L51" s="31"/>
       <c r="M51" s="31"/>
@@ -18398,10 +19067,10 @@
       <c r="H52" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="I52" s="174" t="s">
+      <c r="I52" s="157" t="s">
         <v>201</v>
       </c>
-      <c r="J52" s="175"/>
+      <c r="J52" s="158"/>
       <c r="K52" s="31"/>
       <c r="L52" s="31"/>
       <c r="M52" s="31"/>
@@ -18418,11 +19087,11 @@
       <c r="H53" s="60">
         <v>1094</v>
       </c>
-      <c r="I53" s="176">
+      <c r="I53" s="159">
         <f>H41</f>
         <v>26100</v>
       </c>
-      <c r="J53" s="177"/>
+      <c r="J53" s="160"/>
       <c r="K53" s="31"/>
       <c r="L53" s="31"/>
       <c r="M53" s="31"/>
@@ -19055,22 +19724,22 @@
       </c>
     </row>
     <row r="6" spans="3:52" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="159" t="s">
+      <c r="C6" s="142" t="s">
         <v>261</v>
       </c>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="160"/>
-      <c r="H6" s="160"/>
-      <c r="I6" s="160"/>
-      <c r="J6" s="160"/>
-      <c r="K6" s="160"/>
-      <c r="L6" s="160"/>
-      <c r="M6" s="160"/>
-      <c r="N6" s="160"/>
-      <c r="O6" s="160"/>
-      <c r="P6" s="161"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="143"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="143"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="143"/>
+      <c r="N6" s="143"/>
+      <c r="O6" s="143"/>
+      <c r="P6" s="144"/>
       <c r="AC6" t="s">
         <v>145</v>
       </c>
@@ -19083,21 +19752,21 @@
     </row>
     <row r="7" spans="3:52" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C7" s="37"/>
-      <c r="D7" s="162" t="s">
+      <c r="D7" s="145" t="s">
         <v>198</v>
       </c>
-      <c r="E7" s="162"/>
-      <c r="F7" s="162"/>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
-      <c r="J7" s="162"/>
-      <c r="K7" s="162"/>
-      <c r="L7" s="162"/>
-      <c r="M7" s="162"/>
-      <c r="N7" s="162"/>
-      <c r="O7" s="162"/>
-      <c r="P7" s="163"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="145"/>
+      <c r="K7" s="145"/>
+      <c r="L7" s="145"/>
+      <c r="M7" s="145"/>
+      <c r="N7" s="145"/>
+      <c r="O7" s="145"/>
+      <c r="P7" s="146"/>
       <c r="AC7" t="s">
         <v>146</v>
       </c>
@@ -19160,21 +19829,21 @@
     </row>
     <row r="10" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C10" s="37"/>
-      <c r="D10" s="164" t="s">
+      <c r="D10" s="147" t="s">
         <v>191</v>
       </c>
-      <c r="E10" s="164"/>
+      <c r="E10" s="147"/>
       <c r="F10" s="96"/>
       <c r="G10" s="96"/>
       <c r="H10" s="91" t="s">
         <v>220</v>
       </c>
       <c r="I10" s="31"/>
-      <c r="J10" s="165" t="s">
+      <c r="J10" s="148" t="s">
         <v>228</v>
       </c>
-      <c r="K10" s="165"/>
-      <c r="L10" s="165"/>
+      <c r="K10" s="148"/>
+      <c r="L10" s="148"/>
       <c r="M10" s="46"/>
       <c r="N10" s="91" t="s">
         <v>192</v>
@@ -19189,19 +19858,19 @@
     </row>
     <row r="11" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C11" s="37"/>
-      <c r="D11" s="166" t="s">
+      <c r="D11" s="149" t="s">
         <v>186</v>
       </c>
-      <c r="E11" s="167"/>
+      <c r="E11" s="150"/>
       <c r="F11" s="50"/>
       <c r="G11" s="122"/>
       <c r="H11" s="99">
         <v>20</v>
       </c>
       <c r="I11" s="31"/>
-      <c r="J11" s="168"/>
-      <c r="K11" s="169"/>
-      <c r="L11" s="170"/>
+      <c r="J11" s="151"/>
+      <c r="K11" s="152"/>
+      <c r="L11" s="153"/>
       <c r="M11" s="92"/>
       <c r="N11" s="98">
         <v>632088.51</v>
@@ -19254,10 +19923,10 @@
     </row>
     <row r="14" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C14" s="37"/>
-      <c r="D14" s="190">
+      <c r="D14" s="169">
         <v>87987</v>
       </c>
-      <c r="E14" s="191"/>
+      <c r="E14" s="170"/>
       <c r="F14" s="50"/>
       <c r="G14" s="31"/>
       <c r="H14" s="116"/>
@@ -19293,21 +19962,21 @@
     </row>
     <row r="16" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C16" s="37"/>
-      <c r="D16" s="164" t="s">
+      <c r="D16" s="147" t="s">
         <v>227</v>
       </c>
-      <c r="E16" s="164"/>
-      <c r="F16" s="164"/>
-      <c r="G16" s="164"/>
-      <c r="H16" s="164"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="147"/>
       <c r="I16" s="31"/>
       <c r="J16" s="31"/>
-      <c r="K16" s="164" t="s">
+      <c r="K16" s="147" t="s">
         <v>222</v>
       </c>
-      <c r="L16" s="164"/>
-      <c r="M16" s="164"/>
-      <c r="N16" s="164"/>
+      <c r="L16" s="147"/>
+      <c r="M16" s="147"/>
+      <c r="N16" s="147"/>
       <c r="O16" s="91"/>
       <c r="P16" s="38"/>
       <c r="AC16" t="s">
@@ -19316,17 +19985,17 @@
     </row>
     <row r="17" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C17" s="37"/>
-      <c r="D17" s="171"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="172"/>
-      <c r="H17" s="173"/>
+      <c r="D17" s="154"/>
+      <c r="E17" s="155"/>
+      <c r="F17" s="155"/>
+      <c r="G17" s="155"/>
+      <c r="H17" s="156"/>
       <c r="I17" s="31"/>
       <c r="J17" s="31"/>
-      <c r="K17" s="171"/>
-      <c r="L17" s="172"/>
-      <c r="M17" s="172"/>
-      <c r="N17" s="173"/>
+      <c r="K17" s="154"/>
+      <c r="L17" s="155"/>
+      <c r="M17" s="155"/>
+      <c r="N17" s="156"/>
       <c r="O17" s="91"/>
       <c r="P17" s="38"/>
       <c r="AC17" t="s">
@@ -19356,21 +20025,21 @@
     </row>
     <row r="19" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C19" s="37"/>
-      <c r="D19" s="164" t="s">
+      <c r="D19" s="147" t="s">
         <v>223</v>
       </c>
-      <c r="E19" s="164"/>
-      <c r="F19" s="164"/>
-      <c r="G19" s="164"/>
-      <c r="H19" s="164"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="147"/>
       <c r="I19" s="31"/>
       <c r="J19" s="31"/>
-      <c r="K19" s="164" t="s">
+      <c r="K19" s="147" t="s">
         <v>224</v>
       </c>
-      <c r="L19" s="164"/>
-      <c r="M19" s="164"/>
-      <c r="N19" s="164"/>
+      <c r="L19" s="147"/>
+      <c r="M19" s="147"/>
+      <c r="N19" s="147"/>
       <c r="O19" s="91"/>
       <c r="P19" s="38"/>
       <c r="AC19" t="s">
@@ -19381,17 +20050,17 @@
     </row>
     <row r="20" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C20" s="37"/>
-      <c r="D20" s="171"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="172"/>
-      <c r="H20" s="173"/>
+      <c r="D20" s="154"/>
+      <c r="E20" s="155"/>
+      <c r="F20" s="155"/>
+      <c r="G20" s="155"/>
+      <c r="H20" s="156"/>
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
-      <c r="K20" s="171"/>
-      <c r="L20" s="172"/>
-      <c r="M20" s="172"/>
-      <c r="N20" s="173"/>
+      <c r="K20" s="154"/>
+      <c r="L20" s="155"/>
+      <c r="M20" s="155"/>
+      <c r="N20" s="156"/>
       <c r="O20" s="91"/>
       <c r="P20" s="38"/>
       <c r="AC20" t="s">
@@ -19423,21 +20092,21 @@
     </row>
     <row r="22" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C22" s="37"/>
-      <c r="D22" s="164" t="s">
+      <c r="D22" s="147" t="s">
         <v>225</v>
       </c>
-      <c r="E22" s="164"/>
-      <c r="F22" s="164"/>
-      <c r="G22" s="164"/>
-      <c r="H22" s="164"/>
+      <c r="E22" s="147"/>
+      <c r="F22" s="147"/>
+      <c r="G22" s="147"/>
+      <c r="H22" s="147"/>
       <c r="I22" s="31"/>
       <c r="J22" s="31"/>
-      <c r="K22" s="164" t="s">
+      <c r="K22" s="147" t="s">
         <v>226</v>
       </c>
-      <c r="L22" s="164"/>
-      <c r="M22" s="164"/>
-      <c r="N22" s="164"/>
+      <c r="L22" s="147"/>
+      <c r="M22" s="147"/>
+      <c r="N22" s="147"/>
       <c r="O22" s="91"/>
       <c r="P22" s="38"/>
       <c r="AC22" t="s">
@@ -19448,17 +20117,17 @@
     </row>
     <row r="23" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C23" s="37"/>
-      <c r="D23" s="171"/>
-      <c r="E23" s="172"/>
-      <c r="F23" s="172"/>
-      <c r="G23" s="172"/>
-      <c r="H23" s="173"/>
+      <c r="D23" s="154"/>
+      <c r="E23" s="155"/>
+      <c r="F23" s="155"/>
+      <c r="G23" s="155"/>
+      <c r="H23" s="156"/>
       <c r="I23" s="31"/>
       <c r="J23" s="31"/>
-      <c r="K23" s="171"/>
-      <c r="L23" s="172"/>
-      <c r="M23" s="172"/>
-      <c r="N23" s="173"/>
+      <c r="K23" s="154"/>
+      <c r="L23" s="155"/>
+      <c r="M23" s="155"/>
+      <c r="N23" s="156"/>
       <c r="O23" s="91"/>
       <c r="P23" s="38"/>
       <c r="AC23" t="s">
@@ -19734,21 +20403,21 @@
     </row>
     <row r="38" spans="3:16" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C38" s="34"/>
-      <c r="D38" s="178" t="s">
+      <c r="D38" s="161" t="s">
         <v>203</v>
       </c>
-      <c r="E38" s="178"/>
-      <c r="F38" s="178"/>
-      <c r="G38" s="178"/>
-      <c r="H38" s="178"/>
-      <c r="I38" s="178"/>
-      <c r="J38" s="178"/>
-      <c r="K38" s="178"/>
-      <c r="L38" s="178"/>
-      <c r="M38" s="178"/>
-      <c r="N38" s="178"/>
-      <c r="O38" s="178"/>
-      <c r="P38" s="179"/>
+      <c r="E38" s="161"/>
+      <c r="F38" s="161"/>
+      <c r="G38" s="161"/>
+      <c r="H38" s="161"/>
+      <c r="I38" s="161"/>
+      <c r="J38" s="161"/>
+      <c r="K38" s="161"/>
+      <c r="L38" s="161"/>
+      <c r="M38" s="161"/>
+      <c r="N38" s="161"/>
+      <c r="O38" s="161"/>
+      <c r="P38" s="162"/>
     </row>
     <row r="39" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C39" s="37"/>
@@ -19791,19 +20460,19 @@
       <c r="H41" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="I41" s="180" t="s">
+      <c r="I41" s="163" t="s">
         <v>124</v>
       </c>
       <c r="J41" s="91" t="s">
         <v>267</v>
       </c>
-      <c r="K41" s="180" t="s">
+      <c r="K41" s="163" t="s">
         <v>126</v>
       </c>
       <c r="L41" s="91" t="s">
         <v>268</v>
       </c>
-      <c r="M41" s="180" t="s">
+      <c r="M41" s="163" t="s">
         <v>127</v>
       </c>
       <c r="N41" s="91" t="s">
@@ -19822,17 +20491,17 @@
         <f>(L42-J42)*N42</f>
         <v>113213.29</v>
       </c>
-      <c r="I42" s="180"/>
+      <c r="I42" s="163"/>
       <c r="J42" s="102">
         <f>N35</f>
         <v>66022.06</v>
       </c>
-      <c r="K42" s="180"/>
+      <c r="K42" s="163"/>
       <c r="L42" s="102">
         <f>H35</f>
         <v>632088.51</v>
       </c>
-      <c r="M42" s="180"/>
+      <c r="M42" s="163"/>
       <c r="N42" s="49">
         <v>0.2</v>
       </c>
@@ -19912,13 +20581,13 @@
       <c r="H47" s="91" t="s">
         <v>199</v>
       </c>
-      <c r="I47" s="180" t="s">
+      <c r="I47" s="163" t="s">
         <v>124</v>
       </c>
       <c r="J47" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="K47" s="180" t="s">
+      <c r="K47" s="163" t="s">
         <v>129</v>
       </c>
       <c r="L47" s="91" t="s">
@@ -19939,12 +20608,12 @@
         <f>MIN(J48,L48)</f>
         <v>0</v>
       </c>
-      <c r="I48" s="180"/>
+      <c r="I48" s="163"/>
       <c r="J48" s="102">
         <f>H42</f>
         <v>113213.29</v>
       </c>
-      <c r="K48" s="180"/>
+      <c r="K48" s="163"/>
       <c r="L48" s="48">
         <v>0</v>
       </c>
@@ -20007,11 +20676,11 @@
       <c r="E52" s="31"/>
       <c r="F52" s="31"/>
       <c r="G52" s="31"/>
-      <c r="H52" s="171" t="s">
+      <c r="H52" s="154" t="s">
         <v>202</v>
       </c>
-      <c r="I52" s="172"/>
-      <c r="J52" s="173"/>
+      <c r="I52" s="155"/>
+      <c r="J52" s="156"/>
       <c r="K52" s="31"/>
       <c r="L52" s="31"/>
       <c r="M52" s="31"/>
@@ -20028,10 +20697,10 @@
       <c r="H53" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="I53" s="174" t="s">
+      <c r="I53" s="157" t="s">
         <v>201</v>
       </c>
-      <c r="J53" s="175"/>
+      <c r="J53" s="158"/>
       <c r="K53" s="31"/>
       <c r="L53" s="31"/>
       <c r="M53" s="31"/>
@@ -20048,8 +20717,8 @@
       <c r="H54" s="60">
         <v>1094</v>
       </c>
-      <c r="I54" s="176"/>
-      <c r="J54" s="177"/>
+      <c r="I54" s="159"/>
+      <c r="J54" s="160"/>
       <c r="K54" s="31"/>
       <c r="L54" s="31"/>
       <c r="M54" s="31"/>
@@ -20568,7 +21237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView topLeftCell="D11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="J15" sqref="J15:L15"/>
     </sheetView>
   </sheetViews>
@@ -20597,20 +21266,20 @@
       <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C3" s="192" t="s">
+      <c r="C3" s="171" t="s">
         <v>214</v>
       </c>
-      <c r="D3" s="192"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="192"/>
-      <c r="I3" s="193" t="s">
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="I3" s="172" t="s">
         <v>215</v>
       </c>
-      <c r="J3" s="193"/>
-      <c r="K3" s="193"/>
-      <c r="L3" s="193"/>
-      <c r="M3" s="193"/>
-      <c r="N3" s="193"/>
+      <c r="J3" s="172"/>
+      <c r="K3" s="172"/>
+      <c r="L3" s="172"/>
+      <c r="M3" s="172"/>
+      <c r="N3" s="172"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C4" s="70" t="s">
@@ -21285,20 +21954,20 @@
       <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C3" s="192" t="s">
+      <c r="C3" s="171" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="192"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="192"/>
-      <c r="I3" s="193" t="s">
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="I3" s="172" t="s">
         <v>98</v>
       </c>
-      <c r="J3" s="193"/>
-      <c r="K3" s="193"/>
-      <c r="L3" s="193"/>
-      <c r="M3" s="193"/>
-      <c r="N3" s="193"/>
+      <c r="J3" s="172"/>
+      <c r="K3" s="172"/>
+      <c r="L3" s="172"/>
+      <c r="M3" s="172"/>
+      <c r="N3" s="172"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C4" s="16" t="s">
@@ -21880,7 +22549,7 @@
   <dimension ref="C1:AC31"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21909,8 +22578,8 @@
       </c>
     </row>
     <row r="2" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="R2" s="196"/>
-      <c r="S2" s="196"/>
+      <c r="R2" s="175"/>
+      <c r="S2" s="175"/>
       <c r="AB2" t="s">
         <v>233</v>
       </c>
@@ -21944,43 +22613,43 @@
       </c>
     </row>
     <row r="6" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C6" s="197"/>
-      <c r="D6" s="198"/>
-      <c r="E6" s="198"/>
-      <c r="F6" s="198"/>
-      <c r="G6" s="198"/>
-      <c r="H6" s="198"/>
-      <c r="I6" s="198"/>
-      <c r="J6" s="198"/>
-      <c r="K6" s="198"/>
-      <c r="L6" s="198"/>
-      <c r="M6" s="198"/>
-      <c r="N6" s="198"/>
-      <c r="O6" s="198"/>
-      <c r="P6" s="198"/>
-      <c r="Q6" s="199"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="177"/>
+      <c r="E6" s="177"/>
+      <c r="F6" s="177"/>
+      <c r="G6" s="177"/>
+      <c r="H6" s="177"/>
+      <c r="I6" s="177"/>
+      <c r="J6" s="177"/>
+      <c r="K6" s="177"/>
+      <c r="L6" s="177"/>
+      <c r="M6" s="177"/>
+      <c r="N6" s="177"/>
+      <c r="O6" s="177"/>
+      <c r="P6" s="177"/>
+      <c r="Q6" s="178"/>
       <c r="AC6" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="7" spans="3:29" ht="21" x14ac:dyDescent="0.4">
       <c r="C7" s="37"/>
-      <c r="D7" s="162" t="s">
+      <c r="D7" s="145" t="s">
         <v>229</v>
       </c>
-      <c r="E7" s="162"/>
-      <c r="F7" s="162"/>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
-      <c r="J7" s="162"/>
-      <c r="K7" s="162"/>
-      <c r="L7" s="162"/>
-      <c r="M7" s="162"/>
-      <c r="N7" s="162"/>
-      <c r="O7" s="162"/>
-      <c r="P7" s="162"/>
-      <c r="Q7" s="163"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="145"/>
+      <c r="K7" s="145"/>
+      <c r="L7" s="145"/>
+      <c r="M7" s="145"/>
+      <c r="N7" s="145"/>
+      <c r="O7" s="145"/>
+      <c r="P7" s="145"/>
+      <c r="Q7" s="146"/>
     </row>
     <row r="8" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C8" s="37"/>
@@ -22019,10 +22688,10 @@
     </row>
     <row r="10" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C10" s="37"/>
-      <c r="D10" s="164" t="s">
+      <c r="D10" s="147" t="s">
         <v>241</v>
       </c>
-      <c r="E10" s="164"/>
+      <c r="E10" s="147"/>
       <c r="F10" s="69"/>
       <c r="G10" s="79" t="s">
         <v>230</v>
@@ -22037,20 +22706,20 @@
         <v>134</v>
       </c>
       <c r="M10" s="31"/>
-      <c r="N10" s="164" t="s">
+      <c r="N10" s="147" t="s">
         <v>133</v>
       </c>
-      <c r="O10" s="164"/>
-      <c r="P10" s="164"/>
+      <c r="O10" s="147"/>
+      <c r="P10" s="147"/>
       <c r="Q10" s="81"/>
       <c r="R10" s="69"/>
     </row>
     <row r="11" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C11" s="37"/>
-      <c r="D11" s="194" t="s">
+      <c r="D11" s="173" t="s">
         <v>233</v>
       </c>
-      <c r="E11" s="195"/>
+      <c r="E11" s="174"/>
       <c r="F11" s="33"/>
       <c r="G11" s="3" t="s">
         <v>233</v>
@@ -22061,9 +22730,9 @@
       <c r="K11" s="31"/>
       <c r="L11" s="2"/>
       <c r="M11" s="31"/>
-      <c r="N11" s="171"/>
-      <c r="O11" s="172"/>
-      <c r="P11" s="173"/>
+      <c r="N11" s="154"/>
+      <c r="O11" s="155"/>
+      <c r="P11" s="156"/>
       <c r="Q11" s="81"/>
       <c r="R11" s="69"/>
     </row>
@@ -22105,25 +22774,25 @@
     </row>
     <row r="14" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C14" s="37"/>
-      <c r="D14" s="196" t="s">
+      <c r="D14" s="175" t="s">
         <v>239</v>
       </c>
-      <c r="E14" s="196"/>
-      <c r="F14" s="196"/>
-      <c r="G14" s="196"/>
+      <c r="E14" s="175"/>
+      <c r="F14" s="175"/>
+      <c r="G14" s="175"/>
       <c r="H14" s="69"/>
-      <c r="I14" s="164" t="s">
+      <c r="I14" s="147" t="s">
         <v>247</v>
       </c>
-      <c r="J14" s="164"/>
-      <c r="K14" s="164"/>
+      <c r="J14" s="147"/>
+      <c r="K14" s="147"/>
       <c r="L14" s="31"/>
-      <c r="M14" s="164" t="s">
+      <c r="M14" s="147" t="s">
         <v>236</v>
       </c>
-      <c r="N14" s="164"/>
-      <c r="O14" s="164"/>
-      <c r="P14" s="164"/>
+      <c r="N14" s="147"/>
+      <c r="O14" s="147"/>
+      <c r="P14" s="147"/>
       <c r="Q14" s="81"/>
       <c r="R14" s="31"/>
       <c r="S14" s="31"/>
@@ -22139,10 +22808,10 @@
       <c r="J15" s="67"/>
       <c r="K15" s="30"/>
       <c r="L15" s="31"/>
-      <c r="M15" s="171"/>
-      <c r="N15" s="172"/>
-      <c r="O15" s="172"/>
-      <c r="P15" s="173"/>
+      <c r="M15" s="154"/>
+      <c r="N15" s="155"/>
+      <c r="O15" s="155"/>
+      <c r="P15" s="156"/>
       <c r="Q15" s="81"/>
       <c r="R15" s="31"/>
       <c r="S15" s="31"/>
@@ -22189,21 +22858,21 @@
     </row>
     <row r="18" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C18" s="37"/>
-      <c r="D18" s="164" t="s">
+      <c r="D18" s="147" t="s">
         <v>237</v>
       </c>
-      <c r="E18" s="164"/>
+      <c r="E18" s="147"/>
       <c r="F18" s="31"/>
-      <c r="G18" s="164" t="s">
+      <c r="G18" s="147" t="s">
         <v>244</v>
       </c>
-      <c r="H18" s="164"/>
-      <c r="I18" s="164"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="147"/>
       <c r="J18" s="69"/>
-      <c r="K18" s="164" t="s">
+      <c r="K18" s="147" t="s">
         <v>245</v>
       </c>
-      <c r="L18" s="164"/>
+      <c r="L18" s="147"/>
       <c r="M18" s="69"/>
       <c r="N18" s="31" t="s">
         <v>135</v>
@@ -22216,15 +22885,15 @@
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C19" s="37"/>
-      <c r="D19" s="200"/>
-      <c r="E19" s="201"/>
+      <c r="D19" s="179"/>
+      <c r="E19" s="180"/>
       <c r="F19" s="31"/>
-      <c r="G19" s="171"/>
-      <c r="H19" s="172"/>
-      <c r="I19" s="173"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="155"/>
+      <c r="I19" s="156"/>
       <c r="J19" s="69"/>
-      <c r="K19" s="200"/>
-      <c r="L19" s="201"/>
+      <c r="K19" s="179"/>
+      <c r="L19" s="180"/>
       <c r="M19" s="83"/>
       <c r="N19" s="2"/>
       <c r="P19" s="2"/>
@@ -22272,46 +22941,46 @@
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C22" s="37"/>
-      <c r="D22" s="164" t="s">
+      <c r="D22" s="147" t="s">
         <v>137</v>
       </c>
-      <c r="E22" s="164"/>
-      <c r="F22" s="164"/>
+      <c r="E22" s="147"/>
+      <c r="F22" s="147"/>
       <c r="G22" s="31"/>
-      <c r="H22" s="164" t="s">
+      <c r="H22" s="147" t="s">
         <v>242</v>
       </c>
-      <c r="I22" s="164"/>
-      <c r="J22" s="164"/>
+      <c r="I22" s="147"/>
+      <c r="J22" s="147"/>
       <c r="K22" s="31"/>
       <c r="L22" s="79" t="s">
         <v>243</v>
       </c>
       <c r="M22" s="79"/>
       <c r="N22" s="31"/>
-      <c r="O22" s="196" t="s">
+      <c r="O22" s="175" t="s">
         <v>139</v>
       </c>
-      <c r="P22" s="196"/>
+      <c r="P22" s="175"/>
       <c r="Q22" s="82"/>
       <c r="R22" s="31"/>
       <c r="S22" s="31"/>
     </row>
     <row r="23" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C23" s="37"/>
-      <c r="D23" s="171"/>
-      <c r="E23" s="172"/>
-      <c r="F23" s="173"/>
+      <c r="D23" s="154"/>
+      <c r="E23" s="155"/>
+      <c r="F23" s="156"/>
       <c r="G23" s="31"/>
-      <c r="H23" s="171"/>
-      <c r="I23" s="172"/>
-      <c r="J23" s="173"/>
+      <c r="H23" s="154"/>
+      <c r="I23" s="155"/>
+      <c r="J23" s="156"/>
       <c r="K23" s="31"/>
-      <c r="L23" s="171"/>
-      <c r="M23" s="173"/>
+      <c r="L23" s="154"/>
+      <c r="M23" s="156"/>
       <c r="N23" s="31"/>
-      <c r="O23" s="171"/>
-      <c r="P23" s="173"/>
+      <c r="O23" s="154"/>
+      <c r="P23" s="156"/>
       <c r="Q23" s="82"/>
     </row>
     <row r="24" spans="3:19" x14ac:dyDescent="0.3">

--- a/6- Ingenieria de producto/6.1 - Análisis/04- Archivos de Trabajo/01-Embargos/MID - Módulo Judicial v1.xlsx
+++ b/6- Ingenieria de producto/6.1 - Análisis/04- Archivos de Trabajo/01-Embargos/MID - Módulo Judicial v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gerardo\03 - CIDs - Git\03 - MID\documentacion\6- Ingenieria de producto\6.1 - Análisis\04- Archivos de Trabajo\01-Embargos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A7C81A-88EB-47E6-83E4-01BD20D660AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92804A51-A454-4AB1-8A36-9EBC6A5E40F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1824,7 +1824,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="290">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2183,6 +2183,45 @@
     <xf numFmtId="43" fontId="29" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="18" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="18" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="29" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2213,62 +2252,32 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="29" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="29" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="33" fillId="20" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2279,11 +2288,20 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="11" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="33" fillId="20" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="19" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2303,41 +2321,29 @@
     <xf numFmtId="0" fontId="29" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="29" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="29" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="19" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="43" fontId="33" fillId="20" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="11" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2363,12 +2369,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2378,14 +2378,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2402,17 +2402,14 @@
     <xf numFmtId="0" fontId="18" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="29" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="33" fillId="20" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8297,7 +8294,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -8349,7 +8346,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -8717,20 +8714,20 @@
     </row>
     <row r="7" spans="3:27" ht="21" x14ac:dyDescent="0.5">
       <c r="C7" s="35"/>
-      <c r="D7" s="228" t="s">
+      <c r="D7" s="218" t="s">
         <v>131</v>
       </c>
-      <c r="E7" s="228"/>
-      <c r="F7" s="228"/>
-      <c r="G7" s="228"/>
-      <c r="H7" s="228"/>
-      <c r="I7" s="228"/>
-      <c r="J7" s="228"/>
-      <c r="K7" s="228"/>
-      <c r="L7" s="228"/>
-      <c r="M7" s="228"/>
-      <c r="N7" s="228"/>
-      <c r="O7" s="229"/>
+      <c r="E7" s="218"/>
+      <c r="F7" s="218"/>
+      <c r="G7" s="218"/>
+      <c r="H7" s="218"/>
+      <c r="I7" s="218"/>
+      <c r="J7" s="218"/>
+      <c r="K7" s="218"/>
+      <c r="L7" s="218"/>
+      <c r="M7" s="218"/>
+      <c r="N7" s="218"/>
+      <c r="O7" s="219"/>
       <c r="AA7" t="s">
         <v>253</v>
       </c>
@@ -8754,20 +8751,20 @@
     </row>
     <row r="10" spans="3:27" x14ac:dyDescent="0.35">
       <c r="C10" s="35"/>
-      <c r="D10" s="224" t="s">
+      <c r="D10" s="220" t="s">
         <v>132</v>
       </c>
-      <c r="E10" s="224"/>
+      <c r="E10" s="220"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="I10" s="224" t="s">
+      <c r="I10" s="220" t="s">
         <v>133</v>
       </c>
-      <c r="J10" s="224"/>
-      <c r="K10" s="224"/>
-      <c r="L10" s="224"/>
+      <c r="J10" s="220"/>
+      <c r="K10" s="220"/>
+      <c r="L10" s="220"/>
       <c r="N10" s="16" t="s">
         <v>230</v>
       </c>
@@ -8810,17 +8807,17 @@
       <c r="D14" t="s">
         <v>236</v>
       </c>
-      <c r="I14" s="224" t="s">
+      <c r="I14" s="220" t="s">
         <v>237</v>
       </c>
-      <c r="J14" s="224"/>
+      <c r="J14" s="220"/>
       <c r="K14" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="L14" s="224" t="s">
+      <c r="L14" s="220" t="s">
         <v>245</v>
       </c>
-      <c r="M14" s="224"/>
+      <c r="M14" s="220"/>
       <c r="N14" t="s">
         <v>255</v>
       </c>
@@ -8828,15 +8825,15 @@
     </row>
     <row r="15" spans="3:27" x14ac:dyDescent="0.35">
       <c r="C15" s="35"/>
-      <c r="D15" s="214"/>
-      <c r="E15" s="215"/>
-      <c r="F15" s="215"/>
-      <c r="G15" s="216"/>
-      <c r="I15" s="214"/>
-      <c r="J15" s="216"/>
+      <c r="D15" s="227"/>
+      <c r="E15" s="228"/>
+      <c r="F15" s="228"/>
+      <c r="G15" s="229"/>
+      <c r="I15" s="227"/>
+      <c r="J15" s="229"/>
       <c r="K15" s="16"/>
-      <c r="L15" s="214"/>
-      <c r="M15" s="216"/>
+      <c r="L15" s="227"/>
+      <c r="M15" s="229"/>
       <c r="O15" s="36"/>
     </row>
     <row r="16" spans="3:27" x14ac:dyDescent="0.35">
@@ -8850,17 +8847,17 @@
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C18" s="35"/>
-      <c r="D18" s="224" t="s">
+      <c r="D18" s="220" t="s">
         <v>137</v>
       </c>
-      <c r="E18" s="224"/>
+      <c r="E18" s="220"/>
       <c r="G18" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="I18" s="224" t="s">
+      <c r="I18" s="220" t="s">
         <v>139</v>
       </c>
-      <c r="J18" s="224"/>
+      <c r="J18" s="220"/>
       <c r="L18" t="s">
         <v>244</v>
       </c>
@@ -8936,25 +8933,25 @@
       <c r="D27" s="81" t="s">
         <v>249</v>
       </c>
-      <c r="E27" s="279" t="s">
+      <c r="E27" s="281" t="s">
         <v>257</v>
       </c>
-      <c r="F27" s="279"/>
-      <c r="G27" s="279" t="s">
+      <c r="F27" s="281"/>
+      <c r="G27" s="281" t="s">
         <v>250</v>
       </c>
-      <c r="H27" s="279"/>
-      <c r="I27" s="279"/>
+      <c r="H27" s="281"/>
+      <c r="I27" s="281"/>
       <c r="J27" s="81" t="s">
         <v>258</v>
       </c>
       <c r="K27" s="81" t="s">
         <v>251</v>
       </c>
-      <c r="L27" s="279" t="s">
+      <c r="L27" s="281" t="s">
         <v>252</v>
       </c>
-      <c r="M27" s="279"/>
+      <c r="M27" s="281"/>
       <c r="N27" s="82"/>
       <c r="O27" s="41" t="s">
         <v>141</v>
@@ -9288,21 +9285,21 @@
     </row>
     <row r="6" spans="3:52" x14ac:dyDescent="0.35">
       <c r="C6" s="32"/>
-      <c r="D6" s="280" t="s">
+      <c r="D6" s="287" t="s">
         <v>261</v>
       </c>
-      <c r="E6" s="280"/>
-      <c r="F6" s="280"/>
-      <c r="G6" s="280"/>
-      <c r="H6" s="280"/>
-      <c r="I6" s="280"/>
-      <c r="J6" s="280"/>
-      <c r="K6" s="280"/>
-      <c r="L6" s="280"/>
-      <c r="M6" s="280"/>
-      <c r="N6" s="280"/>
-      <c r="O6" s="280"/>
-      <c r="P6" s="281"/>
+      <c r="E6" s="287"/>
+      <c r="F6" s="287"/>
+      <c r="G6" s="287"/>
+      <c r="H6" s="287"/>
+      <c r="I6" s="287"/>
+      <c r="J6" s="287"/>
+      <c r="K6" s="287"/>
+      <c r="L6" s="287"/>
+      <c r="M6" s="287"/>
+      <c r="N6" s="287"/>
+      <c r="O6" s="287"/>
+      <c r="P6" s="288"/>
       <c r="AC6" t="s">
         <v>145</v>
       </c>
@@ -9315,21 +9312,21 @@
     </row>
     <row r="7" spans="3:52" ht="28.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C7" s="35"/>
-      <c r="D7" s="228" t="s">
+      <c r="D7" s="218" t="s">
         <v>198</v>
       </c>
-      <c r="E7" s="228"/>
-      <c r="F7" s="228"/>
-      <c r="G7" s="228"/>
-      <c r="H7" s="228"/>
-      <c r="I7" s="228"/>
-      <c r="J7" s="228"/>
-      <c r="K7" s="228"/>
-      <c r="L7" s="228"/>
-      <c r="M7" s="228"/>
-      <c r="N7" s="228"/>
-      <c r="O7" s="228"/>
-      <c r="P7" s="229"/>
+      <c r="E7" s="218"/>
+      <c r="F7" s="218"/>
+      <c r="G7" s="218"/>
+      <c r="H7" s="218"/>
+      <c r="I7" s="218"/>
+      <c r="J7" s="218"/>
+      <c r="K7" s="218"/>
+      <c r="L7" s="218"/>
+      <c r="M7" s="218"/>
+      <c r="N7" s="218"/>
+      <c r="O7" s="218"/>
+      <c r="P7" s="219"/>
       <c r="AC7" t="s">
         <v>146</v>
       </c>
@@ -9368,20 +9365,20 @@
     </row>
     <row r="10" spans="3:52" x14ac:dyDescent="0.35">
       <c r="C10" s="35"/>
-      <c r="D10" s="224" t="s">
+      <c r="D10" s="220" t="s">
         <v>191</v>
       </c>
-      <c r="E10" s="224"/>
+      <c r="E10" s="220"/>
       <c r="F10" s="84"/>
       <c r="G10" s="84"/>
       <c r="H10" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="J10" s="230" t="s">
+      <c r="J10" s="221" t="s">
         <v>228</v>
       </c>
-      <c r="K10" s="230"/>
-      <c r="L10" s="230"/>
+      <c r="K10" s="221"/>
+      <c r="L10" s="221"/>
       <c r="M10" s="43"/>
       <c r="N10" s="16" t="s">
         <v>192</v>
@@ -9395,18 +9392,18 @@
     </row>
     <row r="11" spans="3:52" x14ac:dyDescent="0.35">
       <c r="C11" s="35"/>
-      <c r="D11" s="231" t="s">
+      <c r="D11" s="222" t="s">
         <v>186</v>
       </c>
-      <c r="E11" s="232"/>
+      <c r="E11" s="223"/>
       <c r="F11" s="47"/>
       <c r="G11" s="60"/>
       <c r="H11" s="86">
         <v>20</v>
       </c>
-      <c r="J11" s="233"/>
-      <c r="K11" s="234"/>
-      <c r="L11" s="235"/>
+      <c r="J11" s="224"/>
+      <c r="K11" s="225"/>
+      <c r="L11" s="226"/>
       <c r="M11" s="83"/>
       <c r="N11" s="85">
         <v>632088.51</v>
@@ -9464,8 +9461,8 @@
       </c>
       <c r="K15" s="83"/>
       <c r="M15" s="71"/>
-      <c r="N15" s="230"/>
-      <c r="O15" s="230"/>
+      <c r="N15" s="221"/>
+      <c r="O15" s="221"/>
       <c r="P15" s="61"/>
       <c r="Q15" s="72" t="s">
         <v>221</v>
@@ -9518,19 +9515,19 @@
     </row>
     <row r="19" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C19" s="35"/>
-      <c r="D19" s="224" t="s">
+      <c r="D19" s="220" t="s">
         <v>227</v>
       </c>
-      <c r="E19" s="224"/>
-      <c r="F19" s="224"/>
-      <c r="G19" s="224"/>
-      <c r="H19" s="224"/>
-      <c r="K19" s="224" t="s">
+      <c r="E19" s="220"/>
+      <c r="F19" s="220"/>
+      <c r="G19" s="220"/>
+      <c r="H19" s="220"/>
+      <c r="K19" s="220" t="s">
         <v>222</v>
       </c>
-      <c r="L19" s="224"/>
-      <c r="M19" s="224"/>
-      <c r="N19" s="224"/>
+      <c r="L19" s="220"/>
+      <c r="M19" s="220"/>
+      <c r="N19" s="220"/>
       <c r="O19" s="16"/>
       <c r="P19" s="36"/>
       <c r="AC19" t="s">
@@ -9539,15 +9536,15 @@
     </row>
     <row r="20" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C20" s="35"/>
-      <c r="D20" s="214"/>
-      <c r="E20" s="215"/>
-      <c r="F20" s="215"/>
-      <c r="G20" s="215"/>
-      <c r="H20" s="216"/>
-      <c r="K20" s="214"/>
-      <c r="L20" s="215"/>
-      <c r="M20" s="215"/>
-      <c r="N20" s="216"/>
+      <c r="D20" s="227"/>
+      <c r="E20" s="228"/>
+      <c r="F20" s="228"/>
+      <c r="G20" s="228"/>
+      <c r="H20" s="229"/>
+      <c r="K20" s="227"/>
+      <c r="L20" s="228"/>
+      <c r="M20" s="228"/>
+      <c r="N20" s="229"/>
       <c r="O20" s="16"/>
       <c r="P20" s="36"/>
       <c r="AC20" t="s">
@@ -9566,19 +9563,19 @@
     </row>
     <row r="22" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C22" s="35"/>
-      <c r="D22" s="224" t="s">
+      <c r="D22" s="220" t="s">
         <v>223</v>
       </c>
-      <c r="E22" s="224"/>
-      <c r="F22" s="224"/>
-      <c r="G22" s="224"/>
-      <c r="H22" s="224"/>
-      <c r="K22" s="224" t="s">
+      <c r="E22" s="220"/>
+      <c r="F22" s="220"/>
+      <c r="G22" s="220"/>
+      <c r="H22" s="220"/>
+      <c r="K22" s="220" t="s">
         <v>224</v>
       </c>
-      <c r="L22" s="224"/>
-      <c r="M22" s="224"/>
-      <c r="N22" s="224"/>
+      <c r="L22" s="220"/>
+      <c r="M22" s="220"/>
+      <c r="N22" s="220"/>
       <c r="O22" s="16"/>
       <c r="P22" s="36"/>
       <c r="AC22" t="s">
@@ -9589,15 +9586,15 @@
     </row>
     <row r="23" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C23" s="35"/>
-      <c r="D23" s="214"/>
-      <c r="E23" s="215"/>
-      <c r="F23" s="215"/>
-      <c r="G23" s="215"/>
-      <c r="H23" s="216"/>
-      <c r="K23" s="214"/>
-      <c r="L23" s="215"/>
-      <c r="M23" s="215"/>
-      <c r="N23" s="216"/>
+      <c r="D23" s="227"/>
+      <c r="E23" s="228"/>
+      <c r="F23" s="228"/>
+      <c r="G23" s="228"/>
+      <c r="H23" s="229"/>
+      <c r="K23" s="227"/>
+      <c r="L23" s="228"/>
+      <c r="M23" s="228"/>
+      <c r="N23" s="229"/>
       <c r="O23" s="16"/>
       <c r="P23" s="36"/>
       <c r="AC23" t="s">
@@ -9618,19 +9615,19 @@
     </row>
     <row r="25" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C25" s="35"/>
-      <c r="D25" s="224" t="s">
+      <c r="D25" s="220" t="s">
         <v>225</v>
       </c>
-      <c r="E25" s="224"/>
-      <c r="F25" s="224"/>
-      <c r="G25" s="224"/>
-      <c r="H25" s="224"/>
-      <c r="K25" s="224" t="s">
+      <c r="E25" s="220"/>
+      <c r="F25" s="220"/>
+      <c r="G25" s="220"/>
+      <c r="H25" s="220"/>
+      <c r="K25" s="220" t="s">
         <v>226</v>
       </c>
-      <c r="L25" s="224"/>
-      <c r="M25" s="224"/>
-      <c r="N25" s="224"/>
+      <c r="L25" s="220"/>
+      <c r="M25" s="220"/>
+      <c r="N25" s="220"/>
       <c r="O25" s="16"/>
       <c r="P25" s="36"/>
       <c r="AC25" t="s">
@@ -9641,15 +9638,15 @@
     </row>
     <row r="26" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C26" s="35"/>
-      <c r="D26" s="214"/>
-      <c r="E26" s="215"/>
-      <c r="F26" s="215"/>
-      <c r="G26" s="215"/>
-      <c r="H26" s="216"/>
-      <c r="K26" s="214"/>
-      <c r="L26" s="215"/>
-      <c r="M26" s="215"/>
-      <c r="N26" s="216"/>
+      <c r="D26" s="227"/>
+      <c r="E26" s="228"/>
+      <c r="F26" s="228"/>
+      <c r="G26" s="228"/>
+      <c r="H26" s="229"/>
+      <c r="K26" s="227"/>
+      <c r="L26" s="228"/>
+      <c r="M26" s="228"/>
+      <c r="N26" s="229"/>
       <c r="O26" s="16"/>
       <c r="P26" s="36"/>
       <c r="AC26" t="s">
@@ -9842,21 +9839,21 @@
     </row>
     <row r="42" spans="3:16" ht="36.65" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C42" s="35"/>
-      <c r="D42" s="228" t="s">
+      <c r="D42" s="218" t="s">
         <v>203</v>
       </c>
-      <c r="E42" s="228"/>
-      <c r="F42" s="228"/>
-      <c r="G42" s="228"/>
-      <c r="H42" s="228"/>
-      <c r="I42" s="228"/>
-      <c r="J42" s="228"/>
-      <c r="K42" s="228"/>
-      <c r="L42" s="228"/>
-      <c r="M42" s="228"/>
-      <c r="N42" s="228"/>
-      <c r="O42" s="228"/>
-      <c r="P42" s="229"/>
+      <c r="E42" s="218"/>
+      <c r="F42" s="218"/>
+      <c r="G42" s="218"/>
+      <c r="H42" s="218"/>
+      <c r="I42" s="218"/>
+      <c r="J42" s="218"/>
+      <c r="K42" s="218"/>
+      <c r="L42" s="218"/>
+      <c r="M42" s="218"/>
+      <c r="N42" s="218"/>
+      <c r="O42" s="218"/>
+      <c r="P42" s="219"/>
     </row>
     <row r="43" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C43" s="35"/>
@@ -9881,19 +9878,19 @@
       <c r="H45" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="I45" s="223" t="s">
+      <c r="I45" s="236" t="s">
         <v>124</v>
       </c>
       <c r="J45" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="K45" s="223" t="s">
+      <c r="K45" s="236" t="s">
         <v>126</v>
       </c>
       <c r="L45" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="M45" s="223" t="s">
+      <c r="M45" s="236" t="s">
         <v>127</v>
       </c>
       <c r="N45" s="16" t="s">
@@ -9909,17 +9906,17 @@
         <f>(L46-J46)*N46</f>
         <v>113213.29</v>
       </c>
-      <c r="I46" s="223"/>
+      <c r="I46" s="236"/>
       <c r="J46" s="89">
         <f>N38</f>
         <v>66022.06</v>
       </c>
-      <c r="K46" s="223"/>
+      <c r="K46" s="236"/>
       <c r="L46" s="89">
         <f>H38</f>
         <v>632088.51</v>
       </c>
-      <c r="M46" s="223"/>
+      <c r="M46" s="236"/>
       <c r="N46" s="46">
         <v>0.2</v>
       </c>
@@ -9967,13 +9964,13 @@
       <c r="H51" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="I51" s="223" t="s">
+      <c r="I51" s="236" t="s">
         <v>124</v>
       </c>
       <c r="J51" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="K51" s="223" t="s">
+      <c r="K51" s="236" t="s">
         <v>129</v>
       </c>
       <c r="L51" s="16" t="s">
@@ -9992,12 +9989,12 @@
         <f>MIN(J52,L52)</f>
         <v>0</v>
       </c>
-      <c r="I52" s="223"/>
+      <c r="I52" s="236"/>
       <c r="J52" s="89">
         <f>H46</f>
         <v>113213.29</v>
       </c>
-      <c r="K52" s="223"/>
+      <c r="K52" s="236"/>
       <c r="L52" s="45">
         <v>0</v>
       </c>
@@ -10025,11 +10022,11 @@
     </row>
     <row r="56" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C56" s="35"/>
-      <c r="H56" s="214" t="s">
+      <c r="H56" s="227" t="s">
         <v>202</v>
       </c>
-      <c r="I56" s="215"/>
-      <c r="J56" s="216"/>
+      <c r="I56" s="228"/>
+      <c r="J56" s="229"/>
       <c r="P56" s="36"/>
     </row>
     <row r="57" spans="3:17" x14ac:dyDescent="0.35">
@@ -10037,10 +10034,10 @@
       <c r="H57" s="57" t="s">
         <v>200</v>
       </c>
-      <c r="I57" s="217" t="s">
+      <c r="I57" s="230" t="s">
         <v>201</v>
       </c>
-      <c r="J57" s="218"/>
+      <c r="J57" s="231"/>
       <c r="P57" s="36"/>
     </row>
     <row r="58" spans="3:17" x14ac:dyDescent="0.35">
@@ -10048,8 +10045,8 @@
       <c r="H58" s="57">
         <v>1094</v>
       </c>
-      <c r="I58" s="219"/>
-      <c r="J58" s="220"/>
+      <c r="I58" s="232"/>
+      <c r="J58" s="233"/>
       <c r="P58" s="36"/>
     </row>
     <row r="59" spans="3:17" x14ac:dyDescent="0.35">
@@ -10086,11 +10083,18 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="D6:P6"/>
+    <mergeCell ref="D7:P7"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="K19:N19"/>
     <mergeCell ref="I45:I46"/>
     <mergeCell ref="K45:K46"/>
     <mergeCell ref="M45:M46"/>
@@ -10105,18 +10109,11 @@
     <mergeCell ref="D26:H26"/>
     <mergeCell ref="K26:N26"/>
     <mergeCell ref="D42:P42"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="D6:P6"/>
-    <mergeCell ref="D7:P7"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I58:J58"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K26:O26" xr:uid="{00000000-0002-0000-0A00-000000000000}">
@@ -10180,20 +10177,20 @@
       <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C3" s="271" t="s">
+      <c r="C3" s="273" t="s">
         <v>214</v>
       </c>
-      <c r="D3" s="271"/>
-      <c r="E3" s="271"/>
-      <c r="F3" s="271"/>
-      <c r="I3" s="272" t="s">
+      <c r="D3" s="273"/>
+      <c r="E3" s="273"/>
+      <c r="F3" s="273"/>
+      <c r="I3" s="274" t="s">
         <v>215</v>
       </c>
-      <c r="J3" s="272"/>
-      <c r="K3" s="272"/>
-      <c r="L3" s="272"/>
-      <c r="M3" s="272"/>
-      <c r="N3" s="272"/>
+      <c r="J3" s="274"/>
+      <c r="K3" s="274"/>
+      <c r="L3" s="274"/>
+      <c r="M3" s="274"/>
+      <c r="N3" s="274"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C4" s="66" t="s">
@@ -10977,21 +10974,21 @@
     </row>
     <row r="7" spans="3:52" ht="21" x14ac:dyDescent="0.5">
       <c r="C7" s="35"/>
-      <c r="D7" s="228" t="s">
+      <c r="D7" s="218" t="s">
         <v>198</v>
       </c>
-      <c r="E7" s="228"/>
-      <c r="F7" s="228"/>
-      <c r="G7" s="228"/>
-      <c r="H7" s="228"/>
-      <c r="I7" s="228"/>
-      <c r="J7" s="228"/>
-      <c r="K7" s="228"/>
-      <c r="L7" s="228"/>
-      <c r="M7" s="228"/>
-      <c r="N7" s="228"/>
-      <c r="O7" s="228"/>
-      <c r="P7" s="229"/>
+      <c r="E7" s="218"/>
+      <c r="F7" s="218"/>
+      <c r="G7" s="218"/>
+      <c r="H7" s="218"/>
+      <c r="I7" s="218"/>
+      <c r="J7" s="218"/>
+      <c r="K7" s="218"/>
+      <c r="L7" s="218"/>
+      <c r="M7" s="218"/>
+      <c r="N7" s="218"/>
+      <c r="O7" s="218"/>
+      <c r="P7" s="219"/>
       <c r="AC7" t="s">
         <v>146</v>
       </c>
@@ -11030,20 +11027,20 @@
     </row>
     <row r="10" spans="3:52" x14ac:dyDescent="0.35">
       <c r="C10" s="35"/>
-      <c r="D10" s="224" t="s">
+      <c r="D10" s="220" t="s">
         <v>191</v>
       </c>
-      <c r="E10" s="224"/>
-      <c r="F10" s="273" t="s">
+      <c r="E10" s="220"/>
+      <c r="F10" s="275" t="s">
         <v>220</v>
       </c>
-      <c r="G10" s="273"/>
-      <c r="H10" s="273"/>
-      <c r="J10" s="230" t="s">
+      <c r="G10" s="275"/>
+      <c r="H10" s="275"/>
+      <c r="J10" s="221" t="s">
         <v>228</v>
       </c>
-      <c r="K10" s="230"/>
-      <c r="L10" s="230"/>
+      <c r="K10" s="221"/>
+      <c r="L10" s="221"/>
       <c r="M10" s="43"/>
       <c r="N10" s="16" t="s">
         <v>192</v>
@@ -11066,9 +11063,9 @@
         <v>1</v>
       </c>
       <c r="H11" s="60"/>
-      <c r="J11" s="233"/>
-      <c r="K11" s="234"/>
-      <c r="L11" s="235"/>
+      <c r="J11" s="224"/>
+      <c r="K11" s="225"/>
+      <c r="L11" s="226"/>
       <c r="M11" s="83"/>
       <c r="N11" s="78"/>
       <c r="P11" s="83"/>
@@ -11090,10 +11087,10 @@
     </row>
     <row r="13" spans="3:52" x14ac:dyDescent="0.35">
       <c r="C13" s="35"/>
-      <c r="D13" s="287" t="s">
+      <c r="D13" s="289" t="s">
         <v>216</v>
       </c>
-      <c r="E13" s="287"/>
+      <c r="E13" s="289"/>
       <c r="F13" s="47"/>
       <c r="K13" s="70"/>
       <c r="L13" s="72" t="s">
@@ -11128,19 +11125,19 @@
     </row>
     <row r="16" spans="3:52" x14ac:dyDescent="0.35">
       <c r="C16" s="35"/>
-      <c r="D16" s="224" t="s">
+      <c r="D16" s="220" t="s">
         <v>227</v>
       </c>
-      <c r="E16" s="224"/>
-      <c r="F16" s="224"/>
-      <c r="G16" s="224"/>
-      <c r="H16" s="224"/>
-      <c r="K16" s="224" t="s">
+      <c r="E16" s="220"/>
+      <c r="F16" s="220"/>
+      <c r="G16" s="220"/>
+      <c r="H16" s="220"/>
+      <c r="K16" s="220" t="s">
         <v>222</v>
       </c>
-      <c r="L16" s="224"/>
-      <c r="M16" s="224"/>
-      <c r="N16" s="224"/>
+      <c r="L16" s="220"/>
+      <c r="M16" s="220"/>
+      <c r="N16" s="220"/>
       <c r="O16" s="16"/>
       <c r="P16" s="36"/>
       <c r="AC16" t="s">
@@ -11149,15 +11146,15 @@
     </row>
     <row r="17" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C17" s="35"/>
-      <c r="D17" s="214"/>
-      <c r="E17" s="215"/>
-      <c r="F17" s="215"/>
-      <c r="G17" s="215"/>
-      <c r="H17" s="216"/>
-      <c r="K17" s="214"/>
-      <c r="L17" s="215"/>
-      <c r="M17" s="215"/>
-      <c r="N17" s="216"/>
+      <c r="D17" s="227"/>
+      <c r="E17" s="228"/>
+      <c r="F17" s="228"/>
+      <c r="G17" s="228"/>
+      <c r="H17" s="229"/>
+      <c r="K17" s="227"/>
+      <c r="L17" s="228"/>
+      <c r="M17" s="228"/>
+      <c r="N17" s="229"/>
       <c r="O17" s="16"/>
       <c r="P17" s="36"/>
       <c r="AC17" t="s">
@@ -11176,19 +11173,19 @@
     </row>
     <row r="19" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C19" s="35"/>
-      <c r="D19" s="224" t="s">
+      <c r="D19" s="220" t="s">
         <v>223</v>
       </c>
-      <c r="E19" s="224"/>
-      <c r="F19" s="224"/>
-      <c r="G19" s="224"/>
-      <c r="H19" s="224"/>
-      <c r="K19" s="224" t="s">
+      <c r="E19" s="220"/>
+      <c r="F19" s="220"/>
+      <c r="G19" s="220"/>
+      <c r="H19" s="220"/>
+      <c r="K19" s="220" t="s">
         <v>224</v>
       </c>
-      <c r="L19" s="224"/>
-      <c r="M19" s="224"/>
-      <c r="N19" s="224"/>
+      <c r="L19" s="220"/>
+      <c r="M19" s="220"/>
+      <c r="N19" s="220"/>
       <c r="O19" s="16"/>
       <c r="P19" s="36"/>
       <c r="AC19" t="s">
@@ -11199,15 +11196,15 @@
     </row>
     <row r="20" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C20" s="35"/>
-      <c r="D20" s="214"/>
-      <c r="E20" s="215"/>
-      <c r="F20" s="215"/>
-      <c r="G20" s="215"/>
-      <c r="H20" s="216"/>
-      <c r="K20" s="214"/>
-      <c r="L20" s="215"/>
-      <c r="M20" s="215"/>
-      <c r="N20" s="216"/>
+      <c r="D20" s="227"/>
+      <c r="E20" s="228"/>
+      <c r="F20" s="228"/>
+      <c r="G20" s="228"/>
+      <c r="H20" s="229"/>
+      <c r="K20" s="227"/>
+      <c r="L20" s="228"/>
+      <c r="M20" s="228"/>
+      <c r="N20" s="229"/>
       <c r="O20" s="16"/>
       <c r="P20" s="36"/>
       <c r="AC20" t="s">
@@ -11228,19 +11225,19 @@
     </row>
     <row r="22" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C22" s="35"/>
-      <c r="D22" s="224" t="s">
+      <c r="D22" s="220" t="s">
         <v>225</v>
       </c>
-      <c r="E22" s="224"/>
-      <c r="F22" s="224"/>
-      <c r="G22" s="224"/>
-      <c r="H22" s="224"/>
-      <c r="K22" s="224" t="s">
+      <c r="E22" s="220"/>
+      <c r="F22" s="220"/>
+      <c r="G22" s="220"/>
+      <c r="H22" s="220"/>
+      <c r="K22" s="220" t="s">
         <v>226</v>
       </c>
-      <c r="L22" s="224"/>
-      <c r="M22" s="224"/>
-      <c r="N22" s="224"/>
+      <c r="L22" s="220"/>
+      <c r="M22" s="220"/>
+      <c r="N22" s="220"/>
       <c r="O22" s="16"/>
       <c r="P22" s="36"/>
       <c r="AC22" t="s">
@@ -11251,15 +11248,15 @@
     </row>
     <row r="23" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C23" s="35"/>
-      <c r="D23" s="214"/>
-      <c r="E23" s="215"/>
-      <c r="F23" s="215"/>
-      <c r="G23" s="215"/>
-      <c r="H23" s="216"/>
-      <c r="K23" s="214"/>
-      <c r="L23" s="215"/>
-      <c r="M23" s="215"/>
-      <c r="N23" s="216"/>
+      <c r="D23" s="227"/>
+      <c r="E23" s="228"/>
+      <c r="F23" s="228"/>
+      <c r="G23" s="228"/>
+      <c r="H23" s="229"/>
+      <c r="K23" s="227"/>
+      <c r="L23" s="228"/>
+      <c r="M23" s="228"/>
+      <c r="N23" s="229"/>
       <c r="O23" s="16"/>
       <c r="P23" s="36"/>
       <c r="AC23" t="s">
@@ -11317,21 +11314,21 @@
     </row>
     <row r="29" spans="3:37" ht="36.65" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C29" s="35"/>
-      <c r="D29" s="228" t="s">
+      <c r="D29" s="218" t="s">
         <v>203</v>
       </c>
-      <c r="E29" s="228"/>
-      <c r="F29" s="228"/>
-      <c r="G29" s="228"/>
-      <c r="H29" s="228"/>
-      <c r="I29" s="228"/>
-      <c r="J29" s="228"/>
-      <c r="K29" s="228"/>
-      <c r="L29" s="228"/>
-      <c r="M29" s="228"/>
-      <c r="N29" s="228"/>
-      <c r="O29" s="228"/>
-      <c r="P29" s="229"/>
+      <c r="E29" s="218"/>
+      <c r="F29" s="218"/>
+      <c r="G29" s="218"/>
+      <c r="H29" s="218"/>
+      <c r="I29" s="218"/>
+      <c r="J29" s="218"/>
+      <c r="K29" s="218"/>
+      <c r="L29" s="218"/>
+      <c r="M29" s="218"/>
+      <c r="N29" s="218"/>
+      <c r="O29" s="218"/>
+      <c r="P29" s="219"/>
     </row>
     <row r="30" spans="3:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C30" s="35"/>
@@ -11356,19 +11353,19 @@
       <c r="H32" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="I32" s="223" t="s">
+      <c r="I32" s="236" t="s">
         <v>124</v>
       </c>
       <c r="J32" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="K32" s="223" t="s">
+      <c r="K32" s="236" t="s">
         <v>126</v>
       </c>
       <c r="L32" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="M32" s="223" t="s">
+      <c r="M32" s="236" t="s">
         <v>127</v>
       </c>
       <c r="N32" s="16" t="s">
@@ -11381,11 +11378,11 @@
       <c r="C33" s="35"/>
       <c r="G33" s="51"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="223"/>
+      <c r="I33" s="236"/>
       <c r="J33" s="45"/>
-      <c r="K33" s="223"/>
+      <c r="K33" s="236"/>
       <c r="L33" s="45"/>
-      <c r="M33" s="223"/>
+      <c r="M33" s="236"/>
       <c r="N33" s="46">
         <v>0.2</v>
       </c>
@@ -11433,13 +11430,13 @@
       <c r="H38" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="I38" s="223" t="s">
+      <c r="I38" s="236" t="s">
         <v>124</v>
       </c>
       <c r="J38" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="K38" s="223" t="s">
+      <c r="K38" s="236" t="s">
         <v>129</v>
       </c>
       <c r="L38" s="16" t="s">
@@ -11455,9 +11452,9 @@
       <c r="C39" s="35"/>
       <c r="G39" s="51"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="223"/>
+      <c r="I39" s="236"/>
       <c r="J39" s="45"/>
-      <c r="K39" s="223"/>
+      <c r="K39" s="236"/>
       <c r="L39" s="45"/>
       <c r="M39" s="59"/>
       <c r="P39" s="36"/>
@@ -11483,11 +11480,11 @@
     </row>
     <row r="43" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C43" s="35"/>
-      <c r="H43" s="214" t="s">
+      <c r="H43" s="227" t="s">
         <v>202</v>
       </c>
-      <c r="I43" s="215"/>
-      <c r="J43" s="216"/>
+      <c r="I43" s="228"/>
+      <c r="J43" s="229"/>
       <c r="P43" s="36"/>
     </row>
     <row r="44" spans="3:17" x14ac:dyDescent="0.35">
@@ -11495,10 +11492,10 @@
       <c r="H44" s="57" t="s">
         <v>200</v>
       </c>
-      <c r="I44" s="217" t="s">
+      <c r="I44" s="230" t="s">
         <v>201</v>
       </c>
-      <c r="J44" s="218"/>
+      <c r="J44" s="231"/>
       <c r="P44" s="36"/>
     </row>
     <row r="45" spans="3:17" x14ac:dyDescent="0.35">
@@ -11506,8 +11503,8 @@
       <c r="H45" s="57">
         <v>1094</v>
       </c>
-      <c r="I45" s="219"/>
-      <c r="J45" s="220"/>
+      <c r="I45" s="232"/>
+      <c r="J45" s="233"/>
       <c r="P45" s="36"/>
     </row>
     <row r="46" spans="3:17" x14ac:dyDescent="0.35">
@@ -11544,35 +11541,35 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="D7:P7"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="K22:N22"/>
     <mergeCell ref="D23:H23"/>
     <mergeCell ref="K23:N23"/>
     <mergeCell ref="D29:P29"/>
     <mergeCell ref="I32:I33"/>
     <mergeCell ref="K32:K33"/>
     <mergeCell ref="M32:M33"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="D7:P7"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I45:J45"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K23:O23" xr:uid="{00000000-0002-0000-0C00-000000000000}">
@@ -11726,22 +11723,22 @@
       </c>
     </row>
     <row r="6" spans="3:52" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="225" t="s">
+      <c r="C6" s="215" t="s">
         <v>261</v>
       </c>
-      <c r="D6" s="226"/>
-      <c r="E6" s="226"/>
-      <c r="F6" s="226"/>
-      <c r="G6" s="226"/>
-      <c r="H6" s="226"/>
-      <c r="I6" s="226"/>
-      <c r="J6" s="226"/>
-      <c r="K6" s="226"/>
-      <c r="L6" s="226"/>
-      <c r="M6" s="226"/>
-      <c r="N6" s="226"/>
-      <c r="O6" s="226"/>
-      <c r="P6" s="227"/>
+      <c r="D6" s="216"/>
+      <c r="E6" s="216"/>
+      <c r="F6" s="216"/>
+      <c r="G6" s="216"/>
+      <c r="H6" s="216"/>
+      <c r="I6" s="216"/>
+      <c r="J6" s="216"/>
+      <c r="K6" s="216"/>
+      <c r="L6" s="216"/>
+      <c r="M6" s="216"/>
+      <c r="N6" s="216"/>
+      <c r="O6" s="216"/>
+      <c r="P6" s="217"/>
       <c r="AC6" t="s">
         <v>145</v>
       </c>
@@ -11754,21 +11751,21 @@
     </row>
     <row r="7" spans="3:52" ht="28.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C7" s="35"/>
-      <c r="D7" s="228" t="s">
+      <c r="D7" s="218" t="s">
         <v>198</v>
       </c>
-      <c r="E7" s="228"/>
-      <c r="F7" s="228"/>
-      <c r="G7" s="228"/>
-      <c r="H7" s="228"/>
-      <c r="I7" s="228"/>
-      <c r="J7" s="228"/>
-      <c r="K7" s="228"/>
-      <c r="L7" s="228"/>
-      <c r="M7" s="228"/>
-      <c r="N7" s="228"/>
-      <c r="O7" s="228"/>
-      <c r="P7" s="229"/>
+      <c r="E7" s="218"/>
+      <c r="F7" s="218"/>
+      <c r="G7" s="218"/>
+      <c r="H7" s="218"/>
+      <c r="I7" s="218"/>
+      <c r="J7" s="218"/>
+      <c r="K7" s="218"/>
+      <c r="L7" s="218"/>
+      <c r="M7" s="218"/>
+      <c r="N7" s="218"/>
+      <c r="O7" s="218"/>
+      <c r="P7" s="219"/>
       <c r="AC7" t="s">
         <v>146</v>
       </c>
@@ -11807,20 +11804,20 @@
     </row>
     <row r="10" spans="3:52" x14ac:dyDescent="0.35">
       <c r="C10" s="35"/>
-      <c r="D10" s="224" t="s">
+      <c r="D10" s="220" t="s">
         <v>272</v>
       </c>
-      <c r="E10" s="224"/>
+      <c r="E10" s="220"/>
       <c r="F10" s="84"/>
       <c r="G10" s="84"/>
       <c r="H10" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="J10" s="230" t="s">
+      <c r="J10" s="221" t="s">
         <v>228</v>
       </c>
-      <c r="K10" s="230"/>
-      <c r="L10" s="230"/>
+      <c r="K10" s="221"/>
+      <c r="L10" s="221"/>
       <c r="M10" s="43"/>
       <c r="N10" s="16" t="s">
         <v>274</v>
@@ -11834,20 +11831,20 @@
     </row>
     <row r="11" spans="3:52" x14ac:dyDescent="0.35">
       <c r="C11" s="35"/>
-      <c r="D11" s="231" t="s">
+      <c r="D11" s="222" t="s">
         <v>273</v>
       </c>
-      <c r="E11" s="232"/>
+      <c r="E11" s="223"/>
       <c r="F11" s="47"/>
       <c r="G11" s="106"/>
       <c r="H11" s="115">
         <v>0.2</v>
       </c>
-      <c r="J11" s="233" t="s">
+      <c r="J11" s="224" t="s">
         <v>126</v>
       </c>
-      <c r="K11" s="234"/>
-      <c r="L11" s="235"/>
+      <c r="K11" s="225"/>
+      <c r="L11" s="226"/>
       <c r="M11" s="83"/>
       <c r="N11" s="85">
         <v>600000</v>
@@ -11859,19 +11856,19 @@
     </row>
     <row r="12" spans="3:52" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C12" s="35"/>
-      <c r="D12" s="224" t="s">
+      <c r="D12" s="220" t="s">
         <v>227</v>
       </c>
-      <c r="E12" s="224"/>
-      <c r="F12" s="224"/>
-      <c r="G12" s="224"/>
-      <c r="H12" s="224"/>
-      <c r="K12" s="224" t="s">
+      <c r="E12" s="220"/>
+      <c r="F12" s="220"/>
+      <c r="G12" s="220"/>
+      <c r="H12" s="220"/>
+      <c r="K12" s="220" t="s">
         <v>222</v>
       </c>
-      <c r="L12" s="224"/>
-      <c r="M12" s="224"/>
-      <c r="N12" s="224"/>
+      <c r="L12" s="220"/>
+      <c r="M12" s="220"/>
+      <c r="N12" s="220"/>
       <c r="O12" s="16"/>
       <c r="P12" s="36"/>
       <c r="AC12" t="s">
@@ -11880,15 +11877,15 @@
     </row>
     <row r="13" spans="3:52" x14ac:dyDescent="0.35">
       <c r="C13" s="35"/>
-      <c r="D13" s="214"/>
-      <c r="E13" s="215"/>
-      <c r="F13" s="215"/>
-      <c r="G13" s="215"/>
-      <c r="H13" s="216"/>
-      <c r="K13" s="214"/>
-      <c r="L13" s="215"/>
-      <c r="M13" s="215"/>
-      <c r="N13" s="216"/>
+      <c r="D13" s="227"/>
+      <c r="E13" s="228"/>
+      <c r="F13" s="228"/>
+      <c r="G13" s="228"/>
+      <c r="H13" s="229"/>
+      <c r="K13" s="227"/>
+      <c r="L13" s="228"/>
+      <c r="M13" s="228"/>
+      <c r="N13" s="229"/>
       <c r="O13" s="16"/>
       <c r="P13" s="36"/>
       <c r="AC13" t="s">
@@ -11907,19 +11904,19 @@
     </row>
     <row r="15" spans="3:52" x14ac:dyDescent="0.35">
       <c r="C15" s="35"/>
-      <c r="D15" s="224" t="s">
+      <c r="D15" s="220" t="s">
         <v>223</v>
       </c>
-      <c r="E15" s="224"/>
-      <c r="F15" s="224"/>
-      <c r="G15" s="224"/>
-      <c r="H15" s="224"/>
-      <c r="K15" s="224" t="s">
+      <c r="E15" s="220"/>
+      <c r="F15" s="220"/>
+      <c r="G15" s="220"/>
+      <c r="H15" s="220"/>
+      <c r="K15" s="220" t="s">
         <v>224</v>
       </c>
-      <c r="L15" s="224"/>
-      <c r="M15" s="224"/>
-      <c r="N15" s="224"/>
+      <c r="L15" s="220"/>
+      <c r="M15" s="220"/>
+      <c r="N15" s="220"/>
       <c r="O15" s="16"/>
       <c r="P15" s="36"/>
       <c r="AC15" t="s">
@@ -11930,15 +11927,15 @@
     </row>
     <row r="16" spans="3:52" x14ac:dyDescent="0.35">
       <c r="C16" s="35"/>
-      <c r="D16" s="214"/>
-      <c r="E16" s="215"/>
-      <c r="F16" s="215"/>
-      <c r="G16" s="215"/>
-      <c r="H16" s="216"/>
-      <c r="K16" s="214"/>
-      <c r="L16" s="215"/>
-      <c r="M16" s="215"/>
-      <c r="N16" s="216"/>
+      <c r="D16" s="227"/>
+      <c r="E16" s="228"/>
+      <c r="F16" s="228"/>
+      <c r="G16" s="228"/>
+      <c r="H16" s="229"/>
+      <c r="K16" s="227"/>
+      <c r="L16" s="228"/>
+      <c r="M16" s="228"/>
+      <c r="N16" s="229"/>
       <c r="O16" s="16"/>
       <c r="P16" s="36"/>
       <c r="AC16" t="s">
@@ -11959,19 +11956,19 @@
     </row>
     <row r="18" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C18" s="35"/>
-      <c r="D18" s="224" t="s">
+      <c r="D18" s="220" t="s">
         <v>225</v>
       </c>
-      <c r="E18" s="224"/>
-      <c r="F18" s="224"/>
-      <c r="G18" s="224"/>
-      <c r="H18" s="224"/>
-      <c r="K18" s="224" t="s">
+      <c r="E18" s="220"/>
+      <c r="F18" s="220"/>
+      <c r="G18" s="220"/>
+      <c r="H18" s="220"/>
+      <c r="K18" s="220" t="s">
         <v>226</v>
       </c>
-      <c r="L18" s="224"/>
-      <c r="M18" s="224"/>
-      <c r="N18" s="224"/>
+      <c r="L18" s="220"/>
+      <c r="M18" s="220"/>
+      <c r="N18" s="220"/>
       <c r="O18" s="16"/>
       <c r="P18" s="36"/>
       <c r="AC18" t="s">
@@ -11982,15 +11979,15 @@
     </row>
     <row r="19" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C19" s="35"/>
-      <c r="D19" s="214"/>
-      <c r="E19" s="215"/>
-      <c r="F19" s="215"/>
-      <c r="G19" s="215"/>
-      <c r="H19" s="216"/>
-      <c r="K19" s="214"/>
-      <c r="L19" s="215"/>
-      <c r="M19" s="215"/>
-      <c r="N19" s="216"/>
+      <c r="D19" s="227"/>
+      <c r="E19" s="228"/>
+      <c r="F19" s="228"/>
+      <c r="G19" s="228"/>
+      <c r="H19" s="229"/>
+      <c r="K19" s="227"/>
+      <c r="L19" s="228"/>
+      <c r="M19" s="228"/>
+      <c r="N19" s="229"/>
       <c r="O19" s="16"/>
       <c r="P19" s="36"/>
       <c r="AC19" t="s">
@@ -12153,21 +12150,21 @@
     </row>
     <row r="34" spans="3:16" ht="36.65" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C34" s="32"/>
-      <c r="D34" s="221" t="s">
+      <c r="D34" s="234" t="s">
         <v>203</v>
       </c>
-      <c r="E34" s="221"/>
-      <c r="F34" s="221"/>
-      <c r="G34" s="221"/>
-      <c r="H34" s="221"/>
-      <c r="I34" s="221"/>
-      <c r="J34" s="221"/>
-      <c r="K34" s="221"/>
-      <c r="L34" s="221"/>
-      <c r="M34" s="221"/>
-      <c r="N34" s="221"/>
-      <c r="O34" s="221"/>
-      <c r="P34" s="222"/>
+      <c r="E34" s="234"/>
+      <c r="F34" s="234"/>
+      <c r="G34" s="234"/>
+      <c r="H34" s="234"/>
+      <c r="I34" s="234"/>
+      <c r="J34" s="234"/>
+      <c r="K34" s="234"/>
+      <c r="L34" s="234"/>
+      <c r="M34" s="234"/>
+      <c r="N34" s="234"/>
+      <c r="O34" s="234"/>
+      <c r="P34" s="235"/>
     </row>
     <row r="35" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C35" s="35"/>
@@ -12192,19 +12189,19 @@
       <c r="H37" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="I37" s="223" t="s">
+      <c r="I37" s="236" t="s">
         <v>124</v>
       </c>
       <c r="J37" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="K37" s="223" t="s">
+      <c r="K37" s="236" t="s">
         <v>126</v>
       </c>
       <c r="L37" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="M37" s="223" t="s">
+      <c r="M37" s="236" t="s">
         <v>127</v>
       </c>
       <c r="N37" s="16" t="s">
@@ -12220,17 +12217,17 @@
         <f>(L38-J38)*N38</f>
         <v>-120000</v>
       </c>
-      <c r="I38" s="223"/>
+      <c r="I38" s="236"/>
       <c r="J38" s="89">
         <f>N11</f>
         <v>600000</v>
       </c>
-      <c r="K38" s="223"/>
+      <c r="K38" s="236"/>
       <c r="L38" s="89">
         <f>H31</f>
         <v>0</v>
       </c>
-      <c r="M38" s="223"/>
+      <c r="M38" s="236"/>
       <c r="N38" s="46">
         <v>0.2</v>
       </c>
@@ -12275,13 +12272,13 @@
       <c r="H43" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="I43" s="223" t="s">
+      <c r="I43" s="236" t="s">
         <v>124</v>
       </c>
       <c r="J43" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="K43" s="223" t="s">
+      <c r="K43" s="236" t="s">
         <v>129</v>
       </c>
       <c r="L43" s="16" t="s">
@@ -12297,12 +12294,12 @@
         <f>MIN(J44,L44)</f>
         <v>-120000</v>
       </c>
-      <c r="I44" s="223"/>
+      <c r="I44" s="236"/>
       <c r="J44" s="89">
         <f>H38</f>
         <v>-120000</v>
       </c>
-      <c r="K44" s="223"/>
+      <c r="K44" s="236"/>
       <c r="L44" s="45">
         <v>0</v>
       </c>
@@ -12330,11 +12327,11 @@
     </row>
     <row r="48" spans="3:16" x14ac:dyDescent="0.35">
       <c r="C48" s="35"/>
-      <c r="H48" s="214" t="s">
+      <c r="H48" s="227" t="s">
         <v>202</v>
       </c>
-      <c r="I48" s="215"/>
-      <c r="J48" s="216"/>
+      <c r="I48" s="228"/>
+      <c r="J48" s="229"/>
       <c r="P48" s="36"/>
     </row>
     <row r="49" spans="3:16" x14ac:dyDescent="0.35">
@@ -12342,10 +12339,10 @@
       <c r="H49" s="57" t="s">
         <v>200</v>
       </c>
-      <c r="I49" s="217" t="s">
+      <c r="I49" s="230" t="s">
         <v>201</v>
       </c>
-      <c r="J49" s="218"/>
+      <c r="J49" s="231"/>
       <c r="P49" s="36"/>
     </row>
     <row r="50" spans="3:16" x14ac:dyDescent="0.35">
@@ -12353,11 +12350,11 @@
       <c r="H50" s="57">
         <v>1094</v>
       </c>
-      <c r="I50" s="219">
+      <c r="I50" s="232">
         <f>H44</f>
         <v>-120000</v>
       </c>
-      <c r="J50" s="220"/>
+      <c r="J50" s="233"/>
       <c r="P50" s="36"/>
     </row>
     <row r="51" spans="3:16" x14ac:dyDescent="0.35">
@@ -12394,24 +12391,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C6:P6"/>
-    <mergeCell ref="D7:P7"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="K19:N19"/>
     <mergeCell ref="H48:J48"/>
     <mergeCell ref="I49:J49"/>
     <mergeCell ref="I50:J50"/>
@@ -12421,6 +12400,24 @@
     <mergeCell ref="M37:M38"/>
     <mergeCell ref="I43:I44"/>
     <mergeCell ref="K43:K44"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="C6:P6"/>
+    <mergeCell ref="D7:P7"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="J11:L11"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K19:O19" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -12458,8 +12455,8 @@
   </sheetPr>
   <dimension ref="C1:BM73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T61" sqref="T61"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
@@ -12663,22 +12660,22 @@
       </c>
     </row>
     <row r="6" spans="3:65" ht="14.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="261"/>
-      <c r="D6" s="262"/>
-      <c r="E6" s="262"/>
-      <c r="F6" s="262"/>
-      <c r="G6" s="262"/>
-      <c r="H6" s="262"/>
-      <c r="I6" s="262"/>
-      <c r="J6" s="262"/>
-      <c r="K6" s="262"/>
-      <c r="L6" s="262"/>
-      <c r="M6" s="262"/>
-      <c r="N6" s="262"/>
-      <c r="O6" s="262"/>
-      <c r="P6" s="262"/>
-      <c r="Q6" s="262"/>
-      <c r="R6" s="263"/>
+      <c r="C6" s="237"/>
+      <c r="D6" s="238"/>
+      <c r="E6" s="238"/>
+      <c r="F6" s="238"/>
+      <c r="G6" s="238"/>
+      <c r="H6" s="238"/>
+      <c r="I6" s="238"/>
+      <c r="J6" s="238"/>
+      <c r="K6" s="238"/>
+      <c r="L6" s="238"/>
+      <c r="M6" s="238"/>
+      <c r="N6" s="238"/>
+      <c r="O6" s="238"/>
+      <c r="P6" s="238"/>
+      <c r="Q6" s="238"/>
+      <c r="R6" s="239"/>
       <c r="AA6" s="35"/>
       <c r="AB6" t="s">
         <v>285</v>
@@ -12706,23 +12703,23 @@
     </row>
     <row r="7" spans="3:65" ht="28.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C7" s="128"/>
-      <c r="D7" s="264" t="s">
+      <c r="D7" s="240" t="s">
         <v>198</v>
       </c>
-      <c r="E7" s="264"/>
-      <c r="F7" s="264"/>
-      <c r="G7" s="264"/>
-      <c r="H7" s="264"/>
-      <c r="I7" s="264"/>
-      <c r="J7" s="264"/>
-      <c r="K7" s="264"/>
-      <c r="L7" s="264"/>
-      <c r="M7" s="264"/>
-      <c r="N7" s="264"/>
-      <c r="O7" s="264"/>
-      <c r="P7" s="264"/>
-      <c r="Q7" s="264"/>
-      <c r="R7" s="265"/>
+      <c r="E7" s="240"/>
+      <c r="F7" s="240"/>
+      <c r="G7" s="240"/>
+      <c r="H7" s="240"/>
+      <c r="I7" s="240"/>
+      <c r="J7" s="240"/>
+      <c r="K7" s="240"/>
+      <c r="L7" s="240"/>
+      <c r="M7" s="240"/>
+      <c r="N7" s="240"/>
+      <c r="O7" s="240"/>
+      <c r="P7" s="240"/>
+      <c r="Q7" s="240"/>
+      <c r="R7" s="241"/>
       <c r="AA7" s="35"/>
       <c r="AB7" t="s">
         <v>300</v>
@@ -12802,10 +12799,10 @@
     </row>
     <row r="10" spans="3:65" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C10" s="128"/>
-      <c r="D10" s="255" t="s">
+      <c r="D10" s="242" t="s">
         <v>288</v>
       </c>
-      <c r="E10" s="255"/>
+      <c r="E10" s="242"/>
       <c r="F10" s="131"/>
       <c r="G10" s="131"/>
       <c r="H10" s="132" t="s">
@@ -12813,10 +12810,10 @@
       </c>
       <c r="I10" s="129"/>
       <c r="J10" s="133"/>
-      <c r="K10" s="255" t="s">
+      <c r="K10" s="242" t="s">
         <v>287</v>
       </c>
-      <c r="L10" s="255"/>
+      <c r="L10" s="242"/>
       <c r="M10" s="132"/>
       <c r="N10" s="132" t="s">
         <v>220</v>
@@ -12835,10 +12832,10 @@
     </row>
     <row r="11" spans="3:65" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C11" s="128"/>
-      <c r="D11" s="256" t="s">
+      <c r="D11" s="243" t="s">
         <v>284</v>
       </c>
-      <c r="E11" s="257"/>
+      <c r="E11" s="244"/>
       <c r="F11" s="129"/>
       <c r="G11" s="136"/>
       <c r="H11" s="137">
@@ -12846,10 +12843,10 @@
       </c>
       <c r="I11" s="129"/>
       <c r="J11" s="133"/>
-      <c r="K11" s="256" t="s">
-        <v>206</v>
-      </c>
-      <c r="L11" s="257"/>
+      <c r="K11" s="243" t="s">
+        <v>233</v>
+      </c>
+      <c r="L11" s="244"/>
       <c r="M11" s="133"/>
       <c r="N11" s="137">
         <v>0.1</v>
@@ -12888,10 +12885,10 @@
     </row>
     <row r="13" spans="3:65" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C13" s="128"/>
-      <c r="D13" s="256" t="s">
+      <c r="D13" s="243" t="s">
         <v>233</v>
       </c>
-      <c r="E13" s="257"/>
+      <c r="E13" s="244"/>
       <c r="F13" s="129"/>
       <c r="G13" s="129"/>
       <c r="H13" s="137">
@@ -12924,10 +12921,10 @@
       <c r="H14" s="129"/>
       <c r="I14" s="129"/>
       <c r="J14" s="133"/>
-      <c r="K14" s="256" t="s">
-        <v>206</v>
-      </c>
-      <c r="L14" s="257"/>
+      <c r="K14" s="243" t="s">
+        <v>233</v>
+      </c>
+      <c r="L14" s="244"/>
       <c r="M14" s="133"/>
       <c r="N14" s="137">
         <v>0.05</v>
@@ -12973,9 +12970,9 @@
       <c r="I16" s="129"/>
       <c r="J16" s="133"/>
       <c r="K16" s="133"/>
-      <c r="L16" s="289"/>
-      <c r="M16" s="289"/>
-      <c r="N16" s="289"/>
+      <c r="L16" s="133"/>
+      <c r="M16" s="133"/>
+      <c r="N16" s="133"/>
       <c r="O16" s="133"/>
       <c r="P16" s="129"/>
       <c r="Q16" s="129"/>
@@ -13024,10 +13021,10 @@
       </c>
       <c r="I18" s="129"/>
       <c r="J18" s="133"/>
-      <c r="K18" s="258" t="s">
+      <c r="K18" s="249" t="s">
         <v>294</v>
       </c>
-      <c r="L18" s="258"/>
+      <c r="L18" s="249"/>
       <c r="M18" s="133"/>
       <c r="N18" s="132" t="s">
         <v>295</v>
@@ -13053,10 +13050,10 @@
       </c>
       <c r="I19" s="129"/>
       <c r="J19" s="133"/>
-      <c r="K19" s="259">
+      <c r="K19" s="250">
         <v>121407</v>
       </c>
-      <c r="L19" s="260"/>
+      <c r="L19" s="251"/>
       <c r="M19" s="133"/>
       <c r="N19" s="85">
         <v>70938.240000000005</v>
@@ -13089,41 +13086,41 @@
     </row>
     <row r="21" spans="3:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C21" s="128"/>
-      <c r="D21" s="246" t="s">
+      <c r="D21" s="245" t="s">
         <v>227</v>
       </c>
-      <c r="E21" s="246"/>
-      <c r="F21" s="246"/>
-      <c r="G21" s="246"/>
-      <c r="H21" s="246"/>
+      <c r="E21" s="245"/>
+      <c r="F21" s="245"/>
+      <c r="G21" s="245"/>
+      <c r="H21" s="245"/>
       <c r="I21" s="129"/>
       <c r="J21" s="129"/>
-      <c r="K21" s="246" t="s">
+      <c r="K21" s="245" t="s">
         <v>222</v>
       </c>
-      <c r="L21" s="246"/>
-      <c r="M21" s="246"/>
-      <c r="N21" s="246"/>
-      <c r="O21" s="246"/>
-      <c r="P21" s="246"/>
+      <c r="L21" s="245"/>
+      <c r="M21" s="245"/>
+      <c r="N21" s="245"/>
+      <c r="O21" s="245"/>
+      <c r="P21" s="245"/>
       <c r="Q21" s="133"/>
       <c r="R21" s="130"/>
     </row>
     <row r="22" spans="3:39" x14ac:dyDescent="0.35">
       <c r="C22" s="128"/>
-      <c r="D22" s="243"/>
-      <c r="E22" s="244"/>
-      <c r="F22" s="244"/>
-      <c r="G22" s="244"/>
-      <c r="H22" s="245"/>
+      <c r="D22" s="246"/>
+      <c r="E22" s="247"/>
+      <c r="F22" s="247"/>
+      <c r="G22" s="247"/>
+      <c r="H22" s="248"/>
       <c r="I22" s="129"/>
       <c r="J22" s="129"/>
-      <c r="K22" s="243"/>
-      <c r="L22" s="244"/>
-      <c r="M22" s="244"/>
-      <c r="N22" s="244"/>
-      <c r="O22" s="244"/>
-      <c r="P22" s="245"/>
+      <c r="K22" s="246"/>
+      <c r="L22" s="247"/>
+      <c r="M22" s="247"/>
+      <c r="N22" s="247"/>
+      <c r="O22" s="247"/>
+      <c r="P22" s="248"/>
       <c r="Q22" s="133"/>
       <c r="R22" s="130"/>
       <c r="AL22" s="12"/>
@@ -13149,23 +13146,23 @@
     </row>
     <row r="24" spans="3:39" x14ac:dyDescent="0.35">
       <c r="C24" s="128"/>
-      <c r="D24" s="246" t="s">
+      <c r="D24" s="245" t="s">
         <v>223</v>
       </c>
-      <c r="E24" s="246"/>
-      <c r="F24" s="246"/>
-      <c r="G24" s="246"/>
-      <c r="H24" s="246"/>
+      <c r="E24" s="245"/>
+      <c r="F24" s="245"/>
+      <c r="G24" s="245"/>
+      <c r="H24" s="245"/>
       <c r="I24" s="129"/>
       <c r="J24" s="129"/>
-      <c r="K24" s="246" t="s">
+      <c r="K24" s="245" t="s">
         <v>224</v>
       </c>
-      <c r="L24" s="246"/>
-      <c r="M24" s="246"/>
-      <c r="N24" s="246"/>
-      <c r="O24" s="246"/>
-      <c r="P24" s="246"/>
+      <c r="L24" s="245"/>
+      <c r="M24" s="245"/>
+      <c r="N24" s="245"/>
+      <c r="O24" s="245"/>
+      <c r="P24" s="245"/>
       <c r="Q24" s="133"/>
       <c r="R24" s="130"/>
       <c r="AL24" s="11"/>
@@ -13173,19 +13170,19 @@
     </row>
     <row r="25" spans="3:39" x14ac:dyDescent="0.35">
       <c r="C25" s="128"/>
-      <c r="D25" s="243"/>
-      <c r="E25" s="244"/>
-      <c r="F25" s="244"/>
-      <c r="G25" s="244"/>
-      <c r="H25" s="245"/>
+      <c r="D25" s="246"/>
+      <c r="E25" s="247"/>
+      <c r="F25" s="247"/>
+      <c r="G25" s="247"/>
+      <c r="H25" s="248"/>
       <c r="I25" s="129"/>
       <c r="J25" s="129"/>
-      <c r="K25" s="243"/>
-      <c r="L25" s="244"/>
-      <c r="M25" s="244"/>
-      <c r="N25" s="244"/>
-      <c r="O25" s="244"/>
-      <c r="P25" s="245"/>
+      <c r="K25" s="246"/>
+      <c r="L25" s="247"/>
+      <c r="M25" s="247"/>
+      <c r="N25" s="247"/>
+      <c r="O25" s="247"/>
+      <c r="P25" s="248"/>
       <c r="Q25" s="133"/>
       <c r="R25" s="130"/>
       <c r="AL25" s="11"/>
@@ -13213,23 +13210,23 @@
     </row>
     <row r="27" spans="3:39" x14ac:dyDescent="0.35">
       <c r="C27" s="128"/>
-      <c r="D27" s="246" t="s">
+      <c r="D27" s="245" t="s">
         <v>225</v>
       </c>
-      <c r="E27" s="246"/>
-      <c r="F27" s="246"/>
-      <c r="G27" s="246"/>
-      <c r="H27" s="246"/>
+      <c r="E27" s="245"/>
+      <c r="F27" s="245"/>
+      <c r="G27" s="245"/>
+      <c r="H27" s="245"/>
       <c r="I27" s="129"/>
       <c r="J27" s="129"/>
-      <c r="K27" s="246" t="s">
+      <c r="K27" s="245" t="s">
         <v>226</v>
       </c>
-      <c r="L27" s="246"/>
-      <c r="M27" s="246"/>
-      <c r="N27" s="246"/>
-      <c r="O27" s="246"/>
-      <c r="P27" s="246"/>
+      <c r="L27" s="245"/>
+      <c r="M27" s="245"/>
+      <c r="N27" s="245"/>
+      <c r="O27" s="245"/>
+      <c r="P27" s="245"/>
       <c r="Q27" s="133"/>
       <c r="R27" s="130"/>
       <c r="AL27" s="11"/>
@@ -13237,19 +13234,19 @@
     </row>
     <row r="28" spans="3:39" x14ac:dyDescent="0.35">
       <c r="C28" s="128"/>
-      <c r="D28" s="243"/>
-      <c r="E28" s="244"/>
-      <c r="F28" s="244"/>
-      <c r="G28" s="244"/>
-      <c r="H28" s="245"/>
+      <c r="D28" s="246"/>
+      <c r="E28" s="247"/>
+      <c r="F28" s="247"/>
+      <c r="G28" s="247"/>
+      <c r="H28" s="248"/>
       <c r="I28" s="129"/>
       <c r="J28" s="129"/>
-      <c r="K28" s="243"/>
-      <c r="L28" s="244"/>
-      <c r="M28" s="244"/>
-      <c r="N28" s="244"/>
-      <c r="O28" s="244"/>
-      <c r="P28" s="245"/>
+      <c r="K28" s="246"/>
+      <c r="L28" s="247"/>
+      <c r="M28" s="247"/>
+      <c r="N28" s="247"/>
+      <c r="O28" s="247"/>
+      <c r="P28" s="248"/>
       <c r="Q28" s="133"/>
       <c r="R28" s="130"/>
       <c r="AL28" s="11"/>
@@ -13335,23 +13332,23 @@
     </row>
     <row r="33" spans="3:21" ht="58.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C33" s="146"/>
-      <c r="D33" s="236" t="s">
+      <c r="D33" s="263" t="s">
         <v>296</v>
       </c>
-      <c r="E33" s="237"/>
-      <c r="F33" s="237"/>
-      <c r="G33" s="237"/>
-      <c r="H33" s="237"/>
-      <c r="I33" s="237"/>
-      <c r="J33" s="237"/>
-      <c r="K33" s="237"/>
-      <c r="L33" s="237"/>
-      <c r="M33" s="237"/>
-      <c r="N33" s="237"/>
-      <c r="O33" s="237"/>
-      <c r="P33" s="237"/>
-      <c r="Q33" s="237"/>
-      <c r="R33" s="238"/>
+      <c r="E33" s="264"/>
+      <c r="F33" s="264"/>
+      <c r="G33" s="264"/>
+      <c r="H33" s="264"/>
+      <c r="I33" s="264"/>
+      <c r="J33" s="264"/>
+      <c r="K33" s="264"/>
+      <c r="L33" s="264"/>
+      <c r="M33" s="264"/>
+      <c r="N33" s="264"/>
+      <c r="O33" s="264"/>
+      <c r="P33" s="264"/>
+      <c r="Q33" s="264"/>
+      <c r="R33" s="265"/>
       <c r="T33" s="43"/>
       <c r="U33" s="43"/>
     </row>
@@ -13560,23 +13557,23 @@
     </row>
     <row r="43" spans="3:21" ht="36.65" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
       <c r="C43" s="149"/>
-      <c r="D43" s="248" t="s">
+      <c r="D43" s="254" t="s">
         <v>289</v>
       </c>
-      <c r="E43" s="248"/>
-      <c r="F43" s="248"/>
-      <c r="G43" s="248"/>
-      <c r="H43" s="248"/>
-      <c r="I43" s="248"/>
-      <c r="J43" s="248"/>
-      <c r="K43" s="248"/>
-      <c r="L43" s="248"/>
-      <c r="M43" s="248"/>
-      <c r="N43" s="248"/>
-      <c r="O43" s="248"/>
-      <c r="P43" s="248"/>
-      <c r="Q43" s="248"/>
-      <c r="R43" s="249"/>
+      <c r="E43" s="254"/>
+      <c r="F43" s="254"/>
+      <c r="G43" s="254"/>
+      <c r="H43" s="254"/>
+      <c r="I43" s="254"/>
+      <c r="J43" s="254"/>
+      <c r="K43" s="254"/>
+      <c r="L43" s="254"/>
+      <c r="M43" s="254"/>
+      <c r="N43" s="254"/>
+      <c r="O43" s="254"/>
+      <c r="P43" s="254"/>
+      <c r="Q43" s="254"/>
+      <c r="R43" s="255"/>
     </row>
     <row r="44" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C44" s="150"/>
@@ -13628,12 +13625,12 @@
       <c r="I46" s="158"/>
       <c r="J46" s="157"/>
       <c r="K46" s="158"/>
-      <c r="L46" s="253" t="s">
+      <c r="L46" s="259" t="s">
         <v>228</v>
       </c>
-      <c r="M46" s="253"/>
+      <c r="M46" s="259"/>
       <c r="N46" s="159"/>
-      <c r="O46" s="250"/>
+      <c r="O46" s="256"/>
       <c r="P46" s="159"/>
       <c r="Q46" s="160"/>
       <c r="R46" s="161"/>
@@ -13641,7 +13638,7 @@
     <row r="47" spans="3:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C47" s="150"/>
       <c r="D47" s="177"/>
-      <c r="E47" s="288">
+      <c r="E47" s="214">
         <f>IFERROR(VLOOKUP(D11,AB2:AC9,2,FALSE),"-")</f>
         <v>150000</v>
       </c>
@@ -13654,13 +13651,13 @@
       <c r="I47" s="158"/>
       <c r="J47" s="178"/>
       <c r="K47" s="158"/>
-      <c r="L47" s="251">
+      <c r="L47" s="257">
         <f>IFERROR(E47*H47,"-")</f>
         <v>52500</v>
       </c>
-      <c r="M47" s="252"/>
+      <c r="M47" s="258"/>
       <c r="N47" s="180"/>
-      <c r="O47" s="250"/>
+      <c r="O47" s="256"/>
       <c r="P47" s="181"/>
       <c r="Q47" s="163"/>
       <c r="R47" s="152"/>
@@ -13686,7 +13683,7 @@
     <row r="49" spans="3:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C49" s="150"/>
       <c r="D49" s="177"/>
-      <c r="E49" s="288" t="str">
+      <c r="E49" s="214" t="str">
         <f>IFERROR(VLOOKUP(D13,AB2:AC8,2,FALSE),"-")</f>
         <v>-</v>
       </c>
@@ -13699,11 +13696,11 @@
       <c r="I49" s="158"/>
       <c r="J49" s="178"/>
       <c r="K49" s="158"/>
-      <c r="L49" s="251" t="str">
+      <c r="L49" s="257" t="str">
         <f>IFERROR(E49*H49,"-")</f>
         <v>-</v>
       </c>
-      <c r="M49" s="252"/>
+      <c r="M49" s="258"/>
       <c r="N49" s="180"/>
       <c r="O49" s="158"/>
       <c r="P49" s="181"/>
@@ -13736,15 +13733,15 @@
       <c r="G51" s="178"/>
       <c r="H51" s="157"/>
       <c r="I51" s="158"/>
-      <c r="J51" s="239" t="s">
+      <c r="J51" s="260" t="s">
         <v>297</v>
       </c>
-      <c r="K51" s="240"/>
-      <c r="L51" s="239">
+      <c r="K51" s="261"/>
+      <c r="L51" s="260">
         <f>SUM(L47:L49)</f>
         <v>52500</v>
       </c>
-      <c r="M51" s="240"/>
+      <c r="M51" s="261"/>
       <c r="N51" s="180"/>
       <c r="O51" s="158"/>
       <c r="P51" s="181"/>
@@ -13765,10 +13762,10 @@
       <c r="I52" s="158"/>
       <c r="J52" s="157"/>
       <c r="K52" s="158"/>
-      <c r="L52" s="253" t="s">
+      <c r="L52" s="259" t="s">
         <v>228</v>
       </c>
-      <c r="M52" s="253"/>
+      <c r="M52" s="259"/>
       <c r="N52" s="166"/>
       <c r="O52" s="158"/>
       <c r="P52" s="167"/>
@@ -13778,9 +13775,9 @@
     <row r="53" spans="3:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C53" s="150"/>
       <c r="D53" s="177"/>
-      <c r="E53" s="288">
+      <c r="E53" s="214" t="str">
         <f>IFERROR(VLOOKUP(K11,AB2:AC8,2,FALSE),"-")</f>
-        <v>87987</v>
+        <v>-</v>
       </c>
       <c r="F53" s="178"/>
       <c r="G53" s="178"/>
@@ -13791,11 +13788,11 @@
       <c r="I53" s="158"/>
       <c r="J53" s="178"/>
       <c r="K53" s="158"/>
-      <c r="L53" s="239">
+      <c r="L53" s="260" t="str">
         <f>IFERROR(E53*H53,"-")</f>
-        <v>8798.7000000000007</v>
-      </c>
-      <c r="M53" s="240"/>
+        <v>-</v>
+      </c>
+      <c r="M53" s="261"/>
       <c r="N53" s="180"/>
       <c r="O53" s="158"/>
       <c r="P53" s="181"/>
@@ -13834,10 +13831,10 @@
       <c r="I55" s="158"/>
       <c r="J55" s="157"/>
       <c r="K55" s="158"/>
-      <c r="L55" s="253" t="s">
+      <c r="L55" s="259" t="s">
         <v>228</v>
       </c>
-      <c r="M55" s="253"/>
+      <c r="M55" s="259"/>
       <c r="N55" s="166"/>
       <c r="O55" s="158"/>
       <c r="P55" s="167"/>
@@ -13847,9 +13844,9 @@
     <row r="56" spans="3:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C56" s="150"/>
       <c r="D56" s="177"/>
-      <c r="E56" s="288">
+      <c r="E56" s="214" t="str">
         <f>IFERROR(VLOOKUP(K14,AB2:AC9,2,FALSE),"-")</f>
-        <v>87987</v>
+        <v>-</v>
       </c>
       <c r="F56" s="178"/>
       <c r="G56" s="178"/>
@@ -13860,11 +13857,11 @@
       <c r="I56" s="158"/>
       <c r="J56" s="178"/>
       <c r="K56" s="158"/>
-      <c r="L56" s="239">
+      <c r="L56" s="260" t="str">
         <f>IFERROR(E56*H56,"-")</f>
-        <v>4399.3500000000004</v>
-      </c>
-      <c r="M56" s="240"/>
+        <v>-</v>
+      </c>
+      <c r="M56" s="261"/>
       <c r="N56" s="180"/>
       <c r="O56" s="158"/>
       <c r="P56" s="181"/>
@@ -13936,11 +13933,11 @@
       </c>
       <c r="I60" s="184"/>
       <c r="J60" s="185"/>
-      <c r="K60" s="241">
+      <c r="K60" s="266">
         <f>IF(L56&gt;L53,"Piso mayor que tope",IF(AND(L53="-",L56="-"),L51,IF(L51&gt;L53,L53,IF(L51&lt;L56,L56,L51))))</f>
-        <v>8798.7000000000007</v>
-      </c>
-      <c r="L60" s="241"/>
+        <v>52500</v>
+      </c>
+      <c r="L60" s="266"/>
       <c r="M60" s="186"/>
       <c r="N60" s="186"/>
       <c r="O60" s="187"/>
@@ -13957,8 +13954,8 @@
       <c r="H61" s="180"/>
       <c r="I61" s="158"/>
       <c r="J61" s="180"/>
-      <c r="K61" s="242"/>
-      <c r="L61" s="242"/>
+      <c r="K61" s="267"/>
+      <c r="L61" s="267"/>
       <c r="M61" s="178"/>
       <c r="N61" s="178"/>
       <c r="O61" s="178"/>
@@ -13975,8 +13972,8 @@
       <c r="H62" s="189"/>
       <c r="I62" s="189"/>
       <c r="J62" s="189"/>
-      <c r="K62" s="254"/>
-      <c r="L62" s="254"/>
+      <c r="K62" s="262"/>
+      <c r="L62" s="262"/>
       <c r="M62" s="189"/>
       <c r="N62" s="189"/>
       <c r="O62" s="189"/>
@@ -14026,13 +14023,13 @@
       <c r="E65" s="180"/>
       <c r="F65" s="178"/>
       <c r="G65" s="178"/>
-      <c r="H65" s="247" t="s">
+      <c r="H65" s="252" t="s">
         <v>299</v>
       </c>
-      <c r="I65" s="247"/>
-      <c r="J65" s="247"/>
-      <c r="K65" s="247"/>
-      <c r="L65" s="247"/>
+      <c r="I65" s="252"/>
+      <c r="J65" s="252"/>
+      <c r="K65" s="252"/>
+      <c r="L65" s="252"/>
       <c r="M65" s="178"/>
       <c r="N65" s="178"/>
       <c r="O65" s="178"/>
@@ -14071,13 +14068,13 @@
       <c r="H67" s="190">
         <v>1094</v>
       </c>
-      <c r="I67" s="290">
+      <c r="I67" s="253">
         <f>K60</f>
-        <v>8798.7000000000007</v>
-      </c>
-      <c r="J67" s="290"/>
-      <c r="K67" s="290"/>
-      <c r="L67" s="290"/>
+        <v>52500</v>
+      </c>
+      <c r="J67" s="253"/>
+      <c r="K67" s="253"/>
+      <c r="L67" s="253"/>
       <c r="M67" s="178"/>
       <c r="N67" s="178"/>
       <c r="O67" s="178"/>
@@ -14178,22 +14175,17 @@
     <row r="73" spans="3:18" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="C6:R6"/>
-    <mergeCell ref="D7:R7"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="K21:P21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="K22:P22"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="K24:P24"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="D33:R33"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="K25:P25"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="K27:P27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="K28:P28"/>
     <mergeCell ref="H65:L65"/>
     <mergeCell ref="I67:L67"/>
     <mergeCell ref="D43:R43"/>
@@ -14206,17 +14198,22 @@
     <mergeCell ref="L55:M55"/>
     <mergeCell ref="L56:M56"/>
     <mergeCell ref="K62:L62"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="K25:P25"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="K27:P27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="K28:P28"/>
-    <mergeCell ref="D33:R33"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="K22:P22"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="K24:P24"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="C6:R6"/>
+    <mergeCell ref="D7:R7"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="K21:P21"/>
   </mergeCells>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11" xr:uid="{00000000-0002-0000-0200-000000000000}">
@@ -14377,22 +14374,22 @@
       </c>
     </row>
     <row r="6" spans="3:52" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="225" t="s">
+      <c r="C6" s="215" t="s">
         <v>261</v>
       </c>
-      <c r="D6" s="226"/>
-      <c r="E6" s="226"/>
-      <c r="F6" s="226"/>
-      <c r="G6" s="226"/>
-      <c r="H6" s="226"/>
-      <c r="I6" s="226"/>
-      <c r="J6" s="226"/>
-      <c r="K6" s="226"/>
-      <c r="L6" s="226"/>
-      <c r="M6" s="226"/>
-      <c r="N6" s="226"/>
-      <c r="O6" s="226"/>
-      <c r="P6" s="227"/>
+      <c r="D6" s="216"/>
+      <c r="E6" s="216"/>
+      <c r="F6" s="216"/>
+      <c r="G6" s="216"/>
+      <c r="H6" s="216"/>
+      <c r="I6" s="216"/>
+      <c r="J6" s="216"/>
+      <c r="K6" s="216"/>
+      <c r="L6" s="216"/>
+      <c r="M6" s="216"/>
+      <c r="N6" s="216"/>
+      <c r="O6" s="216"/>
+      <c r="P6" s="217"/>
       <c r="AC6" t="s">
         <v>145</v>
       </c>
@@ -14405,21 +14402,21 @@
     </row>
     <row r="7" spans="3:52" ht="28.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C7" s="35"/>
-      <c r="D7" s="228" t="s">
+      <c r="D7" s="218" t="s">
         <v>198</v>
       </c>
-      <c r="E7" s="228"/>
-      <c r="F7" s="228"/>
-      <c r="G7" s="228"/>
-      <c r="H7" s="228"/>
-      <c r="I7" s="228"/>
-      <c r="J7" s="228"/>
-      <c r="K7" s="228"/>
-      <c r="L7" s="228"/>
-      <c r="M7" s="228"/>
-      <c r="N7" s="228"/>
-      <c r="O7" s="228"/>
-      <c r="P7" s="229"/>
+      <c r="E7" s="218"/>
+      <c r="F7" s="218"/>
+      <c r="G7" s="218"/>
+      <c r="H7" s="218"/>
+      <c r="I7" s="218"/>
+      <c r="J7" s="218"/>
+      <c r="K7" s="218"/>
+      <c r="L7" s="218"/>
+      <c r="M7" s="218"/>
+      <c r="N7" s="218"/>
+      <c r="O7" s="218"/>
+      <c r="P7" s="219"/>
       <c r="AC7" t="s">
         <v>146</v>
       </c>
@@ -14458,20 +14455,20 @@
     </row>
     <row r="10" spans="3:52" x14ac:dyDescent="0.35">
       <c r="C10" s="35"/>
-      <c r="D10" s="224" t="s">
+      <c r="D10" s="220" t="s">
         <v>272</v>
       </c>
-      <c r="E10" s="224"/>
+      <c r="E10" s="220"/>
       <c r="F10" s="84"/>
       <c r="G10" s="84"/>
       <c r="H10" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="J10" s="230" t="s">
+      <c r="J10" s="221" t="s">
         <v>278</v>
       </c>
-      <c r="K10" s="230"/>
-      <c r="L10" s="230"/>
+      <c r="K10" s="221"/>
+      <c r="L10" s="221"/>
       <c r="M10" s="43"/>
       <c r="N10" s="16" t="s">
         <v>274</v>
@@ -14485,20 +14482,20 @@
     </row>
     <row r="11" spans="3:52" x14ac:dyDescent="0.35">
       <c r="C11" s="35"/>
-      <c r="D11" s="231" t="s">
+      <c r="D11" s="222" t="s">
         <v>277</v>
       </c>
-      <c r="E11" s="232"/>
+      <c r="E11" s="223"/>
       <c r="F11" s="47"/>
       <c r="G11" s="106"/>
       <c r="H11" s="115">
         <v>0.3</v>
       </c>
-      <c r="J11" s="266">
+      <c r="J11" s="268">
         <v>87000</v>
       </c>
-      <c r="K11" s="267"/>
-      <c r="L11" s="268"/>
+      <c r="K11" s="269"/>
+      <c r="L11" s="270"/>
       <c r="M11" s="83"/>
       <c r="N11" s="85">
         <v>600000</v>
@@ -14510,19 +14507,19 @@
     </row>
     <row r="12" spans="3:52" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C12" s="35"/>
-      <c r="D12" s="224" t="s">
+      <c r="D12" s="220" t="s">
         <v>227</v>
       </c>
-      <c r="E12" s="224"/>
-      <c r="F12" s="224"/>
-      <c r="G12" s="224"/>
-      <c r="H12" s="224"/>
-      <c r="K12" s="224" t="s">
+      <c r="E12" s="220"/>
+      <c r="F12" s="220"/>
+      <c r="G12" s="220"/>
+      <c r="H12" s="220"/>
+      <c r="K12" s="220" t="s">
         <v>222</v>
       </c>
-      <c r="L12" s="224"/>
-      <c r="M12" s="224"/>
-      <c r="N12" s="224"/>
+      <c r="L12" s="220"/>
+      <c r="M12" s="220"/>
+      <c r="N12" s="220"/>
       <c r="O12" s="16"/>
       <c r="P12" s="36"/>
       <c r="AC12" t="s">
@@ -14531,15 +14528,15 @@
     </row>
     <row r="13" spans="3:52" x14ac:dyDescent="0.35">
       <c r="C13" s="35"/>
-      <c r="D13" s="214"/>
-      <c r="E13" s="215"/>
-      <c r="F13" s="215"/>
-      <c r="G13" s="215"/>
-      <c r="H13" s="216"/>
-      <c r="K13" s="214"/>
-      <c r="L13" s="215"/>
-      <c r="M13" s="215"/>
-      <c r="N13" s="216"/>
+      <c r="D13" s="227"/>
+      <c r="E13" s="228"/>
+      <c r="F13" s="228"/>
+      <c r="G13" s="228"/>
+      <c r="H13" s="229"/>
+      <c r="K13" s="227"/>
+      <c r="L13" s="228"/>
+      <c r="M13" s="228"/>
+      <c r="N13" s="229"/>
       <c r="O13" s="16"/>
       <c r="P13" s="36"/>
       <c r="AC13" t="s">
@@ -14558,19 +14555,19 @@
     </row>
     <row r="15" spans="3:52" x14ac:dyDescent="0.35">
       <c r="C15" s="35"/>
-      <c r="D15" s="224" t="s">
+      <c r="D15" s="220" t="s">
         <v>223</v>
       </c>
-      <c r="E15" s="224"/>
-      <c r="F15" s="224"/>
-      <c r="G15" s="224"/>
-      <c r="H15" s="224"/>
-      <c r="K15" s="224" t="s">
+      <c r="E15" s="220"/>
+      <c r="F15" s="220"/>
+      <c r="G15" s="220"/>
+      <c r="H15" s="220"/>
+      <c r="K15" s="220" t="s">
         <v>224</v>
       </c>
-      <c r="L15" s="224"/>
-      <c r="M15" s="224"/>
-      <c r="N15" s="224"/>
+      <c r="L15" s="220"/>
+      <c r="M15" s="220"/>
+      <c r="N15" s="220"/>
       <c r="O15" s="16"/>
       <c r="P15" s="36"/>
       <c r="AC15" t="s">
@@ -14581,15 +14578,15 @@
     </row>
     <row r="16" spans="3:52" x14ac:dyDescent="0.35">
       <c r="C16" s="35"/>
-      <c r="D16" s="214"/>
-      <c r="E16" s="215"/>
-      <c r="F16" s="215"/>
-      <c r="G16" s="215"/>
-      <c r="H16" s="216"/>
-      <c r="K16" s="214"/>
-      <c r="L16" s="215"/>
-      <c r="M16" s="215"/>
-      <c r="N16" s="216"/>
+      <c r="D16" s="227"/>
+      <c r="E16" s="228"/>
+      <c r="F16" s="228"/>
+      <c r="G16" s="228"/>
+      <c r="H16" s="229"/>
+      <c r="K16" s="227"/>
+      <c r="L16" s="228"/>
+      <c r="M16" s="228"/>
+      <c r="N16" s="229"/>
       <c r="O16" s="16"/>
       <c r="P16" s="36"/>
       <c r="AC16" t="s">
@@ -14610,19 +14607,19 @@
     </row>
     <row r="18" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C18" s="35"/>
-      <c r="D18" s="224" t="s">
+      <c r="D18" s="220" t="s">
         <v>225</v>
       </c>
-      <c r="E18" s="224"/>
-      <c r="F18" s="224"/>
-      <c r="G18" s="224"/>
-      <c r="H18" s="224"/>
-      <c r="K18" s="224" t="s">
+      <c r="E18" s="220"/>
+      <c r="F18" s="220"/>
+      <c r="G18" s="220"/>
+      <c r="H18" s="220"/>
+      <c r="K18" s="220" t="s">
         <v>226</v>
       </c>
-      <c r="L18" s="224"/>
-      <c r="M18" s="224"/>
-      <c r="N18" s="224"/>
+      <c r="L18" s="220"/>
+      <c r="M18" s="220"/>
+      <c r="N18" s="220"/>
       <c r="O18" s="16"/>
       <c r="P18" s="36"/>
       <c r="AC18" t="s">
@@ -14633,15 +14630,15 @@
     </row>
     <row r="19" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C19" s="35"/>
-      <c r="D19" s="214"/>
-      <c r="E19" s="215"/>
-      <c r="F19" s="215"/>
-      <c r="G19" s="215"/>
-      <c r="H19" s="216"/>
-      <c r="K19" s="214"/>
-      <c r="L19" s="215"/>
-      <c r="M19" s="215"/>
-      <c r="N19" s="216"/>
+      <c r="D19" s="227"/>
+      <c r="E19" s="228"/>
+      <c r="F19" s="228"/>
+      <c r="G19" s="228"/>
+      <c r="H19" s="229"/>
+      <c r="K19" s="227"/>
+      <c r="L19" s="228"/>
+      <c r="M19" s="228"/>
+      <c r="N19" s="229"/>
       <c r="O19" s="16"/>
       <c r="P19" s="36"/>
       <c r="AC19" t="s">
@@ -14820,21 +14817,21 @@
     </row>
     <row r="34" spans="3:16" ht="36.65" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C34" s="32"/>
-      <c r="D34" s="221" t="s">
+      <c r="D34" s="234" t="s">
         <v>203</v>
       </c>
-      <c r="E34" s="221"/>
-      <c r="F34" s="221"/>
-      <c r="G34" s="221"/>
-      <c r="H34" s="221"/>
-      <c r="I34" s="221"/>
-      <c r="J34" s="221"/>
-      <c r="K34" s="221"/>
-      <c r="L34" s="221"/>
-      <c r="M34" s="221"/>
-      <c r="N34" s="221"/>
-      <c r="O34" s="221"/>
-      <c r="P34" s="222"/>
+      <c r="E34" s="234"/>
+      <c r="F34" s="234"/>
+      <c r="G34" s="234"/>
+      <c r="H34" s="234"/>
+      <c r="I34" s="234"/>
+      <c r="J34" s="234"/>
+      <c r="K34" s="234"/>
+      <c r="L34" s="234"/>
+      <c r="M34" s="234"/>
+      <c r="N34" s="234"/>
+      <c r="O34" s="234"/>
+      <c r="P34" s="235"/>
     </row>
     <row r="35" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C35" s="35"/>
@@ -14859,19 +14856,19 @@
       <c r="H37" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="I37" s="223" t="s">
+      <c r="I37" s="236" t="s">
         <v>124</v>
       </c>
       <c r="J37" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="K37" s="223" t="s">
+      <c r="K37" s="236" t="s">
         <v>126</v>
       </c>
       <c r="L37" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="M37" s="223" t="s">
+      <c r="M37" s="236" t="s">
         <v>127</v>
       </c>
       <c r="N37" s="16" t="s">
@@ -14887,17 +14884,17 @@
         <f>J38*N38</f>
         <v>26100</v>
       </c>
-      <c r="I38" s="223"/>
+      <c r="I38" s="236"/>
       <c r="J38" s="89">
         <f>J11</f>
         <v>87000</v>
       </c>
-      <c r="K38" s="223"/>
+      <c r="K38" s="236"/>
       <c r="L38" s="89">
         <f>H31</f>
         <v>0</v>
       </c>
-      <c r="M38" s="223"/>
+      <c r="M38" s="236"/>
       <c r="N38" s="46">
         <v>0.3</v>
       </c>
@@ -14942,13 +14939,13 @@
       <c r="H43" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="I43" s="223" t="s">
+      <c r="I43" s="236" t="s">
         <v>124</v>
       </c>
       <c r="J43" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="K43" s="223" t="s">
+      <c r="K43" s="236" t="s">
         <v>129</v>
       </c>
       <c r="L43" s="16" t="s">
@@ -14964,12 +14961,12 @@
         <f>MIN(J44,L44)</f>
         <v>0</v>
       </c>
-      <c r="I44" s="223"/>
+      <c r="I44" s="236"/>
       <c r="J44" s="89">
         <f>H38</f>
         <v>26100</v>
       </c>
-      <c r="K44" s="223"/>
+      <c r="K44" s="236"/>
       <c r="L44" s="45">
         <v>0</v>
       </c>
@@ -14997,11 +14994,11 @@
     </row>
     <row r="48" spans="3:16" x14ac:dyDescent="0.35">
       <c r="C48" s="35"/>
-      <c r="H48" s="214" t="s">
+      <c r="H48" s="227" t="s">
         <v>202</v>
       </c>
-      <c r="I48" s="215"/>
-      <c r="J48" s="216"/>
+      <c r="I48" s="228"/>
+      <c r="J48" s="229"/>
       <c r="P48" s="36"/>
     </row>
     <row r="49" spans="3:16" x14ac:dyDescent="0.35">
@@ -15009,10 +15006,10 @@
       <c r="H49" s="57" t="s">
         <v>200</v>
       </c>
-      <c r="I49" s="217" t="s">
+      <c r="I49" s="230" t="s">
         <v>201</v>
       </c>
-      <c r="J49" s="218"/>
+      <c r="J49" s="231"/>
       <c r="P49" s="36"/>
     </row>
     <row r="50" spans="3:16" x14ac:dyDescent="0.35">
@@ -15020,11 +15017,11 @@
       <c r="H50" s="57">
         <v>1094</v>
       </c>
-      <c r="I50" s="219">
+      <c r="I50" s="232">
         <f>H38</f>
         <v>26100</v>
       </c>
-      <c r="J50" s="220"/>
+      <c r="J50" s="233"/>
       <c r="P50" s="36"/>
     </row>
     <row r="51" spans="3:16" x14ac:dyDescent="0.35">
@@ -15061,24 +15058,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C6:P6"/>
-    <mergeCell ref="D7:P7"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="K19:N19"/>
     <mergeCell ref="H48:J48"/>
     <mergeCell ref="I49:J49"/>
     <mergeCell ref="I50:J50"/>
@@ -15088,6 +15067,24 @@
     <mergeCell ref="M37:M38"/>
     <mergeCell ref="I43:I44"/>
     <mergeCell ref="K43:K44"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="C6:P6"/>
+    <mergeCell ref="D7:P7"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="J11:L11"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K19:O19" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -15241,22 +15238,22 @@
       </c>
     </row>
     <row r="6" spans="3:52" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="225" t="s">
+      <c r="C6" s="215" t="s">
         <v>261</v>
       </c>
-      <c r="D6" s="226"/>
-      <c r="E6" s="226"/>
-      <c r="F6" s="226"/>
-      <c r="G6" s="226"/>
-      <c r="H6" s="226"/>
-      <c r="I6" s="226"/>
-      <c r="J6" s="226"/>
-      <c r="K6" s="226"/>
-      <c r="L6" s="226"/>
-      <c r="M6" s="226"/>
-      <c r="N6" s="226"/>
-      <c r="O6" s="226"/>
-      <c r="P6" s="227"/>
+      <c r="D6" s="216"/>
+      <c r="E6" s="216"/>
+      <c r="F6" s="216"/>
+      <c r="G6" s="216"/>
+      <c r="H6" s="216"/>
+      <c r="I6" s="216"/>
+      <c r="J6" s="216"/>
+      <c r="K6" s="216"/>
+      <c r="L6" s="216"/>
+      <c r="M6" s="216"/>
+      <c r="N6" s="216"/>
+      <c r="O6" s="216"/>
+      <c r="P6" s="217"/>
       <c r="AC6" t="s">
         <v>145</v>
       </c>
@@ -15269,21 +15266,21 @@
     </row>
     <row r="7" spans="3:52" ht="28.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C7" s="35"/>
-      <c r="D7" s="228" t="s">
+      <c r="D7" s="218" t="s">
         <v>198</v>
       </c>
-      <c r="E7" s="228"/>
-      <c r="F7" s="228"/>
-      <c r="G7" s="228"/>
-      <c r="H7" s="228"/>
-      <c r="I7" s="228"/>
-      <c r="J7" s="228"/>
-      <c r="K7" s="228"/>
-      <c r="L7" s="228"/>
-      <c r="M7" s="228"/>
-      <c r="N7" s="228"/>
-      <c r="O7" s="228"/>
-      <c r="P7" s="229"/>
+      <c r="E7" s="218"/>
+      <c r="F7" s="218"/>
+      <c r="G7" s="218"/>
+      <c r="H7" s="218"/>
+      <c r="I7" s="218"/>
+      <c r="J7" s="218"/>
+      <c r="K7" s="218"/>
+      <c r="L7" s="218"/>
+      <c r="M7" s="218"/>
+      <c r="N7" s="218"/>
+      <c r="O7" s="218"/>
+      <c r="P7" s="219"/>
       <c r="AC7" t="s">
         <v>146</v>
       </c>
@@ -15322,20 +15319,20 @@
     </row>
     <row r="10" spans="3:52" x14ac:dyDescent="0.35">
       <c r="C10" s="35"/>
-      <c r="D10" s="224" t="s">
+      <c r="D10" s="220" t="s">
         <v>272</v>
       </c>
-      <c r="E10" s="224"/>
+      <c r="E10" s="220"/>
       <c r="F10" s="84"/>
       <c r="G10" s="84"/>
       <c r="H10" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="J10" s="230" t="s">
+      <c r="J10" s="221" t="s">
         <v>278</v>
       </c>
-      <c r="K10" s="230"/>
-      <c r="L10" s="230"/>
+      <c r="K10" s="221"/>
+      <c r="L10" s="221"/>
       <c r="M10" s="43"/>
       <c r="N10" s="16" t="s">
         <v>274</v>
@@ -15349,20 +15346,20 @@
     </row>
     <row r="11" spans="3:52" x14ac:dyDescent="0.35">
       <c r="C11" s="35"/>
-      <c r="D11" s="231" t="s">
+      <c r="D11" s="222" t="s">
         <v>280</v>
       </c>
-      <c r="E11" s="232"/>
+      <c r="E11" s="223"/>
       <c r="F11" s="47"/>
       <c r="G11" s="106"/>
       <c r="H11" s="115" t="s">
         <v>126</v>
       </c>
-      <c r="J11" s="266">
+      <c r="J11" s="268">
         <v>87000</v>
       </c>
-      <c r="K11" s="267"/>
-      <c r="L11" s="268"/>
+      <c r="K11" s="269"/>
+      <c r="L11" s="270"/>
       <c r="M11" s="83"/>
       <c r="N11" s="85">
         <v>600000</v>
@@ -15423,19 +15420,19 @@
     </row>
     <row r="15" spans="3:52" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C15" s="35"/>
-      <c r="D15" s="224" t="s">
+      <c r="D15" s="220" t="s">
         <v>227</v>
       </c>
-      <c r="E15" s="224"/>
-      <c r="F15" s="224"/>
-      <c r="G15" s="224"/>
-      <c r="H15" s="224"/>
-      <c r="K15" s="224" t="s">
+      <c r="E15" s="220"/>
+      <c r="F15" s="220"/>
+      <c r="G15" s="220"/>
+      <c r="H15" s="220"/>
+      <c r="K15" s="220" t="s">
         <v>222</v>
       </c>
-      <c r="L15" s="224"/>
-      <c r="M15" s="224"/>
-      <c r="N15" s="224"/>
+      <c r="L15" s="220"/>
+      <c r="M15" s="220"/>
+      <c r="N15" s="220"/>
       <c r="O15" s="16"/>
       <c r="P15" s="36"/>
       <c r="AC15" t="s">
@@ -15444,15 +15441,15 @@
     </row>
     <row r="16" spans="3:52" x14ac:dyDescent="0.35">
       <c r="C16" s="35"/>
-      <c r="D16" s="214"/>
-      <c r="E16" s="215"/>
-      <c r="F16" s="215"/>
-      <c r="G16" s="215"/>
-      <c r="H16" s="216"/>
-      <c r="K16" s="214"/>
-      <c r="L16" s="215"/>
-      <c r="M16" s="215"/>
-      <c r="N16" s="216"/>
+      <c r="D16" s="227"/>
+      <c r="E16" s="228"/>
+      <c r="F16" s="228"/>
+      <c r="G16" s="228"/>
+      <c r="H16" s="229"/>
+      <c r="K16" s="227"/>
+      <c r="L16" s="228"/>
+      <c r="M16" s="228"/>
+      <c r="N16" s="229"/>
       <c r="O16" s="16"/>
       <c r="P16" s="36"/>
       <c r="AC16" t="s">
@@ -15471,19 +15468,19 @@
     </row>
     <row r="18" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C18" s="35"/>
-      <c r="D18" s="224" t="s">
+      <c r="D18" s="220" t="s">
         <v>223</v>
       </c>
-      <c r="E18" s="224"/>
-      <c r="F18" s="224"/>
-      <c r="G18" s="224"/>
-      <c r="H18" s="224"/>
-      <c r="K18" s="224" t="s">
+      <c r="E18" s="220"/>
+      <c r="F18" s="220"/>
+      <c r="G18" s="220"/>
+      <c r="H18" s="220"/>
+      <c r="K18" s="220" t="s">
         <v>224</v>
       </c>
-      <c r="L18" s="224"/>
-      <c r="M18" s="224"/>
-      <c r="N18" s="224"/>
+      <c r="L18" s="220"/>
+      <c r="M18" s="220"/>
+      <c r="N18" s="220"/>
       <c r="O18" s="16"/>
       <c r="P18" s="36"/>
       <c r="AC18" t="s">
@@ -15494,15 +15491,15 @@
     </row>
     <row r="19" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C19" s="35"/>
-      <c r="D19" s="214"/>
-      <c r="E19" s="215"/>
-      <c r="F19" s="215"/>
-      <c r="G19" s="215"/>
-      <c r="H19" s="216"/>
-      <c r="K19" s="214"/>
-      <c r="L19" s="215"/>
-      <c r="M19" s="215"/>
-      <c r="N19" s="216"/>
+      <c r="D19" s="227"/>
+      <c r="E19" s="228"/>
+      <c r="F19" s="228"/>
+      <c r="G19" s="228"/>
+      <c r="H19" s="229"/>
+      <c r="K19" s="227"/>
+      <c r="L19" s="228"/>
+      <c r="M19" s="228"/>
+      <c r="N19" s="229"/>
       <c r="O19" s="16"/>
       <c r="P19" s="36"/>
       <c r="AC19" t="s">
@@ -15523,19 +15520,19 @@
     </row>
     <row r="21" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C21" s="35"/>
-      <c r="D21" s="224" t="s">
+      <c r="D21" s="220" t="s">
         <v>225</v>
       </c>
-      <c r="E21" s="224"/>
-      <c r="F21" s="224"/>
-      <c r="G21" s="224"/>
-      <c r="H21" s="224"/>
-      <c r="K21" s="224" t="s">
+      <c r="E21" s="220"/>
+      <c r="F21" s="220"/>
+      <c r="G21" s="220"/>
+      <c r="H21" s="220"/>
+      <c r="K21" s="220" t="s">
         <v>226</v>
       </c>
-      <c r="L21" s="224"/>
-      <c r="M21" s="224"/>
-      <c r="N21" s="224"/>
+      <c r="L21" s="220"/>
+      <c r="M21" s="220"/>
+      <c r="N21" s="220"/>
       <c r="O21" s="16"/>
       <c r="P21" s="36"/>
       <c r="AC21" t="s">
@@ -15546,15 +15543,15 @@
     </row>
     <row r="22" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C22" s="35"/>
-      <c r="D22" s="214"/>
-      <c r="E22" s="215"/>
-      <c r="F22" s="215"/>
-      <c r="G22" s="215"/>
-      <c r="H22" s="216"/>
-      <c r="K22" s="214"/>
-      <c r="L22" s="215"/>
-      <c r="M22" s="215"/>
-      <c r="N22" s="216"/>
+      <c r="D22" s="227"/>
+      <c r="E22" s="228"/>
+      <c r="F22" s="228"/>
+      <c r="G22" s="228"/>
+      <c r="H22" s="229"/>
+      <c r="K22" s="227"/>
+      <c r="L22" s="228"/>
+      <c r="M22" s="228"/>
+      <c r="N22" s="229"/>
       <c r="O22" s="16"/>
       <c r="P22" s="36"/>
       <c r="AC22" t="s">
@@ -15733,21 +15730,21 @@
     </row>
     <row r="37" spans="3:16" ht="36.65" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C37" s="32"/>
-      <c r="D37" s="221" t="s">
+      <c r="D37" s="234" t="s">
         <v>203</v>
       </c>
-      <c r="E37" s="221"/>
-      <c r="F37" s="221"/>
-      <c r="G37" s="221"/>
-      <c r="H37" s="221"/>
-      <c r="I37" s="221"/>
-      <c r="J37" s="221"/>
-      <c r="K37" s="221"/>
-      <c r="L37" s="221"/>
-      <c r="M37" s="221"/>
-      <c r="N37" s="221"/>
-      <c r="O37" s="221"/>
-      <c r="P37" s="222"/>
+      <c r="E37" s="234"/>
+      <c r="F37" s="234"/>
+      <c r="G37" s="234"/>
+      <c r="H37" s="234"/>
+      <c r="I37" s="234"/>
+      <c r="J37" s="234"/>
+      <c r="K37" s="234"/>
+      <c r="L37" s="234"/>
+      <c r="M37" s="234"/>
+      <c r="N37" s="234"/>
+      <c r="O37" s="234"/>
+      <c r="P37" s="235"/>
     </row>
     <row r="38" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C38" s="35"/>
@@ -15772,19 +15769,19 @@
       <c r="H40" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="I40" s="223" t="s">
+      <c r="I40" s="236" t="s">
         <v>124</v>
       </c>
       <c r="J40" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="K40" s="223" t="s">
+      <c r="K40" s="236" t="s">
         <v>126</v>
       </c>
       <c r="L40" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="M40" s="223" t="s">
+      <c r="M40" s="236" t="s">
         <v>127</v>
       </c>
       <c r="N40" s="16" t="s">
@@ -15800,17 +15797,17 @@
         <f>J41*N41</f>
         <v>26100</v>
       </c>
-      <c r="I41" s="223"/>
+      <c r="I41" s="236"/>
       <c r="J41" s="89">
         <f>J11</f>
         <v>87000</v>
       </c>
-      <c r="K41" s="223"/>
+      <c r="K41" s="236"/>
       <c r="L41" s="89">
         <f>H34</f>
         <v>0</v>
       </c>
-      <c r="M41" s="223"/>
+      <c r="M41" s="236"/>
       <c r="N41" s="46">
         <v>0.3</v>
       </c>
@@ -15855,13 +15852,13 @@
       <c r="H46" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="I46" s="223" t="s">
+      <c r="I46" s="236" t="s">
         <v>124</v>
       </c>
       <c r="J46" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="K46" s="223" t="s">
+      <c r="K46" s="236" t="s">
         <v>129</v>
       </c>
       <c r="L46" s="16" t="s">
@@ -15877,12 +15874,12 @@
         <f>MIN(J47,L47)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="223"/>
+      <c r="I47" s="236"/>
       <c r="J47" s="89">
         <f>H41</f>
         <v>26100</v>
       </c>
-      <c r="K47" s="223"/>
+      <c r="K47" s="236"/>
       <c r="L47" s="45">
         <v>0</v>
       </c>
@@ -15910,11 +15907,11 @@
     </row>
     <row r="51" spans="3:16" x14ac:dyDescent="0.35">
       <c r="C51" s="35"/>
-      <c r="H51" s="214" t="s">
+      <c r="H51" s="227" t="s">
         <v>202</v>
       </c>
-      <c r="I51" s="215"/>
-      <c r="J51" s="216"/>
+      <c r="I51" s="228"/>
+      <c r="J51" s="229"/>
       <c r="P51" s="36"/>
     </row>
     <row r="52" spans="3:16" x14ac:dyDescent="0.35">
@@ -15922,10 +15919,10 @@
       <c r="H52" s="57" t="s">
         <v>200</v>
       </c>
-      <c r="I52" s="217" t="s">
+      <c r="I52" s="230" t="s">
         <v>201</v>
       </c>
-      <c r="J52" s="218"/>
+      <c r="J52" s="231"/>
       <c r="P52" s="36"/>
     </row>
     <row r="53" spans="3:16" x14ac:dyDescent="0.35">
@@ -15933,11 +15930,11 @@
       <c r="H53" s="57">
         <v>1094</v>
       </c>
-      <c r="I53" s="219">
+      <c r="I53" s="232">
         <f>H41</f>
         <v>26100</v>
       </c>
-      <c r="J53" s="220"/>
+      <c r="J53" s="233"/>
       <c r="P53" s="36"/>
     </row>
     <row r="54" spans="3:16" x14ac:dyDescent="0.35">
@@ -15974,24 +15971,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C6:P6"/>
-    <mergeCell ref="D7:P7"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="K22:N22"/>
     <mergeCell ref="H51:J51"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
@@ -16001,6 +15980,24 @@
     <mergeCell ref="M40:M41"/>
     <mergeCell ref="I46:I47"/>
     <mergeCell ref="K46:K47"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="C6:P6"/>
+    <mergeCell ref="D7:P7"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="J11:L11"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F14" xr:uid="{00000000-0002-0000-0400-000000000000}">
@@ -16153,22 +16150,22 @@
       </c>
     </row>
     <row r="6" spans="3:52" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="225" t="s">
+      <c r="C6" s="215" t="s">
         <v>261</v>
       </c>
-      <c r="D6" s="226"/>
-      <c r="E6" s="226"/>
-      <c r="F6" s="226"/>
-      <c r="G6" s="226"/>
-      <c r="H6" s="226"/>
-      <c r="I6" s="226"/>
-      <c r="J6" s="226"/>
-      <c r="K6" s="226"/>
-      <c r="L6" s="226"/>
-      <c r="M6" s="226"/>
-      <c r="N6" s="226"/>
-      <c r="O6" s="226"/>
-      <c r="P6" s="227"/>
+      <c r="D6" s="216"/>
+      <c r="E6" s="216"/>
+      <c r="F6" s="216"/>
+      <c r="G6" s="216"/>
+      <c r="H6" s="216"/>
+      <c r="I6" s="216"/>
+      <c r="J6" s="216"/>
+      <c r="K6" s="216"/>
+      <c r="L6" s="216"/>
+      <c r="M6" s="216"/>
+      <c r="N6" s="216"/>
+      <c r="O6" s="216"/>
+      <c r="P6" s="217"/>
       <c r="AC6" t="s">
         <v>145</v>
       </c>
@@ -16181,21 +16178,21 @@
     </row>
     <row r="7" spans="3:52" ht="28.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C7" s="35"/>
-      <c r="D7" s="228" t="s">
+      <c r="D7" s="218" t="s">
         <v>198</v>
       </c>
-      <c r="E7" s="228"/>
-      <c r="F7" s="228"/>
-      <c r="G7" s="228"/>
-      <c r="H7" s="228"/>
-      <c r="I7" s="228"/>
-      <c r="J7" s="228"/>
-      <c r="K7" s="228"/>
-      <c r="L7" s="228"/>
-      <c r="M7" s="228"/>
-      <c r="N7" s="228"/>
-      <c r="O7" s="228"/>
-      <c r="P7" s="229"/>
+      <c r="E7" s="218"/>
+      <c r="F7" s="218"/>
+      <c r="G7" s="218"/>
+      <c r="H7" s="218"/>
+      <c r="I7" s="218"/>
+      <c r="J7" s="218"/>
+      <c r="K7" s="218"/>
+      <c r="L7" s="218"/>
+      <c r="M7" s="218"/>
+      <c r="N7" s="218"/>
+      <c r="O7" s="218"/>
+      <c r="P7" s="219"/>
       <c r="AC7" t="s">
         <v>146</v>
       </c>
@@ -16234,20 +16231,20 @@
     </row>
     <row r="10" spans="3:52" x14ac:dyDescent="0.35">
       <c r="C10" s="35"/>
-      <c r="D10" s="224" t="s">
+      <c r="D10" s="220" t="s">
         <v>191</v>
       </c>
-      <c r="E10" s="224"/>
+      <c r="E10" s="220"/>
       <c r="F10" s="84"/>
       <c r="G10" s="84"/>
       <c r="H10" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="J10" s="230" t="s">
+      <c r="J10" s="221" t="s">
         <v>228</v>
       </c>
-      <c r="K10" s="230"/>
-      <c r="L10" s="230"/>
+      <c r="K10" s="221"/>
+      <c r="L10" s="221"/>
       <c r="M10" s="43"/>
       <c r="N10" s="16" t="s">
         <v>192</v>
@@ -16261,18 +16258,18 @@
     </row>
     <row r="11" spans="3:52" x14ac:dyDescent="0.35">
       <c r="C11" s="35"/>
-      <c r="D11" s="231" t="s">
+      <c r="D11" s="222" t="s">
         <v>186</v>
       </c>
-      <c r="E11" s="232"/>
+      <c r="E11" s="223"/>
       <c r="F11" s="47"/>
       <c r="G11" s="106"/>
       <c r="H11" s="86">
         <v>20</v>
       </c>
-      <c r="J11" s="233"/>
-      <c r="K11" s="234"/>
-      <c r="L11" s="235"/>
+      <c r="J11" s="224"/>
+      <c r="K11" s="225"/>
+      <c r="L11" s="226"/>
       <c r="M11" s="83"/>
       <c r="N11" s="85">
         <v>632088.51</v>
@@ -16321,10 +16318,10 @@
     </row>
     <row r="14" spans="3:52" x14ac:dyDescent="0.35">
       <c r="C14" s="35"/>
-      <c r="D14" s="269">
+      <c r="D14" s="271">
         <v>87987</v>
       </c>
-      <c r="E14" s="270"/>
+      <c r="E14" s="272"/>
       <c r="F14" s="47"/>
       <c r="H14" s="100"/>
       <c r="I14" s="30"/>
@@ -16347,19 +16344,19 @@
     </row>
     <row r="16" spans="3:52" x14ac:dyDescent="0.35">
       <c r="C16" s="35"/>
-      <c r="D16" s="224" t="s">
+      <c r="D16" s="220" t="s">
         <v>227</v>
       </c>
-      <c r="E16" s="224"/>
-      <c r="F16" s="224"/>
-      <c r="G16" s="224"/>
-      <c r="H16" s="224"/>
-      <c r="K16" s="224" t="s">
+      <c r="E16" s="220"/>
+      <c r="F16" s="220"/>
+      <c r="G16" s="220"/>
+      <c r="H16" s="220"/>
+      <c r="K16" s="220" t="s">
         <v>222</v>
       </c>
-      <c r="L16" s="224"/>
-      <c r="M16" s="224"/>
-      <c r="N16" s="224"/>
+      <c r="L16" s="220"/>
+      <c r="M16" s="220"/>
+      <c r="N16" s="220"/>
       <c r="O16" s="16"/>
       <c r="P16" s="36"/>
       <c r="AC16" t="s">
@@ -16368,15 +16365,15 @@
     </row>
     <row r="17" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C17" s="35"/>
-      <c r="D17" s="214"/>
-      <c r="E17" s="215"/>
-      <c r="F17" s="215"/>
-      <c r="G17" s="215"/>
-      <c r="H17" s="216"/>
-      <c r="K17" s="214"/>
-      <c r="L17" s="215"/>
-      <c r="M17" s="215"/>
-      <c r="N17" s="216"/>
+      <c r="D17" s="227"/>
+      <c r="E17" s="228"/>
+      <c r="F17" s="228"/>
+      <c r="G17" s="228"/>
+      <c r="H17" s="229"/>
+      <c r="K17" s="227"/>
+      <c r="L17" s="228"/>
+      <c r="M17" s="228"/>
+      <c r="N17" s="229"/>
       <c r="O17" s="16"/>
       <c r="P17" s="36"/>
       <c r="AC17" t="s">
@@ -16395,19 +16392,19 @@
     </row>
     <row r="19" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C19" s="35"/>
-      <c r="D19" s="224" t="s">
+      <c r="D19" s="220" t="s">
         <v>223</v>
       </c>
-      <c r="E19" s="224"/>
-      <c r="F19" s="224"/>
-      <c r="G19" s="224"/>
-      <c r="H19" s="224"/>
-      <c r="K19" s="224" t="s">
+      <c r="E19" s="220"/>
+      <c r="F19" s="220"/>
+      <c r="G19" s="220"/>
+      <c r="H19" s="220"/>
+      <c r="K19" s="220" t="s">
         <v>224</v>
       </c>
-      <c r="L19" s="224"/>
-      <c r="M19" s="224"/>
-      <c r="N19" s="224"/>
+      <c r="L19" s="220"/>
+      <c r="M19" s="220"/>
+      <c r="N19" s="220"/>
       <c r="O19" s="16"/>
       <c r="P19" s="36"/>
       <c r="AC19" t="s">
@@ -16418,15 +16415,15 @@
     </row>
     <row r="20" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C20" s="35"/>
-      <c r="D20" s="214"/>
-      <c r="E20" s="215"/>
-      <c r="F20" s="215"/>
-      <c r="G20" s="215"/>
-      <c r="H20" s="216"/>
-      <c r="K20" s="214"/>
-      <c r="L20" s="215"/>
-      <c r="M20" s="215"/>
-      <c r="N20" s="216"/>
+      <c r="D20" s="227"/>
+      <c r="E20" s="228"/>
+      <c r="F20" s="228"/>
+      <c r="G20" s="228"/>
+      <c r="H20" s="229"/>
+      <c r="K20" s="227"/>
+      <c r="L20" s="228"/>
+      <c r="M20" s="228"/>
+      <c r="N20" s="229"/>
       <c r="O20" s="16"/>
       <c r="P20" s="36"/>
       <c r="AC20" t="s">
@@ -16447,19 +16444,19 @@
     </row>
     <row r="22" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C22" s="35"/>
-      <c r="D22" s="224" t="s">
+      <c r="D22" s="220" t="s">
         <v>225</v>
       </c>
-      <c r="E22" s="224"/>
-      <c r="F22" s="224"/>
-      <c r="G22" s="224"/>
-      <c r="H22" s="224"/>
-      <c r="K22" s="224" t="s">
+      <c r="E22" s="220"/>
+      <c r="F22" s="220"/>
+      <c r="G22" s="220"/>
+      <c r="H22" s="220"/>
+      <c r="K22" s="220" t="s">
         <v>226</v>
       </c>
-      <c r="L22" s="224"/>
-      <c r="M22" s="224"/>
-      <c r="N22" s="224"/>
+      <c r="L22" s="220"/>
+      <c r="M22" s="220"/>
+      <c r="N22" s="220"/>
       <c r="O22" s="16"/>
       <c r="P22" s="36"/>
       <c r="AC22" t="s">
@@ -16470,15 +16467,15 @@
     </row>
     <row r="23" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C23" s="35"/>
-      <c r="D23" s="214"/>
-      <c r="E23" s="215"/>
-      <c r="F23" s="215"/>
-      <c r="G23" s="215"/>
-      <c r="H23" s="216"/>
-      <c r="K23" s="214"/>
-      <c r="L23" s="215"/>
-      <c r="M23" s="215"/>
-      <c r="N23" s="216"/>
+      <c r="D23" s="227"/>
+      <c r="E23" s="228"/>
+      <c r="F23" s="228"/>
+      <c r="G23" s="228"/>
+      <c r="H23" s="229"/>
+      <c r="K23" s="227"/>
+      <c r="L23" s="228"/>
+      <c r="M23" s="228"/>
+      <c r="N23" s="229"/>
       <c r="O23" s="16"/>
       <c r="P23" s="36"/>
       <c r="AC23" t="s">
@@ -16655,21 +16652,21 @@
     </row>
     <row r="38" spans="3:16" ht="36.65" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C38" s="32"/>
-      <c r="D38" s="221" t="s">
+      <c r="D38" s="234" t="s">
         <v>203</v>
       </c>
-      <c r="E38" s="221"/>
-      <c r="F38" s="221"/>
-      <c r="G38" s="221"/>
-      <c r="H38" s="221"/>
-      <c r="I38" s="221"/>
-      <c r="J38" s="221"/>
-      <c r="K38" s="221"/>
-      <c r="L38" s="221"/>
-      <c r="M38" s="221"/>
-      <c r="N38" s="221"/>
-      <c r="O38" s="221"/>
-      <c r="P38" s="222"/>
+      <c r="E38" s="234"/>
+      <c r="F38" s="234"/>
+      <c r="G38" s="234"/>
+      <c r="H38" s="234"/>
+      <c r="I38" s="234"/>
+      <c r="J38" s="234"/>
+      <c r="K38" s="234"/>
+      <c r="L38" s="234"/>
+      <c r="M38" s="234"/>
+      <c r="N38" s="234"/>
+      <c r="O38" s="234"/>
+      <c r="P38" s="235"/>
     </row>
     <row r="39" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C39" s="35"/>
@@ -16694,19 +16691,19 @@
       <c r="H41" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="I41" s="223" t="s">
+      <c r="I41" s="236" t="s">
         <v>124</v>
       </c>
       <c r="J41" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="K41" s="223" t="s">
+      <c r="K41" s="236" t="s">
         <v>126</v>
       </c>
       <c r="L41" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="M41" s="223" t="s">
+      <c r="M41" s="236" t="s">
         <v>127</v>
       </c>
       <c r="N41" s="16" t="s">
@@ -16722,17 +16719,17 @@
         <f>(L42-J42)*N42</f>
         <v>113213.29</v>
       </c>
-      <c r="I42" s="223"/>
+      <c r="I42" s="236"/>
       <c r="J42" s="89">
         <f>N35</f>
         <v>66022.06</v>
       </c>
-      <c r="K42" s="223"/>
+      <c r="K42" s="236"/>
       <c r="L42" s="89">
         <f>H35</f>
         <v>632088.51</v>
       </c>
-      <c r="M42" s="223"/>
+      <c r="M42" s="236"/>
       <c r="N42" s="46">
         <v>0.2</v>
       </c>
@@ -16777,13 +16774,13 @@
       <c r="H47" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="I47" s="223" t="s">
+      <c r="I47" s="236" t="s">
         <v>124</v>
       </c>
       <c r="J47" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="K47" s="223" t="s">
+      <c r="K47" s="236" t="s">
         <v>129</v>
       </c>
       <c r="L47" s="16" t="s">
@@ -16799,12 +16796,12 @@
         <f>MIN(J48,L48)</f>
         <v>0</v>
       </c>
-      <c r="I48" s="223"/>
+      <c r="I48" s="236"/>
       <c r="J48" s="89">
         <f>H42</f>
         <v>113213.29</v>
       </c>
-      <c r="K48" s="223"/>
+      <c r="K48" s="236"/>
       <c r="L48" s="45">
         <v>0</v>
       </c>
@@ -16832,11 +16829,11 @@
     </row>
     <row r="52" spans="3:16" x14ac:dyDescent="0.35">
       <c r="C52" s="35"/>
-      <c r="H52" s="214" t="s">
+      <c r="H52" s="227" t="s">
         <v>202</v>
       </c>
-      <c r="I52" s="215"/>
-      <c r="J52" s="216"/>
+      <c r="I52" s="228"/>
+      <c r="J52" s="229"/>
       <c r="P52" s="36"/>
     </row>
     <row r="53" spans="3:16" x14ac:dyDescent="0.35">
@@ -16844,10 +16841,10 @@
       <c r="H53" s="57" t="s">
         <v>200</v>
       </c>
-      <c r="I53" s="217" t="s">
+      <c r="I53" s="230" t="s">
         <v>201</v>
       </c>
-      <c r="J53" s="218"/>
+      <c r="J53" s="231"/>
       <c r="P53" s="36"/>
     </row>
     <row r="54" spans="3:16" x14ac:dyDescent="0.35">
@@ -16855,8 +16852,8 @@
       <c r="H54" s="57">
         <v>1094</v>
       </c>
-      <c r="I54" s="219"/>
-      <c r="J54" s="220"/>
+      <c r="I54" s="232"/>
+      <c r="J54" s="233"/>
       <c r="P54" s="36"/>
     </row>
     <row r="55" spans="3:16" x14ac:dyDescent="0.35">
@@ -16896,6 +16893,23 @@
     <sortCondition ref="AC2:AC21"/>
   </sortState>
   <mergeCells count="28">
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="D38:P38"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="D23:H23"/>
     <mergeCell ref="C6:P6"/>
     <mergeCell ref="D7:P7"/>
     <mergeCell ref="D10:E10"/>
@@ -16907,23 +16921,6 @@
     <mergeCell ref="K16:N16"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D14:E14"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="D38:P38"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="K47:K48"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F14 D11:E12" xr:uid="{00000000-0002-0000-0500-000000000000}">
@@ -16987,20 +16984,20 @@
       <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C3" s="271" t="s">
+      <c r="C3" s="273" t="s">
         <v>214</v>
       </c>
-      <c r="D3" s="271"/>
-      <c r="E3" s="271"/>
-      <c r="F3" s="271"/>
-      <c r="I3" s="272" t="s">
+      <c r="D3" s="273"/>
+      <c r="E3" s="273"/>
+      <c r="F3" s="273"/>
+      <c r="I3" s="274" t="s">
         <v>215</v>
       </c>
-      <c r="J3" s="272"/>
-      <c r="K3" s="272"/>
-      <c r="L3" s="272"/>
-      <c r="M3" s="272"/>
-      <c r="N3" s="272"/>
+      <c r="J3" s="274"/>
+      <c r="K3" s="274"/>
+      <c r="L3" s="274"/>
+      <c r="M3" s="274"/>
+      <c r="N3" s="274"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C4" s="66" t="s">
@@ -17675,20 +17672,20 @@
       <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C3" s="271" t="s">
+      <c r="C3" s="273" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="271"/>
-      <c r="E3" s="271"/>
-      <c r="F3" s="271"/>
-      <c r="I3" s="272" t="s">
+      <c r="D3" s="273"/>
+      <c r="E3" s="273"/>
+      <c r="F3" s="273"/>
+      <c r="I3" s="274" t="s">
         <v>98</v>
       </c>
-      <c r="J3" s="272"/>
-      <c r="K3" s="272"/>
-      <c r="L3" s="272"/>
-      <c r="M3" s="272"/>
-      <c r="N3" s="272"/>
+      <c r="J3" s="274"/>
+      <c r="K3" s="274"/>
+      <c r="L3" s="274"/>
+      <c r="M3" s="274"/>
+      <c r="N3" s="274"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C4" s="16" t="s">
@@ -18299,8 +18296,8 @@
       </c>
     </row>
     <row r="2" spans="3:29" x14ac:dyDescent="0.35">
-      <c r="R2" s="273"/>
-      <c r="S2" s="273"/>
+      <c r="R2" s="275"/>
+      <c r="S2" s="275"/>
       <c r="AB2" t="s">
         <v>233</v>
       </c>
@@ -18351,22 +18348,22 @@
     </row>
     <row r="7" spans="3:29" ht="21" x14ac:dyDescent="0.5">
       <c r="C7" s="35"/>
-      <c r="D7" s="228" t="s">
+      <c r="D7" s="218" t="s">
         <v>229</v>
       </c>
-      <c r="E7" s="228"/>
-      <c r="F7" s="228"/>
-      <c r="G7" s="228"/>
-      <c r="H7" s="228"/>
-      <c r="I7" s="228"/>
-      <c r="J7" s="228"/>
-      <c r="K7" s="228"/>
-      <c r="L7" s="228"/>
-      <c r="M7" s="228"/>
-      <c r="N7" s="228"/>
-      <c r="O7" s="228"/>
-      <c r="P7" s="228"/>
-      <c r="Q7" s="229"/>
+      <c r="E7" s="218"/>
+      <c r="F7" s="218"/>
+      <c r="G7" s="218"/>
+      <c r="H7" s="218"/>
+      <c r="I7" s="218"/>
+      <c r="J7" s="218"/>
+      <c r="K7" s="218"/>
+      <c r="L7" s="218"/>
+      <c r="M7" s="218"/>
+      <c r="N7" s="218"/>
+      <c r="O7" s="218"/>
+      <c r="P7" s="218"/>
+      <c r="Q7" s="219"/>
     </row>
     <row r="8" spans="3:29" x14ac:dyDescent="0.35">
       <c r="C8" s="35"/>
@@ -18378,10 +18375,10 @@
     </row>
     <row r="10" spans="3:29" x14ac:dyDescent="0.35">
       <c r="C10" s="35"/>
-      <c r="D10" s="224" t="s">
+      <c r="D10" s="220" t="s">
         <v>241</v>
       </c>
-      <c r="E10" s="224"/>
+      <c r="E10" s="220"/>
       <c r="F10" s="16"/>
       <c r="G10" s="39" t="s">
         <v>230</v>
@@ -18393,20 +18390,20 @@
       <c r="L10" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="N10" s="224" t="s">
+      <c r="N10" s="220" t="s">
         <v>133</v>
       </c>
-      <c r="O10" s="224"/>
-      <c r="P10" s="224"/>
+      <c r="O10" s="220"/>
+      <c r="P10" s="220"/>
       <c r="Q10" s="75"/>
       <c r="R10" s="16"/>
     </row>
     <row r="11" spans="3:29" x14ac:dyDescent="0.35">
       <c r="C11" s="35"/>
-      <c r="D11" s="214" t="s">
+      <c r="D11" s="227" t="s">
         <v>233</v>
       </c>
-      <c r="E11" s="216"/>
+      <c r="E11" s="229"/>
       <c r="F11" s="31"/>
       <c r="G11" s="3" t="s">
         <v>233</v>
@@ -18414,9 +18411,9 @@
       <c r="H11" s="16"/>
       <c r="J11" s="74"/>
       <c r="L11" s="2"/>
-      <c r="N11" s="214"/>
-      <c r="O11" s="215"/>
-      <c r="P11" s="216"/>
+      <c r="N11" s="227"/>
+      <c r="O11" s="228"/>
+      <c r="P11" s="229"/>
       <c r="Q11" s="75"/>
       <c r="R11" s="16"/>
     </row>
@@ -18430,24 +18427,24 @@
     </row>
     <row r="14" spans="3:29" x14ac:dyDescent="0.35">
       <c r="C14" s="35"/>
-      <c r="D14" s="273" t="s">
+      <c r="D14" s="275" t="s">
         <v>239</v>
       </c>
-      <c r="E14" s="273"/>
-      <c r="F14" s="273"/>
-      <c r="G14" s="273"/>
+      <c r="E14" s="275"/>
+      <c r="F14" s="275"/>
+      <c r="G14" s="275"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="224" t="s">
+      <c r="I14" s="220" t="s">
         <v>247</v>
       </c>
-      <c r="J14" s="224"/>
-      <c r="K14" s="224"/>
-      <c r="M14" s="224" t="s">
+      <c r="J14" s="220"/>
+      <c r="K14" s="220"/>
+      <c r="M14" s="220" t="s">
         <v>236</v>
       </c>
-      <c r="N14" s="224"/>
-      <c r="O14" s="224"/>
-      <c r="P14" s="224"/>
+      <c r="N14" s="220"/>
+      <c r="O14" s="220"/>
+      <c r="P14" s="220"/>
       <c r="Q14" s="75"/>
     </row>
     <row r="15" spans="3:29" x14ac:dyDescent="0.35">
@@ -18460,10 +18457,10 @@
       <c r="I15" s="63"/>
       <c r="J15" s="64"/>
       <c r="K15" s="30"/>
-      <c r="M15" s="214"/>
-      <c r="N15" s="215"/>
-      <c r="O15" s="215"/>
-      <c r="P15" s="216"/>
+      <c r="M15" s="227"/>
+      <c r="N15" s="228"/>
+      <c r="O15" s="228"/>
+      <c r="P15" s="229"/>
       <c r="Q15" s="75"/>
     </row>
     <row r="16" spans="3:29" x14ac:dyDescent="0.35">
@@ -18482,20 +18479,20 @@
     </row>
     <row r="18" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C18" s="35"/>
-      <c r="D18" s="224" t="s">
+      <c r="D18" s="220" t="s">
         <v>237</v>
       </c>
-      <c r="E18" s="224"/>
-      <c r="G18" s="224" t="s">
+      <c r="E18" s="220"/>
+      <c r="G18" s="220" t="s">
         <v>244</v>
       </c>
-      <c r="H18" s="224"/>
-      <c r="I18" s="224"/>
+      <c r="H18" s="220"/>
+      <c r="I18" s="220"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="224" t="s">
+      <c r="K18" s="220" t="s">
         <v>245</v>
       </c>
-      <c r="L18" s="224"/>
+      <c r="L18" s="220"/>
       <c r="M18" s="16"/>
       <c r="N18" t="s">
         <v>135</v>
@@ -18507,14 +18504,14 @@
     </row>
     <row r="19" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C19" s="35"/>
-      <c r="D19" s="274"/>
-      <c r="E19" s="275"/>
-      <c r="G19" s="214"/>
-      <c r="H19" s="215"/>
-      <c r="I19" s="216"/>
+      <c r="D19" s="279"/>
+      <c r="E19" s="280"/>
+      <c r="G19" s="227"/>
+      <c r="H19" s="228"/>
+      <c r="I19" s="229"/>
       <c r="J19" s="16"/>
-      <c r="K19" s="274"/>
-      <c r="L19" s="275"/>
+      <c r="K19" s="279"/>
+      <c r="L19" s="280"/>
       <c r="M19" s="76"/>
       <c r="N19" s="2"/>
       <c r="P19" s="2"/>
@@ -18535,38 +18532,38 @@
     </row>
     <row r="22" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C22" s="35"/>
-      <c r="D22" s="224" t="s">
+      <c r="D22" s="220" t="s">
         <v>137</v>
       </c>
-      <c r="E22" s="224"/>
-      <c r="F22" s="224"/>
-      <c r="H22" s="224" t="s">
+      <c r="E22" s="220"/>
+      <c r="F22" s="220"/>
+      <c r="H22" s="220" t="s">
         <v>242</v>
       </c>
-      <c r="I22" s="224"/>
-      <c r="J22" s="224"/>
+      <c r="I22" s="220"/>
+      <c r="J22" s="220"/>
       <c r="L22" s="39" t="s">
         <v>243</v>
       </c>
       <c r="M22" s="39"/>
-      <c r="O22" s="273" t="s">
+      <c r="O22" s="275" t="s">
         <v>139</v>
       </c>
-      <c r="P22" s="273"/>
+      <c r="P22" s="275"/>
       <c r="Q22" s="36"/>
     </row>
     <row r="23" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C23" s="35"/>
-      <c r="D23" s="214"/>
-      <c r="E23" s="215"/>
-      <c r="F23" s="216"/>
-      <c r="H23" s="214"/>
-      <c r="I23" s="215"/>
-      <c r="J23" s="216"/>
-      <c r="L23" s="214"/>
-      <c r="M23" s="216"/>
-      <c r="O23" s="214"/>
-      <c r="P23" s="216"/>
+      <c r="D23" s="227"/>
+      <c r="E23" s="228"/>
+      <c r="F23" s="229"/>
+      <c r="H23" s="227"/>
+      <c r="I23" s="228"/>
+      <c r="J23" s="229"/>
+      <c r="L23" s="227"/>
+      <c r="M23" s="229"/>
+      <c r="O23" s="227"/>
+      <c r="P23" s="229"/>
       <c r="Q23" s="36"/>
     </row>
     <row r="24" spans="3:17" x14ac:dyDescent="0.35">
@@ -18654,13 +18651,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="D7:Q7"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="C6:Q6"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:L18"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="O23:P23"/>
     <mergeCell ref="D19:E19"/>
@@ -18672,12 +18668,13 @@
     <mergeCell ref="G19:I19"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="H22:J22"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="D7:Q7"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="C6:Q6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:E11" xr:uid="{00000000-0002-0000-0800-000000000000}">

--- a/6- Ingenieria de producto/6.1 - Análisis/04- Archivos de Trabajo/01-Embargos/MID - Módulo Judicial v1.xlsx
+++ b/6- Ingenieria de producto/6.1 - Análisis/04- Archivos de Trabajo/01-Embargos/MID - Módulo Judicial v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gerardo\03 - CIDs - Git\03 - MID\documentacion\6- Ingenieria de producto\6.1 - Análisis\04- Archivos de Trabajo\01-Embargos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92804A51-A454-4AB1-8A36-9EBC6A5E40F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E950DB-ABB0-4583-8406-9286A7A8A5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="306">
   <si>
     <t>se toma el menor de ambos</t>
   </si>
@@ -1012,6 +1012,15 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Aplica Ley</t>
+  </si>
+  <si>
+    <t>Dec 484/87:</t>
+  </si>
+  <si>
+    <t>SAC</t>
   </si>
 </sst>
 </file>
@@ -1824,7 +1833,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="290">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2158,7 +2167,6 @@
     <xf numFmtId="0" fontId="32" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2184,42 +2192,6 @@
     <xf numFmtId="0" fontId="24" fillId="18" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="18" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="29" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2252,32 +2224,62 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="29" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="29" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="33" fillId="20" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2288,16 +2290,7 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="11" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="33" fillId="20" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2321,29 +2314,41 @@
     <xf numFmtId="0" fontId="29" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="29" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="29" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="19" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="33" fillId="20" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="43" fontId="0" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="11" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2369,6 +2374,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2378,14 +2389,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2402,13 +2413,36 @@
     <xf numFmtId="0" fontId="18" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="43" fontId="24" fillId="19" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="24" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="24" fillId="19" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="24" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="29" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="29" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3180,8 +3214,8 @@
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>236818</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
@@ -3359,13 +3393,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>394971</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>93980</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3685,13 +3719,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>326390</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>35560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>80010</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3756,13 +3790,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3827,13 +3861,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>857250</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3951,6 +3985,138 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>29882</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>12726</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagen 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD6CBDCF-D3FB-96C2-FD6A-F1991F5059F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10249647" y="7395882"/>
+          <a:ext cx="177080" cy="179294"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>32870</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>10458</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>15714</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>189752</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagen 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37F5B993-2A5A-4A07-AAB5-833D1DAFDF02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10252635" y="7212105"/>
+          <a:ext cx="177080" cy="179294"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1250577</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1427657</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>2988</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagen 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66A0E6B7-EAF8-4C70-BAC1-DB7B830A12FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5904753" y="7219576"/>
+          <a:ext cx="177080" cy="179294"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -8714,20 +8880,20 @@
     </row>
     <row r="7" spans="3:27" ht="21" x14ac:dyDescent="0.5">
       <c r="C7" s="35"/>
-      <c r="D7" s="218" t="s">
+      <c r="D7" s="228" t="s">
         <v>131</v>
       </c>
-      <c r="E7" s="218"/>
-      <c r="F7" s="218"/>
-      <c r="G7" s="218"/>
-      <c r="H7" s="218"/>
-      <c r="I7" s="218"/>
-      <c r="J7" s="218"/>
-      <c r="K7" s="218"/>
-      <c r="L7" s="218"/>
-      <c r="M7" s="218"/>
-      <c r="N7" s="218"/>
-      <c r="O7" s="219"/>
+      <c r="E7" s="228"/>
+      <c r="F7" s="228"/>
+      <c r="G7" s="228"/>
+      <c r="H7" s="228"/>
+      <c r="I7" s="228"/>
+      <c r="J7" s="228"/>
+      <c r="K7" s="228"/>
+      <c r="L7" s="228"/>
+      <c r="M7" s="228"/>
+      <c r="N7" s="228"/>
+      <c r="O7" s="229"/>
       <c r="AA7" t="s">
         <v>253</v>
       </c>
@@ -8751,20 +8917,20 @@
     </row>
     <row r="10" spans="3:27" x14ac:dyDescent="0.35">
       <c r="C10" s="35"/>
-      <c r="D10" s="220" t="s">
+      <c r="D10" s="224" t="s">
         <v>132</v>
       </c>
-      <c r="E10" s="220"/>
+      <c r="E10" s="224"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="I10" s="220" t="s">
+      <c r="I10" s="224" t="s">
         <v>133</v>
       </c>
-      <c r="J10" s="220"/>
-      <c r="K10" s="220"/>
-      <c r="L10" s="220"/>
+      <c r="J10" s="224"/>
+      <c r="K10" s="224"/>
+      <c r="L10" s="224"/>
       <c r="N10" s="16" t="s">
         <v>230</v>
       </c>
@@ -8807,17 +8973,17 @@
       <c r="D14" t="s">
         <v>236</v>
       </c>
-      <c r="I14" s="220" t="s">
+      <c r="I14" s="224" t="s">
         <v>237</v>
       </c>
-      <c r="J14" s="220"/>
+      <c r="J14" s="224"/>
       <c r="K14" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="L14" s="220" t="s">
+      <c r="L14" s="224" t="s">
         <v>245</v>
       </c>
-      <c r="M14" s="220"/>
+      <c r="M14" s="224"/>
       <c r="N14" t="s">
         <v>255</v>
       </c>
@@ -8825,15 +8991,15 @@
     </row>
     <row r="15" spans="3:27" x14ac:dyDescent="0.35">
       <c r="C15" s="35"/>
-      <c r="D15" s="227"/>
-      <c r="E15" s="228"/>
-      <c r="F15" s="228"/>
-      <c r="G15" s="229"/>
-      <c r="I15" s="227"/>
-      <c r="J15" s="229"/>
+      <c r="D15" s="214"/>
+      <c r="E15" s="215"/>
+      <c r="F15" s="215"/>
+      <c r="G15" s="216"/>
+      <c r="I15" s="214"/>
+      <c r="J15" s="216"/>
       <c r="K15" s="16"/>
-      <c r="L15" s="227"/>
-      <c r="M15" s="229"/>
+      <c r="L15" s="214"/>
+      <c r="M15" s="216"/>
       <c r="O15" s="36"/>
     </row>
     <row r="16" spans="3:27" x14ac:dyDescent="0.35">
@@ -8847,17 +9013,17 @@
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C18" s="35"/>
-      <c r="D18" s="220" t="s">
+      <c r="D18" s="224" t="s">
         <v>137</v>
       </c>
-      <c r="E18" s="220"/>
+      <c r="E18" s="224"/>
       <c r="G18" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="I18" s="220" t="s">
+      <c r="I18" s="224" t="s">
         <v>139</v>
       </c>
-      <c r="J18" s="220"/>
+      <c r="J18" s="224"/>
       <c r="L18" t="s">
         <v>244</v>
       </c>
@@ -8933,25 +9099,25 @@
       <c r="D27" s="81" t="s">
         <v>249</v>
       </c>
-      <c r="E27" s="281" t="s">
+      <c r="E27" s="279" t="s">
         <v>257</v>
       </c>
-      <c r="F27" s="281"/>
-      <c r="G27" s="281" t="s">
+      <c r="F27" s="279"/>
+      <c r="G27" s="279" t="s">
         <v>250</v>
       </c>
-      <c r="H27" s="281"/>
-      <c r="I27" s="281"/>
+      <c r="H27" s="279"/>
+      <c r="I27" s="279"/>
       <c r="J27" s="81" t="s">
         <v>258</v>
       </c>
       <c r="K27" s="81" t="s">
         <v>251</v>
       </c>
-      <c r="L27" s="281" t="s">
+      <c r="L27" s="279" t="s">
         <v>252</v>
       </c>
-      <c r="M27" s="281"/>
+      <c r="M27" s="279"/>
       <c r="N27" s="82"/>
       <c r="O27" s="41" t="s">
         <v>141</v>
@@ -9285,21 +9451,21 @@
     </row>
     <row r="6" spans="3:52" x14ac:dyDescent="0.35">
       <c r="C6" s="32"/>
-      <c r="D6" s="287" t="s">
+      <c r="D6" s="280" t="s">
         <v>261</v>
       </c>
-      <c r="E6" s="287"/>
-      <c r="F6" s="287"/>
-      <c r="G6" s="287"/>
-      <c r="H6" s="287"/>
-      <c r="I6" s="287"/>
-      <c r="J6" s="287"/>
-      <c r="K6" s="287"/>
-      <c r="L6" s="287"/>
-      <c r="M6" s="287"/>
-      <c r="N6" s="287"/>
-      <c r="O6" s="287"/>
-      <c r="P6" s="288"/>
+      <c r="E6" s="280"/>
+      <c r="F6" s="280"/>
+      <c r="G6" s="280"/>
+      <c r="H6" s="280"/>
+      <c r="I6" s="280"/>
+      <c r="J6" s="280"/>
+      <c r="K6" s="280"/>
+      <c r="L6" s="280"/>
+      <c r="M6" s="280"/>
+      <c r="N6" s="280"/>
+      <c r="O6" s="280"/>
+      <c r="P6" s="281"/>
       <c r="AC6" t="s">
         <v>145</v>
       </c>
@@ -9312,21 +9478,21 @@
     </row>
     <row r="7" spans="3:52" ht="28.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C7" s="35"/>
-      <c r="D7" s="218" t="s">
+      <c r="D7" s="228" t="s">
         <v>198</v>
       </c>
-      <c r="E7" s="218"/>
-      <c r="F7" s="218"/>
-      <c r="G7" s="218"/>
-      <c r="H7" s="218"/>
-      <c r="I7" s="218"/>
-      <c r="J7" s="218"/>
-      <c r="K7" s="218"/>
-      <c r="L7" s="218"/>
-      <c r="M7" s="218"/>
-      <c r="N7" s="218"/>
-      <c r="O7" s="218"/>
-      <c r="P7" s="219"/>
+      <c r="E7" s="228"/>
+      <c r="F7" s="228"/>
+      <c r="G7" s="228"/>
+      <c r="H7" s="228"/>
+      <c r="I7" s="228"/>
+      <c r="J7" s="228"/>
+      <c r="K7" s="228"/>
+      <c r="L7" s="228"/>
+      <c r="M7" s="228"/>
+      <c r="N7" s="228"/>
+      <c r="O7" s="228"/>
+      <c r="P7" s="229"/>
       <c r="AC7" t="s">
         <v>146</v>
       </c>
@@ -9365,20 +9531,20 @@
     </row>
     <row r="10" spans="3:52" x14ac:dyDescent="0.35">
       <c r="C10" s="35"/>
-      <c r="D10" s="220" t="s">
+      <c r="D10" s="224" t="s">
         <v>191</v>
       </c>
-      <c r="E10" s="220"/>
+      <c r="E10" s="224"/>
       <c r="F10" s="84"/>
       <c r="G10" s="84"/>
       <c r="H10" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="J10" s="221" t="s">
+      <c r="J10" s="230" t="s">
         <v>228</v>
       </c>
-      <c r="K10" s="221"/>
-      <c r="L10" s="221"/>
+      <c r="K10" s="230"/>
+      <c r="L10" s="230"/>
       <c r="M10" s="43"/>
       <c r="N10" s="16" t="s">
         <v>192</v>
@@ -9392,18 +9558,18 @@
     </row>
     <row r="11" spans="3:52" x14ac:dyDescent="0.35">
       <c r="C11" s="35"/>
-      <c r="D11" s="222" t="s">
+      <c r="D11" s="231" t="s">
         <v>186</v>
       </c>
-      <c r="E11" s="223"/>
+      <c r="E11" s="232"/>
       <c r="F11" s="47"/>
       <c r="G11" s="60"/>
       <c r="H11" s="86">
         <v>20</v>
       </c>
-      <c r="J11" s="224"/>
-      <c r="K11" s="225"/>
-      <c r="L11" s="226"/>
+      <c r="J11" s="233"/>
+      <c r="K11" s="234"/>
+      <c r="L11" s="235"/>
       <c r="M11" s="83"/>
       <c r="N11" s="85">
         <v>632088.51</v>
@@ -9461,8 +9627,8 @@
       </c>
       <c r="K15" s="83"/>
       <c r="M15" s="71"/>
-      <c r="N15" s="221"/>
-      <c r="O15" s="221"/>
+      <c r="N15" s="230"/>
+      <c r="O15" s="230"/>
       <c r="P15" s="61"/>
       <c r="Q15" s="72" t="s">
         <v>221</v>
@@ -9515,19 +9681,19 @@
     </row>
     <row r="19" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C19" s="35"/>
-      <c r="D19" s="220" t="s">
+      <c r="D19" s="224" t="s">
         <v>227</v>
       </c>
-      <c r="E19" s="220"/>
-      <c r="F19" s="220"/>
-      <c r="G19" s="220"/>
-      <c r="H19" s="220"/>
-      <c r="K19" s="220" t="s">
+      <c r="E19" s="224"/>
+      <c r="F19" s="224"/>
+      <c r="G19" s="224"/>
+      <c r="H19" s="224"/>
+      <c r="K19" s="224" t="s">
         <v>222</v>
       </c>
-      <c r="L19" s="220"/>
-      <c r="M19" s="220"/>
-      <c r="N19" s="220"/>
+      <c r="L19" s="224"/>
+      <c r="M19" s="224"/>
+      <c r="N19" s="224"/>
       <c r="O19" s="16"/>
       <c r="P19" s="36"/>
       <c r="AC19" t="s">
@@ -9536,15 +9702,15 @@
     </row>
     <row r="20" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C20" s="35"/>
-      <c r="D20" s="227"/>
-      <c r="E20" s="228"/>
-      <c r="F20" s="228"/>
-      <c r="G20" s="228"/>
-      <c r="H20" s="229"/>
-      <c r="K20" s="227"/>
-      <c r="L20" s="228"/>
-      <c r="M20" s="228"/>
-      <c r="N20" s="229"/>
+      <c r="D20" s="214"/>
+      <c r="E20" s="215"/>
+      <c r="F20" s="215"/>
+      <c r="G20" s="215"/>
+      <c r="H20" s="216"/>
+      <c r="K20" s="214"/>
+      <c r="L20" s="215"/>
+      <c r="M20" s="215"/>
+      <c r="N20" s="216"/>
       <c r="O20" s="16"/>
       <c r="P20" s="36"/>
       <c r="AC20" t="s">
@@ -9563,19 +9729,19 @@
     </row>
     <row r="22" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C22" s="35"/>
-      <c r="D22" s="220" t="s">
+      <c r="D22" s="224" t="s">
         <v>223</v>
       </c>
-      <c r="E22" s="220"/>
-      <c r="F22" s="220"/>
-      <c r="G22" s="220"/>
-      <c r="H22" s="220"/>
-      <c r="K22" s="220" t="s">
+      <c r="E22" s="224"/>
+      <c r="F22" s="224"/>
+      <c r="G22" s="224"/>
+      <c r="H22" s="224"/>
+      <c r="K22" s="224" t="s">
         <v>224</v>
       </c>
-      <c r="L22" s="220"/>
-      <c r="M22" s="220"/>
-      <c r="N22" s="220"/>
+      <c r="L22" s="224"/>
+      <c r="M22" s="224"/>
+      <c r="N22" s="224"/>
       <c r="O22" s="16"/>
       <c r="P22" s="36"/>
       <c r="AC22" t="s">
@@ -9586,15 +9752,15 @@
     </row>
     <row r="23" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C23" s="35"/>
-      <c r="D23" s="227"/>
-      <c r="E23" s="228"/>
-      <c r="F23" s="228"/>
-      <c r="G23" s="228"/>
-      <c r="H23" s="229"/>
-      <c r="K23" s="227"/>
-      <c r="L23" s="228"/>
-      <c r="M23" s="228"/>
-      <c r="N23" s="229"/>
+      <c r="D23" s="214"/>
+      <c r="E23" s="215"/>
+      <c r="F23" s="215"/>
+      <c r="G23" s="215"/>
+      <c r="H23" s="216"/>
+      <c r="K23" s="214"/>
+      <c r="L23" s="215"/>
+      <c r="M23" s="215"/>
+      <c r="N23" s="216"/>
       <c r="O23" s="16"/>
       <c r="P23" s="36"/>
       <c r="AC23" t="s">
@@ -9615,19 +9781,19 @@
     </row>
     <row r="25" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C25" s="35"/>
-      <c r="D25" s="220" t="s">
+      <c r="D25" s="224" t="s">
         <v>225</v>
       </c>
-      <c r="E25" s="220"/>
-      <c r="F25" s="220"/>
-      <c r="G25" s="220"/>
-      <c r="H25" s="220"/>
-      <c r="K25" s="220" t="s">
+      <c r="E25" s="224"/>
+      <c r="F25" s="224"/>
+      <c r="G25" s="224"/>
+      <c r="H25" s="224"/>
+      <c r="K25" s="224" t="s">
         <v>226</v>
       </c>
-      <c r="L25" s="220"/>
-      <c r="M25" s="220"/>
-      <c r="N25" s="220"/>
+      <c r="L25" s="224"/>
+      <c r="M25" s="224"/>
+      <c r="N25" s="224"/>
       <c r="O25" s="16"/>
       <c r="P25" s="36"/>
       <c r="AC25" t="s">
@@ -9638,15 +9804,15 @@
     </row>
     <row r="26" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C26" s="35"/>
-      <c r="D26" s="227"/>
-      <c r="E26" s="228"/>
-      <c r="F26" s="228"/>
-      <c r="G26" s="228"/>
-      <c r="H26" s="229"/>
-      <c r="K26" s="227"/>
-      <c r="L26" s="228"/>
-      <c r="M26" s="228"/>
-      <c r="N26" s="229"/>
+      <c r="D26" s="214"/>
+      <c r="E26" s="215"/>
+      <c r="F26" s="215"/>
+      <c r="G26" s="215"/>
+      <c r="H26" s="216"/>
+      <c r="K26" s="214"/>
+      <c r="L26" s="215"/>
+      <c r="M26" s="215"/>
+      <c r="N26" s="216"/>
       <c r="O26" s="16"/>
       <c r="P26" s="36"/>
       <c r="AC26" t="s">
@@ -9839,21 +10005,21 @@
     </row>
     <row r="42" spans="3:16" ht="36.65" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C42" s="35"/>
-      <c r="D42" s="218" t="s">
+      <c r="D42" s="228" t="s">
         <v>203</v>
       </c>
-      <c r="E42" s="218"/>
-      <c r="F42" s="218"/>
-      <c r="G42" s="218"/>
-      <c r="H42" s="218"/>
-      <c r="I42" s="218"/>
-      <c r="J42" s="218"/>
-      <c r="K42" s="218"/>
-      <c r="L42" s="218"/>
-      <c r="M42" s="218"/>
-      <c r="N42" s="218"/>
-      <c r="O42" s="218"/>
-      <c r="P42" s="219"/>
+      <c r="E42" s="228"/>
+      <c r="F42" s="228"/>
+      <c r="G42" s="228"/>
+      <c r="H42" s="228"/>
+      <c r="I42" s="228"/>
+      <c r="J42" s="228"/>
+      <c r="K42" s="228"/>
+      <c r="L42" s="228"/>
+      <c r="M42" s="228"/>
+      <c r="N42" s="228"/>
+      <c r="O42" s="228"/>
+      <c r="P42" s="229"/>
     </row>
     <row r="43" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C43" s="35"/>
@@ -9878,19 +10044,19 @@
       <c r="H45" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="I45" s="236" t="s">
+      <c r="I45" s="223" t="s">
         <v>124</v>
       </c>
       <c r="J45" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="K45" s="236" t="s">
+      <c r="K45" s="223" t="s">
         <v>126</v>
       </c>
       <c r="L45" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="M45" s="236" t="s">
+      <c r="M45" s="223" t="s">
         <v>127</v>
       </c>
       <c r="N45" s="16" t="s">
@@ -9906,17 +10072,17 @@
         <f>(L46-J46)*N46</f>
         <v>113213.29</v>
       </c>
-      <c r="I46" s="236"/>
+      <c r="I46" s="223"/>
       <c r="J46" s="89">
         <f>N38</f>
         <v>66022.06</v>
       </c>
-      <c r="K46" s="236"/>
+      <c r="K46" s="223"/>
       <c r="L46" s="89">
         <f>H38</f>
         <v>632088.51</v>
       </c>
-      <c r="M46" s="236"/>
+      <c r="M46" s="223"/>
       <c r="N46" s="46">
         <v>0.2</v>
       </c>
@@ -9964,13 +10130,13 @@
       <c r="H51" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="I51" s="236" t="s">
+      <c r="I51" s="223" t="s">
         <v>124</v>
       </c>
       <c r="J51" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="K51" s="236" t="s">
+      <c r="K51" s="223" t="s">
         <v>129</v>
       </c>
       <c r="L51" s="16" t="s">
@@ -9989,12 +10155,12 @@
         <f>MIN(J52,L52)</f>
         <v>0</v>
       </c>
-      <c r="I52" s="236"/>
+      <c r="I52" s="223"/>
       <c r="J52" s="89">
         <f>H46</f>
         <v>113213.29</v>
       </c>
-      <c r="K52" s="236"/>
+      <c r="K52" s="223"/>
       <c r="L52" s="45">
         <v>0</v>
       </c>
@@ -10022,11 +10188,11 @@
     </row>
     <row r="56" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C56" s="35"/>
-      <c r="H56" s="227" t="s">
+      <c r="H56" s="214" t="s">
         <v>202</v>
       </c>
-      <c r="I56" s="228"/>
-      <c r="J56" s="229"/>
+      <c r="I56" s="215"/>
+      <c r="J56" s="216"/>
       <c r="P56" s="36"/>
     </row>
     <row r="57" spans="3:17" x14ac:dyDescent="0.35">
@@ -10034,10 +10200,10 @@
       <c r="H57" s="57" t="s">
         <v>200</v>
       </c>
-      <c r="I57" s="230" t="s">
+      <c r="I57" s="217" t="s">
         <v>201</v>
       </c>
-      <c r="J57" s="231"/>
+      <c r="J57" s="218"/>
       <c r="P57" s="36"/>
     </row>
     <row r="58" spans="3:17" x14ac:dyDescent="0.35">
@@ -10045,8 +10211,8 @@
       <c r="H58" s="57">
         <v>1094</v>
       </c>
-      <c r="I58" s="232"/>
-      <c r="J58" s="233"/>
+      <c r="I58" s="219"/>
+      <c r="J58" s="220"/>
       <c r="P58" s="36"/>
     </row>
     <row r="59" spans="3:17" x14ac:dyDescent="0.35">
@@ -10083,18 +10249,11 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D6:P6"/>
-    <mergeCell ref="D7:P7"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I58:J58"/>
     <mergeCell ref="I45:I46"/>
     <mergeCell ref="K45:K46"/>
     <mergeCell ref="M45:M46"/>
@@ -10109,11 +10268,18 @@
     <mergeCell ref="D26:H26"/>
     <mergeCell ref="K26:N26"/>
     <mergeCell ref="D42:P42"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="D6:P6"/>
+    <mergeCell ref="D7:P7"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="J11:L11"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K26:O26" xr:uid="{00000000-0002-0000-0A00-000000000000}">
@@ -10177,20 +10343,20 @@
       <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C3" s="273" t="s">
+      <c r="C3" s="271" t="s">
         <v>214</v>
       </c>
-      <c r="D3" s="273"/>
-      <c r="E3" s="273"/>
-      <c r="F3" s="273"/>
-      <c r="I3" s="274" t="s">
+      <c r="D3" s="271"/>
+      <c r="E3" s="271"/>
+      <c r="F3" s="271"/>
+      <c r="I3" s="272" t="s">
         <v>215</v>
       </c>
-      <c r="J3" s="274"/>
-      <c r="K3" s="274"/>
-      <c r="L3" s="274"/>
-      <c r="M3" s="274"/>
-      <c r="N3" s="274"/>
+      <c r="J3" s="272"/>
+      <c r="K3" s="272"/>
+      <c r="L3" s="272"/>
+      <c r="M3" s="272"/>
+      <c r="N3" s="272"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C4" s="66" t="s">
@@ -10974,21 +11140,21 @@
     </row>
     <row r="7" spans="3:52" ht="21" x14ac:dyDescent="0.5">
       <c r="C7" s="35"/>
-      <c r="D7" s="218" t="s">
+      <c r="D7" s="228" t="s">
         <v>198</v>
       </c>
-      <c r="E7" s="218"/>
-      <c r="F7" s="218"/>
-      <c r="G7" s="218"/>
-      <c r="H7" s="218"/>
-      <c r="I7" s="218"/>
-      <c r="J7" s="218"/>
-      <c r="K7" s="218"/>
-      <c r="L7" s="218"/>
-      <c r="M7" s="218"/>
-      <c r="N7" s="218"/>
-      <c r="O7" s="218"/>
-      <c r="P7" s="219"/>
+      <c r="E7" s="228"/>
+      <c r="F7" s="228"/>
+      <c r="G7" s="228"/>
+      <c r="H7" s="228"/>
+      <c r="I7" s="228"/>
+      <c r="J7" s="228"/>
+      <c r="K7" s="228"/>
+      <c r="L7" s="228"/>
+      <c r="M7" s="228"/>
+      <c r="N7" s="228"/>
+      <c r="O7" s="228"/>
+      <c r="P7" s="229"/>
       <c r="AC7" t="s">
         <v>146</v>
       </c>
@@ -11027,20 +11193,20 @@
     </row>
     <row r="10" spans="3:52" x14ac:dyDescent="0.35">
       <c r="C10" s="35"/>
-      <c r="D10" s="220" t="s">
+      <c r="D10" s="224" t="s">
         <v>191</v>
       </c>
-      <c r="E10" s="220"/>
-      <c r="F10" s="275" t="s">
+      <c r="E10" s="224"/>
+      <c r="F10" s="273" t="s">
         <v>220</v>
       </c>
-      <c r="G10" s="275"/>
-      <c r="H10" s="275"/>
-      <c r="J10" s="221" t="s">
+      <c r="G10" s="273"/>
+      <c r="H10" s="273"/>
+      <c r="J10" s="230" t="s">
         <v>228</v>
       </c>
-      <c r="K10" s="221"/>
-      <c r="L10" s="221"/>
+      <c r="K10" s="230"/>
+      <c r="L10" s="230"/>
       <c r="M10" s="43"/>
       <c r="N10" s="16" t="s">
         <v>192</v>
@@ -11063,9 +11229,9 @@
         <v>1</v>
       </c>
       <c r="H11" s="60"/>
-      <c r="J11" s="224"/>
-      <c r="K11" s="225"/>
-      <c r="L11" s="226"/>
+      <c r="J11" s="233"/>
+      <c r="K11" s="234"/>
+      <c r="L11" s="235"/>
       <c r="M11" s="83"/>
       <c r="N11" s="78"/>
       <c r="P11" s="83"/>
@@ -11087,10 +11253,10 @@
     </row>
     <row r="13" spans="3:52" x14ac:dyDescent="0.35">
       <c r="C13" s="35"/>
-      <c r="D13" s="289" t="s">
+      <c r="D13" s="287" t="s">
         <v>216</v>
       </c>
-      <c r="E13" s="289"/>
+      <c r="E13" s="287"/>
       <c r="F13" s="47"/>
       <c r="K13" s="70"/>
       <c r="L13" s="72" t="s">
@@ -11125,19 +11291,19 @@
     </row>
     <row r="16" spans="3:52" x14ac:dyDescent="0.35">
       <c r="C16" s="35"/>
-      <c r="D16" s="220" t="s">
+      <c r="D16" s="224" t="s">
         <v>227</v>
       </c>
-      <c r="E16" s="220"/>
-      <c r="F16" s="220"/>
-      <c r="G16" s="220"/>
-      <c r="H16" s="220"/>
-      <c r="K16" s="220" t="s">
+      <c r="E16" s="224"/>
+      <c r="F16" s="224"/>
+      <c r="G16" s="224"/>
+      <c r="H16" s="224"/>
+      <c r="K16" s="224" t="s">
         <v>222</v>
       </c>
-      <c r="L16" s="220"/>
-      <c r="M16" s="220"/>
-      <c r="N16" s="220"/>
+      <c r="L16" s="224"/>
+      <c r="M16" s="224"/>
+      <c r="N16" s="224"/>
       <c r="O16" s="16"/>
       <c r="P16" s="36"/>
       <c r="AC16" t="s">
@@ -11146,15 +11312,15 @@
     </row>
     <row r="17" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C17" s="35"/>
-      <c r="D17" s="227"/>
-      <c r="E17" s="228"/>
-      <c r="F17" s="228"/>
-      <c r="G17" s="228"/>
-      <c r="H17" s="229"/>
-      <c r="K17" s="227"/>
-      <c r="L17" s="228"/>
-      <c r="M17" s="228"/>
-      <c r="N17" s="229"/>
+      <c r="D17" s="214"/>
+      <c r="E17" s="215"/>
+      <c r="F17" s="215"/>
+      <c r="G17" s="215"/>
+      <c r="H17" s="216"/>
+      <c r="K17" s="214"/>
+      <c r="L17" s="215"/>
+      <c r="M17" s="215"/>
+      <c r="N17" s="216"/>
       <c r="O17" s="16"/>
       <c r="P17" s="36"/>
       <c r="AC17" t="s">
@@ -11173,19 +11339,19 @@
     </row>
     <row r="19" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C19" s="35"/>
-      <c r="D19" s="220" t="s">
+      <c r="D19" s="224" t="s">
         <v>223</v>
       </c>
-      <c r="E19" s="220"/>
-      <c r="F19" s="220"/>
-      <c r="G19" s="220"/>
-      <c r="H19" s="220"/>
-      <c r="K19" s="220" t="s">
+      <c r="E19" s="224"/>
+      <c r="F19" s="224"/>
+      <c r="G19" s="224"/>
+      <c r="H19" s="224"/>
+      <c r="K19" s="224" t="s">
         <v>224</v>
       </c>
-      <c r="L19" s="220"/>
-      <c r="M19" s="220"/>
-      <c r="N19" s="220"/>
+      <c r="L19" s="224"/>
+      <c r="M19" s="224"/>
+      <c r="N19" s="224"/>
       <c r="O19" s="16"/>
       <c r="P19" s="36"/>
       <c r="AC19" t="s">
@@ -11196,15 +11362,15 @@
     </row>
     <row r="20" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C20" s="35"/>
-      <c r="D20" s="227"/>
-      <c r="E20" s="228"/>
-      <c r="F20" s="228"/>
-      <c r="G20" s="228"/>
-      <c r="H20" s="229"/>
-      <c r="K20" s="227"/>
-      <c r="L20" s="228"/>
-      <c r="M20" s="228"/>
-      <c r="N20" s="229"/>
+      <c r="D20" s="214"/>
+      <c r="E20" s="215"/>
+      <c r="F20" s="215"/>
+      <c r="G20" s="215"/>
+      <c r="H20" s="216"/>
+      <c r="K20" s="214"/>
+      <c r="L20" s="215"/>
+      <c r="M20" s="215"/>
+      <c r="N20" s="216"/>
       <c r="O20" s="16"/>
       <c r="P20" s="36"/>
       <c r="AC20" t="s">
@@ -11225,19 +11391,19 @@
     </row>
     <row r="22" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C22" s="35"/>
-      <c r="D22" s="220" t="s">
+      <c r="D22" s="224" t="s">
         <v>225</v>
       </c>
-      <c r="E22" s="220"/>
-      <c r="F22" s="220"/>
-      <c r="G22" s="220"/>
-      <c r="H22" s="220"/>
-      <c r="K22" s="220" t="s">
+      <c r="E22" s="224"/>
+      <c r="F22" s="224"/>
+      <c r="G22" s="224"/>
+      <c r="H22" s="224"/>
+      <c r="K22" s="224" t="s">
         <v>226</v>
       </c>
-      <c r="L22" s="220"/>
-      <c r="M22" s="220"/>
-      <c r="N22" s="220"/>
+      <c r="L22" s="224"/>
+      <c r="M22" s="224"/>
+      <c r="N22" s="224"/>
       <c r="O22" s="16"/>
       <c r="P22" s="36"/>
       <c r="AC22" t="s">
@@ -11248,15 +11414,15 @@
     </row>
     <row r="23" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C23" s="35"/>
-      <c r="D23" s="227"/>
-      <c r="E23" s="228"/>
-      <c r="F23" s="228"/>
-      <c r="G23" s="228"/>
-      <c r="H23" s="229"/>
-      <c r="K23" s="227"/>
-      <c r="L23" s="228"/>
-      <c r="M23" s="228"/>
-      <c r="N23" s="229"/>
+      <c r="D23" s="214"/>
+      <c r="E23" s="215"/>
+      <c r="F23" s="215"/>
+      <c r="G23" s="215"/>
+      <c r="H23" s="216"/>
+      <c r="K23" s="214"/>
+      <c r="L23" s="215"/>
+      <c r="M23" s="215"/>
+      <c r="N23" s="216"/>
       <c r="O23" s="16"/>
       <c r="P23" s="36"/>
       <c r="AC23" t="s">
@@ -11314,21 +11480,21 @@
     </row>
     <row r="29" spans="3:37" ht="36.65" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C29" s="35"/>
-      <c r="D29" s="218" t="s">
+      <c r="D29" s="228" t="s">
         <v>203</v>
       </c>
-      <c r="E29" s="218"/>
-      <c r="F29" s="218"/>
-      <c r="G29" s="218"/>
-      <c r="H29" s="218"/>
-      <c r="I29" s="218"/>
-      <c r="J29" s="218"/>
-      <c r="K29" s="218"/>
-      <c r="L29" s="218"/>
-      <c r="M29" s="218"/>
-      <c r="N29" s="218"/>
-      <c r="O29" s="218"/>
-      <c r="P29" s="219"/>
+      <c r="E29" s="228"/>
+      <c r="F29" s="228"/>
+      <c r="G29" s="228"/>
+      <c r="H29" s="228"/>
+      <c r="I29" s="228"/>
+      <c r="J29" s="228"/>
+      <c r="K29" s="228"/>
+      <c r="L29" s="228"/>
+      <c r="M29" s="228"/>
+      <c r="N29" s="228"/>
+      <c r="O29" s="228"/>
+      <c r="P29" s="229"/>
     </row>
     <row r="30" spans="3:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C30" s="35"/>
@@ -11353,19 +11519,19 @@
       <c r="H32" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="I32" s="236" t="s">
+      <c r="I32" s="223" t="s">
         <v>124</v>
       </c>
       <c r="J32" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="K32" s="236" t="s">
+      <c r="K32" s="223" t="s">
         <v>126</v>
       </c>
       <c r="L32" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="M32" s="236" t="s">
+      <c r="M32" s="223" t="s">
         <v>127</v>
       </c>
       <c r="N32" s="16" t="s">
@@ -11378,11 +11544,11 @@
       <c r="C33" s="35"/>
       <c r="G33" s="51"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="236"/>
+      <c r="I33" s="223"/>
       <c r="J33" s="45"/>
-      <c r="K33" s="236"/>
+      <c r="K33" s="223"/>
       <c r="L33" s="45"/>
-      <c r="M33" s="236"/>
+      <c r="M33" s="223"/>
       <c r="N33" s="46">
         <v>0.2</v>
       </c>
@@ -11430,13 +11596,13 @@
       <c r="H38" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="I38" s="236" t="s">
+      <c r="I38" s="223" t="s">
         <v>124</v>
       </c>
       <c r="J38" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="K38" s="236" t="s">
+      <c r="K38" s="223" t="s">
         <v>129</v>
       </c>
       <c r="L38" s="16" t="s">
@@ -11452,9 +11618,9 @@
       <c r="C39" s="35"/>
       <c r="G39" s="51"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="236"/>
+      <c r="I39" s="223"/>
       <c r="J39" s="45"/>
-      <c r="K39" s="236"/>
+      <c r="K39" s="223"/>
       <c r="L39" s="45"/>
       <c r="M39" s="59"/>
       <c r="P39" s="36"/>
@@ -11480,11 +11646,11 @@
     </row>
     <row r="43" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C43" s="35"/>
-      <c r="H43" s="227" t="s">
+      <c r="H43" s="214" t="s">
         <v>202</v>
       </c>
-      <c r="I43" s="228"/>
-      <c r="J43" s="229"/>
+      <c r="I43" s="215"/>
+      <c r="J43" s="216"/>
       <c r="P43" s="36"/>
     </row>
     <row r="44" spans="3:17" x14ac:dyDescent="0.35">
@@ -11492,10 +11658,10 @@
       <c r="H44" s="57" t="s">
         <v>200</v>
       </c>
-      <c r="I44" s="230" t="s">
+      <c r="I44" s="217" t="s">
         <v>201</v>
       </c>
-      <c r="J44" s="231"/>
+      <c r="J44" s="218"/>
       <c r="P44" s="36"/>
     </row>
     <row r="45" spans="3:17" x14ac:dyDescent="0.35">
@@ -11503,8 +11669,8 @@
       <c r="H45" s="57">
         <v>1094</v>
       </c>
-      <c r="I45" s="232"/>
-      <c r="J45" s="233"/>
+      <c r="I45" s="219"/>
+      <c r="J45" s="220"/>
       <c r="P45" s="36"/>
     </row>
     <row r="46" spans="3:17" x14ac:dyDescent="0.35">
@@ -11541,35 +11707,35 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="D29:P29"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="K17:N17"/>
     <mergeCell ref="D7:P7"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="J11:L11"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="D29:P29"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I45:J45"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K23:O23" xr:uid="{00000000-0002-0000-0C00-000000000000}">
@@ -11723,22 +11889,22 @@
       </c>
     </row>
     <row r="6" spans="3:52" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="215" t="s">
+      <c r="C6" s="225" t="s">
         <v>261</v>
       </c>
-      <c r="D6" s="216"/>
-      <c r="E6" s="216"/>
-      <c r="F6" s="216"/>
-      <c r="G6" s="216"/>
-      <c r="H6" s="216"/>
-      <c r="I6" s="216"/>
-      <c r="J6" s="216"/>
-      <c r="K6" s="216"/>
-      <c r="L6" s="216"/>
-      <c r="M6" s="216"/>
-      <c r="N6" s="216"/>
-      <c r="O6" s="216"/>
-      <c r="P6" s="217"/>
+      <c r="D6" s="226"/>
+      <c r="E6" s="226"/>
+      <c r="F6" s="226"/>
+      <c r="G6" s="226"/>
+      <c r="H6" s="226"/>
+      <c r="I6" s="226"/>
+      <c r="J6" s="226"/>
+      <c r="K6" s="226"/>
+      <c r="L6" s="226"/>
+      <c r="M6" s="226"/>
+      <c r="N6" s="226"/>
+      <c r="O6" s="226"/>
+      <c r="P6" s="227"/>
       <c r="AC6" t="s">
         <v>145</v>
       </c>
@@ -11751,21 +11917,21 @@
     </row>
     <row r="7" spans="3:52" ht="28.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C7" s="35"/>
-      <c r="D7" s="218" t="s">
+      <c r="D7" s="228" t="s">
         <v>198</v>
       </c>
-      <c r="E7" s="218"/>
-      <c r="F7" s="218"/>
-      <c r="G7" s="218"/>
-      <c r="H7" s="218"/>
-      <c r="I7" s="218"/>
-      <c r="J7" s="218"/>
-      <c r="K7" s="218"/>
-      <c r="L7" s="218"/>
-      <c r="M7" s="218"/>
-      <c r="N7" s="218"/>
-      <c r="O7" s="218"/>
-      <c r="P7" s="219"/>
+      <c r="E7" s="228"/>
+      <c r="F7" s="228"/>
+      <c r="G7" s="228"/>
+      <c r="H7" s="228"/>
+      <c r="I7" s="228"/>
+      <c r="J7" s="228"/>
+      <c r="K7" s="228"/>
+      <c r="L7" s="228"/>
+      <c r="M7" s="228"/>
+      <c r="N7" s="228"/>
+      <c r="O7" s="228"/>
+      <c r="P7" s="229"/>
       <c r="AC7" t="s">
         <v>146</v>
       </c>
@@ -11804,20 +11970,20 @@
     </row>
     <row r="10" spans="3:52" x14ac:dyDescent="0.35">
       <c r="C10" s="35"/>
-      <c r="D10" s="220" t="s">
+      <c r="D10" s="224" t="s">
         <v>272</v>
       </c>
-      <c r="E10" s="220"/>
+      <c r="E10" s="224"/>
       <c r="F10" s="84"/>
       <c r="G10" s="84"/>
       <c r="H10" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="J10" s="221" t="s">
+      <c r="J10" s="230" t="s">
         <v>228</v>
       </c>
-      <c r="K10" s="221"/>
-      <c r="L10" s="221"/>
+      <c r="K10" s="230"/>
+      <c r="L10" s="230"/>
       <c r="M10" s="43"/>
       <c r="N10" s="16" t="s">
         <v>274</v>
@@ -11831,20 +11997,20 @@
     </row>
     <row r="11" spans="3:52" x14ac:dyDescent="0.35">
       <c r="C11" s="35"/>
-      <c r="D11" s="222" t="s">
+      <c r="D11" s="231" t="s">
         <v>273</v>
       </c>
-      <c r="E11" s="223"/>
+      <c r="E11" s="232"/>
       <c r="F11" s="47"/>
       <c r="G11" s="106"/>
       <c r="H11" s="115">
         <v>0.2</v>
       </c>
-      <c r="J11" s="224" t="s">
+      <c r="J11" s="233" t="s">
         <v>126</v>
       </c>
-      <c r="K11" s="225"/>
-      <c r="L11" s="226"/>
+      <c r="K11" s="234"/>
+      <c r="L11" s="235"/>
       <c r="M11" s="83"/>
       <c r="N11" s="85">
         <v>600000</v>
@@ -11856,19 +12022,19 @@
     </row>
     <row r="12" spans="3:52" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C12" s="35"/>
-      <c r="D12" s="220" t="s">
+      <c r="D12" s="224" t="s">
         <v>227</v>
       </c>
-      <c r="E12" s="220"/>
-      <c r="F12" s="220"/>
-      <c r="G12" s="220"/>
-      <c r="H12" s="220"/>
-      <c r="K12" s="220" t="s">
+      <c r="E12" s="224"/>
+      <c r="F12" s="224"/>
+      <c r="G12" s="224"/>
+      <c r="H12" s="224"/>
+      <c r="K12" s="224" t="s">
         <v>222</v>
       </c>
-      <c r="L12" s="220"/>
-      <c r="M12" s="220"/>
-      <c r="N12" s="220"/>
+      <c r="L12" s="224"/>
+      <c r="M12" s="224"/>
+      <c r="N12" s="224"/>
       <c r="O12" s="16"/>
       <c r="P12" s="36"/>
       <c r="AC12" t="s">
@@ -11877,15 +12043,15 @@
     </row>
     <row r="13" spans="3:52" x14ac:dyDescent="0.35">
       <c r="C13" s="35"/>
-      <c r="D13" s="227"/>
-      <c r="E13" s="228"/>
-      <c r="F13" s="228"/>
-      <c r="G13" s="228"/>
-      <c r="H13" s="229"/>
-      <c r="K13" s="227"/>
-      <c r="L13" s="228"/>
-      <c r="M13" s="228"/>
-      <c r="N13" s="229"/>
+      <c r="D13" s="214"/>
+      <c r="E13" s="215"/>
+      <c r="F13" s="215"/>
+      <c r="G13" s="215"/>
+      <c r="H13" s="216"/>
+      <c r="K13" s="214"/>
+      <c r="L13" s="215"/>
+      <c r="M13" s="215"/>
+      <c r="N13" s="216"/>
       <c r="O13" s="16"/>
       <c r="P13" s="36"/>
       <c r="AC13" t="s">
@@ -11904,19 +12070,19 @@
     </row>
     <row r="15" spans="3:52" x14ac:dyDescent="0.35">
       <c r="C15" s="35"/>
-      <c r="D15" s="220" t="s">
+      <c r="D15" s="224" t="s">
         <v>223</v>
       </c>
-      <c r="E15" s="220"/>
-      <c r="F15" s="220"/>
-      <c r="G15" s="220"/>
-      <c r="H15" s="220"/>
-      <c r="K15" s="220" t="s">
+      <c r="E15" s="224"/>
+      <c r="F15" s="224"/>
+      <c r="G15" s="224"/>
+      <c r="H15" s="224"/>
+      <c r="K15" s="224" t="s">
         <v>224</v>
       </c>
-      <c r="L15" s="220"/>
-      <c r="M15" s="220"/>
-      <c r="N15" s="220"/>
+      <c r="L15" s="224"/>
+      <c r="M15" s="224"/>
+      <c r="N15" s="224"/>
       <c r="O15" s="16"/>
       <c r="P15" s="36"/>
       <c r="AC15" t="s">
@@ -11927,15 +12093,15 @@
     </row>
     <row r="16" spans="3:52" x14ac:dyDescent="0.35">
       <c r="C16" s="35"/>
-      <c r="D16" s="227"/>
-      <c r="E16" s="228"/>
-      <c r="F16" s="228"/>
-      <c r="G16" s="228"/>
-      <c r="H16" s="229"/>
-      <c r="K16" s="227"/>
-      <c r="L16" s="228"/>
-      <c r="M16" s="228"/>
-      <c r="N16" s="229"/>
+      <c r="D16" s="214"/>
+      <c r="E16" s="215"/>
+      <c r="F16" s="215"/>
+      <c r="G16" s="215"/>
+      <c r="H16" s="216"/>
+      <c r="K16" s="214"/>
+      <c r="L16" s="215"/>
+      <c r="M16" s="215"/>
+      <c r="N16" s="216"/>
       <c r="O16" s="16"/>
       <c r="P16" s="36"/>
       <c r="AC16" t="s">
@@ -11956,19 +12122,19 @@
     </row>
     <row r="18" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C18" s="35"/>
-      <c r="D18" s="220" t="s">
+      <c r="D18" s="224" t="s">
         <v>225</v>
       </c>
-      <c r="E18" s="220"/>
-      <c r="F18" s="220"/>
-      <c r="G18" s="220"/>
-      <c r="H18" s="220"/>
-      <c r="K18" s="220" t="s">
+      <c r="E18" s="224"/>
+      <c r="F18" s="224"/>
+      <c r="G18" s="224"/>
+      <c r="H18" s="224"/>
+      <c r="K18" s="224" t="s">
         <v>226</v>
       </c>
-      <c r="L18" s="220"/>
-      <c r="M18" s="220"/>
-      <c r="N18" s="220"/>
+      <c r="L18" s="224"/>
+      <c r="M18" s="224"/>
+      <c r="N18" s="224"/>
       <c r="O18" s="16"/>
       <c r="P18" s="36"/>
       <c r="AC18" t="s">
@@ -11979,15 +12145,15 @@
     </row>
     <row r="19" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C19" s="35"/>
-      <c r="D19" s="227"/>
-      <c r="E19" s="228"/>
-      <c r="F19" s="228"/>
-      <c r="G19" s="228"/>
-      <c r="H19" s="229"/>
-      <c r="K19" s="227"/>
-      <c r="L19" s="228"/>
-      <c r="M19" s="228"/>
-      <c r="N19" s="229"/>
+      <c r="D19" s="214"/>
+      <c r="E19" s="215"/>
+      <c r="F19" s="215"/>
+      <c r="G19" s="215"/>
+      <c r="H19" s="216"/>
+      <c r="K19" s="214"/>
+      <c r="L19" s="215"/>
+      <c r="M19" s="215"/>
+      <c r="N19" s="216"/>
       <c r="O19" s="16"/>
       <c r="P19" s="36"/>
       <c r="AC19" t="s">
@@ -12150,21 +12316,21 @@
     </row>
     <row r="34" spans="3:16" ht="36.65" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C34" s="32"/>
-      <c r="D34" s="234" t="s">
+      <c r="D34" s="221" t="s">
         <v>203</v>
       </c>
-      <c r="E34" s="234"/>
-      <c r="F34" s="234"/>
-      <c r="G34" s="234"/>
-      <c r="H34" s="234"/>
-      <c r="I34" s="234"/>
-      <c r="J34" s="234"/>
-      <c r="K34" s="234"/>
-      <c r="L34" s="234"/>
-      <c r="M34" s="234"/>
-      <c r="N34" s="234"/>
-      <c r="O34" s="234"/>
-      <c r="P34" s="235"/>
+      <c r="E34" s="221"/>
+      <c r="F34" s="221"/>
+      <c r="G34" s="221"/>
+      <c r="H34" s="221"/>
+      <c r="I34" s="221"/>
+      <c r="J34" s="221"/>
+      <c r="K34" s="221"/>
+      <c r="L34" s="221"/>
+      <c r="M34" s="221"/>
+      <c r="N34" s="221"/>
+      <c r="O34" s="221"/>
+      <c r="P34" s="222"/>
     </row>
     <row r="35" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C35" s="35"/>
@@ -12189,19 +12355,19 @@
       <c r="H37" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="I37" s="236" t="s">
+      <c r="I37" s="223" t="s">
         <v>124</v>
       </c>
       <c r="J37" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="K37" s="236" t="s">
+      <c r="K37" s="223" t="s">
         <v>126</v>
       </c>
       <c r="L37" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="M37" s="236" t="s">
+      <c r="M37" s="223" t="s">
         <v>127</v>
       </c>
       <c r="N37" s="16" t="s">
@@ -12217,17 +12383,17 @@
         <f>(L38-J38)*N38</f>
         <v>-120000</v>
       </c>
-      <c r="I38" s="236"/>
+      <c r="I38" s="223"/>
       <c r="J38" s="89">
         <f>N11</f>
         <v>600000</v>
       </c>
-      <c r="K38" s="236"/>
+      <c r="K38" s="223"/>
       <c r="L38" s="89">
         <f>H31</f>
         <v>0</v>
       </c>
-      <c r="M38" s="236"/>
+      <c r="M38" s="223"/>
       <c r="N38" s="46">
         <v>0.2</v>
       </c>
@@ -12272,13 +12438,13 @@
       <c r="H43" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="I43" s="236" t="s">
+      <c r="I43" s="223" t="s">
         <v>124</v>
       </c>
       <c r="J43" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="K43" s="236" t="s">
+      <c r="K43" s="223" t="s">
         <v>129</v>
       </c>
       <c r="L43" s="16" t="s">
@@ -12294,12 +12460,12 @@
         <f>MIN(J44,L44)</f>
         <v>-120000</v>
       </c>
-      <c r="I44" s="236"/>
+      <c r="I44" s="223"/>
       <c r="J44" s="89">
         <f>H38</f>
         <v>-120000</v>
       </c>
-      <c r="K44" s="236"/>
+      <c r="K44" s="223"/>
       <c r="L44" s="45">
         <v>0</v>
       </c>
@@ -12327,11 +12493,11 @@
     </row>
     <row r="48" spans="3:16" x14ac:dyDescent="0.35">
       <c r="C48" s="35"/>
-      <c r="H48" s="227" t="s">
+      <c r="H48" s="214" t="s">
         <v>202</v>
       </c>
-      <c r="I48" s="228"/>
-      <c r="J48" s="229"/>
+      <c r="I48" s="215"/>
+      <c r="J48" s="216"/>
       <c r="P48" s="36"/>
     </row>
     <row r="49" spans="3:16" x14ac:dyDescent="0.35">
@@ -12339,10 +12505,10 @@
       <c r="H49" s="57" t="s">
         <v>200</v>
       </c>
-      <c r="I49" s="230" t="s">
+      <c r="I49" s="217" t="s">
         <v>201</v>
       </c>
-      <c r="J49" s="231"/>
+      <c r="J49" s="218"/>
       <c r="P49" s="36"/>
     </row>
     <row r="50" spans="3:16" x14ac:dyDescent="0.35">
@@ -12350,11 +12516,11 @@
       <c r="H50" s="57">
         <v>1094</v>
       </c>
-      <c r="I50" s="232">
+      <c r="I50" s="219">
         <f>H44</f>
         <v>-120000</v>
       </c>
-      <c r="J50" s="233"/>
+      <c r="J50" s="220"/>
       <c r="P50" s="36"/>
     </row>
     <row r="51" spans="3:16" x14ac:dyDescent="0.35">
@@ -12391,6 +12557,24 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C6:P6"/>
+    <mergeCell ref="D7:P7"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="K19:N19"/>
     <mergeCell ref="H48:J48"/>
     <mergeCell ref="I49:J49"/>
     <mergeCell ref="I50:J50"/>
@@ -12400,24 +12584,6 @@
     <mergeCell ref="M37:M38"/>
     <mergeCell ref="I43:I44"/>
     <mergeCell ref="K43:K44"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="C6:P6"/>
-    <mergeCell ref="D7:P7"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="J11:L11"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K19:O19" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -12453,10 +12619,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="C1:BM73"/>
+  <dimension ref="A1:BM76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14:L14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S69" sqref="S69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
@@ -12467,7 +12633,7 @@
     <col min="7" max="7" width="5.6328125" customWidth="1"/>
     <col min="8" max="8" width="20.6328125" customWidth="1"/>
     <col min="9" max="9" width="1.1796875" customWidth="1"/>
-    <col min="10" max="10" width="8.6328125" customWidth="1"/>
+    <col min="10" max="10" width="10.08984375" customWidth="1"/>
     <col min="11" max="11" width="6.453125" customWidth="1"/>
     <col min="12" max="12" width="16.36328125" customWidth="1"/>
     <col min="13" max="13" width="5.453125" customWidth="1"/>
@@ -12635,7 +12801,7 @@
       </c>
       <c r="AC5" s="125">
         <f>E19</f>
-        <v>150000</v>
+        <v>40000</v>
       </c>
       <c r="AE5" t="s">
         <v>145</v>
@@ -12660,29 +12826,29 @@
       </c>
     </row>
     <row r="6" spans="3:65" ht="14.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="237"/>
-      <c r="D6" s="238"/>
-      <c r="E6" s="238"/>
-      <c r="F6" s="238"/>
-      <c r="G6" s="238"/>
-      <c r="H6" s="238"/>
-      <c r="I6" s="238"/>
-      <c r="J6" s="238"/>
-      <c r="K6" s="238"/>
-      <c r="L6" s="238"/>
-      <c r="M6" s="238"/>
-      <c r="N6" s="238"/>
-      <c r="O6" s="238"/>
-      <c r="P6" s="238"/>
-      <c r="Q6" s="238"/>
-      <c r="R6" s="239"/>
+      <c r="C6" s="261"/>
+      <c r="D6" s="262"/>
+      <c r="E6" s="262"/>
+      <c r="F6" s="262"/>
+      <c r="G6" s="262"/>
+      <c r="H6" s="262"/>
+      <c r="I6" s="262"/>
+      <c r="J6" s="262"/>
+      <c r="K6" s="262"/>
+      <c r="L6" s="262"/>
+      <c r="M6" s="262"/>
+      <c r="N6" s="262"/>
+      <c r="O6" s="262"/>
+      <c r="P6" s="262"/>
+      <c r="Q6" s="262"/>
+      <c r="R6" s="263"/>
       <c r="AA6" s="35"/>
       <c r="AB6" t="s">
         <v>285</v>
       </c>
       <c r="AC6" s="125">
         <f>AC5-N40+H40</f>
-        <v>140350</v>
+        <v>130350</v>
       </c>
       <c r="AE6" t="s">
         <v>146</v>
@@ -12698,28 +12864,28 @@
       </c>
       <c r="BK6" s="124">
         <f>E19-P40+H40</f>
-        <v>85000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="7" spans="3:65" ht="28.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C7" s="128"/>
-      <c r="D7" s="240" t="s">
+      <c r="D7" s="264" t="s">
         <v>198</v>
       </c>
-      <c r="E7" s="240"/>
-      <c r="F7" s="240"/>
-      <c r="G7" s="240"/>
-      <c r="H7" s="240"/>
-      <c r="I7" s="240"/>
-      <c r="J7" s="240"/>
-      <c r="K7" s="240"/>
-      <c r="L7" s="240"/>
-      <c r="M7" s="240"/>
-      <c r="N7" s="240"/>
-      <c r="O7" s="240"/>
-      <c r="P7" s="240"/>
-      <c r="Q7" s="240"/>
-      <c r="R7" s="241"/>
+      <c r="E7" s="264"/>
+      <c r="F7" s="264"/>
+      <c r="G7" s="264"/>
+      <c r="H7" s="264"/>
+      <c r="I7" s="264"/>
+      <c r="J7" s="264"/>
+      <c r="K7" s="264"/>
+      <c r="L7" s="264"/>
+      <c r="M7" s="264"/>
+      <c r="N7" s="264"/>
+      <c r="O7" s="264"/>
+      <c r="P7" s="264"/>
+      <c r="Q7" s="264"/>
+      <c r="R7" s="265"/>
       <c r="AA7" s="35"/>
       <c r="AB7" t="s">
         <v>300</v>
@@ -12799,10 +12965,10 @@
     </row>
     <row r="10" spans="3:65" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C10" s="128"/>
-      <c r="D10" s="242" t="s">
+      <c r="D10" s="255" t="s">
         <v>288</v>
       </c>
-      <c r="E10" s="242"/>
+      <c r="E10" s="255"/>
       <c r="F10" s="131"/>
       <c r="G10" s="131"/>
       <c r="H10" s="132" t="s">
@@ -12810,10 +12976,10 @@
       </c>
       <c r="I10" s="129"/>
       <c r="J10" s="133"/>
-      <c r="K10" s="242" t="s">
+      <c r="K10" s="255" t="s">
         <v>287</v>
       </c>
-      <c r="L10" s="242"/>
+      <c r="L10" s="255"/>
       <c r="M10" s="132"/>
       <c r="N10" s="132" t="s">
         <v>220</v>
@@ -12832,10 +12998,10 @@
     </row>
     <row r="11" spans="3:65" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C11" s="128"/>
-      <c r="D11" s="243" t="s">
+      <c r="D11" s="256" t="s">
         <v>284</v>
       </c>
-      <c r="E11" s="244"/>
+      <c r="E11" s="257"/>
       <c r="F11" s="129"/>
       <c r="G11" s="136"/>
       <c r="H11" s="137">
@@ -12843,13 +13009,13 @@
       </c>
       <c r="I11" s="129"/>
       <c r="J11" s="133"/>
-      <c r="K11" s="243" t="s">
-        <v>233</v>
-      </c>
-      <c r="L11" s="244"/>
+      <c r="K11" s="256" t="s">
+        <v>206</v>
+      </c>
+      <c r="L11" s="257"/>
       <c r="M11" s="133"/>
       <c r="N11" s="137">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="O11" s="133"/>
       <c r="P11" s="129"/>
@@ -12885,14 +13051,14 @@
     </row>
     <row r="13" spans="3:65" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C13" s="128"/>
-      <c r="D13" s="243" t="s">
-        <v>233</v>
-      </c>
-      <c r="E13" s="244"/>
+      <c r="D13" s="256" t="s">
+        <v>284</v>
+      </c>
+      <c r="E13" s="257"/>
       <c r="F13" s="129"/>
       <c r="G13" s="129"/>
       <c r="H13" s="137">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I13" s="129"/>
       <c r="J13" s="133"/>
@@ -12921,13 +13087,13 @@
       <c r="H14" s="129"/>
       <c r="I14" s="129"/>
       <c r="J14" s="133"/>
-      <c r="K14" s="243" t="s">
-        <v>233</v>
-      </c>
-      <c r="L14" s="244"/>
+      <c r="K14" s="256" t="s">
+        <v>206</v>
+      </c>
+      <c r="L14" s="257"/>
       <c r="M14" s="133"/>
       <c r="N14" s="137">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="O14" s="133"/>
       <c r="P14" s="129"/>
@@ -12969,10 +13135,14 @@
       <c r="H16" s="137"/>
       <c r="I16" s="129"/>
       <c r="J16" s="133"/>
-      <c r="K16" s="133"/>
-      <c r="L16" s="133"/>
+      <c r="K16" s="243" t="s">
+        <v>303</v>
+      </c>
+      <c r="L16" s="245"/>
       <c r="M16" s="133"/>
-      <c r="N16" s="133"/>
+      <c r="N16" s="294" t="s">
+        <v>301</v>
+      </c>
       <c r="O16" s="133"/>
       <c r="P16" s="129"/>
       <c r="Q16" s="129"/>
@@ -12984,7 +13154,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="3:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C17" s="128"/>
       <c r="D17" s="129"/>
       <c r="E17" s="129"/>
@@ -13008,7 +13178,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="3:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C18" s="128"/>
       <c r="D18" s="129"/>
       <c r="E18" s="132" t="s">
@@ -13021,10 +13191,10 @@
       </c>
       <c r="I18" s="129"/>
       <c r="J18" s="133"/>
-      <c r="K18" s="249" t="s">
+      <c r="K18" s="258" t="s">
         <v>294</v>
       </c>
-      <c r="L18" s="249"/>
+      <c r="L18" s="258"/>
       <c r="M18" s="133"/>
       <c r="N18" s="132" t="s">
         <v>295</v>
@@ -13037,11 +13207,15 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="3:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="90">
+        <f>E19*0.2</f>
+        <v>8000</v>
+      </c>
       <c r="C19" s="128"/>
       <c r="D19" s="129"/>
       <c r="E19" s="85">
-        <v>150000</v>
+        <v>40000</v>
       </c>
       <c r="F19" s="129"/>
       <c r="G19" s="129"/>
@@ -13050,10 +13224,10 @@
       </c>
       <c r="I19" s="129"/>
       <c r="J19" s="133"/>
-      <c r="K19" s="250">
+      <c r="K19" s="259">
         <v>121407</v>
       </c>
-      <c r="L19" s="251"/>
+      <c r="L19" s="260"/>
       <c r="M19" s="133"/>
       <c r="N19" s="85">
         <v>70938.240000000005</v>
@@ -13066,7 +13240,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="20" spans="3:39" ht="28.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:39" ht="28.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C20" s="128"/>
       <c r="D20" s="129"/>
       <c r="E20" s="129"/>
@@ -13084,49 +13258,49 @@
       <c r="Q20" s="129"/>
       <c r="R20" s="135"/>
     </row>
-    <row r="21" spans="3:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C21" s="128"/>
-      <c r="D21" s="245" t="s">
+      <c r="D21" s="246" t="s">
         <v>227</v>
       </c>
-      <c r="E21" s="245"/>
-      <c r="F21" s="245"/>
-      <c r="G21" s="245"/>
-      <c r="H21" s="245"/>
+      <c r="E21" s="246"/>
+      <c r="F21" s="246"/>
+      <c r="G21" s="246"/>
+      <c r="H21" s="246"/>
       <c r="I21" s="129"/>
       <c r="J21" s="129"/>
-      <c r="K21" s="245" t="s">
+      <c r="K21" s="246" t="s">
         <v>222</v>
       </c>
-      <c r="L21" s="245"/>
-      <c r="M21" s="245"/>
-      <c r="N21" s="245"/>
-      <c r="O21" s="245"/>
-      <c r="P21" s="245"/>
+      <c r="L21" s="246"/>
+      <c r="M21" s="246"/>
+      <c r="N21" s="246"/>
+      <c r="O21" s="246"/>
+      <c r="P21" s="246"/>
       <c r="Q21" s="133"/>
       <c r="R21" s="130"/>
     </row>
-    <row r="22" spans="3:39" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.35">
       <c r="C22" s="128"/>
-      <c r="D22" s="246"/>
-      <c r="E22" s="247"/>
-      <c r="F22" s="247"/>
-      <c r="G22" s="247"/>
-      <c r="H22" s="248"/>
+      <c r="D22" s="243"/>
+      <c r="E22" s="244"/>
+      <c r="F22" s="244"/>
+      <c r="G22" s="244"/>
+      <c r="H22" s="245"/>
       <c r="I22" s="129"/>
       <c r="J22" s="129"/>
-      <c r="K22" s="246"/>
-      <c r="L22" s="247"/>
-      <c r="M22" s="247"/>
-      <c r="N22" s="247"/>
-      <c r="O22" s="247"/>
-      <c r="P22" s="248"/>
+      <c r="K22" s="243"/>
+      <c r="L22" s="244"/>
+      <c r="M22" s="244"/>
+      <c r="N22" s="244"/>
+      <c r="O22" s="244"/>
+      <c r="P22" s="245"/>
       <c r="Q22" s="133"/>
       <c r="R22" s="130"/>
       <c r="AL22" s="12"/>
       <c r="AM22" s="12"/>
     </row>
-    <row r="23" spans="3:39" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.35">
       <c r="C23" s="128"/>
       <c r="D23" s="129"/>
       <c r="E23" s="129"/>
@@ -13144,51 +13318,51 @@
       <c r="Q23" s="129"/>
       <c r="R23" s="130"/>
     </row>
-    <row r="24" spans="3:39" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.35">
       <c r="C24" s="128"/>
-      <c r="D24" s="245" t="s">
+      <c r="D24" s="246" t="s">
         <v>223</v>
       </c>
-      <c r="E24" s="245"/>
-      <c r="F24" s="245"/>
-      <c r="G24" s="245"/>
-      <c r="H24" s="245"/>
+      <c r="E24" s="246"/>
+      <c r="F24" s="246"/>
+      <c r="G24" s="246"/>
+      <c r="H24" s="246"/>
       <c r="I24" s="129"/>
       <c r="J24" s="129"/>
-      <c r="K24" s="245" t="s">
+      <c r="K24" s="246" t="s">
         <v>224</v>
       </c>
-      <c r="L24" s="245"/>
-      <c r="M24" s="245"/>
-      <c r="N24" s="245"/>
-      <c r="O24" s="245"/>
-      <c r="P24" s="245"/>
+      <c r="L24" s="246"/>
+      <c r="M24" s="246"/>
+      <c r="N24" s="246"/>
+      <c r="O24" s="246"/>
+      <c r="P24" s="246"/>
       <c r="Q24" s="133"/>
       <c r="R24" s="130"/>
       <c r="AL24" s="11"/>
       <c r="AM24" s="11"/>
     </row>
-    <row r="25" spans="3:39" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.35">
       <c r="C25" s="128"/>
-      <c r="D25" s="246"/>
-      <c r="E25" s="247"/>
-      <c r="F25" s="247"/>
-      <c r="G25" s="247"/>
-      <c r="H25" s="248"/>
+      <c r="D25" s="243"/>
+      <c r="E25" s="244"/>
+      <c r="F25" s="244"/>
+      <c r="G25" s="244"/>
+      <c r="H25" s="245"/>
       <c r="I25" s="129"/>
       <c r="J25" s="129"/>
-      <c r="K25" s="246"/>
-      <c r="L25" s="247"/>
-      <c r="M25" s="247"/>
-      <c r="N25" s="247"/>
-      <c r="O25" s="247"/>
-      <c r="P25" s="248"/>
+      <c r="K25" s="243"/>
+      <c r="L25" s="244"/>
+      <c r="M25" s="244"/>
+      <c r="N25" s="244"/>
+      <c r="O25" s="244"/>
+      <c r="P25" s="245"/>
       <c r="Q25" s="133"/>
       <c r="R25" s="130"/>
       <c r="AL25" s="11"/>
       <c r="AM25" s="11"/>
     </row>
-    <row r="26" spans="3:39" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.35">
       <c r="C26" s="128"/>
       <c r="D26" s="129"/>
       <c r="E26" s="129"/>
@@ -13208,51 +13382,51 @@
       <c r="AL26" s="11"/>
       <c r="AM26" s="11"/>
     </row>
-    <row r="27" spans="3:39" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.35">
       <c r="C27" s="128"/>
-      <c r="D27" s="245" t="s">
+      <c r="D27" s="246" t="s">
         <v>225</v>
       </c>
-      <c r="E27" s="245"/>
-      <c r="F27" s="245"/>
-      <c r="G27" s="245"/>
-      <c r="H27" s="245"/>
+      <c r="E27" s="246"/>
+      <c r="F27" s="246"/>
+      <c r="G27" s="246"/>
+      <c r="H27" s="246"/>
       <c r="I27" s="129"/>
       <c r="J27" s="129"/>
-      <c r="K27" s="245" t="s">
+      <c r="K27" s="246" t="s">
         <v>226</v>
       </c>
-      <c r="L27" s="245"/>
-      <c r="M27" s="245"/>
-      <c r="N27" s="245"/>
-      <c r="O27" s="245"/>
-      <c r="P27" s="245"/>
+      <c r="L27" s="246"/>
+      <c r="M27" s="246"/>
+      <c r="N27" s="246"/>
+      <c r="O27" s="246"/>
+      <c r="P27" s="246"/>
       <c r="Q27" s="133"/>
       <c r="R27" s="130"/>
       <c r="AL27" s="11"/>
       <c r="AM27" s="11"/>
     </row>
-    <row r="28" spans="3:39" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.35">
       <c r="C28" s="128"/>
-      <c r="D28" s="246"/>
-      <c r="E28" s="247"/>
-      <c r="F28" s="247"/>
-      <c r="G28" s="247"/>
-      <c r="H28" s="248"/>
+      <c r="D28" s="243"/>
+      <c r="E28" s="244"/>
+      <c r="F28" s="244"/>
+      <c r="G28" s="244"/>
+      <c r="H28" s="245"/>
       <c r="I28" s="129"/>
       <c r="J28" s="129"/>
-      <c r="K28" s="246"/>
-      <c r="L28" s="247"/>
-      <c r="M28" s="247"/>
-      <c r="N28" s="247"/>
-      <c r="O28" s="247"/>
-      <c r="P28" s="248"/>
+      <c r="K28" s="243"/>
+      <c r="L28" s="244"/>
+      <c r="M28" s="244"/>
+      <c r="N28" s="244"/>
+      <c r="O28" s="244"/>
+      <c r="P28" s="245"/>
       <c r="Q28" s="133"/>
       <c r="R28" s="130"/>
       <c r="AL28" s="11"/>
       <c r="AM28" s="11"/>
     </row>
-    <row r="29" spans="3:39" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.35">
       <c r="C29" s="128"/>
       <c r="D29" s="140" t="s">
         <v>189</v>
@@ -13272,7 +13446,7 @@
       <c r="Q29" s="129"/>
       <c r="R29" s="130"/>
     </row>
-    <row r="30" spans="3:39" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.35">
       <c r="C30" s="128"/>
       <c r="D30" s="129"/>
       <c r="E30" s="129"/>
@@ -13290,7 +13464,7 @@
       <c r="Q30" s="129"/>
       <c r="R30" s="130"/>
     </row>
-    <row r="31" spans="3:39" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.35">
       <c r="C31" s="142" t="s">
         <v>190</v>
       </c>
@@ -13312,7 +13486,7 @@
       <c r="AL31" s="10"/>
       <c r="AM31" s="10"/>
     </row>
-    <row r="32" spans="3:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C32" s="143"/>
       <c r="D32" s="144"/>
       <c r="E32" s="144"/>
@@ -13332,248 +13506,252 @@
     </row>
     <row r="33" spans="3:21" ht="58.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C33" s="146"/>
-      <c r="D33" s="263" t="s">
+      <c r="D33" s="236" t="s">
         <v>296</v>
       </c>
-      <c r="E33" s="264"/>
-      <c r="F33" s="264"/>
-      <c r="G33" s="264"/>
-      <c r="H33" s="264"/>
-      <c r="I33" s="264"/>
-      <c r="J33" s="264"/>
-      <c r="K33" s="264"/>
-      <c r="L33" s="264"/>
-      <c r="M33" s="264"/>
-      <c r="N33" s="264"/>
-      <c r="O33" s="264"/>
-      <c r="P33" s="264"/>
-      <c r="Q33" s="264"/>
-      <c r="R33" s="265"/>
+      <c r="E33" s="237"/>
+      <c r="F33" s="237"/>
+      <c r="G33" s="237"/>
+      <c r="H33" s="237"/>
+      <c r="I33" s="237"/>
+      <c r="J33" s="237"/>
+      <c r="K33" s="237"/>
+      <c r="L33" s="237"/>
+      <c r="M33" s="237"/>
+      <c r="N33" s="237"/>
+      <c r="O33" s="237"/>
+      <c r="P33" s="237"/>
+      <c r="Q33" s="237"/>
+      <c r="R33" s="238"/>
       <c r="T33" s="43"/>
       <c r="U33" s="43"/>
     </row>
     <row r="34" spans="3:21" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C34" s="147"/>
-      <c r="D34" s="192" t="s">
+      <c r="D34" s="191" t="s">
         <v>264</v>
       </c>
-      <c r="E34" s="193"/>
-      <c r="F34" s="193"/>
-      <c r="G34" s="193"/>
-      <c r="H34" s="194"/>
-      <c r="I34" s="195"/>
-      <c r="J34" s="192" t="s">
+      <c r="E34" s="192"/>
+      <c r="F34" s="192"/>
+      <c r="G34" s="192"/>
+      <c r="H34" s="193"/>
+      <c r="I34" s="194"/>
+      <c r="J34" s="191" t="s">
         <v>265</v>
       </c>
-      <c r="K34" s="193"/>
-      <c r="L34" s="193"/>
-      <c r="M34" s="193"/>
-      <c r="N34" s="196"/>
-      <c r="O34" s="193"/>
-      <c r="P34" s="194"/>
-      <c r="Q34" s="195"/>
-      <c r="R34" s="197"/>
+      <c r="K34" s="192"/>
+      <c r="L34" s="192"/>
+      <c r="M34" s="192"/>
+      <c r="N34" s="195"/>
+      <c r="O34" s="192"/>
+      <c r="P34" s="193"/>
+      <c r="Q34" s="194"/>
+      <c r="R34" s="196"/>
       <c r="T34" s="123"/>
       <c r="U34" s="43"/>
     </row>
     <row r="35" spans="3:21" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C35" s="147"/>
-      <c r="D35" s="198"/>
-      <c r="E35" s="199"/>
-      <c r="F35" s="199"/>
-      <c r="G35" s="199"/>
-      <c r="H35" s="200"/>
-      <c r="I35" s="195"/>
-      <c r="J35" s="198">
+      <c r="D35" s="197" t="s">
+        <v>305</v>
+      </c>
+      <c r="E35" s="198"/>
+      <c r="F35" s="198"/>
+      <c r="G35" s="198"/>
+      <c r="H35" s="199">
+        <v>100000</v>
+      </c>
+      <c r="I35" s="194"/>
+      <c r="J35" s="197">
         <v>1470</v>
       </c>
-      <c r="K35" s="199" t="s">
+      <c r="K35" s="198" t="s">
         <v>262</v>
       </c>
-      <c r="L35" s="199"/>
-      <c r="M35" s="199"/>
-      <c r="N35" s="201">
+      <c r="L35" s="198"/>
+      <c r="M35" s="198"/>
+      <c r="N35" s="200">
         <v>3450</v>
       </c>
-      <c r="O35" s="195"/>
-      <c r="P35" s="202">
+      <c r="O35" s="194"/>
+      <c r="P35" s="201">
         <v>30000</v>
       </c>
-      <c r="Q35" s="195"/>
-      <c r="R35" s="197"/>
+      <c r="Q35" s="194"/>
+      <c r="R35" s="196"/>
       <c r="T35" s="123"/>
       <c r="U35" s="43"/>
     </row>
     <row r="36" spans="3:21" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C36" s="147"/>
-      <c r="D36" s="203"/>
-      <c r="E36" s="199"/>
-      <c r="F36" s="199"/>
-      <c r="G36" s="199"/>
-      <c r="H36" s="200"/>
-      <c r="I36" s="195"/>
-      <c r="J36" s="198">
+      <c r="D36" s="202"/>
+      <c r="E36" s="198"/>
+      <c r="F36" s="198"/>
+      <c r="G36" s="198"/>
+      <c r="H36" s="199"/>
+      <c r="I36" s="194"/>
+      <c r="J36" s="197">
         <v>3000</v>
       </c>
-      <c r="K36" s="199" t="s">
+      <c r="K36" s="198" t="s">
         <v>263</v>
       </c>
-      <c r="L36" s="199"/>
-      <c r="M36" s="199"/>
-      <c r="N36" s="201">
+      <c r="L36" s="198"/>
+      <c r="M36" s="198"/>
+      <c r="N36" s="200">
         <v>6200</v>
       </c>
-      <c r="O36" s="195"/>
-      <c r="P36" s="202">
+      <c r="O36" s="194"/>
+      <c r="P36" s="201">
         <v>35000</v>
       </c>
-      <c r="Q36" s="195"/>
-      <c r="R36" s="197"/>
+      <c r="Q36" s="194"/>
+      <c r="R36" s="196"/>
       <c r="T36" s="43"/>
       <c r="U36" s="43"/>
     </row>
     <row r="37" spans="3:21" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C37" s="147"/>
-      <c r="D37" s="203"/>
-      <c r="E37" s="199"/>
-      <c r="F37" s="199"/>
-      <c r="G37" s="199"/>
-      <c r="H37" s="200"/>
-      <c r="I37" s="195"/>
-      <c r="J37" s="203"/>
-      <c r="K37" s="199"/>
-      <c r="L37" s="199"/>
-      <c r="M37" s="199"/>
-      <c r="N37" s="201"/>
-      <c r="O37" s="195"/>
-      <c r="P37" s="202"/>
-      <c r="Q37" s="195"/>
-      <c r="R37" s="197"/>
+      <c r="D37" s="202"/>
+      <c r="E37" s="198"/>
+      <c r="F37" s="198"/>
+      <c r="G37" s="198"/>
+      <c r="H37" s="199"/>
+      <c r="I37" s="194"/>
+      <c r="J37" s="202"/>
+      <c r="K37" s="198"/>
+      <c r="L37" s="198"/>
+      <c r="M37" s="198"/>
+      <c r="N37" s="200"/>
+      <c r="O37" s="194"/>
+      <c r="P37" s="201"/>
+      <c r="Q37" s="194"/>
+      <c r="R37" s="196"/>
       <c r="T37" s="43"/>
       <c r="U37" s="43"/>
     </row>
     <row r="38" spans="3:21" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C38" s="147"/>
-      <c r="D38" s="203"/>
-      <c r="E38" s="199"/>
-      <c r="F38" s="199"/>
-      <c r="G38" s="199"/>
-      <c r="H38" s="200"/>
-      <c r="I38" s="195"/>
-      <c r="J38" s="203"/>
-      <c r="K38" s="199"/>
-      <c r="L38" s="199"/>
-      <c r="M38" s="199"/>
-      <c r="N38" s="201"/>
-      <c r="O38" s="195"/>
-      <c r="P38" s="202"/>
-      <c r="Q38" s="195"/>
-      <c r="R38" s="197"/>
+      <c r="D38" s="202"/>
+      <c r="E38" s="198"/>
+      <c r="F38" s="198"/>
+      <c r="G38" s="198"/>
+      <c r="H38" s="199"/>
+      <c r="I38" s="194"/>
+      <c r="J38" s="202"/>
+      <c r="K38" s="198"/>
+      <c r="L38" s="198"/>
+      <c r="M38" s="198"/>
+      <c r="N38" s="200"/>
+      <c r="O38" s="194"/>
+      <c r="P38" s="201"/>
+      <c r="Q38" s="194"/>
+      <c r="R38" s="196"/>
     </row>
     <row r="39" spans="3:21" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C39" s="147"/>
-      <c r="D39" s="203"/>
-      <c r="E39" s="199"/>
-      <c r="F39" s="199"/>
-      <c r="G39" s="199"/>
-      <c r="H39" s="200"/>
-      <c r="I39" s="195"/>
-      <c r="J39" s="203"/>
-      <c r="K39" s="199"/>
-      <c r="L39" s="199"/>
-      <c r="M39" s="199"/>
-      <c r="N39" s="201"/>
-      <c r="O39" s="195"/>
-      <c r="P39" s="202"/>
-      <c r="Q39" s="195"/>
-      <c r="R39" s="197"/>
+      <c r="D39" s="202"/>
+      <c r="E39" s="198"/>
+      <c r="F39" s="198"/>
+      <c r="G39" s="198"/>
+      <c r="H39" s="199"/>
+      <c r="I39" s="194"/>
+      <c r="J39" s="202"/>
+      <c r="K39" s="198"/>
+      <c r="L39" s="198"/>
+      <c r="M39" s="198"/>
+      <c r="N39" s="200"/>
+      <c r="O39" s="194"/>
+      <c r="P39" s="201"/>
+      <c r="Q39" s="194"/>
+      <c r="R39" s="196"/>
     </row>
     <row r="40" spans="3:21" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C40" s="147"/>
-      <c r="D40" s="204"/>
-      <c r="E40" s="205"/>
-      <c r="F40" s="206" t="s">
+      <c r="D40" s="203"/>
+      <c r="E40" s="204"/>
+      <c r="F40" s="205" t="s">
         <v>266</v>
       </c>
-      <c r="G40" s="206"/>
-      <c r="H40" s="207">
+      <c r="G40" s="205"/>
+      <c r="H40" s="206">
         <f>SUM(H34:H39)</f>
-        <v>0</v>
-      </c>
-      <c r="I40" s="208"/>
-      <c r="J40" s="204"/>
-      <c r="K40" s="205"/>
-      <c r="L40" s="206" t="s">
+        <v>100000</v>
+      </c>
+      <c r="I40" s="207"/>
+      <c r="J40" s="203"/>
+      <c r="K40" s="204"/>
+      <c r="L40" s="205" t="s">
         <v>266</v>
       </c>
-      <c r="M40" s="206"/>
-      <c r="N40" s="209">
+      <c r="M40" s="205"/>
+      <c r="N40" s="208">
         <f>SUM(N35:N39)</f>
         <v>9650</v>
       </c>
-      <c r="O40" s="206"/>
-      <c r="P40" s="210">
+      <c r="O40" s="205"/>
+      <c r="P40" s="209">
         <f>SUM(P35:P39)</f>
         <v>65000</v>
       </c>
-      <c r="Q40" s="195"/>
-      <c r="R40" s="197"/>
+      <c r="Q40" s="194"/>
+      <c r="R40" s="196"/>
     </row>
     <row r="41" spans="3:21" s="43" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C41" s="147"/>
-      <c r="D41" s="195"/>
-      <c r="E41" s="195"/>
-      <c r="F41" s="208"/>
-      <c r="G41" s="208"/>
-      <c r="H41" s="211"/>
-      <c r="I41" s="208"/>
-      <c r="J41" s="195"/>
-      <c r="K41" s="195"/>
-      <c r="L41" s="208"/>
-      <c r="M41" s="208"/>
-      <c r="N41" s="208"/>
-      <c r="O41" s="208"/>
-      <c r="P41" s="211"/>
-      <c r="Q41" s="195"/>
-      <c r="R41" s="197"/>
+      <c r="D41" s="194"/>
+      <c r="E41" s="194"/>
+      <c r="F41" s="207"/>
+      <c r="G41" s="207"/>
+      <c r="H41" s="210"/>
+      <c r="I41" s="207"/>
+      <c r="J41" s="194"/>
+      <c r="K41" s="194"/>
+      <c r="L41" s="207"/>
+      <c r="M41" s="207"/>
+      <c r="N41" s="207"/>
+      <c r="O41" s="207"/>
+      <c r="P41" s="210"/>
+      <c r="Q41" s="194"/>
+      <c r="R41" s="196"/>
     </row>
     <row r="42" spans="3:21" ht="15" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C42" s="148"/>
-      <c r="D42" s="212"/>
-      <c r="E42" s="212"/>
-      <c r="F42" s="212"/>
-      <c r="G42" s="212"/>
-      <c r="H42" s="212"/>
-      <c r="I42" s="212"/>
-      <c r="J42" s="212"/>
-      <c r="K42" s="212"/>
-      <c r="L42" s="212"/>
-      <c r="M42" s="212"/>
-      <c r="N42" s="212"/>
-      <c r="O42" s="212"/>
-      <c r="P42" s="212"/>
-      <c r="Q42" s="212"/>
-      <c r="R42" s="213"/>
+      <c r="D42" s="211"/>
+      <c r="E42" s="211"/>
+      <c r="F42" s="211"/>
+      <c r="G42" s="211"/>
+      <c r="H42" s="211"/>
+      <c r="I42" s="211"/>
+      <c r="J42" s="211"/>
+      <c r="K42" s="211"/>
+      <c r="L42" s="211"/>
+      <c r="M42" s="211"/>
+      <c r="N42" s="211"/>
+      <c r="O42" s="211"/>
+      <c r="P42" s="211"/>
+      <c r="Q42" s="211"/>
+      <c r="R42" s="212"/>
     </row>
     <row r="43" spans="3:21" ht="36.65" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
       <c r="C43" s="149"/>
-      <c r="D43" s="254" t="s">
+      <c r="D43" s="248" t="s">
         <v>289</v>
       </c>
-      <c r="E43" s="254"/>
-      <c r="F43" s="254"/>
-      <c r="G43" s="254"/>
-      <c r="H43" s="254"/>
-      <c r="I43" s="254"/>
-      <c r="J43" s="254"/>
-      <c r="K43" s="254"/>
-      <c r="L43" s="254"/>
-      <c r="M43" s="254"/>
-      <c r="N43" s="254"/>
-      <c r="O43" s="254"/>
-      <c r="P43" s="254"/>
-      <c r="Q43" s="254"/>
-      <c r="R43" s="255"/>
+      <c r="E43" s="248"/>
+      <c r="F43" s="248"/>
+      <c r="G43" s="248"/>
+      <c r="H43" s="248"/>
+      <c r="I43" s="248"/>
+      <c r="J43" s="248"/>
+      <c r="K43" s="248"/>
+      <c r="L43" s="248"/>
+      <c r="M43" s="248"/>
+      <c r="N43" s="248"/>
+      <c r="O43" s="248"/>
+      <c r="P43" s="248"/>
+      <c r="Q43" s="248"/>
+      <c r="R43" s="249"/>
     </row>
     <row r="44" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C44" s="150"/>
@@ -13625,12 +13803,12 @@
       <c r="I46" s="158"/>
       <c r="J46" s="157"/>
       <c r="K46" s="158"/>
-      <c r="L46" s="259" t="s">
+      <c r="L46" s="253" t="s">
         <v>228</v>
       </c>
-      <c r="M46" s="259"/>
+      <c r="M46" s="253"/>
       <c r="N46" s="159"/>
-      <c r="O46" s="256"/>
+      <c r="O46" s="250"/>
       <c r="P46" s="159"/>
       <c r="Q46" s="160"/>
       <c r="R46" s="161"/>
@@ -13638,9 +13816,9 @@
     <row r="47" spans="3:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C47" s="150"/>
       <c r="D47" s="177"/>
-      <c r="E47" s="214">
+      <c r="E47" s="213">
         <f>IFERROR(VLOOKUP(D11,AB2:AC9,2,FALSE),"-")</f>
-        <v>150000</v>
+        <v>40000</v>
       </c>
       <c r="F47" s="178"/>
       <c r="G47" s="178"/>
@@ -13651,13 +13829,13 @@
       <c r="I47" s="158"/>
       <c r="J47" s="178"/>
       <c r="K47" s="158"/>
-      <c r="L47" s="257">
+      <c r="L47" s="251">
         <f>IFERROR(E47*H47,"-")</f>
-        <v>52500</v>
-      </c>
-      <c r="M47" s="258"/>
+        <v>14000</v>
+      </c>
+      <c r="M47" s="252"/>
       <c r="N47" s="180"/>
-      <c r="O47" s="256"/>
+      <c r="O47" s="250"/>
       <c r="P47" s="181"/>
       <c r="Q47" s="163"/>
       <c r="R47" s="152"/>
@@ -13683,24 +13861,24 @@
     <row r="49" spans="3:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C49" s="150"/>
       <c r="D49" s="177"/>
-      <c r="E49" s="214" t="str">
+      <c r="E49" s="213">
         <f>IFERROR(VLOOKUP(D13,AB2:AC8,2,FALSE),"-")</f>
-        <v>-</v>
+        <v>40000</v>
       </c>
       <c r="F49" s="178"/>
       <c r="G49" s="178"/>
       <c r="H49" s="179">
         <f>H13</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I49" s="158"/>
       <c r="J49" s="178"/>
       <c r="K49" s="158"/>
-      <c r="L49" s="257" t="str">
+      <c r="L49" s="251">
         <f>IFERROR(E49*H49,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="M49" s="258"/>
+        <v>2000</v>
+      </c>
+      <c r="M49" s="252"/>
       <c r="N49" s="180"/>
       <c r="O49" s="158"/>
       <c r="P49" s="181"/>
@@ -13733,15 +13911,15 @@
       <c r="G51" s="178"/>
       <c r="H51" s="157"/>
       <c r="I51" s="158"/>
-      <c r="J51" s="260" t="s">
+      <c r="J51" s="239" t="s">
         <v>297</v>
       </c>
-      <c r="K51" s="261"/>
-      <c r="L51" s="260">
+      <c r="K51" s="240"/>
+      <c r="L51" s="239">
         <f>SUM(L47:L49)</f>
-        <v>52500</v>
-      </c>
-      <c r="M51" s="261"/>
+        <v>16000</v>
+      </c>
+      <c r="M51" s="240"/>
       <c r="N51" s="180"/>
       <c r="O51" s="158"/>
       <c r="P51" s="181"/>
@@ -13762,10 +13940,10 @@
       <c r="I52" s="158"/>
       <c r="J52" s="157"/>
       <c r="K52" s="158"/>
-      <c r="L52" s="259" t="s">
+      <c r="L52" s="253" t="s">
         <v>228</v>
       </c>
-      <c r="M52" s="259"/>
+      <c r="M52" s="253"/>
       <c r="N52" s="166"/>
       <c r="O52" s="158"/>
       <c r="P52" s="167"/>
@@ -13775,24 +13953,24 @@
     <row r="53" spans="3:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C53" s="150"/>
       <c r="D53" s="177"/>
-      <c r="E53" s="214" t="str">
+      <c r="E53" s="213">
         <f>IFERROR(VLOOKUP(K11,AB2:AC8,2,FALSE),"-")</f>
-        <v>-</v>
+        <v>87987</v>
       </c>
       <c r="F53" s="178"/>
       <c r="G53" s="178"/>
       <c r="H53" s="179">
         <f>N11</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I53" s="158"/>
       <c r="J53" s="178"/>
       <c r="K53" s="158"/>
-      <c r="L53" s="260" t="str">
+      <c r="L53" s="292">
         <f>IFERROR(E53*H53,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="M53" s="261"/>
+        <v>17597.400000000001</v>
+      </c>
+      <c r="M53" s="293"/>
       <c r="N53" s="180"/>
       <c r="O53" s="158"/>
       <c r="P53" s="181"/>
@@ -13817,145 +13995,153 @@
       <c r="Q54" s="163"/>
       <c r="R54" s="152"/>
     </row>
-    <row r="55" spans="3:18" s="127" customFormat="1" ht="40.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C55" s="164"/>
-      <c r="D55" s="165"/>
-      <c r="E55" s="156" t="s">
-        <v>292</v>
-      </c>
-      <c r="F55" s="157"/>
-      <c r="G55" s="157"/>
-      <c r="H55" s="156" t="s">
-        <v>35</v>
-      </c>
-      <c r="I55" s="158"/>
-      <c r="J55" s="157"/>
-      <c r="K55" s="158"/>
-      <c r="L55" s="259" t="s">
-        <v>228</v>
-      </c>
-      <c r="M55" s="259"/>
-      <c r="N55" s="166"/>
+    <row r="55" spans="3:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C55" s="150"/>
+      <c r="D55" s="177"/>
+      <c r="E55" s="180"/>
+      <c r="F55" s="180"/>
+      <c r="G55" s="180"/>
+      <c r="H55" s="180"/>
+      <c r="I55" s="180"/>
+      <c r="J55" s="288" t="s">
+        <v>304</v>
+      </c>
+      <c r="K55" s="289" t="str">
+        <f>IF(N16=AC16,IF(E19&lt;2*H19,"10%","20%"),"%")</f>
+        <v>10%</v>
+      </c>
+      <c r="L55" s="290">
+        <f>IF(N16=AC16,IF(E19&lt;2*H19,10%*E19,20%*E19),"-")</f>
+        <v>4000</v>
+      </c>
+      <c r="M55" s="291"/>
+      <c r="N55" s="180"/>
       <c r="O55" s="158"/>
-      <c r="P55" s="167"/>
-      <c r="Q55" s="168"/>
-      <c r="R55" s="169"/>
+      <c r="P55" s="181"/>
+      <c r="Q55" s="163"/>
+      <c r="R55" s="152"/>
     </row>
     <row r="56" spans="3:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C56" s="150"/>
       <c r="D56" s="177"/>
-      <c r="E56" s="214" t="str">
-        <f>IFERROR(VLOOKUP(K14,AB2:AC9,2,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F56" s="178"/>
-      <c r="G56" s="178"/>
-      <c r="H56" s="179">
-        <f>N14</f>
-        <v>0.05</v>
-      </c>
-      <c r="I56" s="158"/>
-      <c r="J56" s="178"/>
-      <c r="K56" s="158"/>
-      <c r="L56" s="260" t="str">
-        <f>IFERROR(E56*H56,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="M56" s="261"/>
+      <c r="E56" s="180"/>
+      <c r="F56" s="180"/>
+      <c r="G56" s="180"/>
+      <c r="H56" s="180"/>
+      <c r="I56" s="180"/>
+      <c r="J56" s="180"/>
+      <c r="K56" s="180"/>
+      <c r="L56" s="180"/>
+      <c r="M56" s="180"/>
       <c r="N56" s="180"/>
       <c r="O56" s="158"/>
       <c r="P56" s="181"/>
       <c r="Q56" s="163"/>
       <c r="R56" s="152"/>
     </row>
-    <row r="57" spans="3:18" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="3:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C57" s="150"/>
       <c r="D57" s="177"/>
-      <c r="E57" s="178"/>
-      <c r="F57" s="178"/>
-      <c r="G57" s="178"/>
-      <c r="H57" s="157"/>
-      <c r="I57" s="157"/>
-      <c r="J57" s="157"/>
-      <c r="K57" s="157"/>
-      <c r="L57" s="157"/>
-      <c r="M57" s="178"/>
-      <c r="N57" s="178"/>
-      <c r="O57" s="178"/>
-      <c r="P57" s="178"/>
-      <c r="Q57" s="170"/>
+      <c r="E57" s="180"/>
+      <c r="F57" s="180"/>
+      <c r="G57" s="180"/>
+      <c r="H57" s="180"/>
+      <c r="I57" s="180"/>
+      <c r="J57" s="239" t="s">
+        <v>297</v>
+      </c>
+      <c r="K57" s="240"/>
+      <c r="L57" s="239">
+        <f>SUM(L53:M55)</f>
+        <v>21597.4</v>
+      </c>
+      <c r="M57" s="240"/>
+      <c r="N57" s="180"/>
+      <c r="O57" s="158"/>
+      <c r="P57" s="181"/>
+      <c r="Q57" s="163"/>
       <c r="R57" s="152"/>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.35">
-      <c r="C58" s="150"/>
-      <c r="D58" s="177"/>
-      <c r="E58" s="178"/>
-      <c r="F58" s="178"/>
-      <c r="G58" s="178"/>
-      <c r="H58" s="178"/>
-      <c r="I58" s="178"/>
-      <c r="J58" s="178"/>
-      <c r="K58" s="178"/>
-      <c r="L58" s="178"/>
-      <c r="M58" s="178"/>
-      <c r="N58" s="178"/>
-      <c r="O58" s="178"/>
-      <c r="P58" s="178"/>
-      <c r="Q58" s="170"/>
-      <c r="R58" s="152"/>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.35">
+    <row r="58" spans="3:18" s="127" customFormat="1" ht="40.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="164"/>
+      <c r="D58" s="165"/>
+      <c r="E58" s="156" t="s">
+        <v>292</v>
+      </c>
+      <c r="F58" s="157"/>
+      <c r="G58" s="157"/>
+      <c r="H58" s="156" t="s">
+        <v>35</v>
+      </c>
+      <c r="I58" s="158"/>
+      <c r="J58" s="157"/>
+      <c r="K58" s="158"/>
+      <c r="L58" s="253" t="s">
+        <v>228</v>
+      </c>
+      <c r="M58" s="253"/>
+      <c r="N58" s="166"/>
+      <c r="O58" s="158"/>
+      <c r="P58" s="167"/>
+      <c r="Q58" s="168"/>
+      <c r="R58" s="169"/>
+    </row>
+    <row r="59" spans="3:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C59" s="150"/>
       <c r="D59" s="177"/>
-      <c r="E59" s="178"/>
+      <c r="E59" s="213">
+        <f>IFERROR(VLOOKUP(K14,AB2:AC9,2,FALSE),"-")</f>
+        <v>87987</v>
+      </c>
       <c r="F59" s="178"/>
       <c r="G59" s="178"/>
-      <c r="H59" s="178"/>
-      <c r="I59" s="178"/>
+      <c r="H59" s="179">
+        <f>N14</f>
+        <v>0.1</v>
+      </c>
+      <c r="I59" s="158"/>
       <c r="J59" s="178"/>
-      <c r="K59" s="178"/>
-      <c r="L59" s="178"/>
-      <c r="M59" s="178"/>
-      <c r="N59" s="178"/>
-      <c r="O59" s="178"/>
-      <c r="P59" s="178"/>
-      <c r="Q59" s="170"/>
+      <c r="K59" s="158"/>
+      <c r="L59" s="239">
+        <f>IFERROR(E59*H59,"-")</f>
+        <v>8798.7000000000007</v>
+      </c>
+      <c r="M59" s="240"/>
+      <c r="N59" s="180"/>
+      <c r="O59" s="158"/>
+      <c r="P59" s="181"/>
+      <c r="Q59" s="163"/>
       <c r="R59" s="152"/>
     </row>
-    <row r="60" spans="3:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="3:18" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C60" s="150"/>
       <c r="D60" s="177"/>
       <c r="E60" s="178"/>
       <c r="F60" s="178"/>
       <c r="G60" s="178"/>
-      <c r="H60" s="183" t="s">
-        <v>291</v>
-      </c>
-      <c r="I60" s="184"/>
-      <c r="J60" s="185"/>
-      <c r="K60" s="266">
-        <f>IF(L56&gt;L53,"Piso mayor que tope",IF(AND(L53="-",L56="-"),L51,IF(L51&gt;L53,L53,IF(L51&lt;L56,L56,L51))))</f>
-        <v>52500</v>
-      </c>
-      <c r="L60" s="266"/>
-      <c r="M60" s="186"/>
-      <c r="N60" s="186"/>
-      <c r="O60" s="187"/>
+      <c r="H60" s="157"/>
+      <c r="I60" s="157"/>
+      <c r="J60" s="157"/>
+      <c r="K60" s="157"/>
+      <c r="L60" s="157"/>
+      <c r="M60" s="178"/>
+      <c r="N60" s="178"/>
+      <c r="O60" s="178"/>
       <c r="P60" s="178"/>
       <c r="Q60" s="170"/>
       <c r="R60" s="152"/>
     </row>
-    <row r="61" spans="3:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C61" s="150"/>
       <c r="D61" s="177"/>
       <c r="E61" s="178"/>
       <c r="F61" s="178"/>
       <c r="G61" s="178"/>
-      <c r="H61" s="180"/>
-      <c r="I61" s="158"/>
-      <c r="J61" s="180"/>
-      <c r="K61" s="267"/>
-      <c r="L61" s="267"/>
+      <c r="H61" s="178"/>
+      <c r="I61" s="178"/>
+      <c r="J61" s="178"/>
+      <c r="K61" s="178"/>
+      <c r="L61" s="178"/>
       <c r="M61" s="178"/>
       <c r="N61" s="178"/>
       <c r="O61" s="178"/>
@@ -13963,95 +14149,94 @@
       <c r="Q61" s="170"/>
       <c r="R61" s="152"/>
     </row>
-    <row r="62" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C62" s="150"/>
-      <c r="D62" s="188"/>
-      <c r="E62" s="189"/>
-      <c r="F62" s="189"/>
-      <c r="G62" s="189"/>
-      <c r="H62" s="189"/>
-      <c r="I62" s="189"/>
-      <c r="J62" s="189"/>
-      <c r="K62" s="262"/>
-      <c r="L62" s="262"/>
-      <c r="M62" s="189"/>
-      <c r="N62" s="189"/>
-      <c r="O62" s="189"/>
-      <c r="P62" s="189"/>
-      <c r="Q62" s="171"/>
+      <c r="D62" s="177"/>
+      <c r="E62" s="178"/>
+      <c r="F62" s="178"/>
+      <c r="G62" s="178"/>
+      <c r="H62" s="178"/>
+      <c r="I62" s="178"/>
+      <c r="J62" s="178"/>
+      <c r="K62" s="178"/>
+      <c r="L62" s="178"/>
+      <c r="M62" s="178"/>
+      <c r="N62" s="178"/>
+      <c r="O62" s="178"/>
+      <c r="P62" s="178"/>
+      <c r="Q62" s="170"/>
       <c r="R62" s="152"/>
     </row>
-    <row r="63" spans="3:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="3:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C63" s="150"/>
-      <c r="D63" s="178"/>
+      <c r="D63" s="177"/>
       <c r="E63" s="178"/>
       <c r="F63" s="178"/>
       <c r="G63" s="178"/>
-      <c r="H63" s="178"/>
-      <c r="I63" s="178"/>
-      <c r="J63" s="178"/>
-      <c r="K63" s="178"/>
-      <c r="L63" s="178"/>
-      <c r="M63" s="178"/>
-      <c r="N63" s="178"/>
-      <c r="O63" s="178"/>
+      <c r="H63" s="183" t="s">
+        <v>291</v>
+      </c>
+      <c r="I63" s="184"/>
+      <c r="J63" s="185"/>
+      <c r="K63" s="241">
+        <f>IF(L59&gt;L57,"Piso mayor Tope",IF(AND(L57=0,L59="-"),L51,IF(L51&gt;L57,L57,IF(L51&lt;L59,L59,L51))))</f>
+        <v>16000</v>
+      </c>
+      <c r="L63" s="241"/>
+      <c r="M63" s="186"/>
+      <c r="N63" s="186"/>
+      <c r="O63" s="187"/>
       <c r="P63" s="178"/>
-      <c r="Q63" s="151"/>
+      <c r="Q63" s="170"/>
       <c r="R63" s="152"/>
     </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.35">
+    <row r="64" spans="3:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C64" s="150"/>
-      <c r="D64" s="178"/>
+      <c r="D64" s="177"/>
       <c r="E64" s="178"/>
       <c r="F64" s="178"/>
       <c r="G64" s="178"/>
-      <c r="H64" s="178"/>
-      <c r="I64" s="178"/>
-      <c r="J64" s="178"/>
-      <c r="K64" s="178"/>
-      <c r="L64" s="178"/>
+      <c r="H64" s="180"/>
+      <c r="I64" s="158"/>
+      <c r="J64" s="180"/>
+      <c r="K64" s="242"/>
+      <c r="L64" s="242"/>
       <c r="M64" s="178"/>
       <c r="N64" s="178"/>
       <c r="O64" s="178"/>
       <c r="P64" s="178"/>
-      <c r="Q64" s="151"/>
+      <c r="Q64" s="170"/>
       <c r="R64" s="152"/>
     </row>
-    <row r="65" spans="3:18" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C65" s="150"/>
-      <c r="D65" s="180"/>
-      <c r="E65" s="180"/>
-      <c r="F65" s="178"/>
-      <c r="G65" s="178"/>
-      <c r="H65" s="252" t="s">
-        <v>299</v>
-      </c>
-      <c r="I65" s="252"/>
-      <c r="J65" s="252"/>
-      <c r="K65" s="252"/>
-      <c r="L65" s="252"/>
-      <c r="M65" s="178"/>
-      <c r="N65" s="178"/>
-      <c r="O65" s="178"/>
-      <c r="P65" s="178"/>
-      <c r="Q65" s="151"/>
+      <c r="D65" s="188"/>
+      <c r="E65" s="189"/>
+      <c r="F65" s="189"/>
+      <c r="G65" s="189"/>
+      <c r="H65" s="189"/>
+      <c r="I65" s="189"/>
+      <c r="J65" s="189"/>
+      <c r="K65" s="254"/>
+      <c r="L65" s="254"/>
+      <c r="M65" s="189"/>
+      <c r="N65" s="189"/>
+      <c r="O65" s="189"/>
+      <c r="P65" s="189"/>
+      <c r="Q65" s="171"/>
       <c r="R65" s="152"/>
     </row>
-    <row r="66" spans="3:18" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C66" s="150"/>
-      <c r="D66" s="180"/>
+      <c r="D66" s="178"/>
       <c r="E66" s="178"/>
       <c r="F66" s="178"/>
       <c r="G66" s="178"/>
-      <c r="H66" s="190" t="s">
-        <v>200</v>
-      </c>
-      <c r="I66" s="191" t="s">
-        <v>201</v>
-      </c>
-      <c r="J66" s="191"/>
-      <c r="K66" s="191"/>
-      <c r="L66" s="191"/>
+      <c r="H66" s="178"/>
+      <c r="I66" s="178"/>
+      <c r="J66" s="178"/>
+      <c r="K66" s="178"/>
+      <c r="L66" s="178"/>
       <c r="M66" s="178"/>
       <c r="N66" s="178"/>
       <c r="O66" s="178"/>
@@ -14065,16 +14250,11 @@
       <c r="E67" s="178"/>
       <c r="F67" s="178"/>
       <c r="G67" s="178"/>
-      <c r="H67" s="190">
-        <v>1094</v>
-      </c>
-      <c r="I67" s="253">
-        <f>K60</f>
-        <v>52500</v>
-      </c>
-      <c r="J67" s="253"/>
-      <c r="K67" s="253"/>
-      <c r="L67" s="253"/>
+      <c r="H67" s="178"/>
+      <c r="I67" s="178"/>
+      <c r="J67" s="178"/>
+      <c r="K67" s="178"/>
+      <c r="L67" s="178"/>
       <c r="M67" s="178"/>
       <c r="N67" s="178"/>
       <c r="O67" s="178"/>
@@ -14084,15 +14264,17 @@
     </row>
     <row r="68" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C68" s="150"/>
-      <c r="D68" s="178"/>
-      <c r="E68" s="178"/>
+      <c r="D68" s="180"/>
+      <c r="E68" s="180"/>
       <c r="F68" s="178"/>
       <c r="G68" s="178"/>
-      <c r="H68" s="178"/>
-      <c r="I68" s="178"/>
-      <c r="J68" s="178"/>
-      <c r="K68" s="178"/>
-      <c r="L68" s="178"/>
+      <c r="H68" s="298" t="s">
+        <v>299</v>
+      </c>
+      <c r="I68" s="298"/>
+      <c r="J68" s="298"/>
+      <c r="K68" s="298"/>
+      <c r="L68" s="298"/>
       <c r="M68" s="178"/>
       <c r="N68" s="178"/>
       <c r="O68" s="178"/>
@@ -14102,15 +14284,19 @@
     </row>
     <row r="69" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C69" s="150"/>
-      <c r="D69" s="178"/>
+      <c r="D69" s="180"/>
       <c r="E69" s="178"/>
       <c r="F69" s="178"/>
       <c r="G69" s="178"/>
-      <c r="H69" s="178"/>
-      <c r="I69" s="178"/>
-      <c r="J69" s="178"/>
-      <c r="K69" s="178"/>
-      <c r="L69" s="178"/>
+      <c r="H69" s="190" t="s">
+        <v>200</v>
+      </c>
+      <c r="I69" s="295" t="s">
+        <v>201</v>
+      </c>
+      <c r="J69" s="296"/>
+      <c r="K69" s="296"/>
+      <c r="L69" s="297"/>
       <c r="M69" s="178"/>
       <c r="N69" s="178"/>
       <c r="O69" s="178"/>
@@ -14120,84 +14306,127 @@
     </row>
     <row r="70" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C70" s="150"/>
-      <c r="D70" s="151"/>
-      <c r="E70" s="151"/>
-      <c r="F70" s="151"/>
-      <c r="G70" s="151"/>
-      <c r="H70" s="151"/>
-      <c r="I70" s="151"/>
-      <c r="J70" s="151"/>
-      <c r="K70" s="151"/>
-      <c r="L70" s="151"/>
-      <c r="M70" s="151"/>
-      <c r="N70" s="151"/>
-      <c r="O70" s="151"/>
-      <c r="P70" s="151"/>
+      <c r="D70" s="178"/>
+      <c r="E70" s="178"/>
+      <c r="F70" s="178"/>
+      <c r="G70" s="178"/>
+      <c r="H70" s="190">
+        <v>1094</v>
+      </c>
+      <c r="I70" s="247">
+        <f>K63</f>
+        <v>16000</v>
+      </c>
+      <c r="J70" s="247"/>
+      <c r="K70" s="247"/>
+      <c r="L70" s="247"/>
+      <c r="M70" s="178"/>
+      <c r="N70" s="178"/>
+      <c r="O70" s="178"/>
+      <c r="P70" s="178"/>
       <c r="Q70" s="151"/>
       <c r="R70" s="152"/>
     </row>
     <row r="71" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C71" s="150"/>
-      <c r="D71" s="151"/>
-      <c r="E71" s="151"/>
-      <c r="F71" s="151"/>
-      <c r="G71" s="151"/>
-      <c r="H71" s="151"/>
-      <c r="I71" s="151"/>
-      <c r="J71" s="151"/>
-      <c r="K71" s="151"/>
-      <c r="L71" s="151"/>
-      <c r="M71" s="151"/>
-      <c r="N71" s="151"/>
-      <c r="O71" s="151"/>
-      <c r="P71" s="151"/>
+      <c r="D71" s="178"/>
+      <c r="E71" s="178"/>
+      <c r="F71" s="178"/>
+      <c r="G71" s="178"/>
+      <c r="H71" s="178"/>
+      <c r="I71" s="178"/>
+      <c r="J71" s="178"/>
+      <c r="K71" s="178"/>
+      <c r="L71" s="178"/>
+      <c r="M71" s="178"/>
+      <c r="N71" s="178"/>
+      <c r="O71" s="178"/>
+      <c r="P71" s="178"/>
       <c r="Q71" s="151"/>
       <c r="R71" s="152"/>
     </row>
-    <row r="72" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C72" s="172"/>
-      <c r="D72" s="173"/>
-      <c r="E72" s="173"/>
-      <c r="F72" s="173"/>
-      <c r="G72" s="173"/>
-      <c r="H72" s="173"/>
-      <c r="I72" s="173"/>
-      <c r="J72" s="173"/>
-      <c r="K72" s="173"/>
-      <c r="L72" s="173"/>
-      <c r="M72" s="173"/>
-      <c r="N72" s="173"/>
-      <c r="O72" s="173"/>
-      <c r="P72" s="173"/>
-      <c r="Q72" s="173"/>
-      <c r="R72" s="174"/>
-    </row>
-    <row r="73" spans="3:18" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="72" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C72" s="150"/>
+      <c r="D72" s="178"/>
+      <c r="E72" s="178"/>
+      <c r="F72" s="178"/>
+      <c r="G72" s="178"/>
+      <c r="H72" s="178"/>
+      <c r="I72" s="178"/>
+      <c r="J72" s="178"/>
+      <c r="K72" s="178"/>
+      <c r="L72" s="178"/>
+      <c r="M72" s="178"/>
+      <c r="N72" s="178"/>
+      <c r="O72" s="178"/>
+      <c r="P72" s="178"/>
+      <c r="Q72" s="151"/>
+      <c r="R72" s="152"/>
+    </row>
+    <row r="73" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C73" s="150"/>
+      <c r="D73" s="151"/>
+      <c r="E73" s="151"/>
+      <c r="F73" s="151"/>
+      <c r="G73" s="151"/>
+      <c r="H73" s="151"/>
+      <c r="I73" s="151"/>
+      <c r="J73" s="151"/>
+      <c r="K73" s="151"/>
+      <c r="L73" s="151"/>
+      <c r="M73" s="151"/>
+      <c r="N73" s="151"/>
+      <c r="O73" s="151"/>
+      <c r="P73" s="151"/>
+      <c r="Q73" s="151"/>
+      <c r="R73" s="152"/>
+    </row>
+    <row r="74" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C74" s="150"/>
+      <c r="D74" s="151"/>
+      <c r="E74" s="151"/>
+      <c r="F74" s="151"/>
+      <c r="G74" s="151"/>
+      <c r="H74" s="151"/>
+      <c r="I74" s="151"/>
+      <c r="J74" s="151"/>
+      <c r="K74" s="151"/>
+      <c r="L74" s="151"/>
+      <c r="M74" s="151"/>
+      <c r="N74" s="151"/>
+      <c r="O74" s="151"/>
+      <c r="P74" s="151"/>
+      <c r="Q74" s="151"/>
+      <c r="R74" s="152"/>
+    </row>
+    <row r="75" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C75" s="172"/>
+      <c r="D75" s="173"/>
+      <c r="E75" s="173"/>
+      <c r="F75" s="173"/>
+      <c r="G75" s="173"/>
+      <c r="H75" s="173"/>
+      <c r="I75" s="173"/>
+      <c r="J75" s="173"/>
+      <c r="K75" s="173"/>
+      <c r="L75" s="173"/>
+      <c r="M75" s="173"/>
+      <c r="N75" s="173"/>
+      <c r="O75" s="173"/>
+      <c r="P75" s="173"/>
+      <c r="Q75" s="173"/>
+      <c r="R75" s="174"/>
+    </row>
+    <row r="76" spans="3:18" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="D33:R33"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="K25:P25"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="K27:P27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="K28:P28"/>
-    <mergeCell ref="H65:L65"/>
-    <mergeCell ref="I67:L67"/>
-    <mergeCell ref="D43:R43"/>
-    <mergeCell ref="O46:O47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="K62:L62"/>
+  <mergeCells count="44">
+    <mergeCell ref="I69:L69"/>
+    <mergeCell ref="C6:R6"/>
+    <mergeCell ref="D7:R7"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="K21:P21"/>
+    <mergeCell ref="K16:L16"/>
     <mergeCell ref="D22:H22"/>
     <mergeCell ref="K22:P22"/>
     <mergeCell ref="D24:H24"/>
@@ -14209,11 +14438,32 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="K19:L19"/>
-    <mergeCell ref="C6:R6"/>
-    <mergeCell ref="D7:R7"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="K21:P21"/>
+    <mergeCell ref="H68:L68"/>
+    <mergeCell ref="I70:L70"/>
+    <mergeCell ref="D43:R43"/>
+    <mergeCell ref="O46:O47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="K25:P25"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="K27:P27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="K28:P28"/>
+    <mergeCell ref="D33:R33"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="L55:M55"/>
   </mergeCells>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11" xr:uid="{00000000-0002-0000-0200-000000000000}">
@@ -14374,22 +14624,22 @@
       </c>
     </row>
     <row r="6" spans="3:52" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="215" t="s">
+      <c r="C6" s="225" t="s">
         <v>261</v>
       </c>
-      <c r="D6" s="216"/>
-      <c r="E6" s="216"/>
-      <c r="F6" s="216"/>
-      <c r="G6" s="216"/>
-      <c r="H6" s="216"/>
-      <c r="I6" s="216"/>
-      <c r="J6" s="216"/>
-      <c r="K6" s="216"/>
-      <c r="L6" s="216"/>
-      <c r="M6" s="216"/>
-      <c r="N6" s="216"/>
-      <c r="O6" s="216"/>
-      <c r="P6" s="217"/>
+      <c r="D6" s="226"/>
+      <c r="E6" s="226"/>
+      <c r="F6" s="226"/>
+      <c r="G6" s="226"/>
+      <c r="H6" s="226"/>
+      <c r="I6" s="226"/>
+      <c r="J6" s="226"/>
+      <c r="K6" s="226"/>
+      <c r="L6" s="226"/>
+      <c r="M6" s="226"/>
+      <c r="N6" s="226"/>
+      <c r="O6" s="226"/>
+      <c r="P6" s="227"/>
       <c r="AC6" t="s">
         <v>145</v>
       </c>
@@ -14402,21 +14652,21 @@
     </row>
     <row r="7" spans="3:52" ht="28.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C7" s="35"/>
-      <c r="D7" s="218" t="s">
+      <c r="D7" s="228" t="s">
         <v>198</v>
       </c>
-      <c r="E7" s="218"/>
-      <c r="F7" s="218"/>
-      <c r="G7" s="218"/>
-      <c r="H7" s="218"/>
-      <c r="I7" s="218"/>
-      <c r="J7" s="218"/>
-      <c r="K7" s="218"/>
-      <c r="L7" s="218"/>
-      <c r="M7" s="218"/>
-      <c r="N7" s="218"/>
-      <c r="O7" s="218"/>
-      <c r="P7" s="219"/>
+      <c r="E7" s="228"/>
+      <c r="F7" s="228"/>
+      <c r="G7" s="228"/>
+      <c r="H7" s="228"/>
+      <c r="I7" s="228"/>
+      <c r="J7" s="228"/>
+      <c r="K7" s="228"/>
+      <c r="L7" s="228"/>
+      <c r="M7" s="228"/>
+      <c r="N7" s="228"/>
+      <c r="O7" s="228"/>
+      <c r="P7" s="229"/>
       <c r="AC7" t="s">
         <v>146</v>
       </c>
@@ -14455,20 +14705,20 @@
     </row>
     <row r="10" spans="3:52" x14ac:dyDescent="0.35">
       <c r="C10" s="35"/>
-      <c r="D10" s="220" t="s">
+      <c r="D10" s="224" t="s">
         <v>272</v>
       </c>
-      <c r="E10" s="220"/>
+      <c r="E10" s="224"/>
       <c r="F10" s="84"/>
       <c r="G10" s="84"/>
       <c r="H10" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="J10" s="221" t="s">
+      <c r="J10" s="230" t="s">
         <v>278</v>
       </c>
-      <c r="K10" s="221"/>
-      <c r="L10" s="221"/>
+      <c r="K10" s="230"/>
+      <c r="L10" s="230"/>
       <c r="M10" s="43"/>
       <c r="N10" s="16" t="s">
         <v>274</v>
@@ -14482,20 +14732,20 @@
     </row>
     <row r="11" spans="3:52" x14ac:dyDescent="0.35">
       <c r="C11" s="35"/>
-      <c r="D11" s="222" t="s">
+      <c r="D11" s="231" t="s">
         <v>277</v>
       </c>
-      <c r="E11" s="223"/>
+      <c r="E11" s="232"/>
       <c r="F11" s="47"/>
       <c r="G11" s="106"/>
       <c r="H11" s="115">
         <v>0.3</v>
       </c>
-      <c r="J11" s="268">
+      <c r="J11" s="266">
         <v>87000</v>
       </c>
-      <c r="K11" s="269"/>
-      <c r="L11" s="270"/>
+      <c r="K11" s="267"/>
+      <c r="L11" s="268"/>
       <c r="M11" s="83"/>
       <c r="N11" s="85">
         <v>600000</v>
@@ -14507,19 +14757,19 @@
     </row>
     <row r="12" spans="3:52" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C12" s="35"/>
-      <c r="D12" s="220" t="s">
+      <c r="D12" s="224" t="s">
         <v>227</v>
       </c>
-      <c r="E12" s="220"/>
-      <c r="F12" s="220"/>
-      <c r="G12" s="220"/>
-      <c r="H12" s="220"/>
-      <c r="K12" s="220" t="s">
+      <c r="E12" s="224"/>
+      <c r="F12" s="224"/>
+      <c r="G12" s="224"/>
+      <c r="H12" s="224"/>
+      <c r="K12" s="224" t="s">
         <v>222</v>
       </c>
-      <c r="L12" s="220"/>
-      <c r="M12" s="220"/>
-      <c r="N12" s="220"/>
+      <c r="L12" s="224"/>
+      <c r="M12" s="224"/>
+      <c r="N12" s="224"/>
       <c r="O12" s="16"/>
       <c r="P12" s="36"/>
       <c r="AC12" t="s">
@@ -14528,15 +14778,15 @@
     </row>
     <row r="13" spans="3:52" x14ac:dyDescent="0.35">
       <c r="C13" s="35"/>
-      <c r="D13" s="227"/>
-      <c r="E13" s="228"/>
-      <c r="F13" s="228"/>
-      <c r="G13" s="228"/>
-      <c r="H13" s="229"/>
-      <c r="K13" s="227"/>
-      <c r="L13" s="228"/>
-      <c r="M13" s="228"/>
-      <c r="N13" s="229"/>
+      <c r="D13" s="214"/>
+      <c r="E13" s="215"/>
+      <c r="F13" s="215"/>
+      <c r="G13" s="215"/>
+      <c r="H13" s="216"/>
+      <c r="K13" s="214"/>
+      <c r="L13" s="215"/>
+      <c r="M13" s="215"/>
+      <c r="N13" s="216"/>
       <c r="O13" s="16"/>
       <c r="P13" s="36"/>
       <c r="AC13" t="s">
@@ -14555,19 +14805,19 @@
     </row>
     <row r="15" spans="3:52" x14ac:dyDescent="0.35">
       <c r="C15" s="35"/>
-      <c r="D15" s="220" t="s">
+      <c r="D15" s="224" t="s">
         <v>223</v>
       </c>
-      <c r="E15" s="220"/>
-      <c r="F15" s="220"/>
-      <c r="G15" s="220"/>
-      <c r="H15" s="220"/>
-      <c r="K15" s="220" t="s">
+      <c r="E15" s="224"/>
+      <c r="F15" s="224"/>
+      <c r="G15" s="224"/>
+      <c r="H15" s="224"/>
+      <c r="K15" s="224" t="s">
         <v>224</v>
       </c>
-      <c r="L15" s="220"/>
-      <c r="M15" s="220"/>
-      <c r="N15" s="220"/>
+      <c r="L15" s="224"/>
+      <c r="M15" s="224"/>
+      <c r="N15" s="224"/>
       <c r="O15" s="16"/>
       <c r="P15" s="36"/>
       <c r="AC15" t="s">
@@ -14578,15 +14828,15 @@
     </row>
     <row r="16" spans="3:52" x14ac:dyDescent="0.35">
       <c r="C16" s="35"/>
-      <c r="D16" s="227"/>
-      <c r="E16" s="228"/>
-      <c r="F16" s="228"/>
-      <c r="G16" s="228"/>
-      <c r="H16" s="229"/>
-      <c r="K16" s="227"/>
-      <c r="L16" s="228"/>
-      <c r="M16" s="228"/>
-      <c r="N16" s="229"/>
+      <c r="D16" s="214"/>
+      <c r="E16" s="215"/>
+      <c r="F16" s="215"/>
+      <c r="G16" s="215"/>
+      <c r="H16" s="216"/>
+      <c r="K16" s="214"/>
+      <c r="L16" s="215"/>
+      <c r="M16" s="215"/>
+      <c r="N16" s="216"/>
       <c r="O16" s="16"/>
       <c r="P16" s="36"/>
       <c r="AC16" t="s">
@@ -14607,19 +14857,19 @@
     </row>
     <row r="18" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C18" s="35"/>
-      <c r="D18" s="220" t="s">
+      <c r="D18" s="224" t="s">
         <v>225</v>
       </c>
-      <c r="E18" s="220"/>
-      <c r="F18" s="220"/>
-      <c r="G18" s="220"/>
-      <c r="H18" s="220"/>
-      <c r="K18" s="220" t="s">
+      <c r="E18" s="224"/>
+      <c r="F18" s="224"/>
+      <c r="G18" s="224"/>
+      <c r="H18" s="224"/>
+      <c r="K18" s="224" t="s">
         <v>226</v>
       </c>
-      <c r="L18" s="220"/>
-      <c r="M18" s="220"/>
-      <c r="N18" s="220"/>
+      <c r="L18" s="224"/>
+      <c r="M18" s="224"/>
+      <c r="N18" s="224"/>
       <c r="O18" s="16"/>
       <c r="P18" s="36"/>
       <c r="AC18" t="s">
@@ -14630,15 +14880,15 @@
     </row>
     <row r="19" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C19" s="35"/>
-      <c r="D19" s="227"/>
-      <c r="E19" s="228"/>
-      <c r="F19" s="228"/>
-      <c r="G19" s="228"/>
-      <c r="H19" s="229"/>
-      <c r="K19" s="227"/>
-      <c r="L19" s="228"/>
-      <c r="M19" s="228"/>
-      <c r="N19" s="229"/>
+      <c r="D19" s="214"/>
+      <c r="E19" s="215"/>
+      <c r="F19" s="215"/>
+      <c r="G19" s="215"/>
+      <c r="H19" s="216"/>
+      <c r="K19" s="214"/>
+      <c r="L19" s="215"/>
+      <c r="M19" s="215"/>
+      <c r="N19" s="216"/>
       <c r="O19" s="16"/>
       <c r="P19" s="36"/>
       <c r="AC19" t="s">
@@ -14817,21 +15067,21 @@
     </row>
     <row r="34" spans="3:16" ht="36.65" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C34" s="32"/>
-      <c r="D34" s="234" t="s">
+      <c r="D34" s="221" t="s">
         <v>203</v>
       </c>
-      <c r="E34" s="234"/>
-      <c r="F34" s="234"/>
-      <c r="G34" s="234"/>
-      <c r="H34" s="234"/>
-      <c r="I34" s="234"/>
-      <c r="J34" s="234"/>
-      <c r="K34" s="234"/>
-      <c r="L34" s="234"/>
-      <c r="M34" s="234"/>
-      <c r="N34" s="234"/>
-      <c r="O34" s="234"/>
-      <c r="P34" s="235"/>
+      <c r="E34" s="221"/>
+      <c r="F34" s="221"/>
+      <c r="G34" s="221"/>
+      <c r="H34" s="221"/>
+      <c r="I34" s="221"/>
+      <c r="J34" s="221"/>
+      <c r="K34" s="221"/>
+      <c r="L34" s="221"/>
+      <c r="M34" s="221"/>
+      <c r="N34" s="221"/>
+      <c r="O34" s="221"/>
+      <c r="P34" s="222"/>
     </row>
     <row r="35" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C35" s="35"/>
@@ -14856,19 +15106,19 @@
       <c r="H37" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="I37" s="236" t="s">
+      <c r="I37" s="223" t="s">
         <v>124</v>
       </c>
       <c r="J37" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="K37" s="236" t="s">
+      <c r="K37" s="223" t="s">
         <v>126</v>
       </c>
       <c r="L37" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="M37" s="236" t="s">
+      <c r="M37" s="223" t="s">
         <v>127</v>
       </c>
       <c r="N37" s="16" t="s">
@@ -14884,17 +15134,17 @@
         <f>J38*N38</f>
         <v>26100</v>
       </c>
-      <c r="I38" s="236"/>
+      <c r="I38" s="223"/>
       <c r="J38" s="89">
         <f>J11</f>
         <v>87000</v>
       </c>
-      <c r="K38" s="236"/>
+      <c r="K38" s="223"/>
       <c r="L38" s="89">
         <f>H31</f>
         <v>0</v>
       </c>
-      <c r="M38" s="236"/>
+      <c r="M38" s="223"/>
       <c r="N38" s="46">
         <v>0.3</v>
       </c>
@@ -14939,13 +15189,13 @@
       <c r="H43" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="I43" s="236" t="s">
+      <c r="I43" s="223" t="s">
         <v>124</v>
       </c>
       <c r="J43" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="K43" s="236" t="s">
+      <c r="K43" s="223" t="s">
         <v>129</v>
       </c>
       <c r="L43" s="16" t="s">
@@ -14961,12 +15211,12 @@
         <f>MIN(J44,L44)</f>
         <v>0</v>
       </c>
-      <c r="I44" s="236"/>
+      <c r="I44" s="223"/>
       <c r="J44" s="89">
         <f>H38</f>
         <v>26100</v>
       </c>
-      <c r="K44" s="236"/>
+      <c r="K44" s="223"/>
       <c r="L44" s="45">
         <v>0</v>
       </c>
@@ -14994,11 +15244,11 @@
     </row>
     <row r="48" spans="3:16" x14ac:dyDescent="0.35">
       <c r="C48" s="35"/>
-      <c r="H48" s="227" t="s">
+      <c r="H48" s="214" t="s">
         <v>202</v>
       </c>
-      <c r="I48" s="228"/>
-      <c r="J48" s="229"/>
+      <c r="I48" s="215"/>
+      <c r="J48" s="216"/>
       <c r="P48" s="36"/>
     </row>
     <row r="49" spans="3:16" x14ac:dyDescent="0.35">
@@ -15006,10 +15256,10 @@
       <c r="H49" s="57" t="s">
         <v>200</v>
       </c>
-      <c r="I49" s="230" t="s">
+      <c r="I49" s="217" t="s">
         <v>201</v>
       </c>
-      <c r="J49" s="231"/>
+      <c r="J49" s="218"/>
       <c r="P49" s="36"/>
     </row>
     <row r="50" spans="3:16" x14ac:dyDescent="0.35">
@@ -15017,11 +15267,11 @@
       <c r="H50" s="57">
         <v>1094</v>
       </c>
-      <c r="I50" s="232">
+      <c r="I50" s="219">
         <f>H38</f>
         <v>26100</v>
       </c>
-      <c r="J50" s="233"/>
+      <c r="J50" s="220"/>
       <c r="P50" s="36"/>
     </row>
     <row r="51" spans="3:16" x14ac:dyDescent="0.35">
@@ -15058,6 +15308,24 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C6:P6"/>
+    <mergeCell ref="D7:P7"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="K19:N19"/>
     <mergeCell ref="H48:J48"/>
     <mergeCell ref="I49:J49"/>
     <mergeCell ref="I50:J50"/>
@@ -15067,24 +15335,6 @@
     <mergeCell ref="M37:M38"/>
     <mergeCell ref="I43:I44"/>
     <mergeCell ref="K43:K44"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="C6:P6"/>
-    <mergeCell ref="D7:P7"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="J11:L11"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K19:O19" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -15238,22 +15488,22 @@
       </c>
     </row>
     <row r="6" spans="3:52" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="215" t="s">
+      <c r="C6" s="225" t="s">
         <v>261</v>
       </c>
-      <c r="D6" s="216"/>
-      <c r="E6" s="216"/>
-      <c r="F6" s="216"/>
-      <c r="G6" s="216"/>
-      <c r="H6" s="216"/>
-      <c r="I6" s="216"/>
-      <c r="J6" s="216"/>
-      <c r="K6" s="216"/>
-      <c r="L6" s="216"/>
-      <c r="M6" s="216"/>
-      <c r="N6" s="216"/>
-      <c r="O6" s="216"/>
-      <c r="P6" s="217"/>
+      <c r="D6" s="226"/>
+      <c r="E6" s="226"/>
+      <c r="F6" s="226"/>
+      <c r="G6" s="226"/>
+      <c r="H6" s="226"/>
+      <c r="I6" s="226"/>
+      <c r="J6" s="226"/>
+      <c r="K6" s="226"/>
+      <c r="L6" s="226"/>
+      <c r="M6" s="226"/>
+      <c r="N6" s="226"/>
+      <c r="O6" s="226"/>
+      <c r="P6" s="227"/>
       <c r="AC6" t="s">
         <v>145</v>
       </c>
@@ -15266,21 +15516,21 @@
     </row>
     <row r="7" spans="3:52" ht="28.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C7" s="35"/>
-      <c r="D7" s="218" t="s">
+      <c r="D7" s="228" t="s">
         <v>198</v>
       </c>
-      <c r="E7" s="218"/>
-      <c r="F7" s="218"/>
-      <c r="G7" s="218"/>
-      <c r="H7" s="218"/>
-      <c r="I7" s="218"/>
-      <c r="J7" s="218"/>
-      <c r="K7" s="218"/>
-      <c r="L7" s="218"/>
-      <c r="M7" s="218"/>
-      <c r="N7" s="218"/>
-      <c r="O7" s="218"/>
-      <c r="P7" s="219"/>
+      <c r="E7" s="228"/>
+      <c r="F7" s="228"/>
+      <c r="G7" s="228"/>
+      <c r="H7" s="228"/>
+      <c r="I7" s="228"/>
+      <c r="J7" s="228"/>
+      <c r="K7" s="228"/>
+      <c r="L7" s="228"/>
+      <c r="M7" s="228"/>
+      <c r="N7" s="228"/>
+      <c r="O7" s="228"/>
+      <c r="P7" s="229"/>
       <c r="AC7" t="s">
         <v>146</v>
       </c>
@@ -15319,20 +15569,20 @@
     </row>
     <row r="10" spans="3:52" x14ac:dyDescent="0.35">
       <c r="C10" s="35"/>
-      <c r="D10" s="220" t="s">
+      <c r="D10" s="224" t="s">
         <v>272</v>
       </c>
-      <c r="E10" s="220"/>
+      <c r="E10" s="224"/>
       <c r="F10" s="84"/>
       <c r="G10" s="84"/>
       <c r="H10" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="J10" s="221" t="s">
+      <c r="J10" s="230" t="s">
         <v>278</v>
       </c>
-      <c r="K10" s="221"/>
-      <c r="L10" s="221"/>
+      <c r="K10" s="230"/>
+      <c r="L10" s="230"/>
       <c r="M10" s="43"/>
       <c r="N10" s="16" t="s">
         <v>274</v>
@@ -15346,20 +15596,20 @@
     </row>
     <row r="11" spans="3:52" x14ac:dyDescent="0.35">
       <c r="C11" s="35"/>
-      <c r="D11" s="222" t="s">
+      <c r="D11" s="231" t="s">
         <v>280</v>
       </c>
-      <c r="E11" s="223"/>
+      <c r="E11" s="232"/>
       <c r="F11" s="47"/>
       <c r="G11" s="106"/>
       <c r="H11" s="115" t="s">
         <v>126</v>
       </c>
-      <c r="J11" s="268">
+      <c r="J11" s="266">
         <v>87000</v>
       </c>
-      <c r="K11" s="269"/>
-      <c r="L11" s="270"/>
+      <c r="K11" s="267"/>
+      <c r="L11" s="268"/>
       <c r="M11" s="83"/>
       <c r="N11" s="85">
         <v>600000</v>
@@ -15420,19 +15670,19 @@
     </row>
     <row r="15" spans="3:52" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C15" s="35"/>
-      <c r="D15" s="220" t="s">
+      <c r="D15" s="224" t="s">
         <v>227</v>
       </c>
-      <c r="E15" s="220"/>
-      <c r="F15" s="220"/>
-      <c r="G15" s="220"/>
-      <c r="H15" s="220"/>
-      <c r="K15" s="220" t="s">
+      <c r="E15" s="224"/>
+      <c r="F15" s="224"/>
+      <c r="G15" s="224"/>
+      <c r="H15" s="224"/>
+      <c r="K15" s="224" t="s">
         <v>222</v>
       </c>
-      <c r="L15" s="220"/>
-      <c r="M15" s="220"/>
-      <c r="N15" s="220"/>
+      <c r="L15" s="224"/>
+      <c r="M15" s="224"/>
+      <c r="N15" s="224"/>
       <c r="O15" s="16"/>
       <c r="P15" s="36"/>
       <c r="AC15" t="s">
@@ -15441,15 +15691,15 @@
     </row>
     <row r="16" spans="3:52" x14ac:dyDescent="0.35">
       <c r="C16" s="35"/>
-      <c r="D16" s="227"/>
-      <c r="E16" s="228"/>
-      <c r="F16" s="228"/>
-      <c r="G16" s="228"/>
-      <c r="H16" s="229"/>
-      <c r="K16" s="227"/>
-      <c r="L16" s="228"/>
-      <c r="M16" s="228"/>
-      <c r="N16" s="229"/>
+      <c r="D16" s="214"/>
+      <c r="E16" s="215"/>
+      <c r="F16" s="215"/>
+      <c r="G16" s="215"/>
+      <c r="H16" s="216"/>
+      <c r="K16" s="214"/>
+      <c r="L16" s="215"/>
+      <c r="M16" s="215"/>
+      <c r="N16" s="216"/>
       <c r="O16" s="16"/>
       <c r="P16" s="36"/>
       <c r="AC16" t="s">
@@ -15468,19 +15718,19 @@
     </row>
     <row r="18" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C18" s="35"/>
-      <c r="D18" s="220" t="s">
+      <c r="D18" s="224" t="s">
         <v>223</v>
       </c>
-      <c r="E18" s="220"/>
-      <c r="F18" s="220"/>
-      <c r="G18" s="220"/>
-      <c r="H18" s="220"/>
-      <c r="K18" s="220" t="s">
+      <c r="E18" s="224"/>
+      <c r="F18" s="224"/>
+      <c r="G18" s="224"/>
+      <c r="H18" s="224"/>
+      <c r="K18" s="224" t="s">
         <v>224</v>
       </c>
-      <c r="L18" s="220"/>
-      <c r="M18" s="220"/>
-      <c r="N18" s="220"/>
+      <c r="L18" s="224"/>
+      <c r="M18" s="224"/>
+      <c r="N18" s="224"/>
       <c r="O18" s="16"/>
       <c r="P18" s="36"/>
       <c r="AC18" t="s">
@@ -15491,15 +15741,15 @@
     </row>
     <row r="19" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C19" s="35"/>
-      <c r="D19" s="227"/>
-      <c r="E19" s="228"/>
-      <c r="F19" s="228"/>
-      <c r="G19" s="228"/>
-      <c r="H19" s="229"/>
-      <c r="K19" s="227"/>
-      <c r="L19" s="228"/>
-      <c r="M19" s="228"/>
-      <c r="N19" s="229"/>
+      <c r="D19" s="214"/>
+      <c r="E19" s="215"/>
+      <c r="F19" s="215"/>
+      <c r="G19" s="215"/>
+      <c r="H19" s="216"/>
+      <c r="K19" s="214"/>
+      <c r="L19" s="215"/>
+      <c r="M19" s="215"/>
+      <c r="N19" s="216"/>
       <c r="O19" s="16"/>
       <c r="P19" s="36"/>
       <c r="AC19" t="s">
@@ -15520,19 +15770,19 @@
     </row>
     <row r="21" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C21" s="35"/>
-      <c r="D21" s="220" t="s">
+      <c r="D21" s="224" t="s">
         <v>225</v>
       </c>
-      <c r="E21" s="220"/>
-      <c r="F21" s="220"/>
-      <c r="G21" s="220"/>
-      <c r="H21" s="220"/>
-      <c r="K21" s="220" t="s">
+      <c r="E21" s="224"/>
+      <c r="F21" s="224"/>
+      <c r="G21" s="224"/>
+      <c r="H21" s="224"/>
+      <c r="K21" s="224" t="s">
         <v>226</v>
       </c>
-      <c r="L21" s="220"/>
-      <c r="M21" s="220"/>
-      <c r="N21" s="220"/>
+      <c r="L21" s="224"/>
+      <c r="M21" s="224"/>
+      <c r="N21" s="224"/>
       <c r="O21" s="16"/>
       <c r="P21" s="36"/>
       <c r="AC21" t="s">
@@ -15543,15 +15793,15 @@
     </row>
     <row r="22" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C22" s="35"/>
-      <c r="D22" s="227"/>
-      <c r="E22" s="228"/>
-      <c r="F22" s="228"/>
-      <c r="G22" s="228"/>
-      <c r="H22" s="229"/>
-      <c r="K22" s="227"/>
-      <c r="L22" s="228"/>
-      <c r="M22" s="228"/>
-      <c r="N22" s="229"/>
+      <c r="D22" s="214"/>
+      <c r="E22" s="215"/>
+      <c r="F22" s="215"/>
+      <c r="G22" s="215"/>
+      <c r="H22" s="216"/>
+      <c r="K22" s="214"/>
+      <c r="L22" s="215"/>
+      <c r="M22" s="215"/>
+      <c r="N22" s="216"/>
       <c r="O22" s="16"/>
       <c r="P22" s="36"/>
       <c r="AC22" t="s">
@@ -15730,21 +15980,21 @@
     </row>
     <row r="37" spans="3:16" ht="36.65" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C37" s="32"/>
-      <c r="D37" s="234" t="s">
+      <c r="D37" s="221" t="s">
         <v>203</v>
       </c>
-      <c r="E37" s="234"/>
-      <c r="F37" s="234"/>
-      <c r="G37" s="234"/>
-      <c r="H37" s="234"/>
-      <c r="I37" s="234"/>
-      <c r="J37" s="234"/>
-      <c r="K37" s="234"/>
-      <c r="L37" s="234"/>
-      <c r="M37" s="234"/>
-      <c r="N37" s="234"/>
-      <c r="O37" s="234"/>
-      <c r="P37" s="235"/>
+      <c r="E37" s="221"/>
+      <c r="F37" s="221"/>
+      <c r="G37" s="221"/>
+      <c r="H37" s="221"/>
+      <c r="I37" s="221"/>
+      <c r="J37" s="221"/>
+      <c r="K37" s="221"/>
+      <c r="L37" s="221"/>
+      <c r="M37" s="221"/>
+      <c r="N37" s="221"/>
+      <c r="O37" s="221"/>
+      <c r="P37" s="222"/>
     </row>
     <row r="38" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C38" s="35"/>
@@ -15769,19 +16019,19 @@
       <c r="H40" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="I40" s="236" t="s">
+      <c r="I40" s="223" t="s">
         <v>124</v>
       </c>
       <c r="J40" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="K40" s="236" t="s">
+      <c r="K40" s="223" t="s">
         <v>126</v>
       </c>
       <c r="L40" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="M40" s="236" t="s">
+      <c r="M40" s="223" t="s">
         <v>127</v>
       </c>
       <c r="N40" s="16" t="s">
@@ -15797,17 +16047,17 @@
         <f>J41*N41</f>
         <v>26100</v>
       </c>
-      <c r="I41" s="236"/>
+      <c r="I41" s="223"/>
       <c r="J41" s="89">
         <f>J11</f>
         <v>87000</v>
       </c>
-      <c r="K41" s="236"/>
+      <c r="K41" s="223"/>
       <c r="L41" s="89">
         <f>H34</f>
         <v>0</v>
       </c>
-      <c r="M41" s="236"/>
+      <c r="M41" s="223"/>
       <c r="N41" s="46">
         <v>0.3</v>
       </c>
@@ -15852,13 +16102,13 @@
       <c r="H46" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="I46" s="236" t="s">
+      <c r="I46" s="223" t="s">
         <v>124</v>
       </c>
       <c r="J46" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="K46" s="236" t="s">
+      <c r="K46" s="223" t="s">
         <v>129</v>
       </c>
       <c r="L46" s="16" t="s">
@@ -15874,12 +16124,12 @@
         <f>MIN(J47,L47)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="236"/>
+      <c r="I47" s="223"/>
       <c r="J47" s="89">
         <f>H41</f>
         <v>26100</v>
       </c>
-      <c r="K47" s="236"/>
+      <c r="K47" s="223"/>
       <c r="L47" s="45">
         <v>0</v>
       </c>
@@ -15907,11 +16157,11 @@
     </row>
     <row r="51" spans="3:16" x14ac:dyDescent="0.35">
       <c r="C51" s="35"/>
-      <c r="H51" s="227" t="s">
+      <c r="H51" s="214" t="s">
         <v>202</v>
       </c>
-      <c r="I51" s="228"/>
-      <c r="J51" s="229"/>
+      <c r="I51" s="215"/>
+      <c r="J51" s="216"/>
       <c r="P51" s="36"/>
     </row>
     <row r="52" spans="3:16" x14ac:dyDescent="0.35">
@@ -15919,10 +16169,10 @@
       <c r="H52" s="57" t="s">
         <v>200</v>
       </c>
-      <c r="I52" s="230" t="s">
+      <c r="I52" s="217" t="s">
         <v>201</v>
       </c>
-      <c r="J52" s="231"/>
+      <c r="J52" s="218"/>
       <c r="P52" s="36"/>
     </row>
     <row r="53" spans="3:16" x14ac:dyDescent="0.35">
@@ -15930,11 +16180,11 @@
       <c r="H53" s="57">
         <v>1094</v>
       </c>
-      <c r="I53" s="232">
+      <c r="I53" s="219">
         <f>H41</f>
         <v>26100</v>
       </c>
-      <c r="J53" s="233"/>
+      <c r="J53" s="220"/>
       <c r="P53" s="36"/>
     </row>
     <row r="54" spans="3:16" x14ac:dyDescent="0.35">
@@ -15971,6 +16221,24 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C6:P6"/>
+    <mergeCell ref="D7:P7"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="K22:N22"/>
     <mergeCell ref="H51:J51"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
@@ -15980,24 +16248,6 @@
     <mergeCell ref="M40:M41"/>
     <mergeCell ref="I46:I47"/>
     <mergeCell ref="K46:K47"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="C6:P6"/>
-    <mergeCell ref="D7:P7"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="J11:L11"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F14" xr:uid="{00000000-0002-0000-0400-000000000000}">
@@ -16150,22 +16400,22 @@
       </c>
     </row>
     <row r="6" spans="3:52" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="215" t="s">
+      <c r="C6" s="225" t="s">
         <v>261</v>
       </c>
-      <c r="D6" s="216"/>
-      <c r="E6" s="216"/>
-      <c r="F6" s="216"/>
-      <c r="G6" s="216"/>
-      <c r="H6" s="216"/>
-      <c r="I6" s="216"/>
-      <c r="J6" s="216"/>
-      <c r="K6" s="216"/>
-      <c r="L6" s="216"/>
-      <c r="M6" s="216"/>
-      <c r="N6" s="216"/>
-      <c r="O6" s="216"/>
-      <c r="P6" s="217"/>
+      <c r="D6" s="226"/>
+      <c r="E6" s="226"/>
+      <c r="F6" s="226"/>
+      <c r="G6" s="226"/>
+      <c r="H6" s="226"/>
+      <c r="I6" s="226"/>
+      <c r="J6" s="226"/>
+      <c r="K6" s="226"/>
+      <c r="L6" s="226"/>
+      <c r="M6" s="226"/>
+      <c r="N6" s="226"/>
+      <c r="O6" s="226"/>
+      <c r="P6" s="227"/>
       <c r="AC6" t="s">
         <v>145</v>
       </c>
@@ -16178,21 +16428,21 @@
     </row>
     <row r="7" spans="3:52" ht="28.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C7" s="35"/>
-      <c r="D7" s="218" t="s">
+      <c r="D7" s="228" t="s">
         <v>198</v>
       </c>
-      <c r="E7" s="218"/>
-      <c r="F7" s="218"/>
-      <c r="G7" s="218"/>
-      <c r="H7" s="218"/>
-      <c r="I7" s="218"/>
-      <c r="J7" s="218"/>
-      <c r="K7" s="218"/>
-      <c r="L7" s="218"/>
-      <c r="M7" s="218"/>
-      <c r="N7" s="218"/>
-      <c r="O7" s="218"/>
-      <c r="P7" s="219"/>
+      <c r="E7" s="228"/>
+      <c r="F7" s="228"/>
+      <c r="G7" s="228"/>
+      <c r="H7" s="228"/>
+      <c r="I7" s="228"/>
+      <c r="J7" s="228"/>
+      <c r="K7" s="228"/>
+      <c r="L7" s="228"/>
+      <c r="M7" s="228"/>
+      <c r="N7" s="228"/>
+      <c r="O7" s="228"/>
+      <c r="P7" s="229"/>
       <c r="AC7" t="s">
         <v>146</v>
       </c>
@@ -16231,20 +16481,20 @@
     </row>
     <row r="10" spans="3:52" x14ac:dyDescent="0.35">
       <c r="C10" s="35"/>
-      <c r="D10" s="220" t="s">
+      <c r="D10" s="224" t="s">
         <v>191</v>
       </c>
-      <c r="E10" s="220"/>
+      <c r="E10" s="224"/>
       <c r="F10" s="84"/>
       <c r="G10" s="84"/>
       <c r="H10" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="J10" s="221" t="s">
+      <c r="J10" s="230" t="s">
         <v>228</v>
       </c>
-      <c r="K10" s="221"/>
-      <c r="L10" s="221"/>
+      <c r="K10" s="230"/>
+      <c r="L10" s="230"/>
       <c r="M10" s="43"/>
       <c r="N10" s="16" t="s">
         <v>192</v>
@@ -16258,18 +16508,18 @@
     </row>
     <row r="11" spans="3:52" x14ac:dyDescent="0.35">
       <c r="C11" s="35"/>
-      <c r="D11" s="222" t="s">
+      <c r="D11" s="231" t="s">
         <v>186</v>
       </c>
-      <c r="E11" s="223"/>
+      <c r="E11" s="232"/>
       <c r="F11" s="47"/>
       <c r="G11" s="106"/>
       <c r="H11" s="86">
         <v>20</v>
       </c>
-      <c r="J11" s="224"/>
-      <c r="K11" s="225"/>
-      <c r="L11" s="226"/>
+      <c r="J11" s="233"/>
+      <c r="K11" s="234"/>
+      <c r="L11" s="235"/>
       <c r="M11" s="83"/>
       <c r="N11" s="85">
         <v>632088.51</v>
@@ -16318,10 +16568,10 @@
     </row>
     <row r="14" spans="3:52" x14ac:dyDescent="0.35">
       <c r="C14" s="35"/>
-      <c r="D14" s="271">
+      <c r="D14" s="269">
         <v>87987</v>
       </c>
-      <c r="E14" s="272"/>
+      <c r="E14" s="270"/>
       <c r="F14" s="47"/>
       <c r="H14" s="100"/>
       <c r="I14" s="30"/>
@@ -16344,19 +16594,19 @@
     </row>
     <row r="16" spans="3:52" x14ac:dyDescent="0.35">
       <c r="C16" s="35"/>
-      <c r="D16" s="220" t="s">
+      <c r="D16" s="224" t="s">
         <v>227</v>
       </c>
-      <c r="E16" s="220"/>
-      <c r="F16" s="220"/>
-      <c r="G16" s="220"/>
-      <c r="H16" s="220"/>
-      <c r="K16" s="220" t="s">
+      <c r="E16" s="224"/>
+      <c r="F16" s="224"/>
+      <c r="G16" s="224"/>
+      <c r="H16" s="224"/>
+      <c r="K16" s="224" t="s">
         <v>222</v>
       </c>
-      <c r="L16" s="220"/>
-      <c r="M16" s="220"/>
-      <c r="N16" s="220"/>
+      <c r="L16" s="224"/>
+      <c r="M16" s="224"/>
+      <c r="N16" s="224"/>
       <c r="O16" s="16"/>
       <c r="P16" s="36"/>
       <c r="AC16" t="s">
@@ -16365,15 +16615,15 @@
     </row>
     <row r="17" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C17" s="35"/>
-      <c r="D17" s="227"/>
-      <c r="E17" s="228"/>
-      <c r="F17" s="228"/>
-      <c r="G17" s="228"/>
-      <c r="H17" s="229"/>
-      <c r="K17" s="227"/>
-      <c r="L17" s="228"/>
-      <c r="M17" s="228"/>
-      <c r="N17" s="229"/>
+      <c r="D17" s="214"/>
+      <c r="E17" s="215"/>
+      <c r="F17" s="215"/>
+      <c r="G17" s="215"/>
+      <c r="H17" s="216"/>
+      <c r="K17" s="214"/>
+      <c r="L17" s="215"/>
+      <c r="M17" s="215"/>
+      <c r="N17" s="216"/>
       <c r="O17" s="16"/>
       <c r="P17" s="36"/>
       <c r="AC17" t="s">
@@ -16392,19 +16642,19 @@
     </row>
     <row r="19" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C19" s="35"/>
-      <c r="D19" s="220" t="s">
+      <c r="D19" s="224" t="s">
         <v>223</v>
       </c>
-      <c r="E19" s="220"/>
-      <c r="F19" s="220"/>
-      <c r="G19" s="220"/>
-      <c r="H19" s="220"/>
-      <c r="K19" s="220" t="s">
+      <c r="E19" s="224"/>
+      <c r="F19" s="224"/>
+      <c r="G19" s="224"/>
+      <c r="H19" s="224"/>
+      <c r="K19" s="224" t="s">
         <v>224</v>
       </c>
-      <c r="L19" s="220"/>
-      <c r="M19" s="220"/>
-      <c r="N19" s="220"/>
+      <c r="L19" s="224"/>
+      <c r="M19" s="224"/>
+      <c r="N19" s="224"/>
       <c r="O19" s="16"/>
       <c r="P19" s="36"/>
       <c r="AC19" t="s">
@@ -16415,15 +16665,15 @@
     </row>
     <row r="20" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C20" s="35"/>
-      <c r="D20" s="227"/>
-      <c r="E20" s="228"/>
-      <c r="F20" s="228"/>
-      <c r="G20" s="228"/>
-      <c r="H20" s="229"/>
-      <c r="K20" s="227"/>
-      <c r="L20" s="228"/>
-      <c r="M20" s="228"/>
-      <c r="N20" s="229"/>
+      <c r="D20" s="214"/>
+      <c r="E20" s="215"/>
+      <c r="F20" s="215"/>
+      <c r="G20" s="215"/>
+      <c r="H20" s="216"/>
+      <c r="K20" s="214"/>
+      <c r="L20" s="215"/>
+      <c r="M20" s="215"/>
+      <c r="N20" s="216"/>
       <c r="O20" s="16"/>
       <c r="P20" s="36"/>
       <c r="AC20" t="s">
@@ -16444,19 +16694,19 @@
     </row>
     <row r="22" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C22" s="35"/>
-      <c r="D22" s="220" t="s">
+      <c r="D22" s="224" t="s">
         <v>225</v>
       </c>
-      <c r="E22" s="220"/>
-      <c r="F22" s="220"/>
-      <c r="G22" s="220"/>
-      <c r="H22" s="220"/>
-      <c r="K22" s="220" t="s">
+      <c r="E22" s="224"/>
+      <c r="F22" s="224"/>
+      <c r="G22" s="224"/>
+      <c r="H22" s="224"/>
+      <c r="K22" s="224" t="s">
         <v>226</v>
       </c>
-      <c r="L22" s="220"/>
-      <c r="M22" s="220"/>
-      <c r="N22" s="220"/>
+      <c r="L22" s="224"/>
+      <c r="M22" s="224"/>
+      <c r="N22" s="224"/>
       <c r="O22" s="16"/>
       <c r="P22" s="36"/>
       <c r="AC22" t="s">
@@ -16467,15 +16717,15 @@
     </row>
     <row r="23" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C23" s="35"/>
-      <c r="D23" s="227"/>
-      <c r="E23" s="228"/>
-      <c r="F23" s="228"/>
-      <c r="G23" s="228"/>
-      <c r="H23" s="229"/>
-      <c r="K23" s="227"/>
-      <c r="L23" s="228"/>
-      <c r="M23" s="228"/>
-      <c r="N23" s="229"/>
+      <c r="D23" s="214"/>
+      <c r="E23" s="215"/>
+      <c r="F23" s="215"/>
+      <c r="G23" s="215"/>
+      <c r="H23" s="216"/>
+      <c r="K23" s="214"/>
+      <c r="L23" s="215"/>
+      <c r="M23" s="215"/>
+      <c r="N23" s="216"/>
       <c r="O23" s="16"/>
       <c r="P23" s="36"/>
       <c r="AC23" t="s">
@@ -16652,21 +16902,21 @@
     </row>
     <row r="38" spans="3:16" ht="36.65" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C38" s="32"/>
-      <c r="D38" s="234" t="s">
+      <c r="D38" s="221" t="s">
         <v>203</v>
       </c>
-      <c r="E38" s="234"/>
-      <c r="F38" s="234"/>
-      <c r="G38" s="234"/>
-      <c r="H38" s="234"/>
-      <c r="I38" s="234"/>
-      <c r="J38" s="234"/>
-      <c r="K38" s="234"/>
-      <c r="L38" s="234"/>
-      <c r="M38" s="234"/>
-      <c r="N38" s="234"/>
-      <c r="O38" s="234"/>
-      <c r="P38" s="235"/>
+      <c r="E38" s="221"/>
+      <c r="F38" s="221"/>
+      <c r="G38" s="221"/>
+      <c r="H38" s="221"/>
+      <c r="I38" s="221"/>
+      <c r="J38" s="221"/>
+      <c r="K38" s="221"/>
+      <c r="L38" s="221"/>
+      <c r="M38" s="221"/>
+      <c r="N38" s="221"/>
+      <c r="O38" s="221"/>
+      <c r="P38" s="222"/>
     </row>
     <row r="39" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C39" s="35"/>
@@ -16691,19 +16941,19 @@
       <c r="H41" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="I41" s="236" t="s">
+      <c r="I41" s="223" t="s">
         <v>124</v>
       </c>
       <c r="J41" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="K41" s="236" t="s">
+      <c r="K41" s="223" t="s">
         <v>126</v>
       </c>
       <c r="L41" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="M41" s="236" t="s">
+      <c r="M41" s="223" t="s">
         <v>127</v>
       </c>
       <c r="N41" s="16" t="s">
@@ -16719,17 +16969,17 @@
         <f>(L42-J42)*N42</f>
         <v>113213.29</v>
       </c>
-      <c r="I42" s="236"/>
+      <c r="I42" s="223"/>
       <c r="J42" s="89">
         <f>N35</f>
         <v>66022.06</v>
       </c>
-      <c r="K42" s="236"/>
+      <c r="K42" s="223"/>
       <c r="L42" s="89">
         <f>H35</f>
         <v>632088.51</v>
       </c>
-      <c r="M42" s="236"/>
+      <c r="M42" s="223"/>
       <c r="N42" s="46">
         <v>0.2</v>
       </c>
@@ -16774,13 +17024,13 @@
       <c r="H47" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="I47" s="236" t="s">
+      <c r="I47" s="223" t="s">
         <v>124</v>
       </c>
       <c r="J47" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="K47" s="236" t="s">
+      <c r="K47" s="223" t="s">
         <v>129</v>
       </c>
       <c r="L47" s="16" t="s">
@@ -16796,12 +17046,12 @@
         <f>MIN(J48,L48)</f>
         <v>0</v>
       </c>
-      <c r="I48" s="236"/>
+      <c r="I48" s="223"/>
       <c r="J48" s="89">
         <f>H42</f>
         <v>113213.29</v>
       </c>
-      <c r="K48" s="236"/>
+      <c r="K48" s="223"/>
       <c r="L48" s="45">
         <v>0</v>
       </c>
@@ -16829,11 +17079,11 @@
     </row>
     <row r="52" spans="3:16" x14ac:dyDescent="0.35">
       <c r="C52" s="35"/>
-      <c r="H52" s="227" t="s">
+      <c r="H52" s="214" t="s">
         <v>202</v>
       </c>
-      <c r="I52" s="228"/>
-      <c r="J52" s="229"/>
+      <c r="I52" s="215"/>
+      <c r="J52" s="216"/>
       <c r="P52" s="36"/>
     </row>
     <row r="53" spans="3:16" x14ac:dyDescent="0.35">
@@ -16841,10 +17091,10 @@
       <c r="H53" s="57" t="s">
         <v>200</v>
       </c>
-      <c r="I53" s="230" t="s">
+      <c r="I53" s="217" t="s">
         <v>201</v>
       </c>
-      <c r="J53" s="231"/>
+      <c r="J53" s="218"/>
       <c r="P53" s="36"/>
     </row>
     <row r="54" spans="3:16" x14ac:dyDescent="0.35">
@@ -16852,8 +17102,8 @@
       <c r="H54" s="57">
         <v>1094</v>
       </c>
-      <c r="I54" s="232"/>
-      <c r="J54" s="233"/>
+      <c r="I54" s="219"/>
+      <c r="J54" s="220"/>
       <c r="P54" s="36"/>
     </row>
     <row r="55" spans="3:16" x14ac:dyDescent="0.35">
@@ -16893,23 +17143,6 @@
     <sortCondition ref="AC2:AC21"/>
   </sortState>
   <mergeCells count="28">
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="D38:P38"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="D23:H23"/>
     <mergeCell ref="C6:P6"/>
     <mergeCell ref="D7:P7"/>
     <mergeCell ref="D10:E10"/>
@@ -16921,6 +17154,23 @@
     <mergeCell ref="K16:N16"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D14:E14"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="D38:P38"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="K47:K48"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F14 D11:E12" xr:uid="{00000000-0002-0000-0500-000000000000}">
@@ -16984,20 +17234,20 @@
       <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C3" s="273" t="s">
+      <c r="C3" s="271" t="s">
         <v>214</v>
       </c>
-      <c r="D3" s="273"/>
-      <c r="E3" s="273"/>
-      <c r="F3" s="273"/>
-      <c r="I3" s="274" t="s">
+      <c r="D3" s="271"/>
+      <c r="E3" s="271"/>
+      <c r="F3" s="271"/>
+      <c r="I3" s="272" t="s">
         <v>215</v>
       </c>
-      <c r="J3" s="274"/>
-      <c r="K3" s="274"/>
-      <c r="L3" s="274"/>
-      <c r="M3" s="274"/>
-      <c r="N3" s="274"/>
+      <c r="J3" s="272"/>
+      <c r="K3" s="272"/>
+      <c r="L3" s="272"/>
+      <c r="M3" s="272"/>
+      <c r="N3" s="272"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C4" s="66" t="s">
@@ -17672,20 +17922,20 @@
       <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C3" s="273" t="s">
+      <c r="C3" s="271" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="273"/>
-      <c r="E3" s="273"/>
-      <c r="F3" s="273"/>
-      <c r="I3" s="274" t="s">
+      <c r="D3" s="271"/>
+      <c r="E3" s="271"/>
+      <c r="F3" s="271"/>
+      <c r="I3" s="272" t="s">
         <v>98</v>
       </c>
-      <c r="J3" s="274"/>
-      <c r="K3" s="274"/>
-      <c r="L3" s="274"/>
-      <c r="M3" s="274"/>
-      <c r="N3" s="274"/>
+      <c r="J3" s="272"/>
+      <c r="K3" s="272"/>
+      <c r="L3" s="272"/>
+      <c r="M3" s="272"/>
+      <c r="N3" s="272"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C4" s="16" t="s">
@@ -18296,8 +18546,8 @@
       </c>
     </row>
     <row r="2" spans="3:29" x14ac:dyDescent="0.35">
-      <c r="R2" s="275"/>
-      <c r="S2" s="275"/>
+      <c r="R2" s="273"/>
+      <c r="S2" s="273"/>
       <c r="AB2" t="s">
         <v>233</v>
       </c>
@@ -18348,22 +18598,22 @@
     </row>
     <row r="7" spans="3:29" ht="21" x14ac:dyDescent="0.5">
       <c r="C7" s="35"/>
-      <c r="D7" s="218" t="s">
+      <c r="D7" s="228" t="s">
         <v>229</v>
       </c>
-      <c r="E7" s="218"/>
-      <c r="F7" s="218"/>
-      <c r="G7" s="218"/>
-      <c r="H7" s="218"/>
-      <c r="I7" s="218"/>
-      <c r="J7" s="218"/>
-      <c r="K7" s="218"/>
-      <c r="L7" s="218"/>
-      <c r="M7" s="218"/>
-      <c r="N7" s="218"/>
-      <c r="O7" s="218"/>
-      <c r="P7" s="218"/>
-      <c r="Q7" s="219"/>
+      <c r="E7" s="228"/>
+      <c r="F7" s="228"/>
+      <c r="G7" s="228"/>
+      <c r="H7" s="228"/>
+      <c r="I7" s="228"/>
+      <c r="J7" s="228"/>
+      <c r="K7" s="228"/>
+      <c r="L7" s="228"/>
+      <c r="M7" s="228"/>
+      <c r="N7" s="228"/>
+      <c r="O7" s="228"/>
+      <c r="P7" s="228"/>
+      <c r="Q7" s="229"/>
     </row>
     <row r="8" spans="3:29" x14ac:dyDescent="0.35">
       <c r="C8" s="35"/>
@@ -18375,10 +18625,10 @@
     </row>
     <row r="10" spans="3:29" x14ac:dyDescent="0.35">
       <c r="C10" s="35"/>
-      <c r="D10" s="220" t="s">
+      <c r="D10" s="224" t="s">
         <v>241</v>
       </c>
-      <c r="E10" s="220"/>
+      <c r="E10" s="224"/>
       <c r="F10" s="16"/>
       <c r="G10" s="39" t="s">
         <v>230</v>
@@ -18390,20 +18640,20 @@
       <c r="L10" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="N10" s="220" t="s">
+      <c r="N10" s="224" t="s">
         <v>133</v>
       </c>
-      <c r="O10" s="220"/>
-      <c r="P10" s="220"/>
+      <c r="O10" s="224"/>
+      <c r="P10" s="224"/>
       <c r="Q10" s="75"/>
       <c r="R10" s="16"/>
     </row>
     <row r="11" spans="3:29" x14ac:dyDescent="0.35">
       <c r="C11" s="35"/>
-      <c r="D11" s="227" t="s">
+      <c r="D11" s="214" t="s">
         <v>233</v>
       </c>
-      <c r="E11" s="229"/>
+      <c r="E11" s="216"/>
       <c r="F11" s="31"/>
       <c r="G11" s="3" t="s">
         <v>233</v>
@@ -18411,9 +18661,9 @@
       <c r="H11" s="16"/>
       <c r="J11" s="74"/>
       <c r="L11" s="2"/>
-      <c r="N11" s="227"/>
-      <c r="O11" s="228"/>
-      <c r="P11" s="229"/>
+      <c r="N11" s="214"/>
+      <c r="O11" s="215"/>
+      <c r="P11" s="216"/>
       <c r="Q11" s="75"/>
       <c r="R11" s="16"/>
     </row>
@@ -18427,24 +18677,24 @@
     </row>
     <row r="14" spans="3:29" x14ac:dyDescent="0.35">
       <c r="C14" s="35"/>
-      <c r="D14" s="275" t="s">
+      <c r="D14" s="273" t="s">
         <v>239</v>
       </c>
-      <c r="E14" s="275"/>
-      <c r="F14" s="275"/>
-      <c r="G14" s="275"/>
+      <c r="E14" s="273"/>
+      <c r="F14" s="273"/>
+      <c r="G14" s="273"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="220" t="s">
+      <c r="I14" s="224" t="s">
         <v>247</v>
       </c>
-      <c r="J14" s="220"/>
-      <c r="K14" s="220"/>
-      <c r="M14" s="220" t="s">
+      <c r="J14" s="224"/>
+      <c r="K14" s="224"/>
+      <c r="M14" s="224" t="s">
         <v>236</v>
       </c>
-      <c r="N14" s="220"/>
-      <c r="O14" s="220"/>
-      <c r="P14" s="220"/>
+      <c r="N14" s="224"/>
+      <c r="O14" s="224"/>
+      <c r="P14" s="224"/>
       <c r="Q14" s="75"/>
     </row>
     <row r="15" spans="3:29" x14ac:dyDescent="0.35">
@@ -18457,10 +18707,10 @@
       <c r="I15" s="63"/>
       <c r="J15" s="64"/>
       <c r="K15" s="30"/>
-      <c r="M15" s="227"/>
-      <c r="N15" s="228"/>
-      <c r="O15" s="228"/>
-      <c r="P15" s="229"/>
+      <c r="M15" s="214"/>
+      <c r="N15" s="215"/>
+      <c r="O15" s="215"/>
+      <c r="P15" s="216"/>
       <c r="Q15" s="75"/>
     </row>
     <row r="16" spans="3:29" x14ac:dyDescent="0.35">
@@ -18479,20 +18729,20 @@
     </row>
     <row r="18" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C18" s="35"/>
-      <c r="D18" s="220" t="s">
+      <c r="D18" s="224" t="s">
         <v>237</v>
       </c>
-      <c r="E18" s="220"/>
-      <c r="G18" s="220" t="s">
+      <c r="E18" s="224"/>
+      <c r="G18" s="224" t="s">
         <v>244</v>
       </c>
-      <c r="H18" s="220"/>
-      <c r="I18" s="220"/>
+      <c r="H18" s="224"/>
+      <c r="I18" s="224"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="220" t="s">
+      <c r="K18" s="224" t="s">
         <v>245</v>
       </c>
-      <c r="L18" s="220"/>
+      <c r="L18" s="224"/>
       <c r="M18" s="16"/>
       <c r="N18" t="s">
         <v>135</v>
@@ -18504,14 +18754,14 @@
     </row>
     <row r="19" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C19" s="35"/>
-      <c r="D19" s="279"/>
-      <c r="E19" s="280"/>
-      <c r="G19" s="227"/>
-      <c r="H19" s="228"/>
-      <c r="I19" s="229"/>
+      <c r="D19" s="274"/>
+      <c r="E19" s="275"/>
+      <c r="G19" s="214"/>
+      <c r="H19" s="215"/>
+      <c r="I19" s="216"/>
       <c r="J19" s="16"/>
-      <c r="K19" s="279"/>
-      <c r="L19" s="280"/>
+      <c r="K19" s="274"/>
+      <c r="L19" s="275"/>
       <c r="M19" s="76"/>
       <c r="N19" s="2"/>
       <c r="P19" s="2"/>
@@ -18532,38 +18782,38 @@
     </row>
     <row r="22" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C22" s="35"/>
-      <c r="D22" s="220" t="s">
+      <c r="D22" s="224" t="s">
         <v>137</v>
       </c>
-      <c r="E22" s="220"/>
-      <c r="F22" s="220"/>
-      <c r="H22" s="220" t="s">
+      <c r="E22" s="224"/>
+      <c r="F22" s="224"/>
+      <c r="H22" s="224" t="s">
         <v>242</v>
       </c>
-      <c r="I22" s="220"/>
-      <c r="J22" s="220"/>
+      <c r="I22" s="224"/>
+      <c r="J22" s="224"/>
       <c r="L22" s="39" t="s">
         <v>243</v>
       </c>
       <c r="M22" s="39"/>
-      <c r="O22" s="275" t="s">
+      <c r="O22" s="273" t="s">
         <v>139</v>
       </c>
-      <c r="P22" s="275"/>
+      <c r="P22" s="273"/>
       <c r="Q22" s="36"/>
     </row>
     <row r="23" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C23" s="35"/>
-      <c r="D23" s="227"/>
-      <c r="E23" s="228"/>
-      <c r="F23" s="229"/>
-      <c r="H23" s="227"/>
-      <c r="I23" s="228"/>
-      <c r="J23" s="229"/>
-      <c r="L23" s="227"/>
-      <c r="M23" s="229"/>
-      <c r="O23" s="227"/>
-      <c r="P23" s="229"/>
+      <c r="D23" s="214"/>
+      <c r="E23" s="215"/>
+      <c r="F23" s="216"/>
+      <c r="H23" s="214"/>
+      <c r="I23" s="215"/>
+      <c r="J23" s="216"/>
+      <c r="L23" s="214"/>
+      <c r="M23" s="216"/>
+      <c r="O23" s="214"/>
+      <c r="P23" s="216"/>
       <c r="Q23" s="36"/>
     </row>
     <row r="24" spans="3:17" x14ac:dyDescent="0.35">
@@ -18651,12 +18901,13 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="D7:Q7"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="C6:Q6"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="O23:P23"/>
     <mergeCell ref="D19:E19"/>
@@ -18668,13 +18919,12 @@
     <mergeCell ref="G19:I19"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="H22:J22"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="D7:Q7"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="C6:Q6"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:L18"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:E11" xr:uid="{00000000-0002-0000-0800-000000000000}">
